--- a/data_printer.xlsx
+++ b/data_printer.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GamErick\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GamErick\Desktop\Nova pasta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180C7666-0CC2-41D7-9B91-051D06A738A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C46724ED-56E9-468A-B9F2-0E6CB3818F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{A8AA41B5-7AA1-4FF7-A9B8-54B8A4E1AF28}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A8AA41B5-7AA1-4FF7-A9B8-54B8A4E1AF28}"/>
   </bookViews>
   <sheets>
     <sheet name="PRINTERS_INVENTORY" sheetId="1" r:id="rId1"/>
@@ -3111,8 +3111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD39631B-97B8-405A-AA43-14CDFBC77F92}">
   <dimension ref="A1:J336"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E317" sqref="E317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -3368,7 +3368,7 @@
         <v>35</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>29</v>
@@ -4091,7 +4091,7 @@
         <v>98</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>69</v>
@@ -5509,7 +5509,7 @@
         <v>194</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>87</v>
@@ -5541,7 +5541,7 @@
         <v>196</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>87</v>
@@ -6479,7 +6479,7 @@
         <v>262</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>87</v>
@@ -6511,7 +6511,7 @@
         <v>263</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>87</v>
@@ -6543,7 +6543,7 @@
         <v>264</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>87</v>
@@ -6575,7 +6575,7 @@
         <v>265</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>87</v>
@@ -12835,7 +12835,7 @@
         <v>713</v>
       </c>
       <c r="E314" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F314" s="1" t="s">
         <v>714</v>
@@ -12867,7 +12867,7 @@
         <v>713</v>
       </c>
       <c r="E315" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F315" s="1" t="s">
         <v>714</v>
@@ -12899,7 +12899,7 @@
         <v>713</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F316" s="1" t="s">
         <v>714</v>
@@ -12931,7 +12931,7 @@
         <v>713</v>
       </c>
       <c r="E317" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F317" s="1" t="s">
         <v>714</v>
@@ -13590,7 +13590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6771508-02DF-4FAC-B7A7-A6278CE7AE5B}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>

--- a/data_printer.xlsx
+++ b/data_printer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GamErick\Desktop\Nova pasta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C46724ED-56E9-468A-B9F2-0E6CB3818F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6990BF3A-6CEC-4601-8BF4-1034A114FD00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A8AA41B5-7AA1-4FF7-A9B8-54B8A4E1AF28}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2715" uniqueCount="749">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2715" uniqueCount="757">
   <si>
     <t>INDICE</t>
   </si>
@@ -2100,9 +2100,6 @@
     <t>HOSPITAL SÃO VICENTE DE PAULA</t>
   </si>
   <si>
-    <t xml:space="preserve">IMPRESSORA INSTALADA EM 06/01/2025 - SUBSTITUIU UMA DA MESMA QUE QUEIMOU COM PICO DE LUZ QUE TEVE NO DIA 04/01/2025; </t>
-  </si>
-  <si>
     <t>U67030J3N175308</t>
   </si>
   <si>
@@ -2284,6 +2281,33 @@
   </si>
   <si>
     <t>PORTE RICOH 5201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMPRESSORA INSTALADA EM 06/xx/2024 - SUBSTITUIU UMA DA MESMA QUE QUEIMOU COM PICO DE LUZ QUE TEVE NO DIA 04/01/2025; </t>
+  </si>
+  <si>
+    <t>U67030J3N175295</t>
+  </si>
+  <si>
+    <t>F_SUBPREFEITURA IGUABINHA</t>
+  </si>
+  <si>
+    <t>on_01</t>
+  </si>
+  <si>
+    <t>IMPRESSORA INSTALADA EM 10/03/2025;</t>
+  </si>
+  <si>
+    <t>U67030J3N175291</t>
+  </si>
+  <si>
+    <t>F_CASA AGRICULTURA CAD INCRA</t>
+  </si>
+  <si>
+    <t>F_CASA AGRICULTURA ADM</t>
+  </si>
+  <si>
+    <t>U67030H3N150832</t>
   </si>
 </sst>
 </file>
@@ -3111,8 +3135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD39631B-97B8-405A-AA43-14CDFBC77F92}">
   <dimension ref="A1:J336"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E317" sqref="E317"/>
+    <sheetView tabSelected="1" topLeftCell="C298" workbookViewId="0">
+      <selection activeCell="F315" sqref="D313:F315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -12498,7 +12522,7 @@
         <v>104</v>
       </c>
       <c r="J303" s="3" t="s">
-        <v>687</v>
+        <v>748</v>
       </c>
     </row>
     <row r="304" spans="1:10">
@@ -12512,13 +12536,13 @@
         <v>11</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E304" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F304" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="G304" s="2" t="s">
         <v>15</v>
@@ -12530,7 +12554,7 @@
         <v>16</v>
       </c>
       <c r="J304" s="3" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="305" spans="1:10">
@@ -12544,13 +12568,13 @@
         <v>11</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E305" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F305" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="G305" s="2" t="s">
         <v>15</v>
@@ -12562,7 +12586,7 @@
         <v>16</v>
       </c>
       <c r="J305" s="3" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="306" spans="1:10">
@@ -12576,13 +12600,13 @@
         <v>11</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E306" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F306" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G306" s="2" t="s">
         <v>15</v>
@@ -12594,7 +12618,7 @@
         <v>16</v>
       </c>
       <c r="J306" s="3" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="307" spans="1:10">
@@ -12608,13 +12632,13 @@
         <v>11</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E307" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F307" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="G307" s="2" t="s">
         <v>15</v>
@@ -12626,7 +12650,7 @@
         <v>16</v>
       </c>
       <c r="J307" s="3" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="308" spans="1:10">
@@ -12640,13 +12664,13 @@
         <v>11</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E308" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F308" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="G308" s="2" t="s">
         <v>15</v>
@@ -12658,7 +12682,7 @@
         <v>16</v>
       </c>
       <c r="J308" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="309" spans="1:10">
@@ -12672,13 +12696,13 @@
         <v>11</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E309" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F309" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="G309" s="2" t="s">
         <v>15</v>
@@ -12687,10 +12711,10 @@
         <v>45702</v>
       </c>
       <c r="I309" s="9" t="s">
+        <v>702</v>
+      </c>
+      <c r="J309" s="3" t="s">
         <v>703</v>
-      </c>
-      <c r="J309" s="3" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="310" spans="1:10">
@@ -12704,13 +12728,13 @@
         <v>11</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E310" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F310" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="G310" s="2" t="s">
         <v>15</v>
@@ -12719,10 +12743,10 @@
         <v>45702</v>
       </c>
       <c r="I310" s="9" t="s">
+        <v>702</v>
+      </c>
+      <c r="J310" s="3" t="s">
         <v>703</v>
-      </c>
-      <c r="J310" s="3" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="311" spans="1:10">
@@ -12736,13 +12760,13 @@
         <v>11</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E311" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F311" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="G311" s="2" t="s">
         <v>15</v>
@@ -12751,10 +12775,10 @@
         <v>45702</v>
       </c>
       <c r="I311" s="9" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="J311" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="312" spans="1:10">
@@ -12768,13 +12792,13 @@
         <v>11</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E312" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F312" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G312" s="2" t="s">
         <v>15</v>
@@ -12786,7 +12810,7 @@
         <v>16</v>
       </c>
       <c r="J312" s="3" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="313" spans="1:10">
@@ -12800,25 +12824,25 @@
         <v>11</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>713</v>
+        <v>749</v>
       </c>
       <c r="E313" s="1" t="s">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="F313" s="1" t="s">
-        <v>714</v>
+        <v>750</v>
       </c>
       <c r="G313" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H313" s="9">
-        <v>45653</v>
+        <v>45726</v>
       </c>
       <c r="I313" s="9" t="s">
-        <v>16</v>
+        <v>751</v>
       </c>
       <c r="J313" s="3" t="s">
-        <v>715</v>
+        <v>752</v>
       </c>
     </row>
     <row r="314" spans="1:10">
@@ -12832,25 +12856,25 @@
         <v>11</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>713</v>
+        <v>753</v>
       </c>
       <c r="E314" s="1" t="s">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="F314" s="1" t="s">
-        <v>714</v>
+        <v>754</v>
       </c>
       <c r="G314" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H314" s="9">
-        <v>45653</v>
+        <v>45726</v>
       </c>
       <c r="I314" s="9" t="s">
-        <v>16</v>
+        <v>751</v>
       </c>
       <c r="J314" s="3" t="s">
-        <v>715</v>
+        <v>752</v>
       </c>
     </row>
     <row r="315" spans="1:10">
@@ -12864,25 +12888,25 @@
         <v>11</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>713</v>
+        <v>756</v>
       </c>
       <c r="E315" s="1" t="s">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="F315" s="1" t="s">
-        <v>714</v>
+        <v>755</v>
       </c>
       <c r="G315" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H315" s="9">
-        <v>45653</v>
+        <v>45726</v>
       </c>
       <c r="I315" s="9" t="s">
-        <v>16</v>
+        <v>751</v>
       </c>
       <c r="J315" s="3" t="s">
-        <v>715</v>
+        <v>752</v>
       </c>
     </row>
     <row r="316" spans="1:10">
@@ -12896,13 +12920,13 @@
         <v>11</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E316" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F316" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="G316" s="2" t="s">
         <v>15</v>
@@ -12914,7 +12938,7 @@
         <v>16</v>
       </c>
       <c r="J316" s="3" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="317" spans="1:10">
@@ -12928,13 +12952,13 @@
         <v>11</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E317" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F317" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="G317" s="2" t="s">
         <v>15</v>
@@ -12946,7 +12970,7 @@
         <v>16</v>
       </c>
       <c r="J317" s="3" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="318" spans="1:10">
@@ -12960,13 +12984,13 @@
         <v>11</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E318" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F318" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="G318" s="2" t="s">
         <v>15</v>
@@ -12978,7 +13002,7 @@
         <v>16</v>
       </c>
       <c r="J318" s="3" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="319" spans="1:10">
@@ -12992,13 +13016,13 @@
         <v>11</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E319" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F319" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="G319" s="2" t="s">
         <v>15</v>
@@ -13010,7 +13034,7 @@
         <v>16</v>
       </c>
       <c r="J319" s="3" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="320" spans="1:10">
@@ -13024,13 +13048,13 @@
         <v>11</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E320" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F320" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="G320" s="2" t="s">
         <v>15</v>
@@ -13042,7 +13066,7 @@
         <v>16</v>
       </c>
       <c r="J320" s="3" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="321" spans="1:10">
@@ -13056,13 +13080,13 @@
         <v>11</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E321" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F321" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="G321" s="2" t="s">
         <v>15</v>
@@ -13074,7 +13098,7 @@
         <v>16</v>
       </c>
       <c r="J321" s="3" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="322" spans="1:10">
@@ -13088,13 +13112,13 @@
         <v>11</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E322" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F322" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="G322" s="2" t="s">
         <v>15</v>
@@ -13106,7 +13130,7 @@
         <v>16</v>
       </c>
       <c r="J322" s="3" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="323" spans="1:10">
@@ -13120,13 +13144,13 @@
         <v>11</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E323" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F323" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="G323" s="2" t="s">
         <v>15</v>
@@ -13138,7 +13162,7 @@
         <v>16</v>
       </c>
       <c r="J323" s="3" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="324" spans="1:10">
@@ -13152,13 +13176,13 @@
         <v>11</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E324" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F324" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="G324" s="2" t="s">
         <v>15</v>
@@ -13170,7 +13194,7 @@
         <v>16</v>
       </c>
       <c r="J324" s="3" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="325" spans="1:10">
@@ -13184,13 +13208,13 @@
         <v>11</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E325" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F325" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="G325" s="2" t="s">
         <v>15</v>
@@ -13202,7 +13226,7 @@
         <v>16</v>
       </c>
       <c r="J325" s="3" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="326" spans="1:10">
@@ -13216,13 +13240,13 @@
         <v>11</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E326" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F326" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="G326" s="2" t="s">
         <v>15</v>
@@ -13234,7 +13258,7 @@
         <v>16</v>
       </c>
       <c r="J326" s="3" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="327" spans="1:10">
@@ -13248,13 +13272,13 @@
         <v>11</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E327" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F327" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="G327" s="2" t="s">
         <v>15</v>
@@ -13266,7 +13290,7 @@
         <v>16</v>
       </c>
       <c r="J327" s="3" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="328" spans="1:10">
@@ -13280,13 +13304,13 @@
         <v>11</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E328" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F328" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="G328" s="2" t="s">
         <v>15</v>
@@ -13298,7 +13322,7 @@
         <v>16</v>
       </c>
       <c r="J328" s="3" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="329" spans="1:10">
@@ -13312,13 +13336,13 @@
         <v>11</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E329" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F329" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="G329" s="2" t="s">
         <v>15</v>
@@ -13330,7 +13354,7 @@
         <v>16</v>
       </c>
       <c r="J329" s="3" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="330" spans="1:10">
@@ -13344,13 +13368,13 @@
         <v>11</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E330" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F330" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="G330" s="2" t="s">
         <v>15</v>
@@ -13362,7 +13386,7 @@
         <v>16</v>
       </c>
       <c r="J330" s="3" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="331" spans="1:10">
@@ -13376,13 +13400,13 @@
         <v>11</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E331" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F331" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="G331" s="2" t="s">
         <v>15</v>
@@ -13394,7 +13418,7 @@
         <v>16</v>
       </c>
       <c r="J331" s="3" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="332" spans="1:10">
@@ -13408,13 +13432,13 @@
         <v>11</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E332" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F332" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="G332" s="2" t="s">
         <v>15</v>
@@ -13426,7 +13450,7 @@
         <v>16</v>
       </c>
       <c r="J332" s="3" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="333" spans="1:10">
@@ -13440,13 +13464,13 @@
         <v>11</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E333" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F333" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="G333" s="2" t="s">
         <v>15</v>
@@ -13458,7 +13482,7 @@
         <v>16</v>
       </c>
       <c r="J333" s="3" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="334" spans="1:10">
@@ -13472,13 +13496,13 @@
         <v>11</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E334" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F334" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="G334" s="2" t="s">
         <v>15</v>
@@ -13490,7 +13514,7 @@
         <v>16</v>
       </c>
       <c r="J334" s="3" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="335" spans="1:10">
@@ -13504,13 +13528,13 @@
         <v>11</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E335" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F335" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="G335" s="2" t="s">
         <v>15</v>
@@ -13522,7 +13546,7 @@
         <v>16</v>
       </c>
       <c r="J335" s="3" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="336" spans="1:10">
@@ -13536,13 +13560,13 @@
         <v>11</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E336" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F336" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="G336" s="2" t="s">
         <v>15</v>
@@ -13554,7 +13578,7 @@
         <v>16</v>
       </c>
       <c r="J336" s="3" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
   </sheetData>
@@ -13605,33 +13629,33 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>715</v>
+      </c>
+      <c r="B1" t="s">
         <v>716</v>
-      </c>
-      <c r="B1" t="s">
-        <v>717</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>717</v>
+      </c>
+      <c r="E1" t="s">
         <v>718</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>719</v>
-      </c>
-      <c r="F1" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
+        <v>720</v>
+      </c>
+      <c r="B2" t="s">
         <v>721</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>722</v>
-      </c>
-      <c r="C2" t="s">
-        <v>723</v>
       </c>
       <c r="D2">
         <v>1885</v>
@@ -13642,13 +13666,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>720</v>
+      </c>
+      <c r="B3" t="s">
         <v>721</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>722</v>
-      </c>
-      <c r="C3" t="s">
-        <v>723</v>
       </c>
       <c r="D3">
         <v>1880</v>
@@ -13659,13 +13683,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>720</v>
+      </c>
+      <c r="B4" t="s">
         <v>721</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>722</v>
-      </c>
-      <c r="C4" t="s">
-        <v>723</v>
       </c>
       <c r="D4">
         <v>1881</v>
@@ -13676,13 +13700,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
+        <v>720</v>
+      </c>
+      <c r="B5" t="s">
         <v>721</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>722</v>
-      </c>
-      <c r="C5" t="s">
-        <v>723</v>
       </c>
       <c r="D5">
         <v>1890</v>
@@ -13693,13 +13717,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
+        <v>720</v>
+      </c>
+      <c r="B6" t="s">
         <v>721</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>722</v>
-      </c>
-      <c r="C6" t="s">
-        <v>723</v>
       </c>
       <c r="D6">
         <v>1878</v>
@@ -13710,13 +13734,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
+        <v>720</v>
+      </c>
+      <c r="B7" t="s">
         <v>721</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>722</v>
-      </c>
-      <c r="C7" t="s">
-        <v>723</v>
       </c>
       <c r="D7">
         <v>1883</v>
@@ -13727,16 +13751,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
+        <v>720</v>
+      </c>
+      <c r="B8" t="s">
         <v>721</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>722</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" s="24" t="s">
         <v>723</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>724</v>
       </c>
       <c r="F8" s="23">
         <v>1</v>
@@ -13744,13 +13768,13 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
+        <v>720</v>
+      </c>
+      <c r="B9" t="s">
         <v>721</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>722</v>
-      </c>
-      <c r="C9" t="s">
-        <v>723</v>
       </c>
       <c r="D9">
         <v>1889</v>
@@ -13761,13 +13785,13 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
+        <v>720</v>
+      </c>
+      <c r="B10" t="s">
         <v>721</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>722</v>
-      </c>
-      <c r="C10" t="s">
-        <v>723</v>
       </c>
       <c r="D10">
         <v>1879</v>
@@ -13778,13 +13802,13 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
+        <v>720</v>
+      </c>
+      <c r="B11" t="s">
         <v>721</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>722</v>
-      </c>
-      <c r="C11" t="s">
-        <v>723</v>
       </c>
       <c r="D11">
         <v>1891</v>
@@ -13795,13 +13819,13 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
+        <v>720</v>
+      </c>
+      <c r="B12" t="s">
         <v>721</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>722</v>
-      </c>
-      <c r="C12" t="s">
-        <v>723</v>
       </c>
       <c r="D12">
         <v>1891</v>
@@ -13812,16 +13836,16 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
+        <v>720</v>
+      </c>
+      <c r="B13" t="s">
         <v>721</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>722</v>
       </c>
-      <c r="C13" t="s">
-        <v>723</v>
-      </c>
       <c r="D13" s="24" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F13" s="23">
         <v>1</v>
@@ -13829,13 +13853,13 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
+        <v>720</v>
+      </c>
+      <c r="B14" t="s">
         <v>721</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>722</v>
-      </c>
-      <c r="C14" t="s">
-        <v>723</v>
       </c>
       <c r="D14">
         <v>1894</v>
@@ -13846,19 +13870,19 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
+        <v>725</v>
+      </c>
+      <c r="B15" t="s">
         <v>726</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>727</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>728</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>729</v>
-      </c>
-      <c r="E15" t="s">
-        <v>730</v>
       </c>
       <c r="F15" s="23">
         <v>17</v>
@@ -13866,19 +13890,19 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B16" t="s">
+        <v>730</v>
+      </c>
+      <c r="C16" t="s">
         <v>731</v>
       </c>
-      <c r="C16" t="s">
-        <v>732</v>
-      </c>
       <c r="D16" t="s">
+        <v>728</v>
+      </c>
+      <c r="E16" t="s">
         <v>729</v>
-      </c>
-      <c r="E16" t="s">
-        <v>730</v>
       </c>
       <c r="F16" s="23">
         <v>4</v>
@@ -13886,19 +13910,19 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B17" t="s">
+        <v>732</v>
+      </c>
+      <c r="C17" t="s">
         <v>733</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>734</v>
       </c>
-      <c r="D17" t="s">
-        <v>735</v>
-      </c>
       <c r="E17" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F17" s="23">
         <v>45</v>
@@ -13906,19 +13930,19 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B18" t="s">
+        <v>732</v>
+      </c>
+      <c r="C18" t="s">
         <v>733</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>734</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>735</v>
-      </c>
-      <c r="E18" t="s">
-        <v>736</v>
       </c>
       <c r="F18" s="23">
         <v>12</v>
@@ -13926,19 +13950,19 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B19" t="s">
+        <v>732</v>
+      </c>
+      <c r="C19" t="s">
         <v>733</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>734</v>
       </c>
-      <c r="D19" t="s">
-        <v>735</v>
-      </c>
       <c r="E19" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="F19" s="23">
         <v>14</v>
@@ -13946,19 +13970,19 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B20" t="s">
+        <v>732</v>
+      </c>
+      <c r="C20" t="s">
         <v>733</v>
       </c>
-      <c r="C20" t="s">
-        <v>734</v>
-      </c>
       <c r="D20" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E20" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="F20" s="23">
         <v>4</v>
@@ -13966,19 +13990,19 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B21" t="s">
+        <v>732</v>
+      </c>
+      <c r="C21" t="s">
         <v>733</v>
       </c>
-      <c r="C21" t="s">
-        <v>734</v>
-      </c>
       <c r="D21" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E21" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F21" s="23">
         <v>6</v>
@@ -13986,19 +14010,19 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
+        <v>738</v>
+      </c>
+      <c r="B22" t="s">
         <v>739</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>740</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>741</v>
       </c>
-      <c r="D22" t="s">
-        <v>742</v>
-      </c>
       <c r="E22" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="F22" s="23">
         <v>3</v>
@@ -14006,19 +14030,19 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
+        <v>742</v>
+      </c>
+      <c r="B23" t="s">
+        <v>739</v>
+      </c>
+      <c r="C23" t="s">
+        <v>740</v>
+      </c>
+      <c r="D23" t="s">
         <v>743</v>
       </c>
-      <c r="B23" t="s">
-        <v>740</v>
-      </c>
-      <c r="C23" t="s">
-        <v>741</v>
-      </c>
-      <c r="D23" t="s">
-        <v>744</v>
-      </c>
       <c r="E23" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="F23" s="23">
         <v>14</v>
@@ -14026,19 +14050,19 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B24" t="s">
+        <v>739</v>
+      </c>
+      <c r="C24" t="s">
         <v>740</v>
       </c>
-      <c r="C24" t="s">
-        <v>741</v>
-      </c>
       <c r="D24" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E24" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="F24" s="23">
         <v>13</v>
@@ -14046,19 +14070,19 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
+        <v>744</v>
+      </c>
+      <c r="B25" t="s">
+        <v>739</v>
+      </c>
+      <c r="C25" t="s">
+        <v>740</v>
+      </c>
+      <c r="D25" t="s">
         <v>745</v>
       </c>
-      <c r="B25" t="s">
-        <v>740</v>
-      </c>
-      <c r="C25" t="s">
-        <v>741</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>746</v>
-      </c>
-      <c r="E25" t="s">
-        <v>747</v>
       </c>
       <c r="F25" s="23">
         <v>2</v>
@@ -14066,19 +14090,19 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
+        <v>738</v>
+      </c>
+      <c r="B26" t="s">
         <v>739</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>740</v>
       </c>
-      <c r="C26" t="s">
-        <v>741</v>
-      </c>
       <c r="D26" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E26" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="F26" s="23">
         <v>1</v>

--- a/data_printer.xlsx
+++ b/data_printer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GamErick\Desktop\Nova pasta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6990BF3A-6CEC-4601-8BF4-1034A114FD00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FBD0346-4855-49A0-8B46-2CCDEC1FFEE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A8AA41B5-7AA1-4FF7-A9B8-54B8A4E1AF28}"/>
   </bookViews>
@@ -2136,9 +2136,6 @@
     <t>SEDUC - HOTEL</t>
   </si>
   <si>
-    <t>IMPRESSORA INSTALADA EM 14/01/2025;</t>
-  </si>
-  <si>
     <t>U67030H3N150837</t>
   </si>
   <si>
@@ -2308,6 +2305,9 @@
   </si>
   <si>
     <t>U67030H3N150832</t>
+  </si>
+  <si>
+    <t>IMPRESSORA INSTALADA EM 14/01/2025; Retirada do hotel seduc com 383 copias de uso no dia 11/03/2025</t>
   </si>
 </sst>
 </file>
@@ -3135,8 +3135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD39631B-97B8-405A-AA43-14CDFBC77F92}">
   <dimension ref="A1:J336"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C298" workbookViewId="0">
-      <selection activeCell="F315" sqref="D313:F315"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="J308" sqref="J308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -3929,7 +3929,7 @@
         <v>83</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>69</v>
@@ -3961,7 +3961,7 @@
         <v>85</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>69</v>
@@ -3990,7 +3990,7 @@
         <v>86</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>87</v>
@@ -4019,7 +4019,7 @@
         <v>88</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>69</v>
@@ -5344,7 +5344,7 @@
         <v>181</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>69</v>
@@ -5408,7 +5408,7 @@
         <v>185</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>87</v>
@@ -6631,7 +6631,7 @@
         <v>266</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>87</v>
@@ -6663,7 +6663,7 @@
         <v>267</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>87</v>
@@ -6695,7 +6695,7 @@
         <v>268</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>87</v>
@@ -6727,7 +6727,7 @@
         <v>269</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>87</v>
@@ -6759,7 +6759,7 @@
         <v>270</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>87</v>
@@ -6791,7 +6791,7 @@
         <v>271</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>87</v>
@@ -6823,7 +6823,7 @@
         <v>272</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>87</v>
@@ -6855,7 +6855,7 @@
         <v>273</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>87</v>
@@ -7445,7 +7445,7 @@
         <v>316</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>87</v>
@@ -8024,7 +8024,7 @@
         <v>366</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>87</v>
@@ -8895,7 +8895,7 @@
         <v>412</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F188" s="1" t="s">
         <v>69</v>
@@ -8924,7 +8924,7 @@
         <v>413</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F189" s="1" t="s">
         <v>87</v>
@@ -9132,7 +9132,7 @@
         <v>430</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F196" s="1" t="s">
         <v>87</v>
@@ -11067,7 +11067,7 @@
         <v>571</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F258" s="1" t="s">
         <v>29</v>
@@ -12522,7 +12522,7 @@
         <v>104</v>
       </c>
       <c r="J303" s="3" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="304" spans="1:10">
@@ -12682,7 +12682,7 @@
         <v>16</v>
       </c>
       <c r="J308" s="3" t="s">
-        <v>699</v>
+        <v>756</v>
       </c>
     </row>
     <row r="309" spans="1:10">
@@ -12696,13 +12696,13 @@
         <v>11</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E309" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F309" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G309" s="2" t="s">
         <v>15</v>
@@ -12711,10 +12711,10 @@
         <v>45702</v>
       </c>
       <c r="I309" s="9" t="s">
+        <v>701</v>
+      </c>
+      <c r="J309" s="3" t="s">
         <v>702</v>
-      </c>
-      <c r="J309" s="3" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="310" spans="1:10">
@@ -12728,13 +12728,13 @@
         <v>11</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E310" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F310" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G310" s="2" t="s">
         <v>15</v>
@@ -12743,10 +12743,10 @@
         <v>45702</v>
       </c>
       <c r="I310" s="9" t="s">
+        <v>701</v>
+      </c>
+      <c r="J310" s="3" t="s">
         <v>702</v>
-      </c>
-      <c r="J310" s="3" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="311" spans="1:10">
@@ -12760,13 +12760,13 @@
         <v>11</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E311" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F311" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="G311" s="2" t="s">
         <v>15</v>
@@ -12775,10 +12775,10 @@
         <v>45702</v>
       </c>
       <c r="I311" s="9" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="J311" s="3" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="312" spans="1:10">
@@ -12792,13 +12792,13 @@
         <v>11</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E312" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F312" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="G312" s="2" t="s">
         <v>15</v>
@@ -12810,7 +12810,7 @@
         <v>16</v>
       </c>
       <c r="J312" s="3" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="313" spans="1:10">
@@ -12824,13 +12824,13 @@
         <v>11</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E313" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F313" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="G313" s="2" t="s">
         <v>15</v>
@@ -12839,10 +12839,10 @@
         <v>45726</v>
       </c>
       <c r="I313" s="9" t="s">
+        <v>750</v>
+      </c>
+      <c r="J313" s="3" t="s">
         <v>751</v>
-      </c>
-      <c r="J313" s="3" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="314" spans="1:10">
@@ -12856,13 +12856,13 @@
         <v>11</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E314" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F314" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="G314" s="2" t="s">
         <v>15</v>
@@ -12871,10 +12871,10 @@
         <v>45726</v>
       </c>
       <c r="I314" s="9" t="s">
+        <v>750</v>
+      </c>
+      <c r="J314" s="3" t="s">
         <v>751</v>
-      </c>
-      <c r="J314" s="3" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="315" spans="1:10">
@@ -12888,13 +12888,13 @@
         <v>11</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E315" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F315" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="G315" s="2" t="s">
         <v>15</v>
@@ -12903,10 +12903,10 @@
         <v>45726</v>
       </c>
       <c r="I315" s="9" t="s">
+        <v>750</v>
+      </c>
+      <c r="J315" s="3" t="s">
         <v>751</v>
-      </c>
-      <c r="J315" s="3" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="316" spans="1:10">
@@ -12920,13 +12920,13 @@
         <v>11</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E316" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F316" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="G316" s="2" t="s">
         <v>15</v>
@@ -12938,7 +12938,7 @@
         <v>16</v>
       </c>
       <c r="J316" s="3" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="317" spans="1:10">
@@ -12952,13 +12952,13 @@
         <v>11</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E317" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F317" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="G317" s="2" t="s">
         <v>15</v>
@@ -12970,7 +12970,7 @@
         <v>16</v>
       </c>
       <c r="J317" s="3" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="318" spans="1:10">
@@ -12984,13 +12984,13 @@
         <v>11</v>
       </c>
       <c r="D318" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="E318" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F318" s="1" t="s">
         <v>712</v>
-      </c>
-      <c r="E318" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F318" s="1" t="s">
-        <v>713</v>
       </c>
       <c r="G318" s="2" t="s">
         <v>15</v>
@@ -13002,7 +13002,7 @@
         <v>16</v>
       </c>
       <c r="J318" s="3" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="319" spans="1:10">
@@ -13016,13 +13016,13 @@
         <v>11</v>
       </c>
       <c r="D319" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="E319" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F319" s="1" t="s">
         <v>712</v>
-      </c>
-      <c r="E319" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F319" s="1" t="s">
-        <v>713</v>
       </c>
       <c r="G319" s="2" t="s">
         <v>15</v>
@@ -13034,7 +13034,7 @@
         <v>16</v>
       </c>
       <c r="J319" s="3" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="320" spans="1:10">
@@ -13048,13 +13048,13 @@
         <v>11</v>
       </c>
       <c r="D320" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="E320" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F320" s="1" t="s">
         <v>712</v>
-      </c>
-      <c r="E320" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F320" s="1" t="s">
-        <v>713</v>
       </c>
       <c r="G320" s="2" t="s">
         <v>15</v>
@@ -13066,7 +13066,7 @@
         <v>16</v>
       </c>
       <c r="J320" s="3" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="321" spans="1:10">
@@ -13080,13 +13080,13 @@
         <v>11</v>
       </c>
       <c r="D321" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="E321" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F321" s="1" t="s">
         <v>712</v>
-      </c>
-      <c r="E321" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F321" s="1" t="s">
-        <v>713</v>
       </c>
       <c r="G321" s="2" t="s">
         <v>15</v>
@@ -13098,7 +13098,7 @@
         <v>16</v>
       </c>
       <c r="J321" s="3" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="322" spans="1:10">
@@ -13112,13 +13112,13 @@
         <v>11</v>
       </c>
       <c r="D322" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="E322" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F322" s="1" t="s">
         <v>712</v>
-      </c>
-      <c r="E322" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F322" s="1" t="s">
-        <v>713</v>
       </c>
       <c r="G322" s="2" t="s">
         <v>15</v>
@@ -13130,7 +13130,7 @@
         <v>16</v>
       </c>
       <c r="J322" s="3" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="323" spans="1:10">
@@ -13144,13 +13144,13 @@
         <v>11</v>
       </c>
       <c r="D323" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="E323" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F323" s="1" t="s">
         <v>712</v>
-      </c>
-      <c r="E323" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F323" s="1" t="s">
-        <v>713</v>
       </c>
       <c r="G323" s="2" t="s">
         <v>15</v>
@@ -13162,7 +13162,7 @@
         <v>16</v>
       </c>
       <c r="J323" s="3" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="324" spans="1:10">
@@ -13176,13 +13176,13 @@
         <v>11</v>
       </c>
       <c r="D324" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="E324" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F324" s="1" t="s">
         <v>712</v>
-      </c>
-      <c r="E324" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F324" s="1" t="s">
-        <v>713</v>
       </c>
       <c r="G324" s="2" t="s">
         <v>15</v>
@@ -13194,7 +13194,7 @@
         <v>16</v>
       </c>
       <c r="J324" s="3" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="325" spans="1:10">
@@ -13208,13 +13208,13 @@
         <v>11</v>
       </c>
       <c r="D325" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="E325" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F325" s="1" t="s">
         <v>712</v>
-      </c>
-      <c r="E325" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F325" s="1" t="s">
-        <v>713</v>
       </c>
       <c r="G325" s="2" t="s">
         <v>15</v>
@@ -13226,7 +13226,7 @@
         <v>16</v>
       </c>
       <c r="J325" s="3" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="326" spans="1:10">
@@ -13240,13 +13240,13 @@
         <v>11</v>
       </c>
       <c r="D326" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="E326" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F326" s="1" t="s">
         <v>712</v>
-      </c>
-      <c r="E326" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F326" s="1" t="s">
-        <v>713</v>
       </c>
       <c r="G326" s="2" t="s">
         <v>15</v>
@@ -13258,7 +13258,7 @@
         <v>16</v>
       </c>
       <c r="J326" s="3" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="327" spans="1:10">
@@ -13272,13 +13272,13 @@
         <v>11</v>
       </c>
       <c r="D327" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="E327" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F327" s="1" t="s">
         <v>712</v>
-      </c>
-      <c r="E327" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F327" s="1" t="s">
-        <v>713</v>
       </c>
       <c r="G327" s="2" t="s">
         <v>15</v>
@@ -13290,7 +13290,7 @@
         <v>16</v>
       </c>
       <c r="J327" s="3" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="328" spans="1:10">
@@ -13304,13 +13304,13 @@
         <v>11</v>
       </c>
       <c r="D328" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="E328" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F328" s="1" t="s">
         <v>712</v>
-      </c>
-      <c r="E328" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F328" s="1" t="s">
-        <v>713</v>
       </c>
       <c r="G328" s="2" t="s">
         <v>15</v>
@@ -13322,7 +13322,7 @@
         <v>16</v>
       </c>
       <c r="J328" s="3" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="329" spans="1:10">
@@ -13336,13 +13336,13 @@
         <v>11</v>
       </c>
       <c r="D329" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="E329" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F329" s="1" t="s">
         <v>712</v>
-      </c>
-      <c r="E329" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F329" s="1" t="s">
-        <v>713</v>
       </c>
       <c r="G329" s="2" t="s">
         <v>15</v>
@@ -13354,7 +13354,7 @@
         <v>16</v>
       </c>
       <c r="J329" s="3" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="330" spans="1:10">
@@ -13368,13 +13368,13 @@
         <v>11</v>
       </c>
       <c r="D330" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="E330" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F330" s="1" t="s">
         <v>712</v>
-      </c>
-      <c r="E330" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F330" s="1" t="s">
-        <v>713</v>
       </c>
       <c r="G330" s="2" t="s">
         <v>15</v>
@@ -13386,7 +13386,7 @@
         <v>16</v>
       </c>
       <c r="J330" s="3" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="331" spans="1:10">
@@ -13400,13 +13400,13 @@
         <v>11</v>
       </c>
       <c r="D331" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="E331" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F331" s="1" t="s">
         <v>712</v>
-      </c>
-      <c r="E331" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F331" s="1" t="s">
-        <v>713</v>
       </c>
       <c r="G331" s="2" t="s">
         <v>15</v>
@@ -13418,7 +13418,7 @@
         <v>16</v>
       </c>
       <c r="J331" s="3" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="332" spans="1:10">
@@ -13432,13 +13432,13 @@
         <v>11</v>
       </c>
       <c r="D332" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="E332" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F332" s="1" t="s">
         <v>712</v>
-      </c>
-      <c r="E332" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F332" s="1" t="s">
-        <v>713</v>
       </c>
       <c r="G332" s="2" t="s">
         <v>15</v>
@@ -13450,7 +13450,7 @@
         <v>16</v>
       </c>
       <c r="J332" s="3" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="333" spans="1:10">
@@ -13464,13 +13464,13 @@
         <v>11</v>
       </c>
       <c r="D333" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="E333" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F333" s="1" t="s">
         <v>712</v>
-      </c>
-      <c r="E333" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F333" s="1" t="s">
-        <v>713</v>
       </c>
       <c r="G333" s="2" t="s">
         <v>15</v>
@@ -13482,7 +13482,7 @@
         <v>16</v>
       </c>
       <c r="J333" s="3" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="334" spans="1:10">
@@ -13496,13 +13496,13 @@
         <v>11</v>
       </c>
       <c r="D334" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="E334" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F334" s="1" t="s">
         <v>712</v>
-      </c>
-      <c r="E334" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F334" s="1" t="s">
-        <v>713</v>
       </c>
       <c r="G334" s="2" t="s">
         <v>15</v>
@@ -13514,7 +13514,7 @@
         <v>16</v>
       </c>
       <c r="J334" s="3" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="335" spans="1:10">
@@ -13528,13 +13528,13 @@
         <v>11</v>
       </c>
       <c r="D335" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="E335" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F335" s="1" t="s">
         <v>712</v>
-      </c>
-      <c r="E335" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F335" s="1" t="s">
-        <v>713</v>
       </c>
       <c r="G335" s="2" t="s">
         <v>15</v>
@@ -13546,7 +13546,7 @@
         <v>16</v>
       </c>
       <c r="J335" s="3" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="336" spans="1:10">
@@ -13560,13 +13560,13 @@
         <v>11</v>
       </c>
       <c r="D336" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="E336" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F336" s="1" t="s">
         <v>712</v>
-      </c>
-      <c r="E336" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F336" s="1" t="s">
-        <v>713</v>
       </c>
       <c r="G336" s="2" t="s">
         <v>15</v>
@@ -13578,7 +13578,7 @@
         <v>16</v>
       </c>
       <c r="J336" s="3" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
   </sheetData>
@@ -13629,33 +13629,33 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>714</v>
+      </c>
+      <c r="B1" t="s">
         <v>715</v>
-      </c>
-      <c r="B1" t="s">
-        <v>716</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>716</v>
+      </c>
+      <c r="E1" t="s">
         <v>717</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>718</v>
-      </c>
-      <c r="F1" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
+        <v>719</v>
+      </c>
+      <c r="B2" t="s">
         <v>720</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>721</v>
-      </c>
-      <c r="C2" t="s">
-        <v>722</v>
       </c>
       <c r="D2">
         <v>1885</v>
@@ -13666,13 +13666,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>719</v>
+      </c>
+      <c r="B3" t="s">
         <v>720</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>721</v>
-      </c>
-      <c r="C3" t="s">
-        <v>722</v>
       </c>
       <c r="D3">
         <v>1880</v>
@@ -13683,13 +13683,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>719</v>
+      </c>
+      <c r="B4" t="s">
         <v>720</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>721</v>
-      </c>
-      <c r="C4" t="s">
-        <v>722</v>
       </c>
       <c r="D4">
         <v>1881</v>
@@ -13700,13 +13700,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
+        <v>719</v>
+      </c>
+      <c r="B5" t="s">
         <v>720</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>721</v>
-      </c>
-      <c r="C5" t="s">
-        <v>722</v>
       </c>
       <c r="D5">
         <v>1890</v>
@@ -13717,13 +13717,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
+        <v>719</v>
+      </c>
+      <c r="B6" t="s">
         <v>720</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>721</v>
-      </c>
-      <c r="C6" t="s">
-        <v>722</v>
       </c>
       <c r="D6">
         <v>1878</v>
@@ -13734,13 +13734,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
+        <v>719</v>
+      </c>
+      <c r="B7" t="s">
         <v>720</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>721</v>
-      </c>
-      <c r="C7" t="s">
-        <v>722</v>
       </c>
       <c r="D7">
         <v>1883</v>
@@ -13751,16 +13751,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
+        <v>719</v>
+      </c>
+      <c r="B8" t="s">
         <v>720</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>721</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" s="24" t="s">
         <v>722</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>723</v>
       </c>
       <c r="F8" s="23">
         <v>1</v>
@@ -13768,13 +13768,13 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
+        <v>719</v>
+      </c>
+      <c r="B9" t="s">
         <v>720</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>721</v>
-      </c>
-      <c r="C9" t="s">
-        <v>722</v>
       </c>
       <c r="D9">
         <v>1889</v>
@@ -13785,13 +13785,13 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
+        <v>719</v>
+      </c>
+      <c r="B10" t="s">
         <v>720</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>721</v>
-      </c>
-      <c r="C10" t="s">
-        <v>722</v>
       </c>
       <c r="D10">
         <v>1879</v>
@@ -13802,13 +13802,13 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
+        <v>719</v>
+      </c>
+      <c r="B11" t="s">
         <v>720</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>721</v>
-      </c>
-      <c r="C11" t="s">
-        <v>722</v>
       </c>
       <c r="D11">
         <v>1891</v>
@@ -13819,13 +13819,13 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
+        <v>719</v>
+      </c>
+      <c r="B12" t="s">
         <v>720</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>721</v>
-      </c>
-      <c r="C12" t="s">
-        <v>722</v>
       </c>
       <c r="D12">
         <v>1891</v>
@@ -13836,16 +13836,16 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
+        <v>719</v>
+      </c>
+      <c r="B13" t="s">
         <v>720</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>721</v>
       </c>
-      <c r="C13" t="s">
-        <v>722</v>
-      </c>
       <c r="D13" s="24" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="F13" s="23">
         <v>1</v>
@@ -13853,13 +13853,13 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
+        <v>719</v>
+      </c>
+      <c r="B14" t="s">
         <v>720</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>721</v>
-      </c>
-      <c r="C14" t="s">
-        <v>722</v>
       </c>
       <c r="D14">
         <v>1894</v>
@@ -13870,19 +13870,19 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
+        <v>724</v>
+      </c>
+      <c r="B15" t="s">
         <v>725</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>726</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>727</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>728</v>
-      </c>
-      <c r="E15" t="s">
-        <v>729</v>
       </c>
       <c r="F15" s="23">
         <v>17</v>
@@ -13890,19 +13890,19 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B16" t="s">
+        <v>729</v>
+      </c>
+      <c r="C16" t="s">
         <v>730</v>
       </c>
-      <c r="C16" t="s">
-        <v>731</v>
-      </c>
       <c r="D16" t="s">
+        <v>727</v>
+      </c>
+      <c r="E16" t="s">
         <v>728</v>
-      </c>
-      <c r="E16" t="s">
-        <v>729</v>
       </c>
       <c r="F16" s="23">
         <v>4</v>
@@ -13910,19 +13910,19 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B17" t="s">
+        <v>731</v>
+      </c>
+      <c r="C17" t="s">
         <v>732</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>733</v>
       </c>
-      <c r="D17" t="s">
-        <v>734</v>
-      </c>
       <c r="E17" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F17" s="23">
         <v>45</v>
@@ -13930,19 +13930,19 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B18" t="s">
+        <v>731</v>
+      </c>
+      <c r="C18" t="s">
         <v>732</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>733</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>734</v>
-      </c>
-      <c r="E18" t="s">
-        <v>735</v>
       </c>
       <c r="F18" s="23">
         <v>12</v>
@@ -13950,19 +13950,19 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B19" t="s">
+        <v>731</v>
+      </c>
+      <c r="C19" t="s">
         <v>732</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>733</v>
       </c>
-      <c r="D19" t="s">
-        <v>734</v>
-      </c>
       <c r="E19" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F19" s="23">
         <v>14</v>
@@ -13970,19 +13970,19 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B20" t="s">
+        <v>731</v>
+      </c>
+      <c r="C20" t="s">
         <v>732</v>
       </c>
-      <c r="C20" t="s">
-        <v>733</v>
-      </c>
       <c r="D20" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E20" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F20" s="23">
         <v>4</v>
@@ -13990,19 +13990,19 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B21" t="s">
+        <v>731</v>
+      </c>
+      <c r="C21" t="s">
         <v>732</v>
       </c>
-      <c r="C21" t="s">
-        <v>733</v>
-      </c>
       <c r="D21" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E21" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F21" s="23">
         <v>6</v>
@@ -14010,19 +14010,19 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
+        <v>737</v>
+      </c>
+      <c r="B22" t="s">
         <v>738</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>739</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>740</v>
       </c>
-      <c r="D22" t="s">
-        <v>741</v>
-      </c>
       <c r="E22" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F22" s="23">
         <v>3</v>
@@ -14030,19 +14030,19 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
+        <v>741</v>
+      </c>
+      <c r="B23" t="s">
+        <v>738</v>
+      </c>
+      <c r="C23" t="s">
+        <v>739</v>
+      </c>
+      <c r="D23" t="s">
         <v>742</v>
       </c>
-      <c r="B23" t="s">
-        <v>739</v>
-      </c>
-      <c r="C23" t="s">
-        <v>740</v>
-      </c>
-      <c r="D23" t="s">
-        <v>743</v>
-      </c>
       <c r="E23" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F23" s="23">
         <v>14</v>
@@ -14050,19 +14050,19 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B24" t="s">
+        <v>738</v>
+      </c>
+      <c r="C24" t="s">
         <v>739</v>
       </c>
-      <c r="C24" t="s">
-        <v>740</v>
-      </c>
       <c r="D24" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E24" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F24" s="23">
         <v>13</v>
@@ -14070,19 +14070,19 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
+        <v>743</v>
+      </c>
+      <c r="B25" t="s">
+        <v>738</v>
+      </c>
+      <c r="C25" t="s">
+        <v>739</v>
+      </c>
+      <c r="D25" t="s">
         <v>744</v>
       </c>
-      <c r="B25" t="s">
-        <v>739</v>
-      </c>
-      <c r="C25" t="s">
-        <v>740</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>745</v>
-      </c>
-      <c r="E25" t="s">
-        <v>746</v>
       </c>
       <c r="F25" s="23">
         <v>2</v>
@@ -14090,19 +14090,19 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
+        <v>737</v>
+      </c>
+      <c r="B26" t="s">
         <v>738</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>739</v>
       </c>
-      <c r="C26" t="s">
-        <v>740</v>
-      </c>
       <c r="D26" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E26" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="F26" s="23">
         <v>1</v>

--- a/data_printer.xlsx
+++ b/data_printer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GamErick\Desktop\Nova pasta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FBD0346-4855-49A0-8B46-2CCDEC1FFEE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F00E76-8204-4F07-AF10-B215C9767D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A8AA41B5-7AA1-4FF7-A9B8-54B8A4E1AF28}"/>
   </bookViews>
@@ -3135,8 +3135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD39631B-97B8-405A-AA43-14CDFBC77F92}">
   <dimension ref="A1:J336"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="J308" sqref="J308"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -4240,7 +4240,7 @@
         <v>109</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>69</v>
@@ -4493,7 +4493,7 @@
         <v>128</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>69</v>
@@ -4525,7 +4525,7 @@
         <v>131</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>69</v>
@@ -4618,7 +4618,7 @@
         <v>138</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>69</v>
@@ -4650,7 +4650,7 @@
         <v>141</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>69</v>
@@ -4682,7 +4682,7 @@
         <v>143</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>69</v>
@@ -4714,7 +4714,7 @@
         <v>145</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>69</v>
@@ -4743,7 +4743,7 @@
         <v>146</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>69</v>
@@ -4772,7 +4772,7 @@
         <v>147</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>69</v>
@@ -4804,7 +4804,7 @@
         <v>150</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>69</v>
@@ -4833,7 +4833,7 @@
         <v>152</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>69</v>
@@ -4862,7 +4862,7 @@
         <v>153</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>69</v>
@@ -4891,7 +4891,7 @@
         <v>154</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>69</v>
@@ -4920,7 +4920,7 @@
         <v>155</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>69</v>
@@ -4949,7 +4949,7 @@
         <v>156</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>69</v>
@@ -4978,7 +4978,7 @@
         <v>157</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>69</v>
@@ -5010,7 +5010,7 @@
         <v>159</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>69</v>
@@ -5042,7 +5042,7 @@
         <v>162</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>69</v>
@@ -5071,7 +5071,7 @@
         <v>164</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>69</v>
@@ -5103,7 +5103,7 @@
         <v>167</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>69</v>
@@ -5132,7 +5132,7 @@
         <v>169</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>69</v>
@@ -5161,7 +5161,7 @@
         <v>170</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>69</v>
@@ -5190,7 +5190,7 @@
         <v>171</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>69</v>
@@ -5219,7 +5219,7 @@
         <v>173</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>69</v>
@@ -5283,7 +5283,7 @@
         <v>150</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>69</v>
@@ -5376,7 +5376,7 @@
         <v>183</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>69</v>
@@ -5440,7 +5440,7 @@
         <v>188</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>69</v>
@@ -5469,7 +5469,7 @@
         <v>190</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>69</v>
@@ -5501,7 +5501,7 @@
         <v>192</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>69</v>
@@ -8117,7 +8117,7 @@
         <v>376</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>69</v>
@@ -10326,7 +10326,7 @@
         <v>513</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F234" s="1" t="s">
         <v>69</v>
@@ -10942,7 +10942,7 @@
         <v>561</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F254" s="1" t="s">
         <v>562</v>

--- a/data_printer.xlsx
+++ b/data_printer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GamErick\Desktop\Nova pasta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F00E76-8204-4F07-AF10-B215C9767D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FEDB6F-AE0C-4FC3-8100-5D96DF573D01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A8AA41B5-7AA1-4FF7-A9B8-54B8A4E1AF28}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2715" uniqueCount="757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2715" uniqueCount="759">
   <si>
     <t>INDICE</t>
   </si>
@@ -1383,9 +1383,6 @@
     <t>ESCOLA BILÍNGUE SUELI AMARAL</t>
   </si>
   <si>
-    <t>REPARO MECANISMO DA BANDEJA;  ESTAVA F_PAÇO;</t>
-  </si>
-  <si>
     <t>G986XC26716</t>
   </si>
   <si>
@@ -2133,9 +2130,6 @@
     <t>U67030J3N175298</t>
   </si>
   <si>
-    <t>SEDUC - HOTEL</t>
-  </si>
-  <si>
     <t>U67030H3N150837</t>
   </si>
   <si>
@@ -2308,13 +2302,25 @@
   </si>
   <si>
     <t>IMPRESSORA INSTALADA EM 14/01/2025; Retirada do hotel seduc com 383 copias de uso no dia 11/03/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REPARO MECANISMO DA BANDEJA;  ESTAVA F_PAÇO; RETIRADA BELINGUE BANDEJA 12/03/2025; </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ESCOLA MARGARIDA TRINDADE</t>
+  </si>
+  <si>
+    <t>U67030J3N175274</t>
+  </si>
+  <si>
+    <t>IMPRESSORA INSTALADA EM 12/03/2025;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2344,6 +2350,12 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -3135,8 +3147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD39631B-97B8-405A-AA43-14CDFBC77F92}">
   <dimension ref="A1:J336"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C93" sqref="C93"/>
+    <sheetView tabSelected="1" topLeftCell="A295" workbookViewId="0">
+      <selection activeCell="J316" sqref="J316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -3865,10 +3877,10 @@
         <v>78</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>69</v>
+        <v>279</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>15</v>
@@ -6939,10 +6951,10 @@
         <v>278</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>279</v>
+        <v>32</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>42</v>
@@ -7093,10 +7105,10 @@
         <v>291</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>292</v>
+        <v>32</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>42</v>
@@ -7349,10 +7361,10 @@
         <v>309</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>29</v>
+        <v>292</v>
       </c>
       <c r="G136" s="5" t="s">
         <v>15</v>
@@ -9068,10 +9080,10 @@
         <v>426</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>69</v>
+        <v>756</v>
       </c>
       <c r="G194" s="5" t="s">
         <v>15</v>
@@ -9353,10 +9365,10 @@
         <v>446</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>447</v>
+        <v>32</v>
       </c>
       <c r="G203" s="5" t="s">
         <v>15</v>
@@ -9368,7 +9380,7 @@
         <v>16</v>
       </c>
       <c r="J203" s="3" t="s">
-        <v>448</v>
+        <v>755</v>
       </c>
     </row>
     <row r="204" spans="1:10">
@@ -9382,7 +9394,7 @@
         <v>11</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E204" s="1" t="s">
         <v>28</v>
@@ -9400,7 +9412,7 @@
         <v>16</v>
       </c>
       <c r="J204" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="205" spans="1:10">
@@ -9414,7 +9426,7 @@
         <v>11</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E205" s="1" t="s">
         <v>28</v>
@@ -9432,7 +9444,7 @@
         <v>16</v>
       </c>
       <c r="J205" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="206" spans="1:10">
@@ -9446,7 +9458,7 @@
         <v>11</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E206" s="1" t="s">
         <v>28</v>
@@ -9464,7 +9476,7 @@
         <v>16</v>
       </c>
       <c r="J206" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="207" spans="1:10">
@@ -9478,13 +9490,13 @@
         <v>11</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E207" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G207" s="5" t="s">
         <v>15</v>
@@ -9496,7 +9508,7 @@
         <v>16</v>
       </c>
       <c r="J207" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="208" spans="1:10">
@@ -9510,7 +9522,7 @@
         <v>11</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E208" s="1" t="s">
         <v>28</v>
@@ -9528,7 +9540,7 @@
         <v>16</v>
       </c>
       <c r="J208" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="209" spans="1:10">
@@ -9542,7 +9554,7 @@
         <v>11</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E209" s="1" t="s">
         <v>28</v>
@@ -9560,7 +9572,7 @@
         <v>16</v>
       </c>
       <c r="J209" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="210" spans="1:10">
@@ -9574,13 +9586,13 @@
         <v>11</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E210" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G210" s="5" t="s">
         <v>15</v>
@@ -9589,10 +9601,10 @@
         <v>45545</v>
       </c>
       <c r="I210" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="J210" s="3" t="s">
         <v>464</v>
-      </c>
-      <c r="J210" s="3" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="211" spans="1:10">
@@ -9606,7 +9618,7 @@
         <v>11</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E211" s="1" t="s">
         <v>28</v>
@@ -9624,7 +9636,7 @@
         <v>16</v>
       </c>
       <c r="J211" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="212" spans="1:10">
@@ -9638,7 +9650,7 @@
         <v>11</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E212" s="1" t="s">
         <v>28</v>
@@ -9656,7 +9668,7 @@
         <v>16</v>
       </c>
       <c r="J212" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="213" spans="1:10">
@@ -9670,7 +9682,7 @@
         <v>11</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E213" s="1" t="s">
         <v>28</v>
@@ -9688,7 +9700,7 @@
         <v>16</v>
       </c>
       <c r="J213" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="214" spans="1:10">
@@ -9702,7 +9714,7 @@
         <v>11</v>
       </c>
       <c r="D214" s="18" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E214" s="1" t="s">
         <v>28</v>
@@ -9720,7 +9732,7 @@
         <v>16</v>
       </c>
       <c r="J214" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="215" spans="1:10">
@@ -9734,7 +9746,7 @@
         <v>11</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E215" s="1" t="s">
         <v>28</v>
@@ -9752,7 +9764,7 @@
         <v>16</v>
       </c>
       <c r="J215" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="216" spans="1:10">
@@ -9766,7 +9778,7 @@
         <v>11</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E216" s="1" t="s">
         <v>28</v>
@@ -9784,7 +9796,7 @@
         <v>16</v>
       </c>
       <c r="J216" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="217" spans="1:10">
@@ -9798,13 +9810,13 @@
         <v>112</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E217" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G217" s="5" t="s">
         <v>15</v>
@@ -9824,7 +9836,7 @@
         <v>11</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E218" s="1" t="s">
         <v>28</v>
@@ -9842,7 +9854,7 @@
         <v>16</v>
       </c>
       <c r="J218" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="219" spans="1:10">
@@ -9856,13 +9868,13 @@
         <v>11</v>
       </c>
       <c r="D219" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="E219" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="E219" s="1" t="s">
+      <c r="F219" s="1" t="s">
         <v>483</v>
-      </c>
-      <c r="F219" s="1" t="s">
-        <v>484</v>
       </c>
       <c r="G219" s="5" t="s">
         <v>15</v>
@@ -9882,7 +9894,7 @@
         <v>11</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E220" s="1" t="s">
         <v>28</v>
@@ -9900,7 +9912,7 @@
         <v>16</v>
       </c>
       <c r="J220" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="221" spans="1:10">
@@ -9914,7 +9926,7 @@
         <v>11</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E221" s="1" t="s">
         <v>28</v>
@@ -9943,7 +9955,7 @@
         <v>11</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E222" s="1" t="s">
         <v>28</v>
@@ -9961,7 +9973,7 @@
         <v>16</v>
       </c>
       <c r="J222" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="223" spans="1:10">
@@ -9975,7 +9987,7 @@
         <v>11</v>
       </c>
       <c r="D223" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E223" s="1" t="s">
         <v>28</v>
@@ -10005,13 +10017,13 @@
         <v>11</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E224" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G224" s="5" t="s">
         <v>15</v>
@@ -10023,7 +10035,7 @@
         <v>16</v>
       </c>
       <c r="J224" s="7" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="225" spans="1:10">
@@ -10037,7 +10049,7 @@
         <v>11</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E225" s="1" t="s">
         <v>28</v>
@@ -10069,7 +10081,7 @@
         <v>11</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E226" s="1" t="s">
         <v>28</v>
@@ -10087,7 +10099,7 @@
         <v>16</v>
       </c>
       <c r="J226" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="227" spans="1:10">
@@ -10101,7 +10113,7 @@
         <v>11</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E227" s="1" t="s">
         <v>28</v>
@@ -10119,7 +10131,7 @@
         <v>16</v>
       </c>
       <c r="J227" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="228" spans="1:10">
@@ -10133,7 +10145,7 @@
         <v>11</v>
       </c>
       <c r="D228" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E228" s="1" t="s">
         <v>28</v>
@@ -10151,7 +10163,7 @@
         <v>16</v>
       </c>
       <c r="J228" s="8" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="229" spans="1:10">
@@ -10159,13 +10171,13 @@
         <v>228</v>
       </c>
       <c r="B229" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D229" s="14" t="s">
         <v>501</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D229" s="14" t="s">
-        <v>502</v>
       </c>
       <c r="E229" s="14" t="s">
         <v>13</v>
@@ -10189,13 +10201,13 @@
         <v>229</v>
       </c>
       <c r="B230" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D230" s="1" t="s">
         <v>503</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D230" s="1" t="s">
-        <v>504</v>
       </c>
       <c r="E230" s="1" t="s">
         <v>28</v>
@@ -10213,7 +10225,7 @@
         <v>16</v>
       </c>
       <c r="J230" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="231" spans="1:10">
@@ -10221,13 +10233,13 @@
         <v>230</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E231" s="1" t="s">
         <v>28</v>
@@ -10245,7 +10257,7 @@
         <v>16</v>
       </c>
       <c r="J231" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="232" spans="1:10">
@@ -10253,13 +10265,13 @@
         <v>231</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E232" s="1" t="s">
         <v>28</v>
@@ -10277,7 +10289,7 @@
         <v>16</v>
       </c>
       <c r="J232" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="233" spans="1:10">
@@ -10297,7 +10309,7 @@
         <v>21</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G233" s="2" t="s">
         <v>21</v>
@@ -10309,7 +10321,7 @@
         <v>16</v>
       </c>
       <c r="J233" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="234" spans="1:10">
@@ -10317,13 +10329,13 @@
         <v>233</v>
       </c>
       <c r="B234" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D234" s="1" t="s">
         <v>512</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D234" s="1" t="s">
-        <v>513</v>
       </c>
       <c r="E234" s="1" t="s">
         <v>28</v>
@@ -10346,19 +10358,19 @@
         <v>234</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D235" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="F235" s="1" t="s">
         <v>515</v>
-      </c>
-      <c r="E235" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="F235" s="1" t="s">
-        <v>516</v>
       </c>
       <c r="G235" s="5" t="s">
         <v>15</v>
@@ -10372,13 +10384,13 @@
         <v>235</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E236" s="1" t="s">
         <v>199</v>
@@ -10396,7 +10408,7 @@
         <v>16</v>
       </c>
       <c r="J236" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="237" spans="1:10">
@@ -10404,13 +10416,13 @@
         <v>236</v>
       </c>
       <c r="B237" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D237" s="1" t="s">
         <v>520</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D237" s="1" t="s">
-        <v>521</v>
       </c>
       <c r="E237" s="1" t="s">
         <v>28</v>
@@ -10428,7 +10440,7 @@
         <v>16</v>
       </c>
       <c r="J237" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="238" spans="1:10">
@@ -10442,13 +10454,13 @@
         <v>11</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E238" s="1" t="s">
         <v>203</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G238" s="2" t="s">
         <v>42</v>
@@ -10457,7 +10469,7 @@
         <v>16</v>
       </c>
       <c r="J238" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="239" spans="1:10">
@@ -10471,13 +10483,13 @@
         <v>11</v>
       </c>
       <c r="D239" s="21" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E239" s="1" t="s">
         <v>203</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G239" s="2" t="s">
         <v>42</v>
@@ -10489,7 +10501,7 @@
         <v>16</v>
       </c>
       <c r="J239" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="240" spans="1:10">
@@ -10503,13 +10515,13 @@
         <v>11</v>
       </c>
       <c r="D240" s="21" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E240" s="1" t="s">
         <v>203</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G240" s="2" t="s">
         <v>42</v>
@@ -10532,13 +10544,13 @@
         <v>11</v>
       </c>
       <c r="D241" s="21" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E241" s="1" t="s">
         <v>203</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G241" s="2" t="s">
         <v>42</v>
@@ -10547,7 +10559,7 @@
         <v>16</v>
       </c>
       <c r="J241" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="242" spans="1:10">
@@ -10561,13 +10573,13 @@
         <v>112</v>
       </c>
       <c r="D242" s="21" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E242" s="1" t="s">
         <v>203</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G242" s="5" t="s">
         <v>42</v>
@@ -10587,13 +10599,13 @@
         <v>112</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E243" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G243" s="5" t="s">
         <v>15</v>
@@ -10605,7 +10617,7 @@
         <v>16</v>
       </c>
       <c r="J243" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="244" spans="1:10">
@@ -10619,13 +10631,13 @@
         <v>112</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E244" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G244" s="5" t="s">
         <v>15</v>
@@ -10637,7 +10649,7 @@
         <v>16</v>
       </c>
       <c r="J244" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="245" spans="1:10">
@@ -10651,7 +10663,7 @@
         <v>11</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E245" s="1" t="s">
         <v>28</v>
@@ -10669,7 +10681,7 @@
         <v>16</v>
       </c>
       <c r="J245" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="246" spans="1:10">
@@ -10677,13 +10689,13 @@
         <v>245</v>
       </c>
       <c r="B246" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D246" s="1" t="s">
         <v>543</v>
-      </c>
-      <c r="C246" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D246" s="1" t="s">
-        <v>544</v>
       </c>
       <c r="E246" s="1" t="s">
         <v>40</v>
@@ -10701,7 +10713,7 @@
         <v>16</v>
       </c>
       <c r="J246" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="247" spans="1:10">
@@ -10709,13 +10721,13 @@
         <v>246</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E247" s="1" t="s">
         <v>40</v>
@@ -10733,7 +10745,7 @@
         <v>217</v>
       </c>
       <c r="J247" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="248" spans="1:10">
@@ -10741,13 +10753,13 @@
         <v>247</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D248" s="18" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E248" s="1" t="s">
         <v>40</v>
@@ -10765,7 +10777,7 @@
         <v>217</v>
       </c>
       <c r="J248" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="249" spans="1:10">
@@ -10773,13 +10785,13 @@
         <v>248</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E249" s="1" t="s">
         <v>199</v>
@@ -10797,7 +10809,7 @@
         <v>16</v>
       </c>
       <c r="J249" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="250" spans="1:10">
@@ -10805,13 +10817,13 @@
         <v>249</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D250" s="18" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E250" s="1" t="s">
         <v>40</v>
@@ -10829,7 +10841,7 @@
         <v>217</v>
       </c>
       <c r="J250" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="251" spans="1:10">
@@ -10843,7 +10855,7 @@
         <v>11</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E251" s="1" t="s">
         <v>28</v>
@@ -10861,7 +10873,7 @@
         <v>16</v>
       </c>
       <c r="J251" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="252" spans="1:10">
@@ -10875,13 +10887,13 @@
         <v>11</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>29</v>
+        <v>447</v>
       </c>
       <c r="G252" s="5" t="s">
         <v>15</v>
@@ -10893,7 +10905,7 @@
         <v>16</v>
       </c>
       <c r="J252" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="253" spans="1:10">
@@ -10901,13 +10913,13 @@
         <v>252</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E253" s="1" t="s">
         <v>36</v>
@@ -10925,7 +10937,7 @@
         <v>16</v>
       </c>
       <c r="J253" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="254" spans="1:10">
@@ -10933,19 +10945,19 @@
         <v>253</v>
       </c>
       <c r="B254" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D254" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="C254" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D254" s="1" t="s">
+      <c r="E254" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F254" s="1" t="s">
         <v>561</v>
-      </c>
-      <c r="E254" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F254" s="1" t="s">
-        <v>562</v>
       </c>
       <c r="G254" s="5" t="s">
         <v>15</v>
@@ -10957,7 +10969,7 @@
         <v>16</v>
       </c>
       <c r="J254" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="255" spans="1:10">
@@ -10971,7 +10983,7 @@
         <v>112</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E255" s="1" t="s">
         <v>13</v>
@@ -10989,7 +11001,7 @@
         <v>16</v>
       </c>
       <c r="J255" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="256" spans="1:10">
@@ -11003,22 +11015,22 @@
         <v>112</v>
       </c>
       <c r="D256" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F256" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="E256" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F256" s="1" t="s">
+      <c r="G256" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I256" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J256" s="3" t="s">
         <v>567</v>
-      </c>
-      <c r="G256" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I256" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J256" s="3" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="257" spans="1:10">
@@ -11032,7 +11044,7 @@
         <v>11</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E257" s="1" t="s">
         <v>28</v>
@@ -11050,7 +11062,7 @@
         <v>16</v>
       </c>
       <c r="J257" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="258" spans="1:10">
@@ -11064,7 +11076,7 @@
         <v>11</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E258" s="1" t="s">
         <v>28</v>
@@ -11082,7 +11094,7 @@
         <v>16</v>
       </c>
       <c r="J258" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="259" spans="1:10">
@@ -11090,19 +11102,19 @@
         <v>258</v>
       </c>
       <c r="B259" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D259" s="1" t="s">
         <v>573</v>
-      </c>
-      <c r="C259" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D259" s="1" t="s">
-        <v>574</v>
       </c>
       <c r="E259" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G259" s="2" t="s">
         <v>15</v>
@@ -11114,7 +11126,7 @@
         <v>16</v>
       </c>
       <c r="J259" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="260" spans="1:10">
@@ -11122,19 +11134,19 @@
         <v>259</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E260" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F260" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G260" s="2" t="s">
         <v>15</v>
@@ -11146,7 +11158,7 @@
         <v>16</v>
       </c>
       <c r="J260" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="261" spans="1:10">
@@ -11154,13 +11166,13 @@
         <v>260</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E261" s="1" t="s">
         <v>92</v>
@@ -11178,7 +11190,7 @@
         <v>16</v>
       </c>
       <c r="J261" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="262" spans="1:10">
@@ -11186,19 +11198,19 @@
         <v>261</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E262" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G262" s="2" t="s">
         <v>15</v>
@@ -11210,7 +11222,7 @@
         <v>16</v>
       </c>
       <c r="J262" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="263" spans="1:10">
@@ -11218,19 +11230,19 @@
         <v>262</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E263" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G263" s="2" t="s">
         <v>15</v>
@@ -11242,7 +11254,7 @@
         <v>16</v>
       </c>
       <c r="J263" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="264" spans="1:10">
@@ -11250,19 +11262,19 @@
         <v>263</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E264" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G264" s="2" t="s">
         <v>15</v>
@@ -11274,7 +11286,7 @@
         <v>16</v>
       </c>
       <c r="J264" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="265" spans="1:10">
@@ -11282,19 +11294,19 @@
         <v>264</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E265" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F265" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G265" s="2" t="s">
         <v>15</v>
@@ -11306,7 +11318,7 @@
         <v>16</v>
       </c>
       <c r="J265" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="266" spans="1:10">
@@ -11314,19 +11326,19 @@
         <v>265</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E266" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F266" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G266" s="2" t="s">
         <v>15</v>
@@ -11338,7 +11350,7 @@
         <v>16</v>
       </c>
       <c r="J266" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="267" spans="1:10">
@@ -11346,19 +11358,19 @@
         <v>266</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E267" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F267" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G267" s="2" t="s">
         <v>15</v>
@@ -11370,7 +11382,7 @@
         <v>16</v>
       </c>
       <c r="J267" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="268" spans="1:10">
@@ -11378,19 +11390,19 @@
         <v>267</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E268" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="G268" s="2" t="s">
         <v>15</v>
@@ -11402,7 +11414,7 @@
         <v>16</v>
       </c>
       <c r="J268" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="269" spans="1:10">
@@ -11410,19 +11422,19 @@
         <v>268</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E269" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G269" s="2" t="s">
         <v>15</v>
@@ -11434,7 +11446,7 @@
         <v>16</v>
       </c>
       <c r="J269" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="270" spans="1:10">
@@ -11442,19 +11454,19 @@
         <v>269</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E270" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F270" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G270" s="2" t="s">
         <v>15</v>
@@ -11466,7 +11478,7 @@
         <v>16</v>
       </c>
       <c r="J270" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="271" spans="1:10">
@@ -11474,19 +11486,19 @@
         <v>270</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E271" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F271" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="G271" s="2" t="s">
         <v>15</v>
@@ -11498,7 +11510,7 @@
         <v>16</v>
       </c>
       <c r="J271" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="272" spans="1:10">
@@ -11506,19 +11518,19 @@
         <v>271</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E272" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F272" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="G272" s="2" t="s">
         <v>15</v>
@@ -11530,7 +11542,7 @@
         <v>16</v>
       </c>
       <c r="J272" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="273" spans="1:10">
@@ -11538,19 +11550,19 @@
         <v>272</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E273" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F273" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G273" s="2" t="s">
         <v>15</v>
@@ -11562,7 +11574,7 @@
         <v>16</v>
       </c>
       <c r="J273" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="274" spans="1:10">
@@ -11570,19 +11582,19 @@
         <v>273</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E274" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="G274" s="2" t="s">
         <v>15</v>
@@ -11594,7 +11606,7 @@
         <v>16</v>
       </c>
       <c r="J274" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="275" spans="1:10">
@@ -11602,19 +11614,19 @@
         <v>274</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E275" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F275" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="G275" s="2" t="s">
         <v>15</v>
@@ -11626,7 +11638,7 @@
         <v>16</v>
       </c>
       <c r="J275" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="276" spans="1:10">
@@ -11634,19 +11646,19 @@
         <v>275</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D276" s="22" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E276" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F276" s="4" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="G276" s="2" t="s">
         <v>15</v>
@@ -11658,7 +11670,7 @@
         <v>16</v>
       </c>
       <c r="J276" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="277" spans="1:10">
@@ -11666,19 +11678,19 @@
         <v>276</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E277" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F277" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="G277" s="2" t="s">
         <v>15</v>
@@ -11690,7 +11702,7 @@
         <v>16</v>
       </c>
       <c r="J277" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="278" spans="1:10">
@@ -11698,19 +11710,19 @@
         <v>277</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E278" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F278" s="4" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G278" s="2" t="s">
         <v>15</v>
@@ -11722,7 +11734,7 @@
         <v>16</v>
       </c>
       <c r="J278" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="279" spans="1:10">
@@ -11730,19 +11742,19 @@
         <v>278</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E279" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F279" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="G279" s="2" t="s">
         <v>15</v>
@@ -11754,7 +11766,7 @@
         <v>16</v>
       </c>
       <c r="J279" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="280" spans="1:10">
@@ -11762,19 +11774,19 @@
         <v>279</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D280" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="E280" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="F280" s="1" t="s">
         <v>625</v>
-      </c>
-      <c r="E280" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="F280" s="1" t="s">
-        <v>626</v>
       </c>
       <c r="G280" s="2" t="s">
         <v>15</v>
@@ -11786,7 +11798,7 @@
         <v>16</v>
       </c>
       <c r="J280" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="281" spans="1:10">
@@ -11794,19 +11806,19 @@
         <v>280</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D281" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="E281" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="F281" s="1" t="s">
         <v>628</v>
-      </c>
-      <c r="E281" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="F281" s="1" t="s">
-        <v>629</v>
       </c>
       <c r="G281" s="2" t="s">
         <v>15</v>
@@ -11818,7 +11830,7 @@
         <v>16</v>
       </c>
       <c r="J281" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="282" spans="1:10">
@@ -11826,19 +11838,19 @@
         <v>281</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D282" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="E282" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="F282" s="1" t="s">
         <v>630</v>
-      </c>
-      <c r="E282" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="F282" s="1" t="s">
-        <v>631</v>
       </c>
       <c r="G282" s="2" t="s">
         <v>15</v>
@@ -11850,7 +11862,7 @@
         <v>16</v>
       </c>
       <c r="J282" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="283" spans="1:10">
@@ -11858,19 +11870,19 @@
         <v>282</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D283" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="E283" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="F283" s="1" t="s">
         <v>632</v>
-      </c>
-      <c r="E283" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="F283" s="1" t="s">
-        <v>633</v>
       </c>
       <c r="G283" s="2" t="s">
         <v>15</v>
@@ -11882,7 +11894,7 @@
         <v>16</v>
       </c>
       <c r="J283" s="3" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="284" spans="1:10">
@@ -11890,19 +11902,19 @@
         <v>283</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D284" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="E284" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="F284" s="1" t="s">
         <v>635</v>
-      </c>
-      <c r="E284" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="F284" s="1" t="s">
-        <v>636</v>
       </c>
       <c r="G284" s="2" t="s">
         <v>15</v>
@@ -11914,7 +11926,7 @@
         <v>16</v>
       </c>
       <c r="J284" s="3" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="285" spans="1:10">
@@ -11922,19 +11934,19 @@
         <v>284</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D285" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="E285" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="F285" s="1" t="s">
         <v>637</v>
-      </c>
-      <c r="E285" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="F285" s="1" t="s">
-        <v>638</v>
       </c>
       <c r="G285" s="2" t="s">
         <v>15</v>
@@ -11946,7 +11958,7 @@
         <v>16</v>
       </c>
       <c r="J285" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="286" spans="1:10">
@@ -11954,19 +11966,19 @@
         <v>285</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D286" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="E286" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="F286" s="1" t="s">
         <v>640</v>
-      </c>
-      <c r="E286" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="F286" s="1" t="s">
-        <v>641</v>
       </c>
       <c r="G286" s="2" t="s">
         <v>15</v>
@@ -11978,7 +11990,7 @@
         <v>16</v>
       </c>
       <c r="J286" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="287" spans="1:10">
@@ -11986,19 +11998,19 @@
         <v>286</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D287" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="E287" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="F287" s="1" t="s">
         <v>642</v>
-      </c>
-      <c r="E287" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="F287" s="1" t="s">
-        <v>643</v>
       </c>
       <c r="G287" s="2" t="s">
         <v>15</v>
@@ -12010,7 +12022,7 @@
         <v>16</v>
       </c>
       <c r="J287" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="288" spans="1:10">
@@ -12018,19 +12030,19 @@
         <v>287</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D288" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="E288" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="F288" s="1" t="s">
         <v>644</v>
-      </c>
-      <c r="E288" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="F288" s="1" t="s">
-        <v>645</v>
       </c>
       <c r="G288" s="2" t="s">
         <v>15</v>
@@ -12042,7 +12054,7 @@
         <v>16</v>
       </c>
       <c r="J288" s="3" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="289" spans="1:10">
@@ -12050,19 +12062,19 @@
         <v>288</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D289" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="E289" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="F289" s="1" t="s">
         <v>647</v>
-      </c>
-      <c r="E289" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="F289" s="1" t="s">
-        <v>648</v>
       </c>
       <c r="G289" s="2" t="s">
         <v>15</v>
@@ -12074,7 +12086,7 @@
         <v>16</v>
       </c>
       <c r="J289" s="3" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="290" spans="1:10">
@@ -12082,19 +12094,19 @@
         <v>289</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D290" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="E290" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="F290" s="1" t="s">
         <v>650</v>
-      </c>
-      <c r="E290" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="F290" s="1" t="s">
-        <v>651</v>
       </c>
       <c r="G290" s="2" t="s">
         <v>15</v>
@@ -12106,7 +12118,7 @@
         <v>16</v>
       </c>
       <c r="J290" s="3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="291" spans="1:10">
@@ -12114,19 +12126,19 @@
         <v>290</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D291" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="E291" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="F291" s="1" t="s">
         <v>653</v>
-      </c>
-      <c r="E291" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="F291" s="1" t="s">
-        <v>654</v>
       </c>
       <c r="G291" s="2" t="s">
         <v>15</v>
@@ -12138,7 +12150,7 @@
         <v>16</v>
       </c>
       <c r="J291" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="292" spans="1:10">
@@ -12146,19 +12158,19 @@
         <v>291</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D292" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="E292" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="F292" s="1" t="s">
         <v>656</v>
-      </c>
-      <c r="E292" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="F292" s="1" t="s">
-        <v>657</v>
       </c>
       <c r="G292" s="2" t="s">
         <v>15</v>
@@ -12170,7 +12182,7 @@
         <v>16</v>
       </c>
       <c r="J292" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="293" spans="1:10">
@@ -12178,19 +12190,19 @@
         <v>292</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E293" s="1" t="s">
         <v>102</v>
       </c>
       <c r="F293" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G293" s="2" t="s">
         <v>15</v>
@@ -12202,7 +12214,7 @@
         <v>104</v>
       </c>
       <c r="J293" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="294" spans="1:10">
@@ -12210,13 +12222,13 @@
         <v>293</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E294" s="1" t="s">
         <v>28</v>
@@ -12234,7 +12246,7 @@
         <v>16</v>
       </c>
       <c r="J294" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="295" spans="1:10">
@@ -12242,19 +12254,19 @@
         <v>294</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E295" s="1" t="s">
         <v>102</v>
       </c>
       <c r="F295" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="G295" s="2" t="s">
         <v>15</v>
@@ -12266,7 +12278,7 @@
         <v>104</v>
       </c>
       <c r="J295" s="3" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="296" spans="1:10">
@@ -12274,19 +12286,19 @@
         <v>295</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E296" s="1" t="s">
         <v>102</v>
       </c>
       <c r="F296" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="G296" s="2" t="s">
         <v>15</v>
@@ -12298,7 +12310,7 @@
         <v>104</v>
       </c>
       <c r="J296" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="297" spans="1:10">
@@ -12306,19 +12318,19 @@
         <v>296</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E297" s="1" t="s">
         <v>102</v>
       </c>
       <c r="F297" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G297" s="2" t="s">
         <v>15</v>
@@ -12330,7 +12342,7 @@
         <v>104</v>
       </c>
       <c r="J297" s="3" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="298" spans="1:10">
@@ -12338,19 +12350,19 @@
         <v>297</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E298" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F298" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G298" s="2" t="s">
         <v>15</v>
@@ -12362,7 +12374,7 @@
         <v>16</v>
       </c>
       <c r="J298" s="3" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="299" spans="1:10">
@@ -12370,19 +12382,19 @@
         <v>298</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E299" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F299" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="G299" s="2" t="s">
         <v>15</v>
@@ -12394,7 +12406,7 @@
         <v>16</v>
       </c>
       <c r="J299" s="3" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="300" spans="1:10">
@@ -12402,19 +12414,19 @@
         <v>299</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E300" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F300" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="G300" s="2" t="s">
         <v>15</v>
@@ -12426,7 +12438,7 @@
         <v>16</v>
       </c>
       <c r="J300" s="3" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="301" spans="1:10">
@@ -12434,19 +12446,19 @@
         <v>300</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E301" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F301" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G301" s="2" t="s">
         <v>15</v>
@@ -12458,7 +12470,7 @@
         <v>16</v>
       </c>
       <c r="J301" s="3" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="302" spans="1:10">
@@ -12466,19 +12478,19 @@
         <v>301</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E302" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F302" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="G302" s="2" t="s">
         <v>15</v>
@@ -12490,7 +12502,7 @@
         <v>16</v>
       </c>
       <c r="J302" s="3" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="303" spans="1:10">
@@ -12498,19 +12510,19 @@
         <v>302</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E303" s="1" t="s">
         <v>102</v>
       </c>
       <c r="F303" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="G303" s="2" t="s">
         <v>15</v>
@@ -12522,7 +12534,7 @@
         <v>104</v>
       </c>
       <c r="J303" s="3" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="304" spans="1:10">
@@ -12530,19 +12542,19 @@
         <v>303</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E304" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F304" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G304" s="2" t="s">
         <v>15</v>
@@ -12554,7 +12566,7 @@
         <v>16</v>
       </c>
       <c r="J304" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="305" spans="1:10">
@@ -12562,19 +12574,19 @@
         <v>304</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E305" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F305" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="G305" s="2" t="s">
         <v>15</v>
@@ -12586,7 +12598,7 @@
         <v>16</v>
       </c>
       <c r="J305" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="306" spans="1:10">
@@ -12594,19 +12606,19 @@
         <v>305</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E306" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F306" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G306" s="2" t="s">
         <v>15</v>
@@ -12618,7 +12630,7 @@
         <v>16</v>
       </c>
       <c r="J306" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="307" spans="1:10">
@@ -12626,19 +12638,19 @@
         <v>306</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E307" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F307" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="G307" s="2" t="s">
         <v>15</v>
@@ -12650,7 +12662,7 @@
         <v>16</v>
       </c>
       <c r="J307" s="3" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="308" spans="1:10">
@@ -12658,19 +12670,19 @@
         <v>307</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F308" s="1" t="s">
-        <v>698</v>
+        <v>32</v>
       </c>
       <c r="G308" s="2" t="s">
         <v>15</v>
@@ -12682,7 +12694,7 @@
         <v>16</v>
       </c>
       <c r="J308" s="3" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="309" spans="1:10">
@@ -12690,19 +12702,19 @@
         <v>308</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E309" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F309" s="1" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G309" s="2" t="s">
         <v>15</v>
@@ -12711,10 +12723,10 @@
         <v>45702</v>
       </c>
       <c r="I309" s="9" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="J309" s="3" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="310" spans="1:10">
@@ -12722,19 +12734,19 @@
         <v>309</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E310" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F310" s="1" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="G310" s="2" t="s">
         <v>15</v>
@@ -12743,10 +12755,10 @@
         <v>45702</v>
       </c>
       <c r="I310" s="9" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="J310" s="3" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="311" spans="1:10">
@@ -12754,19 +12766,19 @@
         <v>310</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E311" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F311" s="1" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="G311" s="2" t="s">
         <v>15</v>
@@ -12775,10 +12787,10 @@
         <v>45702</v>
       </c>
       <c r="I311" s="9" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="J311" s="3" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="312" spans="1:10">
@@ -12786,19 +12798,19 @@
         <v>311</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E312" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F312" s="1" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="G312" s="2" t="s">
         <v>15</v>
@@ -12810,7 +12822,7 @@
         <v>16</v>
       </c>
       <c r="J312" s="3" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="313" spans="1:10">
@@ -12818,19 +12830,19 @@
         <v>312</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="E313" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F313" s="1" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="G313" s="2" t="s">
         <v>15</v>
@@ -12839,10 +12851,10 @@
         <v>45726</v>
       </c>
       <c r="I313" s="9" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="J313" s="3" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="314" spans="1:10">
@@ -12850,19 +12862,19 @@
         <v>313</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="E314" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F314" s="1" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="G314" s="2" t="s">
         <v>15</v>
@@ -12871,10 +12883,10 @@
         <v>45726</v>
       </c>
       <c r="I314" s="9" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="J314" s="3" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="315" spans="1:10">
@@ -12882,19 +12894,19 @@
         <v>314</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="E315" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F315" s="1" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="G315" s="2" t="s">
         <v>15</v>
@@ -12903,10 +12915,10 @@
         <v>45726</v>
       </c>
       <c r="I315" s="9" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="J315" s="3" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="316" spans="1:10">
@@ -12914,19 +12926,19 @@
         <v>315</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>711</v>
+        <v>757</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="F316" s="1" t="s">
-        <v>712</v>
+        <v>328</v>
       </c>
       <c r="G316" s="2" t="s">
         <v>15</v>
@@ -12938,7 +12950,7 @@
         <v>16</v>
       </c>
       <c r="J316" s="3" t="s">
-        <v>713</v>
+        <v>758</v>
       </c>
     </row>
     <row r="317" spans="1:10">
@@ -12946,19 +12958,19 @@
         <v>316</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E317" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F317" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="G317" s="2" t="s">
         <v>15</v>
@@ -12970,7 +12982,7 @@
         <v>16</v>
       </c>
       <c r="J317" s="3" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="318" spans="1:10">
@@ -12978,19 +12990,19 @@
         <v>317</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E318" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F318" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="G318" s="2" t="s">
         <v>15</v>
@@ -13002,7 +13014,7 @@
         <v>16</v>
       </c>
       <c r="J318" s="3" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="319" spans="1:10">
@@ -13010,19 +13022,19 @@
         <v>318</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E319" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F319" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="G319" s="2" t="s">
         <v>15</v>
@@ -13034,7 +13046,7 @@
         <v>16</v>
       </c>
       <c r="J319" s="3" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="320" spans="1:10">
@@ -13042,19 +13054,19 @@
         <v>319</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E320" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F320" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="G320" s="2" t="s">
         <v>15</v>
@@ -13066,7 +13078,7 @@
         <v>16</v>
       </c>
       <c r="J320" s="3" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="321" spans="1:10">
@@ -13074,19 +13086,19 @@
         <v>320</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E321" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F321" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="G321" s="2" t="s">
         <v>15</v>
@@ -13098,7 +13110,7 @@
         <v>16</v>
       </c>
       <c r="J321" s="3" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="322" spans="1:10">
@@ -13106,19 +13118,19 @@
         <v>321</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E322" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F322" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="G322" s="2" t="s">
         <v>15</v>
@@ -13130,7 +13142,7 @@
         <v>16</v>
       </c>
       <c r="J322" s="3" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="323" spans="1:10">
@@ -13138,19 +13150,19 @@
         <v>322</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E323" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F323" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="G323" s="2" t="s">
         <v>15</v>
@@ -13162,7 +13174,7 @@
         <v>16</v>
       </c>
       <c r="J323" s="3" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="324" spans="1:10">
@@ -13170,19 +13182,19 @@
         <v>323</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E324" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F324" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="G324" s="2" t="s">
         <v>15</v>
@@ -13194,7 +13206,7 @@
         <v>16</v>
       </c>
       <c r="J324" s="3" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="325" spans="1:10">
@@ -13202,19 +13214,19 @@
         <v>324</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E325" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F325" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="G325" s="2" t="s">
         <v>15</v>
@@ -13226,7 +13238,7 @@
         <v>16</v>
       </c>
       <c r="J325" s="3" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="326" spans="1:10">
@@ -13234,19 +13246,19 @@
         <v>325</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E326" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F326" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="G326" s="2" t="s">
         <v>15</v>
@@ -13258,7 +13270,7 @@
         <v>16</v>
       </c>
       <c r="J326" s="3" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="327" spans="1:10">
@@ -13266,19 +13278,19 @@
         <v>326</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E327" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F327" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="G327" s="2" t="s">
         <v>15</v>
@@ -13290,7 +13302,7 @@
         <v>16</v>
       </c>
       <c r="J327" s="3" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="328" spans="1:10">
@@ -13298,19 +13310,19 @@
         <v>327</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E328" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F328" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="G328" s="2" t="s">
         <v>15</v>
@@ -13322,7 +13334,7 @@
         <v>16</v>
       </c>
       <c r="J328" s="3" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="329" spans="1:10">
@@ -13330,19 +13342,19 @@
         <v>328</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E329" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F329" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="G329" s="2" t="s">
         <v>15</v>
@@ -13354,7 +13366,7 @@
         <v>16</v>
       </c>
       <c r="J329" s="3" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="330" spans="1:10">
@@ -13362,19 +13374,19 @@
         <v>329</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E330" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F330" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="G330" s="2" t="s">
         <v>15</v>
@@ -13386,7 +13398,7 @@
         <v>16</v>
       </c>
       <c r="J330" s="3" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="331" spans="1:10">
@@ -13394,19 +13406,19 @@
         <v>330</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E331" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F331" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="G331" s="2" t="s">
         <v>15</v>
@@ -13418,7 +13430,7 @@
         <v>16</v>
       </c>
       <c r="J331" s="3" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="332" spans="1:10">
@@ -13426,19 +13438,19 @@
         <v>331</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E332" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F332" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="G332" s="2" t="s">
         <v>15</v>
@@ -13450,7 +13462,7 @@
         <v>16</v>
       </c>
       <c r="J332" s="3" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="333" spans="1:10">
@@ -13458,19 +13470,19 @@
         <v>332</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E333" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F333" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="G333" s="2" t="s">
         <v>15</v>
@@ -13482,7 +13494,7 @@
         <v>16</v>
       </c>
       <c r="J333" s="3" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="334" spans="1:10">
@@ -13490,19 +13502,19 @@
         <v>333</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E334" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F334" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="G334" s="2" t="s">
         <v>15</v>
@@ -13514,7 +13526,7 @@
         <v>16</v>
       </c>
       <c r="J334" s="3" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="335" spans="1:10">
@@ -13522,19 +13534,19 @@
         <v>334</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E335" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F335" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="G335" s="2" t="s">
         <v>15</v>
@@ -13546,7 +13558,7 @@
         <v>16</v>
       </c>
       <c r="J335" s="3" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="336" spans="1:10">
@@ -13554,19 +13566,19 @@
         <v>335</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E336" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F336" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="G336" s="2" t="s">
         <v>15</v>
@@ -13578,10 +13590,11 @@
         <v>16</v>
       </c>
       <c r="J336" s="3" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="D238">
     <cfRule type="duplicateValues" dxfId="19" priority="4"/>
     <cfRule type="duplicateValues" dxfId="18" priority="5"/>
@@ -13629,33 +13642,33 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B1" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>714</v>
+      </c>
+      <c r="E1" t="s">
+        <v>715</v>
+      </c>
+      <c r="F1" t="s">
         <v>716</v>
-      </c>
-      <c r="E1" t="s">
-        <v>717</v>
-      </c>
-      <c r="F1" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
+        <v>717</v>
+      </c>
+      <c r="B2" t="s">
+        <v>718</v>
+      </c>
+      <c r="C2" t="s">
         <v>719</v>
-      </c>
-      <c r="B2" t="s">
-        <v>720</v>
-      </c>
-      <c r="C2" t="s">
-        <v>721</v>
       </c>
       <c r="D2">
         <v>1885</v>
@@ -13666,13 +13679,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>717</v>
+      </c>
+      <c r="B3" t="s">
+        <v>718</v>
+      </c>
+      <c r="C3" t="s">
         <v>719</v>
-      </c>
-      <c r="B3" t="s">
-        <v>720</v>
-      </c>
-      <c r="C3" t="s">
-        <v>721</v>
       </c>
       <c r="D3">
         <v>1880</v>
@@ -13683,13 +13696,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>717</v>
+      </c>
+      <c r="B4" t="s">
+        <v>718</v>
+      </c>
+      <c r="C4" t="s">
         <v>719</v>
-      </c>
-      <c r="B4" t="s">
-        <v>720</v>
-      </c>
-      <c r="C4" t="s">
-        <v>721</v>
       </c>
       <c r="D4">
         <v>1881</v>
@@ -13700,13 +13713,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
+        <v>717</v>
+      </c>
+      <c r="B5" t="s">
+        <v>718</v>
+      </c>
+      <c r="C5" t="s">
         <v>719</v>
-      </c>
-      <c r="B5" t="s">
-        <v>720</v>
-      </c>
-      <c r="C5" t="s">
-        <v>721</v>
       </c>
       <c r="D5">
         <v>1890</v>
@@ -13717,13 +13730,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
+        <v>717</v>
+      </c>
+      <c r="B6" t="s">
+        <v>718</v>
+      </c>
+      <c r="C6" t="s">
         <v>719</v>
-      </c>
-      <c r="B6" t="s">
-        <v>720</v>
-      </c>
-      <c r="C6" t="s">
-        <v>721</v>
       </c>
       <c r="D6">
         <v>1878</v>
@@ -13734,13 +13747,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
+        <v>717</v>
+      </c>
+      <c r="B7" t="s">
+        <v>718</v>
+      </c>
+      <c r="C7" t="s">
         <v>719</v>
-      </c>
-      <c r="B7" t="s">
-        <v>720</v>
-      </c>
-      <c r="C7" t="s">
-        <v>721</v>
       </c>
       <c r="D7">
         <v>1883</v>
@@ -13751,16 +13764,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
+        <v>717</v>
+      </c>
+      <c r="B8" t="s">
+        <v>718</v>
+      </c>
+      <c r="C8" t="s">
         <v>719</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" s="24" t="s">
         <v>720</v>
-      </c>
-      <c r="C8" t="s">
-        <v>721</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>722</v>
       </c>
       <c r="F8" s="23">
         <v>1</v>
@@ -13768,13 +13781,13 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
+        <v>717</v>
+      </c>
+      <c r="B9" t="s">
+        <v>718</v>
+      </c>
+      <c r="C9" t="s">
         <v>719</v>
-      </c>
-      <c r="B9" t="s">
-        <v>720</v>
-      </c>
-      <c r="C9" t="s">
-        <v>721</v>
       </c>
       <c r="D9">
         <v>1889</v>
@@ -13785,13 +13798,13 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
+        <v>717</v>
+      </c>
+      <c r="B10" t="s">
+        <v>718</v>
+      </c>
+      <c r="C10" t="s">
         <v>719</v>
-      </c>
-      <c r="B10" t="s">
-        <v>720</v>
-      </c>
-      <c r="C10" t="s">
-        <v>721</v>
       </c>
       <c r="D10">
         <v>1879</v>
@@ -13802,13 +13815,13 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
+        <v>717</v>
+      </c>
+      <c r="B11" t="s">
+        <v>718</v>
+      </c>
+      <c r="C11" t="s">
         <v>719</v>
-      </c>
-      <c r="B11" t="s">
-        <v>720</v>
-      </c>
-      <c r="C11" t="s">
-        <v>721</v>
       </c>
       <c r="D11">
         <v>1891</v>
@@ -13819,13 +13832,13 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
+        <v>717</v>
+      </c>
+      <c r="B12" t="s">
+        <v>718</v>
+      </c>
+      <c r="C12" t="s">
         <v>719</v>
-      </c>
-      <c r="B12" t="s">
-        <v>720</v>
-      </c>
-      <c r="C12" t="s">
-        <v>721</v>
       </c>
       <c r="D12">
         <v>1891</v>
@@ -13836,16 +13849,16 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
+        <v>717</v>
+      </c>
+      <c r="B13" t="s">
+        <v>718</v>
+      </c>
+      <c r="C13" t="s">
         <v>719</v>
       </c>
-      <c r="B13" t="s">
-        <v>720</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="D13" s="24" t="s">
         <v>721</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>723</v>
       </c>
       <c r="F13" s="23">
         <v>1</v>
@@ -13853,13 +13866,13 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
+        <v>717</v>
+      </c>
+      <c r="B14" t="s">
+        <v>718</v>
+      </c>
+      <c r="C14" t="s">
         <v>719</v>
-      </c>
-      <c r="B14" t="s">
-        <v>720</v>
-      </c>
-      <c r="C14" t="s">
-        <v>721</v>
       </c>
       <c r="D14">
         <v>1894</v>
@@ -13870,19 +13883,19 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
+        <v>722</v>
+      </c>
+      <c r="B15" t="s">
+        <v>723</v>
+      </c>
+      <c r="C15" t="s">
         <v>724</v>
       </c>
-      <c r="B15" t="s">
+      <c r="D15" t="s">
         <v>725</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E15" t="s">
         <v>726</v>
-      </c>
-      <c r="D15" t="s">
-        <v>727</v>
-      </c>
-      <c r="E15" t="s">
-        <v>728</v>
       </c>
       <c r="F15" s="23">
         <v>17</v>
@@ -13890,19 +13903,19 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B16" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C16" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="D16" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="E16" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="F16" s="23">
         <v>4</v>
@@ -13910,19 +13923,19 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B17" t="s">
+        <v>729</v>
+      </c>
+      <c r="C17" t="s">
+        <v>730</v>
+      </c>
+      <c r="D17" t="s">
         <v>731</v>
       </c>
-      <c r="C17" t="s">
-        <v>732</v>
-      </c>
-      <c r="D17" t="s">
-        <v>733</v>
-      </c>
       <c r="E17" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="F17" s="23">
         <v>45</v>
@@ -13930,19 +13943,19 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B18" t="s">
+        <v>729</v>
+      </c>
+      <c r="C18" t="s">
+        <v>730</v>
+      </c>
+      <c r="D18" t="s">
         <v>731</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E18" t="s">
         <v>732</v>
-      </c>
-      <c r="D18" t="s">
-        <v>733</v>
-      </c>
-      <c r="E18" t="s">
-        <v>734</v>
       </c>
       <c r="F18" s="23">
         <v>12</v>
@@ -13950,19 +13963,19 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B19" t="s">
+        <v>729</v>
+      </c>
+      <c r="C19" t="s">
+        <v>730</v>
+      </c>
+      <c r="D19" t="s">
         <v>731</v>
       </c>
-      <c r="C19" t="s">
-        <v>732</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>733</v>
-      </c>
-      <c r="E19" t="s">
-        <v>735</v>
       </c>
       <c r="F19" s="23">
         <v>14</v>
@@ -13970,19 +13983,19 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B20" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C20" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="D20" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="E20" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="F20" s="23">
         <v>4</v>
@@ -13990,19 +14003,19 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B21" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C21" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="D21" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="E21" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="F21" s="23">
         <v>6</v>
@@ -14010,19 +14023,19 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
+        <v>735</v>
+      </c>
+      <c r="B22" t="s">
+        <v>736</v>
+      </c>
+      <c r="C22" t="s">
         <v>737</v>
       </c>
-      <c r="B22" t="s">
+      <c r="D22" t="s">
         <v>738</v>
       </c>
-      <c r="C22" t="s">
-        <v>739</v>
-      </c>
-      <c r="D22" t="s">
-        <v>740</v>
-      </c>
       <c r="E22" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="F22" s="23">
         <v>3</v>
@@ -14030,19 +14043,19 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B23" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C23" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D23" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="E23" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="F23" s="23">
         <v>14</v>
@@ -14050,19 +14063,19 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B24" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C24" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D24" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="E24" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="F24" s="23">
         <v>13</v>
@@ -14070,19 +14083,19 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
+        <v>741</v>
+      </c>
+      <c r="B25" t="s">
+        <v>736</v>
+      </c>
+      <c r="C25" t="s">
+        <v>737</v>
+      </c>
+      <c r="D25" t="s">
+        <v>742</v>
+      </c>
+      <c r="E25" t="s">
         <v>743</v>
-      </c>
-      <c r="B25" t="s">
-        <v>738</v>
-      </c>
-      <c r="C25" t="s">
-        <v>739</v>
-      </c>
-      <c r="D25" t="s">
-        <v>744</v>
-      </c>
-      <c r="E25" t="s">
-        <v>745</v>
       </c>
       <c r="F25" s="23">
         <v>2</v>
@@ -14090,19 +14103,19 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
+        <v>735</v>
+      </c>
+      <c r="B26" t="s">
+        <v>736</v>
+      </c>
+      <c r="C26" t="s">
         <v>737</v>
       </c>
-      <c r="B26" t="s">
-        <v>738</v>
-      </c>
-      <c r="C26" t="s">
-        <v>739</v>
-      </c>
       <c r="D26" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="E26" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="F26" s="23">
         <v>1</v>

--- a/data_printer.xlsx
+++ b/data_printer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GamErick\Desktop\Nova pasta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FEDB6F-AE0C-4FC3-8100-5D96DF573D01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1027AD07-F18E-475B-83B2-EB5584757FD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A8AA41B5-7AA1-4FF7-A9B8-54B8A4E1AF28}"/>
   </bookViews>
@@ -2028,9 +2028,6 @@
     <t>U67030G3N135493</t>
   </si>
   <si>
-    <t>UPA - ADM</t>
-  </si>
-  <si>
     <t>IMPRESSORA INSTALADA EM 22/11/2024 - SUBSTITUIU RICOH 501;</t>
   </si>
   <si>
@@ -2040,9 +2037,6 @@
     <t>SAUDE COLETIVA</t>
   </si>
   <si>
-    <t>IMPRESSORA INSTALADA EM 25/11/2024 - SUBSTITUIU RICOH 601;</t>
-  </si>
-  <si>
     <t>U67030G3N135416</t>
   </si>
   <si>
@@ -2314,6 +2308,12 @@
   </si>
   <si>
     <t>IMPRESSORA INSTALADA EM 12/03/2025;</t>
+  </si>
+  <si>
+    <t>IMPRESSORA INSTALADA EM 25/11/2024 - SUBSTITUIU RICOH 601; FEITA UMA TROCA  POR UMA 3710 NO DIA 14/03/2025;</t>
+  </si>
+  <si>
+    <t>UPA - SALA ADM</t>
   </si>
 </sst>
 </file>
@@ -2813,7 +2813,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C244623C-48DE-4D05-852C-6EFDD885ABE2}" name="Controle_Inventario_Impressoras" displayName="Controle_Inventario_Impressoras" ref="A1:J336" tableType="queryTable" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A1:J336" xr:uid="{C244623C-48DE-4D05-852C-6EFDD885ABE2}"/>
+  <autoFilter ref="A1:J336" xr:uid="{C244623C-48DE-4D05-852C-6EFDD885ABE2}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="SAÚDE"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J27">
     <sortCondition ref="A13"/>
   </sortState>
@@ -3147,8 +3153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD39631B-97B8-405A-AA43-14CDFBC77F92}">
   <dimension ref="A1:J336"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A295" workbookViewId="0">
-      <selection activeCell="J316" sqref="J316"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -3198,7 +3204,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" hidden="1">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -3230,7 +3236,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" hidden="1">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -3262,7 +3268,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" hidden="1">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -3294,7 +3300,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" hidden="1">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -3326,7 +3332,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" hidden="1">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -3358,7 +3364,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" hidden="1">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -3390,7 +3396,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" hidden="1">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -3422,7 +3428,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" hidden="1">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -3454,7 +3460,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" hidden="1">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -3484,7 +3490,7 @@
       </c>
       <c r="J10" s="7"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" hidden="1">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -3514,7 +3520,7 @@
       </c>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" hidden="1">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -3546,7 +3552,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" hidden="1">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -3592,10 +3598,10 @@
         <v>56</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>29</v>
+        <v>665</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>15</v>
@@ -3604,13 +3610,13 @@
         <v>45652</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" hidden="1">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -3642,7 +3648,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" hidden="1">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -3671,7 +3677,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" hidden="1">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -3703,7 +3709,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" hidden="1">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -3735,7 +3741,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" hidden="1">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -3767,7 +3773,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" hidden="1">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -3799,7 +3805,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" hidden="1">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -3831,7 +3837,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1">
+    <row r="22" spans="1:10" ht="15.75" hidden="1" customHeight="1">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -3863,7 +3869,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" hidden="1">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -3895,7 +3901,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" hidden="1">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -3927,7 +3933,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" hidden="1">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -3959,7 +3965,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" hidden="1">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -3988,7 +3994,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" hidden="1">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -4017,7 +4023,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" hidden="1">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -4049,7 +4055,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" hidden="1">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -4081,7 +4087,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" hidden="1">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -4113,7 +4119,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" hidden="1">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -4145,7 +4151,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" hidden="1">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -4206,7 +4212,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" hidden="1">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -4238,7 +4244,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" hidden="1">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -4270,7 +4276,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" hidden="1">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -4302,7 +4308,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" hidden="1">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -4331,7 +4337,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" hidden="1">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -4363,7 +4369,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" hidden="1">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -4395,7 +4401,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" hidden="1">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -4427,7 +4433,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" hidden="1">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -4459,7 +4465,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" hidden="1">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -4491,7 +4497,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" hidden="1">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -4523,7 +4529,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" hidden="1">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -4555,7 +4561,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" hidden="1">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -4587,7 +4593,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" hidden="1">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -4616,7 +4622,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" hidden="1">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -4648,7 +4654,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" hidden="1">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -4680,7 +4686,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" hidden="1">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -4712,7 +4718,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" hidden="1">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -4741,7 +4747,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" hidden="1">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -4770,7 +4776,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" hidden="1">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -4802,7 +4808,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" hidden="1">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -4831,7 +4837,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" hidden="1">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -4860,7 +4866,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" hidden="1">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -4889,7 +4895,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" hidden="1">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -4918,7 +4924,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" hidden="1">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -4947,7 +4953,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" hidden="1">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -4976,7 +4982,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" hidden="1">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -5008,7 +5014,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" hidden="1">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -5040,7 +5046,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" hidden="1">
       <c r="A61" s="4">
         <v>60</v>
       </c>
@@ -5069,7 +5075,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" hidden="1">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -5101,7 +5107,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" hidden="1">
       <c r="A63" s="4">
         <v>62</v>
       </c>
@@ -5130,7 +5136,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" hidden="1">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -5159,7 +5165,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" hidden="1">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -5188,7 +5194,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" hidden="1">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -5217,7 +5223,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" hidden="1">
       <c r="A67" s="4">
         <v>66</v>
       </c>
@@ -5249,7 +5255,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" hidden="1">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -5281,7 +5287,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" hidden="1">
       <c r="A69" s="4">
         <v>68</v>
       </c>
@@ -5310,7 +5316,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" hidden="1">
       <c r="A70" s="4">
         <v>69</v>
       </c>
@@ -5342,7 +5348,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" hidden="1">
       <c r="A71" s="4">
         <v>70</v>
       </c>
@@ -5374,7 +5380,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" hidden="1">
       <c r="A72" s="4">
         <v>71</v>
       </c>
@@ -5406,7 +5412,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" hidden="1">
       <c r="A73" s="4">
         <v>72</v>
       </c>
@@ -5438,7 +5444,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" hidden="1">
       <c r="A74" s="4">
         <v>73</v>
       </c>
@@ -5467,7 +5473,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" hidden="1">
       <c r="A75" s="4">
         <v>74</v>
       </c>
@@ -5499,7 +5505,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" hidden="1">
       <c r="A76" s="4">
         <v>75</v>
       </c>
@@ -5531,7 +5537,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" hidden="1">
       <c r="A77" s="4">
         <v>76</v>
       </c>
@@ -5563,7 +5569,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" hidden="1">
       <c r="A78" s="4">
         <v>77</v>
       </c>
@@ -5595,7 +5601,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" hidden="1">
       <c r="A79" s="4">
         <v>78</v>
       </c>
@@ -5627,7 +5633,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" hidden="1">
       <c r="A80" s="4">
         <v>79</v>
       </c>
@@ -5659,7 +5665,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" hidden="1">
       <c r="A81" s="4">
         <v>80</v>
       </c>
@@ -5685,7 +5691,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" hidden="1">
       <c r="A82" s="4">
         <v>81</v>
       </c>
@@ -5711,7 +5717,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" hidden="1">
       <c r="A83" s="4">
         <v>82</v>
       </c>
@@ -5737,7 +5743,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" hidden="1">
       <c r="A84" s="4">
         <v>83</v>
       </c>
@@ -5769,7 +5775,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" hidden="1">
       <c r="A85" s="4">
         <v>84</v>
       </c>
@@ -5801,7 +5807,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" hidden="1">
       <c r="A86" s="4">
         <v>85</v>
       </c>
@@ -5833,7 +5839,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:10" hidden="1">
       <c r="A87" s="4">
         <v>86</v>
       </c>
@@ -5865,7 +5871,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:10" hidden="1">
       <c r="A88" s="4">
         <v>87</v>
       </c>
@@ -5894,7 +5900,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:10" hidden="1">
       <c r="A89" s="4">
         <v>88</v>
       </c>
@@ -5923,7 +5929,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:10" hidden="1">
       <c r="A90" s="4">
         <v>89</v>
       </c>
@@ -5955,7 +5961,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:10" hidden="1">
       <c r="A91" s="4">
         <v>90</v>
       </c>
@@ -5981,7 +5987,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:10" hidden="1">
       <c r="A92" s="4">
         <v>91</v>
       </c>
@@ -6007,7 +6013,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:10" hidden="1">
       <c r="A93" s="4">
         <v>92</v>
       </c>
@@ -6039,7 +6045,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:10" hidden="1">
       <c r="A94" s="4">
         <v>93</v>
       </c>
@@ -6065,7 +6071,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:10" hidden="1">
       <c r="A95" s="4">
         <v>94</v>
       </c>
@@ -6094,7 +6100,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" spans="1:10" hidden="1">
       <c r="A96" s="4">
         <v>95</v>
       </c>
@@ -6123,7 +6129,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" hidden="1">
       <c r="A97" s="4">
         <v>96</v>
       </c>
@@ -6152,7 +6158,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" hidden="1">
       <c r="A98" s="4">
         <v>97</v>
       </c>
@@ -6181,7 +6187,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" hidden="1">
       <c r="A99" s="4">
         <v>98</v>
       </c>
@@ -6213,7 +6219,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" hidden="1">
       <c r="A100" s="4">
         <v>99</v>
       </c>
@@ -6245,7 +6251,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" hidden="1">
       <c r="A101" s="4">
         <v>100</v>
       </c>
@@ -6277,7 +6283,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" hidden="1">
       <c r="A102" s="4">
         <v>101</v>
       </c>
@@ -6309,7 +6315,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:10" hidden="1">
       <c r="A103" s="4">
         <v>102</v>
       </c>
@@ -6341,7 +6347,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:10" hidden="1">
       <c r="A104" s="4">
         <v>103</v>
       </c>
@@ -6373,7 +6379,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:10" hidden="1">
       <c r="A105" s="4">
         <v>104</v>
       </c>
@@ -6405,7 +6411,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:10" hidden="1">
       <c r="A106" s="4">
         <v>105</v>
       </c>
@@ -6437,7 +6443,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:10" hidden="1">
       <c r="A107" s="4">
         <v>106</v>
       </c>
@@ -6469,7 +6475,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:10" hidden="1">
       <c r="A108" s="4">
         <v>107</v>
       </c>
@@ -6501,7 +6507,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:10" hidden="1">
       <c r="A109" s="4">
         <v>108</v>
       </c>
@@ -6533,7 +6539,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:10" hidden="1">
       <c r="A110" s="4">
         <v>109</v>
       </c>
@@ -6565,7 +6571,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:10" hidden="1">
       <c r="A111" s="4">
         <v>110</v>
       </c>
@@ -6597,7 +6603,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:10" hidden="1">
       <c r="A112" s="4">
         <v>111</v>
       </c>
@@ -6629,7 +6635,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="113" spans="1:10">
+    <row r="113" spans="1:10" hidden="1">
       <c r="A113" s="4">
         <v>112</v>
       </c>
@@ -6661,7 +6667,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="114" spans="1:10">
+    <row r="114" spans="1:10" hidden="1">
       <c r="A114" s="4">
         <v>113</v>
       </c>
@@ -6693,7 +6699,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="115" spans="1:10">
+    <row r="115" spans="1:10" hidden="1">
       <c r="A115" s="4">
         <v>114</v>
       </c>
@@ -6725,7 +6731,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="116" spans="1:10">
+    <row r="116" spans="1:10" hidden="1">
       <c r="A116" s="4">
         <v>115</v>
       </c>
@@ -6757,7 +6763,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="117" spans="1:10">
+    <row r="117" spans="1:10" hidden="1">
       <c r="A117" s="4">
         <v>116</v>
       </c>
@@ -6789,7 +6795,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="118" spans="1:10">
+    <row r="118" spans="1:10" hidden="1">
       <c r="A118" s="4">
         <v>117</v>
       </c>
@@ -6821,7 +6827,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="119" spans="1:10">
+    <row r="119" spans="1:10" hidden="1">
       <c r="A119" s="4">
         <v>118</v>
       </c>
@@ -6853,7 +6859,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="120" spans="1:10">
+    <row r="120" spans="1:10" hidden="1">
       <c r="A120" s="4">
         <v>119</v>
       </c>
@@ -6885,7 +6891,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" spans="1:10" hidden="1">
       <c r="A121" s="4">
         <v>120</v>
       </c>
@@ -6911,7 +6917,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="122" spans="1:10">
+    <row r="122" spans="1:10" hidden="1">
       <c r="A122" s="4">
         <v>121</v>
       </c>
@@ -6937,7 +6943,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="123" spans="1:10">
+    <row r="123" spans="1:10" hidden="1">
       <c r="A123" s="4">
         <v>122</v>
       </c>
@@ -6969,7 +6975,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="124" spans="1:10">
+    <row r="124" spans="1:10" hidden="1">
       <c r="A124" s="4">
         <v>123</v>
       </c>
@@ -6995,7 +7001,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="125" spans="1:10">
+    <row r="125" spans="1:10" hidden="1">
       <c r="A125" s="4">
         <v>124</v>
       </c>
@@ -7027,7 +7033,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="126" spans="1:10">
+    <row r="126" spans="1:10" hidden="1">
       <c r="A126" s="4">
         <v>125</v>
       </c>
@@ -7059,7 +7065,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="127" spans="1:10">
+    <row r="127" spans="1:10" hidden="1">
       <c r="A127" s="4">
         <v>126</v>
       </c>
@@ -7091,7 +7097,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="128" spans="1:10">
+    <row r="128" spans="1:10" hidden="1">
       <c r="A128" s="4">
         <v>127</v>
       </c>
@@ -7123,7 +7129,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="129" spans="1:10">
+    <row r="129" spans="1:10" hidden="1">
       <c r="A129" s="4">
         <v>128</v>
       </c>
@@ -7155,7 +7161,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="130" spans="1:10">
+    <row r="130" spans="1:10" hidden="1">
       <c r="A130" s="4">
         <v>129</v>
       </c>
@@ -7187,7 +7193,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="131" spans="1:10">
+    <row r="131" spans="1:10" hidden="1">
       <c r="A131" s="4">
         <v>130</v>
       </c>
@@ -7219,7 +7225,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="132" spans="1:10">
+    <row r="132" spans="1:10" hidden="1">
       <c r="A132" s="4">
         <v>131</v>
       </c>
@@ -7251,7 +7257,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="133" spans="1:10">
+    <row r="133" spans="1:10" hidden="1">
       <c r="A133" s="4">
         <v>132</v>
       </c>
@@ -7283,7 +7289,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="134" spans="1:10">
+    <row r="134" spans="1:10" hidden="1">
       <c r="A134" s="4">
         <v>133</v>
       </c>
@@ -7315,7 +7321,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="135" spans="1:10">
+    <row r="135" spans="1:10" hidden="1">
       <c r="A135" s="4">
         <v>134</v>
       </c>
@@ -7347,7 +7353,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="136" spans="1:10">
+    <row r="136" spans="1:10" hidden="1">
       <c r="A136" s="4">
         <v>135</v>
       </c>
@@ -7379,7 +7385,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="137" spans="1:10">
+    <row r="137" spans="1:10" hidden="1">
       <c r="A137" s="4">
         <v>136</v>
       </c>
@@ -7411,7 +7417,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="138" spans="1:10">
+    <row r="138" spans="1:10" hidden="1">
       <c r="A138" s="4">
         <v>137</v>
       </c>
@@ -7443,7 +7449,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="139" spans="1:10">
+    <row r="139" spans="1:10" hidden="1">
       <c r="A139" s="4">
         <v>138</v>
       </c>
@@ -7475,7 +7481,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="140" spans="1:10">
+    <row r="140" spans="1:10" hidden="1">
       <c r="A140" s="4">
         <v>139</v>
       </c>
@@ -7507,7 +7513,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="141" spans="1:10">
+    <row r="141" spans="1:10" hidden="1">
       <c r="A141" s="4">
         <v>140</v>
       </c>
@@ -7539,7 +7545,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="142" spans="1:10">
+    <row r="142" spans="1:10" hidden="1">
       <c r="A142" s="4">
         <v>141</v>
       </c>
@@ -7568,7 +7574,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="143" spans="1:10">
+    <row r="143" spans="1:10" hidden="1">
       <c r="A143" s="4">
         <v>142</v>
       </c>
@@ -7597,7 +7603,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="144" spans="1:10">
+    <row r="144" spans="1:10" hidden="1">
       <c r="A144" s="4">
         <v>143</v>
       </c>
@@ -7629,7 +7635,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="145" spans="1:10">
+    <row r="145" spans="1:10" hidden="1">
       <c r="A145" s="4">
         <v>144</v>
       </c>
@@ -7661,7 +7667,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="146" spans="1:10">
+    <row r="146" spans="1:10" hidden="1">
       <c r="A146" s="4">
         <v>145</v>
       </c>
@@ -7693,7 +7699,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="147" spans="1:10">
+    <row r="147" spans="1:10" hidden="1">
       <c r="A147" s="4">
         <v>146</v>
       </c>
@@ -7725,7 +7731,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="148" spans="1:10">
+    <row r="148" spans="1:10" hidden="1">
       <c r="A148" s="4">
         <v>147</v>
       </c>
@@ -7754,7 +7760,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="149" spans="1:10">
+    <row r="149" spans="1:10" hidden="1">
       <c r="A149" s="4">
         <v>148</v>
       </c>
@@ -7786,7 +7792,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="150" spans="1:10">
+    <row r="150" spans="1:10" hidden="1">
       <c r="A150" s="4">
         <v>149</v>
       </c>
@@ -7818,7 +7824,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="151" spans="1:10">
+    <row r="151" spans="1:10" hidden="1">
       <c r="A151" s="4">
         <v>150</v>
       </c>
@@ -7847,7 +7853,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="152" spans="1:10">
+    <row r="152" spans="1:10" hidden="1">
       <c r="A152" s="4">
         <v>151</v>
       </c>
@@ -7876,7 +7882,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="153" spans="1:10">
+    <row r="153" spans="1:10" hidden="1">
       <c r="A153" s="4">
         <v>152</v>
       </c>
@@ -7905,7 +7911,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="154" spans="1:10">
+    <row r="154" spans="1:10" hidden="1">
       <c r="A154" s="4">
         <v>153</v>
       </c>
@@ -7932,7 +7938,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="155" spans="1:10">
+    <row r="155" spans="1:10" hidden="1">
       <c r="A155" s="4">
         <v>154</v>
       </c>
@@ -7964,7 +7970,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="156" spans="1:10">
+    <row r="156" spans="1:10" hidden="1">
       <c r="A156" s="4">
         <v>155</v>
       </c>
@@ -7990,7 +7996,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="157" spans="1:10">
+    <row r="157" spans="1:10" hidden="1">
       <c r="A157" s="4">
         <v>156</v>
       </c>
@@ -8022,7 +8028,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="158" spans="1:10">
+    <row r="158" spans="1:10" hidden="1">
       <c r="A158" s="4">
         <v>157</v>
       </c>
@@ -8054,7 +8060,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="159" spans="1:10">
+    <row r="159" spans="1:10" hidden="1">
       <c r="A159" s="4">
         <v>158</v>
       </c>
@@ -8086,7 +8092,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="160" spans="1:10">
+    <row r="160" spans="1:10" hidden="1">
       <c r="A160" s="4">
         <v>159</v>
       </c>
@@ -8115,7 +8121,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="161" spans="1:10">
+    <row r="161" spans="1:10" hidden="1">
       <c r="A161" s="4">
         <v>160</v>
       </c>
@@ -8144,7 +8150,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="162" spans="1:10">
+    <row r="162" spans="1:10" hidden="1">
       <c r="A162" s="4">
         <v>161</v>
       </c>
@@ -8173,7 +8179,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="163" spans="1:10">
+    <row r="163" spans="1:10" hidden="1">
       <c r="A163" s="4">
         <v>162</v>
       </c>
@@ -8232,7 +8238,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="165" spans="1:10">
+    <row r="165" spans="1:10" hidden="1">
       <c r="A165" s="4">
         <v>164</v>
       </c>
@@ -8258,7 +8264,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="166" spans="1:10">
+    <row r="166" spans="1:10" hidden="1">
       <c r="A166" s="4">
         <v>165</v>
       </c>
@@ -8284,7 +8290,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="167" spans="1:10">
+    <row r="167" spans="1:10" hidden="1">
       <c r="A167" s="4">
         <v>166</v>
       </c>
@@ -8313,7 +8319,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="168" spans="1:10">
+    <row r="168" spans="1:10" hidden="1">
       <c r="A168" s="4">
         <v>167</v>
       </c>
@@ -8342,7 +8348,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="169" spans="1:10">
+    <row r="169" spans="1:10" hidden="1">
       <c r="A169" s="4">
         <v>168</v>
       </c>
@@ -8371,7 +8377,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="170" spans="1:10">
+    <row r="170" spans="1:10" hidden="1">
       <c r="A170" s="4">
         <v>169</v>
       </c>
@@ -8400,7 +8406,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="171" spans="1:10">
+    <row r="171" spans="1:10" hidden="1">
       <c r="A171" s="4">
         <v>170</v>
       </c>
@@ -8429,7 +8435,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="172" spans="1:10">
+    <row r="172" spans="1:10" hidden="1">
       <c r="A172" s="4">
         <v>171</v>
       </c>
@@ -8458,7 +8464,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="173" spans="1:10">
+    <row r="173" spans="1:10" hidden="1">
       <c r="A173" s="4">
         <v>172</v>
       </c>
@@ -8487,7 +8493,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="174" spans="1:10">
+    <row r="174" spans="1:10" hidden="1">
       <c r="A174" s="4">
         <v>173</v>
       </c>
@@ -8516,7 +8522,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="175" spans="1:10">
+    <row r="175" spans="1:10" hidden="1">
       <c r="A175" s="4">
         <v>174</v>
       </c>
@@ -8545,7 +8551,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="176" spans="1:10">
+    <row r="176" spans="1:10" hidden="1">
       <c r="A176" s="4">
         <v>175</v>
       </c>
@@ -8574,7 +8580,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="177" spans="1:10">
+    <row r="177" spans="1:10" hidden="1">
       <c r="A177" s="4">
         <v>176</v>
       </c>
@@ -8603,7 +8609,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="178" spans="1:10">
+    <row r="178" spans="1:10" hidden="1">
       <c r="A178" s="4">
         <v>177</v>
       </c>
@@ -8632,7 +8638,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="179" spans="1:10">
+    <row r="179" spans="1:10" hidden="1">
       <c r="A179" s="4">
         <v>178</v>
       </c>
@@ -8661,7 +8667,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="180" spans="1:10">
+    <row r="180" spans="1:10" hidden="1">
       <c r="A180" s="4">
         <v>179</v>
       </c>
@@ -8690,7 +8696,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="181" spans="1:10">
+    <row r="181" spans="1:10" hidden="1">
       <c r="A181" s="4">
         <v>180</v>
       </c>
@@ -8719,7 +8725,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="182" spans="1:10">
+    <row r="182" spans="1:10" hidden="1">
       <c r="A182" s="4">
         <v>181</v>
       </c>
@@ -8748,7 +8754,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="183" spans="1:10">
+    <row r="183" spans="1:10" hidden="1">
       <c r="A183" s="4">
         <v>182</v>
       </c>
@@ -8777,7 +8783,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="184" spans="1:10">
+    <row r="184" spans="1:10" hidden="1">
       <c r="A184" s="4">
         <v>183</v>
       </c>
@@ -8806,7 +8812,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="185" spans="1:10">
+    <row r="185" spans="1:10" hidden="1">
       <c r="A185" s="4">
         <v>184</v>
       </c>
@@ -8835,7 +8841,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="186" spans="1:10">
+    <row r="186" spans="1:10" hidden="1">
       <c r="A186" s="4">
         <v>185</v>
       </c>
@@ -8864,7 +8870,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="187" spans="1:10">
+    <row r="187" spans="1:10" hidden="1">
       <c r="A187" s="4">
         <v>186</v>
       </c>
@@ -8893,7 +8899,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="188" spans="1:10">
+    <row r="188" spans="1:10" hidden="1">
       <c r="A188" s="4">
         <v>187</v>
       </c>
@@ -8922,7 +8928,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="189" spans="1:10">
+    <row r="189" spans="1:10" hidden="1">
       <c r="A189" s="4">
         <v>188</v>
       </c>
@@ -8954,7 +8960,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="190" spans="1:10">
+    <row r="190" spans="1:10" hidden="1">
       <c r="A190" s="4">
         <v>189</v>
       </c>
@@ -8982,7 +8988,7 @@
       </c>
       <c r="J190" s="7"/>
     </row>
-    <row r="191" spans="1:10">
+    <row r="191" spans="1:10" hidden="1">
       <c r="A191" s="4">
         <v>190</v>
       </c>
@@ -9009,7 +9015,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="192" spans="1:10">
+    <row r="192" spans="1:10" hidden="1">
       <c r="A192" s="4">
         <v>191</v>
       </c>
@@ -9036,7 +9042,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="193" spans="1:10">
+    <row r="193" spans="1:10" hidden="1">
       <c r="A193" s="4">
         <v>192</v>
       </c>
@@ -9066,7 +9072,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="194" spans="1:10">
+    <row r="194" spans="1:10" hidden="1">
       <c r="A194" s="4">
         <v>193</v>
       </c>
@@ -9083,7 +9089,7 @@
         <v>21</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="G194" s="5" t="s">
         <v>15</v>
@@ -9098,7 +9104,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="195" spans="1:10">
+    <row r="195" spans="1:10" hidden="1">
       <c r="A195" s="4">
         <v>194</v>
       </c>
@@ -9130,7 +9136,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="196" spans="1:10">
+    <row r="196" spans="1:10" hidden="1">
       <c r="A196" s="4">
         <v>195</v>
       </c>
@@ -9162,7 +9168,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="197" spans="1:10">
+    <row r="197" spans="1:10" hidden="1">
       <c r="A197" s="4">
         <v>196</v>
       </c>
@@ -9194,7 +9200,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="198" spans="1:10">
+    <row r="198" spans="1:10" hidden="1">
       <c r="A198" s="4">
         <v>197</v>
       </c>
@@ -9226,7 +9232,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="199" spans="1:10">
+    <row r="199" spans="1:10" hidden="1">
       <c r="A199" s="4">
         <v>198</v>
       </c>
@@ -9255,7 +9261,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="200" spans="1:10">
+    <row r="200" spans="1:10" hidden="1">
       <c r="A200" s="4">
         <v>199</v>
       </c>
@@ -9287,7 +9293,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="201" spans="1:10">
+    <row r="201" spans="1:10" hidden="1">
       <c r="A201" s="4">
         <v>200</v>
       </c>
@@ -9319,7 +9325,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="202" spans="1:10">
+    <row r="202" spans="1:10" hidden="1">
       <c r="A202" s="4">
         <v>201</v>
       </c>
@@ -9351,7 +9357,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="203" spans="1:10">
+    <row r="203" spans="1:10" hidden="1">
       <c r="A203" s="4">
         <v>202</v>
       </c>
@@ -9380,10 +9386,10 @@
         <v>16</v>
       </c>
       <c r="J203" s="3" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="204" spans="1:10">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" hidden="1">
       <c r="A204" s="4">
         <v>203</v>
       </c>
@@ -9415,7 +9421,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="205" spans="1:10">
+    <row r="205" spans="1:10" hidden="1">
       <c r="A205" s="4">
         <v>204</v>
       </c>
@@ -9447,7 +9453,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="206" spans="1:10">
+    <row r="206" spans="1:10" hidden="1">
       <c r="A206" s="4">
         <v>205</v>
       </c>
@@ -9479,7 +9485,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="207" spans="1:10">
+    <row r="207" spans="1:10" hidden="1">
       <c r="A207" s="4">
         <v>206</v>
       </c>
@@ -9511,7 +9517,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="208" spans="1:10">
+    <row r="208" spans="1:10" hidden="1">
       <c r="A208" s="4">
         <v>207</v>
       </c>
@@ -9543,7 +9549,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="209" spans="1:10">
+    <row r="209" spans="1:10" hidden="1">
       <c r="A209" s="4">
         <v>208</v>
       </c>
@@ -9575,7 +9581,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="210" spans="1:10">
+    <row r="210" spans="1:10" hidden="1">
       <c r="A210" s="4">
         <v>209</v>
       </c>
@@ -9607,7 +9613,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="211" spans="1:10">
+    <row r="211" spans="1:10" hidden="1">
       <c r="A211" s="4">
         <v>210</v>
       </c>
@@ -9639,7 +9645,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="212" spans="1:10">
+    <row r="212" spans="1:10" hidden="1">
       <c r="A212" s="4">
         <v>211</v>
       </c>
@@ -9671,7 +9677,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="213" spans="1:10">
+    <row r="213" spans="1:10" hidden="1">
       <c r="A213" s="4">
         <v>212</v>
       </c>
@@ -9703,7 +9709,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="214" spans="1:10">
+    <row r="214" spans="1:10" hidden="1">
       <c r="A214" s="4">
         <v>213</v>
       </c>
@@ -9735,7 +9741,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="215" spans="1:10">
+    <row r="215" spans="1:10" hidden="1">
       <c r="A215" s="4">
         <v>214</v>
       </c>
@@ -9767,7 +9773,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="216" spans="1:10">
+    <row r="216" spans="1:10" hidden="1">
       <c r="A216" s="4">
         <v>215</v>
       </c>
@@ -9799,7 +9805,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="217" spans="1:10">
+    <row r="217" spans="1:10" hidden="1">
       <c r="A217" s="4">
         <v>216</v>
       </c>
@@ -9825,7 +9831,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="218" spans="1:10">
+    <row r="218" spans="1:10" hidden="1">
       <c r="A218" s="4">
         <v>217</v>
       </c>
@@ -9857,7 +9863,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="219" spans="1:10">
+    <row r="219" spans="1:10" hidden="1">
       <c r="A219" s="4">
         <v>218</v>
       </c>
@@ -9883,7 +9889,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="220" spans="1:10">
+    <row r="220" spans="1:10" hidden="1">
       <c r="A220" s="4">
         <v>219</v>
       </c>
@@ -9915,7 +9921,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="221" spans="1:10">
+    <row r="221" spans="1:10" hidden="1">
       <c r="A221" s="4">
         <v>220</v>
       </c>
@@ -9944,7 +9950,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="222" spans="1:10">
+    <row r="222" spans="1:10" hidden="1">
       <c r="A222" s="4">
         <v>221</v>
       </c>
@@ -9976,7 +9982,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="223" spans="1:10">
+    <row r="223" spans="1:10" hidden="1">
       <c r="A223" s="4">
         <v>222</v>
       </c>
@@ -10006,7 +10012,7 @@
       </c>
       <c r="J223" s="7"/>
     </row>
-    <row r="224" spans="1:10">
+    <row r="224" spans="1:10" hidden="1">
       <c r="A224" s="4">
         <v>223</v>
       </c>
@@ -10038,7 +10044,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="225" spans="1:10">
+    <row r="225" spans="1:10" hidden="1">
       <c r="A225" s="4">
         <v>224</v>
       </c>
@@ -10070,7 +10076,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="226" spans="1:10">
+    <row r="226" spans="1:10" hidden="1">
       <c r="A226" s="4">
         <v>225</v>
       </c>
@@ -10102,7 +10108,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="227" spans="1:10">
+    <row r="227" spans="1:10" hidden="1">
       <c r="A227" s="4">
         <v>226</v>
       </c>
@@ -10134,7 +10140,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="228" spans="1:10">
+    <row r="228" spans="1:10" hidden="1">
       <c r="A228" s="4">
         <v>227</v>
       </c>
@@ -10166,7 +10172,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="229" spans="1:10">
+    <row r="229" spans="1:10" hidden="1">
       <c r="A229" s="4">
         <v>228</v>
       </c>
@@ -10196,7 +10202,7 @@
       </c>
       <c r="J229" s="20"/>
     </row>
-    <row r="230" spans="1:10">
+    <row r="230" spans="1:10" hidden="1">
       <c r="A230" s="4">
         <v>229</v>
       </c>
@@ -10228,7 +10234,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="231" spans="1:10">
+    <row r="231" spans="1:10" hidden="1">
       <c r="A231" s="4">
         <v>230</v>
       </c>
@@ -10260,7 +10266,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="232" spans="1:10">
+    <row r="232" spans="1:10" hidden="1">
       <c r="A232" s="4">
         <v>231</v>
       </c>
@@ -10292,7 +10298,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="233" spans="1:10">
+    <row r="233" spans="1:10" hidden="1">
       <c r="A233" s="4">
         <v>232</v>
       </c>
@@ -10324,7 +10330,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="234" spans="1:10">
+    <row r="234" spans="1:10" hidden="1">
       <c r="A234" s="4">
         <v>233</v>
       </c>
@@ -10353,7 +10359,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="235" spans="1:10">
+    <row r="235" spans="1:10" hidden="1">
       <c r="A235" s="4">
         <v>234</v>
       </c>
@@ -10379,7 +10385,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="236" spans="1:10">
+    <row r="236" spans="1:10" hidden="1">
       <c r="A236" s="4">
         <v>235</v>
       </c>
@@ -10411,7 +10417,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="237" spans="1:10">
+    <row r="237" spans="1:10" hidden="1">
       <c r="A237" s="4">
         <v>236</v>
       </c>
@@ -10443,7 +10449,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="238" spans="1:10">
+    <row r="238" spans="1:10" hidden="1">
       <c r="A238" s="4">
         <v>237</v>
       </c>
@@ -10472,7 +10478,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="239" spans="1:10">
+    <row r="239" spans="1:10" hidden="1">
       <c r="A239" s="4">
         <v>238</v>
       </c>
@@ -10504,7 +10510,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="240" spans="1:10">
+    <row r="240" spans="1:10" hidden="1">
       <c r="A240" s="4">
         <v>239</v>
       </c>
@@ -10533,7 +10539,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="241" spans="1:10">
+    <row r="241" spans="1:10" hidden="1">
       <c r="A241" s="4">
         <v>240</v>
       </c>
@@ -10562,7 +10568,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="242" spans="1:10">
+    <row r="242" spans="1:10" hidden="1">
       <c r="A242" s="4">
         <v>241</v>
       </c>
@@ -10588,7 +10594,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="243" spans="1:10">
+    <row r="243" spans="1:10" hidden="1">
       <c r="A243" s="4">
         <v>242</v>
       </c>
@@ -10620,7 +10626,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="244" spans="1:10">
+    <row r="244" spans="1:10" hidden="1">
       <c r="A244" s="4">
         <v>243</v>
       </c>
@@ -10652,7 +10658,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="245" spans="1:10">
+    <row r="245" spans="1:10" hidden="1">
       <c r="A245" s="4">
         <v>244</v>
       </c>
@@ -10684,7 +10690,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="246" spans="1:10">
+    <row r="246" spans="1:10" hidden="1">
       <c r="A246" s="4">
         <v>245</v>
       </c>
@@ -10698,10 +10704,10 @@
         <v>543</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G246" s="5" t="s">
         <v>15</v>
@@ -10716,7 +10722,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="247" spans="1:10">
+    <row r="247" spans="1:10" hidden="1">
       <c r="A247" s="4">
         <v>246</v>
       </c>
@@ -10748,7 +10754,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="248" spans="1:10">
+    <row r="248" spans="1:10" hidden="1">
       <c r="A248" s="4">
         <v>247</v>
       </c>
@@ -10780,7 +10786,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="249" spans="1:10">
+    <row r="249" spans="1:10" hidden="1">
       <c r="A249" s="4">
         <v>248</v>
       </c>
@@ -10812,7 +10818,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="250" spans="1:10">
+    <row r="250" spans="1:10" hidden="1">
       <c r="A250" s="4">
         <v>249</v>
       </c>
@@ -10844,7 +10850,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="251" spans="1:10">
+    <row r="251" spans="1:10" hidden="1">
       <c r="A251" s="4">
         <v>250</v>
       </c>
@@ -10876,7 +10882,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="252" spans="1:10">
+    <row r="252" spans="1:10" hidden="1">
       <c r="A252" s="4">
         <v>251</v>
       </c>
@@ -10908,7 +10914,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="253" spans="1:10">
+    <row r="253" spans="1:10" hidden="1">
       <c r="A253" s="4">
         <v>252</v>
       </c>
@@ -10940,7 +10946,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="254" spans="1:10">
+    <row r="254" spans="1:10" hidden="1">
       <c r="A254" s="4">
         <v>253</v>
       </c>
@@ -10972,7 +10978,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="255" spans="1:10">
+    <row r="255" spans="1:10" hidden="1">
       <c r="A255" s="4">
         <v>254</v>
       </c>
@@ -11004,7 +11010,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="256" spans="1:10">
+    <row r="256" spans="1:10" hidden="1">
       <c r="A256" s="4">
         <v>255</v>
       </c>
@@ -11033,7 +11039,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="257" spans="1:10">
+    <row r="257" spans="1:10" hidden="1">
       <c r="A257" s="4">
         <v>256</v>
       </c>
@@ -11065,7 +11071,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="258" spans="1:10">
+    <row r="258" spans="1:10" hidden="1">
       <c r="A258" s="4">
         <v>257</v>
       </c>
@@ -11097,7 +11103,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="259" spans="1:10">
+    <row r="259" spans="1:10" hidden="1">
       <c r="A259" s="4">
         <v>258</v>
       </c>
@@ -11129,7 +11135,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="260" spans="1:10">
+    <row r="260" spans="1:10" hidden="1">
       <c r="A260" s="4">
         <v>259</v>
       </c>
@@ -11161,7 +11167,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="261" spans="1:10">
+    <row r="261" spans="1:10" hidden="1">
       <c r="A261" s="4">
         <v>260</v>
       </c>
@@ -11193,7 +11199,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="262" spans="1:10">
+    <row r="262" spans="1:10" hidden="1">
       <c r="A262" s="4">
         <v>261</v>
       </c>
@@ -11225,7 +11231,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="263" spans="1:10">
+    <row r="263" spans="1:10" hidden="1">
       <c r="A263" s="4">
         <v>262</v>
       </c>
@@ -11257,7 +11263,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="264" spans="1:10">
+    <row r="264" spans="1:10" hidden="1">
       <c r="A264" s="4">
         <v>263</v>
       </c>
@@ -11289,7 +11295,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="265" spans="1:10">
+    <row r="265" spans="1:10" hidden="1">
       <c r="A265" s="4">
         <v>264</v>
       </c>
@@ -11321,7 +11327,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="266" spans="1:10">
+    <row r="266" spans="1:10" hidden="1">
       <c r="A266" s="4">
         <v>265</v>
       </c>
@@ -11353,7 +11359,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="267" spans="1:10">
+    <row r="267" spans="1:10" hidden="1">
       <c r="A267" s="4">
         <v>266</v>
       </c>
@@ -11385,7 +11391,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="268" spans="1:10">
+    <row r="268" spans="1:10" hidden="1">
       <c r="A268" s="4">
         <v>267</v>
       </c>
@@ -11417,7 +11423,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="269" spans="1:10">
+    <row r="269" spans="1:10" hidden="1">
       <c r="A269" s="4">
         <v>268</v>
       </c>
@@ -11449,7 +11455,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="270" spans="1:10">
+    <row r="270" spans="1:10" hidden="1">
       <c r="A270" s="4">
         <v>269</v>
       </c>
@@ -11481,7 +11487,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="271" spans="1:10">
+    <row r="271" spans="1:10" hidden="1">
       <c r="A271" s="4">
         <v>270</v>
       </c>
@@ -11513,7 +11519,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="272" spans="1:10">
+    <row r="272" spans="1:10" hidden="1">
       <c r="A272" s="4">
         <v>271</v>
       </c>
@@ -11545,7 +11551,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="273" spans="1:10">
+    <row r="273" spans="1:10" hidden="1">
       <c r="A273" s="4">
         <v>272</v>
       </c>
@@ -11577,7 +11583,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="274" spans="1:10">
+    <row r="274" spans="1:10" hidden="1">
       <c r="A274" s="4">
         <v>273</v>
       </c>
@@ -11609,7 +11615,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="275" spans="1:10">
+    <row r="275" spans="1:10" hidden="1">
       <c r="A275" s="4">
         <v>274</v>
       </c>
@@ -11641,7 +11647,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="276" spans="1:10">
+    <row r="276" spans="1:10" hidden="1">
       <c r="A276" s="4">
         <v>275</v>
       </c>
@@ -11673,7 +11679,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="277" spans="1:10">
+    <row r="277" spans="1:10" hidden="1">
       <c r="A277" s="4">
         <v>276</v>
       </c>
@@ -11705,7 +11711,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="278" spans="1:10">
+    <row r="278" spans="1:10" hidden="1">
       <c r="A278" s="4">
         <v>277</v>
       </c>
@@ -11737,7 +11743,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="279" spans="1:10">
+    <row r="279" spans="1:10" hidden="1">
       <c r="A279" s="4">
         <v>278</v>
       </c>
@@ -11769,7 +11775,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="280" spans="1:10">
+    <row r="280" spans="1:10" hidden="1">
       <c r="A280" s="4">
         <v>279</v>
       </c>
@@ -11801,7 +11807,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="281" spans="1:10">
+    <row r="281" spans="1:10" hidden="1">
       <c r="A281" s="4">
         <v>280</v>
       </c>
@@ -11833,7 +11839,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="282" spans="1:10">
+    <row r="282" spans="1:10" hidden="1">
       <c r="A282" s="4">
         <v>281</v>
       </c>
@@ -11865,7 +11871,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="283" spans="1:10">
+    <row r="283" spans="1:10" hidden="1">
       <c r="A283" s="4">
         <v>282</v>
       </c>
@@ -11897,7 +11903,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="284" spans="1:10">
+    <row r="284" spans="1:10" hidden="1">
       <c r="A284" s="4">
         <v>283</v>
       </c>
@@ -11929,7 +11935,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="285" spans="1:10">
+    <row r="285" spans="1:10" hidden="1">
       <c r="A285" s="4">
         <v>284</v>
       </c>
@@ -11961,7 +11967,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="286" spans="1:10">
+    <row r="286" spans="1:10" hidden="1">
       <c r="A286" s="4">
         <v>285</v>
       </c>
@@ -11993,7 +11999,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="287" spans="1:10">
+    <row r="287" spans="1:10" hidden="1">
       <c r="A287" s="4">
         <v>286</v>
       </c>
@@ -12025,7 +12031,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="288" spans="1:10">
+    <row r="288" spans="1:10" hidden="1">
       <c r="A288" s="4">
         <v>287</v>
       </c>
@@ -12057,7 +12063,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="289" spans="1:10">
+    <row r="289" spans="1:10" hidden="1">
       <c r="A289" s="4">
         <v>288</v>
       </c>
@@ -12089,7 +12095,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="290" spans="1:10">
+    <row r="290" spans="1:10" hidden="1">
       <c r="A290" s="4">
         <v>289</v>
       </c>
@@ -12121,7 +12127,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="291" spans="1:10">
+    <row r="291" spans="1:10" hidden="1">
       <c r="A291" s="4">
         <v>290</v>
       </c>
@@ -12153,7 +12159,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="292" spans="1:10">
+    <row r="292" spans="1:10" hidden="1">
       <c r="A292" s="4">
         <v>291</v>
       </c>
@@ -12217,7 +12223,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="294" spans="1:10">
+    <row r="294" spans="1:10" hidden="1">
       <c r="A294" s="4">
         <v>293</v>
       </c>
@@ -12266,7 +12272,7 @@
         <v>102</v>
       </c>
       <c r="F295" s="1" t="s">
-        <v>663</v>
+        <v>758</v>
       </c>
       <c r="G295" s="2" t="s">
         <v>15</v>
@@ -12278,10 +12284,10 @@
         <v>104</v>
       </c>
       <c r="J295" s="3" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="296" spans="1:10">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" hidden="1">
       <c r="A296" s="4">
         <v>295</v>
       </c>
@@ -12292,13 +12298,13 @@
         <v>11</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="F296" s="1" t="s">
-        <v>666</v>
+        <v>32</v>
       </c>
       <c r="G296" s="2" t="s">
         <v>15</v>
@@ -12310,7 +12316,7 @@
         <v>104</v>
       </c>
       <c r="J296" s="3" t="s">
-        <v>667</v>
+        <v>757</v>
       </c>
     </row>
     <row r="297" spans="1:10">
@@ -12324,13 +12330,13 @@
         <v>11</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="E297" s="1" t="s">
         <v>102</v>
       </c>
       <c r="F297" s="1" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="G297" s="2" t="s">
         <v>15</v>
@@ -12342,10 +12348,10 @@
         <v>104</v>
       </c>
       <c r="J297" s="3" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="298" spans="1:10">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" hidden="1">
       <c r="A298" s="4">
         <v>297</v>
       </c>
@@ -12356,13 +12362,13 @@
         <v>11</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="E298" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F298" s="1" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G298" s="2" t="s">
         <v>15</v>
@@ -12374,10 +12380,10 @@
         <v>16</v>
       </c>
       <c r="J298" s="3" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="299" spans="1:10">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10" hidden="1">
       <c r="A299" s="4">
         <v>298</v>
       </c>
@@ -12388,13 +12394,13 @@
         <v>11</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="E299" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F299" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="G299" s="2" t="s">
         <v>15</v>
@@ -12406,10 +12412,10 @@
         <v>16</v>
       </c>
       <c r="J299" s="3" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="300" spans="1:10">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" hidden="1">
       <c r="A300" s="4">
         <v>299</v>
       </c>
@@ -12420,13 +12426,13 @@
         <v>11</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="E300" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F300" s="1" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="G300" s="2" t="s">
         <v>15</v>
@@ -12438,10 +12444,10 @@
         <v>16</v>
       </c>
       <c r="J300" s="3" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="301" spans="1:10">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" hidden="1">
       <c r="A301" s="4">
         <v>300</v>
       </c>
@@ -12452,7 +12458,7 @@
         <v>11</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="E301" s="1" t="s">
         <v>46</v>
@@ -12470,10 +12476,10 @@
         <v>16</v>
       </c>
       <c r="J301" s="3" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="302" spans="1:10">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" hidden="1">
       <c r="A302" s="4">
         <v>301</v>
       </c>
@@ -12484,13 +12490,13 @@
         <v>11</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="E302" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F302" s="1" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="G302" s="2" t="s">
         <v>15</v>
@@ -12502,7 +12508,7 @@
         <v>16</v>
       </c>
       <c r="J302" s="3" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="303" spans="1:10">
@@ -12516,13 +12522,13 @@
         <v>11</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E303" s="1" t="s">
         <v>102</v>
       </c>
       <c r="F303" s="1" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="G303" s="2" t="s">
         <v>15</v>
@@ -12534,10 +12540,10 @@
         <v>104</v>
       </c>
       <c r="J303" s="3" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="304" spans="1:10">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10" hidden="1">
       <c r="A304" s="4">
         <v>303</v>
       </c>
@@ -12548,13 +12554,13 @@
         <v>11</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="E304" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F304" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="G304" s="2" t="s">
         <v>15</v>
@@ -12566,10 +12572,10 @@
         <v>16</v>
       </c>
       <c r="J304" s="3" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="305" spans="1:10">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" hidden="1">
       <c r="A305" s="4">
         <v>304</v>
       </c>
@@ -12580,13 +12586,13 @@
         <v>11</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E305" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F305" s="1" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="G305" s="2" t="s">
         <v>15</v>
@@ -12598,10 +12604,10 @@
         <v>16</v>
       </c>
       <c r="J305" s="3" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="306" spans="1:10">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" hidden="1">
       <c r="A306" s="4">
         <v>305</v>
       </c>
@@ -12612,13 +12618,13 @@
         <v>11</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="E306" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F306" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G306" s="2" t="s">
         <v>15</v>
@@ -12630,10 +12636,10 @@
         <v>16</v>
       </c>
       <c r="J306" s="3" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="307" spans="1:10">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10" hidden="1">
       <c r="A307" s="4">
         <v>306</v>
       </c>
@@ -12644,13 +12650,13 @@
         <v>11</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="E307" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F307" s="1" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="G307" s="2" t="s">
         <v>15</v>
@@ -12662,10 +12668,10 @@
         <v>16</v>
       </c>
       <c r="J307" s="3" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="308" spans="1:10">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10" hidden="1">
       <c r="A308" s="4">
         <v>307</v>
       </c>
@@ -12676,7 +12682,7 @@
         <v>11</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E308" s="1" t="s">
         <v>28</v>
@@ -12694,10 +12700,10 @@
         <v>16</v>
       </c>
       <c r="J308" s="3" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="309" spans="1:10">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" hidden="1">
       <c r="A309" s="4">
         <v>308</v>
       </c>
@@ -12708,13 +12714,13 @@
         <v>11</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E309" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F309" s="1" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="G309" s="2" t="s">
         <v>15</v>
@@ -12723,13 +12729,13 @@
         <v>45702</v>
       </c>
       <c r="I309" s="9" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="J309" s="3" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="310" spans="1:10">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10" hidden="1">
       <c r="A310" s="4">
         <v>309</v>
       </c>
@@ -12740,13 +12746,13 @@
         <v>11</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E310" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F310" s="1" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="G310" s="2" t="s">
         <v>15</v>
@@ -12755,13 +12761,13 @@
         <v>45702</v>
       </c>
       <c r="I310" s="9" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="J310" s="3" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="311" spans="1:10">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" hidden="1">
       <c r="A311" s="4">
         <v>310</v>
       </c>
@@ -12772,13 +12778,13 @@
         <v>11</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E311" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F311" s="1" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="G311" s="2" t="s">
         <v>15</v>
@@ -12787,13 +12793,13 @@
         <v>45702</v>
       </c>
       <c r="I311" s="9" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="J311" s="3" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="312" spans="1:10">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10" hidden="1">
       <c r="A312" s="4">
         <v>311</v>
       </c>
@@ -12804,13 +12810,13 @@
         <v>11</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E312" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F312" s="1" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="G312" s="2" t="s">
         <v>15</v>
@@ -12822,10 +12828,10 @@
         <v>16</v>
       </c>
       <c r="J312" s="3" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="313" spans="1:10">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" hidden="1">
       <c r="A313" s="4">
         <v>312</v>
       </c>
@@ -12836,13 +12842,13 @@
         <v>11</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="E313" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F313" s="1" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="G313" s="2" t="s">
         <v>15</v>
@@ -12851,13 +12857,13 @@
         <v>45726</v>
       </c>
       <c r="I313" s="9" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="J313" s="3" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="314" spans="1:10">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" hidden="1">
       <c r="A314" s="4">
         <v>313</v>
       </c>
@@ -12868,13 +12874,13 @@
         <v>11</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="E314" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F314" s="1" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="G314" s="2" t="s">
         <v>15</v>
@@ -12883,13 +12889,13 @@
         <v>45726</v>
       </c>
       <c r="I314" s="9" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="J314" s="3" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="315" spans="1:10">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="315" spans="1:10" hidden="1">
       <c r="A315" s="4">
         <v>314</v>
       </c>
@@ -12900,13 +12906,13 @@
         <v>11</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="E315" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F315" s="1" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="G315" s="2" t="s">
         <v>15</v>
@@ -12915,13 +12921,13 @@
         <v>45726</v>
       </c>
       <c r="I315" s="9" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="J315" s="3" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="316" spans="1:10">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" hidden="1">
       <c r="A316" s="4">
         <v>315</v>
       </c>
@@ -12932,7 +12938,7 @@
         <v>11</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="E316" s="1" t="s">
         <v>92</v>
@@ -12950,10 +12956,10 @@
         <v>16</v>
       </c>
       <c r="J316" s="3" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="317" spans="1:10">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10" hidden="1">
       <c r="A317" s="4">
         <v>316</v>
       </c>
@@ -12964,13 +12970,13 @@
         <v>11</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E317" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F317" s="1" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G317" s="2" t="s">
         <v>15</v>
@@ -12982,10 +12988,10 @@
         <v>16</v>
       </c>
       <c r="J317" s="3" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="318" spans="1:10">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10" hidden="1">
       <c r="A318" s="4">
         <v>317</v>
       </c>
@@ -12996,13 +13002,13 @@
         <v>11</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E318" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F318" s="1" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G318" s="2" t="s">
         <v>15</v>
@@ -13014,10 +13020,10 @@
         <v>16</v>
       </c>
       <c r="J318" s="3" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="319" spans="1:10">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10" hidden="1">
       <c r="A319" s="4">
         <v>318</v>
       </c>
@@ -13028,13 +13034,13 @@
         <v>11</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E319" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F319" s="1" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G319" s="2" t="s">
         <v>15</v>
@@ -13046,10 +13052,10 @@
         <v>16</v>
       </c>
       <c r="J319" s="3" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="320" spans="1:10">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="320" spans="1:10" hidden="1">
       <c r="A320" s="4">
         <v>319</v>
       </c>
@@ -13060,13 +13066,13 @@
         <v>11</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E320" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F320" s="1" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G320" s="2" t="s">
         <v>15</v>
@@ -13078,10 +13084,10 @@
         <v>16</v>
       </c>
       <c r="J320" s="3" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="321" spans="1:10">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="321" spans="1:10" hidden="1">
       <c r="A321" s="4">
         <v>320</v>
       </c>
@@ -13092,13 +13098,13 @@
         <v>11</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E321" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F321" s="1" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G321" s="2" t="s">
         <v>15</v>
@@ -13110,10 +13116,10 @@
         <v>16</v>
       </c>
       <c r="J321" s="3" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="322" spans="1:10">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="322" spans="1:10" hidden="1">
       <c r="A322" s="4">
         <v>321</v>
       </c>
@@ -13124,13 +13130,13 @@
         <v>11</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E322" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F322" s="1" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G322" s="2" t="s">
         <v>15</v>
@@ -13142,10 +13148,10 @@
         <v>16</v>
       </c>
       <c r="J322" s="3" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="323" spans="1:10">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="323" spans="1:10" hidden="1">
       <c r="A323" s="4">
         <v>322</v>
       </c>
@@ -13156,13 +13162,13 @@
         <v>11</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E323" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F323" s="1" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G323" s="2" t="s">
         <v>15</v>
@@ -13174,10 +13180,10 @@
         <v>16</v>
       </c>
       <c r="J323" s="3" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="324" spans="1:10">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10" hidden="1">
       <c r="A324" s="4">
         <v>323</v>
       </c>
@@ -13188,13 +13194,13 @@
         <v>11</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E324" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F324" s="1" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G324" s="2" t="s">
         <v>15</v>
@@ -13206,10 +13212,10 @@
         <v>16</v>
       </c>
       <c r="J324" s="3" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="325" spans="1:10">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="325" spans="1:10" hidden="1">
       <c r="A325" s="4">
         <v>324</v>
       </c>
@@ -13220,13 +13226,13 @@
         <v>11</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E325" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F325" s="1" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G325" s="2" t="s">
         <v>15</v>
@@ -13238,10 +13244,10 @@
         <v>16</v>
       </c>
       <c r="J325" s="3" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="326" spans="1:10">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="326" spans="1:10" hidden="1">
       <c r="A326" s="4">
         <v>325</v>
       </c>
@@ -13252,13 +13258,13 @@
         <v>11</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E326" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F326" s="1" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G326" s="2" t="s">
         <v>15</v>
@@ -13270,10 +13276,10 @@
         <v>16</v>
       </c>
       <c r="J326" s="3" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="327" spans="1:10">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="327" spans="1:10" hidden="1">
       <c r="A327" s="4">
         <v>326</v>
       </c>
@@ -13284,13 +13290,13 @@
         <v>11</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E327" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F327" s="1" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G327" s="2" t="s">
         <v>15</v>
@@ -13302,10 +13308,10 @@
         <v>16</v>
       </c>
       <c r="J327" s="3" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="328" spans="1:10">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="328" spans="1:10" hidden="1">
       <c r="A328" s="4">
         <v>327</v>
       </c>
@@ -13316,13 +13322,13 @@
         <v>11</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E328" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F328" s="1" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G328" s="2" t="s">
         <v>15</v>
@@ -13334,10 +13340,10 @@
         <v>16</v>
       </c>
       <c r="J328" s="3" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="329" spans="1:10">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="329" spans="1:10" hidden="1">
       <c r="A329" s="4">
         <v>328</v>
       </c>
@@ -13348,13 +13354,13 @@
         <v>11</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E329" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F329" s="1" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G329" s="2" t="s">
         <v>15</v>
@@ -13366,10 +13372,10 @@
         <v>16</v>
       </c>
       <c r="J329" s="3" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="330" spans="1:10">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10" hidden="1">
       <c r="A330" s="4">
         <v>329</v>
       </c>
@@ -13380,13 +13386,13 @@
         <v>11</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E330" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F330" s="1" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G330" s="2" t="s">
         <v>15</v>
@@ -13398,10 +13404,10 @@
         <v>16</v>
       </c>
       <c r="J330" s="3" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="331" spans="1:10">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="331" spans="1:10" hidden="1">
       <c r="A331" s="4">
         <v>330</v>
       </c>
@@ -13412,13 +13418,13 @@
         <v>11</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E331" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F331" s="1" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G331" s="2" t="s">
         <v>15</v>
@@ -13430,10 +13436,10 @@
         <v>16</v>
       </c>
       <c r="J331" s="3" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="332" spans="1:10">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="332" spans="1:10" hidden="1">
       <c r="A332" s="4">
         <v>331</v>
       </c>
@@ -13444,13 +13450,13 @@
         <v>11</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E332" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F332" s="1" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G332" s="2" t="s">
         <v>15</v>
@@ -13462,10 +13468,10 @@
         <v>16</v>
       </c>
       <c r="J332" s="3" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="333" spans="1:10">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="333" spans="1:10" hidden="1">
       <c r="A333" s="4">
         <v>332</v>
       </c>
@@ -13476,13 +13482,13 @@
         <v>11</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E333" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F333" s="1" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G333" s="2" t="s">
         <v>15</v>
@@ -13494,10 +13500,10 @@
         <v>16</v>
       </c>
       <c r="J333" s="3" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="334" spans="1:10">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="334" spans="1:10" hidden="1">
       <c r="A334" s="4">
         <v>333</v>
       </c>
@@ -13508,13 +13514,13 @@
         <v>11</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E334" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F334" s="1" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G334" s="2" t="s">
         <v>15</v>
@@ -13526,10 +13532,10 @@
         <v>16</v>
       </c>
       <c r="J334" s="3" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="335" spans="1:10">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="335" spans="1:10" hidden="1">
       <c r="A335" s="4">
         <v>334</v>
       </c>
@@ -13540,13 +13546,13 @@
         <v>11</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E335" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F335" s="1" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G335" s="2" t="s">
         <v>15</v>
@@ -13558,10 +13564,10 @@
         <v>16</v>
       </c>
       <c r="J335" s="3" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="336" spans="1:10">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="336" spans="1:10" hidden="1">
       <c r="A336" s="4">
         <v>335</v>
       </c>
@@ -13572,13 +13578,13 @@
         <v>11</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E336" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F336" s="1" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G336" s="2" t="s">
         <v>15</v>
@@ -13590,7 +13596,7 @@
         <v>16</v>
       </c>
       <c r="J336" s="3" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
   </sheetData>
@@ -13642,33 +13648,33 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B1" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>712</v>
+      </c>
+      <c r="E1" t="s">
+        <v>713</v>
+      </c>
+      <c r="F1" t="s">
         <v>714</v>
-      </c>
-      <c r="E1" t="s">
-        <v>715</v>
-      </c>
-      <c r="F1" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
+        <v>715</v>
+      </c>
+      <c r="B2" t="s">
+        <v>716</v>
+      </c>
+      <c r="C2" t="s">
         <v>717</v>
-      </c>
-      <c r="B2" t="s">
-        <v>718</v>
-      </c>
-      <c r="C2" t="s">
-        <v>719</v>
       </c>
       <c r="D2">
         <v>1885</v>
@@ -13679,13 +13685,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>715</v>
+      </c>
+      <c r="B3" t="s">
+        <v>716</v>
+      </c>
+      <c r="C3" t="s">
         <v>717</v>
-      </c>
-      <c r="B3" t="s">
-        <v>718</v>
-      </c>
-      <c r="C3" t="s">
-        <v>719</v>
       </c>
       <c r="D3">
         <v>1880</v>
@@ -13696,13 +13702,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>715</v>
+      </c>
+      <c r="B4" t="s">
+        <v>716</v>
+      </c>
+      <c r="C4" t="s">
         <v>717</v>
-      </c>
-      <c r="B4" t="s">
-        <v>718</v>
-      </c>
-      <c r="C4" t="s">
-        <v>719</v>
       </c>
       <c r="D4">
         <v>1881</v>
@@ -13713,13 +13719,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
+        <v>715</v>
+      </c>
+      <c r="B5" t="s">
+        <v>716</v>
+      </c>
+      <c r="C5" t="s">
         <v>717</v>
-      </c>
-      <c r="B5" t="s">
-        <v>718</v>
-      </c>
-      <c r="C5" t="s">
-        <v>719</v>
       </c>
       <c r="D5">
         <v>1890</v>
@@ -13730,13 +13736,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
+        <v>715</v>
+      </c>
+      <c r="B6" t="s">
+        <v>716</v>
+      </c>
+      <c r="C6" t="s">
         <v>717</v>
-      </c>
-      <c r="B6" t="s">
-        <v>718</v>
-      </c>
-      <c r="C6" t="s">
-        <v>719</v>
       </c>
       <c r="D6">
         <v>1878</v>
@@ -13747,13 +13753,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
+        <v>715</v>
+      </c>
+      <c r="B7" t="s">
+        <v>716</v>
+      </c>
+      <c r="C7" t="s">
         <v>717</v>
-      </c>
-      <c r="B7" t="s">
-        <v>718</v>
-      </c>
-      <c r="C7" t="s">
-        <v>719</v>
       </c>
       <c r="D7">
         <v>1883</v>
@@ -13764,16 +13770,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
+        <v>715</v>
+      </c>
+      <c r="B8" t="s">
+        <v>716</v>
+      </c>
+      <c r="C8" t="s">
         <v>717</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" s="24" t="s">
         <v>718</v>
-      </c>
-      <c r="C8" t="s">
-        <v>719</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>720</v>
       </c>
       <c r="F8" s="23">
         <v>1</v>
@@ -13781,13 +13787,13 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
+        <v>715</v>
+      </c>
+      <c r="B9" t="s">
+        <v>716</v>
+      </c>
+      <c r="C9" t="s">
         <v>717</v>
-      </c>
-      <c r="B9" t="s">
-        <v>718</v>
-      </c>
-      <c r="C9" t="s">
-        <v>719</v>
       </c>
       <c r="D9">
         <v>1889</v>
@@ -13798,13 +13804,13 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
+        <v>715</v>
+      </c>
+      <c r="B10" t="s">
+        <v>716</v>
+      </c>
+      <c r="C10" t="s">
         <v>717</v>
-      </c>
-      <c r="B10" t="s">
-        <v>718</v>
-      </c>
-      <c r="C10" t="s">
-        <v>719</v>
       </c>
       <c r="D10">
         <v>1879</v>
@@ -13815,13 +13821,13 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
+        <v>715</v>
+      </c>
+      <c r="B11" t="s">
+        <v>716</v>
+      </c>
+      <c r="C11" t="s">
         <v>717</v>
-      </c>
-      <c r="B11" t="s">
-        <v>718</v>
-      </c>
-      <c r="C11" t="s">
-        <v>719</v>
       </c>
       <c r="D11">
         <v>1891</v>
@@ -13832,13 +13838,13 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
+        <v>715</v>
+      </c>
+      <c r="B12" t="s">
+        <v>716</v>
+      </c>
+      <c r="C12" t="s">
         <v>717</v>
-      </c>
-      <c r="B12" t="s">
-        <v>718</v>
-      </c>
-      <c r="C12" t="s">
-        <v>719</v>
       </c>
       <c r="D12">
         <v>1891</v>
@@ -13849,16 +13855,16 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
+        <v>715</v>
+      </c>
+      <c r="B13" t="s">
+        <v>716</v>
+      </c>
+      <c r="C13" t="s">
         <v>717</v>
       </c>
-      <c r="B13" t="s">
-        <v>718</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="D13" s="24" t="s">
         <v>719</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>721</v>
       </c>
       <c r="F13" s="23">
         <v>1</v>
@@ -13866,13 +13872,13 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
+        <v>715</v>
+      </c>
+      <c r="B14" t="s">
+        <v>716</v>
+      </c>
+      <c r="C14" t="s">
         <v>717</v>
-      </c>
-      <c r="B14" t="s">
-        <v>718</v>
-      </c>
-      <c r="C14" t="s">
-        <v>719</v>
       </c>
       <c r="D14">
         <v>1894</v>
@@ -13883,19 +13889,19 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
+        <v>720</v>
+      </c>
+      <c r="B15" t="s">
+        <v>721</v>
+      </c>
+      <c r="C15" t="s">
         <v>722</v>
       </c>
-      <c r="B15" t="s">
+      <c r="D15" t="s">
         <v>723</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E15" t="s">
         <v>724</v>
-      </c>
-      <c r="D15" t="s">
-        <v>725</v>
-      </c>
-      <c r="E15" t="s">
-        <v>726</v>
       </c>
       <c r="F15" s="23">
         <v>17</v>
@@ -13903,19 +13909,19 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B16" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C16" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="D16" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="E16" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="F16" s="23">
         <v>4</v>
@@ -13923,19 +13929,19 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B17" t="s">
+        <v>727</v>
+      </c>
+      <c r="C17" t="s">
+        <v>728</v>
+      </c>
+      <c r="D17" t="s">
         <v>729</v>
       </c>
-      <c r="C17" t="s">
-        <v>730</v>
-      </c>
-      <c r="D17" t="s">
-        <v>731</v>
-      </c>
       <c r="E17" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="F17" s="23">
         <v>45</v>
@@ -13943,19 +13949,19 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B18" t="s">
+        <v>727</v>
+      </c>
+      <c r="C18" t="s">
+        <v>728</v>
+      </c>
+      <c r="D18" t="s">
         <v>729</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E18" t="s">
         <v>730</v>
-      </c>
-      <c r="D18" t="s">
-        <v>731</v>
-      </c>
-      <c r="E18" t="s">
-        <v>732</v>
       </c>
       <c r="F18" s="23">
         <v>12</v>
@@ -13963,19 +13969,19 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B19" t="s">
+        <v>727</v>
+      </c>
+      <c r="C19" t="s">
+        <v>728</v>
+      </c>
+      <c r="D19" t="s">
         <v>729</v>
       </c>
-      <c r="C19" t="s">
-        <v>730</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>731</v>
-      </c>
-      <c r="E19" t="s">
-        <v>733</v>
       </c>
       <c r="F19" s="23">
         <v>14</v>
@@ -13983,19 +13989,19 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B20" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C20" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="D20" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="E20" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="F20" s="23">
         <v>4</v>
@@ -14003,19 +14009,19 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B21" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C21" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="D21" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="E21" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="F21" s="23">
         <v>6</v>
@@ -14023,19 +14029,19 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
+        <v>733</v>
+      </c>
+      <c r="B22" t="s">
+        <v>734</v>
+      </c>
+      <c r="C22" t="s">
         <v>735</v>
       </c>
-      <c r="B22" t="s">
+      <c r="D22" t="s">
         <v>736</v>
       </c>
-      <c r="C22" t="s">
-        <v>737</v>
-      </c>
-      <c r="D22" t="s">
-        <v>738</v>
-      </c>
       <c r="E22" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="F22" s="23">
         <v>3</v>
@@ -14043,19 +14049,19 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B23" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C23" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D23" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="E23" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="F23" s="23">
         <v>14</v>
@@ -14063,19 +14069,19 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B24" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C24" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D24" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="E24" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="F24" s="23">
         <v>13</v>
@@ -14083,19 +14089,19 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
+        <v>739</v>
+      </c>
+      <c r="B25" t="s">
+        <v>734</v>
+      </c>
+      <c r="C25" t="s">
+        <v>735</v>
+      </c>
+      <c r="D25" t="s">
+        <v>740</v>
+      </c>
+      <c r="E25" t="s">
         <v>741</v>
-      </c>
-      <c r="B25" t="s">
-        <v>736</v>
-      </c>
-      <c r="C25" t="s">
-        <v>737</v>
-      </c>
-      <c r="D25" t="s">
-        <v>742</v>
-      </c>
-      <c r="E25" t="s">
-        <v>743</v>
       </c>
       <c r="F25" s="23">
         <v>2</v>
@@ -14103,19 +14109,19 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
+        <v>733</v>
+      </c>
+      <c r="B26" t="s">
+        <v>734</v>
+      </c>
+      <c r="C26" t="s">
         <v>735</v>
       </c>
-      <c r="B26" t="s">
-        <v>736</v>
-      </c>
-      <c r="C26" t="s">
-        <v>737</v>
-      </c>
       <c r="D26" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="E26" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="F26" s="23">
         <v>1</v>

--- a/data_printer.xlsx
+++ b/data_printer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GamErick\Desktop\Nova pasta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1027AD07-F18E-475B-83B2-EB5584757FD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0386CAD-067F-4CC5-9779-5E35986DE89E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A8AA41B5-7AA1-4FF7-A9B8-54B8A4E1AF28}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2715" uniqueCount="759">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2715" uniqueCount="760">
   <si>
     <t>INDICE</t>
   </si>
@@ -1059,9 +1059,6 @@
     <t>PAIVA &amp; MACHARETH CONSULTORIA</t>
   </si>
   <si>
-    <t>ESTAVA NA WALMONTE</t>
-  </si>
-  <si>
     <t>RICOH SP 3710sf</t>
   </si>
   <si>
@@ -1713,9 +1710,6 @@
     <t>3920PC01364</t>
   </si>
   <si>
-    <t>CHEGOU DISTRIVISA 23/08/2024 - FEITO INSTALAÇÃO SALA YHASMIN 16/10/2024</t>
-  </si>
-  <si>
     <t>BROTHER HL-L 5202 DW</t>
   </si>
   <si>
@@ -2310,10 +2304,19 @@
     <t>IMPRESSORA INSTALADA EM 12/03/2025;</t>
   </si>
   <si>
-    <t>IMPRESSORA INSTALADA EM 25/11/2024 - SUBSTITUIU RICOH 601; FEITA UMA TROCA  POR UMA 3710 NO DIA 14/03/2025;</t>
-  </si>
-  <si>
     <t>UPA - SALA ADM</t>
+  </si>
+  <si>
+    <t>ESTAVA NA WALMONTE; ESTAVA NA PAIVA MACHARETTE RETIRADA COM PROBLEMAS NA COPIA SAINDO MUITO CLARA;</t>
+  </si>
+  <si>
+    <t>LABORATÓRIO ARARUAMA</t>
+  </si>
+  <si>
+    <t>CHEGOU DISTRIVISA 23/08/2024; FEITO INSTALAÇÃO SALA YHASMIN 16/10/2024;</t>
+  </si>
+  <si>
+    <t>IMPRESSORA INSTALADA EM 25/11/2024 - SUBSTITUIU RICOH 601; RETIRADA SAUDE COLETIVA, FEITA UMA TROCA  POR UMA 3710 NO DIA 14/03/2025;</t>
   </si>
 </sst>
 </file>
@@ -2813,13 +2816,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C244623C-48DE-4D05-852C-6EFDD885ABE2}" name="Controle_Inventario_Impressoras" displayName="Controle_Inventario_Impressoras" ref="A1:J336" tableType="queryTable" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A1:J336" xr:uid="{C244623C-48DE-4D05-852C-6EFDD885ABE2}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="SAÚDE"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:J336" xr:uid="{C244623C-48DE-4D05-852C-6EFDD885ABE2}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J27">
     <sortCondition ref="A13"/>
   </sortState>
@@ -3153,8 +3150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD39631B-97B8-405A-AA43-14CDFBC77F92}">
   <dimension ref="A1:J336"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A260" workbookViewId="0">
+      <selection activeCell="F354" sqref="F354"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -3204,7 +3201,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" hidden="1">
+    <row r="2" spans="1:10">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -3236,7 +3233,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:10" hidden="1">
+    <row r="3" spans="1:10">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -3268,7 +3265,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:10" hidden="1">
+    <row r="4" spans="1:10">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -3300,7 +3297,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:10" hidden="1">
+    <row r="5" spans="1:10">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -3332,7 +3329,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:10" hidden="1">
+    <row r="6" spans="1:10">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -3364,7 +3361,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:10" hidden="1">
+    <row r="7" spans="1:10">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -3378,25 +3375,25 @@
         <v>31</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>32</v>
+        <v>757</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H7" s="6">
-        <v>45652</v>
+        <v>45733</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:10" hidden="1">
+    <row r="8" spans="1:10">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -3428,7 +3425,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:10" hidden="1">
+    <row r="9" spans="1:10">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -3460,7 +3457,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:10" hidden="1">
+    <row r="10" spans="1:10">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -3490,7 +3487,7 @@
       </c>
       <c r="J10" s="7"/>
     </row>
-    <row r="11" spans="1:10" hidden="1">
+    <row r="11" spans="1:10">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -3520,7 +3517,7 @@
       </c>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="1:10" hidden="1">
+    <row r="12" spans="1:10">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -3552,7 +3549,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:10" hidden="1">
+    <row r="13" spans="1:10">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -3601,7 +3598,7 @@
         <v>102</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>15</v>
@@ -3616,7 +3613,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:10" hidden="1">
+    <row r="15" spans="1:10">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -3648,7 +3645,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:10" hidden="1">
+    <row r="16" spans="1:10">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -3677,7 +3674,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:10" hidden="1">
+    <row r="17" spans="1:10">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -3709,7 +3706,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:10" hidden="1">
+    <row r="18" spans="1:10">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -3741,7 +3738,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:10" hidden="1">
+    <row r="19" spans="1:10">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -3773,7 +3770,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:10" hidden="1">
+    <row r="20" spans="1:10">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -3805,7 +3802,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:10" hidden="1">
+    <row r="21" spans="1:10">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -3837,7 +3834,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+    <row r="22" spans="1:10" ht="15.75" customHeight="1">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -3869,7 +3866,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:10" hidden="1">
+    <row r="23" spans="1:10">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -3901,7 +3898,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:10" hidden="1">
+    <row r="24" spans="1:10">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -3933,7 +3930,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:10" hidden="1">
+    <row r="25" spans="1:10">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -3965,7 +3962,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:10" hidden="1">
+    <row r="26" spans="1:10">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -3994,7 +3991,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:10" hidden="1">
+    <row r="27" spans="1:10">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -4023,7 +4020,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:10" hidden="1">
+    <row r="28" spans="1:10">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -4055,7 +4052,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:10" hidden="1">
+    <row r="29" spans="1:10">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -4087,7 +4084,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:10" hidden="1">
+    <row r="30" spans="1:10">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -4119,7 +4116,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="1:10" hidden="1">
+    <row r="31" spans="1:10">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -4151,7 +4148,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:10" hidden="1">
+    <row r="32" spans="1:10">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -4212,7 +4209,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="1:10" hidden="1">
+    <row r="34" spans="1:10">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -4226,16 +4223,16 @@
         <v>106</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>29</v>
+        <v>339</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H34" s="9">
-        <v>45652</v>
+        <v>45733</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>16</v>
@@ -4244,7 +4241,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="35" spans="1:10" hidden="1">
+    <row r="35" spans="1:10">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -4276,7 +4273,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="36" spans="1:10" hidden="1">
+    <row r="36" spans="1:10">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -4290,16 +4287,16 @@
         <v>113</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H36" s="9">
-        <v>45653</v>
+        <v>45734</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>16</v>
@@ -4308,7 +4305,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:10" hidden="1">
+    <row r="37" spans="1:10">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -4337,7 +4334,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="38" spans="1:10" hidden="1">
+    <row r="38" spans="1:10">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -4369,7 +4366,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:10" hidden="1">
+    <row r="39" spans="1:10">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -4401,7 +4398,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="40" spans="1:10" hidden="1">
+    <row r="40" spans="1:10">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -4433,7 +4430,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="1:10" hidden="1">
+    <row r="41" spans="1:10">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -4465,7 +4462,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="42" spans="1:10" hidden="1">
+    <row r="42" spans="1:10">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -4497,7 +4494,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="43" spans="1:10" hidden="1">
+    <row r="43" spans="1:10">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -4529,7 +4526,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="44" spans="1:10" hidden="1">
+    <row r="44" spans="1:10">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -4561,7 +4558,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="45" spans="1:10" hidden="1">
+    <row r="45" spans="1:10">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -4593,7 +4590,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="46" spans="1:10" hidden="1">
+    <row r="46" spans="1:10">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -4622,7 +4619,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:10" hidden="1">
+    <row r="47" spans="1:10">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -4654,7 +4651,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="48" spans="1:10" hidden="1">
+    <row r="48" spans="1:10">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -4686,7 +4683,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="49" spans="1:10" hidden="1">
+    <row r="49" spans="1:10">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -4718,7 +4715,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="50" spans="1:10" hidden="1">
+    <row r="50" spans="1:10">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -4747,7 +4744,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:10" hidden="1">
+    <row r="51" spans="1:10">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -4776,7 +4773,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:10" hidden="1">
+    <row r="52" spans="1:10">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -4808,7 +4805,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="53" spans="1:10" hidden="1">
+    <row r="53" spans="1:10">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -4837,7 +4834,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:10" hidden="1">
+    <row r="54" spans="1:10">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -4866,7 +4863,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:10" hidden="1">
+    <row r="55" spans="1:10">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -4895,7 +4892,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:10" hidden="1">
+    <row r="56" spans="1:10">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -4924,7 +4921,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="1:10" hidden="1">
+    <row r="57" spans="1:10">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -4953,7 +4950,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:10" hidden="1">
+    <row r="58" spans="1:10">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -4982,7 +4979,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:10" hidden="1">
+    <row r="59" spans="1:10">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -5014,7 +5011,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="60" spans="1:10" hidden="1">
+    <row r="60" spans="1:10">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -5046,7 +5043,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="61" spans="1:10" hidden="1">
+    <row r="61" spans="1:10">
       <c r="A61" s="4">
         <v>60</v>
       </c>
@@ -5075,7 +5072,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:10" hidden="1">
+    <row r="62" spans="1:10">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -5107,7 +5104,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="63" spans="1:10" hidden="1">
+    <row r="63" spans="1:10">
       <c r="A63" s="4">
         <v>62</v>
       </c>
@@ -5136,7 +5133,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:10" hidden="1">
+    <row r="64" spans="1:10">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -5165,7 +5162,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:10" hidden="1">
+    <row r="65" spans="1:10">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -5194,7 +5191,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="1:10" hidden="1">
+    <row r="66" spans="1:10">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -5223,7 +5220,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="1:10" hidden="1">
+    <row r="67" spans="1:10">
       <c r="A67" s="4">
         <v>66</v>
       </c>
@@ -5255,7 +5252,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="68" spans="1:10" hidden="1">
+    <row r="68" spans="1:10">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -5287,7 +5284,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="69" spans="1:10" hidden="1">
+    <row r="69" spans="1:10">
       <c r="A69" s="4">
         <v>68</v>
       </c>
@@ -5316,7 +5313,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:10" hidden="1">
+    <row r="70" spans="1:10">
       <c r="A70" s="4">
         <v>69</v>
       </c>
@@ -5348,7 +5345,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="71" spans="1:10" hidden="1">
+    <row r="71" spans="1:10">
       <c r="A71" s="4">
         <v>70</v>
       </c>
@@ -5380,7 +5377,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="72" spans="1:10" hidden="1">
+    <row r="72" spans="1:10">
       <c r="A72" s="4">
         <v>71</v>
       </c>
@@ -5412,7 +5409,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="73" spans="1:10" hidden="1">
+    <row r="73" spans="1:10">
       <c r="A73" s="4">
         <v>72</v>
       </c>
@@ -5444,7 +5441,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="74" spans="1:10" hidden="1">
+    <row r="74" spans="1:10">
       <c r="A74" s="4">
         <v>73</v>
       </c>
@@ -5473,7 +5470,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="1:10" hidden="1">
+    <row r="75" spans="1:10">
       <c r="A75" s="4">
         <v>74</v>
       </c>
@@ -5505,7 +5502,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="76" spans="1:10" hidden="1">
+    <row r="76" spans="1:10">
       <c r="A76" s="4">
         <v>75</v>
       </c>
@@ -5537,7 +5534,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="77" spans="1:10" hidden="1">
+    <row r="77" spans="1:10">
       <c r="A77" s="4">
         <v>76</v>
       </c>
@@ -5569,7 +5566,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="78" spans="1:10" hidden="1">
+    <row r="78" spans="1:10">
       <c r="A78" s="4">
         <v>77</v>
       </c>
@@ -5601,7 +5598,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="79" spans="1:10" hidden="1">
+    <row r="79" spans="1:10">
       <c r="A79" s="4">
         <v>78</v>
       </c>
@@ -5633,7 +5630,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="80" spans="1:10" hidden="1">
+    <row r="80" spans="1:10">
       <c r="A80" s="4">
         <v>79</v>
       </c>
@@ -5665,7 +5662,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="81" spans="1:10" hidden="1">
+    <row r="81" spans="1:10">
       <c r="A81" s="4">
         <v>80</v>
       </c>
@@ -5691,7 +5688,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="82" spans="1:10" hidden="1">
+    <row r="82" spans="1:10">
       <c r="A82" s="4">
         <v>81</v>
       </c>
@@ -5717,7 +5714,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="83" spans="1:10" hidden="1">
+    <row r="83" spans="1:10">
       <c r="A83" s="4">
         <v>82</v>
       </c>
@@ -5743,7 +5740,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="84" spans="1:10" hidden="1">
+    <row r="84" spans="1:10">
       <c r="A84" s="4">
         <v>83</v>
       </c>
@@ -5775,7 +5772,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="85" spans="1:10" hidden="1">
+    <row r="85" spans="1:10">
       <c r="A85" s="4">
         <v>84</v>
       </c>
@@ -5807,7 +5804,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="86" spans="1:10" hidden="1">
+    <row r="86" spans="1:10">
       <c r="A86" s="4">
         <v>85</v>
       </c>
@@ -5839,7 +5836,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="87" spans="1:10" hidden="1">
+    <row r="87" spans="1:10">
       <c r="A87" s="4">
         <v>86</v>
       </c>
@@ -5871,7 +5868,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="88" spans="1:10" hidden="1">
+    <row r="88" spans="1:10">
       <c r="A88" s="4">
         <v>87</v>
       </c>
@@ -5900,7 +5897,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="89" spans="1:10" hidden="1">
+    <row r="89" spans="1:10">
       <c r="A89" s="4">
         <v>88</v>
       </c>
@@ -5929,7 +5926,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="90" spans="1:10" hidden="1">
+    <row r="90" spans="1:10">
       <c r="A90" s="4">
         <v>89</v>
       </c>
@@ -5961,7 +5958,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="91" spans="1:10" hidden="1">
+    <row r="91" spans="1:10">
       <c r="A91" s="4">
         <v>90</v>
       </c>
@@ -5987,7 +5984,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="92" spans="1:10" hidden="1">
+    <row r="92" spans="1:10">
       <c r="A92" s="4">
         <v>91</v>
       </c>
@@ -6013,7 +6010,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="93" spans="1:10" hidden="1">
+    <row r="93" spans="1:10">
       <c r="A93" s="4">
         <v>92</v>
       </c>
@@ -6045,7 +6042,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="94" spans="1:10" hidden="1">
+    <row r="94" spans="1:10">
       <c r="A94" s="4">
         <v>93</v>
       </c>
@@ -6071,7 +6068,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="95" spans="1:10" hidden="1">
+    <row r="95" spans="1:10">
       <c r="A95" s="4">
         <v>94</v>
       </c>
@@ -6100,7 +6097,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="96" spans="1:10" hidden="1">
+    <row r="96" spans="1:10">
       <c r="A96" s="4">
         <v>95</v>
       </c>
@@ -6129,7 +6126,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="97" spans="1:10" hidden="1">
+    <row r="97" spans="1:10">
       <c r="A97" s="4">
         <v>96</v>
       </c>
@@ -6158,7 +6155,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="98" spans="1:10" hidden="1">
+    <row r="98" spans="1:10">
       <c r="A98" s="4">
         <v>97</v>
       </c>
@@ -6187,7 +6184,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="99" spans="1:10" hidden="1">
+    <row r="99" spans="1:10">
       <c r="A99" s="4">
         <v>98</v>
       </c>
@@ -6219,7 +6216,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="100" spans="1:10" hidden="1">
+    <row r="100" spans="1:10">
       <c r="A100" s="4">
         <v>99</v>
       </c>
@@ -6251,7 +6248,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="101" spans="1:10" hidden="1">
+    <row r="101" spans="1:10">
       <c r="A101" s="4">
         <v>100</v>
       </c>
@@ -6283,7 +6280,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="102" spans="1:10" hidden="1">
+    <row r="102" spans="1:10">
       <c r="A102" s="4">
         <v>101</v>
       </c>
@@ -6315,7 +6312,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="103" spans="1:10" hidden="1">
+    <row r="103" spans="1:10">
       <c r="A103" s="4">
         <v>102</v>
       </c>
@@ -6347,7 +6344,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="104" spans="1:10" hidden="1">
+    <row r="104" spans="1:10">
       <c r="A104" s="4">
         <v>103</v>
       </c>
@@ -6379,7 +6376,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="105" spans="1:10" hidden="1">
+    <row r="105" spans="1:10">
       <c r="A105" s="4">
         <v>104</v>
       </c>
@@ -6411,7 +6408,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="106" spans="1:10" hidden="1">
+    <row r="106" spans="1:10">
       <c r="A106" s="4">
         <v>105</v>
       </c>
@@ -6443,7 +6440,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="107" spans="1:10" hidden="1">
+    <row r="107" spans="1:10">
       <c r="A107" s="4">
         <v>106</v>
       </c>
@@ -6475,7 +6472,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="108" spans="1:10" hidden="1">
+    <row r="108" spans="1:10">
       <c r="A108" s="4">
         <v>107</v>
       </c>
@@ -6507,7 +6504,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="109" spans="1:10" hidden="1">
+    <row r="109" spans="1:10">
       <c r="A109" s="4">
         <v>108</v>
       </c>
@@ -6539,7 +6536,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="110" spans="1:10" hidden="1">
+    <row r="110" spans="1:10">
       <c r="A110" s="4">
         <v>109</v>
       </c>
@@ -6571,7 +6568,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="111" spans="1:10" hidden="1">
+    <row r="111" spans="1:10">
       <c r="A111" s="4">
         <v>110</v>
       </c>
@@ -6603,7 +6600,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="112" spans="1:10" hidden="1">
+    <row r="112" spans="1:10">
       <c r="A112" s="4">
         <v>111</v>
       </c>
@@ -6635,7 +6632,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="113" spans="1:10" hidden="1">
+    <row r="113" spans="1:10">
       <c r="A113" s="4">
         <v>112</v>
       </c>
@@ -6667,7 +6664,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="114" spans="1:10" hidden="1">
+    <row r="114" spans="1:10">
       <c r="A114" s="4">
         <v>113</v>
       </c>
@@ -6699,7 +6696,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="115" spans="1:10" hidden="1">
+    <row r="115" spans="1:10">
       <c r="A115" s="4">
         <v>114</v>
       </c>
@@ -6731,7 +6728,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="116" spans="1:10" hidden="1">
+    <row r="116" spans="1:10">
       <c r="A116" s="4">
         <v>115</v>
       </c>
@@ -6763,7 +6760,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="117" spans="1:10" hidden="1">
+    <row r="117" spans="1:10">
       <c r="A117" s="4">
         <v>116</v>
       </c>
@@ -6795,7 +6792,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="118" spans="1:10" hidden="1">
+    <row r="118" spans="1:10">
       <c r="A118" s="4">
         <v>117</v>
       </c>
@@ -6827,7 +6824,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="119" spans="1:10" hidden="1">
+    <row r="119" spans="1:10">
       <c r="A119" s="4">
         <v>118</v>
       </c>
@@ -6859,7 +6856,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="120" spans="1:10" hidden="1">
+    <row r="120" spans="1:10">
       <c r="A120" s="4">
         <v>119</v>
       </c>
@@ -6891,7 +6888,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="121" spans="1:10" hidden="1">
+    <row r="121" spans="1:10">
       <c r="A121" s="4">
         <v>120</v>
       </c>
@@ -6917,7 +6914,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="122" spans="1:10" hidden="1">
+    <row r="122" spans="1:10">
       <c r="A122" s="4">
         <v>121</v>
       </c>
@@ -6943,7 +6940,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="123" spans="1:10" hidden="1">
+    <row r="123" spans="1:10">
       <c r="A123" s="4">
         <v>122</v>
       </c>
@@ -6975,7 +6972,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="124" spans="1:10" hidden="1">
+    <row r="124" spans="1:10">
       <c r="A124" s="4">
         <v>123</v>
       </c>
@@ -7001,7 +6998,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="125" spans="1:10" hidden="1">
+    <row r="125" spans="1:10">
       <c r="A125" s="4">
         <v>124</v>
       </c>
@@ -7033,7 +7030,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="126" spans="1:10" hidden="1">
+    <row r="126" spans="1:10">
       <c r="A126" s="4">
         <v>125</v>
       </c>
@@ -7065,7 +7062,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="127" spans="1:10" hidden="1">
+    <row r="127" spans="1:10">
       <c r="A127" s="4">
         <v>126</v>
       </c>
@@ -7097,7 +7094,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="128" spans="1:10" hidden="1">
+    <row r="128" spans="1:10">
       <c r="A128" s="4">
         <v>127</v>
       </c>
@@ -7129,7 +7126,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="129" spans="1:10" hidden="1">
+    <row r="129" spans="1:10">
       <c r="A129" s="4">
         <v>128</v>
       </c>
@@ -7161,7 +7158,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="130" spans="1:10" hidden="1">
+    <row r="130" spans="1:10">
       <c r="A130" s="4">
         <v>129</v>
       </c>
@@ -7193,7 +7190,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="131" spans="1:10" hidden="1">
+    <row r="131" spans="1:10">
       <c r="A131" s="4">
         <v>130</v>
       </c>
@@ -7225,7 +7222,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="132" spans="1:10" hidden="1">
+    <row r="132" spans="1:10">
       <c r="A132" s="4">
         <v>131</v>
       </c>
@@ -7257,7 +7254,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="133" spans="1:10" hidden="1">
+    <row r="133" spans="1:10">
       <c r="A133" s="4">
         <v>132</v>
       </c>
@@ -7289,7 +7286,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="134" spans="1:10" hidden="1">
+    <row r="134" spans="1:10">
       <c r="A134" s="4">
         <v>133</v>
       </c>
@@ -7321,7 +7318,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="135" spans="1:10" hidden="1">
+    <row r="135" spans="1:10">
       <c r="A135" s="4">
         <v>134</v>
       </c>
@@ -7353,7 +7350,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="136" spans="1:10" hidden="1">
+    <row r="136" spans="1:10">
       <c r="A136" s="4">
         <v>135</v>
       </c>
@@ -7385,7 +7382,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="137" spans="1:10" hidden="1">
+    <row r="137" spans="1:10">
       <c r="A137" s="4">
         <v>136</v>
       </c>
@@ -7417,7 +7414,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="138" spans="1:10" hidden="1">
+    <row r="138" spans="1:10">
       <c r="A138" s="4">
         <v>137</v>
       </c>
@@ -7449,7 +7446,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="139" spans="1:10" hidden="1">
+    <row r="139" spans="1:10">
       <c r="A139" s="4">
         <v>138</v>
       </c>
@@ -7481,7 +7478,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="140" spans="1:10" hidden="1">
+    <row r="140" spans="1:10">
       <c r="A140" s="4">
         <v>139</v>
       </c>
@@ -7513,7 +7510,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="141" spans="1:10" hidden="1">
+    <row r="141" spans="1:10">
       <c r="A141" s="4">
         <v>140</v>
       </c>
@@ -7545,7 +7542,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="142" spans="1:10" hidden="1">
+    <row r="142" spans="1:10">
       <c r="A142" s="4">
         <v>141</v>
       </c>
@@ -7574,7 +7571,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="143" spans="1:10" hidden="1">
+    <row r="143" spans="1:10">
       <c r="A143" s="4">
         <v>142</v>
       </c>
@@ -7603,7 +7600,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="144" spans="1:10" hidden="1">
+    <row r="144" spans="1:10">
       <c r="A144" s="4">
         <v>143</v>
       </c>
@@ -7635,7 +7632,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="145" spans="1:10" hidden="1">
+    <row r="145" spans="1:10">
       <c r="A145" s="4">
         <v>144</v>
       </c>
@@ -7667,7 +7664,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="146" spans="1:10" hidden="1">
+    <row r="146" spans="1:10">
       <c r="A146" s="4">
         <v>145</v>
       </c>
@@ -7699,7 +7696,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="147" spans="1:10" hidden="1">
+    <row r="147" spans="1:10">
       <c r="A147" s="4">
         <v>146</v>
       </c>
@@ -7713,42 +7710,42 @@
         <v>338</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>339</v>
+        <v>32</v>
       </c>
       <c r="G147" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H147" s="9">
-        <v>45623</v>
+        <v>45729</v>
       </c>
       <c r="I147" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J147" s="3" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" hidden="1">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="4">
         <v>147</v>
       </c>
       <c r="B148" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D148" s="1" t="s">
         <v>341</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>342</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G148" s="5" t="s">
         <v>15</v>
@@ -7760,7 +7757,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="149" spans="1:10" hidden="1">
+    <row r="149" spans="1:10">
       <c r="A149" s="4">
         <v>148</v>
       </c>
@@ -7771,7 +7768,7 @@
         <v>11</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E149" s="4" t="s">
         <v>28</v>
@@ -7789,10 +7786,10 @@
         <v>16</v>
       </c>
       <c r="J149" s="3" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" hidden="1">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="4">
         <v>149</v>
       </c>
@@ -7803,7 +7800,7 @@
         <v>11</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E150" s="4" t="s">
         <v>28</v>
@@ -7821,10 +7818,10 @@
         <v>16</v>
       </c>
       <c r="J150" s="7" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" hidden="1">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="4">
         <v>150</v>
       </c>
@@ -7835,13 +7832,13 @@
         <v>11</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E151" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G151" s="5" t="s">
         <v>15</v>
@@ -7853,7 +7850,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="152" spans="1:10" hidden="1">
+    <row r="152" spans="1:10">
       <c r="A152" s="4">
         <v>151</v>
       </c>
@@ -7864,25 +7861,25 @@
         <v>11</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F152" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="G152" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I152" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J152" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="G152" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I152" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J152" s="3" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" hidden="1">
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="4">
         <v>152</v>
       </c>
@@ -7893,13 +7890,13 @@
         <v>11</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E153" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G153" s="5" t="s">
         <v>15</v>
@@ -7911,7 +7908,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="154" spans="1:10" hidden="1">
+    <row r="154" spans="1:10">
       <c r="A154" s="4">
         <v>153</v>
       </c>
@@ -7922,13 +7919,13 @@
         <v>11</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E154" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G154" s="5" t="s">
         <v>15</v>
@@ -7938,18 +7935,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="155" spans="1:10" hidden="1">
+    <row r="155" spans="1:10">
       <c r="A155" s="4">
         <v>154</v>
       </c>
       <c r="B155" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D155" s="1" t="s">
         <v>357</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>358</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>13</v>
@@ -7967,27 +7964,27 @@
         <v>16</v>
       </c>
       <c r="J155" s="3" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" hidden="1">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="4">
         <v>155</v>
       </c>
       <c r="B156" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D156" s="4" t="s">
         <v>360</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D156" s="4" t="s">
-        <v>361</v>
       </c>
       <c r="E156" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G156" s="5" t="s">
         <v>15</v>
@@ -7996,18 +7993,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="157" spans="1:10" hidden="1">
+    <row r="157" spans="1:10">
       <c r="A157" s="4">
         <v>156</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E157" s="4" t="s">
         <v>13</v>
@@ -8025,10 +8022,10 @@
         <v>16</v>
       </c>
       <c r="J157" s="3" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10" hidden="1">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="4">
         <v>157</v>
       </c>
@@ -8039,7 +8036,7 @@
         <v>11</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>28</v>
@@ -8057,10 +8054,10 @@
         <v>16</v>
       </c>
       <c r="J158" s="7" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" hidden="1">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="4">
         <v>158</v>
       </c>
@@ -8071,13 +8068,13 @@
         <v>11</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E159" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G159" s="5" t="s">
         <v>15</v>
@@ -8089,50 +8086,50 @@
         <v>16</v>
       </c>
       <c r="J159" s="3" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10" hidden="1">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="4">
         <v>159</v>
       </c>
       <c r="B160" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D160" s="1" t="s">
         <v>371</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>372</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F160" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="G160" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I160" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J160" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="G160" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I160" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J160" s="3" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10" hidden="1">
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" s="4">
         <v>160</v>
       </c>
       <c r="B161" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D161" s="1" t="s">
         <v>375</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>376</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>28</v>
@@ -8150,7 +8147,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="162" spans="1:10" hidden="1">
+    <row r="162" spans="1:10">
       <c r="A162" s="4">
         <v>161</v>
       </c>
@@ -8161,13 +8158,13 @@
         <v>11</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G162" s="5" t="s">
         <v>15</v>
@@ -8179,7 +8176,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="163" spans="1:10" hidden="1">
+    <row r="163" spans="1:10">
       <c r="A163" s="4">
         <v>162</v>
       </c>
@@ -8190,13 +8187,13 @@
         <v>112</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E163" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F163" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G163" s="5" t="s">
         <v>15</v>
@@ -8217,13 +8214,13 @@
         <v>112</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>102</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G164" s="5" t="s">
         <v>15</v>
@@ -8235,27 +8232,27 @@
         <v>16</v>
       </c>
       <c r="J164" s="3" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10" hidden="1">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165" s="4">
         <v>164</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G165" s="5" t="s">
         <v>15</v>
@@ -8264,7 +8261,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="166" spans="1:10" hidden="1">
+    <row r="166" spans="1:10">
       <c r="A166" s="4">
         <v>165</v>
       </c>
@@ -8275,13 +8272,13 @@
         <v>11</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E166" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G166" s="5" t="s">
         <v>15</v>
@@ -8290,24 +8287,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="167" spans="1:10" hidden="1">
+    <row r="167" spans="1:10">
       <c r="A167" s="4">
         <v>166</v>
       </c>
       <c r="B167" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D167" s="1" t="s">
         <v>388</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>389</v>
       </c>
       <c r="E167" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G167" s="5" t="s">
         <v>15</v>
@@ -8319,24 +8316,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="168" spans="1:10" hidden="1">
+    <row r="168" spans="1:10">
       <c r="A168" s="4">
         <v>167</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G168" s="5" t="s">
         <v>15</v>
@@ -8348,24 +8345,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="169" spans="1:10" hidden="1">
+    <row r="169" spans="1:10">
       <c r="A169" s="4">
         <v>168</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G169" s="5" t="s">
         <v>15</v>
@@ -8377,24 +8374,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="170" spans="1:10" hidden="1">
+    <row r="170" spans="1:10">
       <c r="A170" s="4">
         <v>169</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G170" s="5" t="s">
         <v>15</v>
@@ -8406,24 +8403,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="171" spans="1:10" hidden="1">
+    <row r="171" spans="1:10">
       <c r="A171" s="4">
         <v>170</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G171" s="5" t="s">
         <v>15</v>
@@ -8435,24 +8432,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="172" spans="1:10" hidden="1">
+    <row r="172" spans="1:10">
       <c r="A172" s="4">
         <v>171</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G172" s="5" t="s">
         <v>15</v>
@@ -8464,24 +8461,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="173" spans="1:10" hidden="1">
+    <row r="173" spans="1:10">
       <c r="A173" s="4">
         <v>172</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G173" s="5" t="s">
         <v>15</v>
@@ -8493,24 +8490,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="174" spans="1:10" hidden="1">
+    <row r="174" spans="1:10">
       <c r="A174" s="4">
         <v>173</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E174" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G174" s="5" t="s">
         <v>15</v>
@@ -8522,24 +8519,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="175" spans="1:10" hidden="1">
+    <row r="175" spans="1:10">
       <c r="A175" s="4">
         <v>174</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E175" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G175" s="5" t="s">
         <v>15</v>
@@ -8551,24 +8548,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="176" spans="1:10" hidden="1">
+    <row r="176" spans="1:10">
       <c r="A176" s="4">
         <v>175</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G176" s="5" t="s">
         <v>15</v>
@@ -8580,24 +8577,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="177" spans="1:10" hidden="1">
+    <row r="177" spans="1:10">
       <c r="A177" s="4">
         <v>176</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E177" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G177" s="5" t="s">
         <v>15</v>
@@ -8609,24 +8606,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="178" spans="1:10" hidden="1">
+    <row r="178" spans="1:10">
       <c r="A178" s="4">
         <v>177</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E178" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G178" s="5" t="s">
         <v>15</v>
@@ -8638,24 +8635,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="179" spans="1:10" hidden="1">
+    <row r="179" spans="1:10">
       <c r="A179" s="4">
         <v>178</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E179" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G179" s="5" t="s">
         <v>15</v>
@@ -8667,24 +8664,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="180" spans="1:10" hidden="1">
+    <row r="180" spans="1:10">
       <c r="A180" s="4">
         <v>179</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E180" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G180" s="5" t="s">
         <v>15</v>
@@ -8696,24 +8693,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="181" spans="1:10" hidden="1">
+    <row r="181" spans="1:10">
       <c r="A181" s="4">
         <v>180</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E181" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G181" s="5" t="s">
         <v>15</v>
@@ -8725,24 +8722,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="182" spans="1:10" hidden="1">
+    <row r="182" spans="1:10">
       <c r="A182" s="4">
         <v>181</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E182" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G182" s="5" t="s">
         <v>15</v>
@@ -8754,24 +8751,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="183" spans="1:10" hidden="1">
+    <row r="183" spans="1:10">
       <c r="A183" s="4">
         <v>182</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E183" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G183" s="5" t="s">
         <v>15</v>
@@ -8783,24 +8780,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="184" spans="1:10" hidden="1">
+    <row r="184" spans="1:10">
       <c r="A184" s="4">
         <v>183</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G184" s="5" t="s">
         <v>15</v>
@@ -8812,24 +8809,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="185" spans="1:10" hidden="1">
+    <row r="185" spans="1:10">
       <c r="A185" s="4">
         <v>184</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G185" s="5" t="s">
         <v>15</v>
@@ -8841,24 +8838,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="186" spans="1:10" hidden="1">
+    <row r="186" spans="1:10">
       <c r="A186" s="4">
         <v>185</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E186" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G186" s="5" t="s">
         <v>15</v>
@@ -8870,24 +8867,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="187" spans="1:10" hidden="1">
+    <row r="187" spans="1:10">
       <c r="A187" s="4">
         <v>186</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E187" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G187" s="5" t="s">
         <v>15</v>
@@ -8899,18 +8896,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="188" spans="1:10" hidden="1">
+    <row r="188" spans="1:10">
       <c r="A188" s="4">
         <v>187</v>
       </c>
       <c r="B188" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D188" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D188" s="1" t="s">
-        <v>412</v>
       </c>
       <c r="E188" s="1" t="s">
         <v>28</v>
@@ -8928,18 +8925,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="189" spans="1:10" hidden="1">
+    <row r="189" spans="1:10">
       <c r="A189" s="4">
         <v>188</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E189" s="1" t="s">
         <v>28</v>
@@ -8957,27 +8954,27 @@
         <v>16</v>
       </c>
       <c r="J189" s="3" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="190" spans="1:10" hidden="1">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10">
       <c r="A190" s="4">
         <v>189</v>
       </c>
       <c r="B190" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D190" s="1" t="s">
         <v>415</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D190" s="1" t="s">
-        <v>416</v>
       </c>
       <c r="E190" s="4" t="s">
         <v>92</v>
       </c>
       <c r="F190" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G190" s="5" t="s">
         <v>15</v>
@@ -8988,7 +8985,7 @@
       </c>
       <c r="J190" s="7"/>
     </row>
-    <row r="191" spans="1:10" hidden="1">
+    <row r="191" spans="1:10">
       <c r="A191" s="4">
         <v>190</v>
       </c>
@@ -8999,13 +8996,13 @@
         <v>11</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E191" s="4" t="s">
         <v>92</v>
       </c>
       <c r="F191" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G191" s="5" t="s">
         <v>15</v>
@@ -9015,7 +9012,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="192" spans="1:10" hidden="1">
+    <row r="192" spans="1:10">
       <c r="A192" s="4">
         <v>191</v>
       </c>
@@ -9026,13 +9023,13 @@
         <v>11</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E192" s="4" t="s">
         <v>92</v>
       </c>
       <c r="F192" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G192" s="5" t="s">
         <v>15</v>
@@ -9042,24 +9039,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="193" spans="1:10" hidden="1">
+    <row r="193" spans="1:10">
       <c r="A193" s="4">
         <v>192</v>
       </c>
       <c r="B193" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D193" s="4" t="s">
         <v>422</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D193" s="4" t="s">
-        <v>423</v>
       </c>
       <c r="E193" s="4" t="s">
         <v>92</v>
       </c>
       <c r="F193" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G193" s="5" t="s">
         <v>15</v>
@@ -9069,10 +9066,10 @@
         <v>16</v>
       </c>
       <c r="J193" s="7" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="194" spans="1:10" hidden="1">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10">
       <c r="A194" s="4">
         <v>193</v>
       </c>
@@ -9083,13 +9080,13 @@
         <v>11</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E194" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="G194" s="5" t="s">
         <v>15</v>
@@ -9101,10 +9098,10 @@
         <v>16</v>
       </c>
       <c r="J194" s="7" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="195" spans="1:10" hidden="1">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10">
       <c r="A195" s="4">
         <v>194</v>
       </c>
@@ -9115,7 +9112,7 @@
         <v>11</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E195" s="1" t="s">
         <v>28</v>
@@ -9133,10 +9130,10 @@
         <v>16</v>
       </c>
       <c r="J195" s="8" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="196" spans="1:10" hidden="1">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10">
       <c r="A196" s="4">
         <v>195</v>
       </c>
@@ -9147,7 +9144,7 @@
         <v>11</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E196" s="1" t="s">
         <v>28</v>
@@ -9165,10 +9162,10 @@
         <v>16</v>
       </c>
       <c r="J196" s="7" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="197" spans="1:10" hidden="1">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10">
       <c r="A197" s="4">
         <v>196</v>
       </c>
@@ -9179,13 +9176,13 @@
         <v>11</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E197" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G197" s="5" t="s">
         <v>15</v>
@@ -9197,10 +9194,10 @@
         <v>16</v>
       </c>
       <c r="J197" s="3" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="198" spans="1:10" hidden="1">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10">
       <c r="A198" s="4">
         <v>197</v>
       </c>
@@ -9211,7 +9208,7 @@
         <v>11</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E198" s="1" t="s">
         <v>40</v>
@@ -9229,10 +9226,10 @@
         <v>16</v>
       </c>
       <c r="J198" s="3" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="199" spans="1:10" hidden="1">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10">
       <c r="A199" s="4">
         <v>198</v>
       </c>
@@ -9243,13 +9240,13 @@
         <v>11</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E199" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G199" s="2" t="s">
         <v>42</v>
@@ -9261,7 +9258,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="200" spans="1:10" hidden="1">
+    <row r="200" spans="1:10">
       <c r="A200" s="4">
         <v>199</v>
       </c>
@@ -9272,7 +9269,7 @@
         <v>11</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E200" s="1" t="s">
         <v>28</v>
@@ -9290,10 +9287,10 @@
         <v>16</v>
       </c>
       <c r="J200" s="3" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="201" spans="1:10" hidden="1">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10">
       <c r="A201" s="4">
         <v>200</v>
       </c>
@@ -9304,13 +9301,13 @@
         <v>11</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E201" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G201" s="5" t="s">
         <v>15</v>
@@ -9322,10 +9319,10 @@
         <v>16</v>
       </c>
       <c r="J201" s="3" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="202" spans="1:10" hidden="1">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10">
       <c r="A202" s="4">
         <v>201</v>
       </c>
@@ -9336,7 +9333,7 @@
         <v>11</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E202" s="1" t="s">
         <v>28</v>
@@ -9354,10 +9351,10 @@
         <v>16</v>
       </c>
       <c r="J202" s="3" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="203" spans="1:10" hidden="1">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10">
       <c r="A203" s="4">
         <v>202</v>
       </c>
@@ -9368,7 +9365,7 @@
         <v>11</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E203" s="1" t="s">
         <v>28</v>
@@ -9386,10 +9383,10 @@
         <v>16</v>
       </c>
       <c r="J203" s="3" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="204" spans="1:10" hidden="1">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10">
       <c r="A204" s="4">
         <v>203</v>
       </c>
@@ -9400,7 +9397,7 @@
         <v>11</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E204" s="1" t="s">
         <v>28</v>
@@ -9418,10 +9415,10 @@
         <v>16</v>
       </c>
       <c r="J204" s="3" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="205" spans="1:10" hidden="1">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10">
       <c r="A205" s="4">
         <v>204</v>
       </c>
@@ -9432,7 +9429,7 @@
         <v>11</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E205" s="1" t="s">
         <v>28</v>
@@ -9450,10 +9447,10 @@
         <v>16</v>
       </c>
       <c r="J205" s="3" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="206" spans="1:10" hidden="1">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10">
       <c r="A206" s="4">
         <v>205</v>
       </c>
@@ -9464,7 +9461,7 @@
         <v>11</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E206" s="1" t="s">
         <v>28</v>
@@ -9482,10 +9479,10 @@
         <v>16</v>
       </c>
       <c r="J206" s="3" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="207" spans="1:10" hidden="1">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10">
       <c r="A207" s="4">
         <v>206</v>
       </c>
@@ -9496,13 +9493,13 @@
         <v>11</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E207" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G207" s="5" t="s">
         <v>15</v>
@@ -9514,10 +9511,10 @@
         <v>16</v>
       </c>
       <c r="J207" s="3" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="208" spans="1:10" hidden="1">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10">
       <c r="A208" s="4">
         <v>207</v>
       </c>
@@ -9528,7 +9525,7 @@
         <v>11</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E208" s="1" t="s">
         <v>28</v>
@@ -9546,10 +9543,10 @@
         <v>16</v>
       </c>
       <c r="J208" s="3" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="209" spans="1:10" hidden="1">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10">
       <c r="A209" s="4">
         <v>208</v>
       </c>
@@ -9560,7 +9557,7 @@
         <v>11</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E209" s="1" t="s">
         <v>28</v>
@@ -9578,10 +9575,10 @@
         <v>16</v>
       </c>
       <c r="J209" s="3" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="210" spans="1:10" hidden="1">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10">
       <c r="A210" s="4">
         <v>209</v>
       </c>
@@ -9592,13 +9589,13 @@
         <v>11</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E210" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G210" s="5" t="s">
         <v>15</v>
@@ -9607,13 +9604,13 @@
         <v>45545</v>
       </c>
       <c r="I210" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="J210" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="J210" s="3" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="211" spans="1:10" hidden="1">
+    </row>
+    <row r="211" spans="1:10">
       <c r="A211" s="4">
         <v>210</v>
       </c>
@@ -9624,7 +9621,7 @@
         <v>11</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E211" s="1" t="s">
         <v>28</v>
@@ -9642,10 +9639,10 @@
         <v>16</v>
       </c>
       <c r="J211" s="3" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="212" spans="1:10" hidden="1">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10">
       <c r="A212" s="4">
         <v>211</v>
       </c>
@@ -9656,7 +9653,7 @@
         <v>11</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E212" s="1" t="s">
         <v>28</v>
@@ -9674,10 +9671,10 @@
         <v>16</v>
       </c>
       <c r="J212" s="3" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="213" spans="1:10" hidden="1">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10">
       <c r="A213" s="4">
         <v>212</v>
       </c>
@@ -9688,7 +9685,7 @@
         <v>11</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E213" s="1" t="s">
         <v>28</v>
@@ -9706,10 +9703,10 @@
         <v>16</v>
       </c>
       <c r="J213" s="3" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="214" spans="1:10" hidden="1">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10">
       <c r="A214" s="4">
         <v>213</v>
       </c>
@@ -9720,7 +9717,7 @@
         <v>11</v>
       </c>
       <c r="D214" s="18" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E214" s="1" t="s">
         <v>28</v>
@@ -9738,10 +9735,10 @@
         <v>16</v>
       </c>
       <c r="J214" s="3" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="215" spans="1:10" hidden="1">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10">
       <c r="A215" s="4">
         <v>214</v>
       </c>
@@ -9752,7 +9749,7 @@
         <v>11</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E215" s="1" t="s">
         <v>28</v>
@@ -9770,10 +9767,10 @@
         <v>16</v>
       </c>
       <c r="J215" s="3" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="216" spans="1:10" hidden="1">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10">
       <c r="A216" s="4">
         <v>215</v>
       </c>
@@ -9784,7 +9781,7 @@
         <v>11</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E216" s="1" t="s">
         <v>28</v>
@@ -9802,10 +9799,10 @@
         <v>16</v>
       </c>
       <c r="J216" s="3" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="217" spans="1:10" hidden="1">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10">
       <c r="A217" s="4">
         <v>216</v>
       </c>
@@ -9816,13 +9813,13 @@
         <v>112</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E217" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G217" s="5" t="s">
         <v>15</v>
@@ -9831,7 +9828,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="218" spans="1:10" hidden="1">
+    <row r="218" spans="1:10">
       <c r="A218" s="4">
         <v>217</v>
       </c>
@@ -9842,7 +9839,7 @@
         <v>11</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E218" s="1" t="s">
         <v>28</v>
@@ -9860,10 +9857,10 @@
         <v>16</v>
       </c>
       <c r="J218" s="3" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="219" spans="1:10" hidden="1">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10">
       <c r="A219" s="4">
         <v>218</v>
       </c>
@@ -9874,14 +9871,14 @@
         <v>11</v>
       </c>
       <c r="D219" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="E219" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="E219" s="1" t="s">
+      <c r="F219" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="F219" s="1" t="s">
-        <v>483</v>
-      </c>
       <c r="G219" s="5" t="s">
         <v>15</v>
       </c>
@@ -9889,7 +9886,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="220" spans="1:10" hidden="1">
+    <row r="220" spans="1:10">
       <c r="A220" s="4">
         <v>219</v>
       </c>
@@ -9900,7 +9897,7 @@
         <v>11</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E220" s="1" t="s">
         <v>28</v>
@@ -9918,10 +9915,10 @@
         <v>16</v>
       </c>
       <c r="J220" s="3" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="221" spans="1:10" hidden="1">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10">
       <c r="A221" s="4">
         <v>220</v>
       </c>
@@ -9932,7 +9929,7 @@
         <v>11</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E221" s="1" t="s">
         <v>28</v>
@@ -9950,7 +9947,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="222" spans="1:10" hidden="1">
+    <row r="222" spans="1:10">
       <c r="A222" s="4">
         <v>221</v>
       </c>
@@ -9961,7 +9958,7 @@
         <v>11</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E222" s="1" t="s">
         <v>28</v>
@@ -9979,10 +9976,10 @@
         <v>16</v>
       </c>
       <c r="J222" s="3" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="223" spans="1:10" hidden="1">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10">
       <c r="A223" s="4">
         <v>222</v>
       </c>
@@ -9993,7 +9990,7 @@
         <v>11</v>
       </c>
       <c r="D223" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E223" s="1" t="s">
         <v>28</v>
@@ -10012,7 +10009,7 @@
       </c>
       <c r="J223" s="7"/>
     </row>
-    <row r="224" spans="1:10" hidden="1">
+    <row r="224" spans="1:10">
       <c r="A224" s="4">
         <v>223</v>
       </c>
@@ -10023,13 +10020,13 @@
         <v>11</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E224" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G224" s="5" t="s">
         <v>15</v>
@@ -10041,10 +10038,10 @@
         <v>16</v>
       </c>
       <c r="J224" s="7" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="225" spans="1:10" hidden="1">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10">
       <c r="A225" s="4">
         <v>224</v>
       </c>
@@ -10055,7 +10052,7 @@
         <v>11</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E225" s="1" t="s">
         <v>28</v>
@@ -10076,7 +10073,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="226" spans="1:10" hidden="1">
+    <row r="226" spans="1:10">
       <c r="A226" s="4">
         <v>225</v>
       </c>
@@ -10087,7 +10084,7 @@
         <v>11</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E226" s="1" t="s">
         <v>28</v>
@@ -10105,10 +10102,10 @@
         <v>16</v>
       </c>
       <c r="J226" s="3" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="227" spans="1:10" hidden="1">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10">
       <c r="A227" s="4">
         <v>226</v>
       </c>
@@ -10119,7 +10116,7 @@
         <v>11</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E227" s="1" t="s">
         <v>28</v>
@@ -10137,10 +10134,10 @@
         <v>16</v>
       </c>
       <c r="J227" s="3" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="228" spans="1:10" hidden="1">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10">
       <c r="A228" s="4">
         <v>227</v>
       </c>
@@ -10151,7 +10148,7 @@
         <v>11</v>
       </c>
       <c r="D228" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E228" s="1" t="s">
         <v>28</v>
@@ -10169,21 +10166,21 @@
         <v>16</v>
       </c>
       <c r="J228" s="8" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="229" spans="1:10" hidden="1">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10">
       <c r="A229" s="4">
         <v>228</v>
       </c>
       <c r="B229" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D229" s="14" t="s">
         <v>500</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D229" s="14" t="s">
-        <v>501</v>
       </c>
       <c r="E229" s="14" t="s">
         <v>13</v>
@@ -10202,18 +10199,18 @@
       </c>
       <c r="J229" s="20"/>
     </row>
-    <row r="230" spans="1:10" hidden="1">
+    <row r="230" spans="1:10">
       <c r="A230" s="4">
         <v>229</v>
       </c>
       <c r="B230" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D230" s="1" t="s">
         <v>502</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D230" s="1" t="s">
-        <v>503</v>
       </c>
       <c r="E230" s="1" t="s">
         <v>28</v>
@@ -10231,21 +10228,21 @@
         <v>16</v>
       </c>
       <c r="J230" s="3" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="231" spans="1:10" hidden="1">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10">
       <c r="A231" s="4">
         <v>230</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E231" s="1" t="s">
         <v>28</v>
@@ -10263,21 +10260,21 @@
         <v>16</v>
       </c>
       <c r="J231" s="3" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="232" spans="1:10" hidden="1">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10">
       <c r="A232" s="4">
         <v>231</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E232" s="1" t="s">
         <v>28</v>
@@ -10295,10 +10292,10 @@
         <v>16</v>
       </c>
       <c r="J232" s="3" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="233" spans="1:10" hidden="1">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10">
       <c r="A233" s="4">
         <v>232</v>
       </c>
@@ -10315,7 +10312,7 @@
         <v>21</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G233" s="2" t="s">
         <v>21</v>
@@ -10327,21 +10324,21 @@
         <v>16</v>
       </c>
       <c r="J233" s="3" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="234" spans="1:10" hidden="1">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10">
       <c r="A234" s="4">
         <v>233</v>
       </c>
       <c r="B234" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D234" s="1" t="s">
         <v>511</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D234" s="1" t="s">
-        <v>512</v>
       </c>
       <c r="E234" s="1" t="s">
         <v>28</v>
@@ -10359,25 +10356,25 @@
         <v>16</v>
       </c>
     </row>
-    <row r="235" spans="1:10" hidden="1">
+    <row r="235" spans="1:10">
       <c r="A235" s="4">
         <v>234</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D235" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="F235" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="E235" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="F235" s="1" t="s">
-        <v>515</v>
-      </c>
       <c r="G235" s="5" t="s">
         <v>15</v>
       </c>
@@ -10385,18 +10382,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="236" spans="1:10" hidden="1">
+    <row r="236" spans="1:10">
       <c r="A236" s="4">
         <v>235</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E236" s="1" t="s">
         <v>199</v>
@@ -10414,21 +10411,21 @@
         <v>16</v>
       </c>
       <c r="J236" s="3" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="237" spans="1:10" hidden="1">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10">
       <c r="A237" s="4">
         <v>236</v>
       </c>
       <c r="B237" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D237" s="1" t="s">
         <v>519</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D237" s="1" t="s">
-        <v>520</v>
       </c>
       <c r="E237" s="1" t="s">
         <v>28</v>
@@ -10446,10 +10443,10 @@
         <v>16</v>
       </c>
       <c r="J237" s="3" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="238" spans="1:10" hidden="1">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10">
       <c r="A238" s="4">
         <v>237</v>
       </c>
@@ -10460,13 +10457,13 @@
         <v>11</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E238" s="1" t="s">
         <v>203</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G238" s="2" t="s">
         <v>42</v>
@@ -10475,10 +10472,10 @@
         <v>16</v>
       </c>
       <c r="J238" s="3" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="239" spans="1:10" hidden="1">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10">
       <c r="A239" s="4">
         <v>238</v>
       </c>
@@ -10489,13 +10486,13 @@
         <v>11</v>
       </c>
       <c r="D239" s="21" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E239" s="1" t="s">
         <v>203</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G239" s="2" t="s">
         <v>42</v>
@@ -10507,10 +10504,10 @@
         <v>16</v>
       </c>
       <c r="J239" s="3" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="240" spans="1:10" hidden="1">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10">
       <c r="A240" s="4">
         <v>239</v>
       </c>
@@ -10521,13 +10518,13 @@
         <v>11</v>
       </c>
       <c r="D240" s="21" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E240" s="1" t="s">
         <v>203</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G240" s="2" t="s">
         <v>42</v>
@@ -10539,7 +10536,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="241" spans="1:10" hidden="1">
+    <row r="241" spans="1:10">
       <c r="A241" s="4">
         <v>240</v>
       </c>
@@ -10550,13 +10547,13 @@
         <v>11</v>
       </c>
       <c r="D241" s="21" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E241" s="1" t="s">
         <v>203</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G241" s="2" t="s">
         <v>42</v>
@@ -10565,27 +10562,27 @@
         <v>16</v>
       </c>
       <c r="J241" s="3" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="242" spans="1:10" hidden="1">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10">
       <c r="A242" s="4">
         <v>241</v>
       </c>
       <c r="B242" s="10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D242" s="21" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E242" s="1" t="s">
         <v>203</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G242" s="5" t="s">
         <v>42</v>
@@ -10594,7 +10591,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="243" spans="1:10" hidden="1">
+    <row r="243" spans="1:10">
       <c r="A243" s="4">
         <v>242</v>
       </c>
@@ -10605,13 +10602,13 @@
         <v>112</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E243" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G243" s="5" t="s">
         <v>15</v>
@@ -10623,10 +10620,10 @@
         <v>16</v>
       </c>
       <c r="J243" s="3" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="244" spans="1:10" hidden="1">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10">
       <c r="A244" s="4">
         <v>243</v>
       </c>
@@ -10637,13 +10634,13 @@
         <v>112</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E244" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G244" s="5" t="s">
         <v>15</v>
@@ -10655,10 +10652,10 @@
         <v>16</v>
       </c>
       <c r="J244" s="3" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="245" spans="1:10" hidden="1">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10">
       <c r="A245" s="4">
         <v>244</v>
       </c>
@@ -10669,7 +10666,7 @@
         <v>11</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E245" s="1" t="s">
         <v>28</v>
@@ -10687,21 +10684,21 @@
         <v>16</v>
       </c>
       <c r="J245" s="3" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="246" spans="1:10" hidden="1">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10">
       <c r="A246" s="4">
         <v>245</v>
       </c>
       <c r="B246" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D246" s="1" t="s">
         <v>542</v>
-      </c>
-      <c r="C246" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D246" s="1" t="s">
-        <v>543</v>
       </c>
       <c r="E246" s="1" t="s">
         <v>28</v>
@@ -10719,21 +10716,21 @@
         <v>16</v>
       </c>
       <c r="J246" s="3" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="247" spans="1:10" hidden="1">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10">
       <c r="A247" s="4">
         <v>246</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E247" s="1" t="s">
         <v>40</v>
@@ -10751,21 +10748,21 @@
         <v>217</v>
       </c>
       <c r="J247" s="3" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="248" spans="1:10" hidden="1">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10">
       <c r="A248" s="4">
         <v>247</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D248" s="18" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E248" s="1" t="s">
         <v>40</v>
@@ -10783,21 +10780,21 @@
         <v>217</v>
       </c>
       <c r="J248" s="3" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="249" spans="1:10" hidden="1">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10">
       <c r="A249" s="4">
         <v>248</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E249" s="1" t="s">
         <v>199</v>
@@ -10815,21 +10812,21 @@
         <v>16</v>
       </c>
       <c r="J249" s="3" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="250" spans="1:10" hidden="1">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10">
       <c r="A250" s="4">
         <v>249</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D250" s="18" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E250" s="1" t="s">
         <v>40</v>
@@ -10847,10 +10844,10 @@
         <v>217</v>
       </c>
       <c r="J250" s="3" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="251" spans="1:10" hidden="1">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10">
       <c r="A251" s="4">
         <v>250</v>
       </c>
@@ -10861,7 +10858,7 @@
         <v>11</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E251" s="1" t="s">
         <v>28</v>
@@ -10879,10 +10876,10 @@
         <v>16</v>
       </c>
       <c r="J251" s="3" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="252" spans="1:10" hidden="1">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10">
       <c r="A252" s="4">
         <v>251</v>
       </c>
@@ -10893,13 +10890,13 @@
         <v>11</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E252" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G252" s="5" t="s">
         <v>15</v>
@@ -10911,59 +10908,59 @@
         <v>16</v>
       </c>
       <c r="J252" s="3" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="253" spans="1:10" hidden="1">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10">
       <c r="A253" s="4">
         <v>252</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G253" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H253" s="9">
-        <v>45653</v>
+        <v>45734</v>
       </c>
       <c r="I253" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J253" s="3" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="254" spans="1:10" hidden="1">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10">
       <c r="A254" s="4">
         <v>253</v>
       </c>
       <c r="B254" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="E254" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F254" s="1" t="s">
         <v>559</v>
-      </c>
-      <c r="C254" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D254" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="E254" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F254" s="1" t="s">
-        <v>561</v>
       </c>
       <c r="G254" s="5" t="s">
         <v>15</v>
@@ -10975,10 +10972,10 @@
         <v>16</v>
       </c>
       <c r="J254" s="3" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="255" spans="1:10" hidden="1">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10">
       <c r="A255" s="4">
         <v>254</v>
       </c>
@@ -10989,7 +10986,7 @@
         <v>112</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E255" s="1" t="s">
         <v>13</v>
@@ -11007,10 +11004,10 @@
         <v>16</v>
       </c>
       <c r="J255" s="3" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="256" spans="1:10" hidden="1">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10">
       <c r="A256" s="4">
         <v>255</v>
       </c>
@@ -11021,25 +11018,25 @@
         <v>112</v>
       </c>
       <c r="D256" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F256" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="G256" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I256" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J256" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="E256" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F256" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="G256" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I256" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J256" s="3" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="257" spans="1:10" hidden="1">
+    </row>
+    <row r="257" spans="1:10">
       <c r="A257" s="4">
         <v>256</v>
       </c>
@@ -11050,7 +11047,7 @@
         <v>11</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="E257" s="1" t="s">
         <v>28</v>
@@ -11068,10 +11065,10 @@
         <v>16</v>
       </c>
       <c r="J257" s="3" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="258" spans="1:10" hidden="1">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10">
       <c r="A258" s="4">
         <v>257</v>
       </c>
@@ -11082,7 +11079,7 @@
         <v>11</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E258" s="1" t="s">
         <v>28</v>
@@ -11100,27 +11097,27 @@
         <v>16</v>
       </c>
       <c r="J258" s="3" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="259" spans="1:10" hidden="1">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10">
       <c r="A259" s="4">
         <v>258</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E259" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="G259" s="2" t="s">
         <v>15</v>
@@ -11132,27 +11129,27 @@
         <v>16</v>
       </c>
       <c r="J259" s="3" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="260" spans="1:10" hidden="1">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10">
       <c r="A260" s="4">
         <v>259</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="E260" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F260" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="G260" s="2" t="s">
         <v>15</v>
@@ -11164,21 +11161,21 @@
         <v>16</v>
       </c>
       <c r="J260" s="3" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="261" spans="1:10" hidden="1">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10">
       <c r="A261" s="4">
         <v>260</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E261" s="1" t="s">
         <v>92</v>
@@ -11196,27 +11193,27 @@
         <v>16</v>
       </c>
       <c r="J261" s="3" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="262" spans="1:10" hidden="1">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10">
       <c r="A262" s="4">
         <v>261</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="E262" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="G262" s="2" t="s">
         <v>15</v>
@@ -11228,27 +11225,27 @@
         <v>16</v>
       </c>
       <c r="J262" s="3" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="263" spans="1:10" hidden="1">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10">
       <c r="A263" s="4">
         <v>262</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="E263" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="G263" s="2" t="s">
         <v>15</v>
@@ -11260,27 +11257,27 @@
         <v>16</v>
       </c>
       <c r="J263" s="3" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="264" spans="1:10" hidden="1">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10">
       <c r="A264" s="4">
         <v>263</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="E264" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="G264" s="2" t="s">
         <v>15</v>
@@ -11292,27 +11289,27 @@
         <v>16</v>
       </c>
       <c r="J264" s="3" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="265" spans="1:10" hidden="1">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10">
       <c r="A265" s="4">
         <v>264</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="E265" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F265" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="G265" s="2" t="s">
         <v>15</v>
@@ -11324,27 +11321,27 @@
         <v>16</v>
       </c>
       <c r="J265" s="3" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="266" spans="1:10" hidden="1">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10">
       <c r="A266" s="4">
         <v>265</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="E266" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F266" s="1" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="G266" s="2" t="s">
         <v>15</v>
@@ -11356,27 +11353,27 @@
         <v>16</v>
       </c>
       <c r="J266" s="3" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="267" spans="1:10" hidden="1">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10">
       <c r="A267" s="4">
         <v>266</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E267" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F267" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G267" s="2" t="s">
         <v>15</v>
@@ -11388,27 +11385,27 @@
         <v>16</v>
       </c>
       <c r="J267" s="3" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="268" spans="1:10" hidden="1">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10">
       <c r="A268" s="4">
         <v>267</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E268" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="G268" s="2" t="s">
         <v>15</v>
@@ -11420,27 +11417,27 @@
         <v>16</v>
       </c>
       <c r="J268" s="3" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="269" spans="1:10" hidden="1">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10">
       <c r="A269" s="4">
         <v>268</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E269" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G269" s="2" t="s">
         <v>15</v>
@@ -11452,27 +11449,27 @@
         <v>16</v>
       </c>
       <c r="J269" s="3" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="270" spans="1:10" hidden="1">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10">
       <c r="A270" s="4">
         <v>269</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E270" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F270" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="G270" s="2" t="s">
         <v>15</v>
@@ -11484,27 +11481,27 @@
         <v>16</v>
       </c>
       <c r="J270" s="3" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="271" spans="1:10" hidden="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10">
       <c r="A271" s="4">
         <v>270</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E271" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F271" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="G271" s="2" t="s">
         <v>15</v>
@@ -11516,27 +11513,27 @@
         <v>16</v>
       </c>
       <c r="J271" s="3" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="272" spans="1:10" hidden="1">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10">
       <c r="A272" s="4">
         <v>271</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E272" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F272" s="1" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="G272" s="2" t="s">
         <v>15</v>
@@ -11548,27 +11545,27 @@
         <v>16</v>
       </c>
       <c r="J272" s="3" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="273" spans="1:10" hidden="1">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10">
       <c r="A273" s="4">
         <v>272</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E273" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F273" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="G273" s="2" t="s">
         <v>15</v>
@@ -11580,27 +11577,27 @@
         <v>16</v>
       </c>
       <c r="J273" s="3" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="274" spans="1:10" hidden="1">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10">
       <c r="A274" s="4">
         <v>273</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E274" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="G274" s="2" t="s">
         <v>15</v>
@@ -11612,27 +11609,27 @@
         <v>16</v>
       </c>
       <c r="J274" s="3" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="275" spans="1:10" hidden="1">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10">
       <c r="A275" s="4">
         <v>274</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E275" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F275" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="G275" s="2" t="s">
         <v>15</v>
@@ -11644,27 +11641,27 @@
         <v>16</v>
       </c>
       <c r="J275" s="3" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="276" spans="1:10" hidden="1">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10">
       <c r="A276" s="4">
         <v>275</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D276" s="22" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E276" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F276" s="4" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="G276" s="2" t="s">
         <v>15</v>
@@ -11676,27 +11673,27 @@
         <v>16</v>
       </c>
       <c r="J276" s="3" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="277" spans="1:10" hidden="1">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10">
       <c r="A277" s="4">
         <v>276</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E277" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F277" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="G277" s="2" t="s">
         <v>15</v>
@@ -11708,27 +11705,27 @@
         <v>16</v>
       </c>
       <c r="J277" s="3" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="278" spans="1:10" hidden="1">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10">
       <c r="A278" s="4">
         <v>277</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E278" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F278" s="4" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="G278" s="2" t="s">
         <v>15</v>
@@ -11740,27 +11737,27 @@
         <v>16</v>
       </c>
       <c r="J278" s="3" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="279" spans="1:10" hidden="1">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10">
       <c r="A279" s="4">
         <v>278</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E279" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F279" s="1" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="G279" s="2" t="s">
         <v>15</v>
@@ -11772,27 +11769,27 @@
         <v>16</v>
       </c>
       <c r="J279" s="3" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="280" spans="1:10" hidden="1">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10">
       <c r="A280" s="4">
         <v>279</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F280" s="1" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="G280" s="2" t="s">
         <v>15</v>
@@ -11804,27 +11801,27 @@
         <v>16</v>
       </c>
       <c r="J280" s="3" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="281" spans="1:10" hidden="1">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10">
       <c r="A281" s="4">
         <v>280</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F281" s="1" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="G281" s="2" t="s">
         <v>15</v>
@@ -11836,27 +11833,27 @@
         <v>16</v>
       </c>
       <c r="J281" s="3" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="282" spans="1:10" hidden="1">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10">
       <c r="A282" s="4">
         <v>281</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F282" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="G282" s="2" t="s">
         <v>15</v>
@@ -11868,27 +11865,27 @@
         <v>16</v>
       </c>
       <c r="J282" s="3" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="283" spans="1:10" hidden="1">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10">
       <c r="A283" s="4">
         <v>282</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F283" s="1" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="G283" s="2" t="s">
         <v>15</v>
@@ -11900,27 +11897,27 @@
         <v>16</v>
       </c>
       <c r="J283" s="3" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="284" spans="1:10" hidden="1">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10">
       <c r="A284" s="4">
         <v>283</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F284" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="G284" s="2" t="s">
         <v>15</v>
@@ -11932,27 +11929,27 @@
         <v>16</v>
       </c>
       <c r="J284" s="3" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="285" spans="1:10" hidden="1">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10">
       <c r="A285" s="4">
         <v>284</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F285" s="1" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="G285" s="2" t="s">
         <v>15</v>
@@ -11964,27 +11961,27 @@
         <v>16</v>
       </c>
       <c r="J285" s="3" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="286" spans="1:10" hidden="1">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10">
       <c r="A286" s="4">
         <v>285</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F286" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="G286" s="2" t="s">
         <v>15</v>
@@ -11996,27 +11993,27 @@
         <v>16</v>
       </c>
       <c r="J286" s="3" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="287" spans="1:10" hidden="1">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10">
       <c r="A287" s="4">
         <v>286</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F287" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="G287" s="2" t="s">
         <v>15</v>
@@ -12028,27 +12025,27 @@
         <v>16</v>
       </c>
       <c r="J287" s="3" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="288" spans="1:10" hidden="1">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10">
       <c r="A288" s="4">
         <v>287</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F288" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="G288" s="2" t="s">
         <v>15</v>
@@ -12060,27 +12057,27 @@
         <v>16</v>
       </c>
       <c r="J288" s="3" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="289" spans="1:10" hidden="1">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10">
       <c r="A289" s="4">
         <v>288</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F289" s="1" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="G289" s="2" t="s">
         <v>15</v>
@@ -12092,27 +12089,27 @@
         <v>16</v>
       </c>
       <c r="J289" s="3" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="290" spans="1:10" hidden="1">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10">
       <c r="A290" s="4">
         <v>289</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F290" s="1" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="G290" s="2" t="s">
         <v>15</v>
@@ -12124,27 +12121,27 @@
         <v>16</v>
       </c>
       <c r="J290" s="3" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="291" spans="1:10" hidden="1">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10">
       <c r="A291" s="4">
         <v>290</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F291" s="1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="G291" s="2" t="s">
         <v>15</v>
@@ -12156,27 +12153,27 @@
         <v>16</v>
       </c>
       <c r="J291" s="3" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="292" spans="1:10" hidden="1">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10">
       <c r="A292" s="4">
         <v>291</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F292" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="G292" s="2" t="s">
         <v>15</v>
@@ -12188,7 +12185,7 @@
         <v>16</v>
       </c>
       <c r="J292" s="3" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="293" spans="1:10">
@@ -12196,19 +12193,19 @@
         <v>292</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="E293" s="1" t="s">
         <v>102</v>
       </c>
       <c r="F293" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G293" s="2" t="s">
         <v>15</v>
@@ -12220,21 +12217,21 @@
         <v>104</v>
       </c>
       <c r="J293" s="3" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="294" spans="1:10" hidden="1">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10">
       <c r="A294" s="4">
         <v>293</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="E294" s="1" t="s">
         <v>28</v>
@@ -12252,7 +12249,7 @@
         <v>16</v>
       </c>
       <c r="J294" s="3" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="295" spans="1:10">
@@ -12260,19 +12257,19 @@
         <v>294</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="E295" s="1" t="s">
         <v>102</v>
       </c>
       <c r="F295" s="1" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="G295" s="2" t="s">
         <v>15</v>
@@ -12284,21 +12281,21 @@
         <v>104</v>
       </c>
       <c r="J295" s="3" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="296" spans="1:10" hidden="1">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10">
       <c r="A296" s="4">
         <v>295</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="E296" s="1" t="s">
         <v>28</v>
@@ -12316,7 +12313,7 @@
         <v>104</v>
       </c>
       <c r="J296" s="3" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
     </row>
     <row r="297" spans="1:10">
@@ -12324,19 +12321,19 @@
         <v>296</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="E297" s="1" t="s">
         <v>102</v>
       </c>
       <c r="F297" s="1" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="G297" s="2" t="s">
         <v>15</v>
@@ -12348,27 +12345,27 @@
         <v>104</v>
       </c>
       <c r="J297" s="3" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="298" spans="1:10" hidden="1">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10">
       <c r="A298" s="4">
         <v>297</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="E298" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F298" s="1" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G298" s="2" t="s">
         <v>15</v>
@@ -12380,27 +12377,27 @@
         <v>16</v>
       </c>
       <c r="J298" s="3" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="299" spans="1:10" hidden="1">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10">
       <c r="A299" s="4">
         <v>298</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="E299" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F299" s="1" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="G299" s="2" t="s">
         <v>15</v>
@@ -12412,27 +12409,27 @@
         <v>16</v>
       </c>
       <c r="J299" s="3" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="300" spans="1:10" hidden="1">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10">
       <c r="A300" s="4">
         <v>299</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="E300" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F300" s="1" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="G300" s="2" t="s">
         <v>15</v>
@@ -12444,27 +12441,27 @@
         <v>16</v>
       </c>
       <c r="J300" s="3" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="301" spans="1:10" hidden="1">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10">
       <c r="A301" s="4">
         <v>300</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="E301" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F301" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="G301" s="2" t="s">
         <v>15</v>
@@ -12476,27 +12473,27 @@
         <v>16</v>
       </c>
       <c r="J301" s="3" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="302" spans="1:10" hidden="1">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10">
       <c r="A302" s="4">
         <v>301</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="E302" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F302" s="1" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="G302" s="2" t="s">
         <v>15</v>
@@ -12508,7 +12505,7 @@
         <v>16</v>
       </c>
       <c r="J302" s="3" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="303" spans="1:10">
@@ -12516,19 +12513,19 @@
         <v>302</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="E303" s="1" t="s">
         <v>102</v>
       </c>
       <c r="F303" s="1" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="G303" s="2" t="s">
         <v>15</v>
@@ -12540,27 +12537,27 @@
         <v>104</v>
       </c>
       <c r="J303" s="3" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="304" spans="1:10" hidden="1">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10">
       <c r="A304" s="4">
         <v>303</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E304" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F304" s="1" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="G304" s="2" t="s">
         <v>15</v>
@@ -12572,27 +12569,27 @@
         <v>16</v>
       </c>
       <c r="J304" s="3" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="305" spans="1:10" hidden="1">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10">
       <c r="A305" s="4">
         <v>304</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="E305" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F305" s="1" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="G305" s="2" t="s">
         <v>15</v>
@@ -12604,27 +12601,27 @@
         <v>16</v>
       </c>
       <c r="J305" s="3" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="306" spans="1:10" hidden="1">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10">
       <c r="A306" s="4">
         <v>305</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E306" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F306" s="1" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="G306" s="2" t="s">
         <v>15</v>
@@ -12636,27 +12633,27 @@
         <v>16</v>
       </c>
       <c r="J306" s="3" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="307" spans="1:10" hidden="1">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10">
       <c r="A307" s="4">
         <v>306</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="E307" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F307" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G307" s="2" t="s">
         <v>15</v>
@@ -12668,21 +12665,21 @@
         <v>16</v>
       </c>
       <c r="J307" s="3" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="308" spans="1:10" hidden="1">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10">
       <c r="A308" s="4">
         <v>307</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="E308" s="1" t="s">
         <v>28</v>
@@ -12700,27 +12697,27 @@
         <v>16</v>
       </c>
       <c r="J308" s="3" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="309" spans="1:10" hidden="1">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10">
       <c r="A309" s="4">
         <v>308</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E309" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F309" s="1" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="G309" s="2" t="s">
         <v>15</v>
@@ -12729,30 +12726,30 @@
         <v>45702</v>
       </c>
       <c r="I309" s="9" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="J309" s="3" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="310" spans="1:10" hidden="1">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10">
       <c r="A310" s="4">
         <v>309</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E310" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F310" s="1" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G310" s="2" t="s">
         <v>15</v>
@@ -12761,30 +12758,30 @@
         <v>45702</v>
       </c>
       <c r="I310" s="9" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="J310" s="3" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="311" spans="1:10" hidden="1">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10">
       <c r="A311" s="4">
         <v>310</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E311" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F311" s="1" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="G311" s="2" t="s">
         <v>15</v>
@@ -12793,30 +12790,30 @@
         <v>45702</v>
       </c>
       <c r="I311" s="9" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="J311" s="3" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="312" spans="1:10" hidden="1">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10">
       <c r="A312" s="4">
         <v>311</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E312" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F312" s="1" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="G312" s="2" t="s">
         <v>15</v>
@@ -12828,27 +12825,27 @@
         <v>16</v>
       </c>
       <c r="J312" s="3" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="313" spans="1:10" hidden="1">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10">
       <c r="A313" s="4">
         <v>312</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="E313" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F313" s="1" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="G313" s="2" t="s">
         <v>15</v>
@@ -12857,30 +12854,30 @@
         <v>45726</v>
       </c>
       <c r="I313" s="9" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="J313" s="3" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="314" spans="1:10" hidden="1">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10">
       <c r="A314" s="4">
         <v>313</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="E314" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F314" s="1" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="G314" s="2" t="s">
         <v>15</v>
@@ -12889,30 +12886,30 @@
         <v>45726</v>
       </c>
       <c r="I314" s="9" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="J314" s="3" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="315" spans="1:10" hidden="1">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="315" spans="1:10">
       <c r="A315" s="4">
         <v>314</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="E315" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F315" s="1" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="G315" s="2" t="s">
         <v>15</v>
@@ -12921,24 +12918,24 @@
         <v>45726</v>
       </c>
       <c r="I315" s="9" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="J315" s="3" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="316" spans="1:10" hidden="1">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10">
       <c r="A316" s="4">
         <v>315</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="E316" s="1" t="s">
         <v>92</v>
@@ -12956,27 +12953,27 @@
         <v>16</v>
       </c>
       <c r="J316" s="3" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="317" spans="1:10" hidden="1">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10">
       <c r="A317" s="4">
         <v>316</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E317" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F317" s="1" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="G317" s="2" t="s">
         <v>15</v>
@@ -12988,27 +12985,27 @@
         <v>16</v>
       </c>
       <c r="J317" s="3" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="318" spans="1:10" hidden="1">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10">
       <c r="A318" s="4">
         <v>317</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E318" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F318" s="1" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="G318" s="2" t="s">
         <v>15</v>
@@ -13020,27 +13017,27 @@
         <v>16</v>
       </c>
       <c r="J318" s="3" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="319" spans="1:10" hidden="1">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10">
       <c r="A319" s="4">
         <v>318</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E319" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F319" s="1" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="G319" s="2" t="s">
         <v>15</v>
@@ -13052,27 +13049,27 @@
         <v>16</v>
       </c>
       <c r="J319" s="3" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="320" spans="1:10" hidden="1">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="320" spans="1:10">
       <c r="A320" s="4">
         <v>319</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E320" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F320" s="1" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="G320" s="2" t="s">
         <v>15</v>
@@ -13084,27 +13081,27 @@
         <v>16</v>
       </c>
       <c r="J320" s="3" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="321" spans="1:10" hidden="1">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="321" spans="1:10">
       <c r="A321" s="4">
         <v>320</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E321" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F321" s="1" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="G321" s="2" t="s">
         <v>15</v>
@@ -13116,27 +13113,27 @@
         <v>16</v>
       </c>
       <c r="J321" s="3" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="322" spans="1:10" hidden="1">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="322" spans="1:10">
       <c r="A322" s="4">
         <v>321</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E322" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F322" s="1" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="G322" s="2" t="s">
         <v>15</v>
@@ -13148,27 +13145,27 @@
         <v>16</v>
       </c>
       <c r="J322" s="3" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="323" spans="1:10" hidden="1">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="323" spans="1:10">
       <c r="A323" s="4">
         <v>322</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E323" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F323" s="1" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="G323" s="2" t="s">
         <v>15</v>
@@ -13180,27 +13177,27 @@
         <v>16</v>
       </c>
       <c r="J323" s="3" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="324" spans="1:10" hidden="1">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10">
       <c r="A324" s="4">
         <v>323</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E324" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F324" s="1" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="G324" s="2" t="s">
         <v>15</v>
@@ -13212,27 +13209,27 @@
         <v>16</v>
       </c>
       <c r="J324" s="3" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="325" spans="1:10" hidden="1">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="325" spans="1:10">
       <c r="A325" s="4">
         <v>324</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E325" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F325" s="1" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="G325" s="2" t="s">
         <v>15</v>
@@ -13244,27 +13241,27 @@
         <v>16</v>
       </c>
       <c r="J325" s="3" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="326" spans="1:10" hidden="1">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="326" spans="1:10">
       <c r="A326" s="4">
         <v>325</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E326" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F326" s="1" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="G326" s="2" t="s">
         <v>15</v>
@@ -13276,27 +13273,27 @@
         <v>16</v>
       </c>
       <c r="J326" s="3" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="327" spans="1:10" hidden="1">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="327" spans="1:10">
       <c r="A327" s="4">
         <v>326</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E327" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F327" s="1" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="G327" s="2" t="s">
         <v>15</v>
@@ -13308,27 +13305,27 @@
         <v>16</v>
       </c>
       <c r="J327" s="3" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="328" spans="1:10" hidden="1">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="328" spans="1:10">
       <c r="A328" s="4">
         <v>327</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E328" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F328" s="1" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="G328" s="2" t="s">
         <v>15</v>
@@ -13340,27 +13337,27 @@
         <v>16</v>
       </c>
       <c r="J328" s="3" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="329" spans="1:10" hidden="1">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="329" spans="1:10">
       <c r="A329" s="4">
         <v>328</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E329" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F329" s="1" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="G329" s="2" t="s">
         <v>15</v>
@@ -13372,27 +13369,27 @@
         <v>16</v>
       </c>
       <c r="J329" s="3" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="330" spans="1:10" hidden="1">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10">
       <c r="A330" s="4">
         <v>329</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E330" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F330" s="1" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="G330" s="2" t="s">
         <v>15</v>
@@ -13404,27 +13401,27 @@
         <v>16</v>
       </c>
       <c r="J330" s="3" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="331" spans="1:10" hidden="1">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="331" spans="1:10">
       <c r="A331" s="4">
         <v>330</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E331" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F331" s="1" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="G331" s="2" t="s">
         <v>15</v>
@@ -13436,27 +13433,27 @@
         <v>16</v>
       </c>
       <c r="J331" s="3" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="332" spans="1:10" hidden="1">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="332" spans="1:10">
       <c r="A332" s="4">
         <v>331</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E332" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F332" s="1" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="G332" s="2" t="s">
         <v>15</v>
@@ -13468,27 +13465,27 @@
         <v>16</v>
       </c>
       <c r="J332" s="3" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="333" spans="1:10" hidden="1">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="333" spans="1:10">
       <c r="A333" s="4">
         <v>332</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E333" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F333" s="1" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="G333" s="2" t="s">
         <v>15</v>
@@ -13500,27 +13497,27 @@
         <v>16</v>
       </c>
       <c r="J333" s="3" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="334" spans="1:10" hidden="1">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="334" spans="1:10">
       <c r="A334" s="4">
         <v>333</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E334" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F334" s="1" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="G334" s="2" t="s">
         <v>15</v>
@@ -13532,27 +13529,27 @@
         <v>16</v>
       </c>
       <c r="J334" s="3" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="335" spans="1:10" hidden="1">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="335" spans="1:10">
       <c r="A335" s="4">
         <v>334</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E335" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F335" s="1" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="G335" s="2" t="s">
         <v>15</v>
@@ -13564,27 +13561,27 @@
         <v>16</v>
       </c>
       <c r="J335" s="3" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="336" spans="1:10" hidden="1">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="336" spans="1:10">
       <c r="A336" s="4">
         <v>335</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E336" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F336" s="1" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="G336" s="2" t="s">
         <v>15</v>
@@ -13596,7 +13593,7 @@
         <v>16</v>
       </c>
       <c r="J336" s="3" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
   </sheetData>
@@ -13623,8 +13620,9 @@
     <cfRule type="duplicateValues" dxfId="13" priority="7"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -13634,7 +13632,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -13648,33 +13646,33 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>710</v>
+      </c>
+      <c r="E1" t="s">
+        <v>711</v>
+      </c>
+      <c r="F1" t="s">
         <v>712</v>
-      </c>
-      <c r="E1" t="s">
-        <v>713</v>
-      </c>
-      <c r="F1" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
+        <v>713</v>
+      </c>
+      <c r="B2" t="s">
+        <v>714</v>
+      </c>
+      <c r="C2" t="s">
         <v>715</v>
-      </c>
-      <c r="B2" t="s">
-        <v>716</v>
-      </c>
-      <c r="C2" t="s">
-        <v>717</v>
       </c>
       <c r="D2">
         <v>1885</v>
@@ -13685,13 +13683,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>713</v>
+      </c>
+      <c r="B3" t="s">
+        <v>714</v>
+      </c>
+      <c r="C3" t="s">
         <v>715</v>
-      </c>
-      <c r="B3" t="s">
-        <v>716</v>
-      </c>
-      <c r="C3" t="s">
-        <v>717</v>
       </c>
       <c r="D3">
         <v>1880</v>
@@ -13702,13 +13700,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>713</v>
+      </c>
+      <c r="B4" t="s">
+        <v>714</v>
+      </c>
+      <c r="C4" t="s">
         <v>715</v>
-      </c>
-      <c r="B4" t="s">
-        <v>716</v>
-      </c>
-      <c r="C4" t="s">
-        <v>717</v>
       </c>
       <c r="D4">
         <v>1881</v>
@@ -13719,13 +13717,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
+        <v>713</v>
+      </c>
+      <c r="B5" t="s">
+        <v>714</v>
+      </c>
+      <c r="C5" t="s">
         <v>715</v>
-      </c>
-      <c r="B5" t="s">
-        <v>716</v>
-      </c>
-      <c r="C5" t="s">
-        <v>717</v>
       </c>
       <c r="D5">
         <v>1890</v>
@@ -13736,13 +13734,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
+        <v>713</v>
+      </c>
+      <c r="B6" t="s">
+        <v>714</v>
+      </c>
+      <c r="C6" t="s">
         <v>715</v>
-      </c>
-      <c r="B6" t="s">
-        <v>716</v>
-      </c>
-      <c r="C6" t="s">
-        <v>717</v>
       </c>
       <c r="D6">
         <v>1878</v>
@@ -13753,13 +13751,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
+        <v>713</v>
+      </c>
+      <c r="B7" t="s">
+        <v>714</v>
+      </c>
+      <c r="C7" t="s">
         <v>715</v>
-      </c>
-      <c r="B7" t="s">
-        <v>716</v>
-      </c>
-      <c r="C7" t="s">
-        <v>717</v>
       </c>
       <c r="D7">
         <v>1883</v>
@@ -13770,16 +13768,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B8" t="s">
+        <v>714</v>
+      </c>
+      <c r="C8" t="s">
         <v>715</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" s="24" t="s">
         <v>716</v>
-      </c>
-      <c r="C8" t="s">
-        <v>717</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>718</v>
       </c>
       <c r="F8" s="23">
         <v>1</v>
@@ -13787,13 +13785,13 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
+        <v>713</v>
+      </c>
+      <c r="B9" t="s">
+        <v>714</v>
+      </c>
+      <c r="C9" t="s">
         <v>715</v>
-      </c>
-      <c r="B9" t="s">
-        <v>716</v>
-      </c>
-      <c r="C9" t="s">
-        <v>717</v>
       </c>
       <c r="D9">
         <v>1889</v>
@@ -13804,13 +13802,13 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
+        <v>713</v>
+      </c>
+      <c r="B10" t="s">
+        <v>714</v>
+      </c>
+      <c r="C10" t="s">
         <v>715</v>
-      </c>
-      <c r="B10" t="s">
-        <v>716</v>
-      </c>
-      <c r="C10" t="s">
-        <v>717</v>
       </c>
       <c r="D10">
         <v>1879</v>
@@ -13821,13 +13819,13 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
+        <v>713</v>
+      </c>
+      <c r="B11" t="s">
+        <v>714</v>
+      </c>
+      <c r="C11" t="s">
         <v>715</v>
-      </c>
-      <c r="B11" t="s">
-        <v>716</v>
-      </c>
-      <c r="C11" t="s">
-        <v>717</v>
       </c>
       <c r="D11">
         <v>1891</v>
@@ -13838,13 +13836,13 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
+        <v>713</v>
+      </c>
+      <c r="B12" t="s">
+        <v>714</v>
+      </c>
+      <c r="C12" t="s">
         <v>715</v>
-      </c>
-      <c r="B12" t="s">
-        <v>716</v>
-      </c>
-      <c r="C12" t="s">
-        <v>717</v>
       </c>
       <c r="D12">
         <v>1891</v>
@@ -13855,16 +13853,16 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
+        <v>713</v>
+      </c>
+      <c r="B13" t="s">
+        <v>714</v>
+      </c>
+      <c r="C13" t="s">
         <v>715</v>
       </c>
-      <c r="B13" t="s">
-        <v>716</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="D13" s="24" t="s">
         <v>717</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>719</v>
       </c>
       <c r="F13" s="23">
         <v>1</v>
@@ -13872,13 +13870,13 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
+        <v>713</v>
+      </c>
+      <c r="B14" t="s">
+        <v>714</v>
+      </c>
+      <c r="C14" t="s">
         <v>715</v>
-      </c>
-      <c r="B14" t="s">
-        <v>716</v>
-      </c>
-      <c r="C14" t="s">
-        <v>717</v>
       </c>
       <c r="D14">
         <v>1894</v>
@@ -13889,19 +13887,19 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
+        <v>718</v>
+      </c>
+      <c r="B15" t="s">
+        <v>719</v>
+      </c>
+      <c r="C15" t="s">
         <v>720</v>
       </c>
-      <c r="B15" t="s">
+      <c r="D15" t="s">
         <v>721</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E15" t="s">
         <v>722</v>
-      </c>
-      <c r="D15" t="s">
-        <v>723</v>
-      </c>
-      <c r="E15" t="s">
-        <v>724</v>
       </c>
       <c r="F15" s="23">
         <v>17</v>
@@ -13909,19 +13907,19 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B16" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C16" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="D16" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="E16" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="F16" s="23">
         <v>4</v>
@@ -13929,19 +13927,19 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B17" t="s">
+        <v>725</v>
+      </c>
+      <c r="C17" t="s">
+        <v>726</v>
+      </c>
+      <c r="D17" t="s">
         <v>727</v>
       </c>
-      <c r="C17" t="s">
-        <v>728</v>
-      </c>
-      <c r="D17" t="s">
-        <v>729</v>
-      </c>
       <c r="E17" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="F17" s="23">
         <v>45</v>
@@ -13949,19 +13947,19 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B18" t="s">
+        <v>725</v>
+      </c>
+      <c r="C18" t="s">
+        <v>726</v>
+      </c>
+      <c r="D18" t="s">
         <v>727</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E18" t="s">
         <v>728</v>
-      </c>
-      <c r="D18" t="s">
-        <v>729</v>
-      </c>
-      <c r="E18" t="s">
-        <v>730</v>
       </c>
       <c r="F18" s="23">
         <v>12</v>
@@ -13969,19 +13967,19 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B19" t="s">
+        <v>725</v>
+      </c>
+      <c r="C19" t="s">
+        <v>726</v>
+      </c>
+      <c r="D19" t="s">
         <v>727</v>
       </c>
-      <c r="C19" t="s">
-        <v>728</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>729</v>
-      </c>
-      <c r="E19" t="s">
-        <v>731</v>
       </c>
       <c r="F19" s="23">
         <v>14</v>
@@ -13989,19 +13987,19 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B20" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C20" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="D20" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="E20" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="F20" s="23">
         <v>4</v>
@@ -14009,19 +14007,19 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B21" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C21" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="D21" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="E21" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="F21" s="23">
         <v>6</v>
@@ -14029,19 +14027,19 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
+        <v>731</v>
+      </c>
+      <c r="B22" t="s">
+        <v>732</v>
+      </c>
+      <c r="C22" t="s">
         <v>733</v>
       </c>
-      <c r="B22" t="s">
+      <c r="D22" t="s">
         <v>734</v>
       </c>
-      <c r="C22" t="s">
-        <v>735</v>
-      </c>
-      <c r="D22" t="s">
-        <v>736</v>
-      </c>
       <c r="E22" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="F22" s="23">
         <v>3</v>
@@ -14049,19 +14047,19 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B23" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C23" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D23" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E23" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="F23" s="23">
         <v>14</v>
@@ -14069,19 +14067,19 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B24" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C24" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D24" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E24" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="F24" s="23">
         <v>13</v>
@@ -14089,19 +14087,19 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
+        <v>737</v>
+      </c>
+      <c r="B25" t="s">
+        <v>732</v>
+      </c>
+      <c r="C25" t="s">
+        <v>733</v>
+      </c>
+      <c r="D25" t="s">
+        <v>738</v>
+      </c>
+      <c r="E25" t="s">
         <v>739</v>
-      </c>
-      <c r="B25" t="s">
-        <v>734</v>
-      </c>
-      <c r="C25" t="s">
-        <v>735</v>
-      </c>
-      <c r="D25" t="s">
-        <v>740</v>
-      </c>
-      <c r="E25" t="s">
-        <v>741</v>
       </c>
       <c r="F25" s="23">
         <v>2</v>
@@ -14109,19 +14107,19 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
+        <v>731</v>
+      </c>
+      <c r="B26" t="s">
+        <v>732</v>
+      </c>
+      <c r="C26" t="s">
         <v>733</v>
       </c>
-      <c r="B26" t="s">
-        <v>734</v>
-      </c>
-      <c r="C26" t="s">
-        <v>735</v>
-      </c>
       <c r="D26" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="E26" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="F26" s="23">
         <v>1</v>

--- a/data_printer.xlsx
+++ b/data_printer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GamErick\Desktop\Nova pasta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0386CAD-067F-4CC5-9779-5E35986DE89E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF96375-21FE-4D04-8939-F0E93114A05C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A8AA41B5-7AA1-4FF7-A9B8-54B8A4E1AF28}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2715" uniqueCount="760">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2716" uniqueCount="762">
   <si>
     <t>INDICE</t>
   </si>
@@ -1464,9 +1464,6 @@
     <t>G996X702014</t>
   </si>
   <si>
-    <t>ESTAVA NO PAM</t>
-  </si>
-  <si>
     <t>XAAB658183</t>
   </si>
   <si>
@@ -2317,6 +2314,15 @@
   </si>
   <si>
     <t>IMPRESSORA INSTALADA EM 25/11/2024 - SUBSTITUIU RICOH 601; RETIRADA SAUDE COLETIVA, FEITA UMA TROCA  POR UMA 3710 NO DIA 14/03/2025;</t>
+  </si>
+  <si>
+    <t>ESTAVA NO PAM;</t>
+  </si>
+  <si>
+    <t>19/03/2025 RETIRADA TONINHO SERRA  TROCA DE FUSAO E MANUTENÇÃO;</t>
+  </si>
+  <si>
+    <t>on_2</t>
   </si>
 </sst>
 </file>
@@ -3150,8 +3156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD39631B-97B8-405A-AA43-14CDFBC77F92}">
   <dimension ref="A1:J336"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A260" workbookViewId="0">
-      <selection activeCell="F354" sqref="F354"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -3378,7 +3384,7 @@
         <v>102</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>15</v>
@@ -3598,7 +3604,7 @@
         <v>102</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>15</v>
@@ -7725,7 +7731,7 @@
         <v>16</v>
       </c>
       <c r="J147" s="3" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="148" spans="1:10">
@@ -9086,7 +9092,7 @@
         <v>21</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="G194" s="5" t="s">
         <v>15</v>
@@ -9243,10 +9249,10 @@
         <v>436</v>
       </c>
       <c r="E199" s="4" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>437</v>
+        <v>32</v>
       </c>
       <c r="G199" s="2" t="s">
         <v>42</v>
@@ -9256,6 +9262,9 @@
       </c>
       <c r="I199" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="J199" s="3" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="200" spans="1:10">
@@ -9383,7 +9392,7 @@
         <v>16</v>
       </c>
       <c r="J203" s="3" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="204" spans="1:10">
@@ -9784,10 +9793,10 @@
         <v>474</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>29</v>
+        <v>437</v>
       </c>
       <c r="G216" s="5" t="s">
         <v>15</v>
@@ -9799,7 +9808,7 @@
         <v>16</v>
       </c>
       <c r="J216" s="3" t="s">
-        <v>475</v>
+        <v>759</v>
       </c>
     </row>
     <row r="217" spans="1:10">
@@ -9813,13 +9822,13 @@
         <v>112</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E217" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G217" s="5" t="s">
         <v>15</v>
@@ -9839,7 +9848,7 @@
         <v>11</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E218" s="1" t="s">
         <v>28</v>
@@ -9857,7 +9866,7 @@
         <v>16</v>
       </c>
       <c r="J218" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="219" spans="1:10">
@@ -9871,13 +9880,13 @@
         <v>11</v>
       </c>
       <c r="D219" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="E219" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="E219" s="1" t="s">
+      <c r="F219" s="1" t="s">
         <v>481</v>
-      </c>
-      <c r="F219" s="1" t="s">
-        <v>482</v>
       </c>
       <c r="G219" s="5" t="s">
         <v>15</v>
@@ -9897,7 +9906,7 @@
         <v>11</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E220" s="1" t="s">
         <v>28</v>
@@ -9915,7 +9924,7 @@
         <v>16</v>
       </c>
       <c r="J220" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="221" spans="1:10">
@@ -9929,7 +9938,7 @@
         <v>11</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E221" s="1" t="s">
         <v>28</v>
@@ -9958,7 +9967,7 @@
         <v>11</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E222" s="1" t="s">
         <v>28</v>
@@ -9976,7 +9985,7 @@
         <v>16</v>
       </c>
       <c r="J222" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="223" spans="1:10">
@@ -9990,7 +9999,7 @@
         <v>11</v>
       </c>
       <c r="D223" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E223" s="1" t="s">
         <v>28</v>
@@ -10020,13 +10029,13 @@
         <v>11</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E224" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G224" s="5" t="s">
         <v>15</v>
@@ -10038,7 +10047,7 @@
         <v>16</v>
       </c>
       <c r="J224" s="7" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="225" spans="1:10">
@@ -10052,7 +10061,7 @@
         <v>11</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E225" s="1" t="s">
         <v>28</v>
@@ -10084,7 +10093,7 @@
         <v>11</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E226" s="1" t="s">
         <v>28</v>
@@ -10102,7 +10111,7 @@
         <v>16</v>
       </c>
       <c r="J226" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="227" spans="1:10">
@@ -10116,7 +10125,7 @@
         <v>11</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E227" s="1" t="s">
         <v>28</v>
@@ -10134,7 +10143,7 @@
         <v>16</v>
       </c>
       <c r="J227" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="228" spans="1:10">
@@ -10148,7 +10157,7 @@
         <v>11</v>
       </c>
       <c r="D228" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E228" s="1" t="s">
         <v>28</v>
@@ -10166,7 +10175,7 @@
         <v>16</v>
       </c>
       <c r="J228" s="8" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="229" spans="1:10">
@@ -10174,13 +10183,13 @@
         <v>228</v>
       </c>
       <c r="B229" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D229" s="14" t="s">
         <v>499</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D229" s="14" t="s">
-        <v>500</v>
       </c>
       <c r="E229" s="14" t="s">
         <v>13</v>
@@ -10204,13 +10213,13 @@
         <v>229</v>
       </c>
       <c r="B230" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D230" s="1" t="s">
         <v>501</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D230" s="1" t="s">
-        <v>502</v>
       </c>
       <c r="E230" s="1" t="s">
         <v>28</v>
@@ -10228,7 +10237,7 @@
         <v>16</v>
       </c>
       <c r="J230" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="231" spans="1:10">
@@ -10236,13 +10245,13 @@
         <v>230</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E231" s="1" t="s">
         <v>28</v>
@@ -10260,7 +10269,7 @@
         <v>16</v>
       </c>
       <c r="J231" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="232" spans="1:10">
@@ -10268,13 +10277,13 @@
         <v>231</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E232" s="1" t="s">
         <v>28</v>
@@ -10292,7 +10301,7 @@
         <v>16</v>
       </c>
       <c r="J232" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="233" spans="1:10">
@@ -10312,7 +10321,7 @@
         <v>21</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G233" s="2" t="s">
         <v>21</v>
@@ -10324,7 +10333,7 @@
         <v>16</v>
       </c>
       <c r="J233" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="234" spans="1:10">
@@ -10332,13 +10341,13 @@
         <v>233</v>
       </c>
       <c r="B234" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D234" s="1" t="s">
         <v>510</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D234" s="1" t="s">
-        <v>511</v>
       </c>
       <c r="E234" s="1" t="s">
         <v>28</v>
@@ -10361,19 +10370,19 @@
         <v>234</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D235" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="F235" s="1" t="s">
         <v>513</v>
-      </c>
-      <c r="E235" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="F235" s="1" t="s">
-        <v>514</v>
       </c>
       <c r="G235" s="5" t="s">
         <v>15</v>
@@ -10387,13 +10396,13 @@
         <v>235</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E236" s="1" t="s">
         <v>199</v>
@@ -10411,7 +10420,7 @@
         <v>16</v>
       </c>
       <c r="J236" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="237" spans="1:10">
@@ -10419,13 +10428,13 @@
         <v>236</v>
       </c>
       <c r="B237" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D237" s="1" t="s">
         <v>518</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D237" s="1" t="s">
-        <v>519</v>
       </c>
       <c r="E237" s="1" t="s">
         <v>28</v>
@@ -10443,7 +10452,7 @@
         <v>16</v>
       </c>
       <c r="J237" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="238" spans="1:10">
@@ -10457,13 +10466,13 @@
         <v>11</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E238" s="1" t="s">
         <v>203</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G238" s="2" t="s">
         <v>42</v>
@@ -10472,7 +10481,7 @@
         <v>16</v>
       </c>
       <c r="J238" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="239" spans="1:10">
@@ -10486,13 +10495,13 @@
         <v>11</v>
       </c>
       <c r="D239" s="21" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E239" s="1" t="s">
         <v>203</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G239" s="2" t="s">
         <v>42</v>
@@ -10504,7 +10513,7 @@
         <v>16</v>
       </c>
       <c r="J239" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="240" spans="1:10">
@@ -10518,13 +10527,13 @@
         <v>11</v>
       </c>
       <c r="D240" s="21" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E240" s="1" t="s">
         <v>203</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G240" s="2" t="s">
         <v>42</v>
@@ -10547,13 +10556,13 @@
         <v>11</v>
       </c>
       <c r="D241" s="21" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E241" s="1" t="s">
         <v>203</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G241" s="2" t="s">
         <v>42</v>
@@ -10562,7 +10571,7 @@
         <v>16</v>
       </c>
       <c r="J241" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="242" spans="1:10">
@@ -10576,13 +10585,13 @@
         <v>112</v>
       </c>
       <c r="D242" s="21" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E242" s="1" t="s">
         <v>203</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G242" s="5" t="s">
         <v>42</v>
@@ -10602,13 +10611,13 @@
         <v>112</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E243" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G243" s="5" t="s">
         <v>15</v>
@@ -10620,7 +10629,7 @@
         <v>16</v>
       </c>
       <c r="J243" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="244" spans="1:10">
@@ -10634,13 +10643,13 @@
         <v>112</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E244" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G244" s="5" t="s">
         <v>15</v>
@@ -10652,7 +10661,7 @@
         <v>16</v>
       </c>
       <c r="J244" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="245" spans="1:10">
@@ -10666,7 +10675,7 @@
         <v>11</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E245" s="1" t="s">
         <v>28</v>
@@ -10684,7 +10693,7 @@
         <v>16</v>
       </c>
       <c r="J245" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="246" spans="1:10">
@@ -10692,13 +10701,13 @@
         <v>245</v>
       </c>
       <c r="B246" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D246" s="1" t="s">
         <v>541</v>
-      </c>
-      <c r="C246" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D246" s="1" t="s">
-        <v>542</v>
       </c>
       <c r="E246" s="1" t="s">
         <v>28</v>
@@ -10716,7 +10725,7 @@
         <v>16</v>
       </c>
       <c r="J246" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="247" spans="1:10">
@@ -10724,13 +10733,13 @@
         <v>246</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E247" s="1" t="s">
         <v>40</v>
@@ -10748,7 +10757,7 @@
         <v>217</v>
       </c>
       <c r="J247" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="248" spans="1:10">
@@ -10756,13 +10765,13 @@
         <v>247</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D248" s="18" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E248" s="1" t="s">
         <v>40</v>
@@ -10780,7 +10789,7 @@
         <v>217</v>
       </c>
       <c r="J248" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="249" spans="1:10">
@@ -10788,13 +10797,13 @@
         <v>248</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E249" s="1" t="s">
         <v>199</v>
@@ -10812,7 +10821,7 @@
         <v>16</v>
       </c>
       <c r="J249" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="250" spans="1:10">
@@ -10820,13 +10829,13 @@
         <v>249</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D250" s="18" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E250" s="1" t="s">
         <v>40</v>
@@ -10844,7 +10853,7 @@
         <v>217</v>
       </c>
       <c r="J250" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="251" spans="1:10">
@@ -10858,7 +10867,7 @@
         <v>11</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E251" s="1" t="s">
         <v>28</v>
@@ -10876,7 +10885,7 @@
         <v>16</v>
       </c>
       <c r="J251" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="252" spans="1:10">
@@ -10890,7 +10899,7 @@
         <v>11</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E252" s="1" t="s">
         <v>21</v>
@@ -10908,7 +10917,7 @@
         <v>16</v>
       </c>
       <c r="J252" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="253" spans="1:10">
@@ -10916,13 +10925,13 @@
         <v>252</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E253" s="1" t="s">
         <v>28</v>
@@ -10940,7 +10949,7 @@
         <v>16</v>
       </c>
       <c r="J253" s="3" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="254" spans="1:10">
@@ -10948,19 +10957,19 @@
         <v>253</v>
       </c>
       <c r="B254" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D254" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="C254" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D254" s="1" t="s">
+      <c r="E254" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F254" s="1" t="s">
         <v>558</v>
-      </c>
-      <c r="E254" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F254" s="1" t="s">
-        <v>559</v>
       </c>
       <c r="G254" s="5" t="s">
         <v>15</v>
@@ -10972,7 +10981,7 @@
         <v>16</v>
       </c>
       <c r="J254" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="255" spans="1:10">
@@ -10986,7 +10995,7 @@
         <v>112</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E255" s="1" t="s">
         <v>13</v>
@@ -11004,7 +11013,7 @@
         <v>16</v>
       </c>
       <c r="J255" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="256" spans="1:10">
@@ -11018,22 +11027,22 @@
         <v>112</v>
       </c>
       <c r="D256" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F256" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="E256" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F256" s="1" t="s">
+      <c r="G256" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I256" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J256" s="3" t="s">
         <v>564</v>
-      </c>
-      <c r="G256" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I256" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J256" s="3" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="257" spans="1:10">
@@ -11047,7 +11056,7 @@
         <v>11</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E257" s="1" t="s">
         <v>28</v>
@@ -11065,7 +11074,7 @@
         <v>16</v>
       </c>
       <c r="J257" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="258" spans="1:10">
@@ -11079,7 +11088,7 @@
         <v>11</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E258" s="1" t="s">
         <v>28</v>
@@ -11097,7 +11106,7 @@
         <v>16</v>
       </c>
       <c r="J258" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="259" spans="1:10">
@@ -11105,19 +11114,19 @@
         <v>258</v>
       </c>
       <c r="B259" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D259" s="1" t="s">
         <v>570</v>
-      </c>
-      <c r="C259" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D259" s="1" t="s">
-        <v>571</v>
       </c>
       <c r="E259" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G259" s="2" t="s">
         <v>15</v>
@@ -11129,7 +11138,7 @@
         <v>16</v>
       </c>
       <c r="J259" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="260" spans="1:10">
@@ -11137,19 +11146,19 @@
         <v>259</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E260" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F260" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G260" s="2" t="s">
         <v>15</v>
@@ -11161,7 +11170,7 @@
         <v>16</v>
       </c>
       <c r="J260" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="261" spans="1:10">
@@ -11169,13 +11178,13 @@
         <v>260</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E261" s="1" t="s">
         <v>92</v>
@@ -11193,7 +11202,7 @@
         <v>16</v>
       </c>
       <c r="J261" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="262" spans="1:10">
@@ -11201,19 +11210,19 @@
         <v>261</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E262" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G262" s="2" t="s">
         <v>15</v>
@@ -11225,7 +11234,7 @@
         <v>16</v>
       </c>
       <c r="J262" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="263" spans="1:10">
@@ -11233,19 +11242,19 @@
         <v>262</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E263" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G263" s="2" t="s">
         <v>15</v>
@@ -11257,7 +11266,7 @@
         <v>16</v>
       </c>
       <c r="J263" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="264" spans="1:10">
@@ -11265,19 +11274,19 @@
         <v>263</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E264" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G264" s="2" t="s">
         <v>15</v>
@@ -11289,7 +11298,7 @@
         <v>16</v>
       </c>
       <c r="J264" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="265" spans="1:10">
@@ -11297,19 +11306,19 @@
         <v>264</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E265" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F265" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G265" s="2" t="s">
         <v>15</v>
@@ -11321,7 +11330,7 @@
         <v>16</v>
       </c>
       <c r="J265" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="266" spans="1:10">
@@ -11329,19 +11338,19 @@
         <v>265</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E266" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F266" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G266" s="2" t="s">
         <v>15</v>
@@ -11353,7 +11362,7 @@
         <v>16</v>
       </c>
       <c r="J266" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="267" spans="1:10">
@@ -11361,19 +11370,19 @@
         <v>266</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E267" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F267" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G267" s="2" t="s">
         <v>15</v>
@@ -11385,7 +11394,7 @@
         <v>16</v>
       </c>
       <c r="J267" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="268" spans="1:10">
@@ -11393,19 +11402,19 @@
         <v>267</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E268" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G268" s="2" t="s">
         <v>15</v>
@@ -11417,7 +11426,7 @@
         <v>16</v>
       </c>
       <c r="J268" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="269" spans="1:10">
@@ -11425,19 +11434,19 @@
         <v>268</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E269" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="G269" s="2" t="s">
         <v>15</v>
@@ -11449,7 +11458,7 @@
         <v>16</v>
       </c>
       <c r="J269" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="270" spans="1:10">
@@ -11457,19 +11466,19 @@
         <v>269</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E270" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F270" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G270" s="2" t="s">
         <v>15</v>
@@ -11481,7 +11490,7 @@
         <v>16</v>
       </c>
       <c r="J270" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="271" spans="1:10">
@@ -11489,19 +11498,19 @@
         <v>270</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E271" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F271" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G271" s="2" t="s">
         <v>15</v>
@@ -11513,7 +11522,7 @@
         <v>16</v>
       </c>
       <c r="J271" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="272" spans="1:10">
@@ -11521,19 +11530,19 @@
         <v>271</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E272" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F272" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G272" s="2" t="s">
         <v>15</v>
@@ -11545,7 +11554,7 @@
         <v>16</v>
       </c>
       <c r="J272" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="273" spans="1:10">
@@ -11553,19 +11562,19 @@
         <v>272</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E273" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F273" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="G273" s="2" t="s">
         <v>15</v>
@@ -11577,7 +11586,7 @@
         <v>16</v>
       </c>
       <c r="J273" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="274" spans="1:10">
@@ -11585,19 +11594,19 @@
         <v>273</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E274" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="G274" s="2" t="s">
         <v>15</v>
@@ -11609,7 +11618,7 @@
         <v>16</v>
       </c>
       <c r="J274" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="275" spans="1:10">
@@ -11617,19 +11626,19 @@
         <v>274</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E275" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F275" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="G275" s="2" t="s">
         <v>15</v>
@@ -11641,7 +11650,7 @@
         <v>16</v>
       </c>
       <c r="J275" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="276" spans="1:10">
@@ -11649,19 +11658,19 @@
         <v>275</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D276" s="22" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E276" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F276" s="4" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G276" s="2" t="s">
         <v>15</v>
@@ -11673,7 +11682,7 @@
         <v>16</v>
       </c>
       <c r="J276" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="277" spans="1:10">
@@ -11681,19 +11690,19 @@
         <v>276</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E277" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F277" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="G277" s="2" t="s">
         <v>15</v>
@@ -11705,7 +11714,7 @@
         <v>16</v>
       </c>
       <c r="J277" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="278" spans="1:10">
@@ -11713,19 +11722,19 @@
         <v>277</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E278" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F278" s="4" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="G278" s="2" t="s">
         <v>15</v>
@@ -11737,7 +11746,7 @@
         <v>16</v>
       </c>
       <c r="J278" s="3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="279" spans="1:10">
@@ -11745,19 +11754,19 @@
         <v>278</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E279" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F279" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G279" s="2" t="s">
         <v>15</v>
@@ -11769,7 +11778,7 @@
         <v>16</v>
       </c>
       <c r="J279" s="3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="280" spans="1:10">
@@ -11777,19 +11786,19 @@
         <v>279</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D280" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="E280" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="F280" s="1" t="s">
         <v>622</v>
-      </c>
-      <c r="E280" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="F280" s="1" t="s">
-        <v>623</v>
       </c>
       <c r="G280" s="2" t="s">
         <v>15</v>
@@ -11798,10 +11807,10 @@
         <v>45607</v>
       </c>
       <c r="I280" s="9" t="s">
-        <v>16</v>
+        <v>761</v>
       </c>
       <c r="J280" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="281" spans="1:10">
@@ -11809,19 +11818,19 @@
         <v>280</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D281" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="E281" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="F281" s="1" t="s">
         <v>625</v>
-      </c>
-      <c r="E281" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="F281" s="1" t="s">
-        <v>626</v>
       </c>
       <c r="G281" s="2" t="s">
         <v>15</v>
@@ -11830,10 +11839,10 @@
         <v>45607</v>
       </c>
       <c r="I281" s="9" t="s">
-        <v>16</v>
+        <v>761</v>
       </c>
       <c r="J281" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="282" spans="1:10">
@@ -11841,19 +11850,19 @@
         <v>281</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D282" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="E282" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="F282" s="1" t="s">
         <v>627</v>
-      </c>
-      <c r="E282" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="F282" s="1" t="s">
-        <v>628</v>
       </c>
       <c r="G282" s="2" t="s">
         <v>15</v>
@@ -11862,10 +11871,10 @@
         <v>45607</v>
       </c>
       <c r="I282" s="9" t="s">
-        <v>16</v>
+        <v>761</v>
       </c>
       <c r="J282" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="283" spans="1:10">
@@ -11873,19 +11882,19 @@
         <v>282</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D283" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="E283" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="F283" s="1" t="s">
         <v>629</v>
-      </c>
-      <c r="E283" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="F283" s="1" t="s">
-        <v>630</v>
       </c>
       <c r="G283" s="2" t="s">
         <v>15</v>
@@ -11894,10 +11903,10 @@
         <v>45614</v>
       </c>
       <c r="I283" s="9" t="s">
-        <v>16</v>
+        <v>761</v>
       </c>
       <c r="J283" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="284" spans="1:10">
@@ -11905,19 +11914,19 @@
         <v>283</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D284" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="E284" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="F284" s="1" t="s">
         <v>632</v>
-      </c>
-      <c r="E284" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="F284" s="1" t="s">
-        <v>633</v>
       </c>
       <c r="G284" s="2" t="s">
         <v>15</v>
@@ -11926,10 +11935,10 @@
         <v>45614</v>
       </c>
       <c r="I284" s="9" t="s">
-        <v>16</v>
+        <v>761</v>
       </c>
       <c r="J284" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="285" spans="1:10">
@@ -11937,19 +11946,19 @@
         <v>284</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D285" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="E285" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="F285" s="1" t="s">
         <v>634</v>
-      </c>
-      <c r="E285" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="F285" s="1" t="s">
-        <v>635</v>
       </c>
       <c r="G285" s="2" t="s">
         <v>15</v>
@@ -11958,10 +11967,10 @@
         <v>45615</v>
       </c>
       <c r="I285" s="9" t="s">
-        <v>16</v>
+        <v>761</v>
       </c>
       <c r="J285" s="3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="286" spans="1:10">
@@ -11969,19 +11978,19 @@
         <v>285</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D286" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="E286" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="F286" s="1" t="s">
         <v>637</v>
-      </c>
-      <c r="E286" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="F286" s="1" t="s">
-        <v>638</v>
       </c>
       <c r="G286" s="2" t="s">
         <v>15</v>
@@ -11990,10 +11999,10 @@
         <v>45615</v>
       </c>
       <c r="I286" s="9" t="s">
-        <v>16</v>
+        <v>761</v>
       </c>
       <c r="J286" s="3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="287" spans="1:10">
@@ -12001,19 +12010,19 @@
         <v>286</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D287" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="E287" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="F287" s="1" t="s">
         <v>639</v>
-      </c>
-      <c r="E287" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="F287" s="1" t="s">
-        <v>640</v>
       </c>
       <c r="G287" s="2" t="s">
         <v>15</v>
@@ -12022,10 +12031,10 @@
         <v>45615</v>
       </c>
       <c r="I287" s="9" t="s">
-        <v>16</v>
+        <v>761</v>
       </c>
       <c r="J287" s="3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="288" spans="1:10">
@@ -12033,19 +12042,19 @@
         <v>287</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D288" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="E288" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="F288" s="1" t="s">
         <v>641</v>
-      </c>
-      <c r="E288" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="F288" s="1" t="s">
-        <v>642</v>
       </c>
       <c r="G288" s="2" t="s">
         <v>15</v>
@@ -12054,10 +12063,10 @@
         <v>45617</v>
       </c>
       <c r="I288" s="9" t="s">
-        <v>16</v>
+        <v>761</v>
       </c>
       <c r="J288" s="3" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="289" spans="1:10">
@@ -12065,19 +12074,19 @@
         <v>288</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D289" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="E289" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="F289" s="1" t="s">
         <v>644</v>
-      </c>
-      <c r="E289" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="F289" s="1" t="s">
-        <v>645</v>
       </c>
       <c r="G289" s="2" t="s">
         <v>15</v>
@@ -12086,10 +12095,10 @@
         <v>45617</v>
       </c>
       <c r="I289" s="9" t="s">
-        <v>16</v>
+        <v>761</v>
       </c>
       <c r="J289" s="3" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="290" spans="1:10">
@@ -12097,19 +12106,19 @@
         <v>289</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D290" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="E290" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="F290" s="1" t="s">
         <v>647</v>
-      </c>
-      <c r="E290" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="F290" s="1" t="s">
-        <v>648</v>
       </c>
       <c r="G290" s="2" t="s">
         <v>15</v>
@@ -12118,10 +12127,10 @@
         <v>45618</v>
       </c>
       <c r="I290" s="9" t="s">
-        <v>16</v>
+        <v>761</v>
       </c>
       <c r="J290" s="3" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="291" spans="1:10">
@@ -12129,19 +12138,19 @@
         <v>290</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D291" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="E291" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="F291" s="1" t="s">
         <v>650</v>
-      </c>
-      <c r="E291" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="F291" s="1" t="s">
-        <v>651</v>
       </c>
       <c r="G291" s="2" t="s">
         <v>15</v>
@@ -12150,10 +12159,10 @@
         <v>45621</v>
       </c>
       <c r="I291" s="9" t="s">
-        <v>16</v>
+        <v>761</v>
       </c>
       <c r="J291" s="3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="292" spans="1:10">
@@ -12161,19 +12170,19 @@
         <v>291</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D292" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="E292" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="F292" s="1" t="s">
         <v>653</v>
-      </c>
-      <c r="E292" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="F292" s="1" t="s">
-        <v>654</v>
       </c>
       <c r="G292" s="2" t="s">
         <v>15</v>
@@ -12182,10 +12191,10 @@
         <v>45621</v>
       </c>
       <c r="I292" s="9" t="s">
-        <v>16</v>
+        <v>761</v>
       </c>
       <c r="J292" s="3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="293" spans="1:10">
@@ -12193,19 +12202,19 @@
         <v>292</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E293" s="1" t="s">
         <v>102</v>
       </c>
       <c r="F293" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="G293" s="2" t="s">
         <v>15</v>
@@ -12217,7 +12226,7 @@
         <v>104</v>
       </c>
       <c r="J293" s="3" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="294" spans="1:10">
@@ -12225,13 +12234,13 @@
         <v>293</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E294" s="1" t="s">
         <v>28</v>
@@ -12249,7 +12258,7 @@
         <v>16</v>
       </c>
       <c r="J294" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="295" spans="1:10">
@@ -12257,19 +12266,19 @@
         <v>294</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E295" s="1" t="s">
         <v>102</v>
       </c>
       <c r="F295" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="G295" s="2" t="s">
         <v>15</v>
@@ -12281,7 +12290,7 @@
         <v>104</v>
       </c>
       <c r="J295" s="3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="296" spans="1:10">
@@ -12289,13 +12298,13 @@
         <v>295</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E296" s="1" t="s">
         <v>28</v>
@@ -12313,7 +12322,7 @@
         <v>104</v>
       </c>
       <c r="J296" s="3" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="297" spans="1:10">
@@ -12321,19 +12330,19 @@
         <v>296</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E297" s="1" t="s">
         <v>102</v>
       </c>
       <c r="F297" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="G297" s="2" t="s">
         <v>15</v>
@@ -12345,7 +12354,7 @@
         <v>104</v>
       </c>
       <c r="J297" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="298" spans="1:10">
@@ -12353,19 +12362,19 @@
         <v>297</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E298" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F298" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G298" s="2" t="s">
         <v>15</v>
@@ -12377,7 +12386,7 @@
         <v>16</v>
       </c>
       <c r="J298" s="3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="299" spans="1:10">
@@ -12385,19 +12394,19 @@
         <v>298</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E299" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F299" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G299" s="2" t="s">
         <v>15</v>
@@ -12409,7 +12418,7 @@
         <v>16</v>
       </c>
       <c r="J299" s="3" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="300" spans="1:10">
@@ -12417,19 +12426,19 @@
         <v>299</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E300" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F300" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="G300" s="2" t="s">
         <v>15</v>
@@ -12441,7 +12450,7 @@
         <v>16</v>
       </c>
       <c r="J300" s="3" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="301" spans="1:10">
@@ -12449,19 +12458,19 @@
         <v>300</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E301" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F301" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G301" s="2" t="s">
         <v>15</v>
@@ -12473,7 +12482,7 @@
         <v>16</v>
       </c>
       <c r="J301" s="3" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="302" spans="1:10">
@@ -12481,19 +12490,19 @@
         <v>301</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E302" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F302" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="G302" s="2" t="s">
         <v>15</v>
@@ -12505,7 +12514,7 @@
         <v>16</v>
       </c>
       <c r="J302" s="3" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="303" spans="1:10">
@@ -12513,19 +12522,19 @@
         <v>302</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E303" s="1" t="s">
         <v>102</v>
       </c>
       <c r="F303" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="G303" s="2" t="s">
         <v>15</v>
@@ -12537,7 +12546,7 @@
         <v>104</v>
       </c>
       <c r="J303" s="3" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="304" spans="1:10">
@@ -12545,19 +12554,19 @@
         <v>303</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E304" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F304" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="G304" s="2" t="s">
         <v>15</v>
@@ -12569,7 +12578,7 @@
         <v>16</v>
       </c>
       <c r="J304" s="3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="305" spans="1:10">
@@ -12577,19 +12586,19 @@
         <v>304</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E305" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F305" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="G305" s="2" t="s">
         <v>15</v>
@@ -12601,7 +12610,7 @@
         <v>16</v>
       </c>
       <c r="J305" s="3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="306" spans="1:10">
@@ -12609,19 +12618,19 @@
         <v>305</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E306" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F306" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G306" s="2" t="s">
         <v>15</v>
@@ -12633,7 +12642,7 @@
         <v>16</v>
       </c>
       <c r="J306" s="3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="307" spans="1:10">
@@ -12641,19 +12650,19 @@
         <v>306</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E307" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F307" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="G307" s="2" t="s">
         <v>15</v>
@@ -12665,7 +12674,7 @@
         <v>16</v>
       </c>
       <c r="J307" s="3" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="308" spans="1:10">
@@ -12673,13 +12682,13 @@
         <v>307</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E308" s="1" t="s">
         <v>28</v>
@@ -12697,7 +12706,7 @@
         <v>16</v>
       </c>
       <c r="J308" s="3" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="309" spans="1:10">
@@ -12705,19 +12714,19 @@
         <v>308</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E309" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F309" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G309" s="2" t="s">
         <v>15</v>
@@ -12726,10 +12735,10 @@
         <v>45702</v>
       </c>
       <c r="I309" s="9" t="s">
+        <v>694</v>
+      </c>
+      <c r="J309" s="3" t="s">
         <v>695</v>
-      </c>
-      <c r="J309" s="3" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="310" spans="1:10">
@@ -12737,19 +12746,19 @@
         <v>309</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E310" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F310" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G310" s="2" t="s">
         <v>15</v>
@@ -12758,10 +12767,10 @@
         <v>45702</v>
       </c>
       <c r="I310" s="9" t="s">
+        <v>694</v>
+      </c>
+      <c r="J310" s="3" t="s">
         <v>695</v>
-      </c>
-      <c r="J310" s="3" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="311" spans="1:10">
@@ -12769,19 +12778,19 @@
         <v>310</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E311" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F311" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G311" s="2" t="s">
         <v>15</v>
@@ -12790,10 +12799,10 @@
         <v>45702</v>
       </c>
       <c r="I311" s="9" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="J311" s="3" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="312" spans="1:10">
@@ -12801,19 +12810,19 @@
         <v>311</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E312" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F312" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="G312" s="2" t="s">
         <v>15</v>
@@ -12825,7 +12834,7 @@
         <v>16</v>
       </c>
       <c r="J312" s="3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="313" spans="1:10">
@@ -12833,19 +12842,19 @@
         <v>312</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E313" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F313" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="G313" s="2" t="s">
         <v>15</v>
@@ -12854,10 +12863,10 @@
         <v>45726</v>
       </c>
       <c r="I313" s="9" t="s">
+        <v>743</v>
+      </c>
+      <c r="J313" s="3" t="s">
         <v>744</v>
-      </c>
-      <c r="J313" s="3" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="314" spans="1:10">
@@ -12865,19 +12874,19 @@
         <v>313</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E314" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F314" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="G314" s="2" t="s">
         <v>15</v>
@@ -12886,10 +12895,10 @@
         <v>45726</v>
       </c>
       <c r="I314" s="9" t="s">
+        <v>743</v>
+      </c>
+      <c r="J314" s="3" t="s">
         <v>744</v>
-      </c>
-      <c r="J314" s="3" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="315" spans="1:10">
@@ -12897,19 +12906,19 @@
         <v>314</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E315" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F315" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="G315" s="2" t="s">
         <v>15</v>
@@ -12918,10 +12927,10 @@
         <v>45726</v>
       </c>
       <c r="I315" s="9" t="s">
+        <v>743</v>
+      </c>
+      <c r="J315" s="3" t="s">
         <v>744</v>
-      </c>
-      <c r="J315" s="3" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="316" spans="1:10">
@@ -12929,13 +12938,13 @@
         <v>315</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E316" s="1" t="s">
         <v>92</v>
@@ -12953,7 +12962,7 @@
         <v>16</v>
       </c>
       <c r="J316" s="3" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="317" spans="1:10">
@@ -12961,19 +12970,19 @@
         <v>316</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D317" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="E317" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F317" s="1" t="s">
         <v>705</v>
-      </c>
-      <c r="E317" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F317" s="1" t="s">
-        <v>706</v>
       </c>
       <c r="G317" s="2" t="s">
         <v>15</v>
@@ -12985,7 +12994,7 @@
         <v>16</v>
       </c>
       <c r="J317" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="318" spans="1:10">
@@ -12993,19 +13002,19 @@
         <v>317</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D318" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="E318" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F318" s="1" t="s">
         <v>705</v>
-      </c>
-      <c r="E318" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F318" s="1" t="s">
-        <v>706</v>
       </c>
       <c r="G318" s="2" t="s">
         <v>15</v>
@@ -13017,7 +13026,7 @@
         <v>16</v>
       </c>
       <c r="J318" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="319" spans="1:10">
@@ -13025,19 +13034,19 @@
         <v>318</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D319" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="E319" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F319" s="1" t="s">
         <v>705</v>
-      </c>
-      <c r="E319" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F319" s="1" t="s">
-        <v>706</v>
       </c>
       <c r="G319" s="2" t="s">
         <v>15</v>
@@ -13049,7 +13058,7 @@
         <v>16</v>
       </c>
       <c r="J319" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="320" spans="1:10">
@@ -13057,19 +13066,19 @@
         <v>319</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D320" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="E320" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F320" s="1" t="s">
         <v>705</v>
-      </c>
-      <c r="E320" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F320" s="1" t="s">
-        <v>706</v>
       </c>
       <c r="G320" s="2" t="s">
         <v>15</v>
@@ -13081,7 +13090,7 @@
         <v>16</v>
       </c>
       <c r="J320" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="321" spans="1:10">
@@ -13089,19 +13098,19 @@
         <v>320</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D321" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="E321" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F321" s="1" t="s">
         <v>705</v>
-      </c>
-      <c r="E321" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F321" s="1" t="s">
-        <v>706</v>
       </c>
       <c r="G321" s="2" t="s">
         <v>15</v>
@@ -13113,7 +13122,7 @@
         <v>16</v>
       </c>
       <c r="J321" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="322" spans="1:10">
@@ -13121,19 +13130,19 @@
         <v>321</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D322" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="E322" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F322" s="1" t="s">
         <v>705</v>
-      </c>
-      <c r="E322" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F322" s="1" t="s">
-        <v>706</v>
       </c>
       <c r="G322" s="2" t="s">
         <v>15</v>
@@ -13145,7 +13154,7 @@
         <v>16</v>
       </c>
       <c r="J322" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="323" spans="1:10">
@@ -13153,19 +13162,19 @@
         <v>322</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D323" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="E323" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F323" s="1" t="s">
         <v>705</v>
-      </c>
-      <c r="E323" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F323" s="1" t="s">
-        <v>706</v>
       </c>
       <c r="G323" s="2" t="s">
         <v>15</v>
@@ -13177,7 +13186,7 @@
         <v>16</v>
       </c>
       <c r="J323" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="324" spans="1:10">
@@ -13185,19 +13194,19 @@
         <v>323</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D324" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="E324" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F324" s="1" t="s">
         <v>705</v>
-      </c>
-      <c r="E324" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F324" s="1" t="s">
-        <v>706</v>
       </c>
       <c r="G324" s="2" t="s">
         <v>15</v>
@@ -13209,7 +13218,7 @@
         <v>16</v>
       </c>
       <c r="J324" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="325" spans="1:10">
@@ -13217,19 +13226,19 @@
         <v>324</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D325" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="E325" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F325" s="1" t="s">
         <v>705</v>
-      </c>
-      <c r="E325" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F325" s="1" t="s">
-        <v>706</v>
       </c>
       <c r="G325" s="2" t="s">
         <v>15</v>
@@ -13241,7 +13250,7 @@
         <v>16</v>
       </c>
       <c r="J325" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="326" spans="1:10">
@@ -13249,19 +13258,19 @@
         <v>325</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D326" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="E326" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F326" s="1" t="s">
         <v>705</v>
-      </c>
-      <c r="E326" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F326" s="1" t="s">
-        <v>706</v>
       </c>
       <c r="G326" s="2" t="s">
         <v>15</v>
@@ -13273,7 +13282,7 @@
         <v>16</v>
       </c>
       <c r="J326" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="327" spans="1:10">
@@ -13281,19 +13290,19 @@
         <v>326</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D327" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="E327" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F327" s="1" t="s">
         <v>705</v>
-      </c>
-      <c r="E327" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F327" s="1" t="s">
-        <v>706</v>
       </c>
       <c r="G327" s="2" t="s">
         <v>15</v>
@@ -13305,7 +13314,7 @@
         <v>16</v>
       </c>
       <c r="J327" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="328" spans="1:10">
@@ -13313,19 +13322,19 @@
         <v>327</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D328" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="E328" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F328" s="1" t="s">
         <v>705</v>
-      </c>
-      <c r="E328" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F328" s="1" t="s">
-        <v>706</v>
       </c>
       <c r="G328" s="2" t="s">
         <v>15</v>
@@ -13337,7 +13346,7 @@
         <v>16</v>
       </c>
       <c r="J328" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="329" spans="1:10">
@@ -13345,19 +13354,19 @@
         <v>328</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D329" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="E329" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F329" s="1" t="s">
         <v>705</v>
-      </c>
-      <c r="E329" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F329" s="1" t="s">
-        <v>706</v>
       </c>
       <c r="G329" s="2" t="s">
         <v>15</v>
@@ -13369,7 +13378,7 @@
         <v>16</v>
       </c>
       <c r="J329" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="330" spans="1:10">
@@ -13377,19 +13386,19 @@
         <v>329</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D330" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="E330" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F330" s="1" t="s">
         <v>705</v>
-      </c>
-      <c r="E330" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F330" s="1" t="s">
-        <v>706</v>
       </c>
       <c r="G330" s="2" t="s">
         <v>15</v>
@@ -13401,7 +13410,7 @@
         <v>16</v>
       </c>
       <c r="J330" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="331" spans="1:10">
@@ -13409,19 +13418,19 @@
         <v>330</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D331" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="E331" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F331" s="1" t="s">
         <v>705</v>
-      </c>
-      <c r="E331" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F331" s="1" t="s">
-        <v>706</v>
       </c>
       <c r="G331" s="2" t="s">
         <v>15</v>
@@ -13433,7 +13442,7 @@
         <v>16</v>
       </c>
       <c r="J331" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="332" spans="1:10">
@@ -13441,19 +13450,19 @@
         <v>331</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D332" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="E332" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F332" s="1" t="s">
         <v>705</v>
-      </c>
-      <c r="E332" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F332" s="1" t="s">
-        <v>706</v>
       </c>
       <c r="G332" s="2" t="s">
         <v>15</v>
@@ -13465,7 +13474,7 @@
         <v>16</v>
       </c>
       <c r="J332" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="333" spans="1:10">
@@ -13473,19 +13482,19 @@
         <v>332</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D333" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="E333" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F333" s="1" t="s">
         <v>705</v>
-      </c>
-      <c r="E333" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F333" s="1" t="s">
-        <v>706</v>
       </c>
       <c r="G333" s="2" t="s">
         <v>15</v>
@@ -13497,7 +13506,7 @@
         <v>16</v>
       </c>
       <c r="J333" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="334" spans="1:10">
@@ -13505,19 +13514,19 @@
         <v>333</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D334" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="E334" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F334" s="1" t="s">
         <v>705</v>
-      </c>
-      <c r="E334" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F334" s="1" t="s">
-        <v>706</v>
       </c>
       <c r="G334" s="2" t="s">
         <v>15</v>
@@ -13529,7 +13538,7 @@
         <v>16</v>
       </c>
       <c r="J334" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="335" spans="1:10">
@@ -13537,19 +13546,19 @@
         <v>334</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D335" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="E335" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F335" s="1" t="s">
         <v>705</v>
-      </c>
-      <c r="E335" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F335" s="1" t="s">
-        <v>706</v>
       </c>
       <c r="G335" s="2" t="s">
         <v>15</v>
@@ -13561,7 +13570,7 @@
         <v>16</v>
       </c>
       <c r="J335" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="336" spans="1:10">
@@ -13569,19 +13578,19 @@
         <v>335</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D336" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="E336" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F336" s="1" t="s">
         <v>705</v>
-      </c>
-      <c r="E336" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F336" s="1" t="s">
-        <v>706</v>
       </c>
       <c r="G336" s="2" t="s">
         <v>15</v>
@@ -13593,7 +13602,7 @@
         <v>16</v>
       </c>
       <c r="J336" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
   </sheetData>
@@ -13646,33 +13655,33 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>707</v>
+      </c>
+      <c r="B1" t="s">
         <v>708</v>
-      </c>
-      <c r="B1" t="s">
-        <v>709</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>709</v>
+      </c>
+      <c r="E1" t="s">
         <v>710</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>711</v>
-      </c>
-      <c r="F1" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
+        <v>712</v>
+      </c>
+      <c r="B2" t="s">
         <v>713</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>714</v>
-      </c>
-      <c r="C2" t="s">
-        <v>715</v>
       </c>
       <c r="D2">
         <v>1885</v>
@@ -13683,13 +13692,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>712</v>
+      </c>
+      <c r="B3" t="s">
         <v>713</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>714</v>
-      </c>
-      <c r="C3" t="s">
-        <v>715</v>
       </c>
       <c r="D3">
         <v>1880</v>
@@ -13700,13 +13709,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>712</v>
+      </c>
+      <c r="B4" t="s">
         <v>713</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>714</v>
-      </c>
-      <c r="C4" t="s">
-        <v>715</v>
       </c>
       <c r="D4">
         <v>1881</v>
@@ -13717,13 +13726,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
+        <v>712</v>
+      </c>
+      <c r="B5" t="s">
         <v>713</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>714</v>
-      </c>
-      <c r="C5" t="s">
-        <v>715</v>
       </c>
       <c r="D5">
         <v>1890</v>
@@ -13734,13 +13743,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
+        <v>712</v>
+      </c>
+      <c r="B6" t="s">
         <v>713</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>714</v>
-      </c>
-      <c r="C6" t="s">
-        <v>715</v>
       </c>
       <c r="D6">
         <v>1878</v>
@@ -13751,13 +13760,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
+        <v>712</v>
+      </c>
+      <c r="B7" t="s">
         <v>713</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>714</v>
-      </c>
-      <c r="C7" t="s">
-        <v>715</v>
       </c>
       <c r="D7">
         <v>1883</v>
@@ -13768,16 +13777,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
+        <v>712</v>
+      </c>
+      <c r="B8" t="s">
         <v>713</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>714</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" s="24" t="s">
         <v>715</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>716</v>
       </c>
       <c r="F8" s="23">
         <v>1</v>
@@ -13785,13 +13794,13 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
+        <v>712</v>
+      </c>
+      <c r="B9" t="s">
         <v>713</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>714</v>
-      </c>
-      <c r="C9" t="s">
-        <v>715</v>
       </c>
       <c r="D9">
         <v>1889</v>
@@ -13802,13 +13811,13 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
+        <v>712</v>
+      </c>
+      <c r="B10" t="s">
         <v>713</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>714</v>
-      </c>
-      <c r="C10" t="s">
-        <v>715</v>
       </c>
       <c r="D10">
         <v>1879</v>
@@ -13819,13 +13828,13 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
+        <v>712</v>
+      </c>
+      <c r="B11" t="s">
         <v>713</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>714</v>
-      </c>
-      <c r="C11" t="s">
-        <v>715</v>
       </c>
       <c r="D11">
         <v>1891</v>
@@ -13836,13 +13845,13 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
+        <v>712</v>
+      </c>
+      <c r="B12" t="s">
         <v>713</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>714</v>
-      </c>
-      <c r="C12" t="s">
-        <v>715</v>
       </c>
       <c r="D12">
         <v>1891</v>
@@ -13853,16 +13862,16 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
+        <v>712</v>
+      </c>
+      <c r="B13" t="s">
         <v>713</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>714</v>
       </c>
-      <c r="C13" t="s">
-        <v>715</v>
-      </c>
       <c r="D13" s="24" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F13" s="23">
         <v>1</v>
@@ -13870,13 +13879,13 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
+        <v>712</v>
+      </c>
+      <c r="B14" t="s">
         <v>713</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>714</v>
-      </c>
-      <c r="C14" t="s">
-        <v>715</v>
       </c>
       <c r="D14">
         <v>1894</v>
@@ -13887,19 +13896,19 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
+        <v>717</v>
+      </c>
+      <c r="B15" t="s">
         <v>718</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>719</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>720</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>721</v>
-      </c>
-      <c r="E15" t="s">
-        <v>722</v>
       </c>
       <c r="F15" s="23">
         <v>17</v>
@@ -13907,19 +13916,19 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B16" t="s">
+        <v>722</v>
+      </c>
+      <c r="C16" t="s">
         <v>723</v>
       </c>
-      <c r="C16" t="s">
-        <v>724</v>
-      </c>
       <c r="D16" t="s">
+        <v>720</v>
+      </c>
+      <c r="E16" t="s">
         <v>721</v>
-      </c>
-      <c r="E16" t="s">
-        <v>722</v>
       </c>
       <c r="F16" s="23">
         <v>4</v>
@@ -13927,19 +13936,19 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B17" t="s">
+        <v>724</v>
+      </c>
+      <c r="C17" t="s">
         <v>725</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>726</v>
       </c>
-      <c r="D17" t="s">
-        <v>727</v>
-      </c>
       <c r="E17" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F17" s="23">
         <v>45</v>
@@ -13947,19 +13956,19 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B18" t="s">
+        <v>724</v>
+      </c>
+      <c r="C18" t="s">
         <v>725</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>726</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>727</v>
-      </c>
-      <c r="E18" t="s">
-        <v>728</v>
       </c>
       <c r="F18" s="23">
         <v>12</v>
@@ -13967,19 +13976,19 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B19" t="s">
+        <v>724</v>
+      </c>
+      <c r="C19" t="s">
         <v>725</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>726</v>
       </c>
-      <c r="D19" t="s">
-        <v>727</v>
-      </c>
       <c r="E19" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F19" s="23">
         <v>14</v>
@@ -13987,19 +13996,19 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B20" t="s">
+        <v>724</v>
+      </c>
+      <c r="C20" t="s">
         <v>725</v>
       </c>
-      <c r="C20" t="s">
-        <v>726</v>
-      </c>
       <c r="D20" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E20" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F20" s="23">
         <v>4</v>
@@ -14007,19 +14016,19 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B21" t="s">
+        <v>724</v>
+      </c>
+      <c r="C21" t="s">
         <v>725</v>
       </c>
-      <c r="C21" t="s">
-        <v>726</v>
-      </c>
       <c r="D21" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E21" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F21" s="23">
         <v>6</v>
@@ -14027,19 +14036,19 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
+        <v>730</v>
+      </c>
+      <c r="B22" t="s">
         <v>731</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>732</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>733</v>
       </c>
-      <c r="D22" t="s">
-        <v>734</v>
-      </c>
       <c r="E22" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F22" s="23">
         <v>3</v>
@@ -14047,19 +14056,19 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
+        <v>734</v>
+      </c>
+      <c r="B23" t="s">
+        <v>731</v>
+      </c>
+      <c r="C23" t="s">
+        <v>732</v>
+      </c>
+      <c r="D23" t="s">
         <v>735</v>
       </c>
-      <c r="B23" t="s">
-        <v>732</v>
-      </c>
-      <c r="C23" t="s">
-        <v>733</v>
-      </c>
-      <c r="D23" t="s">
-        <v>736</v>
-      </c>
       <c r="E23" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F23" s="23">
         <v>14</v>
@@ -14067,19 +14076,19 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B24" t="s">
+        <v>731</v>
+      </c>
+      <c r="C24" t="s">
         <v>732</v>
       </c>
-      <c r="C24" t="s">
-        <v>733</v>
-      </c>
       <c r="D24" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E24" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F24" s="23">
         <v>13</v>
@@ -14087,19 +14096,19 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
+        <v>736</v>
+      </c>
+      <c r="B25" t="s">
+        <v>731</v>
+      </c>
+      <c r="C25" t="s">
+        <v>732</v>
+      </c>
+      <c r="D25" t="s">
         <v>737</v>
       </c>
-      <c r="B25" t="s">
-        <v>732</v>
-      </c>
-      <c r="C25" t="s">
-        <v>733</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>738</v>
-      </c>
-      <c r="E25" t="s">
-        <v>739</v>
       </c>
       <c r="F25" s="23">
         <v>2</v>
@@ -14107,19 +14116,19 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
+        <v>730</v>
+      </c>
+      <c r="B26" t="s">
         <v>731</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>732</v>
       </c>
-      <c r="C26" t="s">
-        <v>733</v>
-      </c>
       <c r="D26" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E26" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F26" s="23">
         <v>1</v>

--- a/data_printer.xlsx
+++ b/data_printer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GamErick\Desktop\Nova pasta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF96375-21FE-4D04-8939-F0E93114A05C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B180FB96-231A-49AA-BB96-6F2B9361AA44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A8AA41B5-7AA1-4FF7-A9B8-54B8A4E1AF28}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2716" uniqueCount="762">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2716" uniqueCount="763">
   <si>
     <t>INDICE</t>
   </si>
@@ -945,9 +945,6 @@
     <t>G987X538481</t>
   </si>
   <si>
-    <t>ESTAVA NA CONTABILIDADE PAÇO</t>
-  </si>
-  <si>
     <t>G988X266503</t>
   </si>
   <si>
@@ -2259,9 +2256,6 @@
     <t>PORTE RICOH 5201</t>
   </si>
   <si>
-    <t xml:space="preserve">IMPRESSORA INSTALADA EM 06/xx/2024 - SUBSTITUIU UMA DA MESMA QUE QUEIMOU COM PICO DE LUZ QUE TEVE NO DIA 04/01/2025; </t>
-  </si>
-  <si>
     <t>U67030J3N175295</t>
   </si>
   <si>
@@ -2323,6 +2317,15 @@
   </si>
   <si>
     <t>on_2</t>
+  </si>
+  <si>
+    <t>SALA ADM</t>
+  </si>
+  <si>
+    <t>ESTAVA NA CONTABILIDADE PAÇO;</t>
+  </si>
+  <si>
+    <t>IMPRESSORA INSTALADA EM 06/xx/2024 - SUBSTITUIU UMA DA MESMA QUE QUEIMOU COM PICO DE LUZ QUE TEVE NO DIA 04/01/2025;  RATIRADA 20/03/2025 HOSPITAL SÃO VICENTE;</t>
   </si>
 </sst>
 </file>
@@ -2822,7 +2825,18 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C244623C-48DE-4D05-852C-6EFDD885ABE2}" name="Controle_Inventario_Impressoras" displayName="Controle_Inventario_Impressoras" ref="A1:J336" tableType="queryTable" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A1:J336" xr:uid="{C244623C-48DE-4D05-852C-6EFDD885ABE2}"/>
+  <autoFilter ref="A1:J336" xr:uid="{C244623C-48DE-4D05-852C-6EFDD885ABE2}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="BROTHER DCP-L5512DN"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="4">
+      <filters>
+        <filter val="SOLAGOS DEPOSITO"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J27">
     <sortCondition ref="A13"/>
   </sortState>
@@ -3156,8 +3170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD39631B-97B8-405A-AA43-14CDFBC77F92}">
   <dimension ref="A1:J336"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D294" sqref="D294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -3207,7 +3221,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" hidden="1">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -3239,7 +3253,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" hidden="1">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -3271,7 +3285,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" hidden="1">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -3303,7 +3317,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" hidden="1">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -3335,7 +3349,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" hidden="1">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -3349,25 +3363,25 @@
         <v>27</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>29</v>
+        <v>679</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H6" s="6">
-        <v>45652</v>
+        <v>45736</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" hidden="1">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -3384,7 +3398,7 @@
         <v>102</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>15</v>
@@ -3399,7 +3413,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" hidden="1">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -3431,7 +3445,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" hidden="1">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -3463,7 +3477,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" hidden="1">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -3493,7 +3507,7 @@
       </c>
       <c r="J10" s="7"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" hidden="1">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -3523,7 +3537,7 @@
       </c>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" hidden="1">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -3555,7 +3569,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" hidden="1">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -3587,7 +3601,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" hidden="1">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -3604,7 +3618,7 @@
         <v>102</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>15</v>
@@ -3619,7 +3633,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" hidden="1">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -3651,7 +3665,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" hidden="1">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -3680,7 +3694,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" hidden="1">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -3712,7 +3726,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" hidden="1">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -3744,7 +3758,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" hidden="1">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -3776,7 +3790,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" hidden="1">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -3808,7 +3822,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" hidden="1">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -3840,7 +3854,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1">
+    <row r="22" spans="1:10" ht="15.75" hidden="1" customHeight="1">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -3872,7 +3886,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" hidden="1">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -3904,7 +3918,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" hidden="1">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -3936,7 +3950,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" hidden="1">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -3968,7 +3982,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" hidden="1">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -3997,7 +4011,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" hidden="1">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -4026,7 +4040,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" hidden="1">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -4058,7 +4072,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" hidden="1">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -4090,7 +4104,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" hidden="1">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -4122,7 +4136,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" hidden="1">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -4154,7 +4168,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" hidden="1">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -4183,7 +4197,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" hidden="1">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -4215,7 +4229,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" hidden="1">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -4232,7 +4246,7 @@
         <v>13</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>15</v>
@@ -4247,7 +4261,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" hidden="1">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -4279,7 +4293,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" hidden="1">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -4311,7 +4325,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" hidden="1">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -4340,7 +4354,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" hidden="1">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -4372,7 +4386,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" hidden="1">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -4404,7 +4418,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" hidden="1">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -4436,7 +4450,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" hidden="1">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -4468,7 +4482,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" hidden="1">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -4500,7 +4514,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" hidden="1">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -4532,7 +4546,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" hidden="1">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -4564,7 +4578,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" hidden="1">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -4596,7 +4610,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" hidden="1">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -4625,7 +4639,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" hidden="1">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -4657,7 +4671,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" hidden="1">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -4689,7 +4703,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" hidden="1">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -4721,7 +4735,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" hidden="1">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -4750,7 +4764,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" hidden="1">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -4779,7 +4793,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" hidden="1">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -4811,7 +4825,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" hidden="1">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -4840,7 +4854,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" hidden="1">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -4869,7 +4883,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" hidden="1">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -4898,7 +4912,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" hidden="1">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -4927,7 +4941,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" hidden="1">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -4956,7 +4970,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" hidden="1">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -4985,7 +4999,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" hidden="1">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -5017,7 +5031,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" hidden="1">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -5049,7 +5063,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" hidden="1">
       <c r="A61" s="4">
         <v>60</v>
       </c>
@@ -5078,7 +5092,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" hidden="1">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -5110,7 +5124,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" hidden="1">
       <c r="A63" s="4">
         <v>62</v>
       </c>
@@ -5139,7 +5153,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" hidden="1">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -5168,7 +5182,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" hidden="1">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -5197,7 +5211,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" hidden="1">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -5226,7 +5240,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" hidden="1">
       <c r="A67" s="4">
         <v>66</v>
       </c>
@@ -5258,7 +5272,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" hidden="1">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -5290,7 +5304,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" hidden="1">
       <c r="A69" s="4">
         <v>68</v>
       </c>
@@ -5319,7 +5333,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" hidden="1">
       <c r="A70" s="4">
         <v>69</v>
       </c>
@@ -5351,7 +5365,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" hidden="1">
       <c r="A71" s="4">
         <v>70</v>
       </c>
@@ -5383,7 +5397,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" hidden="1">
       <c r="A72" s="4">
         <v>71</v>
       </c>
@@ -5415,7 +5429,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" hidden="1">
       <c r="A73" s="4">
         <v>72</v>
       </c>
@@ -5447,7 +5461,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" hidden="1">
       <c r="A74" s="4">
         <v>73</v>
       </c>
@@ -5476,7 +5490,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" hidden="1">
       <c r="A75" s="4">
         <v>74</v>
       </c>
@@ -5508,7 +5522,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" hidden="1">
       <c r="A76" s="4">
         <v>75</v>
       </c>
@@ -5540,7 +5554,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" hidden="1">
       <c r="A77" s="4">
         <v>76</v>
       </c>
@@ -5572,7 +5586,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" hidden="1">
       <c r="A78" s="4">
         <v>77</v>
       </c>
@@ -5604,7 +5618,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" hidden="1">
       <c r="A79" s="4">
         <v>78</v>
       </c>
@@ -5636,7 +5650,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" hidden="1">
       <c r="A80" s="4">
         <v>79</v>
       </c>
@@ -5668,7 +5682,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" hidden="1">
       <c r="A81" s="4">
         <v>80</v>
       </c>
@@ -5694,7 +5708,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" hidden="1">
       <c r="A82" s="4">
         <v>81</v>
       </c>
@@ -5720,7 +5734,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" hidden="1">
       <c r="A83" s="4">
         <v>82</v>
       </c>
@@ -5746,7 +5760,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" hidden="1">
       <c r="A84" s="4">
         <v>83</v>
       </c>
@@ -5778,7 +5792,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" hidden="1">
       <c r="A85" s="4">
         <v>84</v>
       </c>
@@ -5810,7 +5824,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" hidden="1">
       <c r="A86" s="4">
         <v>85</v>
       </c>
@@ -5842,7 +5856,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:10" hidden="1">
       <c r="A87" s="4">
         <v>86</v>
       </c>
@@ -5874,7 +5888,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:10" hidden="1">
       <c r="A88" s="4">
         <v>87</v>
       </c>
@@ -5903,7 +5917,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:10" hidden="1">
       <c r="A89" s="4">
         <v>88</v>
       </c>
@@ -5932,7 +5946,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:10" hidden="1">
       <c r="A90" s="4">
         <v>89</v>
       </c>
@@ -5964,7 +5978,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:10" hidden="1">
       <c r="A91" s="4">
         <v>90</v>
       </c>
@@ -5990,7 +6004,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:10" hidden="1">
       <c r="A92" s="4">
         <v>91</v>
       </c>
@@ -6016,7 +6030,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:10" hidden="1">
       <c r="A93" s="4">
         <v>92</v>
       </c>
@@ -6048,7 +6062,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:10" hidden="1">
       <c r="A94" s="4">
         <v>93</v>
       </c>
@@ -6074,7 +6088,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:10" hidden="1">
       <c r="A95" s="4">
         <v>94</v>
       </c>
@@ -6103,7 +6117,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" spans="1:10" hidden="1">
       <c r="A96" s="4">
         <v>95</v>
       </c>
@@ -6132,7 +6146,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" hidden="1">
       <c r="A97" s="4">
         <v>96</v>
       </c>
@@ -6161,7 +6175,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" hidden="1">
       <c r="A98" s="4">
         <v>97</v>
       </c>
@@ -6190,7 +6204,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" hidden="1">
       <c r="A99" s="4">
         <v>98</v>
       </c>
@@ -6222,7 +6236,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" hidden="1">
       <c r="A100" s="4">
         <v>99</v>
       </c>
@@ -6254,7 +6268,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" hidden="1">
       <c r="A101" s="4">
         <v>100</v>
       </c>
@@ -6286,7 +6300,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" hidden="1">
       <c r="A102" s="4">
         <v>101</v>
       </c>
@@ -6318,7 +6332,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:10" hidden="1">
       <c r="A103" s="4">
         <v>102</v>
       </c>
@@ -6350,7 +6364,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:10" hidden="1">
       <c r="A104" s="4">
         <v>103</v>
       </c>
@@ -6382,7 +6396,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:10" hidden="1">
       <c r="A105" s="4">
         <v>104</v>
       </c>
@@ -6414,7 +6428,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:10" hidden="1">
       <c r="A106" s="4">
         <v>105</v>
       </c>
@@ -6446,7 +6460,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:10" hidden="1">
       <c r="A107" s="4">
         <v>106</v>
       </c>
@@ -6478,7 +6492,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:10" hidden="1">
       <c r="A108" s="4">
         <v>107</v>
       </c>
@@ -6510,7 +6524,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:10" hidden="1">
       <c r="A109" s="4">
         <v>108</v>
       </c>
@@ -6542,7 +6556,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:10" hidden="1">
       <c r="A110" s="4">
         <v>109</v>
       </c>
@@ -6574,7 +6588,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:10" hidden="1">
       <c r="A111" s="4">
         <v>110</v>
       </c>
@@ -6606,7 +6620,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:10" hidden="1">
       <c r="A112" s="4">
         <v>111</v>
       </c>
@@ -6638,7 +6652,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="113" spans="1:10">
+    <row r="113" spans="1:10" hidden="1">
       <c r="A113" s="4">
         <v>112</v>
       </c>
@@ -6670,7 +6684,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="114" spans="1:10">
+    <row r="114" spans="1:10" hidden="1">
       <c r="A114" s="4">
         <v>113</v>
       </c>
@@ -6702,7 +6716,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="115" spans="1:10">
+    <row r="115" spans="1:10" hidden="1">
       <c r="A115" s="4">
         <v>114</v>
       </c>
@@ -6734,7 +6748,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="116" spans="1:10">
+    <row r="116" spans="1:10" hidden="1">
       <c r="A116" s="4">
         <v>115</v>
       </c>
@@ -6766,7 +6780,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="117" spans="1:10">
+    <row r="117" spans="1:10" hidden="1">
       <c r="A117" s="4">
         <v>116</v>
       </c>
@@ -6798,7 +6812,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="118" spans="1:10">
+    <row r="118" spans="1:10" hidden="1">
       <c r="A118" s="4">
         <v>117</v>
       </c>
@@ -6830,7 +6844,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="119" spans="1:10">
+    <row r="119" spans="1:10" hidden="1">
       <c r="A119" s="4">
         <v>118</v>
       </c>
@@ -6862,7 +6876,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="120" spans="1:10">
+    <row r="120" spans="1:10" hidden="1">
       <c r="A120" s="4">
         <v>119</v>
       </c>
@@ -6894,7 +6908,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" spans="1:10" hidden="1">
       <c r="A121" s="4">
         <v>120</v>
       </c>
@@ -6920,7 +6934,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="122" spans="1:10">
+    <row r="122" spans="1:10" hidden="1">
       <c r="A122" s="4">
         <v>121</v>
       </c>
@@ -6946,7 +6960,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="123" spans="1:10">
+    <row r="123" spans="1:10" hidden="1">
       <c r="A123" s="4">
         <v>122</v>
       </c>
@@ -6978,7 +6992,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="124" spans="1:10">
+    <row r="124" spans="1:10" hidden="1">
       <c r="A124" s="4">
         <v>123</v>
       </c>
@@ -7004,7 +7018,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="125" spans="1:10">
+    <row r="125" spans="1:10" hidden="1">
       <c r="A125" s="4">
         <v>124</v>
       </c>
@@ -7036,7 +7050,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="126" spans="1:10">
+    <row r="126" spans="1:10" hidden="1">
       <c r="A126" s="4">
         <v>125</v>
       </c>
@@ -7068,7 +7082,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="127" spans="1:10">
+    <row r="127" spans="1:10" hidden="1">
       <c r="A127" s="4">
         <v>126</v>
       </c>
@@ -7100,7 +7114,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="128" spans="1:10">
+    <row r="128" spans="1:10" hidden="1">
       <c r="A128" s="4">
         <v>127</v>
       </c>
@@ -7132,7 +7146,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="129" spans="1:10">
+    <row r="129" spans="1:10" hidden="1">
       <c r="A129" s="4">
         <v>128</v>
       </c>
@@ -7164,7 +7178,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="130" spans="1:10">
+    <row r="130" spans="1:10" hidden="1">
       <c r="A130" s="4">
         <v>129</v>
       </c>
@@ -7196,7 +7210,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="131" spans="1:10">
+    <row r="131" spans="1:10" hidden="1">
       <c r="A131" s="4">
         <v>130</v>
       </c>
@@ -7228,7 +7242,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="132" spans="1:10">
+    <row r="132" spans="1:10" hidden="1">
       <c r="A132" s="4">
         <v>131</v>
       </c>
@@ -7245,22 +7259,22 @@
         <v>28</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>29</v>
+        <v>760</v>
       </c>
       <c r="G132" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H132" s="9">
-        <v>45649</v>
+        <v>45736</v>
       </c>
       <c r="I132" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J132" s="3" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" hidden="1">
       <c r="A133" s="4">
         <v>132</v>
       </c>
@@ -7271,7 +7285,7 @@
         <v>11</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>28</v>
@@ -7289,10 +7303,10 @@
         <v>16</v>
       </c>
       <c r="J133" s="3" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" hidden="1">
       <c r="A134" s="4">
         <v>133</v>
       </c>
@@ -7303,7 +7317,7 @@
         <v>11</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>28</v>
@@ -7321,10 +7335,10 @@
         <v>16</v>
       </c>
       <c r="J134" s="3" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" hidden="1">
       <c r="A135" s="4">
         <v>134</v>
       </c>
@@ -7335,7 +7349,7 @@
         <v>11</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>28</v>
@@ -7353,10 +7367,10 @@
         <v>16</v>
       </c>
       <c r="J135" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" hidden="1">
       <c r="A136" s="4">
         <v>135</v>
       </c>
@@ -7367,7 +7381,7 @@
         <v>11</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>21</v>
@@ -7385,10 +7399,10 @@
         <v>16</v>
       </c>
       <c r="J136" s="3" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" hidden="1">
       <c r="A137" s="4">
         <v>136</v>
       </c>
@@ -7399,7 +7413,7 @@
         <v>11</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>28</v>
@@ -7417,10 +7431,10 @@
         <v>16</v>
       </c>
       <c r="J137" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" hidden="1">
       <c r="A138" s="4">
         <v>137</v>
       </c>
@@ -7431,13 +7445,13 @@
         <v>11</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G138" s="5" t="s">
         <v>15</v>
@@ -7449,10 +7463,10 @@
         <v>16</v>
       </c>
       <c r="J138" s="3" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" hidden="1">
       <c r="A139" s="4">
         <v>138</v>
       </c>
@@ -7463,7 +7477,7 @@
         <v>11</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>28</v>
@@ -7481,10 +7495,10 @@
         <v>16</v>
       </c>
       <c r="J139" s="3" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" hidden="1">
       <c r="A140" s="4">
         <v>139</v>
       </c>
@@ -7495,13 +7509,13 @@
         <v>11</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G140" s="5" t="s">
         <v>15</v>
@@ -7513,21 +7527,21 @@
         <v>16</v>
       </c>
       <c r="J140" s="13" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" hidden="1">
       <c r="A141" s="4">
         <v>140</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>28</v>
@@ -7545,27 +7559,27 @@
         <v>16</v>
       </c>
       <c r="J141" s="3" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" hidden="1">
       <c r="A142" s="4">
         <v>141</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G142" s="5" t="s">
         <v>15</v>
@@ -7577,24 +7591,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="143" spans="1:10">
+    <row r="143" spans="1:10" hidden="1">
       <c r="A143" s="4">
         <v>142</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G143" s="5" t="s">
         <v>15</v>
@@ -7606,24 +7620,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="144" spans="1:10">
+    <row r="144" spans="1:10" hidden="1">
       <c r="A144" s="4">
         <v>143</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D144" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F144" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G144" s="15" t="s">
         <v>15</v>
@@ -7635,21 +7649,21 @@
         <v>16</v>
       </c>
       <c r="J144" s="17" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" hidden="1">
       <c r="A145" s="4">
         <v>144</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>199</v>
@@ -7667,21 +7681,21 @@
         <v>16</v>
       </c>
       <c r="J145" s="3" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" hidden="1">
       <c r="A146" s="4">
         <v>145</v>
       </c>
       <c r="B146" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D146" s="4" t="s">
         <v>335</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D146" s="4" t="s">
-        <v>336</v>
       </c>
       <c r="E146" s="4" t="s">
         <v>28</v>
@@ -7699,10 +7713,10 @@
         <v>16</v>
       </c>
       <c r="J146" s="3" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" hidden="1">
       <c r="A147" s="4">
         <v>146</v>
       </c>
@@ -7713,7 +7727,7 @@
         <v>11</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E147" s="4" t="s">
         <v>28</v>
@@ -7731,27 +7745,27 @@
         <v>16</v>
       </c>
       <c r="J147" s="3" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" hidden="1">
       <c r="A148" s="4">
         <v>147</v>
       </c>
       <c r="B148" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D148" s="1" t="s">
         <v>340</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>341</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G148" s="5" t="s">
         <v>15</v>
@@ -7763,7 +7777,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="149" spans="1:10">
+    <row r="149" spans="1:10" hidden="1">
       <c r="A149" s="4">
         <v>148</v>
       </c>
@@ -7774,7 +7788,7 @@
         <v>11</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E149" s="4" t="s">
         <v>28</v>
@@ -7792,10 +7806,10 @@
         <v>16</v>
       </c>
       <c r="J149" s="3" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" hidden="1">
       <c r="A150" s="4">
         <v>149</v>
       </c>
@@ -7806,7 +7820,7 @@
         <v>11</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E150" s="4" t="s">
         <v>28</v>
@@ -7824,10 +7838,10 @@
         <v>16</v>
       </c>
       <c r="J150" s="7" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" hidden="1">
       <c r="A151" s="4">
         <v>150</v>
       </c>
@@ -7838,13 +7852,13 @@
         <v>11</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E151" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G151" s="5" t="s">
         <v>15</v>
@@ -7856,7 +7870,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="152" spans="1:10">
+    <row r="152" spans="1:10" hidden="1">
       <c r="A152" s="4">
         <v>151</v>
       </c>
@@ -7867,25 +7881,25 @@
         <v>11</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F152" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="G152" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I152" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J152" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="G152" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I152" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J152" s="3" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10">
+    </row>
+    <row r="153" spans="1:10" hidden="1">
       <c r="A153" s="4">
         <v>152</v>
       </c>
@@ -7896,13 +7910,13 @@
         <v>11</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E153" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G153" s="5" t="s">
         <v>15</v>
@@ -7914,7 +7928,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="154" spans="1:10">
+    <row r="154" spans="1:10" hidden="1">
       <c r="A154" s="4">
         <v>153</v>
       </c>
@@ -7925,13 +7939,13 @@
         <v>11</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E154" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G154" s="5" t="s">
         <v>15</v>
@@ -7941,18 +7955,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="155" spans="1:10">
+    <row r="155" spans="1:10" hidden="1">
       <c r="A155" s="4">
         <v>154</v>
       </c>
       <c r="B155" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D155" s="1" t="s">
         <v>356</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>357</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>13</v>
@@ -7970,27 +7984,27 @@
         <v>16</v>
       </c>
       <c r="J155" s="3" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" hidden="1">
       <c r="A156" s="4">
         <v>155</v>
       </c>
       <c r="B156" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D156" s="4" t="s">
         <v>359</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D156" s="4" t="s">
-        <v>360</v>
       </c>
       <c r="E156" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G156" s="5" t="s">
         <v>15</v>
@@ -7999,18 +8013,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="157" spans="1:10">
+    <row r="157" spans="1:10" hidden="1">
       <c r="A157" s="4">
         <v>156</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E157" s="4" t="s">
         <v>13</v>
@@ -8028,10 +8042,10 @@
         <v>16</v>
       </c>
       <c r="J157" s="3" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" hidden="1">
       <c r="A158" s="4">
         <v>157</v>
       </c>
@@ -8042,7 +8056,7 @@
         <v>11</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>28</v>
@@ -8060,10 +8074,10 @@
         <v>16</v>
       </c>
       <c r="J158" s="7" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" hidden="1">
       <c r="A159" s="4">
         <v>158</v>
       </c>
@@ -8074,13 +8088,13 @@
         <v>11</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E159" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G159" s="5" t="s">
         <v>15</v>
@@ -8092,50 +8106,50 @@
         <v>16</v>
       </c>
       <c r="J159" s="3" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" hidden="1">
       <c r="A160" s="4">
         <v>159</v>
       </c>
       <c r="B160" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D160" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>371</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F160" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="G160" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I160" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J160" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="G160" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I160" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J160" s="3" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10">
+    </row>
+    <row r="161" spans="1:10" hidden="1">
       <c r="A161" s="4">
         <v>160</v>
       </c>
       <c r="B161" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D161" s="1" t="s">
         <v>374</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>375</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>28</v>
@@ -8153,7 +8167,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="162" spans="1:10">
+    <row r="162" spans="1:10" hidden="1">
       <c r="A162" s="4">
         <v>161</v>
       </c>
@@ -8164,13 +8178,13 @@
         <v>11</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G162" s="5" t="s">
         <v>15</v>
@@ -8182,7 +8196,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="163" spans="1:10">
+    <row r="163" spans="1:10" hidden="1">
       <c r="A163" s="4">
         <v>162</v>
       </c>
@@ -8193,13 +8207,13 @@
         <v>112</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E163" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F163" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G163" s="5" t="s">
         <v>15</v>
@@ -8209,24 +8223,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="164" spans="1:10">
+    <row r="164" spans="1:10" hidden="1">
       <c r="A164" s="4">
         <v>163</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>102</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G164" s="5" t="s">
         <v>15</v>
@@ -8238,27 +8252,27 @@
         <v>16</v>
       </c>
       <c r="J164" s="3" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" hidden="1">
       <c r="A165" s="4">
         <v>164</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G165" s="5" t="s">
         <v>15</v>
@@ -8267,7 +8281,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="166" spans="1:10">
+    <row r="166" spans="1:10" hidden="1">
       <c r="A166" s="4">
         <v>165</v>
       </c>
@@ -8278,13 +8292,13 @@
         <v>11</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E166" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G166" s="5" t="s">
         <v>15</v>
@@ -8293,24 +8307,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="167" spans="1:10">
+    <row r="167" spans="1:10" hidden="1">
       <c r="A167" s="4">
         <v>166</v>
       </c>
       <c r="B167" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D167" s="1" t="s">
         <v>387</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>388</v>
       </c>
       <c r="E167" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G167" s="5" t="s">
         <v>15</v>
@@ -8322,24 +8336,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="168" spans="1:10">
+    <row r="168" spans="1:10" hidden="1">
       <c r="A168" s="4">
         <v>167</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G168" s="5" t="s">
         <v>15</v>
@@ -8351,24 +8365,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="169" spans="1:10">
+    <row r="169" spans="1:10" hidden="1">
       <c r="A169" s="4">
         <v>168</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G169" s="5" t="s">
         <v>15</v>
@@ -8380,24 +8394,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="170" spans="1:10">
+    <row r="170" spans="1:10" hidden="1">
       <c r="A170" s="4">
         <v>169</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G170" s="5" t="s">
         <v>15</v>
@@ -8409,24 +8423,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="171" spans="1:10">
+    <row r="171" spans="1:10" hidden="1">
       <c r="A171" s="4">
         <v>170</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G171" s="5" t="s">
         <v>15</v>
@@ -8438,24 +8452,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="172" spans="1:10">
+    <row r="172" spans="1:10" hidden="1">
       <c r="A172" s="4">
         <v>171</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G172" s="5" t="s">
         <v>15</v>
@@ -8467,24 +8481,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="173" spans="1:10">
+    <row r="173" spans="1:10" hidden="1">
       <c r="A173" s="4">
         <v>172</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G173" s="5" t="s">
         <v>15</v>
@@ -8496,24 +8510,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="174" spans="1:10">
+    <row r="174" spans="1:10" hidden="1">
       <c r="A174" s="4">
         <v>173</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E174" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G174" s="5" t="s">
         <v>15</v>
@@ -8525,24 +8539,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="175" spans="1:10">
+    <row r="175" spans="1:10" hidden="1">
       <c r="A175" s="4">
         <v>174</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E175" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G175" s="5" t="s">
         <v>15</v>
@@ -8554,24 +8568,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="176" spans="1:10">
+    <row r="176" spans="1:10" hidden="1">
       <c r="A176" s="4">
         <v>175</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G176" s="5" t="s">
         <v>15</v>
@@ -8583,24 +8597,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="177" spans="1:10">
+    <row r="177" spans="1:10" hidden="1">
       <c r="A177" s="4">
         <v>176</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E177" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G177" s="5" t="s">
         <v>15</v>
@@ -8612,24 +8626,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="178" spans="1:10">
+    <row r="178" spans="1:10" hidden="1">
       <c r="A178" s="4">
         <v>177</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E178" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G178" s="5" t="s">
         <v>15</v>
@@ -8641,24 +8655,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="179" spans="1:10">
+    <row r="179" spans="1:10" hidden="1">
       <c r="A179" s="4">
         <v>178</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E179" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G179" s="5" t="s">
         <v>15</v>
@@ -8670,24 +8684,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="180" spans="1:10">
+    <row r="180" spans="1:10" hidden="1">
       <c r="A180" s="4">
         <v>179</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E180" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G180" s="5" t="s">
         <v>15</v>
@@ -8699,24 +8713,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="181" spans="1:10">
+    <row r="181" spans="1:10" hidden="1">
       <c r="A181" s="4">
         <v>180</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E181" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G181" s="5" t="s">
         <v>15</v>
@@ -8728,24 +8742,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="182" spans="1:10">
+    <row r="182" spans="1:10" hidden="1">
       <c r="A182" s="4">
         <v>181</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E182" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G182" s="5" t="s">
         <v>15</v>
@@ -8757,24 +8771,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="183" spans="1:10">
+    <row r="183" spans="1:10" hidden="1">
       <c r="A183" s="4">
         <v>182</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E183" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G183" s="5" t="s">
         <v>15</v>
@@ -8786,24 +8800,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="184" spans="1:10">
+    <row r="184" spans="1:10" hidden="1">
       <c r="A184" s="4">
         <v>183</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G184" s="5" t="s">
         <v>15</v>
@@ -8815,24 +8829,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="185" spans="1:10">
+    <row r="185" spans="1:10" hidden="1">
       <c r="A185" s="4">
         <v>184</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G185" s="5" t="s">
         <v>15</v>
@@ -8844,24 +8858,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="186" spans="1:10">
+    <row r="186" spans="1:10" hidden="1">
       <c r="A186" s="4">
         <v>185</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E186" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G186" s="5" t="s">
         <v>15</v>
@@ -8873,24 +8887,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="187" spans="1:10">
+    <row r="187" spans="1:10" hidden="1">
       <c r="A187" s="4">
         <v>186</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E187" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G187" s="5" t="s">
         <v>15</v>
@@ -8902,18 +8916,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="188" spans="1:10">
+    <row r="188" spans="1:10" hidden="1">
       <c r="A188" s="4">
         <v>187</v>
       </c>
       <c r="B188" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D188" s="1" t="s">
         <v>410</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D188" s="1" t="s">
-        <v>411</v>
       </c>
       <c r="E188" s="1" t="s">
         <v>28</v>
@@ -8931,18 +8945,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="189" spans="1:10">
+    <row r="189" spans="1:10" hidden="1">
       <c r="A189" s="4">
         <v>188</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E189" s="1" t="s">
         <v>28</v>
@@ -8960,27 +8974,27 @@
         <v>16</v>
       </c>
       <c r="J189" s="3" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="190" spans="1:10">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" hidden="1">
       <c r="A190" s="4">
         <v>189</v>
       </c>
       <c r="B190" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D190" s="1" t="s">
         <v>414</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D190" s="1" t="s">
-        <v>415</v>
       </c>
       <c r="E190" s="4" t="s">
         <v>92</v>
       </c>
       <c r="F190" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G190" s="5" t="s">
         <v>15</v>
@@ -8991,7 +9005,7 @@
       </c>
       <c r="J190" s="7"/>
     </row>
-    <row r="191" spans="1:10">
+    <row r="191" spans="1:10" hidden="1">
       <c r="A191" s="4">
         <v>190</v>
       </c>
@@ -9002,13 +9016,13 @@
         <v>11</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E191" s="4" t="s">
         <v>92</v>
       </c>
       <c r="F191" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G191" s="5" t="s">
         <v>15</v>
@@ -9018,7 +9032,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="192" spans="1:10">
+    <row r="192" spans="1:10" hidden="1">
       <c r="A192" s="4">
         <v>191</v>
       </c>
@@ -9029,13 +9043,13 @@
         <v>11</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E192" s="4" t="s">
         <v>92</v>
       </c>
       <c r="F192" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G192" s="5" t="s">
         <v>15</v>
@@ -9045,24 +9059,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="193" spans="1:10">
+    <row r="193" spans="1:10" hidden="1">
       <c r="A193" s="4">
         <v>192</v>
       </c>
       <c r="B193" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D193" s="4" t="s">
         <v>421</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D193" s="4" t="s">
-        <v>422</v>
       </c>
       <c r="E193" s="4" t="s">
         <v>92</v>
       </c>
       <c r="F193" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G193" s="5" t="s">
         <v>15</v>
@@ -9072,10 +9086,10 @@
         <v>16</v>
       </c>
       <c r="J193" s="7" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="194" spans="1:10">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" hidden="1">
       <c r="A194" s="4">
         <v>193</v>
       </c>
@@ -9086,13 +9100,13 @@
         <v>11</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E194" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="G194" s="5" t="s">
         <v>15</v>
@@ -9104,10 +9118,10 @@
         <v>16</v>
       </c>
       <c r="J194" s="7" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="195" spans="1:10">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" hidden="1">
       <c r="A195" s="4">
         <v>194</v>
       </c>
@@ -9118,7 +9132,7 @@
         <v>11</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E195" s="1" t="s">
         <v>28</v>
@@ -9136,10 +9150,10 @@
         <v>16</v>
       </c>
       <c r="J195" s="8" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="196" spans="1:10">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" hidden="1">
       <c r="A196" s="4">
         <v>195</v>
       </c>
@@ -9150,7 +9164,7 @@
         <v>11</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E196" s="1" t="s">
         <v>28</v>
@@ -9168,10 +9182,10 @@
         <v>16</v>
       </c>
       <c r="J196" s="7" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="197" spans="1:10">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" hidden="1">
       <c r="A197" s="4">
         <v>196</v>
       </c>
@@ -9182,13 +9196,13 @@
         <v>11</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E197" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G197" s="5" t="s">
         <v>15</v>
@@ -9200,10 +9214,10 @@
         <v>16</v>
       </c>
       <c r="J197" s="3" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="198" spans="1:10">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" hidden="1">
       <c r="A198" s="4">
         <v>197</v>
       </c>
@@ -9214,7 +9228,7 @@
         <v>11</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E198" s="1" t="s">
         <v>40</v>
@@ -9232,10 +9246,10 @@
         <v>16</v>
       </c>
       <c r="J198" s="3" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="199" spans="1:10">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" hidden="1">
       <c r="A199" s="4">
         <v>198</v>
       </c>
@@ -9246,7 +9260,7 @@
         <v>11</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E199" s="4" t="s">
         <v>28</v>
@@ -9264,10 +9278,10 @@
         <v>16</v>
       </c>
       <c r="J199" s="3" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="200" spans="1:10">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" hidden="1">
       <c r="A200" s="4">
         <v>199</v>
       </c>
@@ -9278,7 +9292,7 @@
         <v>11</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E200" s="1" t="s">
         <v>28</v>
@@ -9296,10 +9310,10 @@
         <v>16</v>
       </c>
       <c r="J200" s="3" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="201" spans="1:10">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" hidden="1">
       <c r="A201" s="4">
         <v>200</v>
       </c>
@@ -9310,13 +9324,13 @@
         <v>11</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E201" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G201" s="5" t="s">
         <v>15</v>
@@ -9328,10 +9342,10 @@
         <v>16</v>
       </c>
       <c r="J201" s="3" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="202" spans="1:10">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" hidden="1">
       <c r="A202" s="4">
         <v>201</v>
       </c>
@@ -9342,7 +9356,7 @@
         <v>11</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E202" s="1" t="s">
         <v>28</v>
@@ -9360,10 +9374,10 @@
         <v>16</v>
       </c>
       <c r="J202" s="3" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="203" spans="1:10">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" hidden="1">
       <c r="A203" s="4">
         <v>202</v>
       </c>
@@ -9374,7 +9388,7 @@
         <v>11</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E203" s="1" t="s">
         <v>28</v>
@@ -9392,10 +9406,10 @@
         <v>16</v>
       </c>
       <c r="J203" s="3" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="204" spans="1:10">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" hidden="1">
       <c r="A204" s="4">
         <v>203</v>
       </c>
@@ -9406,7 +9420,7 @@
         <v>11</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E204" s="1" t="s">
         <v>28</v>
@@ -9424,10 +9438,10 @@
         <v>16</v>
       </c>
       <c r="J204" s="3" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="205" spans="1:10">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" hidden="1">
       <c r="A205" s="4">
         <v>204</v>
       </c>
@@ -9438,7 +9452,7 @@
         <v>11</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E205" s="1" t="s">
         <v>28</v>
@@ -9456,10 +9470,10 @@
         <v>16</v>
       </c>
       <c r="J205" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="206" spans="1:10">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" hidden="1">
       <c r="A206" s="4">
         <v>205</v>
       </c>
@@ -9470,7 +9484,7 @@
         <v>11</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E206" s="1" t="s">
         <v>28</v>
@@ -9488,10 +9502,10 @@
         <v>16</v>
       </c>
       <c r="J206" s="3" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="207" spans="1:10">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" hidden="1">
       <c r="A207" s="4">
         <v>206</v>
       </c>
@@ -9502,13 +9516,13 @@
         <v>11</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E207" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G207" s="5" t="s">
         <v>15</v>
@@ -9520,10 +9534,10 @@
         <v>16</v>
       </c>
       <c r="J207" s="3" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="208" spans="1:10">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" hidden="1">
       <c r="A208" s="4">
         <v>207</v>
       </c>
@@ -9534,7 +9548,7 @@
         <v>11</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E208" s="1" t="s">
         <v>28</v>
@@ -9552,10 +9566,10 @@
         <v>16</v>
       </c>
       <c r="J208" s="3" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="209" spans="1:10">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" hidden="1">
       <c r="A209" s="4">
         <v>208</v>
       </c>
@@ -9566,7 +9580,7 @@
         <v>11</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E209" s="1" t="s">
         <v>28</v>
@@ -9584,10 +9598,10 @@
         <v>16</v>
       </c>
       <c r="J209" s="3" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="210" spans="1:10">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" hidden="1">
       <c r="A210" s="4">
         <v>209</v>
       </c>
@@ -9598,13 +9612,13 @@
         <v>11</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E210" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G210" s="5" t="s">
         <v>15</v>
@@ -9613,13 +9627,13 @@
         <v>45545</v>
       </c>
       <c r="I210" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="J210" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="J210" s="3" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="211" spans="1:10">
+    </row>
+    <row r="211" spans="1:10" hidden="1">
       <c r="A211" s="4">
         <v>210</v>
       </c>
@@ -9630,7 +9644,7 @@
         <v>11</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E211" s="1" t="s">
         <v>28</v>
@@ -9648,10 +9662,10 @@
         <v>16</v>
       </c>
       <c r="J211" s="3" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="212" spans="1:10">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" hidden="1">
       <c r="A212" s="4">
         <v>211</v>
       </c>
@@ -9662,7 +9676,7 @@
         <v>11</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E212" s="1" t="s">
         <v>28</v>
@@ -9680,10 +9694,10 @@
         <v>16</v>
       </c>
       <c r="J212" s="3" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="213" spans="1:10">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" hidden="1">
       <c r="A213" s="4">
         <v>212</v>
       </c>
@@ -9694,7 +9708,7 @@
         <v>11</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E213" s="1" t="s">
         <v>28</v>
@@ -9712,10 +9726,10 @@
         <v>16</v>
       </c>
       <c r="J213" s="3" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="214" spans="1:10">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" hidden="1">
       <c r="A214" s="4">
         <v>213</v>
       </c>
@@ -9726,7 +9740,7 @@
         <v>11</v>
       </c>
       <c r="D214" s="18" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E214" s="1" t="s">
         <v>28</v>
@@ -9744,10 +9758,10 @@
         <v>16</v>
       </c>
       <c r="J214" s="3" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="215" spans="1:10">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" hidden="1">
       <c r="A215" s="4">
         <v>214</v>
       </c>
@@ -9758,7 +9772,7 @@
         <v>11</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E215" s="1" t="s">
         <v>28</v>
@@ -9776,10 +9790,10 @@
         <v>16</v>
       </c>
       <c r="J215" s="3" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="216" spans="1:10">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" hidden="1">
       <c r="A216" s="4">
         <v>215</v>
       </c>
@@ -9790,13 +9804,13 @@
         <v>11</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E216" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G216" s="5" t="s">
         <v>15</v>
@@ -9808,27 +9822,27 @@
         <v>16</v>
       </c>
       <c r="J216" s="3" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="217" spans="1:10">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" hidden="1">
       <c r="A217" s="4">
         <v>216</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E217" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G217" s="5" t="s">
         <v>15</v>
@@ -9837,7 +9851,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="218" spans="1:10">
+    <row r="218" spans="1:10" hidden="1">
       <c r="A218" s="4">
         <v>217</v>
       </c>
@@ -9848,7 +9862,7 @@
         <v>11</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E218" s="1" t="s">
         <v>28</v>
@@ -9866,10 +9880,10 @@
         <v>16</v>
       </c>
       <c r="J218" s="3" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="219" spans="1:10">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" hidden="1">
       <c r="A219" s="4">
         <v>218</v>
       </c>
@@ -9880,14 +9894,14 @@
         <v>11</v>
       </c>
       <c r="D219" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="E219" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="E219" s="1" t="s">
+      <c r="F219" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="F219" s="1" t="s">
-        <v>481</v>
-      </c>
       <c r="G219" s="5" t="s">
         <v>15</v>
       </c>
@@ -9895,7 +9909,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="220" spans="1:10">
+    <row r="220" spans="1:10" hidden="1">
       <c r="A220" s="4">
         <v>219</v>
       </c>
@@ -9906,7 +9920,7 @@
         <v>11</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E220" s="1" t="s">
         <v>28</v>
@@ -9924,10 +9938,10 @@
         <v>16</v>
       </c>
       <c r="J220" s="3" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="221" spans="1:10">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" hidden="1">
       <c r="A221" s="4">
         <v>220</v>
       </c>
@@ -9938,7 +9952,7 @@
         <v>11</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E221" s="1" t="s">
         <v>28</v>
@@ -9956,7 +9970,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="222" spans="1:10">
+    <row r="222" spans="1:10" hidden="1">
       <c r="A222" s="4">
         <v>221</v>
       </c>
@@ -9967,7 +9981,7 @@
         <v>11</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E222" s="1" t="s">
         <v>28</v>
@@ -9985,10 +9999,10 @@
         <v>16</v>
       </c>
       <c r="J222" s="3" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="223" spans="1:10">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" hidden="1">
       <c r="A223" s="4">
         <v>222</v>
       </c>
@@ -9999,7 +10013,7 @@
         <v>11</v>
       </c>
       <c r="D223" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E223" s="1" t="s">
         <v>28</v>
@@ -10018,7 +10032,7 @@
       </c>
       <c r="J223" s="7"/>
     </row>
-    <row r="224" spans="1:10">
+    <row r="224" spans="1:10" hidden="1">
       <c r="A224" s="4">
         <v>223</v>
       </c>
@@ -10029,13 +10043,13 @@
         <v>11</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E224" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G224" s="5" t="s">
         <v>15</v>
@@ -10047,10 +10061,10 @@
         <v>16</v>
       </c>
       <c r="J224" s="7" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="225" spans="1:10">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" hidden="1">
       <c r="A225" s="4">
         <v>224</v>
       </c>
@@ -10061,7 +10075,7 @@
         <v>11</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E225" s="1" t="s">
         <v>28</v>
@@ -10079,10 +10093,10 @@
         <v>16</v>
       </c>
       <c r="J225" s="7" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="226" spans="1:10">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" hidden="1">
       <c r="A226" s="4">
         <v>225</v>
       </c>
@@ -10093,7 +10107,7 @@
         <v>11</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E226" s="1" t="s">
         <v>28</v>
@@ -10111,10 +10125,10 @@
         <v>16</v>
       </c>
       <c r="J226" s="3" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="227" spans="1:10">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" hidden="1">
       <c r="A227" s="4">
         <v>226</v>
       </c>
@@ -10125,7 +10139,7 @@
         <v>11</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E227" s="1" t="s">
         <v>28</v>
@@ -10143,10 +10157,10 @@
         <v>16</v>
       </c>
       <c r="J227" s="3" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="228" spans="1:10">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" hidden="1">
       <c r="A228" s="4">
         <v>227</v>
       </c>
@@ -10157,7 +10171,7 @@
         <v>11</v>
       </c>
       <c r="D228" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E228" s="1" t="s">
         <v>28</v>
@@ -10175,21 +10189,21 @@
         <v>16</v>
       </c>
       <c r="J228" s="8" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="229" spans="1:10">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" hidden="1">
       <c r="A229" s="4">
         <v>228</v>
       </c>
       <c r="B229" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D229" s="14" t="s">
         <v>498</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D229" s="14" t="s">
-        <v>499</v>
       </c>
       <c r="E229" s="14" t="s">
         <v>13</v>
@@ -10208,18 +10222,18 @@
       </c>
       <c r="J229" s="20"/>
     </row>
-    <row r="230" spans="1:10">
+    <row r="230" spans="1:10" hidden="1">
       <c r="A230" s="4">
         <v>229</v>
       </c>
       <c r="B230" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D230" s="1" t="s">
         <v>500</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D230" s="1" t="s">
-        <v>501</v>
       </c>
       <c r="E230" s="1" t="s">
         <v>28</v>
@@ -10237,21 +10251,21 @@
         <v>16</v>
       </c>
       <c r="J230" s="3" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="231" spans="1:10">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" hidden="1">
       <c r="A231" s="4">
         <v>230</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E231" s="1" t="s">
         <v>28</v>
@@ -10269,21 +10283,21 @@
         <v>16</v>
       </c>
       <c r="J231" s="3" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="232" spans="1:10">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" hidden="1">
       <c r="A232" s="4">
         <v>231</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E232" s="1" t="s">
         <v>28</v>
@@ -10301,10 +10315,10 @@
         <v>16</v>
       </c>
       <c r="J232" s="3" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="233" spans="1:10">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" hidden="1">
       <c r="A233" s="4">
         <v>232</v>
       </c>
@@ -10321,7 +10335,7 @@
         <v>21</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G233" s="2" t="s">
         <v>21</v>
@@ -10333,21 +10347,21 @@
         <v>16</v>
       </c>
       <c r="J233" s="3" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="234" spans="1:10">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" hidden="1">
       <c r="A234" s="4">
         <v>233</v>
       </c>
       <c r="B234" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D234" s="1" t="s">
         <v>509</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D234" s="1" t="s">
-        <v>510</v>
       </c>
       <c r="E234" s="1" t="s">
         <v>28</v>
@@ -10365,25 +10379,25 @@
         <v>16</v>
       </c>
     </row>
-    <row r="235" spans="1:10">
+    <row r="235" spans="1:10" hidden="1">
       <c r="A235" s="4">
         <v>234</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D235" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F235" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="E235" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="F235" s="1" t="s">
-        <v>513</v>
-      </c>
       <c r="G235" s="5" t="s">
         <v>15</v>
       </c>
@@ -10391,18 +10405,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="236" spans="1:10">
+    <row r="236" spans="1:10" hidden="1">
       <c r="A236" s="4">
         <v>235</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E236" s="1" t="s">
         <v>199</v>
@@ -10420,21 +10434,21 @@
         <v>16</v>
       </c>
       <c r="J236" s="3" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="237" spans="1:10">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" hidden="1">
       <c r="A237" s="4">
         <v>236</v>
       </c>
       <c r="B237" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D237" s="1" t="s">
         <v>517</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D237" s="1" t="s">
-        <v>518</v>
       </c>
       <c r="E237" s="1" t="s">
         <v>28</v>
@@ -10452,10 +10466,10 @@
         <v>16</v>
       </c>
       <c r="J237" s="3" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="238" spans="1:10">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" hidden="1">
       <c r="A238" s="4">
         <v>237</v>
       </c>
@@ -10466,13 +10480,13 @@
         <v>11</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E238" s="1" t="s">
         <v>203</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G238" s="2" t="s">
         <v>42</v>
@@ -10481,10 +10495,10 @@
         <v>16</v>
       </c>
       <c r="J238" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="239" spans="1:10">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" hidden="1">
       <c r="A239" s="4">
         <v>238</v>
       </c>
@@ -10495,13 +10509,13 @@
         <v>11</v>
       </c>
       <c r="D239" s="21" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E239" s="1" t="s">
         <v>203</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G239" s="2" t="s">
         <v>42</v>
@@ -10513,10 +10527,10 @@
         <v>16</v>
       </c>
       <c r="J239" s="3" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="240" spans="1:10">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" hidden="1">
       <c r="A240" s="4">
         <v>239</v>
       </c>
@@ -10527,13 +10541,13 @@
         <v>11</v>
       </c>
       <c r="D240" s="21" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E240" s="1" t="s">
         <v>203</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G240" s="2" t="s">
         <v>42</v>
@@ -10545,7 +10559,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="241" spans="1:10">
+    <row r="241" spans="1:10" hidden="1">
       <c r="A241" s="4">
         <v>240</v>
       </c>
@@ -10556,13 +10570,13 @@
         <v>11</v>
       </c>
       <c r="D241" s="21" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E241" s="1" t="s">
         <v>203</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G241" s="2" t="s">
         <v>42</v>
@@ -10571,27 +10585,27 @@
         <v>16</v>
       </c>
       <c r="J241" s="3" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="242" spans="1:10">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" hidden="1">
       <c r="A242" s="4">
         <v>241</v>
       </c>
       <c r="B242" s="10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D242" s="21" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E242" s="1" t="s">
         <v>203</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G242" s="5" t="s">
         <v>42</v>
@@ -10600,7 +10614,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="243" spans="1:10">
+    <row r="243" spans="1:10" hidden="1">
       <c r="A243" s="4">
         <v>242</v>
       </c>
@@ -10611,13 +10625,13 @@
         <v>112</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E243" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G243" s="5" t="s">
         <v>15</v>
@@ -10629,27 +10643,27 @@
         <v>16</v>
       </c>
       <c r="J243" s="3" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="244" spans="1:10">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" hidden="1">
       <c r="A244" s="4">
         <v>243</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E244" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G244" s="5" t="s">
         <v>15</v>
@@ -10661,10 +10675,10 @@
         <v>16</v>
       </c>
       <c r="J244" s="3" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="245" spans="1:10">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" hidden="1">
       <c r="A245" s="4">
         <v>244</v>
       </c>
@@ -10675,7 +10689,7 @@
         <v>11</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E245" s="1" t="s">
         <v>28</v>
@@ -10693,21 +10707,21 @@
         <v>16</v>
       </c>
       <c r="J245" s="3" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="246" spans="1:10">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" hidden="1">
       <c r="A246" s="4">
         <v>245</v>
       </c>
       <c r="B246" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D246" s="1" t="s">
         <v>540</v>
-      </c>
-      <c r="C246" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D246" s="1" t="s">
-        <v>541</v>
       </c>
       <c r="E246" s="1" t="s">
         <v>28</v>
@@ -10725,21 +10739,21 @@
         <v>16</v>
       </c>
       <c r="J246" s="3" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="247" spans="1:10">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" hidden="1">
       <c r="A247" s="4">
         <v>246</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E247" s="1" t="s">
         <v>40</v>
@@ -10757,21 +10771,21 @@
         <v>217</v>
       </c>
       <c r="J247" s="3" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="248" spans="1:10">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" hidden="1">
       <c r="A248" s="4">
         <v>247</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D248" s="18" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E248" s="1" t="s">
         <v>40</v>
@@ -10789,21 +10803,21 @@
         <v>217</v>
       </c>
       <c r="J248" s="3" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="249" spans="1:10">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" hidden="1">
       <c r="A249" s="4">
         <v>248</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E249" s="1" t="s">
         <v>199</v>
@@ -10821,21 +10835,21 @@
         <v>16</v>
       </c>
       <c r="J249" s="3" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="250" spans="1:10">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" hidden="1">
       <c r="A250" s="4">
         <v>249</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D250" s="18" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E250" s="1" t="s">
         <v>40</v>
@@ -10853,10 +10867,10 @@
         <v>217</v>
       </c>
       <c r="J250" s="3" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="251" spans="1:10">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" hidden="1">
       <c r="A251" s="4">
         <v>250</v>
       </c>
@@ -10867,7 +10881,7 @@
         <v>11</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E251" s="1" t="s">
         <v>28</v>
@@ -10885,10 +10899,10 @@
         <v>16</v>
       </c>
       <c r="J251" s="3" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="252" spans="1:10">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" hidden="1">
       <c r="A252" s="4">
         <v>251</v>
       </c>
@@ -10899,13 +10913,13 @@
         <v>11</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E252" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G252" s="5" t="s">
         <v>15</v>
@@ -10917,21 +10931,21 @@
         <v>16</v>
       </c>
       <c r="J252" s="3" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="253" spans="1:10">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" hidden="1">
       <c r="A253" s="4">
         <v>252</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E253" s="1" t="s">
         <v>28</v>
@@ -10949,27 +10963,27 @@
         <v>16</v>
       </c>
       <c r="J253" s="3" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="254" spans="1:10">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" hidden="1">
       <c r="A254" s="4">
         <v>253</v>
       </c>
       <c r="B254" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D254" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="C254" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D254" s="1" t="s">
+      <c r="E254" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F254" s="1" t="s">
         <v>557</v>
-      </c>
-      <c r="E254" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F254" s="1" t="s">
-        <v>558</v>
       </c>
       <c r="G254" s="5" t="s">
         <v>15</v>
@@ -10981,21 +10995,21 @@
         <v>16</v>
       </c>
       <c r="J254" s="3" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="255" spans="1:10">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" hidden="1">
       <c r="A255" s="4">
         <v>254</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E255" s="1" t="s">
         <v>13</v>
@@ -11013,10 +11027,10 @@
         <v>16</v>
       </c>
       <c r="J255" s="3" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="256" spans="1:10">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" hidden="1">
       <c r="A256" s="4">
         <v>255</v>
       </c>
@@ -11027,25 +11041,25 @@
         <v>112</v>
       </c>
       <c r="D256" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F256" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="E256" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F256" s="1" t="s">
+      <c r="G256" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I256" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J256" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="G256" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I256" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J256" s="3" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="257" spans="1:10">
+    </row>
+    <row r="257" spans="1:10" hidden="1">
       <c r="A257" s="4">
         <v>256</v>
       </c>
@@ -11056,7 +11070,7 @@
         <v>11</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E257" s="1" t="s">
         <v>28</v>
@@ -11074,10 +11088,10 @@
         <v>16</v>
       </c>
       <c r="J257" s="3" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="258" spans="1:10">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" hidden="1">
       <c r="A258" s="4">
         <v>257</v>
       </c>
@@ -11088,7 +11102,7 @@
         <v>11</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E258" s="1" t="s">
         <v>28</v>
@@ -11106,27 +11120,27 @@
         <v>16</v>
       </c>
       <c r="J258" s="3" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="259" spans="1:10">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" hidden="1">
       <c r="A259" s="4">
         <v>258</v>
       </c>
       <c r="B259" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D259" s="1" t="s">
         <v>569</v>
-      </c>
-      <c r="C259" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D259" s="1" t="s">
-        <v>570</v>
       </c>
       <c r="E259" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G259" s="2" t="s">
         <v>15</v>
@@ -11138,27 +11152,27 @@
         <v>16</v>
       </c>
       <c r="J259" s="3" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="260" spans="1:10">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" hidden="1">
       <c r="A260" s="4">
         <v>259</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E260" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F260" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G260" s="2" t="s">
         <v>15</v>
@@ -11170,21 +11184,21 @@
         <v>16</v>
       </c>
       <c r="J260" s="3" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="261" spans="1:10">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" hidden="1">
       <c r="A261" s="4">
         <v>260</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E261" s="1" t="s">
         <v>92</v>
@@ -11202,27 +11216,27 @@
         <v>16</v>
       </c>
       <c r="J261" s="3" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="262" spans="1:10">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" hidden="1">
       <c r="A262" s="4">
         <v>261</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E262" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G262" s="2" t="s">
         <v>15</v>
@@ -11234,27 +11248,27 @@
         <v>16</v>
       </c>
       <c r="J262" s="3" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="263" spans="1:10">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" hidden="1">
       <c r="A263" s="4">
         <v>262</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E263" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G263" s="2" t="s">
         <v>15</v>
@@ -11266,27 +11280,27 @@
         <v>16</v>
       </c>
       <c r="J263" s="3" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="264" spans="1:10">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" hidden="1">
       <c r="A264" s="4">
         <v>263</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E264" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G264" s="2" t="s">
         <v>15</v>
@@ -11298,27 +11312,27 @@
         <v>16</v>
       </c>
       <c r="J264" s="3" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="265" spans="1:10">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" hidden="1">
       <c r="A265" s="4">
         <v>264</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E265" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F265" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G265" s="2" t="s">
         <v>15</v>
@@ -11330,27 +11344,27 @@
         <v>16</v>
       </c>
       <c r="J265" s="3" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="266" spans="1:10">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" hidden="1">
       <c r="A266" s="4">
         <v>265</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E266" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F266" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G266" s="2" t="s">
         <v>15</v>
@@ -11362,27 +11376,27 @@
         <v>16</v>
       </c>
       <c r="J266" s="3" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="267" spans="1:10">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" hidden="1">
       <c r="A267" s="4">
         <v>266</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E267" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F267" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G267" s="2" t="s">
         <v>15</v>
@@ -11394,27 +11408,27 @@
         <v>16</v>
       </c>
       <c r="J267" s="3" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="268" spans="1:10">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" hidden="1">
       <c r="A268" s="4">
         <v>267</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E268" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G268" s="2" t="s">
         <v>15</v>
@@ -11426,27 +11440,27 @@
         <v>16</v>
       </c>
       <c r="J268" s="3" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="269" spans="1:10">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" hidden="1">
       <c r="A269" s="4">
         <v>268</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E269" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G269" s="2" t="s">
         <v>15</v>
@@ -11458,27 +11472,27 @@
         <v>16</v>
       </c>
       <c r="J269" s="3" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="270" spans="1:10">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" hidden="1">
       <c r="A270" s="4">
         <v>269</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E270" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F270" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="G270" s="2" t="s">
         <v>15</v>
@@ -11490,27 +11504,27 @@
         <v>16</v>
       </c>
       <c r="J270" s="3" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="271" spans="1:10">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" hidden="1">
       <c r="A271" s="4">
         <v>270</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E271" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F271" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="G271" s="2" t="s">
         <v>15</v>
@@ -11522,27 +11536,27 @@
         <v>16</v>
       </c>
       <c r="J271" s="3" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="272" spans="1:10">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" hidden="1">
       <c r="A272" s="4">
         <v>271</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E272" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F272" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G272" s="2" t="s">
         <v>15</v>
@@ -11554,27 +11568,27 @@
         <v>16</v>
       </c>
       <c r="J272" s="3" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="273" spans="1:10">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" hidden="1">
       <c r="A273" s="4">
         <v>272</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E273" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F273" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="G273" s="2" t="s">
         <v>15</v>
@@ -11586,27 +11600,27 @@
         <v>16</v>
       </c>
       <c r="J273" s="3" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="274" spans="1:10">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" hidden="1">
       <c r="A274" s="4">
         <v>273</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E274" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="G274" s="2" t="s">
         <v>15</v>
@@ -11618,27 +11632,27 @@
         <v>16</v>
       </c>
       <c r="J274" s="3" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="275" spans="1:10">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" hidden="1">
       <c r="A275" s="4">
         <v>274</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E275" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F275" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G275" s="2" t="s">
         <v>15</v>
@@ -11650,27 +11664,27 @@
         <v>16</v>
       </c>
       <c r="J275" s="3" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="276" spans="1:10">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" hidden="1">
       <c r="A276" s="4">
         <v>275</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D276" s="22" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E276" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F276" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="G276" s="2" t="s">
         <v>15</v>
@@ -11682,27 +11696,27 @@
         <v>16</v>
       </c>
       <c r="J276" s="3" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="277" spans="1:10">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" hidden="1">
       <c r="A277" s="4">
         <v>276</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E277" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F277" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G277" s="2" t="s">
         <v>15</v>
@@ -11714,27 +11728,27 @@
         <v>16</v>
       </c>
       <c r="J277" s="3" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="278" spans="1:10">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" hidden="1">
       <c r="A278" s="4">
         <v>277</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E278" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F278" s="4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="G278" s="2" t="s">
         <v>15</v>
@@ -11746,27 +11760,27 @@
         <v>16</v>
       </c>
       <c r="J278" s="3" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="279" spans="1:10">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" hidden="1">
       <c r="A279" s="4">
         <v>278</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E279" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F279" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G279" s="2" t="s">
         <v>15</v>
@@ -11778,27 +11792,27 @@
         <v>16</v>
       </c>
       <c r="J279" s="3" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="280" spans="1:10">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" hidden="1">
       <c r="A280" s="4">
         <v>279</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D280" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="E280" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F280" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="E280" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="F280" s="1" t="s">
-        <v>622</v>
       </c>
       <c r="G280" s="2" t="s">
         <v>15</v>
@@ -11807,30 +11821,30 @@
         <v>45607</v>
       </c>
       <c r="I280" s="9" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="J280" s="3" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="281" spans="1:10">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" hidden="1">
       <c r="A281" s="4">
         <v>280</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D281" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="E281" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F281" s="1" t="s">
         <v>624</v>
-      </c>
-      <c r="E281" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="F281" s="1" t="s">
-        <v>625</v>
       </c>
       <c r="G281" s="2" t="s">
         <v>15</v>
@@ -11839,30 +11853,30 @@
         <v>45607</v>
       </c>
       <c r="I281" s="9" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="J281" s="3" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="282" spans="1:10">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" hidden="1">
       <c r="A282" s="4">
         <v>281</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D282" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="E282" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F282" s="1" t="s">
         <v>626</v>
-      </c>
-      <c r="E282" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="F282" s="1" t="s">
-        <v>627</v>
       </c>
       <c r="G282" s="2" t="s">
         <v>15</v>
@@ -11871,30 +11885,30 @@
         <v>45607</v>
       </c>
       <c r="I282" s="9" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="J282" s="3" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="283" spans="1:10">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" hidden="1">
       <c r="A283" s="4">
         <v>282</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D283" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="E283" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F283" s="1" t="s">
         <v>628</v>
-      </c>
-      <c r="E283" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="F283" s="1" t="s">
-        <v>629</v>
       </c>
       <c r="G283" s="2" t="s">
         <v>15</v>
@@ -11903,30 +11917,30 @@
         <v>45614</v>
       </c>
       <c r="I283" s="9" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="J283" s="3" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="284" spans="1:10">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" hidden="1">
       <c r="A284" s="4">
         <v>283</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D284" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="E284" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F284" s="1" t="s">
         <v>631</v>
-      </c>
-      <c r="E284" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="F284" s="1" t="s">
-        <v>632</v>
       </c>
       <c r="G284" s="2" t="s">
         <v>15</v>
@@ -11935,30 +11949,30 @@
         <v>45614</v>
       </c>
       <c r="I284" s="9" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="J284" s="3" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="285" spans="1:10">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" hidden="1">
       <c r="A285" s="4">
         <v>284</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D285" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="E285" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F285" s="1" t="s">
         <v>633</v>
-      </c>
-      <c r="E285" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="F285" s="1" t="s">
-        <v>634</v>
       </c>
       <c r="G285" s="2" t="s">
         <v>15</v>
@@ -11967,30 +11981,30 @@
         <v>45615</v>
       </c>
       <c r="I285" s="9" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="J285" s="3" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="286" spans="1:10">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" hidden="1">
       <c r="A286" s="4">
         <v>285</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D286" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="E286" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F286" s="1" t="s">
         <v>636</v>
-      </c>
-      <c r="E286" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="F286" s="1" t="s">
-        <v>637</v>
       </c>
       <c r="G286" s="2" t="s">
         <v>15</v>
@@ -11999,30 +12013,30 @@
         <v>45615</v>
       </c>
       <c r="I286" s="9" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="J286" s="3" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="287" spans="1:10">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" hidden="1">
       <c r="A287" s="4">
         <v>286</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D287" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E287" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F287" s="1" t="s">
         <v>638</v>
-      </c>
-      <c r="E287" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="F287" s="1" t="s">
-        <v>639</v>
       </c>
       <c r="G287" s="2" t="s">
         <v>15</v>
@@ -12031,30 +12045,30 @@
         <v>45615</v>
       </c>
       <c r="I287" s="9" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="J287" s="3" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="288" spans="1:10">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" hidden="1">
       <c r="A288" s="4">
         <v>287</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D288" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="E288" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F288" s="1" t="s">
         <v>640</v>
-      </c>
-      <c r="E288" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="F288" s="1" t="s">
-        <v>641</v>
       </c>
       <c r="G288" s="2" t="s">
         <v>15</v>
@@ -12063,30 +12077,30 @@
         <v>45617</v>
       </c>
       <c r="I288" s="9" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="J288" s="3" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="289" spans="1:10">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" hidden="1">
       <c r="A289" s="4">
         <v>288</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D289" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="E289" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F289" s="1" t="s">
         <v>643</v>
-      </c>
-      <c r="E289" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="F289" s="1" t="s">
-        <v>644</v>
       </c>
       <c r="G289" s="2" t="s">
         <v>15</v>
@@ -12095,30 +12109,30 @@
         <v>45617</v>
       </c>
       <c r="I289" s="9" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="J289" s="3" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="290" spans="1:10">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" hidden="1">
       <c r="A290" s="4">
         <v>289</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D290" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="E290" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F290" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="E290" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="F290" s="1" t="s">
-        <v>647</v>
       </c>
       <c r="G290" s="2" t="s">
         <v>15</v>
@@ -12127,30 +12141,30 @@
         <v>45618</v>
       </c>
       <c r="I290" s="9" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="J290" s="3" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="291" spans="1:10">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" hidden="1">
       <c r="A291" s="4">
         <v>290</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D291" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="E291" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F291" s="1" t="s">
         <v>649</v>
-      </c>
-      <c r="E291" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="F291" s="1" t="s">
-        <v>650</v>
       </c>
       <c r="G291" s="2" t="s">
         <v>15</v>
@@ -12159,30 +12173,30 @@
         <v>45621</v>
       </c>
       <c r="I291" s="9" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="J291" s="3" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="292" spans="1:10">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" hidden="1">
       <c r="A292" s="4">
         <v>291</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D292" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="E292" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F292" s="1" t="s">
         <v>652</v>
-      </c>
-      <c r="E292" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="F292" s="1" t="s">
-        <v>653</v>
       </c>
       <c r="G292" s="2" t="s">
         <v>15</v>
@@ -12191,30 +12205,30 @@
         <v>45621</v>
       </c>
       <c r="I292" s="9" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="J292" s="3" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="293" spans="1:10">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" hidden="1">
       <c r="A293" s="4">
         <v>292</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E293" s="1" t="s">
         <v>102</v>
       </c>
       <c r="F293" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="G293" s="2" t="s">
         <v>15</v>
@@ -12226,7 +12240,7 @@
         <v>104</v>
       </c>
       <c r="J293" s="3" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="294" spans="1:10">
@@ -12234,13 +12248,13 @@
         <v>293</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E294" s="1" t="s">
         <v>28</v>
@@ -12258,27 +12272,27 @@
         <v>16</v>
       </c>
       <c r="J294" s="3" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="295" spans="1:10">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" hidden="1">
       <c r="A295" s="4">
         <v>294</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E295" s="1" t="s">
         <v>102</v>
       </c>
       <c r="F295" s="1" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="G295" s="2" t="s">
         <v>15</v>
@@ -12290,7 +12304,7 @@
         <v>104</v>
       </c>
       <c r="J295" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="296" spans="1:10">
@@ -12298,13 +12312,13 @@
         <v>295</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E296" s="1" t="s">
         <v>28</v>
@@ -12322,27 +12336,27 @@
         <v>104</v>
       </c>
       <c r="J296" s="3" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="297" spans="1:10">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" hidden="1">
       <c r="A297" s="4">
         <v>296</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E297" s="1" t="s">
         <v>102</v>
       </c>
       <c r="F297" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="G297" s="2" t="s">
         <v>15</v>
@@ -12354,27 +12368,27 @@
         <v>104</v>
       </c>
       <c r="J297" s="3" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="298" spans="1:10">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" hidden="1">
       <c r="A298" s="4">
         <v>297</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E298" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F298" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="G298" s="2" t="s">
         <v>15</v>
@@ -12386,27 +12400,27 @@
         <v>16</v>
       </c>
       <c r="J298" s="3" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="299" spans="1:10">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10" hidden="1">
       <c r="A299" s="4">
         <v>298</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E299" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F299" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G299" s="2" t="s">
         <v>15</v>
@@ -12418,27 +12432,27 @@
         <v>16</v>
       </c>
       <c r="J299" s="3" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="300" spans="1:10">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" hidden="1">
       <c r="A300" s="4">
         <v>299</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E300" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F300" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G300" s="2" t="s">
         <v>15</v>
@@ -12450,27 +12464,27 @@
         <v>16</v>
       </c>
       <c r="J300" s="3" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="301" spans="1:10">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" hidden="1">
       <c r="A301" s="4">
         <v>300</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E301" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F301" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G301" s="2" t="s">
         <v>15</v>
@@ -12482,27 +12496,27 @@
         <v>16</v>
       </c>
       <c r="J301" s="3" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="302" spans="1:10">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" hidden="1">
       <c r="A302" s="4">
         <v>301</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E302" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F302" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="G302" s="2" t="s">
         <v>15</v>
@@ -12514,7 +12528,7 @@
         <v>16</v>
       </c>
       <c r="J302" s="3" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="303" spans="1:10">
@@ -12522,19 +12536,19 @@
         <v>302</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E303" s="1" t="s">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="F303" s="1" t="s">
-        <v>680</v>
+        <v>32</v>
       </c>
       <c r="G303" s="2" t="s">
         <v>15</v>
@@ -12543,30 +12557,30 @@
         <v>45663</v>
       </c>
       <c r="I303" s="9" t="s">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="J303" s="3" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="304" spans="1:10">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10" hidden="1">
       <c r="A304" s="4">
         <v>303</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E304" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F304" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G304" s="2" t="s">
         <v>15</v>
@@ -12578,27 +12592,27 @@
         <v>16</v>
       </c>
       <c r="J304" s="3" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="305" spans="1:10">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" hidden="1">
       <c r="A305" s="4">
         <v>304</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E305" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F305" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="G305" s="2" t="s">
         <v>15</v>
@@ -12610,27 +12624,27 @@
         <v>16</v>
       </c>
       <c r="J305" s="3" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="306" spans="1:10">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" hidden="1">
       <c r="A306" s="4">
         <v>305</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E306" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F306" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="G306" s="2" t="s">
         <v>15</v>
@@ -12642,27 +12656,27 @@
         <v>16</v>
       </c>
       <c r="J306" s="3" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="307" spans="1:10">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10" hidden="1">
       <c r="A307" s="4">
         <v>306</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E307" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F307" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="G307" s="2" t="s">
         <v>15</v>
@@ -12674,7 +12688,7 @@
         <v>16</v>
       </c>
       <c r="J307" s="3" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="308" spans="1:10">
@@ -12682,13 +12696,13 @@
         <v>307</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E308" s="1" t="s">
         <v>28</v>
@@ -12706,27 +12720,27 @@
         <v>16</v>
       </c>
       <c r="J308" s="3" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="309" spans="1:10">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" hidden="1">
       <c r="A309" s="4">
         <v>308</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E309" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F309" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G309" s="2" t="s">
         <v>15</v>
@@ -12735,30 +12749,30 @@
         <v>45702</v>
       </c>
       <c r="I309" s="9" t="s">
+        <v>693</v>
+      </c>
+      <c r="J309" s="3" t="s">
         <v>694</v>
       </c>
-      <c r="J309" s="3" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="310" spans="1:10">
+    </row>
+    <row r="310" spans="1:10" hidden="1">
       <c r="A310" s="4">
         <v>309</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E310" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F310" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="G310" s="2" t="s">
         <v>15</v>
@@ -12767,30 +12781,30 @@
         <v>45702</v>
       </c>
       <c r="I310" s="9" t="s">
+        <v>693</v>
+      </c>
+      <c r="J310" s="3" t="s">
         <v>694</v>
       </c>
-      <c r="J310" s="3" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="311" spans="1:10">
+    </row>
+    <row r="311" spans="1:10" hidden="1">
       <c r="A311" s="4">
         <v>310</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E311" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F311" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="G311" s="2" t="s">
         <v>15</v>
@@ -12799,30 +12813,30 @@
         <v>45702</v>
       </c>
       <c r="I311" s="9" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="J311" s="3" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="312" spans="1:10">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10" hidden="1">
       <c r="A312" s="4">
         <v>311</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E312" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F312" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="G312" s="2" t="s">
         <v>15</v>
@@ -12834,27 +12848,27 @@
         <v>16</v>
       </c>
       <c r="J312" s="3" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="313" spans="1:10">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" hidden="1">
       <c r="A313" s="4">
         <v>312</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E313" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F313" s="1" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="G313" s="2" t="s">
         <v>15</v>
@@ -12863,30 +12877,30 @@
         <v>45726</v>
       </c>
       <c r="I313" s="9" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="J313" s="3" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="314" spans="1:10">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" hidden="1">
       <c r="A314" s="4">
         <v>313</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="E314" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F314" s="1" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="G314" s="2" t="s">
         <v>15</v>
@@ -12895,30 +12909,30 @@
         <v>45726</v>
       </c>
       <c r="I314" s="9" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="J314" s="3" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="315" spans="1:10">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="315" spans="1:10" hidden="1">
       <c r="A315" s="4">
         <v>314</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="E315" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F315" s="1" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="G315" s="2" t="s">
         <v>15</v>
@@ -12927,30 +12941,30 @@
         <v>45726</v>
       </c>
       <c r="I315" s="9" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="J315" s="3" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="316" spans="1:10">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" hidden="1">
       <c r="A316" s="4">
         <v>315</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="E316" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F316" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G316" s="2" t="s">
         <v>15</v>
@@ -12962,7 +12976,7 @@
         <v>16</v>
       </c>
       <c r="J316" s="3" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="317" spans="1:10">
@@ -12970,19 +12984,19 @@
         <v>316</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D317" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="E317" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F317" s="1" t="s">
         <v>704</v>
-      </c>
-      <c r="E317" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F317" s="1" t="s">
-        <v>705</v>
       </c>
       <c r="G317" s="2" t="s">
         <v>15</v>
@@ -12994,7 +13008,7 @@
         <v>16</v>
       </c>
       <c r="J317" s="3" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="318" spans="1:10">
@@ -13002,19 +13016,19 @@
         <v>317</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D318" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="E318" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F318" s="1" t="s">
         <v>704</v>
-      </c>
-      <c r="E318" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F318" s="1" t="s">
-        <v>705</v>
       </c>
       <c r="G318" s="2" t="s">
         <v>15</v>
@@ -13026,7 +13040,7 @@
         <v>16</v>
       </c>
       <c r="J318" s="3" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="319" spans="1:10">
@@ -13034,19 +13048,19 @@
         <v>318</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D319" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="E319" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F319" s="1" t="s">
         <v>704</v>
-      </c>
-      <c r="E319" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F319" s="1" t="s">
-        <v>705</v>
       </c>
       <c r="G319" s="2" t="s">
         <v>15</v>
@@ -13058,7 +13072,7 @@
         <v>16</v>
       </c>
       <c r="J319" s="3" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="320" spans="1:10">
@@ -13066,19 +13080,19 @@
         <v>319</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D320" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="E320" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F320" s="1" t="s">
         <v>704</v>
-      </c>
-      <c r="E320" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F320" s="1" t="s">
-        <v>705</v>
       </c>
       <c r="G320" s="2" t="s">
         <v>15</v>
@@ -13090,7 +13104,7 @@
         <v>16</v>
       </c>
       <c r="J320" s="3" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="321" spans="1:10">
@@ -13098,19 +13112,19 @@
         <v>320</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D321" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="E321" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F321" s="1" t="s">
         <v>704</v>
-      </c>
-      <c r="E321" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F321" s="1" t="s">
-        <v>705</v>
       </c>
       <c r="G321" s="2" t="s">
         <v>15</v>
@@ -13122,7 +13136,7 @@
         <v>16</v>
       </c>
       <c r="J321" s="3" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="322" spans="1:10">
@@ -13130,19 +13144,19 @@
         <v>321</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D322" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="E322" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F322" s="1" t="s">
         <v>704</v>
-      </c>
-      <c r="E322" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F322" s="1" t="s">
-        <v>705</v>
       </c>
       <c r="G322" s="2" t="s">
         <v>15</v>
@@ -13154,7 +13168,7 @@
         <v>16</v>
       </c>
       <c r="J322" s="3" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="323" spans="1:10">
@@ -13162,19 +13176,19 @@
         <v>322</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D323" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="E323" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F323" s="1" t="s">
         <v>704</v>
-      </c>
-      <c r="E323" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F323" s="1" t="s">
-        <v>705</v>
       </c>
       <c r="G323" s="2" t="s">
         <v>15</v>
@@ -13186,7 +13200,7 @@
         <v>16</v>
       </c>
       <c r="J323" s="3" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="324" spans="1:10">
@@ -13194,19 +13208,19 @@
         <v>323</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D324" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="E324" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F324" s="1" t="s">
         <v>704</v>
-      </c>
-      <c r="E324" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F324" s="1" t="s">
-        <v>705</v>
       </c>
       <c r="G324" s="2" t="s">
         <v>15</v>
@@ -13218,7 +13232,7 @@
         <v>16</v>
       </c>
       <c r="J324" s="3" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="325" spans="1:10">
@@ -13226,19 +13240,19 @@
         <v>324</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D325" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="E325" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F325" s="1" t="s">
         <v>704</v>
-      </c>
-      <c r="E325" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F325" s="1" t="s">
-        <v>705</v>
       </c>
       <c r="G325" s="2" t="s">
         <v>15</v>
@@ -13250,7 +13264,7 @@
         <v>16</v>
       </c>
       <c r="J325" s="3" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="326" spans="1:10">
@@ -13258,19 +13272,19 @@
         <v>325</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D326" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="E326" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F326" s="1" t="s">
         <v>704</v>
-      </c>
-      <c r="E326" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F326" s="1" t="s">
-        <v>705</v>
       </c>
       <c r="G326" s="2" t="s">
         <v>15</v>
@@ -13282,7 +13296,7 @@
         <v>16</v>
       </c>
       <c r="J326" s="3" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="327" spans="1:10">
@@ -13290,19 +13304,19 @@
         <v>326</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D327" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="E327" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F327" s="1" t="s">
         <v>704</v>
-      </c>
-      <c r="E327" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F327" s="1" t="s">
-        <v>705</v>
       </c>
       <c r="G327" s="2" t="s">
         <v>15</v>
@@ -13314,7 +13328,7 @@
         <v>16</v>
       </c>
       <c r="J327" s="3" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="328" spans="1:10">
@@ -13322,19 +13336,19 @@
         <v>327</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D328" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="E328" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F328" s="1" t="s">
         <v>704</v>
-      </c>
-      <c r="E328" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F328" s="1" t="s">
-        <v>705</v>
       </c>
       <c r="G328" s="2" t="s">
         <v>15</v>
@@ -13346,7 +13360,7 @@
         <v>16</v>
       </c>
       <c r="J328" s="3" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="329" spans="1:10">
@@ -13354,19 +13368,19 @@
         <v>328</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D329" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="E329" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F329" s="1" t="s">
         <v>704</v>
-      </c>
-      <c r="E329" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F329" s="1" t="s">
-        <v>705</v>
       </c>
       <c r="G329" s="2" t="s">
         <v>15</v>
@@ -13378,7 +13392,7 @@
         <v>16</v>
       </c>
       <c r="J329" s="3" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="330" spans="1:10">
@@ -13386,19 +13400,19 @@
         <v>329</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D330" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="E330" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F330" s="1" t="s">
         <v>704</v>
-      </c>
-      <c r="E330" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F330" s="1" t="s">
-        <v>705</v>
       </c>
       <c r="G330" s="2" t="s">
         <v>15</v>
@@ -13410,7 +13424,7 @@
         <v>16</v>
       </c>
       <c r="J330" s="3" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="331" spans="1:10">
@@ -13418,19 +13432,19 @@
         <v>330</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D331" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="E331" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F331" s="1" t="s">
         <v>704</v>
-      </c>
-      <c r="E331" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F331" s="1" t="s">
-        <v>705</v>
       </c>
       <c r="G331" s="2" t="s">
         <v>15</v>
@@ -13442,7 +13456,7 @@
         <v>16</v>
       </c>
       <c r="J331" s="3" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="332" spans="1:10">
@@ -13450,19 +13464,19 @@
         <v>331</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D332" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="E332" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F332" s="1" t="s">
         <v>704</v>
-      </c>
-      <c r="E332" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F332" s="1" t="s">
-        <v>705</v>
       </c>
       <c r="G332" s="2" t="s">
         <v>15</v>
@@ -13474,7 +13488,7 @@
         <v>16</v>
       </c>
       <c r="J332" s="3" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="333" spans="1:10">
@@ -13482,19 +13496,19 @@
         <v>332</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D333" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="E333" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F333" s="1" t="s">
         <v>704</v>
-      </c>
-      <c r="E333" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F333" s="1" t="s">
-        <v>705</v>
       </c>
       <c r="G333" s="2" t="s">
         <v>15</v>
@@ -13506,7 +13520,7 @@
         <v>16</v>
       </c>
       <c r="J333" s="3" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="334" spans="1:10">
@@ -13514,19 +13528,19 @@
         <v>333</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D334" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="E334" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F334" s="1" t="s">
         <v>704</v>
-      </c>
-      <c r="E334" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F334" s="1" t="s">
-        <v>705</v>
       </c>
       <c r="G334" s="2" t="s">
         <v>15</v>
@@ -13538,7 +13552,7 @@
         <v>16</v>
       </c>
       <c r="J334" s="3" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="335" spans="1:10">
@@ -13546,19 +13560,19 @@
         <v>334</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D335" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="E335" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F335" s="1" t="s">
         <v>704</v>
-      </c>
-      <c r="E335" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F335" s="1" t="s">
-        <v>705</v>
       </c>
       <c r="G335" s="2" t="s">
         <v>15</v>
@@ -13570,7 +13584,7 @@
         <v>16</v>
       </c>
       <c r="J335" s="3" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="336" spans="1:10">
@@ -13578,19 +13592,19 @@
         <v>335</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D336" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="E336" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F336" s="1" t="s">
         <v>704</v>
-      </c>
-      <c r="E336" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F336" s="1" t="s">
-        <v>705</v>
       </c>
       <c r="G336" s="2" t="s">
         <v>15</v>
@@ -13602,7 +13616,7 @@
         <v>16</v>
       </c>
       <c r="J336" s="3" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
   </sheetData>
@@ -13655,33 +13669,33 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>706</v>
+      </c>
+      <c r="B1" t="s">
         <v>707</v>
-      </c>
-      <c r="B1" t="s">
-        <v>708</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>708</v>
+      </c>
+      <c r="E1" t="s">
         <v>709</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>710</v>
-      </c>
-      <c r="F1" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
+        <v>711</v>
+      </c>
+      <c r="B2" t="s">
         <v>712</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>713</v>
-      </c>
-      <c r="C2" t="s">
-        <v>714</v>
       </c>
       <c r="D2">
         <v>1885</v>
@@ -13692,13 +13706,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>711</v>
+      </c>
+      <c r="B3" t="s">
         <v>712</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>713</v>
-      </c>
-      <c r="C3" t="s">
-        <v>714</v>
       </c>
       <c r="D3">
         <v>1880</v>
@@ -13709,13 +13723,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>711</v>
+      </c>
+      <c r="B4" t="s">
         <v>712</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>713</v>
-      </c>
-      <c r="C4" t="s">
-        <v>714</v>
       </c>
       <c r="D4">
         <v>1881</v>
@@ -13726,13 +13740,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
+        <v>711</v>
+      </c>
+      <c r="B5" t="s">
         <v>712</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>713</v>
-      </c>
-      <c r="C5" t="s">
-        <v>714</v>
       </c>
       <c r="D5">
         <v>1890</v>
@@ -13743,13 +13757,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
+        <v>711</v>
+      </c>
+      <c r="B6" t="s">
         <v>712</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>713</v>
-      </c>
-      <c r="C6" t="s">
-        <v>714</v>
       </c>
       <c r="D6">
         <v>1878</v>
@@ -13760,13 +13774,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
+        <v>711</v>
+      </c>
+      <c r="B7" t="s">
         <v>712</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>713</v>
-      </c>
-      <c r="C7" t="s">
-        <v>714</v>
       </c>
       <c r="D7">
         <v>1883</v>
@@ -13777,16 +13791,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
+        <v>711</v>
+      </c>
+      <c r="B8" t="s">
         <v>712</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>713</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" s="24" t="s">
         <v>714</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>715</v>
       </c>
       <c r="F8" s="23">
         <v>1</v>
@@ -13794,13 +13808,13 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
+        <v>711</v>
+      </c>
+      <c r="B9" t="s">
         <v>712</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>713</v>
-      </c>
-      <c r="C9" t="s">
-        <v>714</v>
       </c>
       <c r="D9">
         <v>1889</v>
@@ -13811,13 +13825,13 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
+        <v>711</v>
+      </c>
+      <c r="B10" t="s">
         <v>712</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>713</v>
-      </c>
-      <c r="C10" t="s">
-        <v>714</v>
       </c>
       <c r="D10">
         <v>1879</v>
@@ -13828,13 +13842,13 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
+        <v>711</v>
+      </c>
+      <c r="B11" t="s">
         <v>712</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>713</v>
-      </c>
-      <c r="C11" t="s">
-        <v>714</v>
       </c>
       <c r="D11">
         <v>1891</v>
@@ -13845,13 +13859,13 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
+        <v>711</v>
+      </c>
+      <c r="B12" t="s">
         <v>712</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>713</v>
-      </c>
-      <c r="C12" t="s">
-        <v>714</v>
       </c>
       <c r="D12">
         <v>1891</v>
@@ -13862,16 +13876,16 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
+        <v>711</v>
+      </c>
+      <c r="B13" t="s">
         <v>712</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>713</v>
       </c>
-      <c r="C13" t="s">
-        <v>714</v>
-      </c>
       <c r="D13" s="24" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F13" s="23">
         <v>1</v>
@@ -13879,13 +13893,13 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
+        <v>711</v>
+      </c>
+      <c r="B14" t="s">
         <v>712</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>713</v>
-      </c>
-      <c r="C14" t="s">
-        <v>714</v>
       </c>
       <c r="D14">
         <v>1894</v>
@@ -13896,19 +13910,19 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
+        <v>716</v>
+      </c>
+      <c r="B15" t="s">
         <v>717</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>718</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>719</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>720</v>
-      </c>
-      <c r="E15" t="s">
-        <v>721</v>
       </c>
       <c r="F15" s="23">
         <v>17</v>
@@ -13916,19 +13930,19 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B16" t="s">
+        <v>721</v>
+      </c>
+      <c r="C16" t="s">
         <v>722</v>
       </c>
-      <c r="C16" t="s">
-        <v>723</v>
-      </c>
       <c r="D16" t="s">
+        <v>719</v>
+      </c>
+      <c r="E16" t="s">
         <v>720</v>
-      </c>
-      <c r="E16" t="s">
-        <v>721</v>
       </c>
       <c r="F16" s="23">
         <v>4</v>
@@ -13936,19 +13950,19 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B17" t="s">
+        <v>723</v>
+      </c>
+      <c r="C17" t="s">
         <v>724</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>725</v>
       </c>
-      <c r="D17" t="s">
-        <v>726</v>
-      </c>
       <c r="E17" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F17" s="23">
         <v>45</v>
@@ -13956,19 +13970,19 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B18" t="s">
+        <v>723</v>
+      </c>
+      <c r="C18" t="s">
         <v>724</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>725</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>726</v>
-      </c>
-      <c r="E18" t="s">
-        <v>727</v>
       </c>
       <c r="F18" s="23">
         <v>12</v>
@@ -13976,19 +13990,19 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B19" t="s">
+        <v>723</v>
+      </c>
+      <c r="C19" t="s">
         <v>724</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>725</v>
       </c>
-      <c r="D19" t="s">
-        <v>726</v>
-      </c>
       <c r="E19" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F19" s="23">
         <v>14</v>
@@ -13996,19 +14010,19 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B20" t="s">
+        <v>723</v>
+      </c>
+      <c r="C20" t="s">
         <v>724</v>
       </c>
-      <c r="C20" t="s">
-        <v>725</v>
-      </c>
       <c r="D20" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E20" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F20" s="23">
         <v>4</v>
@@ -14016,19 +14030,19 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B21" t="s">
+        <v>723</v>
+      </c>
+      <c r="C21" t="s">
         <v>724</v>
       </c>
-      <c r="C21" t="s">
-        <v>725</v>
-      </c>
       <c r="D21" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E21" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F21" s="23">
         <v>6</v>
@@ -14036,19 +14050,19 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
+        <v>729</v>
+      </c>
+      <c r="B22" t="s">
         <v>730</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>731</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>732</v>
       </c>
-      <c r="D22" t="s">
-        <v>733</v>
-      </c>
       <c r="E22" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F22" s="23">
         <v>3</v>
@@ -14056,19 +14070,19 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
+        <v>733</v>
+      </c>
+      <c r="B23" t="s">
+        <v>730</v>
+      </c>
+      <c r="C23" t="s">
+        <v>731</v>
+      </c>
+      <c r="D23" t="s">
         <v>734</v>
       </c>
-      <c r="B23" t="s">
-        <v>731</v>
-      </c>
-      <c r="C23" t="s">
-        <v>732</v>
-      </c>
-      <c r="D23" t="s">
-        <v>735</v>
-      </c>
       <c r="E23" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F23" s="23">
         <v>14</v>
@@ -14076,19 +14090,19 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B24" t="s">
+        <v>730</v>
+      </c>
+      <c r="C24" t="s">
         <v>731</v>
       </c>
-      <c r="C24" t="s">
-        <v>732</v>
-      </c>
       <c r="D24" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E24" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F24" s="23">
         <v>13</v>
@@ -14096,19 +14110,19 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
+        <v>735</v>
+      </c>
+      <c r="B25" t="s">
+        <v>730</v>
+      </c>
+      <c r="C25" t="s">
+        <v>731</v>
+      </c>
+      <c r="D25" t="s">
         <v>736</v>
       </c>
-      <c r="B25" t="s">
-        <v>731</v>
-      </c>
-      <c r="C25" t="s">
-        <v>732</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>737</v>
-      </c>
-      <c r="E25" t="s">
-        <v>738</v>
       </c>
       <c r="F25" s="23">
         <v>2</v>
@@ -14116,19 +14130,19 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
+        <v>729</v>
+      </c>
+      <c r="B26" t="s">
         <v>730</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>731</v>
       </c>
-      <c r="C26" t="s">
-        <v>732</v>
-      </c>
       <c r="D26" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E26" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F26" s="23">
         <v>1</v>

--- a/data_printer.xlsx
+++ b/data_printer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GamErick\Desktop\Nova pasta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B180FB96-231A-49AA-BB96-6F2B9361AA44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49F418B-7094-4354-ACC1-5BACACB0FD8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A8AA41B5-7AA1-4FF7-A9B8-54B8A4E1AF28}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="estoque" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="DadosExternos_1" localSheetId="0" hidden="1">PRINTERS_INVENTORY!$A$1:$J$336</definedName>
+    <definedName name="DadosExternos_1" localSheetId="0" hidden="1">PRINTERS_INVENTORY!$A$1:$J$338</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2716" uniqueCount="763">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2733" uniqueCount="773">
   <si>
     <t>INDICE</t>
   </si>
@@ -1605,15 +1605,9 @@
     <t>SERIAL ERRADO</t>
   </si>
   <si>
-    <t>AK48047909</t>
-  </si>
-  <si>
     <t>SEMFAT-RESERVA-4</t>
   </si>
   <si>
-    <t>IMPRESTADA DO CEZAR ITABORAI / veio da central de copias arraial do cabo / entregue ao cesar /</t>
-  </si>
-  <si>
     <t>AK48048069</t>
   </si>
   <si>
@@ -1752,9 +1746,6 @@
     <t>TRIBUTOS</t>
   </si>
   <si>
-    <t>IMPRESSORA INSTALADA EM 17/10/2024 - SUBSTITUIU IMPRESSORA OKI 5502;</t>
-  </si>
-  <si>
     <t>U67030G3N135429</t>
   </si>
   <si>
@@ -2326,6 +2317,45 @@
   </si>
   <si>
     <t>IMPRESSORA INSTALADA EM 06/xx/2024 - SUBSTITUIU UMA DA MESMA QUE QUEIMOU COM PICO DE LUZ QUE TEVE NO DIA 04/01/2025;  RATIRADA 20/03/2025 HOSPITAL SÃO VICENTE;</t>
+  </si>
+  <si>
+    <t>EPSON ECOTANK L3251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADMINISTRAÇÃO - SECRETARIA </t>
+  </si>
+  <si>
+    <t>XAABJ99419</t>
+  </si>
+  <si>
+    <t>INSTALAÇÃO 26-03-25 IMPRESSORA NA CAIXA;</t>
+  </si>
+  <si>
+    <t>AK48047909AO</t>
+  </si>
+  <si>
+    <t>Imprestada para central de copias arraial do cabo; M-15-02-2025;</t>
+  </si>
+  <si>
+    <t>BROTHER DCP-1202</t>
+  </si>
+  <si>
+    <t>U63975H2N423609</t>
+  </si>
+  <si>
+    <t>INSTALAÇÃO IMPRESSORA NA CAIXA 28/03/2025;</t>
+  </si>
+  <si>
+    <t>IMPRESSORA INSTALADA EM 17/10/2024 - SUBSTITUIU IMPRESSORA OKI 5502; RETIRADA DO PAÇO TRIBUTOS 28/03/2025;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMPRESSORA INSTALADA EM 25/10/2024 - SUBSTITUIU IMPRESSORA OKI 5502; RETIRADA DO PAÇO DIVIDA ATIVA 28/03/2025; </t>
+  </si>
+  <si>
+    <t>COMSERV - MARICA</t>
+  </si>
+  <si>
+    <t>RETIRADA MERCADO ANDRADE 28/03/2025;</t>
   </si>
 </sst>
 </file>
@@ -2409,7 +2439,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2460,7 +2490,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2473,11 +2502,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="20">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2714,76 +2826,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2824,16 +2866,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C244623C-48DE-4D05-852C-6EFDD885ABE2}" name="Controle_Inventario_Impressoras" displayName="Controle_Inventario_Impressoras" ref="A1:J336" tableType="queryTable" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A1:J336" xr:uid="{C244623C-48DE-4D05-852C-6EFDD885ABE2}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="BROTHER DCP-L5512DN"/>
-      </filters>
-    </filterColumn>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C244623C-48DE-4D05-852C-6EFDD885ABE2}" name="Controle_Inventario_Impressoras" displayName="Controle_Inventario_Impressoras" ref="A1:J338" tableType="queryTable" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A1:J338" xr:uid="{C244623C-48DE-4D05-852C-6EFDD885ABE2}">
     <filterColumn colId="4">
       <filters>
-        <filter val="SOLAGOS DEPOSITO"/>
+        <filter val="PARTICULAR"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -2841,16 +2878,16 @@
     <sortCondition ref="A13"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{F8E3D681-C494-47F2-8429-052381C12AF1}" uniqueName="1" name="INDICE" queryTableFieldId="1" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{EE2E8FA5-A99D-4573-9868-408DB8FD4417}" uniqueName="2" name="MODELO" queryTableFieldId="2" dataDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{CB5196C0-CCA1-4329-825F-D71E0948A542}" uniqueName="11" name="TIPO" queryTableFieldId="16390" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{27BC8F35-CC2C-44A1-BAF7-B0390B09477F}" uniqueName="3" name="NUMERO DE SERIE" queryTableFieldId="3" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{552F7A6E-6277-4DC1-9CDA-EA7FDCCE8E36}" uniqueName="4" name="LOCALIZAÇÃO" queryTableFieldId="4" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{4C8345F1-6E01-4566-9030-039665486C03}" uniqueName="5" name="SETOR" queryTableFieldId="5" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{10436F87-F6F1-46C4-A81A-8D144AC72FDF}" uniqueName="9" name="EMPRESA" queryTableFieldId="16389" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{B7941BA2-3E1C-476B-A3C7-BA155A35A2D0}" uniqueName="6" name="ATUALIZADO" queryTableFieldId="6" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{4338F703-CE4B-4443-8A10-74F64ED8CD42}" uniqueName="7" name="PRINTWAY" queryTableFieldId="16391" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{02B7C1FB-8EA9-4F22-BCCF-3D1809FFEDCC}" uniqueName="8" name="OBSERVAÇÃO" queryTableFieldId="8" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{F8E3D681-C494-47F2-8429-052381C12AF1}" uniqueName="1" name="INDICE" queryTableFieldId="1" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{EE2E8FA5-A99D-4573-9868-408DB8FD4417}" uniqueName="2" name="MODELO" queryTableFieldId="2" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{CB5196C0-CCA1-4329-825F-D71E0948A542}" uniqueName="11" name="TIPO" queryTableFieldId="16390" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{27BC8F35-CC2C-44A1-BAF7-B0390B09477F}" uniqueName="3" name="NUMERO DE SERIE" queryTableFieldId="3" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{552F7A6E-6277-4DC1-9CDA-EA7FDCCE8E36}" uniqueName="4" name="LOCALIZAÇÃO" queryTableFieldId="4" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{4C8345F1-6E01-4566-9030-039665486C03}" uniqueName="5" name="SETOR" queryTableFieldId="5" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{10436F87-F6F1-46C4-A81A-8D144AC72FDF}" uniqueName="9" name="EMPRESA" queryTableFieldId="16389" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{B7941BA2-3E1C-476B-A3C7-BA155A35A2D0}" uniqueName="6" name="ATUALIZADO" queryTableFieldId="6" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{4338F703-CE4B-4443-8A10-74F64ED8CD42}" uniqueName="7" name="PRINTWAY" queryTableFieldId="16391" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{02B7C1FB-8EA9-4F22-BCCF-3D1809FFEDCC}" uniqueName="8" name="OBSERVAÇÃO" queryTableFieldId="8" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2865,7 +2902,7 @@
     <tableColumn id="3" xr3:uid="{95A3DCD3-FE19-4A74-9940-661D6BB94B25}" name="MODELO"/>
     <tableColumn id="4" xr3:uid="{521C03E5-7FA9-4789-8198-9E0781F3ABC7}" name="DESCRIÇÃO"/>
     <tableColumn id="5" xr3:uid="{579D81F0-AA4C-4609-BF35-AF838B2B149B}" name="COR"/>
-    <tableColumn id="6" xr3:uid="{19487D13-EF31-43DA-89CA-4AA1E1029C34}" name="QUANTIDADE" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{19487D13-EF31-43DA-89CA-4AA1E1029C34}" name="QUANTIDADE" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3168,10 +3205,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD39631B-97B8-405A-AA43-14CDFBC77F92}">
-  <dimension ref="A1:J336"/>
+  <dimension ref="A1:J338"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D294" sqref="D294"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="J230" sqref="J230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -3221,7 +3258,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" hidden="1">
+    <row r="2" spans="1:10">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -3253,7 +3290,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:10" hidden="1">
+    <row r="3" spans="1:10">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -3317,7 +3354,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:10" hidden="1">
+    <row r="5" spans="1:10">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -3366,7 +3403,7 @@
         <v>102</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>15</v>
@@ -3398,7 +3435,7 @@
         <v>102</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>15</v>
@@ -3618,7 +3655,7 @@
         <v>102</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>15</v>
@@ -3790,7 +3827,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:10" hidden="1">
+    <row r="20" spans="1:10">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -4229,7 +4266,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="1:10" hidden="1">
+    <row r="34" spans="1:10">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -4325,7 +4362,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:10" hidden="1">
+    <row r="37" spans="1:10">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -4450,7 +4487,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="1:10" hidden="1">
+    <row r="41" spans="1:10">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -5632,7 +5669,7 @@
         <v>198</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>199</v>
+        <v>28</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>200</v>
@@ -5774,7 +5811,7 @@
         <v>212</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>213</v>
@@ -5870,7 +5907,7 @@
         <v>222</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>199</v>
+        <v>28</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>223</v>
@@ -5960,7 +5997,7 @@
         <v>230</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>231</v>
@@ -6974,16 +7011,16 @@
         <v>278</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>32</v>
+        <v>568</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H123" s="9">
-        <v>45633</v>
+        <v>45744</v>
       </c>
       <c r="I123" s="1" t="s">
         <v>16</v>
@@ -7146,7 +7183,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="129" spans="1:10" hidden="1">
+    <row r="129" spans="1:10">
       <c r="A129" s="4">
         <v>128</v>
       </c>
@@ -7259,7 +7296,7 @@
         <v>28</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="G132" s="5" t="s">
         <v>15</v>
@@ -7271,7 +7308,7 @@
         <v>16</v>
       </c>
       <c r="J132" s="3" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
     </row>
     <row r="133" spans="1:10" hidden="1">
@@ -7657,31 +7694,31 @@
         <v>144</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>331</v>
+        <v>760</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D145" s="4" t="s">
-        <v>332</v>
+      <c r="D145" s="1" t="s">
+        <v>762</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>199</v>
+        <v>92</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G145" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H145" s="9">
-        <v>45663</v>
-      </c>
-      <c r="I145" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="G145" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H145" s="16">
+        <v>45742</v>
+      </c>
+      <c r="I145" s="16" t="s">
         <v>16</v>
       </c>
       <c r="J145" s="3" t="s">
-        <v>333</v>
+        <v>763</v>
       </c>
     </row>
     <row r="146" spans="1:10" hidden="1">
@@ -7689,31 +7726,31 @@
         <v>145</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="E146" s="4" t="s">
-        <v>28</v>
+        <v>332</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>199</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G146" s="5" t="s">
-        <v>15</v>
+        <v>32</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="H146" s="9">
-        <v>45698</v>
+        <v>45663</v>
       </c>
       <c r="I146" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J146" s="3" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="147" spans="1:10" hidden="1">
@@ -7721,31 +7758,31 @@
         <v>146</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>10</v>
+        <v>334</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D147" s="1" t="s">
-        <v>337</v>
+      <c r="D147" s="4" t="s">
+        <v>335</v>
       </c>
       <c r="E147" s="4" t="s">
         <v>28</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="G147" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H147" s="9">
-        <v>45729</v>
+        <v>45698</v>
       </c>
       <c r="I147" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J147" s="3" t="s">
-        <v>753</v>
+        <v>336</v>
       </c>
     </row>
     <row r="148" spans="1:10" hidden="1">
@@ -7753,60 +7790,60 @@
         <v>147</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>339</v>
+        <v>10</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>13</v>
+        <v>337</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>341</v>
+        <v>32</v>
       </c>
       <c r="G148" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H148" s="9">
-        <v>45643</v>
+        <v>45729</v>
       </c>
       <c r="I148" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="149" spans="1:10" hidden="1">
+      <c r="J148" s="3" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="4">
         <v>148</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>10</v>
+        <v>339</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D149" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="E149" s="4" t="s">
-        <v>28</v>
+      <c r="D149" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>69</v>
+        <v>341</v>
       </c>
       <c r="G149" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H149" s="9">
-        <v>45667</v>
+        <v>45643</v>
       </c>
       <c r="I149" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="J149" s="3" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="150" spans="1:10" hidden="1">
@@ -7820,25 +7857,25 @@
         <v>11</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E150" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F150" s="4" t="s">
+      <c r="F150" s="1" t="s">
         <v>69</v>
       </c>
       <c r="G150" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H150" s="6">
-        <v>45644</v>
-      </c>
-      <c r="I150" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J150" s="7" t="s">
-        <v>345</v>
+      <c r="H150" s="9">
+        <v>45667</v>
+      </c>
+      <c r="I150" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J150" s="3" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="151" spans="1:10" hidden="1">
@@ -7852,25 +7889,28 @@
         <v>11</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F151" s="1" t="s">
-        <v>347</v>
+        <v>28</v>
+      </c>
+      <c r="F151" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="G151" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H151" s="9">
-        <v>45642</v>
-      </c>
-      <c r="I151" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" hidden="1">
+      <c r="H151" s="6">
+        <v>45644</v>
+      </c>
+      <c r="I151" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J151" s="7" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="4">
         <v>151</v>
       </c>
@@ -7880,26 +7920,26 @@
       <c r="C152" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D152" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="E152" s="1" t="s">
+      <c r="D152" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="E152" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G152" s="5" t="s">
         <v>15</v>
       </c>
+      <c r="H152" s="9">
+        <v>45642</v>
+      </c>
       <c r="I152" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J152" s="3" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" hidden="1">
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="4">
         <v>152</v>
       </c>
@@ -7909,262 +7949,262 @@
       <c r="C153" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D153" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="E153" s="4" t="s">
+      <c r="D153" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="E153" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G153" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H153" s="9">
-        <v>45636</v>
-      </c>
       <c r="I153" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="154" spans="1:10" hidden="1">
+      <c r="J153" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="4">
         <v>153</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>294</v>
+        <v>10</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E154" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F154" s="4" t="s">
-        <v>354</v>
+      <c r="F154" s="1" t="s">
+        <v>352</v>
       </c>
       <c r="G154" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H154" s="4"/>
+      <c r="H154" s="9">
+        <v>45636</v>
+      </c>
       <c r="I154" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="155" spans="1:10" hidden="1">
+    <row r="155" spans="1:10">
       <c r="A155" s="4">
         <v>154</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>355</v>
+        <v>294</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D155" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="E155" s="1" t="s">
+      <c r="D155" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="E155" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F155" s="1" t="s">
-        <v>72</v>
+      <c r="F155" s="4" t="s">
+        <v>354</v>
       </c>
       <c r="G155" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H155" s="9">
-        <v>45698</v>
-      </c>
+      <c r="H155" s="4"/>
       <c r="I155" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J155" s="3" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" hidden="1">
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="4">
         <v>155</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D156" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="E156" s="4" t="s">
+      <c r="D156" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E156" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>360</v>
+        <v>72</v>
       </c>
       <c r="G156" s="5" t="s">
         <v>15</v>
       </c>
+      <c r="H156" s="9">
+        <v>45698</v>
+      </c>
       <c r="I156" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="157" spans="1:10" hidden="1">
+      <c r="J156" s="3" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="4">
         <v>156</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>112</v>
+        <v>11</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E157" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F157" s="4" t="s">
-        <v>14</v>
+      <c r="F157" s="1" t="s">
+        <v>360</v>
       </c>
       <c r="G157" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H157" s="6">
-        <v>45646</v>
+        <v>15</v>
       </c>
       <c r="I157" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J157" s="3" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10" hidden="1">
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="4">
         <v>157</v>
       </c>
-      <c r="B158" s="5" t="s">
-        <v>82</v>
+      <c r="B158" s="2" t="s">
+        <v>361</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F158" s="1" t="s">
-        <v>87</v>
+        <v>362</v>
+      </c>
+      <c r="E158" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F158" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="G158" s="5" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="H158" s="6">
-        <v>45652</v>
+        <v>45646</v>
       </c>
       <c r="I158" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J158" s="7" t="s">
-        <v>365</v>
+      <c r="J158" s="3" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="159" spans="1:10" hidden="1">
       <c r="A159" s="4">
         <v>158</v>
       </c>
-      <c r="B159" s="2" t="s">
-        <v>180</v>
+      <c r="B159" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="E159" s="4" t="s">
-        <v>13</v>
+        <v>364</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>367</v>
+        <v>87</v>
       </c>
       <c r="G159" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H159" s="9">
-        <v>45706</v>
+      <c r="H159" s="6">
+        <v>45652</v>
       </c>
       <c r="I159" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J159" s="3" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10" hidden="1">
+      <c r="J159" s="7" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="4">
         <v>159</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>369</v>
+        <v>180</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D160" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="E160" s="1" t="s">
+      <c r="D160" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="E160" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G160" s="5" t="s">
         <v>15</v>
       </c>
+      <c r="H160" s="9">
+        <v>45706</v>
+      </c>
       <c r="I160" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J160" s="3" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10" hidden="1">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" s="4">
         <v>160</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G161" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H161" s="9">
-        <v>45653</v>
+        <v>371</v>
+      </c>
+      <c r="G161" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="I161" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="J161" s="3" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="162" spans="1:10" hidden="1">
@@ -8172,87 +8212,84 @@
         <v>161</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>10</v>
+        <v>373</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="G162" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G162" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H162" s="9">
-        <v>45623</v>
+        <v>45653</v>
       </c>
       <c r="I162" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="163" spans="1:10" hidden="1">
+    <row r="163" spans="1:10">
       <c r="A163" s="4">
         <v>162</v>
       </c>
-      <c r="B163" s="5" t="s">
-        <v>240</v>
+      <c r="B163" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D163" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="E163" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="E163" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F163" s="4" t="s">
-        <v>378</v>
+      <c r="F163" s="1" t="s">
+        <v>376</v>
       </c>
       <c r="G163" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H163" s="4"/>
+      <c r="H163" s="9">
+        <v>45623</v>
+      </c>
       <c r="I163" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="164" spans="1:10" hidden="1">
+    <row r="164" spans="1:10">
       <c r="A164" s="4">
         <v>163</v>
       </c>
-      <c r="B164" s="2" t="s">
-        <v>320</v>
+      <c r="B164" s="5" t="s">
+        <v>240</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D164" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F164" s="1" t="s">
-        <v>380</v>
+      <c r="D164" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="E164" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F164" s="4" t="s">
+        <v>378</v>
       </c>
       <c r="G164" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H164" s="9">
-        <v>45653</v>
-      </c>
+      <c r="H164" s="4"/>
       <c r="I164" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="J164" s="3" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="165" spans="1:10" hidden="1">
@@ -8260,41 +8297,47 @@
         <v>164</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>382</v>
+        <v>320</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G165" s="5" t="s">
         <v>15</v>
       </c>
+      <c r="H165" s="9">
+        <v>45653</v>
+      </c>
       <c r="I165" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="166" spans="1:10" hidden="1">
+      <c r="J165" s="3" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" s="4">
         <v>165</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>44</v>
+        <v>382</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D166" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="E166" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="E166" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F166" s="1" t="s">
@@ -8307,30 +8350,27 @@
         <v>16</v>
       </c>
     </row>
-    <row r="167" spans="1:10" hidden="1">
+    <row r="167" spans="1:10">
       <c r="A167" s="4">
         <v>166</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>386</v>
+        <v>44</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D167" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="E167" s="1" t="s">
-        <v>36</v>
+      <c r="D167" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="E167" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G167" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="H167" s="9">
-        <v>45687</v>
       </c>
       <c r="I167" s="1" t="s">
         <v>16</v>
@@ -8347,7 +8387,7 @@
         <v>11</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>36</v>
@@ -8376,7 +8416,7 @@
         <v>11</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>36</v>
@@ -8405,7 +8445,7 @@
         <v>11</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>36</v>
@@ -8434,7 +8474,7 @@
         <v>11</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>36</v>
@@ -8463,7 +8503,7 @@
         <v>11</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>36</v>
@@ -8492,7 +8532,7 @@
         <v>11</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>36</v>
@@ -8521,7 +8561,7 @@
         <v>11</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E174" s="1" t="s">
         <v>36</v>
@@ -8550,7 +8590,7 @@
         <v>11</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E175" s="1" t="s">
         <v>36</v>
@@ -8579,7 +8619,7 @@
         <v>11</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>36</v>
@@ -8608,7 +8648,7 @@
         <v>11</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E177" s="1" t="s">
         <v>36</v>
@@ -8637,7 +8677,7 @@
         <v>11</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E178" s="1" t="s">
         <v>36</v>
@@ -8666,7 +8706,7 @@
         <v>11</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E179" s="1" t="s">
         <v>36</v>
@@ -8695,7 +8735,7 @@
         <v>11</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E180" s="1" t="s">
         <v>36</v>
@@ -8724,7 +8764,7 @@
         <v>11</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E181" s="1" t="s">
         <v>36</v>
@@ -8753,7 +8793,7 @@
         <v>11</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E182" s="1" t="s">
         <v>36</v>
@@ -8782,7 +8822,7 @@
         <v>11</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E183" s="1" t="s">
         <v>36</v>
@@ -8811,7 +8851,7 @@
         <v>11</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>36</v>
@@ -8840,7 +8880,7 @@
         <v>11</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>36</v>
@@ -8869,7 +8909,7 @@
         <v>11</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E186" s="1" t="s">
         <v>36</v>
@@ -8898,7 +8938,7 @@
         <v>11</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E187" s="1" t="s">
         <v>36</v>
@@ -8921,27 +8961,27 @@
         <v>187</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>409</v>
+        <v>386</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G188" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="G188" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H188" s="9">
         <v>45687</v>
       </c>
-      <c r="I188" s="9" t="s">
+      <c r="I188" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -8956,73 +8996,74 @@
         <v>11</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E189" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G189" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G189" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H189" s="9">
-        <v>45652</v>
-      </c>
-      <c r="I189" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J189" s="3" t="s">
-        <v>412</v>
+        <v>45687</v>
+      </c>
+      <c r="I189" s="9" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="190" spans="1:10" hidden="1">
       <c r="A190" s="4">
         <v>189</v>
       </c>
-      <c r="B190" s="3" t="s">
-        <v>413</v>
+      <c r="B190" s="2" t="s">
+        <v>409</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="E190" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F190" s="4" t="s">
-        <v>415</v>
+        <v>411</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="G190" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H190" s="4"/>
-      <c r="I190" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J190" s="7"/>
+      <c r="H190" s="9">
+        <v>45652</v>
+      </c>
+      <c r="I190" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J190" s="3" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="191" spans="1:10" hidden="1">
       <c r="A191" s="4">
         <v>190</v>
       </c>
-      <c r="B191" s="5" t="s">
-        <v>140</v>
+      <c r="B191" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D191" s="4" t="s">
-        <v>416</v>
+      <c r="D191" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="E191" s="4" t="s">
         <v>92</v>
       </c>
       <c r="F191" s="4" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G191" s="5" t="s">
         <v>15</v>
@@ -9031,25 +9072,26 @@
       <c r="I191" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="J191" s="7"/>
     </row>
     <row r="192" spans="1:10" hidden="1">
       <c r="A192" s="4">
         <v>191</v>
       </c>
-      <c r="B192" s="2" t="s">
-        <v>90</v>
+      <c r="B192" s="5" t="s">
+        <v>140</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E192" s="4" t="s">
         <v>92</v>
       </c>
       <c r="F192" s="4" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="G192" s="5" t="s">
         <v>15</v>
@@ -9063,20 +9105,20 @@
       <c r="A193" s="4">
         <v>192</v>
       </c>
-      <c r="B193" s="3" t="s">
-        <v>420</v>
+      <c r="B193" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="E193" s="4" t="s">
         <v>92</v>
       </c>
       <c r="F193" s="4" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G193" s="5" t="s">
         <v>15</v>
@@ -9084,9 +9126,6 @@
       <c r="H193" s="4"/>
       <c r="I193" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="J193" s="7" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="194" spans="1:10" hidden="1">
@@ -9094,31 +9133,29 @@
         <v>193</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>44</v>
+        <v>420</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="E194" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F194" s="1" t="s">
-        <v>749</v>
+        <v>421</v>
+      </c>
+      <c r="E194" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F194" s="4" t="s">
+        <v>422</v>
       </c>
       <c r="G194" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H194" s="9">
-        <v>45649</v>
-      </c>
-      <c r="I194" s="1" t="s">
+      <c r="H194" s="4"/>
+      <c r="I194" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J194" s="7" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="195" spans="1:10" hidden="1">
@@ -9132,13 +9169,13 @@
         <v>11</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>29</v>
+        <v>746</v>
       </c>
       <c r="G195" s="5" t="s">
         <v>15</v>
@@ -9149,8 +9186,8 @@
       <c r="I195" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J195" s="8" t="s">
-        <v>427</v>
+      <c r="J195" s="7" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="196" spans="1:10" hidden="1">
@@ -9158,63 +9195,63 @@
         <v>195</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E196" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="G196" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H196" s="6">
-        <v>45652</v>
+      <c r="H196" s="9">
+        <v>45649</v>
       </c>
       <c r="I196" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J196" s="7" t="s">
-        <v>429</v>
+      <c r="J196" s="8" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="197" spans="1:10" hidden="1">
       <c r="A197" s="4">
         <v>196</v>
       </c>
-      <c r="B197" s="2" t="s">
-        <v>10</v>
+      <c r="B197" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D197" s="1" t="s">
-        <v>430</v>
+      <c r="D197" s="4" t="s">
+        <v>428</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>431</v>
+        <v>87</v>
       </c>
       <c r="G197" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H197" s="9">
-        <v>45714</v>
+      <c r="H197" s="6">
+        <v>45652</v>
       </c>
       <c r="I197" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J197" s="3" t="s">
-        <v>432</v>
+      <c r="J197" s="7" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="198" spans="1:10" hidden="1">
@@ -9222,31 +9259,31 @@
         <v>197</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G198" s="2" t="s">
-        <v>42</v>
+        <v>431</v>
+      </c>
+      <c r="G198" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="H198" s="9">
-        <v>45707</v>
+        <v>45714</v>
       </c>
       <c r="I198" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J198" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="199" spans="1:10" hidden="1">
@@ -9260,25 +9297,25 @@
         <v>11</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="E199" s="4" t="s">
-        <v>28</v>
+        <v>433</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G199" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H199" s="9">
-        <v>45625</v>
+        <v>45707</v>
       </c>
       <c r="I199" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J199" s="3" t="s">
-        <v>758</v>
+        <v>434</v>
       </c>
     </row>
     <row r="200" spans="1:10" hidden="1">
@@ -9286,31 +9323,31 @@
         <v>199</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="E200" s="1" t="s">
-        <v>28</v>
+        <v>435</v>
+      </c>
+      <c r="E200" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G200" s="5" t="s">
-        <v>15</v>
+        <v>93</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="H200" s="9">
-        <v>45653</v>
+        <v>45744</v>
       </c>
       <c r="I200" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J200" s="3" t="s">
-        <v>438</v>
+        <v>755</v>
       </c>
     </row>
     <row r="201" spans="1:10" hidden="1">
@@ -9324,25 +9361,25 @@
         <v>11</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>440</v>
+        <v>29</v>
       </c>
       <c r="G201" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H201" s="9">
-        <v>45705</v>
+        <v>45653</v>
       </c>
       <c r="I201" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J201" s="3" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="202" spans="1:10" hidden="1">
@@ -9356,25 +9393,25 @@
         <v>11</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>29</v>
+        <v>440</v>
       </c>
       <c r="G202" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H202" s="9">
-        <v>45652</v>
+        <v>45705</v>
       </c>
       <c r="I202" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J202" s="3" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="203" spans="1:10" hidden="1">
@@ -9388,25 +9425,25 @@
         <v>11</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E203" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G203" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H203" s="9">
-        <v>45709</v>
+        <v>45652</v>
       </c>
       <c r="I203" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J203" s="3" t="s">
-        <v>748</v>
+        <v>443</v>
       </c>
     </row>
     <row r="204" spans="1:10" hidden="1">
@@ -9414,45 +9451,45 @@
         <v>203</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E204" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="G204" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H204" s="9">
-        <v>45652</v>
+        <v>45709</v>
       </c>
       <c r="I204" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J204" s="3" t="s">
-        <v>447</v>
+        <v>745</v>
       </c>
     </row>
     <row r="205" spans="1:10" hidden="1">
       <c r="A205" s="4">
         <v>204</v>
       </c>
-      <c r="B205" s="5" t="s">
-        <v>44</v>
+      <c r="B205" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E205" s="1" t="s">
         <v>28</v>
@@ -9464,27 +9501,27 @@
         <v>15</v>
       </c>
       <c r="H205" s="9">
-        <v>45653</v>
+        <v>45652</v>
       </c>
       <c r="I205" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J205" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="206" spans="1:10" hidden="1">
       <c r="A206" s="4">
         <v>205</v>
       </c>
-      <c r="B206" s="2" t="s">
+      <c r="B206" s="5" t="s">
         <v>44</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E206" s="1" t="s">
         <v>28</v>
@@ -9496,13 +9533,13 @@
         <v>15</v>
       </c>
       <c r="H206" s="9">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="I206" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J206" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="207" spans="1:10" hidden="1">
@@ -9516,25 +9553,25 @@
         <v>11</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>453</v>
+        <v>69</v>
       </c>
       <c r="G207" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H207" s="9">
-        <v>45622</v>
+        <v>45652</v>
       </c>
       <c r="I207" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J207" s="3" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="208" spans="1:10" hidden="1">
@@ -9548,25 +9585,25 @@
         <v>11</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>69</v>
+        <v>453</v>
       </c>
       <c r="G208" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H208" s="9">
-        <v>45649</v>
-      </c>
-      <c r="I208" s="9" t="s">
+        <v>45622</v>
+      </c>
+      <c r="I208" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J208" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="209" spans="1:10" hidden="1">
@@ -9580,7 +9617,7 @@
         <v>11</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E209" s="1" t="s">
         <v>28</v>
@@ -9592,13 +9629,13 @@
         <v>15</v>
       </c>
       <c r="H209" s="9">
-        <v>45652</v>
-      </c>
-      <c r="I209" s="1" t="s">
+        <v>45649</v>
+      </c>
+      <c r="I209" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J209" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="210" spans="1:10" hidden="1">
@@ -9612,25 +9649,25 @@
         <v>11</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>460</v>
+        <v>69</v>
       </c>
       <c r="G210" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H210" s="9">
-        <v>45545</v>
+        <v>45652</v>
       </c>
       <c r="I210" s="1" t="s">
-        <v>461</v>
+        <v>16</v>
       </c>
       <c r="J210" s="3" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="211" spans="1:10" hidden="1">
@@ -9644,25 +9681,25 @@
         <v>11</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>69</v>
+        <v>460</v>
       </c>
       <c r="G211" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H211" s="9">
-        <v>45652</v>
+        <v>45545</v>
       </c>
       <c r="I211" s="1" t="s">
-        <v>16</v>
+        <v>461</v>
       </c>
       <c r="J211" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="212" spans="1:10" hidden="1">
@@ -9676,25 +9713,25 @@
         <v>11</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E212" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="G212" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H212" s="9">
-        <v>45649</v>
+        <v>45652</v>
       </c>
       <c r="I212" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J212" s="3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="213" spans="1:10" hidden="1">
@@ -9708,7 +9745,7 @@
         <v>11</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E213" s="1" t="s">
         <v>28</v>
@@ -9726,7 +9763,7 @@
         <v>16</v>
       </c>
       <c r="J213" s="3" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="214" spans="1:10" hidden="1">
@@ -9739,26 +9776,26 @@
       <c r="C214" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D214" s="18" t="s">
-        <v>469</v>
+      <c r="D214" s="1" t="s">
+        <v>467</v>
       </c>
       <c r="E214" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G214" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H214" s="9">
-        <v>45636</v>
+        <v>45649</v>
       </c>
       <c r="I214" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J214" s="3" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="215" spans="1:10" hidden="1">
@@ -9766,31 +9803,31 @@
         <v>214</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D215" s="1" t="s">
-        <v>471</v>
+      <c r="D215" s="18" t="s">
+        <v>469</v>
       </c>
       <c r="E215" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="G215" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H215" s="9">
-        <v>45652</v>
+        <v>45636</v>
       </c>
       <c r="I215" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J215" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="216" spans="1:10" hidden="1">
@@ -9804,25 +9841,25 @@
         <v>11</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>436</v>
+        <v>69</v>
       </c>
       <c r="G216" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H216" s="9">
-        <v>45649</v>
+        <v>45652</v>
       </c>
       <c r="I216" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J216" s="3" t="s">
-        <v>757</v>
+        <v>472</v>
       </c>
     </row>
     <row r="217" spans="1:10" hidden="1">
@@ -9830,25 +9867,31 @@
         <v>216</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>323</v>
+        <v>67</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>112</v>
+        <v>11</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E217" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>475</v>
+        <v>436</v>
       </c>
       <c r="G217" s="5" t="s">
         <v>15</v>
       </c>
+      <c r="H217" s="9">
+        <v>45649</v>
+      </c>
       <c r="I217" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="J217" s="3" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="218" spans="1:10" hidden="1">
@@ -9856,31 +9899,25 @@
         <v>217</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>44</v>
+        <v>323</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>69</v>
+        <v>475</v>
       </c>
       <c r="G218" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H218" s="9">
-        <v>45667</v>
-      </c>
       <c r="I218" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="J218" s="3" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="219" spans="1:10" hidden="1">
@@ -9888,25 +9925,31 @@
         <v>218</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>479</v>
+        <v>28</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>480</v>
+        <v>69</v>
       </c>
       <c r="G219" s="5" t="s">
         <v>15</v>
       </c>
+      <c r="H219" s="9">
+        <v>45667</v>
+      </c>
       <c r="I219" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="J219" s="3" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="220" spans="1:10" hidden="1">
@@ -9914,31 +9957,25 @@
         <v>219</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>28</v>
+        <v>479</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>29</v>
+        <v>480</v>
       </c>
       <c r="G220" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H220" s="9">
-        <v>45649</v>
-      </c>
       <c r="I220" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="J220" s="3" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="221" spans="1:10" hidden="1">
@@ -9952,22 +9989,25 @@
         <v>11</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E221" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="G221" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H221" s="9">
-        <v>45652</v>
+        <v>45649</v>
       </c>
       <c r="I221" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="J221" s="3" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="222" spans="1:10" hidden="1">
@@ -9981,7 +10021,7 @@
         <v>11</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E222" s="1" t="s">
         <v>28</v>
@@ -9997,9 +10037,6 @@
       </c>
       <c r="I222" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="J222" s="3" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="223" spans="1:10" hidden="1">
@@ -10012,25 +10049,27 @@
       <c r="C223" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D223" s="4" t="s">
-        <v>486</v>
+      <c r="D223" s="1" t="s">
+        <v>484</v>
       </c>
       <c r="E223" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="G223" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H223" s="6">
+      <c r="H223" s="9">
         <v>45652</v>
       </c>
       <c r="I223" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J223" s="7"/>
+      <c r="J223" s="3" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="224" spans="1:10" hidden="1">
       <c r="A224" s="4">
@@ -10043,26 +10082,24 @@
         <v>11</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>488</v>
+        <v>29</v>
       </c>
       <c r="G224" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H224" s="6">
-        <v>45665</v>
+        <v>45652</v>
       </c>
       <c r="I224" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J224" s="7" t="s">
-        <v>489</v>
-      </c>
+      <c r="J224" s="7"/>
     </row>
     <row r="225" spans="1:10" hidden="1">
       <c r="A225" s="4">
@@ -10075,25 +10112,25 @@
         <v>11</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>29</v>
+        <v>488</v>
       </c>
       <c r="G225" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H225" s="6">
-        <v>45652</v>
+        <v>45665</v>
       </c>
       <c r="I225" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J225" s="7" t="s">
-        <v>303</v>
+        <v>489</v>
       </c>
     </row>
     <row r="226" spans="1:10" hidden="1">
@@ -10101,13 +10138,13 @@
         <v>225</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D226" s="1" t="s">
-        <v>491</v>
+      <c r="D226" s="4" t="s">
+        <v>490</v>
       </c>
       <c r="E226" s="1" t="s">
         <v>28</v>
@@ -10118,28 +10155,28 @@
       <c r="G226" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H226" s="9">
-        <v>45649</v>
+      <c r="H226" s="6">
+        <v>45652</v>
       </c>
       <c r="I226" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J226" s="3" t="s">
-        <v>492</v>
+      <c r="J226" s="7" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="227" spans="1:10" hidden="1">
       <c r="A227" s="4">
         <v>226</v>
       </c>
-      <c r="B227" s="19" t="s">
+      <c r="B227" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E227" s="1" t="s">
         <v>28</v>
@@ -10151,45 +10188,45 @@
         <v>15</v>
       </c>
       <c r="H227" s="9">
-        <v>45652</v>
+        <v>45649</v>
       </c>
       <c r="I227" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J227" s="3" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="228" spans="1:10" hidden="1">
       <c r="A228" s="4">
         <v>227</v>
       </c>
-      <c r="B228" s="2" t="s">
-        <v>44</v>
+      <c r="B228" s="19" t="s">
+        <v>67</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D228" s="4" t="s">
-        <v>495</v>
+      <c r="D228" s="1" t="s">
+        <v>493</v>
       </c>
       <c r="E228" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="G228" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H228" s="6">
+      <c r="H228" s="9">
         <v>45652</v>
       </c>
       <c r="I228" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J228" s="8" t="s">
-        <v>496</v>
+      <c r="J228" s="3" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="229" spans="1:10" hidden="1">
@@ -10197,98 +10234,98 @@
         <v>228</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>497</v>
+        <v>44</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D229" s="14" t="s">
-        <v>498</v>
-      </c>
-      <c r="E229" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F229" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G229" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H229" s="16">
-        <v>45705</v>
+      <c r="D229" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F229" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G229" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H229" s="6">
+        <v>45652</v>
       </c>
       <c r="I229" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J229" s="20"/>
-    </row>
-    <row r="230" spans="1:10" hidden="1">
+      <c r="J229" s="8" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10">
       <c r="A230" s="4">
         <v>229</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D230" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="E230" s="1" t="s">
-        <v>28</v>
+      <c r="D230" s="14" t="s">
+        <v>498</v>
+      </c>
+      <c r="E230" s="14" t="s">
+        <v>13</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G230" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H230" s="9">
-        <v>45652</v>
+        <v>771</v>
+      </c>
+      <c r="G230" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H230" s="16">
+        <v>45705</v>
       </c>
       <c r="I230" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J230" s="3" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="231" spans="1:10" hidden="1">
-      <c r="A231" s="4">
-        <v>230</v>
-      </c>
+      <c r="J230" s="8" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10">
+      <c r="A231" s="24"/>
       <c r="B231" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D231" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="E231" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F231" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G231" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H231" s="9">
-        <v>45652</v>
-      </c>
-      <c r="I231" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J231" s="3" t="s">
-        <v>503</v>
+        <v>766</v>
+      </c>
+      <c r="C231" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D231" s="27" t="s">
+        <v>767</v>
+      </c>
+      <c r="E231" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F231" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G231" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H231" s="26">
+        <v>45744</v>
+      </c>
+      <c r="I231" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="J231" s="28" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="232" spans="1:10" hidden="1">
       <c r="A232" s="4">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B232" s="2" t="s">
         <v>499</v>
@@ -10297,7 +10334,7 @@
         <v>11</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="E232" s="1" t="s">
         <v>28</v>
@@ -10315,253 +10352,256 @@
         <v>16</v>
       </c>
       <c r="J232" s="3" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="233" spans="1:10" hidden="1">
       <c r="A233" s="4">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>50</v>
+        <v>499</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>51</v>
+        <v>502</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="G233" s="2" t="s">
-        <v>21</v>
+        <v>29</v>
+      </c>
+      <c r="G233" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="H233" s="9">
-        <v>45624</v>
-      </c>
-      <c r="I233" s="9" t="s">
+        <v>45652</v>
+      </c>
+      <c r="I233" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J233" s="3" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="234" spans="1:10" hidden="1">
       <c r="A234" s="4">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="E234" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G234" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G234" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H234" s="9">
-        <v>45653</v>
-      </c>
-      <c r="I234" s="9" t="s">
-        <v>16</v>
+        <v>45652</v>
+      </c>
+      <c r="I234" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J234" s="3" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="235" spans="1:10" hidden="1">
       <c r="A235" s="4">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>510</v>
+        <v>50</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>112</v>
+        <v>11</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>511</v>
+        <v>51</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>479</v>
+        <v>21</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="G235" s="5" t="s">
-        <v>15</v>
+        <v>506</v>
+      </c>
+      <c r="G235" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H235" s="9">
+        <v>45624</v>
       </c>
       <c r="I235" s="9" t="s">
         <v>16</v>
+      </c>
+      <c r="J235" s="3" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="236" spans="1:10" hidden="1">
       <c r="A236" s="4">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>112</v>
+        <v>11</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>199</v>
+        <v>28</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="H236" s="9">
-        <v>45631</v>
-      </c>
-      <c r="I236" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J236" s="3" t="s">
-        <v>515</v>
+        <v>45653</v>
+      </c>
+      <c r="I236" s="9" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="237" spans="1:10" hidden="1">
       <c r="A237" s="4">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>28</v>
+        <v>479</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>32</v>
+        <v>512</v>
       </c>
       <c r="G237" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H237" s="9">
-        <v>45705</v>
-      </c>
-      <c r="I237" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J237" s="3" t="s">
-        <v>518</v>
+      <c r="I237" s="9" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="238" spans="1:10" hidden="1">
       <c r="A238" s="4">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>38</v>
+        <v>513</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>520</v>
+        <v>32</v>
       </c>
       <c r="G238" s="2" t="s">
         <v>42</v>
       </c>
+      <c r="H238" s="9">
+        <v>45631</v>
+      </c>
       <c r="I238" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J238" s="3" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
     </row>
     <row r="239" spans="1:10" hidden="1">
       <c r="A239" s="4">
-        <v>238</v>
-      </c>
-      <c r="B239" s="10" t="s">
-        <v>38</v>
+        <v>237</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>516</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D239" s="21" t="s">
-        <v>522</v>
+      <c r="D239" s="1" t="s">
+        <v>517</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>203</v>
+        <v>28</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="G239" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
+      </c>
+      <c r="G239" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="H239" s="9">
-        <v>45638</v>
+        <v>45705</v>
       </c>
       <c r="I239" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J239" s="3" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="240" spans="1:10" hidden="1">
       <c r="A240" s="4">
-        <v>239</v>
-      </c>
-      <c r="B240" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="B240" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D240" s="21" t="s">
-        <v>525</v>
+      <c r="D240" s="1" t="s">
+        <v>519</v>
       </c>
       <c r="E240" s="1" t="s">
         <v>203</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="G240" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H240" s="9">
-        <v>45638</v>
-      </c>
       <c r="I240" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="J240" s="3" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="241" spans="1:10" hidden="1">
       <c r="A241" s="4">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B241" s="10" t="s">
         <v>38</v>
@@ -10569,46 +10609,52 @@
       <c r="C241" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D241" s="21" t="s">
-        <v>527</v>
+      <c r="D241" s="20" t="s">
+        <v>764</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>203</v>
+        <v>28</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="G241" s="2" t="s">
         <v>42</v>
       </c>
+      <c r="H241" s="9">
+        <v>45638</v>
+      </c>
       <c r="I241" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J241" s="3" t="s">
-        <v>529</v>
+        <v>765</v>
       </c>
     </row>
     <row r="242" spans="1:10" hidden="1">
       <c r="A242" s="4">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B242" s="10" t="s">
-        <v>361</v>
+        <v>38</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D242" s="21" t="s">
-        <v>530</v>
+        <v>11</v>
+      </c>
+      <c r="D242" s="20" t="s">
+        <v>523</v>
       </c>
       <c r="E242" s="1" t="s">
         <v>203</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="G242" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="G242" s="2" t="s">
         <v>42</v>
+      </c>
+      <c r="H242" s="9">
+        <v>45638</v>
       </c>
       <c r="I242" s="1" t="s">
         <v>16</v>
@@ -10616,240 +10662,231 @@
     </row>
     <row r="243" spans="1:10" hidden="1">
       <c r="A243" s="4">
-        <v>242</v>
-      </c>
-      <c r="B243" s="2" t="s">
-        <v>127</v>
+        <v>241</v>
+      </c>
+      <c r="B243" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D243" s="1" t="s">
-        <v>531</v>
+        <v>11</v>
+      </c>
+      <c r="D243" s="20" t="s">
+        <v>525</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>21</v>
+        <v>203</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="G243" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H243" s="9">
-        <v>45643</v>
+        <v>526</v>
+      </c>
+      <c r="G243" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="I243" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J243" s="3" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
     </row>
     <row r="244" spans="1:10" hidden="1">
       <c r="A244" s="4">
-        <v>243</v>
-      </c>
-      <c r="B244" s="2" t="s">
-        <v>323</v>
+        <v>242</v>
+      </c>
+      <c r="B244" s="10" t="s">
+        <v>361</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D244" s="1" t="s">
-        <v>534</v>
+      <c r="D244" s="20" t="s">
+        <v>528</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>92</v>
+        <v>203</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>535</v>
+        <v>512</v>
       </c>
       <c r="G244" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H244" s="9">
-        <v>45622</v>
-      </c>
-      <c r="I244" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J244" s="3" t="s">
-        <v>536</v>
+        <v>42</v>
+      </c>
+      <c r="I244" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="245" spans="1:10" hidden="1">
       <c r="A245" s="4">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>44</v>
+        <v>127</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>69</v>
+        <v>530</v>
       </c>
       <c r="G245" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H245" s="9">
-        <v>45652</v>
+        <v>45643</v>
       </c>
       <c r="I245" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J245" s="3" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
     </row>
     <row r="246" spans="1:10" hidden="1">
       <c r="A246" s="4">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>539</v>
+        <v>323</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>32</v>
+        <v>533</v>
       </c>
       <c r="G246" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H246" s="9">
-        <v>45632</v>
-      </c>
-      <c r="I246" s="1" t="s">
+        <v>45622</v>
+      </c>
+      <c r="I246" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J246" s="3" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
     </row>
     <row r="247" spans="1:10" hidden="1">
       <c r="A247" s="4">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>539</v>
+        <v>44</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="G247" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H247" s="9">
-        <v>45624</v>
-      </c>
-      <c r="I247" s="9" t="s">
-        <v>217</v>
+        <v>45652</v>
+      </c>
+      <c r="I247" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="J247" s="3" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
     </row>
     <row r="248" spans="1:10" hidden="1">
       <c r="A248" s="4">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B248" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F248" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G248" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H248" s="9">
+        <v>45632</v>
+      </c>
+      <c r="I248" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J248" s="3" t="s">
         <v>539</v>
-      </c>
-      <c r="C248" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D248" s="18" t="s">
-        <v>544</v>
-      </c>
-      <c r="E248" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F248" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G248" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H248" s="9">
-        <v>45624</v>
-      </c>
-      <c r="I248" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="J248" s="3" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="249" spans="1:10" hidden="1">
       <c r="A249" s="4">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>199</v>
+        <v>40</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G249" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H249" s="9">
-        <v>45588</v>
-      </c>
-      <c r="I249" s="1" t="s">
-        <v>16</v>
+        <v>45624</v>
+      </c>
+      <c r="I249" s="9" t="s">
+        <v>217</v>
       </c>
       <c r="J249" s="3" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
     </row>
     <row r="250" spans="1:10" hidden="1">
       <c r="A250" s="4">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D250" s="18" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="E250" s="1" t="s">
         <v>40</v>
@@ -10867,376 +10904,376 @@
         <v>217</v>
       </c>
       <c r="J250" s="3" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
     </row>
     <row r="251" spans="1:10" hidden="1">
       <c r="A251" s="4">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>44</v>
+        <v>537</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>28</v>
+        <v>199</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G251" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H251" s="9">
-        <v>45652</v>
+        <v>45588</v>
       </c>
       <c r="I251" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J251" s="3" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
     </row>
     <row r="252" spans="1:10" hidden="1">
       <c r="A252" s="4">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>44</v>
+        <v>537</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D252" s="1" t="s">
-        <v>551</v>
+      <c r="D252" s="18" t="s">
+        <v>545</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>445</v>
+        <v>41</v>
       </c>
       <c r="G252" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H252" s="9">
-        <v>45649</v>
-      </c>
-      <c r="I252" s="1" t="s">
-        <v>16</v>
+        <v>45624</v>
+      </c>
+      <c r="I252" s="9" t="s">
+        <v>217</v>
       </c>
       <c r="J252" s="3" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
     </row>
     <row r="253" spans="1:10" hidden="1">
       <c r="A253" s="4">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>553</v>
+        <v>44</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>112</v>
+        <v>11</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="E253" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G253" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H253" s="9">
-        <v>45734</v>
+        <v>45652</v>
       </c>
       <c r="I253" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J253" s="3" t="s">
-        <v>755</v>
+        <v>548</v>
       </c>
     </row>
     <row r="254" spans="1:10" hidden="1">
       <c r="A254" s="4">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>555</v>
+        <v>44</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>557</v>
+        <v>445</v>
       </c>
       <c r="G254" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H254" s="9">
-        <v>45653</v>
+        <v>45649</v>
       </c>
       <c r="I254" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J254" s="3" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
     </row>
     <row r="255" spans="1:10" hidden="1">
       <c r="A255" s="4">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>323</v>
+        <v>551</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="G255" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H255" s="9">
-        <v>45698</v>
+        <v>45734</v>
       </c>
       <c r="I255" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J255" s="3" t="s">
-        <v>560</v>
+        <v>752</v>
       </c>
     </row>
     <row r="256" spans="1:10" hidden="1">
       <c r="A256" s="4">
+        <v>254</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F256" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="G256" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H256" s="9">
+        <v>45653</v>
+      </c>
+      <c r="I256" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J256" s="3" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10">
+      <c r="A257" s="4">
         <v>255</v>
       </c>
-      <c r="B256" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C256" s="2" t="s">
+      <c r="B257" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C257" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D256" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="E256" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F256" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="G256" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I256" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J256" s="3" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="257" spans="1:10" hidden="1">
-      <c r="A257" s="4">
-        <v>256</v>
-      </c>
-      <c r="B257" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C257" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="D257" s="1" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G257" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G257" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H257" s="9">
-        <v>45652</v>
+        <v>45698</v>
       </c>
       <c r="I257" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J257" s="3" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
     </row>
     <row r="258" spans="1:10" hidden="1">
       <c r="A258" s="4">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="E258" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G258" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H258" s="9">
-        <v>45653</v>
+        <v>560</v>
+      </c>
+      <c r="G258" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="I258" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J258" s="3" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
     </row>
     <row r="259" spans="1:10" hidden="1">
       <c r="A259" s="4">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>568</v>
+        <v>44</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>570</v>
+        <v>69</v>
       </c>
       <c r="G259" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H259" s="9">
-        <v>45582</v>
-      </c>
-      <c r="I259" s="9" t="s">
+        <v>45652</v>
+      </c>
+      <c r="I259" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J259" s="3" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
     </row>
     <row r="260" spans="1:10" hidden="1">
       <c r="A260" s="4">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>568</v>
+        <v>82</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="F260" s="1" t="s">
-        <v>573</v>
+        <v>29</v>
       </c>
       <c r="G260" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H260" s="9">
-        <v>45590</v>
-      </c>
-      <c r="I260" s="9" t="s">
+        <v>45653</v>
+      </c>
+      <c r="I260" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J260" s="3" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
     </row>
     <row r="261" spans="1:10" hidden="1">
       <c r="A261" s="4">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="F261" s="1" t="s">
-        <v>93</v>
+        <v>32</v>
       </c>
       <c r="G261" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H261" s="9">
-        <v>45590</v>
+        <v>45744</v>
       </c>
       <c r="I261" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J261" s="3" t="s">
-        <v>576</v>
+        <v>769</v>
       </c>
     </row>
     <row r="262" spans="1:10" hidden="1">
       <c r="A262" s="4">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="E262" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="G262" s="2" t="s">
         <v>15</v>
@@ -11248,155 +11285,155 @@
         <v>16</v>
       </c>
       <c r="J262" s="3" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="263" spans="1:10" hidden="1">
       <c r="A263" s="4">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>580</v>
+        <v>32</v>
       </c>
       <c r="G263" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H263" s="9">
-        <v>45588</v>
+        <v>45744</v>
       </c>
       <c r="I263" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J263" s="3" t="s">
-        <v>581</v>
+        <v>770</v>
       </c>
     </row>
     <row r="264" spans="1:10" hidden="1">
       <c r="A264" s="4">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="E264" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="G264" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H264" s="9">
-        <v>45588</v>
+        <v>45590</v>
       </c>
       <c r="I264" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J264" s="3" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
     </row>
     <row r="265" spans="1:10" hidden="1">
       <c r="A265" s="4">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="E265" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F265" s="1" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="G265" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H265" s="9">
-        <v>45594</v>
+        <v>45588</v>
       </c>
       <c r="I265" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J265" s="3" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
     </row>
     <row r="266" spans="1:10" hidden="1">
       <c r="A266" s="4">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="E266" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F266" s="1" t="s">
-        <v>588</v>
+        <v>568</v>
       </c>
       <c r="G266" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H266" s="9">
-        <v>45594</v>
+        <v>45588</v>
       </c>
       <c r="I266" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J266" s="3" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
     </row>
     <row r="267" spans="1:10" hidden="1">
       <c r="A267" s="4">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="E267" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F267" s="1" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="G267" s="2" t="s">
         <v>15</v>
@@ -11408,27 +11445,27 @@
         <v>16</v>
       </c>
       <c r="J267" s="3" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="268" spans="1:10" hidden="1">
       <c r="A268" s="4">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="E268" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="G268" s="2" t="s">
         <v>15</v>
@@ -11440,91 +11477,91 @@
         <v>16</v>
       </c>
       <c r="J268" s="3" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="269" spans="1:10" hidden="1">
       <c r="A269" s="4">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="E269" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="G269" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H269" s="9">
-        <v>45596</v>
+        <v>45594</v>
       </c>
       <c r="I269" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J269" s="3" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
     </row>
     <row r="270" spans="1:10" hidden="1">
       <c r="A270" s="4">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="E270" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F270" s="1" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="G270" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H270" s="9">
-        <v>45596</v>
+        <v>45594</v>
       </c>
       <c r="I270" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J270" s="3" t="s">
-        <v>598</v>
+        <v>583</v>
       </c>
     </row>
     <row r="271" spans="1:10" hidden="1">
       <c r="A271" s="4">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="E271" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F271" s="1" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="G271" s="2" t="s">
         <v>15</v>
@@ -11536,91 +11573,91 @@
         <v>16</v>
       </c>
       <c r="J271" s="3" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="272" spans="1:10" hidden="1">
       <c r="A272" s="4">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="E272" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F272" s="1" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="G272" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H272" s="9">
-        <v>45597</v>
+        <v>45596</v>
       </c>
       <c r="I272" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J272" s="3" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
     </row>
     <row r="273" spans="1:10" hidden="1">
       <c r="A273" s="4">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="E273" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F273" s="1" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="G273" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H273" s="9">
-        <v>45597</v>
+        <v>45596</v>
       </c>
       <c r="I273" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J273" s="3" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
     </row>
     <row r="274" spans="1:10" hidden="1">
       <c r="A274" s="4">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="E274" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="G274" s="2" t="s">
         <v>15</v>
@@ -11632,27 +11669,27 @@
         <v>16</v>
       </c>
       <c r="J274" s="3" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="275" spans="1:10" hidden="1">
       <c r="A275" s="4">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="E275" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F275" s="1" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="G275" s="2" t="s">
         <v>15</v>
@@ -11664,219 +11701,219 @@
         <v>16</v>
       </c>
       <c r="J275" s="3" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="276" spans="1:10" hidden="1">
       <c r="A276" s="4">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D276" s="22" t="s">
-        <v>610</v>
+      <c r="D276" s="1" t="s">
+        <v>603</v>
       </c>
       <c r="E276" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F276" s="4" t="s">
-        <v>611</v>
+      <c r="F276" s="1" t="s">
+        <v>604</v>
       </c>
       <c r="G276" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H276" s="9">
-        <v>45603</v>
+        <v>45597</v>
       </c>
       <c r="I276" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J276" s="3" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
     </row>
     <row r="277" spans="1:10" hidden="1">
       <c r="A277" s="4">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="E277" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F277" s="1" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="G277" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H277" s="9">
-        <v>45603</v>
+        <v>45597</v>
       </c>
       <c r="I277" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J277" s="3" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
     </row>
     <row r="278" spans="1:10" hidden="1">
       <c r="A278" s="4">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D278" s="1" t="s">
-        <v>615</v>
+      <c r="D278" s="21" t="s">
+        <v>607</v>
       </c>
       <c r="E278" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F278" s="4" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="G278" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H278" s="9">
-        <v>45604</v>
+        <v>45603</v>
       </c>
       <c r="I278" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J278" s="3" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
     </row>
     <row r="279" spans="1:10" hidden="1">
       <c r="A279" s="4">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="E279" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F279" s="1" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="G279" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H279" s="9">
-        <v>45604</v>
+        <v>45603</v>
       </c>
       <c r="I279" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J279" s="3" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
     </row>
     <row r="280" spans="1:10" hidden="1">
       <c r="A280" s="4">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="F280" s="1" t="s">
-        <v>621</v>
+        <v>92</v>
+      </c>
+      <c r="F280" s="4" t="s">
+        <v>613</v>
       </c>
       <c r="G280" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H280" s="9">
-        <v>45607</v>
+        <v>45604</v>
       </c>
       <c r="I280" s="9" t="s">
-        <v>759</v>
+        <v>16</v>
       </c>
       <c r="J280" s="3" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
     </row>
     <row r="281" spans="1:10" hidden="1">
       <c r="A281" s="4">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>479</v>
+        <v>92</v>
       </c>
       <c r="F281" s="1" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="G281" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H281" s="9">
-        <v>45607</v>
+        <v>45604</v>
       </c>
       <c r="I281" s="9" t="s">
-        <v>759</v>
+        <v>16</v>
       </c>
       <c r="J281" s="3" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
     </row>
     <row r="282" spans="1:10" hidden="1">
       <c r="A282" s="4">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="E282" s="1" t="s">
         <v>479</v>
       </c>
       <c r="F282" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="G282" s="2" t="s">
         <v>15</v>
@@ -11885,158 +11922,158 @@
         <v>45607</v>
       </c>
       <c r="I282" s="9" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="J282" s="3" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
     </row>
     <row r="283" spans="1:10" hidden="1">
       <c r="A283" s="4">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="E283" s="1" t="s">
         <v>479</v>
       </c>
       <c r="F283" s="1" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="G283" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H283" s="9">
-        <v>45614</v>
+        <v>45607</v>
       </c>
       <c r="I283" s="9" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="J283" s="3" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
     </row>
     <row r="284" spans="1:10" hidden="1">
       <c r="A284" s="4">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="E284" s="1" t="s">
         <v>479</v>
       </c>
       <c r="F284" s="1" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="G284" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H284" s="9">
-        <v>45614</v>
+        <v>45607</v>
       </c>
       <c r="I284" s="9" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="J284" s="3" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
     </row>
     <row r="285" spans="1:10" hidden="1">
       <c r="A285" s="4">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="E285" s="1" t="s">
         <v>479</v>
       </c>
       <c r="F285" s="1" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="G285" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H285" s="9">
-        <v>45615</v>
+        <v>45614</v>
       </c>
       <c r="I285" s="9" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="J285" s="3" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
     </row>
     <row r="286" spans="1:10" hidden="1">
       <c r="A286" s="4">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="E286" s="1" t="s">
         <v>479</v>
       </c>
       <c r="F286" s="1" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="G286" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H286" s="9">
-        <v>45615</v>
+        <v>45614</v>
       </c>
       <c r="I286" s="9" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="J286" s="3" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
     </row>
     <row r="287" spans="1:10" hidden="1">
       <c r="A287" s="4">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="E287" s="1" t="s">
         <v>479</v>
       </c>
       <c r="F287" s="1" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="G287" s="2" t="s">
         <v>15</v>
@@ -12045,254 +12082,254 @@
         <v>45615</v>
       </c>
       <c r="I287" s="9" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="J287" s="3" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="288" spans="1:10" hidden="1">
       <c r="A288" s="4">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="E288" s="1" t="s">
         <v>479</v>
       </c>
       <c r="F288" s="1" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="G288" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H288" s="9">
-        <v>45617</v>
+        <v>45615</v>
       </c>
       <c r="I288" s="9" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="J288" s="3" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
     </row>
     <row r="289" spans="1:10" hidden="1">
       <c r="A289" s="4">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="E289" s="1" t="s">
         <v>479</v>
       </c>
       <c r="F289" s="1" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="G289" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H289" s="9">
-        <v>45617</v>
+        <v>45615</v>
       </c>
       <c r="I289" s="9" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="J289" s="3" t="s">
-        <v>644</v>
+        <v>631</v>
       </c>
     </row>
     <row r="290" spans="1:10" hidden="1">
       <c r="A290" s="4">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="E290" s="1" t="s">
         <v>479</v>
       </c>
       <c r="F290" s="1" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="G290" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H290" s="9">
-        <v>45618</v>
+        <v>45617</v>
       </c>
       <c r="I290" s="9" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="J290" s="3" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
     </row>
     <row r="291" spans="1:10" hidden="1">
       <c r="A291" s="4">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="E291" s="1" t="s">
         <v>479</v>
       </c>
       <c r="F291" s="1" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="G291" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H291" s="9">
-        <v>45621</v>
+        <v>45617</v>
       </c>
       <c r="I291" s="9" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="J291" s="3" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
     </row>
     <row r="292" spans="1:10" hidden="1">
       <c r="A292" s="4">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="E292" s="1" t="s">
         <v>479</v>
       </c>
       <c r="F292" s="1" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="G292" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H292" s="9">
-        <v>45621</v>
+        <v>45618</v>
       </c>
       <c r="I292" s="9" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="J292" s="3" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
     </row>
     <row r="293" spans="1:10" hidden="1">
       <c r="A293" s="4">
+        <v>291</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D293" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="E293" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F293" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="G293" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H293" s="9">
+        <v>45621</v>
+      </c>
+      <c r="I293" s="9" t="s">
+        <v>756</v>
+      </c>
+      <c r="J293" s="3" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" hidden="1">
+      <c r="A294" s="4">
         <v>292</v>
       </c>
-      <c r="B293" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="C293" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D293" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="E293" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F293" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="G293" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H293" s="9">
-        <v>45618</v>
-      </c>
-      <c r="I293" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="J293" s="3" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="294" spans="1:10">
-      <c r="A294" s="4">
-        <v>293</v>
-      </c>
       <c r="B294" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>28</v>
+        <v>479</v>
       </c>
       <c r="F294" s="1" t="s">
-        <v>32</v>
+        <v>649</v>
       </c>
       <c r="G294" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H294" s="9">
-        <v>45618</v>
+        <v>45621</v>
       </c>
       <c r="I294" s="9" t="s">
-        <v>16</v>
+        <v>756</v>
       </c>
       <c r="J294" s="3" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
     </row>
     <row r="295" spans="1:10" hidden="1">
       <c r="A295" s="4">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="E295" s="1" t="s">
         <v>102</v>
       </c>
       <c r="F295" s="1" t="s">
-        <v>752</v>
+        <v>651</v>
       </c>
       <c r="G295" s="2" t="s">
         <v>15</v>
@@ -12304,21 +12341,21 @@
         <v>104</v>
       </c>
       <c r="J295" s="3" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="296" spans="1:10">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" hidden="1">
       <c r="A296" s="4">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="E296" s="1" t="s">
         <v>28</v>
@@ -12330,321 +12367,321 @@
         <v>15</v>
       </c>
       <c r="H296" s="9">
-        <v>45621</v>
+        <v>45618</v>
       </c>
       <c r="I296" s="9" t="s">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="J296" s="3" t="s">
-        <v>756</v>
+        <v>654</v>
       </c>
     </row>
     <row r="297" spans="1:10" hidden="1">
       <c r="A297" s="4">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="E297" s="1" t="s">
         <v>102</v>
       </c>
       <c r="F297" s="1" t="s">
-        <v>663</v>
+        <v>749</v>
       </c>
       <c r="G297" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H297" s="9">
-        <v>45622</v>
+        <v>45618</v>
       </c>
       <c r="I297" s="9" t="s">
         <v>104</v>
       </c>
       <c r="J297" s="3" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
     </row>
     <row r="298" spans="1:10" hidden="1">
       <c r="A298" s="4">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="F298" s="1" t="s">
-        <v>666</v>
+        <v>32</v>
       </c>
       <c r="G298" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H298" s="9">
-        <v>44543</v>
+        <v>45621</v>
       </c>
       <c r="I298" s="9" t="s">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="J298" s="3" t="s">
-        <v>667</v>
+        <v>753</v>
       </c>
     </row>
     <row r="299" spans="1:10" hidden="1">
       <c r="A299" s="4">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="F299" s="1" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="G299" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H299" s="9">
-        <v>45635</v>
+        <v>45622</v>
       </c>
       <c r="I299" s="9" t="s">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="J299" s="3" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
     </row>
     <row r="300" spans="1:10" hidden="1">
       <c r="A300" s="4">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
       <c r="E300" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F300" s="1" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="G300" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H300" s="9">
-        <v>44539</v>
+        <v>44543</v>
       </c>
       <c r="I300" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J300" s="3" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
     </row>
     <row r="301" spans="1:10" hidden="1">
       <c r="A301" s="4">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="E301" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F301" s="1" t="s">
-        <v>578</v>
+        <v>666</v>
       </c>
       <c r="G301" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H301" s="9">
-        <v>45645</v>
+        <v>45635</v>
       </c>
       <c r="I301" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J301" s="3" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
     </row>
     <row r="302" spans="1:10" hidden="1">
       <c r="A302" s="4">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="E302" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F302" s="1" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="G302" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H302" s="9">
+        <v>44539</v>
+      </c>
+      <c r="I302" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J302" s="3" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10" hidden="1">
+      <c r="A303" s="4">
+        <v>301</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="C303" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D303" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="E303" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F303" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="G303" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H303" s="9">
         <v>45645</v>
       </c>
-      <c r="I302" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J302" s="3" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="303" spans="1:10">
-      <c r="A303" s="4">
-        <v>302</v>
-      </c>
-      <c r="B303" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="C303" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D303" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="E303" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F303" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G303" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H303" s="9">
-        <v>45663</v>
-      </c>
       <c r="I303" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J303" s="3" t="s">
-        <v>762</v>
+        <v>672</v>
       </c>
     </row>
     <row r="304" spans="1:10" hidden="1">
       <c r="A304" s="4">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="E304" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F304" s="1" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="G304" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H304" s="9">
-        <v>45664</v>
+        <v>45645</v>
       </c>
       <c r="I304" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J304" s="3" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
     </row>
     <row r="305" spans="1:10" hidden="1">
       <c r="A305" s="4">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="F305" s="1" t="s">
-        <v>684</v>
+        <v>32</v>
       </c>
       <c r="G305" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H305" s="9">
-        <v>45664</v>
+        <v>45663</v>
       </c>
       <c r="I305" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J305" s="3" t="s">
-        <v>682</v>
+        <v>759</v>
       </c>
     </row>
     <row r="306" spans="1:10" hidden="1">
       <c r="A306" s="4">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="E306" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F306" s="1" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="G306" s="2" t="s">
         <v>15</v>
@@ -12656,155 +12693,155 @@
         <v>16</v>
       </c>
       <c r="J306" s="3" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
     </row>
     <row r="307" spans="1:10" hidden="1">
       <c r="A307" s="4">
+        <v>305</v>
+      </c>
+      <c r="B307" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D307" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="E307" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F307" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="G307" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H307" s="9">
+        <v>45664</v>
+      </c>
+      <c r="I307" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J307" s="3" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10" hidden="1">
+      <c r="A308" s="4">
         <v>306</v>
       </c>
-      <c r="B307" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="C307" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D307" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="E307" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F307" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="G307" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H307" s="9">
-        <v>45667</v>
-      </c>
-      <c r="I307" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J307" s="3" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="308" spans="1:10">
-      <c r="A308" s="4">
-        <v>307</v>
-      </c>
       <c r="B308" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="F308" s="1" t="s">
-        <v>32</v>
+        <v>683</v>
       </c>
       <c r="G308" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H308" s="9">
-        <v>45305</v>
+        <v>45664</v>
       </c>
       <c r="I308" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J308" s="3" t="s">
-        <v>747</v>
+        <v>679</v>
       </c>
     </row>
     <row r="309" spans="1:10" hidden="1">
       <c r="A309" s="4">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="E309" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F309" s="1" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="G309" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H309" s="9">
-        <v>45702</v>
+        <v>45667</v>
       </c>
       <c r="I309" s="9" t="s">
-        <v>693</v>
+        <v>16</v>
       </c>
       <c r="J309" s="3" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
     </row>
     <row r="310" spans="1:10" hidden="1">
       <c r="A310" s="4">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="E310" s="1" t="s">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="F310" s="1" t="s">
-        <v>696</v>
+        <v>32</v>
       </c>
       <c r="G310" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H310" s="9">
-        <v>45702</v>
+        <v>45305</v>
       </c>
       <c r="I310" s="9" t="s">
-        <v>693</v>
+        <v>16</v>
       </c>
       <c r="J310" s="3" t="s">
-        <v>694</v>
+        <v>744</v>
       </c>
     </row>
     <row r="311" spans="1:10" hidden="1">
       <c r="A311" s="4">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
       <c r="E311" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F311" s="1" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
       <c r="G311" s="2" t="s">
         <v>15</v>
@@ -12813,126 +12850,126 @@
         <v>45702</v>
       </c>
       <c r="I311" s="9" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="J311" s="3" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
     </row>
     <row r="312" spans="1:10" hidden="1">
       <c r="A312" s="4">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="E312" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F312" s="1" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="G312" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H312" s="9">
-        <v>45705</v>
+        <v>45702</v>
       </c>
       <c r="I312" s="9" t="s">
-        <v>16</v>
+        <v>690</v>
       </c>
       <c r="J312" s="3" t="s">
-        <v>702</v>
+        <v>691</v>
       </c>
     </row>
     <row r="313" spans="1:10" hidden="1">
       <c r="A313" s="4">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>739</v>
+        <v>694</v>
       </c>
       <c r="E313" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F313" s="1" t="s">
-        <v>740</v>
+        <v>695</v>
       </c>
       <c r="G313" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H313" s="9">
-        <v>45726</v>
+        <v>45702</v>
       </c>
       <c r="I313" s="9" t="s">
-        <v>741</v>
+        <v>690</v>
       </c>
       <c r="J313" s="3" t="s">
-        <v>742</v>
+        <v>696</v>
       </c>
     </row>
     <row r="314" spans="1:10" hidden="1">
       <c r="A314" s="4">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>743</v>
+        <v>697</v>
       </c>
       <c r="E314" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F314" s="1" t="s">
-        <v>744</v>
+        <v>698</v>
       </c>
       <c r="G314" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H314" s="9">
-        <v>45726</v>
+        <v>45705</v>
       </c>
       <c r="I314" s="9" t="s">
-        <v>741</v>
+        <v>16</v>
       </c>
       <c r="J314" s="3" t="s">
-        <v>742</v>
+        <v>699</v>
       </c>
     </row>
     <row r="315" spans="1:10" hidden="1">
       <c r="A315" s="4">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="E315" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F315" s="1" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="G315" s="2" t="s">
         <v>15</v>
@@ -12941,94 +12978,94 @@
         <v>45726</v>
       </c>
       <c r="I315" s="9" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="J315" s="3" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
     </row>
     <row r="316" spans="1:10" hidden="1">
       <c r="A316" s="4">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="E316" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F316" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="G316" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H316" s="9">
+        <v>45726</v>
+      </c>
+      <c r="I316" s="9" t="s">
+        <v>738</v>
+      </c>
+      <c r="J316" s="3" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10" hidden="1">
+      <c r="A317" s="4">
+        <v>315</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="C317" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D317" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="E317" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F317" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="G317" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H317" s="9">
+        <v>45726</v>
+      </c>
+      <c r="I317" s="9" t="s">
+        <v>738</v>
+      </c>
+      <c r="J317" s="3" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10" hidden="1">
+      <c r="A318" s="4">
+        <v>316</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="C318" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D318" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="E318" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F318" s="1" t="s">
         <v>327</v>
-      </c>
-      <c r="G316" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H316" s="9">
-        <v>45653</v>
-      </c>
-      <c r="I316" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J316" s="3" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="317" spans="1:10">
-      <c r="A317" s="4">
-        <v>316</v>
-      </c>
-      <c r="B317" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="C317" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D317" s="1" t="s">
-        <v>703</v>
-      </c>
-      <c r="E317" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F317" s="1" t="s">
-        <v>704</v>
-      </c>
-      <c r="G317" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H317" s="9">
-        <v>45653</v>
-      </c>
-      <c r="I317" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J317" s="3" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="318" spans="1:10">
-      <c r="A318" s="4">
-        <v>317</v>
-      </c>
-      <c r="B318" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="C318" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D318" s="1" t="s">
-        <v>703</v>
-      </c>
-      <c r="E318" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F318" s="1" t="s">
-        <v>704</v>
       </c>
       <c r="G318" s="2" t="s">
         <v>15</v>
@@ -13040,27 +13077,27 @@
         <v>16</v>
       </c>
       <c r="J318" s="3" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="319" spans="1:10">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10" hidden="1">
       <c r="A319" s="4">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="E319" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F319" s="1" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="G319" s="2" t="s">
         <v>15</v>
@@ -13072,27 +13109,27 @@
         <v>16</v>
       </c>
       <c r="J319" s="3" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="320" spans="1:10">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="320" spans="1:10" hidden="1">
       <c r="A320" s="4">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="E320" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F320" s="1" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="G320" s="2" t="s">
         <v>15</v>
@@ -13104,27 +13141,27 @@
         <v>16</v>
       </c>
       <c r="J320" s="3" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="321" spans="1:10">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="321" spans="1:10" hidden="1">
       <c r="A321" s="4">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="E321" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F321" s="1" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="G321" s="2" t="s">
         <v>15</v>
@@ -13136,27 +13173,27 @@
         <v>16</v>
       </c>
       <c r="J321" s="3" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="322" spans="1:10">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="322" spans="1:10" hidden="1">
       <c r="A322" s="4">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="E322" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F322" s="1" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="G322" s="2" t="s">
         <v>15</v>
@@ -13168,27 +13205,27 @@
         <v>16</v>
       </c>
       <c r="J322" s="3" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="323" spans="1:10">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="323" spans="1:10" hidden="1">
       <c r="A323" s="4">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="E323" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F323" s="1" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="G323" s="2" t="s">
         <v>15</v>
@@ -13200,27 +13237,27 @@
         <v>16</v>
       </c>
       <c r="J323" s="3" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="324" spans="1:10">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10" hidden="1">
       <c r="A324" s="4">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="E324" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F324" s="1" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="G324" s="2" t="s">
         <v>15</v>
@@ -13232,27 +13269,27 @@
         <v>16</v>
       </c>
       <c r="J324" s="3" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="325" spans="1:10">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="325" spans="1:10" hidden="1">
       <c r="A325" s="4">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="E325" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F325" s="1" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="G325" s="2" t="s">
         <v>15</v>
@@ -13264,27 +13301,27 @@
         <v>16</v>
       </c>
       <c r="J325" s="3" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="326" spans="1:10">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="326" spans="1:10" hidden="1">
       <c r="A326" s="4">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="E326" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F326" s="1" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="G326" s="2" t="s">
         <v>15</v>
@@ -13296,27 +13333,27 @@
         <v>16</v>
       </c>
       <c r="J326" s="3" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="327" spans="1:10">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="327" spans="1:10" hidden="1">
       <c r="A327" s="4">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="E327" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F327" s="1" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="G327" s="2" t="s">
         <v>15</v>
@@ -13328,27 +13365,27 @@
         <v>16</v>
       </c>
       <c r="J327" s="3" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="328" spans="1:10">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="328" spans="1:10" hidden="1">
       <c r="A328" s="4">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="E328" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F328" s="1" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="G328" s="2" t="s">
         <v>15</v>
@@ -13360,27 +13397,27 @@
         <v>16</v>
       </c>
       <c r="J328" s="3" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="329" spans="1:10">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="329" spans="1:10" hidden="1">
       <c r="A329" s="4">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="E329" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F329" s="1" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="G329" s="2" t="s">
         <v>15</v>
@@ -13392,27 +13429,27 @@
         <v>16</v>
       </c>
       <c r="J329" s="3" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="330" spans="1:10">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10" hidden="1">
       <c r="A330" s="4">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="E330" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F330" s="1" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="G330" s="2" t="s">
         <v>15</v>
@@ -13424,27 +13461,27 @@
         <v>16</v>
       </c>
       <c r="J330" s="3" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="331" spans="1:10">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="331" spans="1:10" hidden="1">
       <c r="A331" s="4">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="E331" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F331" s="1" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="G331" s="2" t="s">
         <v>15</v>
@@ -13456,27 +13493,27 @@
         <v>16</v>
       </c>
       <c r="J331" s="3" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="332" spans="1:10">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="332" spans="1:10" hidden="1">
       <c r="A332" s="4">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="E332" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F332" s="1" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="G332" s="2" t="s">
         <v>15</v>
@@ -13488,27 +13525,27 @@
         <v>16</v>
       </c>
       <c r="J332" s="3" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="333" spans="1:10">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="333" spans="1:10" hidden="1">
       <c r="A333" s="4">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="E333" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F333" s="1" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="G333" s="2" t="s">
         <v>15</v>
@@ -13520,27 +13557,27 @@
         <v>16</v>
       </c>
       <c r="J333" s="3" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="334" spans="1:10">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="334" spans="1:10" hidden="1">
       <c r="A334" s="4">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="E334" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F334" s="1" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="G334" s="2" t="s">
         <v>15</v>
@@ -13552,27 +13589,27 @@
         <v>16</v>
       </c>
       <c r="J334" s="3" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="335" spans="1:10">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="335" spans="1:10" hidden="1">
       <c r="A335" s="4">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="E335" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F335" s="1" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="G335" s="2" t="s">
         <v>15</v>
@@ -13584,27 +13621,27 @@
         <v>16</v>
       </c>
       <c r="J335" s="3" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="336" spans="1:10">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="336" spans="1:10" hidden="1">
       <c r="A336" s="4">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="E336" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F336" s="1" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="G336" s="2" t="s">
         <v>15</v>
@@ -13616,31 +13653,95 @@
         <v>16</v>
       </c>
       <c r="J336" s="3" t="s">
-        <v>705</v>
+        <v>702</v>
+      </c>
+    </row>
+    <row r="337" spans="1:10" hidden="1">
+      <c r="A337" s="4">
+        <v>335</v>
+      </c>
+      <c r="B337" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="C337" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D337" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="E337" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F337" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="G337" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H337" s="9">
+        <v>45653</v>
+      </c>
+      <c r="I337" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J337" s="3" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="338" spans="1:10" hidden="1">
+      <c r="A338" s="4">
+        <v>336</v>
+      </c>
+      <c r="B338" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="C338" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D338" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="E338" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F338" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="G338" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H338" s="9">
+        <v>45653</v>
+      </c>
+      <c r="I338" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J338" s="3" t="s">
+        <v>702</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="D238">
-    <cfRule type="duplicateValues" dxfId="19" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="6"/>
+  <conditionalFormatting sqref="D240">
+    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"MANUTENÇÃO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"DEPOSITO SOLAGOS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G188 E1:E1048576">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+  <conditionalFormatting sqref="G189 E1:E1048576">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"SOLAGOS DEPOSITO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D336">
-    <cfRule type="duplicateValues" dxfId="13" priority="7"/>
+  <conditionalFormatting sqref="D2:D338">
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13669,482 +13770,482 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="B1" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="E1" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="F1" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="B2" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="C2" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="D2">
         <v>1885</v>
       </c>
-      <c r="F2" s="23">
+      <c r="F2" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="B3" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="C3" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="D3">
         <v>1880</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="B4" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="C4" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="D4">
         <v>1881</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="B5" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="C5" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="D5">
         <v>1890</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="B6" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="C6" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="D6">
         <v>1878</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="B7" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="C7" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="D7">
         <v>1883</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
+        <v>708</v>
+      </c>
+      <c r="B8" t="s">
+        <v>709</v>
+      </c>
+      <c r="C8" t="s">
+        <v>710</v>
+      </c>
+      <c r="D8" s="23" t="s">
         <v>711</v>
       </c>
-      <c r="B8" t="s">
-        <v>712</v>
-      </c>
-      <c r="C8" t="s">
-        <v>713</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>714</v>
-      </c>
-      <c r="F8" s="23">
+      <c r="F8" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="B9" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="C9" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="D9">
         <v>1889</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="B10" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="C10" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="D10">
         <v>1879</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="B11" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="C11" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="D11">
         <v>1891</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="B12" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="C12" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="D12">
         <v>1891</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="B13" t="s">
+        <v>709</v>
+      </c>
+      <c r="C13" t="s">
+        <v>710</v>
+      </c>
+      <c r="D13" s="23" t="s">
         <v>712</v>
       </c>
-      <c r="C13" t="s">
-        <v>713</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>715</v>
-      </c>
-      <c r="F13" s="23">
+      <c r="F13" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="B14" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="C14" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="D14">
         <v>1894</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
+        <v>713</v>
+      </c>
+      <c r="B15" t="s">
+        <v>714</v>
+      </c>
+      <c r="C15" t="s">
+        <v>715</v>
+      </c>
+      <c r="D15" t="s">
         <v>716</v>
       </c>
-      <c r="B15" t="s">
+      <c r="E15" t="s">
         <v>717</v>
       </c>
-      <c r="C15" t="s">
-        <v>718</v>
-      </c>
-      <c r="D15" t="s">
-        <v>719</v>
-      </c>
-      <c r="E15" t="s">
-        <v>720</v>
-      </c>
-      <c r="F15" s="23">
+      <c r="F15" s="22">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
+        <v>713</v>
+      </c>
+      <c r="B16" t="s">
+        <v>718</v>
+      </c>
+      <c r="C16" t="s">
+        <v>719</v>
+      </c>
+      <c r="D16" t="s">
         <v>716</v>
       </c>
-      <c r="B16" t="s">
-        <v>721</v>
-      </c>
-      <c r="C16" t="s">
-        <v>722</v>
-      </c>
-      <c r="D16" t="s">
-        <v>719</v>
-      </c>
       <c r="E16" t="s">
-        <v>720</v>
-      </c>
-      <c r="F16" s="23">
+        <v>717</v>
+      </c>
+      <c r="F16" s="22">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="B17" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C17" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="D17" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="E17" t="s">
-        <v>720</v>
-      </c>
-      <c r="F17" s="23">
+        <v>717</v>
+      </c>
+      <c r="F17" s="22">
         <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="B18" t="s">
+        <v>720</v>
+      </c>
+      <c r="C18" t="s">
+        <v>721</v>
+      </c>
+      <c r="D18" t="s">
+        <v>722</v>
+      </c>
+      <c r="E18" t="s">
         <v>723</v>
       </c>
-      <c r="C18" t="s">
-        <v>724</v>
-      </c>
-      <c r="D18" t="s">
-        <v>725</v>
-      </c>
-      <c r="E18" t="s">
-        <v>726</v>
-      </c>
-      <c r="F18" s="23">
+      <c r="F18" s="22">
         <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="B19" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C19" t="s">
+        <v>721</v>
+      </c>
+      <c r="D19" t="s">
+        <v>722</v>
+      </c>
+      <c r="E19" t="s">
         <v>724</v>
       </c>
-      <c r="D19" t="s">
-        <v>725</v>
-      </c>
-      <c r="E19" t="s">
-        <v>727</v>
-      </c>
-      <c r="F19" s="23">
+      <c r="F19" s="22">
         <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="B20" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C20" t="s">
+        <v>721</v>
+      </c>
+      <c r="D20" t="s">
+        <v>725</v>
+      </c>
+      <c r="E20" t="s">
         <v>724</v>
       </c>
-      <c r="D20" t="s">
-        <v>728</v>
-      </c>
-      <c r="E20" t="s">
-        <v>727</v>
-      </c>
-      <c r="F20" s="23">
+      <c r="F20" s="22">
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="B21" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C21" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="D21" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="E21" t="s">
-        <v>720</v>
-      </c>
-      <c r="F21" s="23">
+        <v>717</v>
+      </c>
+      <c r="F21" s="22">
         <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
+        <v>726</v>
+      </c>
+      <c r="B22" t="s">
+        <v>727</v>
+      </c>
+      <c r="C22" t="s">
+        <v>728</v>
+      </c>
+      <c r="D22" t="s">
         <v>729</v>
       </c>
-      <c r="B22" t="s">
-        <v>730</v>
-      </c>
-      <c r="C22" t="s">
-        <v>731</v>
-      </c>
-      <c r="D22" t="s">
-        <v>732</v>
-      </c>
       <c r="E22" t="s">
-        <v>727</v>
-      </c>
-      <c r="F22" s="23">
+        <v>724</v>
+      </c>
+      <c r="F22" s="22">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="B23" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="C23" t="s">
+        <v>728</v>
+      </c>
+      <c r="D23" t="s">
         <v>731</v>
       </c>
-      <c r="D23" t="s">
-        <v>734</v>
-      </c>
       <c r="E23" t="s">
-        <v>727</v>
-      </c>
-      <c r="F23" s="23">
+        <v>724</v>
+      </c>
+      <c r="F23" s="22">
         <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="B24" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="C24" t="s">
+        <v>728</v>
+      </c>
+      <c r="D24" t="s">
         <v>731</v>
       </c>
-      <c r="D24" t="s">
-        <v>734</v>
-      </c>
       <c r="E24" t="s">
-        <v>727</v>
-      </c>
-      <c r="F24" s="23">
+        <v>724</v>
+      </c>
+      <c r="F24" s="22">
         <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="B25" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="C25" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D25" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="E25" t="s">
-        <v>737</v>
-      </c>
-      <c r="F25" s="23">
+        <v>734</v>
+      </c>
+      <c r="F25" s="22">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="B26" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="C26" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D26" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="E26" t="s">
-        <v>737</v>
-      </c>
-      <c r="F26" s="23">
+        <v>734</v>
+      </c>
+      <c r="F26" s="22">
         <v>1</v>
       </c>
     </row>

--- a/data_printer.xlsx
+++ b/data_printer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GamErick\Desktop\Nova pasta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F6862F3-DDCF-4D70-B8A0-820980C2987E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC5619A0-0363-4643-AA5F-6F1660F890D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A8AA41B5-7AA1-4FF7-A9B8-54B8A4E1AF28}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2749" uniqueCount="777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2751" uniqueCount="777">
   <si>
     <t>INDICE</t>
   </si>
@@ -897,12 +897,6 @@
     <t>AK49050858A0</t>
   </si>
   <si>
-    <t>SEDUC - ENSINO</t>
-  </si>
-  <si>
-    <t>INSTALADA NA SEDUC - ENSINO 29/10/2024; ESTAVA NA ADM - PMA;</t>
-  </si>
-  <si>
     <t>G996X500431</t>
   </si>
   <si>
@@ -1338,9 +1332,6 @@
     <t>AK4C042458</t>
   </si>
   <si>
-    <t>ESCOLA TONINHO SERRA</t>
-  </si>
-  <si>
     <t>G986X787510</t>
   </si>
   <si>
@@ -1455,9 +1446,6 @@
     <t>XAAB658183</t>
   </si>
   <si>
-    <t>SEDUC - GABINETE</t>
-  </si>
-  <si>
     <t>G986X710695</t>
   </si>
   <si>
@@ -1620,9 +1608,6 @@
     <t>X2NZ076879</t>
   </si>
   <si>
-    <t>ESTAVA NO COMITE EM FRENTE AO SICOOB;</t>
-  </si>
-  <si>
     <t>XAABJ04911</t>
   </si>
   <si>
@@ -2283,9 +2268,6 @@
     <t>IMPRESSORA INSTALADA EM 25/11/2024 - SUBSTITUIU RICOH 601; RETIRADA SAUDE COLETIVA, FEITA UMA TROCA  POR UMA 3710 NO DIA 14/03/2025;</t>
   </si>
   <si>
-    <t>ESTAVA NO PAM;</t>
-  </si>
-  <si>
     <t>19/03/2025 RETIRADA TONINHO SERRA  TROCA DE FUSAO E MANUTENÇÃO;</t>
   </si>
   <si>
@@ -2367,7 +2349,25 @@
     <t>SEDUC - ALMOXARIFADO</t>
   </si>
   <si>
-    <t>SEDUC - GABINETE RECEPÇÃO</t>
+    <t xml:space="preserve">SEDUC - GABINETE SECRETARIA  </t>
+  </si>
+  <si>
+    <t>ESTAVA NO COMITE EM FRENTE AO SICOOB; ESTAVA NA SEDUC - ALMOXARIFADO;</t>
+  </si>
+  <si>
+    <t>INSTALADA AZFOODS 28/04/2025;</t>
+  </si>
+  <si>
+    <t>VEIO DA AZFOODS 28/04/2025;</t>
+  </si>
+  <si>
+    <t>INSTALADA NA SEDUC - ENSINO 29/10/2024; ESTAVA NA ADM - PMA; RETIRADA DA SEDUC  NO DIA 28/04/2025; INSTALADA NA ESCOLA TONINHO SERRA 05/05/2025;</t>
+  </si>
+  <si>
+    <t>TONINHO SERRA</t>
+  </si>
+  <si>
+    <t>ESTAVA NO PAM; INSTALADA NO TONINHO SERRA 20/03/2025; RETIRADA NO TONINHO SERRA 05/05/2025;</t>
   </si>
 </sst>
 </file>
@@ -2451,7 +2451,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2514,145 +2514,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="31">
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="25">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2891,6 +2757,66 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2989,22 +2915,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C244623C-48DE-4D05-852C-6EFDD885ABE2}" name="Controle_Inventario_Impressoras" displayName="Controle_Inventario_Impressoras" ref="A1:J341" tableType="queryTable" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
-  <autoFilter ref="A1:J341" xr:uid="{C244623C-48DE-4D05-852C-6EFDD885ABE2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C244623C-48DE-4D05-852C-6EFDD885ABE2}" name="Controle_Inventario_Impressoras" displayName="Controle_Inventario_Impressoras" ref="A1:J341" tableType="queryTable" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A1:J341" xr:uid="{C244623C-48DE-4D05-852C-6EFDD885ABE2}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="SEDUC"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J27">
     <sortCondition ref="A13"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{F8E3D681-C494-47F2-8429-052381C12AF1}" uniqueName="1" name="INDICE" queryTableFieldId="1" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{EE2E8FA5-A99D-4573-9868-408DB8FD4417}" uniqueName="2" name="MODELO" queryTableFieldId="2" dataDxfId="21"/>
-    <tableColumn id="11" xr3:uid="{CB5196C0-CCA1-4329-825F-D71E0948A542}" uniqueName="11" name="TIPO" queryTableFieldId="16390" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{27BC8F35-CC2C-44A1-BAF7-B0390B09477F}" uniqueName="3" name="NUMERO DE SERIE" queryTableFieldId="3" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{552F7A6E-6277-4DC1-9CDA-EA7FDCCE8E36}" uniqueName="4" name="LOCALIZAÇÃO" queryTableFieldId="4" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{4C8345F1-6E01-4566-9030-039665486C03}" uniqueName="5" name="SETOR" queryTableFieldId="5" dataDxfId="17"/>
-    <tableColumn id="9" xr3:uid="{10436F87-F6F1-46C4-A81A-8D144AC72FDF}" uniqueName="9" name="EMPRESA" queryTableFieldId="16389" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{B7941BA2-3E1C-476B-A3C7-BA155A35A2D0}" uniqueName="6" name="ATUALIZADO" queryTableFieldId="6" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{4338F703-CE4B-4443-8A10-74F64ED8CD42}" uniqueName="7" name="PRINTWAY" queryTableFieldId="16391" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{02B7C1FB-8EA9-4F22-BCCF-3D1809FFEDCC}" uniqueName="8" name="OBSERVAÇÃO" queryTableFieldId="8" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{F8E3D681-C494-47F2-8429-052381C12AF1}" uniqueName="1" name="INDICE" queryTableFieldId="1" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{EE2E8FA5-A99D-4573-9868-408DB8FD4417}" uniqueName="2" name="MODELO" queryTableFieldId="2" dataDxfId="9"/>
+    <tableColumn id="11" xr3:uid="{CB5196C0-CCA1-4329-825F-D71E0948A542}" uniqueName="11" name="TIPO" queryTableFieldId="16390" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{27BC8F35-CC2C-44A1-BAF7-B0390B09477F}" uniqueName="3" name="NUMERO DE SERIE" queryTableFieldId="3" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{552F7A6E-6277-4DC1-9CDA-EA7FDCCE8E36}" uniqueName="4" name="LOCALIZAÇÃO" queryTableFieldId="4" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{4C8345F1-6E01-4566-9030-039665486C03}" uniqueName="5" name="SETOR" queryTableFieldId="5" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{10436F87-F6F1-46C4-A81A-8D144AC72FDF}" uniqueName="9" name="EMPRESA" queryTableFieldId="16389" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{B7941BA2-3E1C-476B-A3C7-BA155A35A2D0}" uniqueName="6" name="ATUALIZADO" queryTableFieldId="6" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{4338F703-CE4B-4443-8A10-74F64ED8CD42}" uniqueName="7" name="PRINTWAY" queryTableFieldId="16391" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{02B7C1FB-8EA9-4F22-BCCF-3D1809FFEDCC}" uniqueName="8" name="OBSERVAÇÃO" queryTableFieldId="8" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3019,7 +2951,7 @@
     <tableColumn id="3" xr3:uid="{95A3DCD3-FE19-4A74-9940-661D6BB94B25}" name="MODELO"/>
     <tableColumn id="4" xr3:uid="{521C03E5-7FA9-4789-8198-9E0781F3ABC7}" name="DESCRIÇÃO"/>
     <tableColumn id="5" xr3:uid="{579D81F0-AA4C-4609-BF35-AF838B2B149B}" name="COR"/>
-    <tableColumn id="6" xr3:uid="{19487D13-EF31-43DA-89CA-4AA1E1029C34}" name="QUANTIDADE" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{19487D13-EF31-43DA-89CA-4AA1E1029C34}" name="QUANTIDADE" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3324,8 +3256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD39631B-97B8-405A-AA43-14CDFBC77F92}">
   <dimension ref="A1:J341"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B268" workbookViewId="0">
-      <selection activeCell="F317" sqref="F317"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D235" sqref="D235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -3375,7 +3307,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" hidden="1">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -3407,7 +3339,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" hidden="1">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -3471,7 +3403,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" hidden="1">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -3503,7 +3435,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" hidden="1">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -3520,7 +3452,7 @@
         <v>101</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>15</v>
@@ -3535,7 +3467,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" hidden="1">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -3564,10 +3496,10 @@
         <v>16</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" hidden="1">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -3599,7 +3531,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" hidden="1">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -3631,7 +3563,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" hidden="1">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -3661,7 +3593,7 @@
       </c>
       <c r="J10" s="7"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" hidden="1">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -3755,7 +3687,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" hidden="1">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -3772,7 +3704,7 @@
         <v>101</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>15</v>
@@ -3819,7 +3751,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" hidden="1">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -3848,7 +3780,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" hidden="1">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -3880,7 +3812,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" hidden="1">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -3912,7 +3844,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" hidden="1">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -3944,7 +3876,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" hidden="1">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -3976,7 +3908,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" hidden="1">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -4008,7 +3940,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1">
+    <row r="22" spans="1:10" ht="15.75" hidden="1" customHeight="1">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -4072,7 +4004,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" hidden="1">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -4104,7 +4036,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" hidden="1">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -4136,7 +4068,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" hidden="1">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -4165,7 +4097,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" hidden="1">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -4194,7 +4126,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" hidden="1">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -4226,7 +4158,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" hidden="1">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -4258,7 +4190,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" hidden="1">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -4290,7 +4222,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" hidden="1">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -4322,7 +4254,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" hidden="1">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -4336,22 +4268,25 @@
         <v>99</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>29</v>
+        <v>374</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H32" s="9">
-        <v>45652</v>
+        <v>45773</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="J32" s="3" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" hidden="1">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -4383,7 +4318,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" hidden="1">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -4400,7 +4335,7 @@
         <v>13</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>15</v>
@@ -4415,7 +4350,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" hidden="1">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -4447,7 +4382,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" hidden="1">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -4479,7 +4414,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" hidden="1">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -4508,7 +4443,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" hidden="1">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -4540,7 +4475,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" hidden="1">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -4572,7 +4507,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" hidden="1">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -4604,7 +4539,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" hidden="1">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -4636,7 +4571,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" hidden="1">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -4668,7 +4603,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" hidden="1">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -4700,7 +4635,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" hidden="1">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -4732,7 +4667,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" hidden="1">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -4764,7 +4699,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" hidden="1">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -4793,7 +4728,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" hidden="1">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -4825,7 +4760,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" hidden="1">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -4857,7 +4792,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" hidden="1">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -4889,7 +4824,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" hidden="1">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -4918,7 +4853,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" hidden="1">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -4947,7 +4882,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" hidden="1">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -4979,7 +4914,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" hidden="1">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -5008,7 +4943,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" hidden="1">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -5037,7 +4972,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" hidden="1">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -5066,7 +5001,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" hidden="1">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -5095,7 +5030,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" hidden="1">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -5124,7 +5059,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" hidden="1">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -5153,7 +5088,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" hidden="1">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -5185,7 +5120,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" hidden="1">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -5217,7 +5152,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" hidden="1">
       <c r="A61" s="4">
         <v>60</v>
       </c>
@@ -5246,7 +5181,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" hidden="1">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -5278,7 +5213,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" hidden="1">
       <c r="A63" s="4">
         <v>62</v>
       </c>
@@ -5307,7 +5242,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" hidden="1">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -5336,7 +5271,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" hidden="1">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -5365,7 +5300,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" hidden="1">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -5394,7 +5329,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" hidden="1">
       <c r="A67" s="4">
         <v>66</v>
       </c>
@@ -5426,7 +5361,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" hidden="1">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -5458,7 +5393,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" hidden="1">
       <c r="A69" s="4">
         <v>68</v>
       </c>
@@ -5487,7 +5422,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" hidden="1">
       <c r="A70" s="4">
         <v>69</v>
       </c>
@@ -5519,7 +5454,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" hidden="1">
       <c r="A71" s="4">
         <v>70</v>
       </c>
@@ -5551,7 +5486,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" hidden="1">
       <c r="A72" s="4">
         <v>71</v>
       </c>
@@ -5583,7 +5518,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" hidden="1">
       <c r="A73" s="4">
         <v>72</v>
       </c>
@@ -5615,7 +5550,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" hidden="1">
       <c r="A74" s="4">
         <v>73</v>
       </c>
@@ -5644,7 +5579,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" hidden="1">
       <c r="A75" s="4">
         <v>74</v>
       </c>
@@ -5676,7 +5611,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" hidden="1">
       <c r="A76" s="4">
         <v>75</v>
       </c>
@@ -5708,7 +5643,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" hidden="1">
       <c r="A77" s="4">
         <v>76</v>
       </c>
@@ -5740,7 +5675,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" hidden="1">
       <c r="A78" s="4">
         <v>77</v>
       </c>
@@ -5772,7 +5707,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" hidden="1">
       <c r="A79" s="4">
         <v>78</v>
       </c>
@@ -5804,7 +5739,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" hidden="1">
       <c r="A80" s="4">
         <v>79</v>
       </c>
@@ -5836,7 +5771,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" hidden="1">
       <c r="A81" s="4">
         <v>80</v>
       </c>
@@ -5862,7 +5797,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" hidden="1">
       <c r="A82" s="4">
         <v>81</v>
       </c>
@@ -5888,7 +5823,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" hidden="1">
       <c r="A83" s="4">
         <v>82</v>
       </c>
@@ -5914,7 +5849,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" hidden="1">
       <c r="A84" s="4">
         <v>83</v>
       </c>
@@ -5946,7 +5881,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" hidden="1">
       <c r="A85" s="4">
         <v>84</v>
       </c>
@@ -5978,7 +5913,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" hidden="1">
       <c r="A86" s="4">
         <v>85</v>
       </c>
@@ -6010,7 +5945,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:10" hidden="1">
       <c r="A87" s="4">
         <v>86</v>
       </c>
@@ -6042,7 +5977,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:10" hidden="1">
       <c r="A88" s="4">
         <v>87</v>
       </c>
@@ -6071,7 +6006,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:10" hidden="1">
       <c r="A89" s="4">
         <v>88</v>
       </c>
@@ -6100,7 +6035,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:10" hidden="1">
       <c r="A90" s="4">
         <v>89</v>
       </c>
@@ -6132,7 +6067,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:10" hidden="1">
       <c r="A91" s="4">
         <v>90</v>
       </c>
@@ -6158,7 +6093,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:10" hidden="1">
       <c r="A92" s="4">
         <v>91</v>
       </c>
@@ -6184,7 +6119,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:10" hidden="1">
       <c r="A93" s="4">
         <v>92</v>
       </c>
@@ -6216,7 +6151,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:10" hidden="1">
       <c r="A94" s="4">
         <v>93</v>
       </c>
@@ -6242,7 +6177,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:10" hidden="1">
       <c r="A95" s="4">
         <v>94</v>
       </c>
@@ -6271,7 +6206,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" spans="1:10" hidden="1">
       <c r="A96" s="4">
         <v>95</v>
       </c>
@@ -6300,7 +6235,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" hidden="1">
       <c r="A97" s="4">
         <v>96</v>
       </c>
@@ -6329,7 +6264,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" hidden="1">
       <c r="A98" s="4">
         <v>97</v>
       </c>
@@ -6358,7 +6293,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" hidden="1">
       <c r="A99" s="4">
         <v>98</v>
       </c>
@@ -6390,7 +6325,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" hidden="1">
       <c r="A100" s="4">
         <v>99</v>
       </c>
@@ -6422,7 +6357,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" hidden="1">
       <c r="A101" s="4">
         <v>100</v>
       </c>
@@ -6454,7 +6389,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" hidden="1">
       <c r="A102" s="4">
         <v>101</v>
       </c>
@@ -6486,7 +6421,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:10" hidden="1">
       <c r="A103" s="4">
         <v>102</v>
       </c>
@@ -6518,7 +6453,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:10" hidden="1">
       <c r="A104" s="4">
         <v>103</v>
       </c>
@@ -6550,7 +6485,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:10" hidden="1">
       <c r="A105" s="4">
         <v>104</v>
       </c>
@@ -6582,7 +6517,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:10" hidden="1">
       <c r="A106" s="4">
         <v>105</v>
       </c>
@@ -6614,7 +6549,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:10" hidden="1">
       <c r="A107" s="4">
         <v>106</v>
       </c>
@@ -6646,7 +6581,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:10" hidden="1">
       <c r="A108" s="4">
         <v>107</v>
       </c>
@@ -6678,7 +6613,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:10" hidden="1">
       <c r="A109" s="4">
         <v>108</v>
       </c>
@@ -6710,7 +6645,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:10" hidden="1">
       <c r="A110" s="4">
         <v>109</v>
       </c>
@@ -6742,7 +6677,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:10" hidden="1">
       <c r="A111" s="4">
         <v>110</v>
       </c>
@@ -6774,7 +6709,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:10" hidden="1">
       <c r="A112" s="4">
         <v>111</v>
       </c>
@@ -6806,7 +6741,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="113" spans="1:10">
+    <row r="113" spans="1:10" hidden="1">
       <c r="A113" s="4">
         <v>112</v>
       </c>
@@ -6838,7 +6773,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="114" spans="1:10">
+    <row r="114" spans="1:10" hidden="1">
       <c r="A114" s="4">
         <v>113</v>
       </c>
@@ -6870,7 +6805,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="115" spans="1:10">
+    <row r="115" spans="1:10" hidden="1">
       <c r="A115" s="4">
         <v>114</v>
       </c>
@@ -6902,7 +6837,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="116" spans="1:10">
+    <row r="116" spans="1:10" hidden="1">
       <c r="A116" s="4">
         <v>115</v>
       </c>
@@ -6934,7 +6869,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="117" spans="1:10">
+    <row r="117" spans="1:10" hidden="1">
       <c r="A117" s="4">
         <v>116</v>
       </c>
@@ -6966,7 +6901,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="118" spans="1:10">
+    <row r="118" spans="1:10" hidden="1">
       <c r="A118" s="4">
         <v>117</v>
       </c>
@@ -6998,7 +6933,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="119" spans="1:10">
+    <row r="119" spans="1:10" hidden="1">
       <c r="A119" s="4">
         <v>118</v>
       </c>
@@ -7030,7 +6965,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="120" spans="1:10">
+    <row r="120" spans="1:10" hidden="1">
       <c r="A120" s="4">
         <v>119</v>
       </c>
@@ -7062,7 +6997,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" spans="1:10" hidden="1">
       <c r="A121" s="4">
         <v>120</v>
       </c>
@@ -7088,7 +7023,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="122" spans="1:10">
+    <row r="122" spans="1:10" hidden="1">
       <c r="A122" s="4">
         <v>121</v>
       </c>
@@ -7114,7 +7049,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="123" spans="1:10">
+    <row r="123" spans="1:10" hidden="1">
       <c r="A123" s="4">
         <v>122</v>
       </c>
@@ -7131,7 +7066,7 @@
         <v>91</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>41</v>
@@ -7146,7 +7081,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="124" spans="1:10">
+    <row r="124" spans="1:10" hidden="1">
       <c r="A124" s="4">
         <v>123</v>
       </c>
@@ -7221,7 +7156,7 @@
         <v>21</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>286</v>
+        <v>775</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>41</v>
@@ -7233,10 +7168,10 @@
         <v>16</v>
       </c>
       <c r="J126" s="3" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" hidden="1">
       <c r="A127" s="4">
         <v>126</v>
       </c>
@@ -7247,7 +7182,7 @@
         <v>11</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>28</v>
@@ -7265,10 +7200,10 @@
         <v>16</v>
       </c>
       <c r="J127" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" hidden="1">
       <c r="A128" s="4">
         <v>127</v>
       </c>
@@ -7279,7 +7214,7 @@
         <v>11</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>28</v>
@@ -7297,21 +7232,21 @@
         <v>16</v>
       </c>
       <c r="J128" s="3" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" hidden="1">
       <c r="A129" s="4">
         <v>128</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>13</v>
@@ -7329,10 +7264,10 @@
         <v>16</v>
       </c>
       <c r="J129" s="3" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" hidden="1">
       <c r="A130" s="4">
         <v>129</v>
       </c>
@@ -7343,7 +7278,7 @@
         <v>11</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>28</v>
@@ -7361,10 +7296,10 @@
         <v>16</v>
       </c>
       <c r="J130" s="3" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" hidden="1">
       <c r="A131" s="4">
         <v>130</v>
       </c>
@@ -7375,7 +7310,7 @@
         <v>11</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>28</v>
@@ -7393,10 +7328,10 @@
         <v>16</v>
       </c>
       <c r="J131" s="3" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" hidden="1">
       <c r="A132" s="4">
         <v>131</v>
       </c>
@@ -7407,13 +7342,13 @@
         <v>11</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="G132" s="5" t="s">
         <v>15</v>
@@ -7425,10 +7360,10 @@
         <v>16</v>
       </c>
       <c r="J132" s="3" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" hidden="1">
       <c r="A133" s="4">
         <v>132</v>
       </c>
@@ -7439,7 +7374,7 @@
         <v>11</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>28</v>
@@ -7457,10 +7392,10 @@
         <v>16</v>
       </c>
       <c r="J133" s="3" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" hidden="1">
       <c r="A134" s="4">
         <v>133</v>
       </c>
@@ -7471,7 +7406,7 @@
         <v>11</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>28</v>
@@ -7489,10 +7424,10 @@
         <v>16</v>
       </c>
       <c r="J134" s="3" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" hidden="1">
       <c r="A135" s="4">
         <v>134</v>
       </c>
@@ -7503,7 +7438,7 @@
         <v>11</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>28</v>
@@ -7521,7 +7456,7 @@
         <v>16</v>
       </c>
       <c r="J135" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="136" spans="1:10">
@@ -7535,13 +7470,13 @@
         <v>11</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G136" s="5" t="s">
         <v>15</v>
@@ -7553,10 +7488,10 @@
         <v>16</v>
       </c>
       <c r="J136" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" hidden="1">
       <c r="A137" s="4">
         <v>136</v>
       </c>
@@ -7567,7 +7502,7 @@
         <v>11</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>28</v>
@@ -7585,7 +7520,7 @@
         <v>16</v>
       </c>
       <c r="J137" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="138" spans="1:10">
@@ -7599,13 +7534,13 @@
         <v>11</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G138" s="5" t="s">
         <v>15</v>
@@ -7617,10 +7552,10 @@
         <v>16</v>
       </c>
       <c r="J138" s="3" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" hidden="1">
       <c r="A139" s="4">
         <v>138</v>
       </c>
@@ -7631,7 +7566,7 @@
         <v>11</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>28</v>
@@ -7649,7 +7584,7 @@
         <v>16</v>
       </c>
       <c r="J139" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="140" spans="1:10">
@@ -7663,13 +7598,13 @@
         <v>11</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G140" s="5" t="s">
         <v>15</v>
@@ -7681,21 +7616,21 @@
         <v>16</v>
       </c>
       <c r="J140" s="13" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" hidden="1">
       <c r="A141" s="4">
         <v>140</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>111</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>28</v>
@@ -7713,27 +7648,27 @@
         <v>16</v>
       </c>
       <c r="J141" s="3" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" hidden="1">
       <c r="A142" s="4">
         <v>141</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>111</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G142" s="5" t="s">
         <v>15</v>
@@ -7745,24 +7680,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="143" spans="1:10">
+    <row r="143" spans="1:10" hidden="1">
       <c r="A143" s="4">
         <v>142</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>111</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G143" s="5" t="s">
         <v>15</v>
@@ -7774,24 +7709,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="144" spans="1:10">
+    <row r="144" spans="1:10" hidden="1">
       <c r="A144" s="4">
         <v>143</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>111</v>
       </c>
       <c r="D144" s="14" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G144" s="15" t="s">
         <v>15</v>
@@ -7803,27 +7738,27 @@
         <v>16</v>
       </c>
       <c r="J144" s="17" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" hidden="1">
       <c r="A145" s="4">
         <v>144</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>111</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="G145" s="15" t="s">
         <v>15</v>
@@ -7835,21 +7770,21 @@
         <v>16</v>
       </c>
       <c r="J145" s="3" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" hidden="1">
       <c r="A146" s="4">
         <v>145</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>111</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>198</v>
@@ -7867,21 +7802,21 @@
         <v>16</v>
       </c>
       <c r="J146" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" hidden="1">
       <c r="A147" s="4">
         <v>146</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E147" s="4" t="s">
         <v>28</v>
@@ -7899,10 +7834,10 @@
         <v>16</v>
       </c>
       <c r="J147" s="3" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" hidden="1">
       <c r="A148" s="4">
         <v>147</v>
       </c>
@@ -7913,7 +7848,7 @@
         <v>11</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E148" s="4" t="s">
         <v>28</v>
@@ -7931,27 +7866,27 @@
         <v>16</v>
       </c>
       <c r="J148" s="3" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" hidden="1">
       <c r="A149" s="4">
         <v>148</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G149" s="5" t="s">
         <v>15</v>
@@ -7963,7 +7898,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="150" spans="1:10">
+    <row r="150" spans="1:10" hidden="1">
       <c r="A150" s="4">
         <v>149</v>
       </c>
@@ -7974,7 +7909,7 @@
         <v>11</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E150" s="4" t="s">
         <v>28</v>
@@ -7992,10 +7927,10 @@
         <v>16</v>
       </c>
       <c r="J150" s="3" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" hidden="1">
       <c r="A151" s="4">
         <v>150</v>
       </c>
@@ -8006,7 +7941,7 @@
         <v>11</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E151" s="4" t="s">
         <v>28</v>
@@ -8024,10 +7959,10 @@
         <v>16</v>
       </c>
       <c r="J151" s="7" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" hidden="1">
       <c r="A152" s="4">
         <v>151</v>
       </c>
@@ -8038,13 +7973,13 @@
         <v>11</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E152" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G152" s="5" t="s">
         <v>15</v>
@@ -8056,7 +7991,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="153" spans="1:10">
+    <row r="153" spans="1:10" hidden="1">
       <c r="A153" s="4">
         <v>152</v>
       </c>
@@ -8067,13 +8002,13 @@
         <v>11</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G153" s="5" t="s">
         <v>15</v>
@@ -8082,10 +8017,10 @@
         <v>16</v>
       </c>
       <c r="J153" s="3" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" hidden="1">
       <c r="A154" s="4">
         <v>153</v>
       </c>
@@ -8096,13 +8031,13 @@
         <v>11</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E154" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G154" s="5" t="s">
         <v>15</v>
@@ -8114,24 +8049,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="155" spans="1:10">
+    <row r="155" spans="1:10" hidden="1">
       <c r="A155" s="4">
         <v>154</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E155" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="G155" s="5" t="s">
         <v>15</v>
@@ -8141,18 +8076,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="156" spans="1:10">
+    <row r="156" spans="1:10" hidden="1">
       <c r="A156" s="4">
         <v>155</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>13</v>
@@ -8170,27 +8105,27 @@
         <v>16</v>
       </c>
       <c r="J156" s="3" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" hidden="1">
       <c r="A157" s="4">
         <v>156</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E157" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G157" s="5" t="s">
         <v>15</v>
@@ -8199,18 +8134,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="158" spans="1:10">
+    <row r="158" spans="1:10" hidden="1">
       <c r="A158" s="4">
         <v>157</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>111</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E158" s="4" t="s">
         <v>28</v>
@@ -8228,10 +8163,10 @@
         <v>16</v>
       </c>
       <c r="J158" s="3" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" hidden="1">
       <c r="A159" s="4">
         <v>158</v>
       </c>
@@ -8242,7 +8177,7 @@
         <v>11</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>28</v>
@@ -8260,10 +8195,10 @@
         <v>16</v>
       </c>
       <c r="J159" s="7" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" hidden="1">
       <c r="A160" s="4">
         <v>159</v>
       </c>
@@ -8274,13 +8209,13 @@
         <v>11</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E160" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G160" s="5" t="s">
         <v>15</v>
@@ -8292,27 +8227,27 @@
         <v>16</v>
       </c>
       <c r="J160" s="3" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" hidden="1">
       <c r="A161" s="4">
         <v>160</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="G161" s="5" t="s">
         <v>15</v>
@@ -8321,21 +8256,21 @@
         <v>16</v>
       </c>
       <c r="J161" s="3" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" hidden="1">
       <c r="A162" s="4">
         <v>161</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>28</v>
@@ -8353,7 +8288,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="163" spans="1:10">
+    <row r="163" spans="1:10" hidden="1">
       <c r="A163" s="4">
         <v>162</v>
       </c>
@@ -8364,13 +8299,13 @@
         <v>11</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G163" s="5" t="s">
         <v>15</v>
@@ -8382,7 +8317,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="164" spans="1:10">
+    <row r="164" spans="1:10" hidden="1">
       <c r="A164" s="4">
         <v>163</v>
       </c>
@@ -8393,40 +8328,45 @@
         <v>111</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>376</v>
+        <v>32</v>
       </c>
       <c r="G164" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H164" s="4"/>
+      <c r="H164" s="6">
+        <v>45775</v>
+      </c>
       <c r="I164" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="165" spans="1:10">
+      <c r="J164" s="3" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" hidden="1">
       <c r="A165" s="4">
         <v>164</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>111</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>101</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G165" s="5" t="s">
         <v>15</v>
@@ -8438,27 +8378,27 @@
         <v>16</v>
       </c>
       <c r="J165" s="3" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" hidden="1">
       <c r="A166" s="4">
         <v>165</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>111</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G166" s="5" t="s">
         <v>15</v>
@@ -8467,7 +8407,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="167" spans="1:10">
+    <row r="167" spans="1:10" hidden="1">
       <c r="A167" s="4">
         <v>166</v>
       </c>
@@ -8478,13 +8418,13 @@
         <v>11</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E167" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G167" s="5" t="s">
         <v>15</v>
@@ -8493,24 +8433,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="168" spans="1:10">
+    <row r="168" spans="1:10" hidden="1">
       <c r="A168" s="4">
         <v>167</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G168" s="5" t="s">
         <v>15</v>
@@ -8522,24 +8462,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="169" spans="1:10">
+    <row r="169" spans="1:10" hidden="1">
       <c r="A169" s="4">
         <v>168</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G169" s="5" t="s">
         <v>15</v>
@@ -8551,24 +8491,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="170" spans="1:10">
+    <row r="170" spans="1:10" hidden="1">
       <c r="A170" s="4">
         <v>169</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G170" s="5" t="s">
         <v>15</v>
@@ -8580,24 +8520,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="171" spans="1:10">
+    <row r="171" spans="1:10" hidden="1">
       <c r="A171" s="4">
         <v>170</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G171" s="5" t="s">
         <v>15</v>
@@ -8609,24 +8549,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="172" spans="1:10">
+    <row r="172" spans="1:10" hidden="1">
       <c r="A172" s="4">
         <v>171</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G172" s="5" t="s">
         <v>15</v>
@@ -8638,24 +8578,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="173" spans="1:10">
+    <row r="173" spans="1:10" hidden="1">
       <c r="A173" s="4">
         <v>172</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G173" s="5" t="s">
         <v>15</v>
@@ -8667,24 +8607,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="174" spans="1:10">
+    <row r="174" spans="1:10" hidden="1">
       <c r="A174" s="4">
         <v>173</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E174" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G174" s="5" t="s">
         <v>15</v>
@@ -8696,24 +8636,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="175" spans="1:10">
+    <row r="175" spans="1:10" hidden="1">
       <c r="A175" s="4">
         <v>174</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E175" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G175" s="5" t="s">
         <v>15</v>
@@ -8725,24 +8665,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="176" spans="1:10">
+    <row r="176" spans="1:10" hidden="1">
       <c r="A176" s="4">
         <v>175</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G176" s="5" t="s">
         <v>15</v>
@@ -8754,24 +8694,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="177" spans="1:10">
+    <row r="177" spans="1:10" hidden="1">
       <c r="A177" s="4">
         <v>176</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E177" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G177" s="5" t="s">
         <v>15</v>
@@ -8783,24 +8723,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="178" spans="1:10">
+    <row r="178" spans="1:10" hidden="1">
       <c r="A178" s="4">
         <v>177</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E178" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G178" s="5" t="s">
         <v>15</v>
@@ -8812,24 +8752,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="179" spans="1:10">
+    <row r="179" spans="1:10" hidden="1">
       <c r="A179" s="4">
         <v>178</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E179" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G179" s="5" t="s">
         <v>15</v>
@@ -8841,24 +8781,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="180" spans="1:10">
+    <row r="180" spans="1:10" hidden="1">
       <c r="A180" s="4">
         <v>179</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E180" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G180" s="5" t="s">
         <v>15</v>
@@ -8870,24 +8810,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="181" spans="1:10">
+    <row r="181" spans="1:10" hidden="1">
       <c r="A181" s="4">
         <v>180</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E181" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G181" s="5" t="s">
         <v>15</v>
@@ -8899,24 +8839,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="182" spans="1:10">
+    <row r="182" spans="1:10" hidden="1">
       <c r="A182" s="4">
         <v>181</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E182" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G182" s="5" t="s">
         <v>15</v>
@@ -8928,24 +8868,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="183" spans="1:10">
+    <row r="183" spans="1:10" hidden="1">
       <c r="A183" s="4">
         <v>182</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E183" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G183" s="5" t="s">
         <v>15</v>
@@ -8957,24 +8897,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="184" spans="1:10">
+    <row r="184" spans="1:10" hidden="1">
       <c r="A184" s="4">
         <v>183</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G184" s="5" t="s">
         <v>15</v>
@@ -8986,24 +8926,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="185" spans="1:10">
+    <row r="185" spans="1:10" hidden="1">
       <c r="A185" s="4">
         <v>184</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G185" s="5" t="s">
         <v>15</v>
@@ -9015,24 +8955,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="186" spans="1:10">
+    <row r="186" spans="1:10" hidden="1">
       <c r="A186" s="4">
         <v>185</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E186" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G186" s="5" t="s">
         <v>15</v>
@@ -9044,24 +8984,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="187" spans="1:10">
+    <row r="187" spans="1:10" hidden="1">
       <c r="A187" s="4">
         <v>186</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E187" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G187" s="5" t="s">
         <v>15</v>
@@ -9073,24 +9013,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="188" spans="1:10">
+    <row r="188" spans="1:10" hidden="1">
       <c r="A188" s="4">
         <v>187</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E188" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G188" s="5" t="s">
         <v>15</v>
@@ -9102,18 +9042,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="189" spans="1:10">
+    <row r="189" spans="1:10" hidden="1">
       <c r="A189" s="4">
         <v>188</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E189" s="1" t="s">
         <v>28</v>
@@ -9131,18 +9071,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="190" spans="1:10">
+    <row r="190" spans="1:10" hidden="1">
       <c r="A190" s="4">
         <v>189</v>
       </c>
       <c r="B190" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D190" s="1" t="s">
         <v>407</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D190" s="1" t="s">
-        <v>409</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>28</v>
@@ -9160,27 +9100,27 @@
         <v>16</v>
       </c>
       <c r="J190" s="3" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="191" spans="1:10">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" hidden="1">
       <c r="A191" s="4">
         <v>190</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E191" s="4" t="s">
         <v>91</v>
       </c>
       <c r="F191" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G191" s="5" t="s">
         <v>15</v>
@@ -9191,7 +9131,7 @@
       </c>
       <c r="J191" s="7"/>
     </row>
-    <row r="192" spans="1:10">
+    <row r="192" spans="1:10" hidden="1">
       <c r="A192" s="4">
         <v>191</v>
       </c>
@@ -9202,13 +9142,13 @@
         <v>11</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E192" s="4" t="s">
         <v>91</v>
       </c>
       <c r="F192" s="4" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="G192" s="5" t="s">
         <v>15</v>
@@ -9218,7 +9158,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="193" spans="1:10">
+    <row r="193" spans="1:10" hidden="1">
       <c r="A193" s="4">
         <v>192</v>
       </c>
@@ -9229,13 +9169,13 @@
         <v>11</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E193" s="4" t="s">
         <v>91</v>
       </c>
       <c r="F193" s="4" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G193" s="5" t="s">
         <v>15</v>
@@ -9245,24 +9185,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="194" spans="1:10">
+    <row r="194" spans="1:10" hidden="1">
       <c r="A194" s="4">
         <v>193</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E194" s="4" t="s">
         <v>91</v>
       </c>
       <c r="F194" s="4" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G194" s="5" t="s">
         <v>15</v>
@@ -9272,7 +9212,7 @@
         <v>16</v>
       </c>
       <c r="J194" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="195" spans="1:10">
@@ -9286,13 +9226,13 @@
         <v>11</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E195" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="G195" s="5" t="s">
         <v>15</v>
@@ -9304,10 +9244,10 @@
         <v>16</v>
       </c>
       <c r="J195" s="7" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="196" spans="1:10">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" hidden="1">
       <c r="A196" s="4">
         <v>195</v>
       </c>
@@ -9318,7 +9258,7 @@
         <v>11</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E196" s="1" t="s">
         <v>28</v>
@@ -9336,10 +9276,10 @@
         <v>16</v>
       </c>
       <c r="J196" s="8" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="197" spans="1:10">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" hidden="1">
       <c r="A197" s="4">
         <v>196</v>
       </c>
@@ -9350,7 +9290,7 @@
         <v>11</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E197" s="1" t="s">
         <v>28</v>
@@ -9368,7 +9308,7 @@
         <v>16</v>
       </c>
       <c r="J197" s="7" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="198" spans="1:10">
@@ -9382,13 +9322,13 @@
         <v>11</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E198" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
       <c r="G198" s="5" t="s">
         <v>15</v>
@@ -9400,10 +9340,10 @@
         <v>16</v>
       </c>
       <c r="J198" s="3" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="199" spans="1:10">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" hidden="1">
       <c r="A199" s="4">
         <v>198</v>
       </c>
@@ -9414,7 +9354,7 @@
         <v>11</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E199" s="1" t="s">
         <v>39</v>
@@ -9432,10 +9372,10 @@
         <v>16</v>
       </c>
       <c r="J199" s="3" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="200" spans="1:10">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" hidden="1">
       <c r="A200" s="4">
         <v>199</v>
       </c>
@@ -9446,7 +9386,7 @@
         <v>11</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E200" s="4" t="s">
         <v>91</v>
@@ -9464,10 +9404,10 @@
         <v>16</v>
       </c>
       <c r="J200" s="3" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="201" spans="1:10">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" hidden="1">
       <c r="A201" s="4">
         <v>200</v>
       </c>
@@ -9478,7 +9418,7 @@
         <v>11</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="E201" s="1" t="s">
         <v>28</v>
@@ -9496,7 +9436,7 @@
         <v>16</v>
       </c>
       <c r="J201" s="3" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="202" spans="1:10">
@@ -9510,13 +9450,13 @@
         <v>11</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="E202" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="G202" s="5" t="s">
         <v>15</v>
@@ -9528,10 +9468,10 @@
         <v>16</v>
       </c>
       <c r="J202" s="3" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="203" spans="1:10">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" hidden="1">
       <c r="A203" s="4">
         <v>202</v>
       </c>
@@ -9542,7 +9482,7 @@
         <v>11</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E203" s="1" t="s">
         <v>28</v>
@@ -9560,10 +9500,10 @@
         <v>16</v>
       </c>
       <c r="J203" s="3" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="204" spans="1:10">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" hidden="1">
       <c r="A204" s="4">
         <v>203</v>
       </c>
@@ -9574,7 +9514,7 @@
         <v>11</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="E204" s="1" t="s">
         <v>28</v>
@@ -9592,10 +9532,10 @@
         <v>16</v>
       </c>
       <c r="J204" s="3" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="205" spans="1:10">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" hidden="1">
       <c r="A205" s="4">
         <v>204</v>
       </c>
@@ -9606,7 +9546,7 @@
         <v>11</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E205" s="1" t="s">
         <v>28</v>
@@ -9624,10 +9564,10 @@
         <v>16</v>
       </c>
       <c r="J205" s="3" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="206" spans="1:10">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" hidden="1">
       <c r="A206" s="4">
         <v>205</v>
       </c>
@@ -9638,7 +9578,7 @@
         <v>11</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="E206" s="1" t="s">
         <v>28</v>
@@ -9656,10 +9596,10 @@
         <v>16</v>
       </c>
       <c r="J206" s="3" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="207" spans="1:10">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" hidden="1">
       <c r="A207" s="4">
         <v>206</v>
       </c>
@@ -9670,7 +9610,7 @@
         <v>11</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E207" s="1" t="s">
         <v>28</v>
@@ -9688,7 +9628,7 @@
         <v>16</v>
       </c>
       <c r="J207" s="3" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="208" spans="1:10">
@@ -9702,13 +9642,13 @@
         <v>11</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="E208" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="G208" s="5" t="s">
         <v>15</v>
@@ -9720,10 +9660,10 @@
         <v>16</v>
       </c>
       <c r="J208" s="3" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="209" spans="1:10">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" hidden="1">
       <c r="A209" s="4">
         <v>208</v>
       </c>
@@ -9734,7 +9674,7 @@
         <v>11</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="E209" s="1" t="s">
         <v>28</v>
@@ -9752,10 +9692,10 @@
         <v>16</v>
       </c>
       <c r="J209" s="3" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="210" spans="1:10">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" hidden="1">
       <c r="A210" s="4">
         <v>209</v>
       </c>
@@ -9766,7 +9706,7 @@
         <v>11</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="E210" s="1" t="s">
         <v>28</v>
@@ -9784,7 +9724,7 @@
         <v>16</v>
       </c>
       <c r="J210" s="3" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="211" spans="1:10">
@@ -9798,13 +9738,13 @@
         <v>11</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="E211" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="G211" s="5" t="s">
         <v>15</v>
@@ -9813,13 +9753,13 @@
         <v>45545</v>
       </c>
       <c r="I211" s="1" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="J211" s="3" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="212" spans="1:10">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" hidden="1">
       <c r="A212" s="4">
         <v>211</v>
       </c>
@@ -9830,7 +9770,7 @@
         <v>11</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="E212" s="1" t="s">
         <v>28</v>
@@ -9848,10 +9788,10 @@
         <v>16</v>
       </c>
       <c r="J212" s="3" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="213" spans="1:10">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" hidden="1">
       <c r="A213" s="4">
         <v>212</v>
       </c>
@@ -9862,7 +9802,7 @@
         <v>11</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="E213" s="1" t="s">
         <v>28</v>
@@ -9880,10 +9820,10 @@
         <v>16</v>
       </c>
       <c r="J213" s="3" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="214" spans="1:10">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" hidden="1">
       <c r="A214" s="4">
         <v>213</v>
       </c>
@@ -9894,7 +9834,7 @@
         <v>11</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="E214" s="1" t="s">
         <v>28</v>
@@ -9912,10 +9852,10 @@
         <v>16</v>
       </c>
       <c r="J214" s="3" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="215" spans="1:10">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" hidden="1">
       <c r="A215" s="4">
         <v>214</v>
       </c>
@@ -9926,7 +9866,7 @@
         <v>11</v>
       </c>
       <c r="D215" s="18" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="E215" s="1" t="s">
         <v>28</v>
@@ -9944,10 +9884,10 @@
         <v>16</v>
       </c>
       <c r="J215" s="3" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="216" spans="1:10">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" hidden="1">
       <c r="A216" s="4">
         <v>215</v>
       </c>
@@ -9958,7 +9898,7 @@
         <v>11</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E216" s="1" t="s">
         <v>28</v>
@@ -9976,7 +9916,7 @@
         <v>16</v>
       </c>
       <c r="J216" s="3" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="217" spans="1:10">
@@ -9990,13 +9930,13 @@
         <v>11</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>433</v>
+        <v>32</v>
       </c>
       <c r="G217" s="5" t="s">
         <v>15</v>
@@ -10008,7 +9948,7 @@
         <v>16</v>
       </c>
       <c r="J217" s="3" t="s">
-        <v>748</v>
+        <v>776</v>
       </c>
     </row>
     <row r="218" spans="1:10">
@@ -10016,28 +9956,31 @@
         <v>217</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>111</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="E218" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>472</v>
+        <v>770</v>
       </c>
       <c r="G218" s="5" t="s">
         <v>15</v>
       </c>
+      <c r="H218" s="9">
+        <v>45775</v>
+      </c>
       <c r="I218" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="219" spans="1:10">
+    <row r="219" spans="1:10" hidden="1">
       <c r="A219" s="4">
         <v>218</v>
       </c>
@@ -10048,7 +9991,7 @@
         <v>11</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="E219" s="1" t="s">
         <v>28</v>
@@ -10066,10 +10009,10 @@
         <v>16</v>
       </c>
       <c r="J219" s="3" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="220" spans="1:10">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" hidden="1">
       <c r="A220" s="4">
         <v>219</v>
       </c>
@@ -10080,13 +10023,13 @@
         <v>11</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="G220" s="5" t="s">
         <v>15</v>
@@ -10095,7 +10038,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="221" spans="1:10">
+    <row r="221" spans="1:10" hidden="1">
       <c r="A221" s="4">
         <v>220</v>
       </c>
@@ -10106,7 +10049,7 @@
         <v>11</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="E221" s="1" t="s">
         <v>28</v>
@@ -10124,10 +10067,10 @@
         <v>16</v>
       </c>
       <c r="J221" s="3" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="222" spans="1:10">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" hidden="1">
       <c r="A222" s="4">
         <v>221</v>
       </c>
@@ -10138,7 +10081,7 @@
         <v>11</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="E222" s="1" t="s">
         <v>28</v>
@@ -10156,7 +10099,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="223" spans="1:10">
+    <row r="223" spans="1:10" hidden="1">
       <c r="A223" s="4">
         <v>222</v>
       </c>
@@ -10167,7 +10110,7 @@
         <v>11</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="E223" s="1" t="s">
         <v>28</v>
@@ -10185,10 +10128,10 @@
         <v>16</v>
       </c>
       <c r="J223" s="3" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="224" spans="1:10">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" hidden="1">
       <c r="A224" s="4">
         <v>223</v>
       </c>
@@ -10199,7 +10142,7 @@
         <v>11</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="E224" s="1" t="s">
         <v>28</v>
@@ -10229,13 +10172,13 @@
         <v>11</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="E225" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="G225" s="5" t="s">
         <v>15</v>
@@ -10247,10 +10190,10 @@
         <v>16</v>
       </c>
       <c r="J225" s="7" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="226" spans="1:10">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" hidden="1">
       <c r="A226" s="4">
         <v>225</v>
       </c>
@@ -10261,7 +10204,7 @@
         <v>11</v>
       </c>
       <c r="D226" s="4" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="E226" s="1" t="s">
         <v>28</v>
@@ -10279,10 +10222,10 @@
         <v>16</v>
       </c>
       <c r="J226" s="7" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="227" spans="1:10">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" hidden="1">
       <c r="A227" s="4">
         <v>226</v>
       </c>
@@ -10293,7 +10236,7 @@
         <v>11</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="E227" s="1" t="s">
         <v>28</v>
@@ -10311,10 +10254,10 @@
         <v>16</v>
       </c>
       <c r="J227" s="3" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="228" spans="1:10">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" hidden="1">
       <c r="A228" s="4">
         <v>227</v>
       </c>
@@ -10325,7 +10268,7 @@
         <v>11</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="E228" s="1" t="s">
         <v>28</v>
@@ -10343,10 +10286,10 @@
         <v>16</v>
       </c>
       <c r="J228" s="3" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="229" spans="1:10">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" hidden="1">
       <c r="A229" s="4">
         <v>228</v>
       </c>
@@ -10357,7 +10300,7 @@
         <v>11</v>
       </c>
       <c r="D229" s="4" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="E229" s="1" t="s">
         <v>28</v>
@@ -10375,27 +10318,27 @@
         <v>16</v>
       </c>
       <c r="J229" s="8" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="230" spans="1:10">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" hidden="1">
       <c r="A230" s="4">
         <v>229</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D230" s="14" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="E230" s="14" t="s">
         <v>13</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="G230" s="15" t="s">
         <v>15</v>
@@ -10407,19 +10350,19 @@
         <v>16</v>
       </c>
       <c r="J230" s="8" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="231" spans="1:10">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" hidden="1">
       <c r="A231" s="14"/>
       <c r="B231" s="2" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="C231" s="15" t="s">
         <v>11</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="E231" s="14" t="s">
         <v>13</v>
@@ -10437,21 +10380,21 @@
         <v>16</v>
       </c>
       <c r="J231" s="8" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="232" spans="1:10">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" hidden="1">
       <c r="A232" s="4">
         <v>230</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="E232" s="1" t="s">
         <v>28</v>
@@ -10469,21 +10412,21 @@
         <v>16</v>
       </c>
       <c r="J232" s="3" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="233" spans="1:10">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" hidden="1">
       <c r="A233" s="4">
         <v>231</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="E233" s="1" t="s">
         <v>28</v>
@@ -10501,21 +10444,21 @@
         <v>16</v>
       </c>
       <c r="J233" s="3" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="234" spans="1:10">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" hidden="1">
       <c r="A234" s="4">
         <v>232</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="E234" s="1" t="s">
         <v>28</v>
@@ -10533,7 +10476,7 @@
         <v>16</v>
       </c>
       <c r="J234" s="3" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="235" spans="1:10">
@@ -10553,7 +10496,7 @@
         <v>21</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="G235" s="2" t="s">
         <v>21</v>
@@ -10565,21 +10508,21 @@
         <v>16</v>
       </c>
       <c r="J235" s="3" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="236" spans="1:10">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" hidden="1">
       <c r="A236" s="4">
         <v>234</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="E236" s="1" t="s">
         <v>28</v>
@@ -10597,24 +10540,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="237" spans="1:10">
+    <row r="237" spans="1:10" hidden="1">
       <c r="A237" s="4">
         <v>235</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>111</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="G237" s="5" t="s">
         <v>15</v>
@@ -10623,18 +10566,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="238" spans="1:10">
+    <row r="238" spans="1:10" hidden="1">
       <c r="A238" s="4">
         <v>236</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>111</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="E238" s="1" t="s">
         <v>198</v>
@@ -10652,21 +10595,21 @@
         <v>16</v>
       </c>
       <c r="J238" s="3" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="239" spans="1:10">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" hidden="1">
       <c r="A239" s="4">
         <v>237</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="E239" s="1" t="s">
         <v>28</v>
@@ -10684,10 +10627,10 @@
         <v>16</v>
       </c>
       <c r="J239" s="3" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="240" spans="1:10">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" hidden="1">
       <c r="A240" s="4">
         <v>238</v>
       </c>
@@ -10698,13 +10641,13 @@
         <v>11</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="E240" s="1" t="s">
         <v>202</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="G240" s="2" t="s">
         <v>41</v>
@@ -10713,10 +10656,10 @@
         <v>16</v>
       </c>
       <c r="J240" s="3" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="241" spans="1:10">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" hidden="1">
       <c r="A241" s="4">
         <v>239</v>
       </c>
@@ -10727,13 +10670,13 @@
         <v>11</v>
       </c>
       <c r="D241" s="20" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="E241" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="G241" s="2" t="s">
         <v>41</v>
@@ -10745,10 +10688,10 @@
         <v>16</v>
       </c>
       <c r="J241" s="3" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="242" spans="1:10">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" hidden="1">
       <c r="A242" s="4">
         <v>240</v>
       </c>
@@ -10759,13 +10702,13 @@
         <v>11</v>
       </c>
       <c r="D242" s="20" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="E242" s="1" t="s">
         <v>202</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="G242" s="2" t="s">
         <v>41</v>
@@ -10777,7 +10720,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="243" spans="1:10">
+    <row r="243" spans="1:10" hidden="1">
       <c r="A243" s="4">
         <v>241</v>
       </c>
@@ -10788,13 +10731,13 @@
         <v>11</v>
       </c>
       <c r="D243" s="20" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="E243" s="1" t="s">
         <v>202</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="G243" s="2" t="s">
         <v>41</v>
@@ -10803,27 +10746,27 @@
         <v>16</v>
       </c>
       <c r="J243" s="3" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="244" spans="1:10">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" hidden="1">
       <c r="A244" s="4">
         <v>242</v>
       </c>
       <c r="B244" s="10" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>111</v>
       </c>
       <c r="D244" s="20" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E244" s="1" t="s">
         <v>202</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="G244" s="5" t="s">
         <v>41</v>
@@ -10832,7 +10775,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="245" spans="1:10">
+    <row r="245" spans="1:10" hidden="1">
       <c r="A245" s="4">
         <v>243</v>
       </c>
@@ -10843,45 +10786,45 @@
         <v>111</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>775</v>
+        <v>32</v>
       </c>
       <c r="G245" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H245" s="9">
-        <v>45643</v>
+        <v>45775</v>
       </c>
       <c r="I245" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J245" s="3" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="246" spans="1:10">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" hidden="1">
       <c r="A246" s="4">
         <v>244</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>111</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="E246" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="G246" s="5" t="s">
         <v>15</v>
@@ -10893,10 +10836,10 @@
         <v>16</v>
       </c>
       <c r="J246" s="3" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="247" spans="1:10">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" hidden="1">
       <c r="A247" s="4">
         <v>245</v>
       </c>
@@ -10907,7 +10850,7 @@
         <v>11</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="E247" s="1" t="s">
         <v>28</v>
@@ -10925,21 +10868,21 @@
         <v>16</v>
       </c>
       <c r="J247" s="3" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="248" spans="1:10">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" hidden="1">
       <c r="A248" s="4">
         <v>246</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E248" s="1" t="s">
         <v>28</v>
@@ -10957,21 +10900,21 @@
         <v>16</v>
       </c>
       <c r="J248" s="3" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="249" spans="1:10">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" hidden="1">
       <c r="A249" s="4">
         <v>247</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="E249" s="1" t="s">
         <v>39</v>
@@ -10989,21 +10932,21 @@
         <v>216</v>
       </c>
       <c r="J249" s="3" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="250" spans="1:10">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" hidden="1">
       <c r="A250" s="4">
         <v>248</v>
       </c>
       <c r="B250" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D250" s="18" t="s">
         <v>533</v>
-      </c>
-      <c r="C250" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D250" s="18" t="s">
-        <v>538</v>
       </c>
       <c r="E250" s="1" t="s">
         <v>39</v>
@@ -11021,21 +10964,21 @@
         <v>216</v>
       </c>
       <c r="J250" s="3" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="251" spans="1:10">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" hidden="1">
       <c r="A251" s="4">
         <v>249</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="E251" s="1" t="s">
         <v>198</v>
@@ -11053,21 +10996,21 @@
         <v>16</v>
       </c>
       <c r="J251" s="3" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="252" spans="1:10">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" hidden="1">
       <c r="A252" s="4">
         <v>250</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D252" s="18" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="E252" s="1" t="s">
         <v>39</v>
@@ -11085,10 +11028,10 @@
         <v>216</v>
       </c>
       <c r="J252" s="3" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="253" spans="1:10">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" hidden="1">
       <c r="A253" s="4">
         <v>251</v>
       </c>
@@ -11099,7 +11042,7 @@
         <v>11</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="E253" s="1" t="s">
         <v>28</v>
@@ -11117,7 +11060,7 @@
         <v>16</v>
       </c>
       <c r="J253" s="3" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
     </row>
     <row r="254" spans="1:10">
@@ -11131,13 +11074,13 @@
         <v>11</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="E254" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G254" s="5" t="s">
         <v>15</v>
@@ -11149,21 +11092,21 @@
         <v>16</v>
       </c>
       <c r="J254" s="3" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="255" spans="1:10">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" hidden="1">
       <c r="A255" s="4">
         <v>253</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>111</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="E255" s="1" t="s">
         <v>13</v>
@@ -11181,27 +11124,27 @@
         <v>16</v>
       </c>
       <c r="J255" s="3" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="256" spans="1:10">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" hidden="1">
       <c r="A256" s="4">
         <v>254</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="E256" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="G256" s="5" t="s">
         <v>15</v>
@@ -11213,21 +11156,21 @@
         <v>16</v>
       </c>
       <c r="J256" s="3" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="257" spans="1:10">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" hidden="1">
       <c r="A257" s="4">
         <v>255</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>111</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="E257" s="1" t="s">
         <v>13</v>
@@ -11245,10 +11188,10 @@
         <v>16</v>
       </c>
       <c r="J257" s="3" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="258" spans="1:10">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" hidden="1">
       <c r="A258" s="4">
         <v>256</v>
       </c>
@@ -11259,13 +11202,13 @@
         <v>111</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="E258" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="G258" s="5" t="s">
         <v>15</v>
@@ -11274,10 +11217,10 @@
         <v>16</v>
       </c>
       <c r="J258" s="3" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="259" spans="1:10">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" hidden="1">
       <c r="A259" s="4">
         <v>257</v>
       </c>
@@ -11288,7 +11231,7 @@
         <v>11</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="E259" s="1" t="s">
         <v>28</v>
@@ -11306,10 +11249,10 @@
         <v>16</v>
       </c>
       <c r="J259" s="3" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="260" spans="1:10">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" hidden="1">
       <c r="A260" s="4">
         <v>258</v>
       </c>
@@ -11320,7 +11263,7 @@
         <v>11</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="E260" s="1" t="s">
         <v>28</v>
@@ -11338,27 +11281,27 @@
         <v>16</v>
       </c>
       <c r="J260" s="3" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="261" spans="1:10">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" hidden="1">
       <c r="A261" s="4">
         <v>259</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="F261" s="1" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="G261" s="2" t="s">
         <v>15</v>
@@ -11370,27 +11313,27 @@
         <v>16</v>
       </c>
       <c r="J261" s="3" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="262" spans="1:10">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" hidden="1">
       <c r="A262" s="4">
         <v>260</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="E262" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="G262" s="2" t="s">
         <v>15</v>
@@ -11402,21 +11345,21 @@
         <v>16</v>
       </c>
       <c r="J262" s="3" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="263" spans="1:10">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" hidden="1">
       <c r="A263" s="4">
         <v>261</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="E263" s="1" t="s">
         <v>28</v>
@@ -11434,27 +11377,27 @@
         <v>16</v>
       </c>
       <c r="J263" s="3" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="264" spans="1:10">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" hidden="1">
       <c r="A264" s="4">
         <v>262</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="E264" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="G264" s="2" t="s">
         <v>15</v>
@@ -11466,27 +11409,27 @@
         <v>16</v>
       </c>
       <c r="J264" s="3" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="265" spans="1:10">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" hidden="1">
       <c r="A265" s="4">
         <v>263</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="E265" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F265" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="G265" s="2" t="s">
         <v>15</v>
@@ -11498,27 +11441,27 @@
         <v>16</v>
       </c>
       <c r="J265" s="3" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="266" spans="1:10">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" hidden="1">
       <c r="A266" s="4">
         <v>264</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="E266" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F266" s="1" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="G266" s="2" t="s">
         <v>15</v>
@@ -11530,27 +11473,27 @@
         <v>16</v>
       </c>
       <c r="J266" s="3" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="267" spans="1:10">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" hidden="1">
       <c r="A267" s="4">
         <v>265</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="E267" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F267" s="1" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="G267" s="2" t="s">
         <v>15</v>
@@ -11562,27 +11505,27 @@
         <v>16</v>
       </c>
       <c r="J267" s="3" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="268" spans="1:10">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" hidden="1">
       <c r="A268" s="4">
         <v>266</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="E268" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="G268" s="2" t="s">
         <v>15</v>
@@ -11594,27 +11537,27 @@
         <v>16</v>
       </c>
       <c r="J268" s="3" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="269" spans="1:10">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" hidden="1">
       <c r="A269" s="4">
         <v>267</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="E269" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="G269" s="2" t="s">
         <v>15</v>
@@ -11626,27 +11569,27 @@
         <v>16</v>
       </c>
       <c r="J269" s="3" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="270" spans="1:10">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" hidden="1">
       <c r="A270" s="4">
         <v>268</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="E270" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F270" s="1" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="G270" s="2" t="s">
         <v>15</v>
@@ -11658,27 +11601,27 @@
         <v>16</v>
       </c>
       <c r="J270" s="3" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="271" spans="1:10">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" hidden="1">
       <c r="A271" s="4">
         <v>269</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="E271" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F271" s="1" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="G271" s="2" t="s">
         <v>15</v>
@@ -11690,27 +11633,27 @@
         <v>16</v>
       </c>
       <c r="J271" s="3" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="272" spans="1:10">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" hidden="1">
       <c r="A272" s="4">
         <v>270</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="E272" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F272" s="1" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="G272" s="2" t="s">
         <v>15</v>
@@ -11722,27 +11665,27 @@
         <v>16</v>
       </c>
       <c r="J272" s="3" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="273" spans="1:10">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" hidden="1">
       <c r="A273" s="4">
         <v>271</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="E273" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F273" s="1" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="G273" s="2" t="s">
         <v>15</v>
@@ -11754,27 +11697,27 @@
         <v>16</v>
       </c>
       <c r="J273" s="3" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="274" spans="1:10">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" hidden="1">
       <c r="A274" s="4">
         <v>272</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="E274" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="G274" s="2" t="s">
         <v>15</v>
@@ -11786,27 +11729,27 @@
         <v>16</v>
       </c>
       <c r="J274" s="3" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="275" spans="1:10">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" hidden="1">
       <c r="A275" s="4">
         <v>273</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="E275" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F275" s="1" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="G275" s="2" t="s">
         <v>15</v>
@@ -11818,27 +11761,27 @@
         <v>16</v>
       </c>
       <c r="J275" s="3" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="276" spans="1:10">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" hidden="1">
       <c r="A276" s="4">
         <v>274</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="E276" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F276" s="1" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="G276" s="2" t="s">
         <v>15</v>
@@ -11850,27 +11793,27 @@
         <v>16</v>
       </c>
       <c r="J276" s="3" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="277" spans="1:10">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" hidden="1">
       <c r="A277" s="4">
         <v>275</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="E277" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F277" s="1" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="G277" s="2" t="s">
         <v>15</v>
@@ -11882,27 +11825,27 @@
         <v>16</v>
       </c>
       <c r="J277" s="3" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="278" spans="1:10">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" hidden="1">
       <c r="A278" s="4">
         <v>276</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D278" s="21" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="E278" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F278" s="4" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="G278" s="2" t="s">
         <v>15</v>
@@ -11914,27 +11857,27 @@
         <v>16</v>
       </c>
       <c r="J278" s="3" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="279" spans="1:10">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" hidden="1">
       <c r="A279" s="4">
         <v>277</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="E279" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F279" s="1" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="G279" s="2" t="s">
         <v>15</v>
@@ -11946,27 +11889,27 @@
         <v>16</v>
       </c>
       <c r="J279" s="3" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="280" spans="1:10">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" hidden="1">
       <c r="A280" s="4">
         <v>278</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="E280" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F280" s="4" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="G280" s="2" t="s">
         <v>15</v>
@@ -11978,27 +11921,27 @@
         <v>16</v>
       </c>
       <c r="J280" s="3" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="281" spans="1:10">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" hidden="1">
       <c r="A281" s="4">
         <v>279</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="E281" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F281" s="1" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="G281" s="2" t="s">
         <v>15</v>
@@ -12010,27 +11953,27 @@
         <v>16</v>
       </c>
       <c r="J281" s="3" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="282" spans="1:10">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" hidden="1">
       <c r="A282" s="4">
         <v>280</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="F282" s="1" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="G282" s="2" t="s">
         <v>15</v>
@@ -12039,30 +11982,30 @@
         <v>45607</v>
       </c>
       <c r="I282" s="9" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="J282" s="3" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="283" spans="1:10">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" hidden="1">
       <c r="A283" s="4">
         <v>281</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="F283" s="1" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="G283" s="2" t="s">
         <v>15</v>
@@ -12071,30 +12014,30 @@
         <v>45607</v>
       </c>
       <c r="I283" s="9" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="J283" s="3" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="284" spans="1:10">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" hidden="1">
       <c r="A284" s="4">
         <v>282</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="F284" s="1" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="G284" s="2" t="s">
         <v>15</v>
@@ -12103,30 +12046,30 @@
         <v>45607</v>
       </c>
       <c r="I284" s="9" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="J284" s="3" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="285" spans="1:10">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" hidden="1">
       <c r="A285" s="4">
         <v>283</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="F285" s="1" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="G285" s="2" t="s">
         <v>15</v>
@@ -12135,30 +12078,30 @@
         <v>45614</v>
       </c>
       <c r="I285" s="9" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="J285" s="3" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="286" spans="1:10">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" hidden="1">
       <c r="A286" s="4">
         <v>284</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="F286" s="1" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="G286" s="2" t="s">
         <v>15</v>
@@ -12167,30 +12110,30 @@
         <v>45614</v>
       </c>
       <c r="I286" s="9" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="J286" s="3" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="287" spans="1:10">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" hidden="1">
       <c r="A287" s="4">
         <v>285</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="F287" s="1" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="G287" s="2" t="s">
         <v>15</v>
@@ -12199,30 +12142,30 @@
         <v>45615</v>
       </c>
       <c r="I287" s="9" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="J287" s="3" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="288" spans="1:10">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" hidden="1">
       <c r="A288" s="4">
         <v>286</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="F288" s="1" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="G288" s="2" t="s">
         <v>15</v>
@@ -12231,30 +12174,30 @@
         <v>45615</v>
       </c>
       <c r="I288" s="9" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="J288" s="3" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="289" spans="1:10">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" hidden="1">
       <c r="A289" s="4">
         <v>287</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="F289" s="1" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="G289" s="2" t="s">
         <v>15</v>
@@ -12263,30 +12206,30 @@
         <v>45615</v>
       </c>
       <c r="I289" s="9" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="J289" s="3" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="290" spans="1:10">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" hidden="1">
       <c r="A290" s="4">
         <v>288</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="F290" s="1" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="G290" s="2" t="s">
         <v>15</v>
@@ -12295,30 +12238,30 @@
         <v>45617</v>
       </c>
       <c r="I290" s="9" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="J290" s="3" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="291" spans="1:10">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" hidden="1">
       <c r="A291" s="4">
         <v>289</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="F291" s="1" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="G291" s="2" t="s">
         <v>15</v>
@@ -12327,30 +12270,30 @@
         <v>45617</v>
       </c>
       <c r="I291" s="9" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="J291" s="3" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="292" spans="1:10">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" hidden="1">
       <c r="A292" s="4">
         <v>290</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="F292" s="1" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="G292" s="2" t="s">
         <v>15</v>
@@ -12359,30 +12302,30 @@
         <v>45618</v>
       </c>
       <c r="I292" s="9" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="J292" s="3" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="293" spans="1:10">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" hidden="1">
       <c r="A293" s="4">
         <v>291</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="F293" s="1" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="G293" s="2" t="s">
         <v>15</v>
@@ -12391,30 +12334,30 @@
         <v>45621</v>
       </c>
       <c r="I293" s="9" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="J293" s="3" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="294" spans="1:10">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" hidden="1">
       <c r="A294" s="4">
         <v>292</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="F294" s="1" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="G294" s="2" t="s">
         <v>15</v>
@@ -12423,30 +12366,30 @@
         <v>45621</v>
       </c>
       <c r="I294" s="9" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="J294" s="3" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="295" spans="1:10">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" hidden="1">
       <c r="A295" s="4">
         <v>293</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="E295" s="1" t="s">
         <v>101</v>
       </c>
       <c r="F295" s="1" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="G295" s="2" t="s">
         <v>15</v>
@@ -12458,21 +12401,21 @@
         <v>103</v>
       </c>
       <c r="J295" s="3" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="296" spans="1:10">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" hidden="1">
       <c r="A296" s="4">
         <v>294</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="E296" s="1" t="s">
         <v>28</v>
@@ -12490,27 +12433,27 @@
         <v>16</v>
       </c>
       <c r="J296" s="3" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="297" spans="1:10">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" hidden="1">
       <c r="A297" s="4">
         <v>295</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="E297" s="1" t="s">
         <v>101</v>
       </c>
       <c r="F297" s="1" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="G297" s="2" t="s">
         <v>15</v>
@@ -12522,21 +12465,21 @@
         <v>103</v>
       </c>
       <c r="J297" s="3" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="298" spans="1:10">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" hidden="1">
       <c r="A298" s="4">
         <v>296</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="E298" s="1" t="s">
         <v>28</v>
@@ -12554,27 +12497,27 @@
         <v>103</v>
       </c>
       <c r="J298" s="3" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="299" spans="1:10">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10" hidden="1">
       <c r="A299" s="4">
         <v>297</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="E299" s="1" t="s">
         <v>101</v>
       </c>
       <c r="F299" s="1" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="G299" s="2" t="s">
         <v>15</v>
@@ -12586,27 +12529,27 @@
         <v>103</v>
       </c>
       <c r="J299" s="3" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="300" spans="1:10">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" hidden="1">
       <c r="A300" s="4">
         <v>298</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="E300" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F300" s="1" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="G300" s="2" t="s">
         <v>15</v>
@@ -12618,27 +12561,27 @@
         <v>16</v>
       </c>
       <c r="J300" s="3" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="301" spans="1:10">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" hidden="1">
       <c r="A301" s="4">
         <v>299</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="E301" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F301" s="1" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="G301" s="2" t="s">
         <v>15</v>
@@ -12650,27 +12593,27 @@
         <v>16</v>
       </c>
       <c r="J301" s="3" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="302" spans="1:10">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" hidden="1">
       <c r="A302" s="4">
         <v>300</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="E302" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F302" s="1" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="G302" s="2" t="s">
         <v>15</v>
@@ -12682,27 +12625,27 @@
         <v>16</v>
       </c>
       <c r="J302" s="3" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="303" spans="1:10">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10" hidden="1">
       <c r="A303" s="4">
         <v>301</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="E303" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F303" s="1" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="G303" s="2" t="s">
         <v>15</v>
@@ -12714,27 +12657,27 @@
         <v>16</v>
       </c>
       <c r="J303" s="3" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="304" spans="1:10">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10" hidden="1">
       <c r="A304" s="4">
         <v>302</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="E304" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F304" s="1" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="G304" s="2" t="s">
         <v>15</v>
@@ -12746,21 +12689,21 @@
         <v>16</v>
       </c>
       <c r="J304" s="3" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="305" spans="1:10">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" hidden="1">
       <c r="A305" s="4">
         <v>303</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="E305" s="1" t="s">
         <v>28</v>
@@ -12778,27 +12721,27 @@
         <v>16</v>
       </c>
       <c r="J305" s="3" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="306" spans="1:10">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" hidden="1">
       <c r="A306" s="4">
         <v>304</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="E306" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F306" s="1" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="G306" s="2" t="s">
         <v>15</v>
@@ -12810,27 +12753,27 @@
         <v>16</v>
       </c>
       <c r="J306" s="3" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="307" spans="1:10">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10" hidden="1">
       <c r="A307" s="4">
         <v>305</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="E307" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F307" s="1" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="G307" s="2" t="s">
         <v>15</v>
@@ -12842,27 +12785,27 @@
         <v>16</v>
       </c>
       <c r="J307" s="3" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="308" spans="1:10">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10" hidden="1">
       <c r="A308" s="4">
         <v>306</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="E308" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F308" s="1" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="G308" s="2" t="s">
         <v>15</v>
@@ -12874,27 +12817,27 @@
         <v>16</v>
       </c>
       <c r="J308" s="3" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="309" spans="1:10">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" hidden="1">
       <c r="A309" s="4">
         <v>307</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="E309" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F309" s="1" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="G309" s="2" t="s">
         <v>15</v>
@@ -12906,21 +12849,21 @@
         <v>16</v>
       </c>
       <c r="J309" s="3" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="310" spans="1:10">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10" hidden="1">
       <c r="A310" s="4">
         <v>308</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="E310" s="1" t="s">
         <v>28</v>
@@ -12938,27 +12881,27 @@
         <v>16</v>
       </c>
       <c r="J310" s="3" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="311" spans="1:10">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" hidden="1">
       <c r="A311" s="4">
         <v>309</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="E311" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F311" s="1" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="G311" s="2" t="s">
         <v>15</v>
@@ -12967,30 +12910,30 @@
         <v>45702</v>
       </c>
       <c r="I311" s="9" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="J311" s="3" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="312" spans="1:10">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10" hidden="1">
       <c r="A312" s="4">
         <v>310</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="E312" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F312" s="1" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="G312" s="2" t="s">
         <v>15</v>
@@ -12999,30 +12942,30 @@
         <v>45702</v>
       </c>
       <c r="I312" s="9" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="J312" s="3" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="313" spans="1:10">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" hidden="1">
       <c r="A313" s="4">
         <v>311</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="E313" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F313" s="1" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="G313" s="2" t="s">
         <v>15</v>
@@ -13031,30 +12974,30 @@
         <v>45702</v>
       </c>
       <c r="I313" s="9" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="J313" s="3" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="314" spans="1:10">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" hidden="1">
       <c r="A314" s="4">
         <v>312</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="E314" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F314" s="1" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="G314" s="2" t="s">
         <v>15</v>
@@ -13066,27 +13009,27 @@
         <v>16</v>
       </c>
       <c r="J314" s="3" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="315" spans="1:10">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="315" spans="1:10" hidden="1">
       <c r="A315" s="4">
         <v>313</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="E315" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F315" s="1" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="G315" s="2" t="s">
         <v>15</v>
@@ -13095,30 +13038,30 @@
         <v>45726</v>
       </c>
       <c r="I315" s="9" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="J315" s="3" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="316" spans="1:10">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" hidden="1">
       <c r="A316" s="4">
         <v>314</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="E316" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F316" s="1" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="G316" s="2" t="s">
         <v>15</v>
@@ -13127,30 +13070,30 @@
         <v>45726</v>
       </c>
       <c r="I316" s="9" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="J316" s="3" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="317" spans="1:10">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10" hidden="1">
       <c r="A317" s="4">
         <v>315</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="E317" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F317" s="1" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="G317" s="2" t="s">
         <v>15</v>
@@ -13159,30 +13102,30 @@
         <v>45726</v>
       </c>
       <c r="I317" s="9" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="J317" s="3" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="318" spans="1:10">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10" hidden="1">
       <c r="A318" s="4">
         <v>316</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="E318" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F318" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G318" s="2" t="s">
         <v>15</v>
@@ -13194,27 +13137,27 @@
         <v>16</v>
       </c>
       <c r="J318" s="3" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="319" spans="1:10">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10" hidden="1">
       <c r="A319" s="4">
         <v>317</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="E319" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F319" s="1" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="G319" s="2" t="s">
         <v>15</v>
@@ -13226,27 +13169,27 @@
         <v>16</v>
       </c>
       <c r="J319" s="3" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="320" spans="1:10">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="320" spans="1:10" hidden="1">
       <c r="A320" s="4">
         <v>318</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="E320" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F320" s="1" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="G320" s="2" t="s">
         <v>15</v>
@@ -13258,27 +13201,27 @@
         <v>16</v>
       </c>
       <c r="J320" s="3" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="321" spans="1:10">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="321" spans="1:10" hidden="1">
       <c r="A321" s="4">
         <v>319</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="E321" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F321" s="1" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="G321" s="2" t="s">
         <v>15</v>
@@ -13290,27 +13233,27 @@
         <v>16</v>
       </c>
       <c r="J321" s="3" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="322" spans="1:10">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="322" spans="1:10" hidden="1">
       <c r="A322" s="4">
         <v>320</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="E322" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F322" s="1" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="G322" s="2" t="s">
         <v>15</v>
@@ -13322,27 +13265,27 @@
         <v>16</v>
       </c>
       <c r="J322" s="3" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="323" spans="1:10">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="323" spans="1:10" hidden="1">
       <c r="A323" s="4">
         <v>321</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="E323" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F323" s="1" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="G323" s="2" t="s">
         <v>15</v>
@@ -13354,27 +13297,27 @@
         <v>16</v>
       </c>
       <c r="J323" s="3" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="324" spans="1:10">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10" hidden="1">
       <c r="A324" s="4">
         <v>322</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="E324" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F324" s="1" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="G324" s="2" t="s">
         <v>15</v>
@@ -13386,27 +13329,27 @@
         <v>16</v>
       </c>
       <c r="J324" s="3" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="325" spans="1:10">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="325" spans="1:10" hidden="1">
       <c r="A325" s="4">
         <v>323</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="E325" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F325" s="1" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="G325" s="2" t="s">
         <v>15</v>
@@ -13418,27 +13361,27 @@
         <v>16</v>
       </c>
       <c r="J325" s="3" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="326" spans="1:10">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="326" spans="1:10" hidden="1">
       <c r="A326" s="4">
         <v>324</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="E326" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F326" s="1" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="G326" s="2" t="s">
         <v>15</v>
@@ -13450,27 +13393,27 @@
         <v>16</v>
       </c>
       <c r="J326" s="3" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="327" spans="1:10">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="327" spans="1:10" hidden="1">
       <c r="A327" s="4">
         <v>325</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="E327" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F327" s="1" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="G327" s="2" t="s">
         <v>15</v>
@@ -13482,27 +13425,27 @@
         <v>16</v>
       </c>
       <c r="J327" s="3" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="328" spans="1:10">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="328" spans="1:10" hidden="1">
       <c r="A328" s="4">
         <v>326</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="E328" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F328" s="1" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="G328" s="2" t="s">
         <v>15</v>
@@ -13514,27 +13457,27 @@
         <v>16</v>
       </c>
       <c r="J328" s="3" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="329" spans="1:10">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="329" spans="1:10" hidden="1">
       <c r="A329" s="4">
         <v>327</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="E329" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F329" s="1" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="G329" s="2" t="s">
         <v>15</v>
@@ -13546,27 +13489,27 @@
         <v>16</v>
       </c>
       <c r="J329" s="3" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="330" spans="1:10">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10" hidden="1">
       <c r="A330" s="4">
         <v>328</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="E330" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F330" s="1" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="G330" s="2" t="s">
         <v>15</v>
@@ -13578,27 +13521,27 @@
         <v>16</v>
       </c>
       <c r="J330" s="3" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="331" spans="1:10">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="331" spans="1:10" hidden="1">
       <c r="A331" s="4">
         <v>329</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="E331" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F331" s="1" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="G331" s="2" t="s">
         <v>15</v>
@@ -13610,27 +13553,27 @@
         <v>16</v>
       </c>
       <c r="J331" s="3" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="332" spans="1:10">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="332" spans="1:10" hidden="1">
       <c r="A332" s="4">
         <v>330</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="E332" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F332" s="1" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="G332" s="2" t="s">
         <v>15</v>
@@ -13642,27 +13585,27 @@
         <v>16</v>
       </c>
       <c r="J332" s="3" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="333" spans="1:10">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="333" spans="1:10" hidden="1">
       <c r="A333" s="4">
         <v>331</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="E333" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F333" s="1" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="G333" s="2" t="s">
         <v>15</v>
@@ -13674,27 +13617,27 @@
         <v>16</v>
       </c>
       <c r="J333" s="3" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="334" spans="1:10">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="334" spans="1:10" hidden="1">
       <c r="A334" s="4">
         <v>332</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="E334" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F334" s="1" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="G334" s="2" t="s">
         <v>15</v>
@@ -13706,27 +13649,27 @@
         <v>16</v>
       </c>
       <c r="J334" s="3" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="335" spans="1:10">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="335" spans="1:10" hidden="1">
       <c r="A335" s="4">
         <v>333</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="E335" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F335" s="1" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="G335" s="2" t="s">
         <v>15</v>
@@ -13738,27 +13681,27 @@
         <v>16</v>
       </c>
       <c r="J335" s="3" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="336" spans="1:10">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="336" spans="1:10" hidden="1">
       <c r="A336" s="4">
         <v>334</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="E336" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F336" s="1" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="G336" s="2" t="s">
         <v>15</v>
@@ -13770,27 +13713,27 @@
         <v>16</v>
       </c>
       <c r="J336" s="3" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="337" spans="1:10">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="337" spans="1:10" hidden="1">
       <c r="A337" s="4">
         <v>335</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="E337" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F337" s="1" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="G337" s="2" t="s">
         <v>15</v>
@@ -13802,27 +13745,27 @@
         <v>16</v>
       </c>
       <c r="J337" s="3" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="338" spans="1:10">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="338" spans="1:10" hidden="1">
       <c r="A338" s="4">
         <v>336</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="E338" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F338" s="1" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="G338" s="2" t="s">
         <v>15</v>
@@ -13834,126 +13777,126 @@
         <v>16</v>
       </c>
       <c r="J338" s="3" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="339" spans="1:10">
-      <c r="A339" s="24">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="339" spans="1:10" hidden="1">
+      <c r="A339" s="14">
         <v>337</v>
       </c>
-      <c r="B339" s="25" t="s">
-        <v>562</v>
-      </c>
-      <c r="C339" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D339" s="24" t="s">
-        <v>611</v>
-      </c>
-      <c r="E339" s="28" t="s">
-        <v>476</v>
-      </c>
-      <c r="F339" s="28" t="s">
-        <v>768</v>
-      </c>
-      <c r="G339" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="H339" s="26">
+      <c r="B339" s="15" t="s">
+        <v>557</v>
+      </c>
+      <c r="C339" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D339" s="14" t="s">
+        <v>606</v>
+      </c>
+      <c r="E339" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="F339" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G339" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H339" s="16">
         <v>45604</v>
       </c>
-      <c r="I339" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="J339" s="29" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="340" spans="1:10">
-      <c r="A340" s="24">
+      <c r="I339" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J339" s="3" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="340" spans="1:10" hidden="1">
+      <c r="A340" s="14">
         <v>338</v>
       </c>
-      <c r="B340" s="25" t="s">
-        <v>562</v>
-      </c>
-      <c r="C340" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D340" s="28" t="s">
-        <v>770</v>
-      </c>
-      <c r="E340" s="28" t="s">
+      <c r="B340" s="15" t="s">
+        <v>557</v>
+      </c>
+      <c r="C340" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D340" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="E340" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F340" s="28" t="s">
-        <v>771</v>
-      </c>
-      <c r="G340" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="H340" s="26">
+      <c r="F340" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="G340" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H340" s="16">
         <v>45768</v>
       </c>
-      <c r="I340" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="J340" s="29" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="341" spans="1:10">
-      <c r="A341" s="24"/>
-      <c r="B341" s="25"/>
-      <c r="C341" s="25"/>
-      <c r="D341" s="24"/>
-      <c r="E341" s="24"/>
-      <c r="F341" s="24"/>
-      <c r="G341" s="25"/>
-      <c r="H341" s="24"/>
-      <c r="I341" s="26"/>
-      <c r="J341" s="27"/>
+      <c r="I340" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J340" s="3" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="341" spans="1:10" hidden="1">
+      <c r="A341" s="14"/>
+      <c r="B341" s="15"/>
+      <c r="C341" s="15"/>
+      <c r="D341" s="14"/>
+      <c r="E341" s="14"/>
+      <c r="F341" s="14"/>
+      <c r="G341" s="15"/>
+      <c r="H341" s="14"/>
+      <c r="I341" s="16"/>
+      <c r="J341" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="D240">
-    <cfRule type="duplicateValues" dxfId="30" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="29" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="27" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="7" operator="equal">
       <formula>"MANUTENÇÃO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="8" operator="equal">
       <formula>"DEPOSITO SOLAGOS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G189 E1:E1048576">
-    <cfRule type="cellIs" dxfId="25" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="6" operator="equal">
       <formula>"SOLAGOS DEPOSITO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D341">
-    <cfRule type="duplicateValues" dxfId="2" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F339">
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
       <formula>"MANUTENÇÃO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
       <formula>"DEPOSITO SOLAGOS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E339:E340">
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
       <formula>"SOLAGOS DEPOSITO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D339">
-    <cfRule type="duplicateValues" dxfId="8" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D340">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13982,33 +13925,33 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="B1" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="E1" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="F1" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="B2" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="C2" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="D2">
         <v>1885</v>
@@ -14019,13 +13962,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="B3" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="C3" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="D3">
         <v>1880</v>
@@ -14036,13 +13979,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="B4" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="C4" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="D4">
         <v>1881</v>
@@ -14053,13 +13996,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="B5" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="C5" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="D5">
         <v>1890</v>
@@ -14070,13 +14013,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="B6" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="C6" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="D6">
         <v>1878</v>
@@ -14087,13 +14030,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="B7" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="C7" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="D7">
         <v>1883</v>
@@ -14104,16 +14047,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="B8" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="C8" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="F8" s="22">
         <v>1</v>
@@ -14121,13 +14064,13 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="B9" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="C9" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="D9">
         <v>1889</v>
@@ -14138,13 +14081,13 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="B10" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="C10" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="D10">
         <v>1879</v>
@@ -14155,13 +14098,13 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="B11" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="C11" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="D11">
         <v>1891</v>
@@ -14172,13 +14115,13 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="B12" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="C12" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="D12">
         <v>1891</v>
@@ -14189,16 +14132,16 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="B13" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="C13" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="F13" s="22">
         <v>1</v>
@@ -14206,13 +14149,13 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="B14" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="C14" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="D14">
         <v>1894</v>
@@ -14223,19 +14166,19 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="B15" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="C15" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="D15" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="E15" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="F15" s="22">
         <v>17</v>
@@ -14243,19 +14186,19 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
+        <v>704</v>
+      </c>
+      <c r="B16" t="s">
         <v>709</v>
       </c>
-      <c r="B16" t="s">
-        <v>714</v>
-      </c>
       <c r="C16" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="D16" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="E16" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="F16" s="22">
         <v>4</v>
@@ -14263,19 +14206,19 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="B17" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="C17" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="D17" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="E17" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="F17" s="22">
         <v>45</v>
@@ -14283,19 +14226,19 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="B18" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="C18" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="D18" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="E18" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="F18" s="22">
         <v>12</v>
@@ -14303,19 +14246,19 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="B19" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="C19" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="D19" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="E19" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="F19" s="22">
         <v>14</v>
@@ -14323,19 +14266,19 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="B20" t="s">
+        <v>711</v>
+      </c>
+      <c r="C20" t="s">
+        <v>712</v>
+      </c>
+      <c r="D20" t="s">
         <v>716</v>
       </c>
-      <c r="C20" t="s">
-        <v>717</v>
-      </c>
-      <c r="D20" t="s">
-        <v>721</v>
-      </c>
       <c r="E20" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="F20" s="22">
         <v>4</v>
@@ -14343,19 +14286,19 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="B21" t="s">
+        <v>711</v>
+      </c>
+      <c r="C21" t="s">
+        <v>712</v>
+      </c>
+      <c r="D21" t="s">
         <v>716</v>
       </c>
-      <c r="C21" t="s">
-        <v>717</v>
-      </c>
-      <c r="D21" t="s">
-        <v>721</v>
-      </c>
       <c r="E21" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="F21" s="22">
         <v>6</v>
@@ -14363,19 +14306,19 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="B22" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="C22" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="D22" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="E22" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="F22" s="22">
         <v>3</v>
@@ -14383,19 +14326,19 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="B23" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="C23" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="D23" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="E23" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="F23" s="22">
         <v>14</v>
@@ -14403,19 +14346,19 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="B24" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="C24" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="D24" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="E24" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="F24" s="22">
         <v>13</v>
@@ -14423,19 +14366,19 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="B25" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="C25" t="s">
+        <v>719</v>
+      </c>
+      <c r="D25" t="s">
         <v>724</v>
       </c>
-      <c r="D25" t="s">
-        <v>729</v>
-      </c>
       <c r="E25" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="F25" s="22">
         <v>2</v>
@@ -14443,19 +14386,19 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="B26" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="C26" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="D26" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="E26" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="F26" s="22">
         <v>1</v>

--- a/data_printer.xlsx
+++ b/data_printer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GamErick\Desktop\Nova pasta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE42FE7-4920-4CED-AAB5-7827EA653F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A24193-B050-4C3B-899C-375507203D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A8AA41B5-7AA1-4FF7-A9B8-54B8A4E1AF28}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="estoque" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="DadosExternos_1" localSheetId="0" hidden="1">PRINTERS_INVENTORY!$A$1:$J$341</definedName>
+    <definedName name="DadosExternos_1" localSheetId="0" hidden="1">PRINTERS_INVENTORY!$A$1:$J$340</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2751" uniqueCount="781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2744" uniqueCount="780">
   <si>
     <t>INDICE</t>
   </si>
@@ -1059,9 +1059,6 @@
     <t>5179Z810460</t>
   </si>
   <si>
-    <t>VÉRITAS CURSO PREPA</t>
-  </si>
-  <si>
     <t>5170Z910979</t>
   </si>
   <si>
@@ -2352,9 +2349,6 @@
     <t>IMPRESSORA INSTALA EM NA SEDUC - ESTAVA NO DEPOSITO SOLAGOS; ESTALAÇÃO NA SEDUC ENSINO 27/04/2025;</t>
   </si>
   <si>
-    <t xml:space="preserve">REVISADA </t>
-  </si>
-  <si>
     <t>CRAS MORRO GRANDE-COMID/AR</t>
   </si>
   <si>
@@ -2380,6 +2374,9 @@
   </si>
   <si>
     <t>WP - IMPRESSORA ESTAVA NO SETOR DE TRIBUTOS PAÇO; PROBLEMA PUXADOR DE PAPEL SUPERIOR; FOI SUBSTITUIDA POR IMPRESSORA BROTHER DCP-L5512DN; FEITA MANUTENÇÃO UNIDADE DE IMAGEM FUSAO 10/05/2025;</t>
+  </si>
+  <si>
+    <t>VÉRITAS CURSO PREPA RETIRADA 20-05-2025;</t>
   </si>
 </sst>
 </file>
@@ -2463,7 +2460,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2526,11 +2523,155 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="26">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2767,126 +2908,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2927,22 +2948,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C244623C-48DE-4D05-852C-6EFDD885ABE2}" name="Controle_Inventario_Impressoras" displayName="Controle_Inventario_Impressoras" ref="A1:J341" tableType="queryTable" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A1:J341" xr:uid="{C244623C-48DE-4D05-852C-6EFDD885ABE2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C244623C-48DE-4D05-852C-6EFDD885ABE2}" name="Controle_Inventario_Impressoras" displayName="Controle_Inventario_Impressoras" ref="A1:J340" tableType="queryTable" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+  <autoFilter ref="A1:J340" xr:uid="{C244623C-48DE-4D05-852C-6EFDD885ABE2}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J27">
     <sortCondition ref="A13"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{F8E3D681-C494-47F2-8429-052381C12AF1}" uniqueName="1" name="INDICE" queryTableFieldId="1" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{EE2E8FA5-A99D-4573-9868-408DB8FD4417}" uniqueName="2" name="MODELO" queryTableFieldId="2" dataDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{CB5196C0-CCA1-4329-825F-D71E0948A542}" uniqueName="11" name="TIPO" queryTableFieldId="16390" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{27BC8F35-CC2C-44A1-BAF7-B0390B09477F}" uniqueName="3" name="NUMERO DE SERIE" queryTableFieldId="3" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{552F7A6E-6277-4DC1-9CDA-EA7FDCCE8E36}" uniqueName="4" name="LOCALIZAÇÃO" queryTableFieldId="4" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{4C8345F1-6E01-4566-9030-039665486C03}" uniqueName="5" name="SETOR" queryTableFieldId="5" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{10436F87-F6F1-46C4-A81A-8D144AC72FDF}" uniqueName="9" name="EMPRESA" queryTableFieldId="16389" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{B7941BA2-3E1C-476B-A3C7-BA155A35A2D0}" uniqueName="6" name="ATUALIZADO" queryTableFieldId="6" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{4338F703-CE4B-4443-8A10-74F64ED8CD42}" uniqueName="7" name="PRINTWAY" queryTableFieldId="16391" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{02B7C1FB-8EA9-4F22-BCCF-3D1809FFEDCC}" uniqueName="8" name="OBSERVAÇÃO" queryTableFieldId="8" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{F8E3D681-C494-47F2-8429-052381C12AF1}" uniqueName="1" name="INDICE" queryTableFieldId="1" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{EE2E8FA5-A99D-4573-9868-408DB8FD4417}" uniqueName="2" name="MODELO" queryTableFieldId="2" dataDxfId="22"/>
+    <tableColumn id="11" xr3:uid="{CB5196C0-CCA1-4329-825F-D71E0948A542}" uniqueName="11" name="TIPO" queryTableFieldId="16390" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{27BC8F35-CC2C-44A1-BAF7-B0390B09477F}" uniqueName="3" name="NUMERO DE SERIE" queryTableFieldId="3" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{552F7A6E-6277-4DC1-9CDA-EA7FDCCE8E36}" uniqueName="4" name="LOCALIZAÇÃO" queryTableFieldId="4" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{4C8345F1-6E01-4566-9030-039665486C03}" uniqueName="5" name="SETOR" queryTableFieldId="5" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{10436F87-F6F1-46C4-A81A-8D144AC72FDF}" uniqueName="9" name="EMPRESA" queryTableFieldId="16389" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{B7941BA2-3E1C-476B-A3C7-BA155A35A2D0}" uniqueName="6" name="ATUALIZADO" queryTableFieldId="6" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{4338F703-CE4B-4443-8A10-74F64ED8CD42}" uniqueName="7" name="PRINTWAY" queryTableFieldId="16391" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{02B7C1FB-8EA9-4F22-BCCF-3D1809FFEDCC}" uniqueName="8" name="OBSERVAÇÃO" queryTableFieldId="8" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2957,7 +2978,7 @@
     <tableColumn id="3" xr3:uid="{95A3DCD3-FE19-4A74-9940-661D6BB94B25}" name="MODELO"/>
     <tableColumn id="4" xr3:uid="{521C03E5-7FA9-4789-8198-9E0781F3ABC7}" name="DESCRIÇÃO"/>
     <tableColumn id="5" xr3:uid="{579D81F0-AA4C-4609-BF35-AF838B2B149B}" name="COR"/>
-    <tableColumn id="6" xr3:uid="{19487D13-EF31-43DA-89CA-4AA1E1029C34}" name="QUANTIDADE" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{19487D13-EF31-43DA-89CA-4AA1E1029C34}" name="QUANTIDADE" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3260,10 +3281,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD39631B-97B8-405A-AA43-14CDFBC77F92}">
-  <dimension ref="A1:J341"/>
+  <dimension ref="A1:J340"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="D158" sqref="D158"/>
+    <sheetView tabSelected="1" topLeftCell="A308" workbookViewId="0">
+      <selection activeCell="C308" sqref="C308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -3458,7 +3479,7 @@
         <v>99</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>15</v>
@@ -3502,7 +3523,7 @@
         <v>16</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -3560,7 +3581,7 @@
         <v>41</v>
       </c>
       <c r="H9" s="6">
-        <v>45709</v>
+        <v>45797</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>16</v>
@@ -3678,7 +3699,7 @@
         <v>21</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>41</v>
@@ -3710,7 +3731,7 @@
         <v>99</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>15</v>
@@ -3742,7 +3763,7 @@
         <v>21</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>41</v>
@@ -3754,7 +3775,7 @@
         <v>16</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -4277,19 +4298,19 @@
         <v>13</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H32" s="9">
-        <v>45773</v>
+        <v>45797</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -7072,7 +7093,7 @@
         <v>89</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>41</v>
@@ -7142,7 +7163,7 @@
         <v>16</v>
       </c>
       <c r="J125" s="3" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="126" spans="1:10">
@@ -7162,7 +7183,7 @@
         <v>21</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>41</v>
@@ -7174,7 +7195,7 @@
         <v>16</v>
       </c>
       <c r="J126" s="3" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="127" spans="1:10">
@@ -7223,16 +7244,16 @@
         <v>285</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>41</v>
       </c>
       <c r="H128" s="9">
-        <v>45614</v>
+        <v>45797</v>
       </c>
       <c r="I128" s="1" t="s">
         <v>16</v>
@@ -7354,7 +7375,7 @@
         <v>28</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="G132" s="5" t="s">
         <v>15</v>
@@ -7366,7 +7387,7 @@
         <v>16</v>
       </c>
       <c r="J132" s="3" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="133" spans="1:10">
@@ -7622,7 +7643,7 @@
         <v>16</v>
       </c>
       <c r="J140" s="13" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="141" spans="1:10">
@@ -7758,13 +7779,13 @@
         <v>109</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="G145" s="15" t="s">
         <v>15</v>
@@ -7776,7 +7797,7 @@
         <v>16</v>
       </c>
       <c r="J145" s="3" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="146" spans="1:10">
@@ -7872,7 +7893,7 @@
         <v>16</v>
       </c>
       <c r="J148" s="3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="149" spans="1:10">
@@ -7982,19 +8003,22 @@
         <v>339</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>340</v>
+        <v>32</v>
       </c>
       <c r="G152" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H152" s="9">
-        <v>45642</v>
+        <v>45797</v>
       </c>
       <c r="I152" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="J152" s="3" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="153" spans="1:10">
@@ -8008,22 +8032,22 @@
         <v>11</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F153" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="G153" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I153" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J153" s="3" t="s">
         <v>342</v>
-      </c>
-      <c r="G153" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I153" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J153" s="3" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="154" spans="1:10">
@@ -8037,13 +8061,13 @@
         <v>11</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E154" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G154" s="5" t="s">
         <v>15</v>
@@ -8066,13 +8090,13 @@
         <v>11</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E155" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G155" s="5" t="s">
         <v>15</v>
@@ -8087,13 +8111,13 @@
         <v>155</v>
       </c>
       <c r="B156" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D156" s="1" t="s">
         <v>348</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>349</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>13</v>
@@ -8111,7 +8135,7 @@
         <v>16</v>
       </c>
       <c r="J156" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="157" spans="1:10">
@@ -8119,19 +8143,19 @@
         <v>156</v>
       </c>
       <c r="B157" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D157" s="4" t="s">
         <v>351</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D157" s="4" t="s">
-        <v>352</v>
       </c>
       <c r="E157" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G157" s="5" t="s">
         <v>15</v>
@@ -8145,19 +8169,19 @@
         <v>157</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>109</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E158" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F158" s="4" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="G158" s="5" t="s">
         <v>41</v>
@@ -8169,7 +8193,7 @@
         <v>16</v>
       </c>
       <c r="J158" s="3" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="159" spans="1:10">
@@ -8183,7 +8207,7 @@
         <v>11</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>28</v>
@@ -8201,7 +8225,7 @@
         <v>16</v>
       </c>
       <c r="J159" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="160" spans="1:10">
@@ -8215,13 +8239,13 @@
         <v>11</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E160" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G160" s="5" t="s">
         <v>15</v>
@@ -8233,7 +8257,7 @@
         <v>16</v>
       </c>
       <c r="J160" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="161" spans="1:10">
@@ -8241,28 +8265,28 @@
         <v>160</v>
       </c>
       <c r="B161" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D161" s="1" t="s">
         <v>361</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>362</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F161" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="G161" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I161" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J161" s="3" t="s">
         <v>363</v>
-      </c>
-      <c r="G161" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I161" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J161" s="3" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="162" spans="1:10">
@@ -8270,13 +8294,13 @@
         <v>161</v>
       </c>
       <c r="B162" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D162" s="1" t="s">
         <v>365</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>366</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>28</v>
@@ -8305,13 +8329,13 @@
         <v>11</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G163" s="5" t="s">
         <v>15</v>
@@ -8334,7 +8358,7 @@
         <v>109</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E164" s="4" t="s">
         <v>28</v>
@@ -8352,7 +8376,7 @@
         <v>16</v>
       </c>
       <c r="J164" s="3" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="165" spans="1:10">
@@ -8366,13 +8390,13 @@
         <v>109</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>99</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G165" s="5" t="s">
         <v>15</v>
@@ -8384,7 +8408,7 @@
         <v>16</v>
       </c>
       <c r="J165" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="166" spans="1:10">
@@ -8392,19 +8416,19 @@
         <v>165</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>109</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G166" s="5" t="s">
         <v>15</v>
@@ -8424,13 +8448,13 @@
         <v>11</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E167" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G167" s="5" t="s">
         <v>15</v>
@@ -8444,19 +8468,19 @@
         <v>167</v>
       </c>
       <c r="B168" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D168" s="1" t="s">
         <v>378</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>379</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G168" s="5" t="s">
         <v>15</v>
@@ -8473,19 +8497,19 @@
         <v>168</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G169" s="5" t="s">
         <v>15</v>
@@ -8502,19 +8526,19 @@
         <v>169</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G170" s="5" t="s">
         <v>15</v>
@@ -8531,19 +8555,19 @@
         <v>170</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G171" s="5" t="s">
         <v>15</v>
@@ -8560,19 +8584,19 @@
         <v>171</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G172" s="5" t="s">
         <v>15</v>
@@ -8589,19 +8613,19 @@
         <v>172</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G173" s="5" t="s">
         <v>15</v>
@@ -8618,19 +8642,19 @@
         <v>173</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E174" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G174" s="5" t="s">
         <v>15</v>
@@ -8647,19 +8671,19 @@
         <v>174</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E175" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G175" s="5" t="s">
         <v>15</v>
@@ -8676,19 +8700,19 @@
         <v>175</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G176" s="5" t="s">
         <v>15</v>
@@ -8705,19 +8729,19 @@
         <v>176</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E177" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G177" s="5" t="s">
         <v>15</v>
@@ -8734,19 +8758,19 @@
         <v>177</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E178" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G178" s="5" t="s">
         <v>15</v>
@@ -8763,19 +8787,19 @@
         <v>178</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E179" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G179" s="5" t="s">
         <v>15</v>
@@ -8792,19 +8816,19 @@
         <v>179</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E180" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G180" s="5" t="s">
         <v>15</v>
@@ -8821,19 +8845,19 @@
         <v>180</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E181" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G181" s="5" t="s">
         <v>15</v>
@@ -8850,19 +8874,19 @@
         <v>181</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E182" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G182" s="5" t="s">
         <v>15</v>
@@ -8879,19 +8903,19 @@
         <v>182</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E183" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G183" s="5" t="s">
         <v>15</v>
@@ -8908,19 +8932,19 @@
         <v>183</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G184" s="5" t="s">
         <v>15</v>
@@ -8937,19 +8961,19 @@
         <v>184</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G185" s="5" t="s">
         <v>15</v>
@@ -8966,19 +8990,19 @@
         <v>185</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E186" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G186" s="5" t="s">
         <v>15</v>
@@ -8995,19 +9019,19 @@
         <v>186</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E187" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G187" s="5" t="s">
         <v>15</v>
@@ -9024,19 +9048,19 @@
         <v>187</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E188" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G188" s="5" t="s">
         <v>15</v>
@@ -9053,13 +9077,13 @@
         <v>188</v>
       </c>
       <c r="B189" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D189" s="1" t="s">
         <v>401</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D189" s="1" t="s">
-        <v>402</v>
       </c>
       <c r="E189" s="1" t="s">
         <v>28</v>
@@ -9082,13 +9106,13 @@
         <v>189</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>28</v>
@@ -9106,7 +9130,7 @@
         <v>16</v>
       </c>
       <c r="J190" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="191" spans="1:10">
@@ -9114,19 +9138,19 @@
         <v>190</v>
       </c>
       <c r="B191" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D191" s="1" t="s">
         <v>405</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D191" s="1" t="s">
-        <v>406</v>
       </c>
       <c r="E191" s="4" t="s">
         <v>89</v>
       </c>
       <c r="F191" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G191" s="5" t="s">
         <v>15</v>
@@ -9148,13 +9172,13 @@
         <v>11</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E192" s="4" t="s">
         <v>89</v>
       </c>
       <c r="F192" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G192" s="5" t="s">
         <v>15</v>
@@ -9175,13 +9199,13 @@
         <v>11</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E193" s="4" t="s">
         <v>89</v>
       </c>
       <c r="F193" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G193" s="5" t="s">
         <v>15</v>
@@ -9196,19 +9220,19 @@
         <v>193</v>
       </c>
       <c r="B194" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D194" s="4" t="s">
         <v>412</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D194" s="4" t="s">
-        <v>413</v>
       </c>
       <c r="E194" s="4" t="s">
         <v>89</v>
       </c>
       <c r="F194" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G194" s="5" t="s">
         <v>15</v>
@@ -9218,7 +9242,7 @@
         <v>16</v>
       </c>
       <c r="J194" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="195" spans="1:10">
@@ -9232,13 +9256,13 @@
         <v>11</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E195" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G195" s="5" t="s">
         <v>15</v>
@@ -9250,7 +9274,7 @@
         <v>16</v>
       </c>
       <c r="J195" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="196" spans="1:10">
@@ -9264,7 +9288,7 @@
         <v>11</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E196" s="1" t="s">
         <v>28</v>
@@ -9282,7 +9306,7 @@
         <v>16</v>
       </c>
       <c r="J196" s="8" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="197" spans="1:10">
@@ -9296,7 +9320,7 @@
         <v>11</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E197" s="1" t="s">
         <v>28</v>
@@ -9314,7 +9338,7 @@
         <v>16</v>
       </c>
       <c r="J197" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="198" spans="1:10">
@@ -9328,13 +9352,13 @@
         <v>11</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E198" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G198" s="5" t="s">
         <v>15</v>
@@ -9346,7 +9370,7 @@
         <v>16</v>
       </c>
       <c r="J198" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="199" spans="1:10">
@@ -9360,7 +9384,7 @@
         <v>11</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E199" s="1" t="s">
         <v>28</v>
@@ -9378,7 +9402,7 @@
         <v>16</v>
       </c>
       <c r="J199" s="3" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="200" spans="1:10">
@@ -9392,7 +9416,7 @@
         <v>11</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E200" s="4" t="s">
         <v>89</v>
@@ -9410,7 +9434,7 @@
         <v>16</v>
       </c>
       <c r="J200" s="3" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="201" spans="1:10">
@@ -9424,7 +9448,7 @@
         <v>11</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E201" s="1" t="s">
         <v>28</v>
@@ -9442,7 +9466,7 @@
         <v>16</v>
       </c>
       <c r="J201" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="202" spans="1:10">
@@ -9456,13 +9480,13 @@
         <v>11</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E202" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G202" s="5" t="s">
         <v>15</v>
@@ -9474,7 +9498,7 @@
         <v>16</v>
       </c>
       <c r="J202" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="203" spans="1:10">
@@ -9488,7 +9512,7 @@
         <v>11</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E203" s="1" t="s">
         <v>28</v>
@@ -9506,7 +9530,7 @@
         <v>16</v>
       </c>
       <c r="J203" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="204" spans="1:10">
@@ -9520,7 +9544,7 @@
         <v>11</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E204" s="1" t="s">
         <v>28</v>
@@ -9538,7 +9562,7 @@
         <v>16</v>
       </c>
       <c r="J204" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="205" spans="1:10">
@@ -9552,7 +9576,7 @@
         <v>11</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E205" s="1" t="s">
         <v>28</v>
@@ -9570,7 +9594,7 @@
         <v>16</v>
       </c>
       <c r="J205" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="206" spans="1:10">
@@ -9584,7 +9608,7 @@
         <v>11</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E206" s="1" t="s">
         <v>28</v>
@@ -9602,7 +9626,7 @@
         <v>16</v>
       </c>
       <c r="J206" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="207" spans="1:10">
@@ -9616,7 +9640,7 @@
         <v>11</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E207" s="1" t="s">
         <v>28</v>
@@ -9634,7 +9658,7 @@
         <v>16</v>
       </c>
       <c r="J207" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="208" spans="1:10">
@@ -9648,13 +9672,13 @@
         <v>11</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E208" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G208" s="5" t="s">
         <v>15</v>
@@ -9666,7 +9690,7 @@
         <v>16</v>
       </c>
       <c r="J208" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="209" spans="1:10">
@@ -9680,7 +9704,7 @@
         <v>11</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E209" s="1" t="s">
         <v>28</v>
@@ -9698,7 +9722,7 @@
         <v>16</v>
       </c>
       <c r="J209" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="210" spans="1:10">
@@ -9712,7 +9736,7 @@
         <v>11</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E210" s="1" t="s">
         <v>28</v>
@@ -9730,7 +9754,7 @@
         <v>16</v>
       </c>
       <c r="J210" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="211" spans="1:10">
@@ -9744,13 +9768,13 @@
         <v>11</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E211" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G211" s="5" t="s">
         <v>15</v>
@@ -9759,10 +9783,10 @@
         <v>45545</v>
       </c>
       <c r="I211" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="J211" s="3" t="s">
         <v>450</v>
-      </c>
-      <c r="J211" s="3" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="212" spans="1:10">
@@ -9776,7 +9800,7 @@
         <v>11</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E212" s="1" t="s">
         <v>28</v>
@@ -9794,7 +9818,7 @@
         <v>16</v>
       </c>
       <c r="J212" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="213" spans="1:10">
@@ -9808,7 +9832,7 @@
         <v>11</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E213" s="1" t="s">
         <v>28</v>
@@ -9826,7 +9850,7 @@
         <v>16</v>
       </c>
       <c r="J213" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="214" spans="1:10">
@@ -9840,7 +9864,7 @@
         <v>11</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E214" s="1" t="s">
         <v>28</v>
@@ -9858,7 +9882,7 @@
         <v>16</v>
       </c>
       <c r="J214" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="215" spans="1:10">
@@ -9872,7 +9896,7 @@
         <v>11</v>
       </c>
       <c r="D215" s="18" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E215" s="1" t="s">
         <v>28</v>
@@ -9890,7 +9914,7 @@
         <v>16</v>
       </c>
       <c r="J215" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="216" spans="1:10">
@@ -9904,7 +9928,7 @@
         <v>11</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E216" s="1" t="s">
         <v>28</v>
@@ -9922,7 +9946,7 @@
         <v>16</v>
       </c>
       <c r="J216" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="217" spans="1:10">
@@ -9936,7 +9960,7 @@
         <v>11</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E217" s="1" t="s">
         <v>28</v>
@@ -9954,7 +9978,7 @@
         <v>16</v>
       </c>
       <c r="J217" s="3" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="218" spans="1:10">
@@ -9968,13 +9992,13 @@
         <v>109</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E218" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G218" s="5" t="s">
         <v>15</v>
@@ -9997,7 +10021,7 @@
         <v>11</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E219" s="1" t="s">
         <v>28</v>
@@ -10015,7 +10039,7 @@
         <v>16</v>
       </c>
       <c r="J219" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="220" spans="1:10">
@@ -10029,13 +10053,13 @@
         <v>11</v>
       </c>
       <c r="D220" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="E220" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="E220" s="1" t="s">
-        <v>467</v>
-      </c>
       <c r="F220" s="1" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="G220" s="5" t="s">
         <v>15</v>
@@ -10058,7 +10082,7 @@
         <v>11</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E221" s="1" t="s">
         <v>28</v>
@@ -10076,7 +10100,7 @@
         <v>16</v>
       </c>
       <c r="J221" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="222" spans="1:10">
@@ -10090,7 +10114,7 @@
         <v>11</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E222" s="1" t="s">
         <v>28</v>
@@ -10119,7 +10143,7 @@
         <v>11</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E223" s="1" t="s">
         <v>28</v>
@@ -10137,7 +10161,7 @@
         <v>16</v>
       </c>
       <c r="J223" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="224" spans="1:10">
@@ -10151,7 +10175,7 @@
         <v>11</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E224" s="1" t="s">
         <v>28</v>
@@ -10181,7 +10205,7 @@
         <v>11</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E225" s="1" t="s">
         <v>21</v>
@@ -10199,7 +10223,7 @@
         <v>16</v>
       </c>
       <c r="J225" s="7" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="226" spans="1:10">
@@ -10213,7 +10237,7 @@
         <v>11</v>
       </c>
       <c r="D226" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E226" s="1" t="s">
         <v>28</v>
@@ -10245,7 +10269,7 @@
         <v>11</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E227" s="1" t="s">
         <v>28</v>
@@ -10263,7 +10287,7 @@
         <v>16</v>
       </c>
       <c r="J227" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="228" spans="1:10">
@@ -10277,7 +10301,7 @@
         <v>11</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E228" s="1" t="s">
         <v>28</v>
@@ -10295,7 +10319,7 @@
         <v>16</v>
       </c>
       <c r="J228" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="229" spans="1:10">
@@ -10309,7 +10333,7 @@
         <v>11</v>
       </c>
       <c r="D229" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E229" s="1" t="s">
         <v>28</v>
@@ -10327,7 +10351,7 @@
         <v>16</v>
       </c>
       <c r="J229" s="8" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="230" spans="1:10">
@@ -10335,19 +10359,19 @@
         <v>229</v>
       </c>
       <c r="B230" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D230" s="14" t="s">
         <v>483</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D230" s="14" t="s">
-        <v>484</v>
       </c>
       <c r="E230" s="14" t="s">
         <v>13</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="G230" s="15" t="s">
         <v>15</v>
@@ -10359,19 +10383,21 @@
         <v>16</v>
       </c>
       <c r="J230" s="8" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="231" spans="1:10">
-      <c r="A231" s="14"/>
+      <c r="A231" s="4">
+        <v>230</v>
+      </c>
       <c r="B231" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="C231" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D231" s="1" t="s">
         <v>745</v>
-      </c>
-      <c r="C231" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D231" s="1" t="s">
-        <v>746</v>
       </c>
       <c r="E231" s="14" t="s">
         <v>13</v>
@@ -10389,21 +10415,21 @@
         <v>16</v>
       </c>
       <c r="J231" s="8" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="232" spans="1:10">
       <c r="A232" s="4">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B232" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D232" s="1" t="s">
         <v>485</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D232" s="1" t="s">
-        <v>486</v>
       </c>
       <c r="E232" s="1" t="s">
         <v>28</v>
@@ -10421,21 +10447,21 @@
         <v>16</v>
       </c>
       <c r="J232" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="233" spans="1:10">
       <c r="A233" s="4">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E233" s="1" t="s">
         <v>28</v>
@@ -10453,21 +10479,21 @@
         <v>16</v>
       </c>
       <c r="J233" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="234" spans="1:10">
       <c r="A234" s="4">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E234" s="1" t="s">
         <v>28</v>
@@ -10485,12 +10511,12 @@
         <v>16</v>
       </c>
       <c r="J234" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="235" spans="1:10">
       <c r="A235" s="4">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>49</v>
@@ -10505,7 +10531,7 @@
         <v>21</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G235" s="2" t="s">
         <v>21</v>
@@ -10517,21 +10543,21 @@
         <v>16</v>
       </c>
       <c r="J235" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="236" spans="1:10">
       <c r="A236" s="4">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B236" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D236" s="1" t="s">
         <v>494</v>
-      </c>
-      <c r="C236" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D236" s="1" t="s">
-        <v>495</v>
       </c>
       <c r="E236" s="1" t="s">
         <v>28</v>
@@ -10551,22 +10577,22 @@
     </row>
     <row r="237" spans="1:10">
       <c r="A237" s="4">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>109</v>
       </c>
       <c r="D237" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="F237" s="1" t="s">
         <v>497</v>
-      </c>
-      <c r="E237" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="F237" s="1" t="s">
-        <v>498</v>
       </c>
       <c r="G237" s="5" t="s">
         <v>15</v>
@@ -10580,16 +10606,16 @@
     </row>
     <row r="238" spans="1:10">
       <c r="A238" s="4">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>109</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E238" s="1" t="s">
         <v>196</v>
@@ -10607,21 +10633,21 @@
         <v>16</v>
       </c>
       <c r="J238" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="239" spans="1:10">
       <c r="A239" s="4">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B239" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D239" s="1" t="s">
         <v>502</v>
-      </c>
-      <c r="C239" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D239" s="1" t="s">
-        <v>503</v>
       </c>
       <c r="E239" s="1" t="s">
         <v>28</v>
@@ -10639,12 +10665,12 @@
         <v>16</v>
       </c>
       <c r="J239" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="240" spans="1:10">
       <c r="A240" s="4">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>37</v>
@@ -10653,13 +10679,13 @@
         <v>11</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E240" s="1" t="s">
         <v>200</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G240" s="2" t="s">
         <v>41</v>
@@ -10668,12 +10694,12 @@
         <v>16</v>
       </c>
       <c r="J240" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="241" spans="1:10">
       <c r="A241" s="4">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B241" s="10" t="s">
         <v>37</v>
@@ -10682,13 +10708,13 @@
         <v>11</v>
       </c>
       <c r="D241" s="20" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E241" s="1" t="s">
         <v>196</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G241" s="2" t="s">
         <v>41</v>
@@ -10700,12 +10726,12 @@
         <v>16</v>
       </c>
       <c r="J241" s="3" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="242" spans="1:10">
       <c r="A242" s="4">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B242" s="10" t="s">
         <v>37</v>
@@ -10714,13 +10740,13 @@
         <v>11</v>
       </c>
       <c r="D242" s="20" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E242" s="1" t="s">
         <v>200</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G242" s="2" t="s">
         <v>41</v>
@@ -10734,7 +10760,7 @@
     </row>
     <row r="243" spans="1:10">
       <c r="A243" s="4">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B243" s="10" t="s">
         <v>37</v>
@@ -10743,13 +10769,13 @@
         <v>11</v>
       </c>
       <c r="D243" s="20" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E243" s="1" t="s">
         <v>200</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G243" s="2" t="s">
         <v>41</v>
@@ -10758,27 +10784,27 @@
         <v>16</v>
       </c>
       <c r="J243" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="244" spans="1:10">
       <c r="A244" s="4">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B244" s="10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>109</v>
       </c>
       <c r="D244" s="20" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E244" s="1" t="s">
         <v>200</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G244" s="5" t="s">
         <v>41</v>
@@ -10789,7 +10815,7 @@
     </row>
     <row r="245" spans="1:10">
       <c r="A245" s="4">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B245" s="2" t="s">
         <v>124</v>
@@ -10798,13 +10824,13 @@
         <v>109</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E245" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="G245" s="5" t="s">
         <v>15</v>
@@ -10816,12 +10842,12 @@
         <v>16</v>
       </c>
       <c r="J245" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="246" spans="1:10">
       <c r="A246" s="4">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>316</v>
@@ -10830,13 +10856,13 @@
         <v>109</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E246" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G246" s="5" t="s">
         <v>15</v>
@@ -10848,12 +10874,12 @@
         <v>16</v>
       </c>
       <c r="J246" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="247" spans="1:10">
       <c r="A247" s="4">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B247" s="2" t="s">
         <v>43</v>
@@ -10862,7 +10888,7 @@
         <v>11</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E247" s="1" t="s">
         <v>28</v>
@@ -10880,21 +10906,21 @@
         <v>16</v>
       </c>
       <c r="J247" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="248" spans="1:10">
       <c r="A248" s="4">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B248" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D248" s="1" t="s">
         <v>521</v>
-      </c>
-      <c r="C248" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D248" s="1" t="s">
-        <v>522</v>
       </c>
       <c r="E248" s="1" t="s">
         <v>28</v>
@@ -10912,21 +10938,21 @@
         <v>16</v>
       </c>
       <c r="J248" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="249" spans="1:10">
       <c r="A249" s="4">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E249" s="1" t="s">
         <v>39</v>
@@ -10938,33 +10964,33 @@
         <v>15</v>
       </c>
       <c r="H249" s="9">
-        <v>45624</v>
+        <v>45797</v>
       </c>
       <c r="I249" s="9" t="s">
         <v>214</v>
       </c>
       <c r="J249" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="250" spans="1:10">
       <c r="A250" s="4">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D250" s="18" t="s">
-        <v>526</v>
+      <c r="D250" s="28" t="s">
+        <v>525</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G250" s="5" t="s">
         <v>15</v>
@@ -10976,53 +11002,53 @@
         <v>214</v>
       </c>
       <c r="J250" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="251" spans="1:10">
       <c r="A251" s="4">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D251" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F251" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G251" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H251" s="9">
+        <v>43971</v>
+      </c>
+      <c r="I251" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J251" s="3" t="s">
         <v>527</v>
-      </c>
-      <c r="E251" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F251" s="1" t="s">
-        <v>771</v>
-      </c>
-      <c r="G251" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H251" s="9">
-        <v>45588</v>
-      </c>
-      <c r="I251" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J251" s="3" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="252" spans="1:10">
       <c r="A252" s="4">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D252" s="18" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E252" s="1" t="s">
         <v>39</v>
@@ -11034,18 +11060,18 @@
         <v>15</v>
       </c>
       <c r="H252" s="9">
-        <v>45624</v>
+        <v>45797</v>
       </c>
       <c r="I252" s="9" t="s">
         <v>214</v>
       </c>
       <c r="J252" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="253" spans="1:10">
       <c r="A253" s="4">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B253" s="2" t="s">
         <v>43</v>
@@ -11054,7 +11080,7 @@
         <v>11</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E253" s="1" t="s">
         <v>28</v>
@@ -11072,12 +11098,12 @@
         <v>16</v>
       </c>
       <c r="J253" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="254" spans="1:10">
       <c r="A254" s="4">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B254" s="2" t="s">
         <v>43</v>
@@ -11086,13 +11112,13 @@
         <v>11</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E254" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G254" s="5" t="s">
         <v>15</v>
@@ -11104,21 +11130,21 @@
         <v>16</v>
       </c>
       <c r="J254" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="255" spans="1:10">
       <c r="A255" s="4">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>109</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E255" s="1" t="s">
         <v>28</v>
@@ -11136,27 +11162,27 @@
         <v>16</v>
       </c>
       <c r="J255" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="256" spans="1:10">
       <c r="A256" s="4">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B256" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D256" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="C256" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D256" s="1" t="s">
+      <c r="E256" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F256" s="1" t="s">
         <v>538</v>
-      </c>
-      <c r="E256" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F256" s="1" t="s">
-        <v>539</v>
       </c>
       <c r="G256" s="5" t="s">
         <v>15</v>
@@ -11168,12 +11194,12 @@
         <v>16</v>
       </c>
       <c r="J256" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="257" spans="1:10">
       <c r="A257" s="4">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B257" s="2" t="s">
         <v>316</v>
@@ -11182,7 +11208,7 @@
         <v>109</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E257" s="1" t="s">
         <v>13</v>
@@ -11200,12 +11226,12 @@
         <v>16</v>
       </c>
       <c r="J257" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="258" spans="1:10">
       <c r="A258" s="4">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B258" s="2" t="s">
         <v>124</v>
@@ -11214,27 +11240,27 @@
         <v>109</v>
       </c>
       <c r="D258" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F258" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="E258" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F258" s="1" t="s">
+      <c r="G258" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I258" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J258" s="3" t="s">
         <v>544</v>
-      </c>
-      <c r="G258" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I258" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J258" s="3" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="259" spans="1:10">
       <c r="A259" s="4">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B259" s="2" t="s">
         <v>43</v>
@@ -11243,7 +11269,7 @@
         <v>11</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E259" s="1" t="s">
         <v>28</v>
@@ -11261,12 +11287,12 @@
         <v>16</v>
       </c>
       <c r="J259" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="260" spans="1:10">
       <c r="A260" s="4">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B260" s="2" t="s">
         <v>79</v>
@@ -11275,7 +11301,7 @@
         <v>11</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E260" s="1" t="s">
         <v>28</v>
@@ -11293,27 +11319,27 @@
         <v>16</v>
       </c>
       <c r="J260" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="261" spans="1:10">
       <c r="A261" s="4">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B261" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D261" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="C261" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D261" s="1" t="s">
-        <v>551</v>
-      </c>
       <c r="E261" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F261" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="G261" s="2" t="s">
         <v>15</v>
@@ -11325,27 +11351,27 @@
         <v>16</v>
       </c>
       <c r="J261" s="3" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="262" spans="1:10">
       <c r="A262" s="4">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E262" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G262" s="2" t="s">
         <v>15</v>
@@ -11357,21 +11383,21 @@
         <v>16</v>
       </c>
       <c r="J262" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="263" spans="1:10">
       <c r="A263" s="4">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E263" s="1" t="s">
         <v>28</v>
@@ -11389,27 +11415,27 @@
         <v>16</v>
       </c>
       <c r="J263" s="3" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="264" spans="1:10">
       <c r="A264" s="4">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E264" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G264" s="2" t="s">
         <v>15</v>
@@ -11421,27 +11447,27 @@
         <v>16</v>
       </c>
       <c r="J264" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="265" spans="1:10">
       <c r="A265" s="4">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E265" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F265" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="G265" s="2" t="s">
         <v>15</v>
@@ -11453,27 +11479,27 @@
         <v>16</v>
       </c>
       <c r="J265" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="266" spans="1:10">
       <c r="A266" s="4">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E266" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F266" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G266" s="2" t="s">
         <v>15</v>
@@ -11485,27 +11511,27 @@
         <v>16</v>
       </c>
       <c r="J266" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="267" spans="1:10">
       <c r="A267" s="4">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E267" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F267" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="G267" s="2" t="s">
         <v>15</v>
@@ -11517,27 +11543,27 @@
         <v>16</v>
       </c>
       <c r="J267" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="268" spans="1:10">
       <c r="A268" s="4">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E268" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G268" s="2" t="s">
         <v>15</v>
@@ -11549,27 +11575,27 @@
         <v>16</v>
       </c>
       <c r="J268" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="269" spans="1:10">
       <c r="A269" s="4">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E269" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G269" s="2" t="s">
         <v>15</v>
@@ -11581,27 +11607,27 @@
         <v>16</v>
       </c>
       <c r="J269" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="270" spans="1:10">
       <c r="A270" s="4">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E270" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F270" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G270" s="2" t="s">
         <v>15</v>
@@ -11613,27 +11639,27 @@
         <v>16</v>
       </c>
       <c r="J270" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="271" spans="1:10">
       <c r="A271" s="4">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E271" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F271" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G271" s="2" t="s">
         <v>15</v>
@@ -11645,27 +11671,27 @@
         <v>16</v>
       </c>
       <c r="J271" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="272" spans="1:10">
       <c r="A272" s="4">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E272" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F272" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G272" s="2" t="s">
         <v>15</v>
@@ -11677,27 +11703,27 @@
         <v>16</v>
       </c>
       <c r="J272" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="273" spans="1:10">
       <c r="A273" s="4">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E273" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F273" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G273" s="2" t="s">
         <v>15</v>
@@ -11709,27 +11735,27 @@
         <v>16</v>
       </c>
       <c r="J273" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="274" spans="1:10">
       <c r="A274" s="4">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E274" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G274" s="2" t="s">
         <v>15</v>
@@ -11741,27 +11767,27 @@
         <v>16</v>
       </c>
       <c r="J274" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="275" spans="1:10">
       <c r="A275" s="4">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E275" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F275" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G275" s="2" t="s">
         <v>15</v>
@@ -11773,27 +11799,27 @@
         <v>16</v>
       </c>
       <c r="J275" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="276" spans="1:10">
       <c r="A276" s="4">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E276" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F276" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G276" s="2" t="s">
         <v>15</v>
@@ -11805,27 +11831,27 @@
         <v>16</v>
       </c>
       <c r="J276" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="277" spans="1:10">
       <c r="A277" s="4">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E277" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F277" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G277" s="2" t="s">
         <v>15</v>
@@ -11837,27 +11863,27 @@
         <v>16</v>
       </c>
       <c r="J277" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="278" spans="1:10">
       <c r="A278" s="4">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D278" s="21" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E278" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F278" s="4" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G278" s="2" t="s">
         <v>15</v>
@@ -11869,27 +11895,27 @@
         <v>16</v>
       </c>
       <c r="J278" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="279" spans="1:10">
       <c r="A279" s="4">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E279" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F279" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G279" s="2" t="s">
         <v>15</v>
@@ -11901,27 +11927,27 @@
         <v>16</v>
       </c>
       <c r="J279" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="280" spans="1:10">
       <c r="A280" s="4">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E280" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F280" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="G280" s="2" t="s">
         <v>15</v>
@@ -11933,27 +11959,27 @@
         <v>16</v>
       </c>
       <c r="J280" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="281" spans="1:10">
       <c r="A281" s="4">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E281" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F281" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="G281" s="2" t="s">
         <v>15</v>
@@ -11965,27 +11991,27 @@
         <v>16</v>
       </c>
       <c r="J281" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="282" spans="1:10">
       <c r="A282" s="4">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D282" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="E282" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="F282" s="1" t="s">
         <v>601</v>
-      </c>
-      <c r="E282" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="F282" s="1" t="s">
-        <v>602</v>
       </c>
       <c r="G282" s="2" t="s">
         <v>15</v>
@@ -11994,30 +12020,30 @@
         <v>45607</v>
       </c>
       <c r="I282" s="9" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="J282" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="283" spans="1:10">
       <c r="A283" s="4">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D283" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="E283" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="F283" s="1" t="s">
         <v>604</v>
-      </c>
-      <c r="E283" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="F283" s="1" t="s">
-        <v>605</v>
       </c>
       <c r="G283" s="2" t="s">
         <v>15</v>
@@ -12026,30 +12052,30 @@
         <v>45607</v>
       </c>
       <c r="I283" s="9" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="J283" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="284" spans="1:10">
       <c r="A284" s="4">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D284" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="E284" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="F284" s="1" t="s">
         <v>606</v>
-      </c>
-      <c r="E284" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="F284" s="1" t="s">
-        <v>607</v>
       </c>
       <c r="G284" s="2" t="s">
         <v>15</v>
@@ -12058,30 +12084,30 @@
         <v>45607</v>
       </c>
       <c r="I284" s="9" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="J284" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="285" spans="1:10">
       <c r="A285" s="4">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D285" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="E285" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="F285" s="1" t="s">
         <v>608</v>
-      </c>
-      <c r="E285" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="F285" s="1" t="s">
-        <v>609</v>
       </c>
       <c r="G285" s="2" t="s">
         <v>15</v>
@@ -12090,30 +12116,30 @@
         <v>45614</v>
       </c>
       <c r="I285" s="9" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="J285" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="286" spans="1:10">
       <c r="A286" s="4">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D286" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="E286" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="F286" s="1" t="s">
         <v>611</v>
-      </c>
-      <c r="E286" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="F286" s="1" t="s">
-        <v>612</v>
       </c>
       <c r="G286" s="2" t="s">
         <v>15</v>
@@ -12122,30 +12148,30 @@
         <v>45614</v>
       </c>
       <c r="I286" s="9" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="J286" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="287" spans="1:10">
       <c r="A287" s="4">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D287" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="E287" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="F287" s="1" t="s">
         <v>613</v>
-      </c>
-      <c r="E287" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="F287" s="1" t="s">
-        <v>614</v>
       </c>
       <c r="G287" s="2" t="s">
         <v>15</v>
@@ -12154,30 +12180,30 @@
         <v>45615</v>
       </c>
       <c r="I287" s="9" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="J287" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="288" spans="1:10">
       <c r="A288" s="4">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D288" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="E288" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="F288" s="1" t="s">
         <v>616</v>
-      </c>
-      <c r="E288" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="F288" s="1" t="s">
-        <v>617</v>
       </c>
       <c r="G288" s="2" t="s">
         <v>15</v>
@@ -12186,30 +12212,30 @@
         <v>45615</v>
       </c>
       <c r="I288" s="9" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="J288" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="289" spans="1:10">
       <c r="A289" s="4">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D289" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="E289" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="F289" s="1" t="s">
         <v>618</v>
-      </c>
-      <c r="E289" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="F289" s="1" t="s">
-        <v>619</v>
       </c>
       <c r="G289" s="2" t="s">
         <v>15</v>
@@ -12218,30 +12244,30 @@
         <v>45615</v>
       </c>
       <c r="I289" s="9" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="J289" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="290" spans="1:10">
       <c r="A290" s="4">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D290" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="E290" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="F290" s="1" t="s">
         <v>620</v>
-      </c>
-      <c r="E290" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="F290" s="1" t="s">
-        <v>621</v>
       </c>
       <c r="G290" s="2" t="s">
         <v>15</v>
@@ -12250,30 +12276,30 @@
         <v>45617</v>
       </c>
       <c r="I290" s="9" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="J290" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="291" spans="1:10">
       <c r="A291" s="4">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F291" s="1" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="G291" s="2" t="s">
         <v>15</v>
@@ -12282,30 +12308,30 @@
         <v>45617</v>
       </c>
       <c r="I291" s="9" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="J291" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="292" spans="1:10">
       <c r="A292" s="4">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D292" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="E292" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="F292" s="1" t="s">
         <v>625</v>
-      </c>
-      <c r="E292" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="F292" s="1" t="s">
-        <v>626</v>
       </c>
       <c r="G292" s="2" t="s">
         <v>15</v>
@@ -12314,30 +12340,30 @@
         <v>45618</v>
       </c>
       <c r="I292" s="9" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="J292" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="293" spans="1:10">
       <c r="A293" s="4">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D293" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="E293" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="F293" s="1" t="s">
         <v>628</v>
-      </c>
-      <c r="E293" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="F293" s="1" t="s">
-        <v>629</v>
       </c>
       <c r="G293" s="2" t="s">
         <v>15</v>
@@ -12346,30 +12372,30 @@
         <v>45621</v>
       </c>
       <c r="I293" s="9" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="J293" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="294" spans="1:10">
       <c r="A294" s="4">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D294" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="E294" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="F294" s="1" t="s">
         <v>631</v>
-      </c>
-      <c r="E294" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="F294" s="1" t="s">
-        <v>632</v>
       </c>
       <c r="G294" s="2" t="s">
         <v>15</v>
@@ -12378,30 +12404,30 @@
         <v>45621</v>
       </c>
       <c r="I294" s="9" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="J294" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="295" spans="1:10">
       <c r="A295" s="4">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E295" s="1" t="s">
         <v>99</v>
       </c>
       <c r="F295" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G295" s="2" t="s">
         <v>15</v>
@@ -12413,21 +12439,21 @@
         <v>101</v>
       </c>
       <c r="J295" s="3" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="296" spans="1:10">
       <c r="A296" s="4">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E296" s="1" t="s">
         <v>28</v>
@@ -12445,27 +12471,27 @@
         <v>16</v>
       </c>
       <c r="J296" s="3" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="297" spans="1:10">
       <c r="A297" s="4">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E297" s="1" t="s">
         <v>99</v>
       </c>
       <c r="F297" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G297" s="2" t="s">
         <v>15</v>
@@ -12477,21 +12503,21 @@
         <v>101</v>
       </c>
       <c r="J297" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="298" spans="1:10">
       <c r="A298" s="4">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E298" s="1" t="s">
         <v>28</v>
@@ -12509,27 +12535,27 @@
         <v>101</v>
       </c>
       <c r="J298" s="3" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="299" spans="1:10">
       <c r="A299" s="4">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E299" s="1" t="s">
         <v>99</v>
       </c>
       <c r="F299" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="G299" s="2" t="s">
         <v>15</v>
@@ -12541,27 +12567,27 @@
         <v>101</v>
       </c>
       <c r="J299" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="300" spans="1:10">
       <c r="A300" s="4">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E300" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F300" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="G300" s="2" t="s">
         <v>15</v>
@@ -12573,27 +12599,27 @@
         <v>16</v>
       </c>
       <c r="J300" s="3" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="301" spans="1:10">
       <c r="A301" s="4">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E301" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F301" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="G301" s="2" t="s">
         <v>15</v>
@@ -12605,27 +12631,27 @@
         <v>16</v>
       </c>
       <c r="J301" s="3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="302" spans="1:10">
       <c r="A302" s="4">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E302" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F302" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="G302" s="2" t="s">
         <v>15</v>
@@ -12637,27 +12663,27 @@
         <v>16</v>
       </c>
       <c r="J302" s="3" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="303" spans="1:10">
       <c r="A303" s="4">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E303" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F303" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G303" s="2" t="s">
         <v>15</v>
@@ -12669,27 +12695,27 @@
         <v>16</v>
       </c>
       <c r="J303" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="304" spans="1:10">
       <c r="A304" s="4">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E304" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F304" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="G304" s="2" t="s">
         <v>15</v>
@@ -12701,27 +12727,27 @@
         <v>16</v>
       </c>
       <c r="J304" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="305" spans="1:10">
       <c r="A305" s="4">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E305" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F305" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G305" s="2" t="s">
         <v>15</v>
@@ -12733,27 +12759,27 @@
         <v>16</v>
       </c>
       <c r="J305" s="3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="306" spans="1:10">
       <c r="A306" s="4">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E306" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F306" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="G306" s="2" t="s">
         <v>15</v>
@@ -12765,27 +12791,27 @@
         <v>16</v>
       </c>
       <c r="J306" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="307" spans="1:10">
       <c r="A307" s="4">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E307" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F307" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="G307" s="2" t="s">
         <v>15</v>
@@ -12797,27 +12823,27 @@
         <v>16</v>
       </c>
       <c r="J307" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="308" spans="1:10">
       <c r="A308" s="4">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E308" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F308" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="G308" s="2" t="s">
         <v>15</v>
@@ -12829,27 +12855,27 @@
         <v>16</v>
       </c>
       <c r="J308" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="309" spans="1:10">
       <c r="A309" s="4">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E309" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F309" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G309" s="2" t="s">
         <v>15</v>
@@ -12861,21 +12887,21 @@
         <v>16</v>
       </c>
       <c r="J309" s="3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="310" spans="1:10">
       <c r="A310" s="4">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E310" s="1" t="s">
         <v>28</v>
@@ -12893,27 +12919,27 @@
         <v>16</v>
       </c>
       <c r="J310" s="3" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="311" spans="1:10">
       <c r="A311" s="4">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E311" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F311" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G311" s="2" t="s">
         <v>15</v>
@@ -12922,30 +12948,30 @@
         <v>45702</v>
       </c>
       <c r="I311" s="9" t="s">
+        <v>672</v>
+      </c>
+      <c r="J311" s="3" t="s">
         <v>673</v>
-      </c>
-      <c r="J311" s="3" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="312" spans="1:10">
       <c r="A312" s="4">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E312" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F312" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="G312" s="2" t="s">
         <v>15</v>
@@ -12954,30 +12980,30 @@
         <v>45702</v>
       </c>
       <c r="I312" s="9" t="s">
+        <v>672</v>
+      </c>
+      <c r="J312" s="3" t="s">
         <v>673</v>
-      </c>
-      <c r="J312" s="3" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="313" spans="1:10">
       <c r="A313" s="4">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E313" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F313" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="G313" s="2" t="s">
         <v>15</v>
@@ -12986,30 +13012,30 @@
         <v>45702</v>
       </c>
       <c r="I313" s="9" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="J313" s="3" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="314" spans="1:10">
       <c r="A314" s="4">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E314" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F314" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="G314" s="2" t="s">
         <v>15</v>
@@ -13021,27 +13047,27 @@
         <v>16</v>
       </c>
       <c r="J314" s="3" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="315" spans="1:10">
       <c r="A315" s="4">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E315" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F315" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="G315" s="2" t="s">
         <v>15</v>
@@ -13050,30 +13076,30 @@
         <v>45726</v>
       </c>
       <c r="I315" s="9" t="s">
+        <v>720</v>
+      </c>
+      <c r="J315" s="3" t="s">
         <v>721</v>
-      </c>
-      <c r="J315" s="3" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="316" spans="1:10">
       <c r="A316" s="4">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E316" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F316" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G316" s="2" t="s">
         <v>15</v>
@@ -13082,30 +13108,30 @@
         <v>45726</v>
       </c>
       <c r="I316" s="9" t="s">
+        <v>720</v>
+      </c>
+      <c r="J316" s="3" t="s">
         <v>721</v>
-      </c>
-      <c r="J316" s="3" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="317" spans="1:10">
       <c r="A317" s="4">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E317" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F317" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G317" s="2" t="s">
         <v>15</v>
@@ -13114,24 +13140,24 @@
         <v>45726</v>
       </c>
       <c r="I317" s="9" t="s">
+        <v>720</v>
+      </c>
+      <c r="J317" s="3" t="s">
         <v>721</v>
-      </c>
-      <c r="J317" s="3" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="318" spans="1:10">
       <c r="A318" s="4">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E318" s="1" t="s">
         <v>89</v>
@@ -13149,27 +13175,27 @@
         <v>16</v>
       </c>
       <c r="J318" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="319" spans="1:10">
       <c r="A319" s="4">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D319" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="E319" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F319" s="1" t="s">
         <v>683</v>
-      </c>
-      <c r="E319" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F319" s="1" t="s">
-        <v>684</v>
       </c>
       <c r="G319" s="2" t="s">
         <v>15</v>
@@ -13181,27 +13207,27 @@
         <v>16</v>
       </c>
       <c r="J319" s="3" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="320" spans="1:10">
       <c r="A320" s="4">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D320" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="E320" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F320" s="1" t="s">
         <v>683</v>
-      </c>
-      <c r="E320" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F320" s="1" t="s">
-        <v>684</v>
       </c>
       <c r="G320" s="2" t="s">
         <v>15</v>
@@ -13213,27 +13239,27 @@
         <v>16</v>
       </c>
       <c r="J320" s="3" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="321" spans="1:10">
       <c r="A321" s="4">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D321" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="E321" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F321" s="1" t="s">
         <v>683</v>
-      </c>
-      <c r="E321" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F321" s="1" t="s">
-        <v>684</v>
       </c>
       <c r="G321" s="2" t="s">
         <v>15</v>
@@ -13245,27 +13271,27 @@
         <v>16</v>
       </c>
       <c r="J321" s="3" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="322" spans="1:10">
       <c r="A322" s="4">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D322" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="E322" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F322" s="1" t="s">
         <v>683</v>
-      </c>
-      <c r="E322" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F322" s="1" t="s">
-        <v>684</v>
       </c>
       <c r="G322" s="2" t="s">
         <v>15</v>
@@ -13277,27 +13303,27 @@
         <v>16</v>
       </c>
       <c r="J322" s="3" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="323" spans="1:10">
       <c r="A323" s="4">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D323" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="E323" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F323" s="1" t="s">
         <v>683</v>
-      </c>
-      <c r="E323" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F323" s="1" t="s">
-        <v>684</v>
       </c>
       <c r="G323" s="2" t="s">
         <v>15</v>
@@ -13309,27 +13335,27 @@
         <v>16</v>
       </c>
       <c r="J323" s="3" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="324" spans="1:10">
       <c r="A324" s="4">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D324" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="E324" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F324" s="1" t="s">
         <v>683</v>
-      </c>
-      <c r="E324" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F324" s="1" t="s">
-        <v>684</v>
       </c>
       <c r="G324" s="2" t="s">
         <v>15</v>
@@ -13341,27 +13367,27 @@
         <v>16</v>
       </c>
       <c r="J324" s="3" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="325" spans="1:10">
       <c r="A325" s="4">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D325" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="E325" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F325" s="1" t="s">
         <v>683</v>
-      </c>
-      <c r="E325" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F325" s="1" t="s">
-        <v>684</v>
       </c>
       <c r="G325" s="2" t="s">
         <v>15</v>
@@ -13373,27 +13399,27 @@
         <v>16</v>
       </c>
       <c r="J325" s="3" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="326" spans="1:10">
       <c r="A326" s="4">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D326" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="E326" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F326" s="1" t="s">
         <v>683</v>
-      </c>
-      <c r="E326" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F326" s="1" t="s">
-        <v>684</v>
       </c>
       <c r="G326" s="2" t="s">
         <v>15</v>
@@ -13405,27 +13431,27 @@
         <v>16</v>
       </c>
       <c r="J326" s="3" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="327" spans="1:10">
       <c r="A327" s="4">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D327" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="E327" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F327" s="1" t="s">
         <v>683</v>
-      </c>
-      <c r="E327" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F327" s="1" t="s">
-        <v>684</v>
       </c>
       <c r="G327" s="2" t="s">
         <v>15</v>
@@ -13437,27 +13463,27 @@
         <v>16</v>
       </c>
       <c r="J327" s="3" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="328" spans="1:10">
       <c r="A328" s="4">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D328" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="E328" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F328" s="1" t="s">
         <v>683</v>
-      </c>
-      <c r="E328" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F328" s="1" t="s">
-        <v>684</v>
       </c>
       <c r="G328" s="2" t="s">
         <v>15</v>
@@ -13469,27 +13495,27 @@
         <v>16</v>
       </c>
       <c r="J328" s="3" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="329" spans="1:10">
       <c r="A329" s="4">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D329" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="E329" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F329" s="1" t="s">
         <v>683</v>
-      </c>
-      <c r="E329" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F329" s="1" t="s">
-        <v>684</v>
       </c>
       <c r="G329" s="2" t="s">
         <v>15</v>
@@ -13501,27 +13527,27 @@
         <v>16</v>
       </c>
       <c r="J329" s="3" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="330" spans="1:10">
       <c r="A330" s="4">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D330" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="E330" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F330" s="1" t="s">
         <v>683</v>
-      </c>
-      <c r="E330" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F330" s="1" t="s">
-        <v>684</v>
       </c>
       <c r="G330" s="2" t="s">
         <v>15</v>
@@ -13533,27 +13559,27 @@
         <v>16</v>
       </c>
       <c r="J330" s="3" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="331" spans="1:10">
       <c r="A331" s="4">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D331" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="E331" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F331" s="1" t="s">
         <v>683</v>
-      </c>
-      <c r="E331" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F331" s="1" t="s">
-        <v>684</v>
       </c>
       <c r="G331" s="2" t="s">
         <v>15</v>
@@ -13565,27 +13591,27 @@
         <v>16</v>
       </c>
       <c r="J331" s="3" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="332" spans="1:10">
       <c r="A332" s="4">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D332" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="E332" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F332" s="1" t="s">
         <v>683</v>
-      </c>
-      <c r="E332" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F332" s="1" t="s">
-        <v>684</v>
       </c>
       <c r="G332" s="2" t="s">
         <v>15</v>
@@ -13597,27 +13623,27 @@
         <v>16</v>
       </c>
       <c r="J332" s="3" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="333" spans="1:10">
       <c r="A333" s="4">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D333" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="E333" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F333" s="1" t="s">
         <v>683</v>
-      </c>
-      <c r="E333" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F333" s="1" t="s">
-        <v>684</v>
       </c>
       <c r="G333" s="2" t="s">
         <v>15</v>
@@ -13629,27 +13655,27 @@
         <v>16</v>
       </c>
       <c r="J333" s="3" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="334" spans="1:10">
       <c r="A334" s="4">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D334" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="E334" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F334" s="1" t="s">
         <v>683</v>
-      </c>
-      <c r="E334" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F334" s="1" t="s">
-        <v>684</v>
       </c>
       <c r="G334" s="2" t="s">
         <v>15</v>
@@ -13661,27 +13687,27 @@
         <v>16</v>
       </c>
       <c r="J334" s="3" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="335" spans="1:10">
       <c r="A335" s="4">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D335" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="E335" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F335" s="1" t="s">
         <v>683</v>
-      </c>
-      <c r="E335" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F335" s="1" t="s">
-        <v>684</v>
       </c>
       <c r="G335" s="2" t="s">
         <v>15</v>
@@ -13693,27 +13719,27 @@
         <v>16</v>
       </c>
       <c r="J335" s="3" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="336" spans="1:10">
       <c r="A336" s="4">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D336" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="E336" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F336" s="1" t="s">
         <v>683</v>
-      </c>
-      <c r="E336" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F336" s="1" t="s">
-        <v>684</v>
       </c>
       <c r="G336" s="2" t="s">
         <v>15</v>
@@ -13725,27 +13751,27 @@
         <v>16</v>
       </c>
       <c r="J336" s="3" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="337" spans="1:10">
       <c r="A337" s="4">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D337" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="E337" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F337" s="1" t="s">
         <v>683</v>
-      </c>
-      <c r="E337" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F337" s="1" t="s">
-        <v>684</v>
       </c>
       <c r="G337" s="2" t="s">
         <v>15</v>
@@ -13757,158 +13783,126 @@
         <v>16</v>
       </c>
       <c r="J337" s="3" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="338" spans="1:10">
       <c r="A338" s="4">
-        <v>336</v>
-      </c>
-      <c r="B338" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="C338" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D338" s="1" t="s">
-        <v>683</v>
+        <v>337</v>
+      </c>
+      <c r="B338" s="15" t="s">
+        <v>549</v>
+      </c>
+      <c r="C338" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D338" s="14" t="s">
+        <v>598</v>
       </c>
       <c r="E338" s="1" t="s">
-        <v>28</v>
+        <v>466</v>
       </c>
       <c r="F338" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="G338" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H338" s="9">
-        <v>45653</v>
-      </c>
-      <c r="I338" s="9" t="s">
+        <v>751</v>
+      </c>
+      <c r="G338" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H338" s="16">
+        <v>45604</v>
+      </c>
+      <c r="I338" s="16" t="s">
         <v>16</v>
       </c>
       <c r="J338" s="3" t="s">
-        <v>685</v>
+        <v>752</v>
       </c>
     </row>
     <row r="339" spans="1:10">
-      <c r="A339" s="14">
-        <v>337</v>
+      <c r="A339" s="4">
+        <v>338</v>
       </c>
       <c r="B339" s="15" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C339" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D339" s="14" t="s">
-        <v>599</v>
+      <c r="D339" s="1" t="s">
+        <v>753</v>
       </c>
       <c r="E339" s="1" t="s">
-        <v>467</v>
+        <v>89</v>
       </c>
       <c r="F339" s="1" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="G339" s="15" t="s">
         <v>15</v>
       </c>
       <c r="H339" s="16">
-        <v>45604</v>
+        <v>45768</v>
       </c>
       <c r="I339" s="16" t="s">
         <v>16</v>
       </c>
       <c r="J339" s="3" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="340" spans="1:10">
-      <c r="A340" s="14">
-        <v>338</v>
-      </c>
-      <c r="B340" s="15" t="s">
-        <v>550</v>
-      </c>
-      <c r="C340" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D340" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="E340" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F340" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="G340" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H340" s="16">
-        <v>45768</v>
-      </c>
-      <c r="I340" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J340" s="3" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="341" spans="1:10">
-      <c r="A341" s="14"/>
-      <c r="B341" s="15"/>
-      <c r="C341" s="15"/>
-      <c r="D341" s="14"/>
-      <c r="E341" s="14"/>
-      <c r="F341" s="14"/>
-      <c r="G341" s="15"/>
-      <c r="H341" s="14"/>
-      <c r="I341" s="16"/>
-      <c r="J341" s="17"/>
+    </row>
+    <row r="340" spans="1:10" s="29" customFormat="1">
+      <c r="A340" s="24"/>
+      <c r="B340" s="25"/>
+      <c r="C340" s="25"/>
+      <c r="D340" s="24"/>
+      <c r="E340" s="24"/>
+      <c r="F340" s="24"/>
+      <c r="G340" s="25"/>
+      <c r="H340" s="24"/>
+      <c r="I340" s="26"/>
+      <c r="J340" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="D240">
-    <cfRule type="duplicateValues" dxfId="24" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="21" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"MANUTENÇÃO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>"DEPOSITO SOLAGOS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G189 E1:E1048576">
-    <cfRule type="cellIs" dxfId="19" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>"SOLAGOS DEPOSITO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D341">
-    <cfRule type="duplicateValues" dxfId="18" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F339">
-    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
+  <conditionalFormatting sqref="F338">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"MANUTENÇÃO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"DEPOSITO SOLAGOS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E339:E340">
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
+  <conditionalFormatting sqref="E338:E339">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"SOLAGOS DEPOSITO"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D338">
+    <cfRule type="duplicateValues" dxfId="2" priority="5"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D339">
-    <cfRule type="duplicateValues" dxfId="14" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D340">
-    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
+  <conditionalFormatting sqref="D2:D340">
+    <cfRule type="duplicateValues" dxfId="0" priority="32"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13937,33 +13931,33 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>685</v>
+      </c>
+      <c r="B1" t="s">
         <v>686</v>
-      </c>
-      <c r="B1" t="s">
-        <v>687</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E1" t="s">
         <v>688</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>689</v>
-      </c>
-      <c r="F1" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
+        <v>690</v>
+      </c>
+      <c r="B2" t="s">
         <v>691</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>692</v>
-      </c>
-      <c r="C2" t="s">
-        <v>693</v>
       </c>
       <c r="D2">
         <v>1885</v>
@@ -13974,13 +13968,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>690</v>
+      </c>
+      <c r="B3" t="s">
         <v>691</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>692</v>
-      </c>
-      <c r="C3" t="s">
-        <v>693</v>
       </c>
       <c r="D3">
         <v>1880</v>
@@ -13991,13 +13985,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>690</v>
+      </c>
+      <c r="B4" t="s">
         <v>691</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>692</v>
-      </c>
-      <c r="C4" t="s">
-        <v>693</v>
       </c>
       <c r="D4">
         <v>1881</v>
@@ -14008,13 +14002,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
+        <v>690</v>
+      </c>
+      <c r="B5" t="s">
         <v>691</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>692</v>
-      </c>
-      <c r="C5" t="s">
-        <v>693</v>
       </c>
       <c r="D5">
         <v>1890</v>
@@ -14025,13 +14019,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
+        <v>690</v>
+      </c>
+      <c r="B6" t="s">
         <v>691</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>692</v>
-      </c>
-      <c r="C6" t="s">
-        <v>693</v>
       </c>
       <c r="D6">
         <v>1878</v>
@@ -14042,13 +14036,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
+        <v>690</v>
+      </c>
+      <c r="B7" t="s">
         <v>691</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>692</v>
-      </c>
-      <c r="C7" t="s">
-        <v>693</v>
       </c>
       <c r="D7">
         <v>1883</v>
@@ -14059,16 +14053,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
+        <v>690</v>
+      </c>
+      <c r="B8" t="s">
         <v>691</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>692</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" s="23" t="s">
         <v>693</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>694</v>
       </c>
       <c r="F8" s="22">
         <v>1</v>
@@ -14076,13 +14070,13 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
+        <v>690</v>
+      </c>
+      <c r="B9" t="s">
         <v>691</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>692</v>
-      </c>
-      <c r="C9" t="s">
-        <v>693</v>
       </c>
       <c r="D9">
         <v>1889</v>
@@ -14093,13 +14087,13 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
+        <v>690</v>
+      </c>
+      <c r="B10" t="s">
         <v>691</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>692</v>
-      </c>
-      <c r="C10" t="s">
-        <v>693</v>
       </c>
       <c r="D10">
         <v>1879</v>
@@ -14110,13 +14104,13 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
+        <v>690</v>
+      </c>
+      <c r="B11" t="s">
         <v>691</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>692</v>
-      </c>
-      <c r="C11" t="s">
-        <v>693</v>
       </c>
       <c r="D11">
         <v>1891</v>
@@ -14127,13 +14121,13 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
+        <v>690</v>
+      </c>
+      <c r="B12" t="s">
         <v>691</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>692</v>
-      </c>
-      <c r="C12" t="s">
-        <v>693</v>
       </c>
       <c r="D12">
         <v>1891</v>
@@ -14144,16 +14138,16 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
+        <v>690</v>
+      </c>
+      <c r="B13" t="s">
         <v>691</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>692</v>
       </c>
-      <c r="C13" t="s">
-        <v>693</v>
-      </c>
       <c r="D13" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F13" s="22">
         <v>1</v>
@@ -14161,13 +14155,13 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
+        <v>690</v>
+      </c>
+      <c r="B14" t="s">
         <v>691</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>692</v>
-      </c>
-      <c r="C14" t="s">
-        <v>693</v>
       </c>
       <c r="D14">
         <v>1894</v>
@@ -14178,19 +14172,19 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
+        <v>695</v>
+      </c>
+      <c r="B15" t="s">
         <v>696</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>697</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>698</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>699</v>
-      </c>
-      <c r="E15" t="s">
-        <v>700</v>
       </c>
       <c r="F15" s="22">
         <v>17</v>
@@ -14198,19 +14192,19 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B16" t="s">
+        <v>700</v>
+      </c>
+      <c r="C16" t="s">
         <v>701</v>
       </c>
-      <c r="C16" t="s">
-        <v>702</v>
-      </c>
       <c r="D16" t="s">
+        <v>698</v>
+      </c>
+      <c r="E16" t="s">
         <v>699</v>
-      </c>
-      <c r="E16" t="s">
-        <v>700</v>
       </c>
       <c r="F16" s="22">
         <v>4</v>
@@ -14218,19 +14212,19 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B17" t="s">
+        <v>702</v>
+      </c>
+      <c r="C17" t="s">
         <v>703</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>704</v>
       </c>
-      <c r="D17" t="s">
-        <v>705</v>
-      </c>
       <c r="E17" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F17" s="22">
         <v>45</v>
@@ -14238,19 +14232,19 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B18" t="s">
+        <v>702</v>
+      </c>
+      <c r="C18" t="s">
         <v>703</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>704</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>705</v>
-      </c>
-      <c r="E18" t="s">
-        <v>706</v>
       </c>
       <c r="F18" s="22">
         <v>12</v>
@@ -14258,19 +14252,19 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B19" t="s">
+        <v>702</v>
+      </c>
+      <c r="C19" t="s">
         <v>703</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>704</v>
       </c>
-      <c r="D19" t="s">
-        <v>705</v>
-      </c>
       <c r="E19" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F19" s="22">
         <v>14</v>
@@ -14278,19 +14272,19 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B20" t="s">
+        <v>702</v>
+      </c>
+      <c r="C20" t="s">
         <v>703</v>
       </c>
-      <c r="C20" t="s">
-        <v>704</v>
-      </c>
       <c r="D20" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E20" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F20" s="22">
         <v>4</v>
@@ -14298,19 +14292,19 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B21" t="s">
+        <v>702</v>
+      </c>
+      <c r="C21" t="s">
         <v>703</v>
       </c>
-      <c r="C21" t="s">
-        <v>704</v>
-      </c>
       <c r="D21" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E21" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F21" s="22">
         <v>6</v>
@@ -14318,19 +14312,19 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
+        <v>708</v>
+      </c>
+      <c r="B22" t="s">
         <v>709</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>710</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>711</v>
       </c>
-      <c r="D22" t="s">
-        <v>712</v>
-      </c>
       <c r="E22" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F22" s="22">
         <v>3</v>
@@ -14338,19 +14332,19 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
+        <v>712</v>
+      </c>
+      <c r="B23" t="s">
+        <v>709</v>
+      </c>
+      <c r="C23" t="s">
+        <v>710</v>
+      </c>
+      <c r="D23" t="s">
         <v>713</v>
       </c>
-      <c r="B23" t="s">
-        <v>710</v>
-      </c>
-      <c r="C23" t="s">
-        <v>711</v>
-      </c>
-      <c r="D23" t="s">
-        <v>714</v>
-      </c>
       <c r="E23" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F23" s="22">
         <v>14</v>
@@ -14358,19 +14352,19 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B24" t="s">
+        <v>709</v>
+      </c>
+      <c r="C24" t="s">
         <v>710</v>
       </c>
-      <c r="C24" t="s">
-        <v>711</v>
-      </c>
       <c r="D24" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E24" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F24" s="22">
         <v>13</v>
@@ -14378,19 +14372,19 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
+        <v>714</v>
+      </c>
+      <c r="B25" t="s">
+        <v>709</v>
+      </c>
+      <c r="C25" t="s">
+        <v>710</v>
+      </c>
+      <c r="D25" t="s">
         <v>715</v>
       </c>
-      <c r="B25" t="s">
-        <v>710</v>
-      </c>
-      <c r="C25" t="s">
-        <v>711</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>716</v>
-      </c>
-      <c r="E25" t="s">
-        <v>717</v>
       </c>
       <c r="F25" s="22">
         <v>2</v>
@@ -14398,19 +14392,19 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
+        <v>708</v>
+      </c>
+      <c r="B26" t="s">
         <v>709</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>710</v>
       </c>
-      <c r="C26" t="s">
-        <v>711</v>
-      </c>
       <c r="D26" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E26" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F26" s="22">
         <v>1</v>

--- a/data_printer.xlsx
+++ b/data_printer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GamErick\Desktop\Nova pasta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A24193-B050-4C3B-899C-375507203D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9230B55E-895D-4B36-B211-7621C2F4FF65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A8AA41B5-7AA1-4FF7-A9B8-54B8A4E1AF28}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="estoque" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="DadosExternos_1" localSheetId="0" hidden="1">PRINTERS_INVENTORY!$A$1:$J$340</definedName>
+    <definedName name="DadosExternos_1" localSheetId="0" hidden="1">PRINTERS_INVENTORY!$A$1:$J$341</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2744" uniqueCount="780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2752" uniqueCount="786">
   <si>
     <t>INDICE</t>
   </si>
@@ -876,9 +876,6 @@
     <t>5389P700133</t>
   </si>
   <si>
-    <t>DERHU (RH SALA-01)</t>
-  </si>
-  <si>
     <t>AK49008840A0</t>
   </si>
   <si>
@@ -1770,9 +1767,6 @@
     <t>U67030G3N135449</t>
   </si>
   <si>
-    <t>DERHU (RH SALA-02)</t>
-  </si>
-  <si>
     <t>IMPRESSORA INSTALADA EM 31/10/2024 - SUBSTITUIU IMPRESSORA OKI 5502;</t>
   </si>
   <si>
@@ -1908,9 +1902,6 @@
     <t>U67030G3N135415</t>
   </si>
   <si>
-    <t>IMPRESSORA INSTALADA EM 21/11/2024 - SUBSTITUIU BROTHER 5652</t>
-  </si>
-  <si>
     <t>U67030G3N135388</t>
   </si>
   <si>
@@ -2052,9 +2043,6 @@
     <t>U67030H3N150837</t>
   </si>
   <si>
-    <t>DERHU (RH SALA-03)</t>
-  </si>
-  <si>
     <t>on_03</t>
   </si>
   <si>
@@ -2377,6 +2365,36 @@
   </si>
   <si>
     <t>VÉRITAS CURSO PREPA RETIRADA 20-05-2025;</t>
+  </si>
+  <si>
+    <t>U63975H2N423571</t>
+  </si>
+  <si>
+    <t>MERCADO ANDRADE - FAZ</t>
+  </si>
+  <si>
+    <t>MERCADO ANDRADE - CPD</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMPRESSORA INSTALADA EM 21/11/2024 - SUBSTITUIU BROTHER 5652 - FOI TRANSFERIDA PARA CRAS MORRO GRANDE PELA SEPOL INAGURAÇÃO CRAS MORRO GRANDE; </t>
+  </si>
+  <si>
+    <t>ESTAVA PAÇO DEHU RETIRADA PARA MANUTENÇÃO 20/05/2025;</t>
+  </si>
+  <si>
+    <t>DERHU - SALA 03</t>
+  </si>
+  <si>
+    <t>DERHU - SALA 02</t>
+  </si>
+  <si>
+    <t>DERHU - SALA 01</t>
+  </si>
+  <si>
+    <t>INSTALAÇÃO FEITA EM 10/09/2024 - DISTRIVISA;  FOI WP 22/05/2025;</t>
   </si>
 </sst>
 </file>
@@ -2460,7 +2478,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2523,155 +2541,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="25">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2908,6 +2783,126 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2948,22 +2943,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C244623C-48DE-4D05-852C-6EFDD885ABE2}" name="Controle_Inventario_Impressoras" displayName="Controle_Inventario_Impressoras" ref="A1:J340" tableType="queryTable" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
-  <autoFilter ref="A1:J340" xr:uid="{C244623C-48DE-4D05-852C-6EFDD885ABE2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C244623C-48DE-4D05-852C-6EFDD885ABE2}" name="Controle_Inventario_Impressoras" displayName="Controle_Inventario_Impressoras" ref="A1:J341" tableType="queryTable" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A1:J341" xr:uid="{C244623C-48DE-4D05-852C-6EFDD885ABE2}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J27">
     <sortCondition ref="A13"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{F8E3D681-C494-47F2-8429-052381C12AF1}" uniqueName="1" name="INDICE" queryTableFieldId="1" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{EE2E8FA5-A99D-4573-9868-408DB8FD4417}" uniqueName="2" name="MODELO" queryTableFieldId="2" dataDxfId="22"/>
-    <tableColumn id="11" xr3:uid="{CB5196C0-CCA1-4329-825F-D71E0948A542}" uniqueName="11" name="TIPO" queryTableFieldId="16390" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{27BC8F35-CC2C-44A1-BAF7-B0390B09477F}" uniqueName="3" name="NUMERO DE SERIE" queryTableFieldId="3" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{552F7A6E-6277-4DC1-9CDA-EA7FDCCE8E36}" uniqueName="4" name="LOCALIZAÇÃO" queryTableFieldId="4" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{4C8345F1-6E01-4566-9030-039665486C03}" uniqueName="5" name="SETOR" queryTableFieldId="5" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{10436F87-F6F1-46C4-A81A-8D144AC72FDF}" uniqueName="9" name="EMPRESA" queryTableFieldId="16389" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{B7941BA2-3E1C-476B-A3C7-BA155A35A2D0}" uniqueName="6" name="ATUALIZADO" queryTableFieldId="6" dataDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{4338F703-CE4B-4443-8A10-74F64ED8CD42}" uniqueName="7" name="PRINTWAY" queryTableFieldId="16391" dataDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{02B7C1FB-8EA9-4F22-BCCF-3D1809FFEDCC}" uniqueName="8" name="OBSERVAÇÃO" queryTableFieldId="8" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{F8E3D681-C494-47F2-8429-052381C12AF1}" uniqueName="1" name="INDICE" queryTableFieldId="1" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{EE2E8FA5-A99D-4573-9868-408DB8FD4417}" uniqueName="2" name="MODELO" queryTableFieldId="2" dataDxfId="9"/>
+    <tableColumn id="11" xr3:uid="{CB5196C0-CCA1-4329-825F-D71E0948A542}" uniqueName="11" name="TIPO" queryTableFieldId="16390" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{27BC8F35-CC2C-44A1-BAF7-B0390B09477F}" uniqueName="3" name="NUMERO DE SERIE" queryTableFieldId="3" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{552F7A6E-6277-4DC1-9CDA-EA7FDCCE8E36}" uniqueName="4" name="LOCALIZAÇÃO" queryTableFieldId="4" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{4C8345F1-6E01-4566-9030-039665486C03}" uniqueName="5" name="SETOR" queryTableFieldId="5" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{10436F87-F6F1-46C4-A81A-8D144AC72FDF}" uniqueName="9" name="EMPRESA" queryTableFieldId="16389" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{B7941BA2-3E1C-476B-A3C7-BA155A35A2D0}" uniqueName="6" name="ATUALIZADO" queryTableFieldId="6" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{4338F703-CE4B-4443-8A10-74F64ED8CD42}" uniqueName="7" name="PRINTWAY" queryTableFieldId="16391" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{02B7C1FB-8EA9-4F22-BCCF-3D1809FFEDCC}" uniqueName="8" name="OBSERVAÇÃO" queryTableFieldId="8" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2978,7 +2973,7 @@
     <tableColumn id="3" xr3:uid="{95A3DCD3-FE19-4A74-9940-661D6BB94B25}" name="MODELO"/>
     <tableColumn id="4" xr3:uid="{521C03E5-7FA9-4789-8198-9E0781F3ABC7}" name="DESCRIÇÃO"/>
     <tableColumn id="5" xr3:uid="{579D81F0-AA4C-4609-BF35-AF838B2B149B}" name="COR"/>
-    <tableColumn id="6" xr3:uid="{19487D13-EF31-43DA-89CA-4AA1E1029C34}" name="QUANTIDADE" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{19487D13-EF31-43DA-89CA-4AA1E1029C34}" name="QUANTIDADE" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3281,10 +3276,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD39631B-97B8-405A-AA43-14CDFBC77F92}">
-  <dimension ref="A1:J340"/>
+  <dimension ref="A1:J341"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A308" workbookViewId="0">
-      <selection activeCell="C308" sqref="C308"/>
+    <sheetView tabSelected="1" topLeftCell="A304" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -3479,7 +3474,7 @@
         <v>99</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>15</v>
@@ -3523,7 +3518,7 @@
         <v>16</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -3540,10 +3535,10 @@
         <v>34</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>29</v>
+        <v>784</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>15</v>
@@ -3699,7 +3694,7 @@
         <v>21</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>41</v>
@@ -3731,7 +3726,7 @@
         <v>99</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>15</v>
@@ -3763,7 +3758,7 @@
         <v>21</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>41</v>
@@ -3775,7 +3770,7 @@
         <v>16</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -4298,7 +4293,7 @@
         <v>13</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>15</v>
@@ -4310,7 +4305,7 @@
         <v>16</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -4362,7 +4357,7 @@
         <v>13</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>15</v>
@@ -5748,7 +5743,7 @@
         <v>195</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>197</v>
@@ -6047,7 +6042,7 @@
         <v>225</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>196</v>
+        <v>28</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>226</v>
@@ -7093,7 +7088,7 @@
         <v>89</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>41</v>
@@ -7122,16 +7117,22 @@
         <v>278</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>279</v>
+        <v>32</v>
       </c>
       <c r="G124" s="5" t="s">
         <v>15</v>
       </c>
+      <c r="H124" s="9">
+        <v>45797</v>
+      </c>
       <c r="I124" s="9" t="s">
         <v>16</v>
+      </c>
+      <c r="J124" s="3" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="125" spans="1:10">
@@ -7145,13 +7146,13 @@
         <v>11</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G125" s="11" t="s">
         <v>41</v>
@@ -7163,7 +7164,7 @@
         <v>16</v>
       </c>
       <c r="J125" s="3" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
     </row>
     <row r="126" spans="1:10">
@@ -7177,13 +7178,13 @@
         <v>11</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>41</v>
@@ -7195,7 +7196,7 @@
         <v>16</v>
       </c>
       <c r="J126" s="3" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
     </row>
     <row r="127" spans="1:10">
@@ -7209,7 +7210,7 @@
         <v>11</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>28</v>
@@ -7227,7 +7228,7 @@
         <v>16</v>
       </c>
       <c r="J127" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="128" spans="1:10">
@@ -7241,7 +7242,7 @@
         <v>11</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>39</v>
@@ -7259,7 +7260,7 @@
         <v>16</v>
       </c>
       <c r="J128" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="129" spans="1:10">
@@ -7267,13 +7268,13 @@
         <v>128</v>
       </c>
       <c r="B129" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D129" s="1" t="s">
         <v>288</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>289</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>13</v>
@@ -7291,7 +7292,7 @@
         <v>16</v>
       </c>
       <c r="J129" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="130" spans="1:10">
@@ -7305,7 +7306,7 @@
         <v>11</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>28</v>
@@ -7323,7 +7324,7 @@
         <v>16</v>
       </c>
       <c r="J130" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="131" spans="1:10">
@@ -7337,7 +7338,7 @@
         <v>11</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>28</v>
@@ -7355,7 +7356,7 @@
         <v>16</v>
       </c>
       <c r="J131" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="132" spans="1:10">
@@ -7369,13 +7370,13 @@
         <v>11</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="G132" s="5" t="s">
         <v>15</v>
@@ -7387,7 +7388,7 @@
         <v>16</v>
       </c>
       <c r="J132" s="3" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
     </row>
     <row r="133" spans="1:10">
@@ -7401,7 +7402,7 @@
         <v>11</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>28</v>
@@ -7419,7 +7420,7 @@
         <v>16</v>
       </c>
       <c r="J133" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="134" spans="1:10">
@@ -7433,7 +7434,7 @@
         <v>11</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>28</v>
@@ -7451,7 +7452,7 @@
         <v>16</v>
       </c>
       <c r="J134" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="135" spans="1:10">
@@ -7465,7 +7466,7 @@
         <v>11</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>28</v>
@@ -7483,7 +7484,7 @@
         <v>16</v>
       </c>
       <c r="J135" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="136" spans="1:10">
@@ -7497,13 +7498,13 @@
         <v>11</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G136" s="5" t="s">
         <v>15</v>
@@ -7515,7 +7516,7 @@
         <v>16</v>
       </c>
       <c r="J136" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="137" spans="1:10">
@@ -7529,7 +7530,7 @@
         <v>11</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>28</v>
@@ -7547,7 +7548,7 @@
         <v>16</v>
       </c>
       <c r="J137" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="138" spans="1:10">
@@ -7561,13 +7562,13 @@
         <v>11</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G138" s="5" t="s">
         <v>15</v>
@@ -7579,7 +7580,7 @@
         <v>16</v>
       </c>
       <c r="J138" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="139" spans="1:10">
@@ -7593,7 +7594,7 @@
         <v>11</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>28</v>
@@ -7611,7 +7612,7 @@
         <v>16</v>
       </c>
       <c r="J139" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="140" spans="1:10">
@@ -7625,7 +7626,7 @@
         <v>11</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>28</v>
@@ -7643,7 +7644,7 @@
         <v>16</v>
       </c>
       <c r="J140" s="13" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
     </row>
     <row r="141" spans="1:10">
@@ -7651,13 +7652,13 @@
         <v>140</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>109</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>28</v>
@@ -7675,7 +7676,7 @@
         <v>16</v>
       </c>
       <c r="J141" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="142" spans="1:10">
@@ -7683,19 +7684,19 @@
         <v>141</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>109</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G142" s="5" t="s">
         <v>15</v>
@@ -7712,19 +7713,19 @@
         <v>142</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>109</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G143" s="5" t="s">
         <v>15</v>
@@ -7741,19 +7742,19 @@
         <v>143</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>109</v>
       </c>
       <c r="D144" s="14" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G144" s="15" t="s">
         <v>15</v>
@@ -7765,7 +7766,7 @@
         <v>16</v>
       </c>
       <c r="J144" s="17" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="145" spans="1:10">
@@ -7773,19 +7774,19 @@
         <v>144</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>109</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="G145" s="15" t="s">
         <v>15</v>
@@ -7797,7 +7798,7 @@
         <v>16</v>
       </c>
       <c r="J145" s="3" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
     </row>
     <row r="146" spans="1:10">
@@ -7805,13 +7806,13 @@
         <v>145</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>109</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>196</v>
@@ -7829,7 +7830,7 @@
         <v>16</v>
       </c>
       <c r="J146" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="147" spans="1:10">
@@ -7837,13 +7838,13 @@
         <v>146</v>
       </c>
       <c r="B147" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D147" s="4" t="s">
         <v>327</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D147" s="4" t="s">
-        <v>328</v>
       </c>
       <c r="E147" s="4" t="s">
         <v>28</v>
@@ -7861,7 +7862,7 @@
         <v>16</v>
       </c>
       <c r="J147" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="148" spans="1:10">
@@ -7875,7 +7876,7 @@
         <v>11</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E148" s="4" t="s">
         <v>28</v>
@@ -7893,7 +7894,7 @@
         <v>16</v>
       </c>
       <c r="J148" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
     </row>
     <row r="149" spans="1:10">
@@ -7901,19 +7902,19 @@
         <v>148</v>
       </c>
       <c r="B149" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D149" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>333</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G149" s="5" t="s">
         <v>15</v>
@@ -7936,7 +7937,7 @@
         <v>11</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E150" s="4" t="s">
         <v>28</v>
@@ -7954,7 +7955,7 @@
         <v>16</v>
       </c>
       <c r="J150" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="151" spans="1:10">
@@ -7968,7 +7969,7 @@
         <v>11</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E151" s="4" t="s">
         <v>28</v>
@@ -7986,7 +7987,7 @@
         <v>16</v>
       </c>
       <c r="J151" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="152" spans="1:10">
@@ -8000,7 +8001,7 @@
         <v>11</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E152" s="4" t="s">
         <v>28</v>
@@ -8018,7 +8019,7 @@
         <v>16</v>
       </c>
       <c r="J152" s="3" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
     </row>
     <row r="153" spans="1:10">
@@ -8032,22 +8033,22 @@
         <v>11</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F153" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="G153" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I153" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J153" s="3" t="s">
         <v>341</v>
-      </c>
-      <c r="G153" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I153" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J153" s="3" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="154" spans="1:10">
@@ -8061,13 +8062,13 @@
         <v>11</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E154" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G154" s="5" t="s">
         <v>15</v>
@@ -8084,19 +8085,19 @@
         <v>154</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E155" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G155" s="5" t="s">
         <v>15</v>
@@ -8111,13 +8112,13 @@
         <v>155</v>
       </c>
       <c r="B156" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D156" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>348</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>13</v>
@@ -8135,7 +8136,7 @@
         <v>16</v>
       </c>
       <c r="J156" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="157" spans="1:10">
@@ -8143,19 +8144,19 @@
         <v>156</v>
       </c>
       <c r="B157" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D157" s="4" t="s">
         <v>350</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D157" s="4" t="s">
-        <v>351</v>
       </c>
       <c r="E157" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G157" s="5" t="s">
         <v>15</v>
@@ -8169,19 +8170,19 @@
         <v>157</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>109</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E158" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F158" s="4" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="G158" s="5" t="s">
         <v>41</v>
@@ -8193,7 +8194,7 @@
         <v>16</v>
       </c>
       <c r="J158" s="3" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="159" spans="1:10">
@@ -8207,7 +8208,7 @@
         <v>11</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>28</v>
@@ -8225,7 +8226,7 @@
         <v>16</v>
       </c>
       <c r="J159" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="160" spans="1:10">
@@ -8239,13 +8240,13 @@
         <v>11</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E160" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G160" s="5" t="s">
         <v>15</v>
@@ -8257,7 +8258,7 @@
         <v>16</v>
       </c>
       <c r="J160" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="161" spans="1:10">
@@ -8265,28 +8266,28 @@
         <v>160</v>
       </c>
       <c r="B161" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D161" s="1" t="s">
         <v>360</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>361</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F161" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="G161" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I161" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J161" s="3" t="s">
         <v>362</v>
-      </c>
-      <c r="G161" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I161" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J161" s="3" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="162" spans="1:10">
@@ -8294,13 +8295,13 @@
         <v>161</v>
       </c>
       <c r="B162" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D162" s="1" t="s">
         <v>364</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>365</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>28</v>
@@ -8329,13 +8330,13 @@
         <v>11</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G163" s="5" t="s">
         <v>15</v>
@@ -8358,7 +8359,7 @@
         <v>109</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E164" s="4" t="s">
         <v>28</v>
@@ -8376,7 +8377,7 @@
         <v>16</v>
       </c>
       <c r="J164" s="3" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
     </row>
     <row r="165" spans="1:10">
@@ -8384,19 +8385,19 @@
         <v>164</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>109</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>99</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G165" s="5" t="s">
         <v>15</v>
@@ -8408,7 +8409,7 @@
         <v>16</v>
       </c>
       <c r="J165" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="166" spans="1:10">
@@ -8416,19 +8417,19 @@
         <v>165</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>109</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G166" s="5" t="s">
         <v>15</v>
@@ -8448,13 +8449,13 @@
         <v>11</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E167" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G167" s="5" t="s">
         <v>15</v>
@@ -8468,19 +8469,19 @@
         <v>167</v>
       </c>
       <c r="B168" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D168" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>378</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G168" s="5" t="s">
         <v>15</v>
@@ -8497,19 +8498,19 @@
         <v>168</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G169" s="5" t="s">
         <v>15</v>
@@ -8526,19 +8527,19 @@
         <v>169</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G170" s="5" t="s">
         <v>15</v>
@@ -8555,19 +8556,19 @@
         <v>170</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G171" s="5" t="s">
         <v>15</v>
@@ -8584,19 +8585,19 @@
         <v>171</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G172" s="5" t="s">
         <v>15</v>
@@ -8613,19 +8614,19 @@
         <v>172</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G173" s="5" t="s">
         <v>15</v>
@@ -8642,19 +8643,19 @@
         <v>173</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E174" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G174" s="5" t="s">
         <v>15</v>
@@ -8671,19 +8672,19 @@
         <v>174</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E175" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G175" s="5" t="s">
         <v>15</v>
@@ -8700,19 +8701,19 @@
         <v>175</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G176" s="5" t="s">
         <v>15</v>
@@ -8729,19 +8730,19 @@
         <v>176</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E177" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G177" s="5" t="s">
         <v>15</v>
@@ -8758,19 +8759,19 @@
         <v>177</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E178" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G178" s="5" t="s">
         <v>15</v>
@@ -8787,19 +8788,19 @@
         <v>178</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E179" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G179" s="5" t="s">
         <v>15</v>
@@ -8816,19 +8817,19 @@
         <v>179</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E180" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G180" s="5" t="s">
         <v>15</v>
@@ -8845,19 +8846,19 @@
         <v>180</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E181" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G181" s="5" t="s">
         <v>15</v>
@@ -8874,19 +8875,19 @@
         <v>181</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E182" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G182" s="5" t="s">
         <v>15</v>
@@ -8903,19 +8904,19 @@
         <v>182</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E183" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G183" s="5" t="s">
         <v>15</v>
@@ -8932,19 +8933,19 @@
         <v>183</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G184" s="5" t="s">
         <v>15</v>
@@ -8961,19 +8962,19 @@
         <v>184</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G185" s="5" t="s">
         <v>15</v>
@@ -8990,19 +8991,19 @@
         <v>185</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E186" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G186" s="5" t="s">
         <v>15</v>
@@ -9019,19 +9020,19 @@
         <v>186</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E187" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G187" s="5" t="s">
         <v>15</v>
@@ -9048,19 +9049,19 @@
         <v>187</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E188" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G188" s="5" t="s">
         <v>15</v>
@@ -9077,13 +9078,13 @@
         <v>188</v>
       </c>
       <c r="B189" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D189" s="1" t="s">
         <v>400</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D189" s="1" t="s">
-        <v>401</v>
       </c>
       <c r="E189" s="1" t="s">
         <v>28</v>
@@ -9106,13 +9107,13 @@
         <v>189</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>28</v>
@@ -9130,7 +9131,7 @@
         <v>16</v>
       </c>
       <c r="J190" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="191" spans="1:10">
@@ -9138,19 +9139,19 @@
         <v>190</v>
       </c>
       <c r="B191" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D191" s="1" t="s">
         <v>404</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D191" s="1" t="s">
-        <v>405</v>
       </c>
       <c r="E191" s="4" t="s">
         <v>89</v>
       </c>
       <c r="F191" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G191" s="5" t="s">
         <v>15</v>
@@ -9172,13 +9173,13 @@
         <v>11</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E192" s="4" t="s">
         <v>89</v>
       </c>
       <c r="F192" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G192" s="5" t="s">
         <v>15</v>
@@ -9199,13 +9200,13 @@
         <v>11</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E193" s="4" t="s">
         <v>89</v>
       </c>
       <c r="F193" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G193" s="5" t="s">
         <v>15</v>
@@ -9220,19 +9221,19 @@
         <v>193</v>
       </c>
       <c r="B194" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D194" s="4" t="s">
         <v>411</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D194" s="4" t="s">
-        <v>412</v>
       </c>
       <c r="E194" s="4" t="s">
         <v>89</v>
       </c>
       <c r="F194" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G194" s="5" t="s">
         <v>15</v>
@@ -9242,7 +9243,7 @@
         <v>16</v>
       </c>
       <c r="J194" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="195" spans="1:10">
@@ -9256,13 +9257,13 @@
         <v>11</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E195" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="G195" s="5" t="s">
         <v>15</v>
@@ -9274,7 +9275,7 @@
         <v>16</v>
       </c>
       <c r="J195" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="196" spans="1:10">
@@ -9288,7 +9289,7 @@
         <v>11</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E196" s="1" t="s">
         <v>28</v>
@@ -9306,7 +9307,7 @@
         <v>16</v>
       </c>
       <c r="J196" s="8" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="197" spans="1:10">
@@ -9320,7 +9321,7 @@
         <v>11</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E197" s="1" t="s">
         <v>28</v>
@@ -9338,7 +9339,7 @@
         <v>16</v>
       </c>
       <c r="J197" s="7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="198" spans="1:10">
@@ -9352,13 +9353,13 @@
         <v>11</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E198" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="G198" s="5" t="s">
         <v>15</v>
@@ -9370,7 +9371,7 @@
         <v>16</v>
       </c>
       <c r="J198" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="199" spans="1:10">
@@ -9384,10 +9385,10 @@
         <v>11</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>28</v>
+        <v>196</v>
       </c>
       <c r="F199" s="1" t="s">
         <v>32</v>
@@ -9402,7 +9403,7 @@
         <v>16</v>
       </c>
       <c r="J199" s="3" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
     </row>
     <row r="200" spans="1:10">
@@ -9416,7 +9417,7 @@
         <v>11</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E200" s="4" t="s">
         <v>89</v>
@@ -9434,7 +9435,7 @@
         <v>16</v>
       </c>
       <c r="J200" s="3" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
     </row>
     <row r="201" spans="1:10">
@@ -9448,7 +9449,7 @@
         <v>11</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E201" s="1" t="s">
         <v>28</v>
@@ -9466,7 +9467,7 @@
         <v>16</v>
       </c>
       <c r="J201" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="202" spans="1:10">
@@ -9480,13 +9481,13 @@
         <v>11</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E202" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G202" s="5" t="s">
         <v>15</v>
@@ -9498,7 +9499,7 @@
         <v>16</v>
       </c>
       <c r="J202" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="203" spans="1:10">
@@ -9512,7 +9513,7 @@
         <v>11</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E203" s="1" t="s">
         <v>28</v>
@@ -9530,7 +9531,7 @@
         <v>16</v>
       </c>
       <c r="J203" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="204" spans="1:10">
@@ -9544,7 +9545,7 @@
         <v>11</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E204" s="1" t="s">
         <v>28</v>
@@ -9562,7 +9563,7 @@
         <v>16</v>
       </c>
       <c r="J204" s="3" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
     </row>
     <row r="205" spans="1:10">
@@ -9576,7 +9577,7 @@
         <v>11</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E205" s="1" t="s">
         <v>28</v>
@@ -9594,7 +9595,7 @@
         <v>16</v>
       </c>
       <c r="J205" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="206" spans="1:10">
@@ -9608,7 +9609,7 @@
         <v>11</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E206" s="1" t="s">
         <v>28</v>
@@ -9626,7 +9627,7 @@
         <v>16</v>
       </c>
       <c r="J206" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="207" spans="1:10">
@@ -9640,7 +9641,7 @@
         <v>11</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E207" s="1" t="s">
         <v>28</v>
@@ -9658,7 +9659,7 @@
         <v>16</v>
       </c>
       <c r="J207" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="208" spans="1:10">
@@ -9672,13 +9673,13 @@
         <v>11</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E208" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G208" s="5" t="s">
         <v>15</v>
@@ -9690,7 +9691,7 @@
         <v>16</v>
       </c>
       <c r="J208" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="209" spans="1:10">
@@ -9704,7 +9705,7 @@
         <v>11</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E209" s="1" t="s">
         <v>28</v>
@@ -9722,7 +9723,7 @@
         <v>16</v>
       </c>
       <c r="J209" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="210" spans="1:10">
@@ -9736,7 +9737,7 @@
         <v>11</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E210" s="1" t="s">
         <v>28</v>
@@ -9754,7 +9755,7 @@
         <v>16</v>
       </c>
       <c r="J210" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="211" spans="1:10">
@@ -9768,13 +9769,13 @@
         <v>11</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E211" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G211" s="5" t="s">
         <v>15</v>
@@ -9783,10 +9784,10 @@
         <v>45545</v>
       </c>
       <c r="I211" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="J211" s="3" t="s">
         <v>449</v>
-      </c>
-      <c r="J211" s="3" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="212" spans="1:10">
@@ -9800,7 +9801,7 @@
         <v>11</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E212" s="1" t="s">
         <v>28</v>
@@ -9818,7 +9819,7 @@
         <v>16</v>
       </c>
       <c r="J212" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="213" spans="1:10">
@@ -9832,7 +9833,7 @@
         <v>11</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E213" s="1" t="s">
         <v>28</v>
@@ -9850,7 +9851,7 @@
         <v>16</v>
       </c>
       <c r="J213" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="214" spans="1:10">
@@ -9864,7 +9865,7 @@
         <v>11</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E214" s="1" t="s">
         <v>28</v>
@@ -9882,7 +9883,7 @@
         <v>16</v>
       </c>
       <c r="J214" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="215" spans="1:10">
@@ -9896,7 +9897,7 @@
         <v>11</v>
       </c>
       <c r="D215" s="18" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E215" s="1" t="s">
         <v>28</v>
@@ -9914,7 +9915,7 @@
         <v>16</v>
       </c>
       <c r="J215" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="216" spans="1:10">
@@ -9928,7 +9929,7 @@
         <v>11</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E216" s="1" t="s">
         <v>28</v>
@@ -9946,7 +9947,7 @@
         <v>16</v>
       </c>
       <c r="J216" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="217" spans="1:10">
@@ -9960,7 +9961,7 @@
         <v>11</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E217" s="1" t="s">
         <v>28</v>
@@ -9978,7 +9979,7 @@
         <v>16</v>
       </c>
       <c r="J217" s="3" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
     </row>
     <row r="218" spans="1:10">
@@ -9986,19 +9987,19 @@
         <v>217</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>109</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E218" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="G218" s="5" t="s">
         <v>15</v>
@@ -10021,7 +10022,7 @@
         <v>11</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E219" s="1" t="s">
         <v>28</v>
@@ -10039,7 +10040,7 @@
         <v>16</v>
       </c>
       <c r="J219" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="220" spans="1:10">
@@ -10053,13 +10054,13 @@
         <v>11</v>
       </c>
       <c r="D220" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="E220" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="E220" s="1" t="s">
-        <v>466</v>
-      </c>
       <c r="F220" s="1" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="G220" s="5" t="s">
         <v>15</v>
@@ -10082,7 +10083,7 @@
         <v>11</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E221" s="1" t="s">
         <v>28</v>
@@ -10100,7 +10101,7 @@
         <v>16</v>
       </c>
       <c r="J221" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="222" spans="1:10">
@@ -10114,7 +10115,7 @@
         <v>11</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E222" s="1" t="s">
         <v>28</v>
@@ -10143,7 +10144,7 @@
         <v>11</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E223" s="1" t="s">
         <v>28</v>
@@ -10161,7 +10162,7 @@
         <v>16</v>
       </c>
       <c r="J223" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="224" spans="1:10">
@@ -10175,7 +10176,7 @@
         <v>11</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E224" s="1" t="s">
         <v>28</v>
@@ -10205,13 +10206,13 @@
         <v>11</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E225" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G225" s="5" t="s">
         <v>15</v>
@@ -10223,7 +10224,7 @@
         <v>16</v>
       </c>
       <c r="J225" s="7" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
     </row>
     <row r="226" spans="1:10">
@@ -10237,7 +10238,7 @@
         <v>11</v>
       </c>
       <c r="D226" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E226" s="1" t="s">
         <v>28</v>
@@ -10255,7 +10256,7 @@
         <v>16</v>
       </c>
       <c r="J226" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="227" spans="1:10">
@@ -10269,7 +10270,7 @@
         <v>11</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E227" s="1" t="s">
         <v>28</v>
@@ -10287,7 +10288,7 @@
         <v>16</v>
       </c>
       <c r="J227" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="228" spans="1:10">
@@ -10301,7 +10302,7 @@
         <v>11</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E228" s="1" t="s">
         <v>28</v>
@@ -10319,7 +10320,7 @@
         <v>16</v>
       </c>
       <c r="J228" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="229" spans="1:10">
@@ -10333,7 +10334,7 @@
         <v>11</v>
       </c>
       <c r="D229" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E229" s="1" t="s">
         <v>28</v>
@@ -10351,7 +10352,7 @@
         <v>16</v>
       </c>
       <c r="J229" s="8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="230" spans="1:10">
@@ -10359,19 +10360,19 @@
         <v>229</v>
       </c>
       <c r="B230" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D230" s="14" t="s">
         <v>482</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D230" s="14" t="s">
-        <v>483</v>
       </c>
       <c r="E230" s="14" t="s">
         <v>13</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="G230" s="15" t="s">
         <v>15</v>
@@ -10383,85 +10384,81 @@
         <v>16</v>
       </c>
       <c r="J230" s="8" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
     </row>
     <row r="231" spans="1:10">
-      <c r="A231" s="4">
-        <v>230</v>
-      </c>
+      <c r="A231" s="14"/>
       <c r="B231" s="2" t="s">
-        <v>744</v>
-      </c>
-      <c r="C231" s="15" t="s">
+        <v>740</v>
+      </c>
+      <c r="C231" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="E231" s="14" t="s">
+        <v>776</v>
+      </c>
+      <c r="E231" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F231" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G231" s="15" t="s">
+      <c r="F231" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="G231" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H231" s="16">
-        <v>45744</v>
-      </c>
-      <c r="I231" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J231" s="8" t="s">
-        <v>746</v>
-      </c>
+        <v>45797</v>
+      </c>
+      <c r="I231" s="9" t="s">
+        <v>779</v>
+      </c>
+      <c r="J231" s="24"/>
     </row>
     <row r="232" spans="1:10">
       <c r="A232" s="4">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="C232" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="C232" s="15" t="s">
         <v>11</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="E232" s="1" t="s">
-        <v>28</v>
+        <v>741</v>
+      </c>
+      <c r="E232" s="14" t="s">
+        <v>13</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G232" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H232" s="9">
-        <v>45652</v>
-      </c>
-      <c r="I232" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J232" s="3" t="s">
-        <v>486</v>
+        <v>778</v>
+      </c>
+      <c r="G232" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H232" s="16">
+        <v>45744</v>
+      </c>
+      <c r="I232" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J232" s="8" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="233" spans="1:10">
       <c r="A233" s="4">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B233" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D233" s="1" t="s">
         <v>484</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D233" s="1" t="s">
-        <v>487</v>
       </c>
       <c r="E233" s="1" t="s">
         <v>28</v>
@@ -10479,21 +10476,21 @@
         <v>16</v>
       </c>
       <c r="J233" s="3" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="234" spans="1:10">
       <c r="A234" s="4">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="E234" s="1" t="s">
         <v>28</v>
@@ -10511,94 +10508,97 @@
         <v>16</v>
       </c>
       <c r="J234" s="3" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="235" spans="1:10">
       <c r="A235" s="4">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>49</v>
+        <v>483</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>50</v>
+        <v>488</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="G235" s="2" t="s">
-        <v>21</v>
+        <v>29</v>
+      </c>
+      <c r="G235" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="H235" s="9">
-        <v>45624</v>
-      </c>
-      <c r="I235" s="9" t="s">
+        <v>45652</v>
+      </c>
+      <c r="I235" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J235" s="3" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="236" spans="1:10">
       <c r="A236" s="4">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>493</v>
+        <v>49</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>494</v>
+        <v>50</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>66</v>
+        <v>490</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H236" s="9">
-        <v>45653</v>
+        <v>45624</v>
       </c>
       <c r="I236" s="9" t="s">
         <v>16</v>
+      </c>
+      <c r="J236" s="3" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="237" spans="1:10">
       <c r="A237" s="4">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>109</v>
+        <v>11</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>466</v>
+        <v>28</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="G237" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G237" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H237" s="9">
-        <v>45757</v>
+        <v>45653</v>
       </c>
       <c r="I237" s="9" t="s">
         <v>16</v>
@@ -10606,132 +10606,129 @@
     </row>
     <row r="238" spans="1:10">
       <c r="A238" s="4">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>109</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>196</v>
+        <v>465</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G238" s="2" t="s">
-        <v>41</v>
+        <v>496</v>
+      </c>
+      <c r="G238" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="H238" s="9">
-        <v>45631</v>
-      </c>
-      <c r="I238" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J238" s="3" t="s">
-        <v>500</v>
+        <v>45757</v>
+      </c>
+      <c r="I238" s="9" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="239" spans="1:10">
       <c r="A239" s="4">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>28</v>
+        <v>196</v>
       </c>
       <c r="F239" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G239" s="5" t="s">
-        <v>15</v>
+      <c r="G239" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="H239" s="9">
-        <v>45705</v>
+        <v>45631</v>
       </c>
       <c r="I239" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J239" s="3" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="240" spans="1:10">
       <c r="A240" s="4">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>37</v>
+        <v>500</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>200</v>
+        <v>28</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="G240" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
+      </c>
+      <c r="G240" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H240" s="9">
+        <v>45705</v>
       </c>
       <c r="I240" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J240" s="3" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="241" spans="1:10">
       <c r="A241" s="4">
-        <v>240</v>
-      </c>
-      <c r="B241" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="B241" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D241" s="20" t="s">
-        <v>742</v>
+      <c r="D241" s="1" t="s">
+        <v>503</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="G241" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H241" s="9">
-        <v>45638</v>
-      </c>
       <c r="I241" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J241" s="3" t="s">
-        <v>743</v>
+        <v>505</v>
       </c>
     </row>
     <row r="242" spans="1:10">
       <c r="A242" s="4">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B242" s="10" t="s">
         <v>37</v>
@@ -10740,13 +10737,13 @@
         <v>11</v>
       </c>
       <c r="D242" s="20" t="s">
-        <v>508</v>
+        <v>738</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>200</v>
+        <v>28</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="G242" s="2" t="s">
         <v>41</v>
@@ -10757,10 +10754,13 @@
       <c r="I242" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="J242" s="3" t="s">
+        <v>739</v>
+      </c>
     </row>
     <row r="243" spans="1:10">
       <c r="A243" s="4">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B243" s="10" t="s">
         <v>37</v>
@@ -10769,286 +10769,283 @@
         <v>11</v>
       </c>
       <c r="D243" s="20" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="E243" s="1" t="s">
         <v>200</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="G243" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="H243" s="9">
+        <v>45638</v>
+      </c>
       <c r="I243" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="J243" s="3" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="244" spans="1:10">
       <c r="A244" s="4">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B244" s="10" t="s">
-        <v>353</v>
+        <v>37</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>109</v>
+        <v>11</v>
       </c>
       <c r="D244" s="20" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="E244" s="1" t="s">
         <v>200</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="G244" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="G244" s="2" t="s">
         <v>41</v>
       </c>
       <c r="I244" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="J244" s="3" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="245" spans="1:10">
       <c r="A245" s="4">
-        <v>244</v>
-      </c>
-      <c r="B245" s="2" t="s">
-        <v>124</v>
+        <v>243</v>
+      </c>
+      <c r="B245" s="10" t="s">
+        <v>352</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D245" s="1" t="s">
-        <v>514</v>
+      <c r="D245" s="20" t="s">
+        <v>512</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>21</v>
+        <v>200</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>767</v>
+        <v>496</v>
       </c>
       <c r="G245" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H245" s="9">
-        <v>45775</v>
+        <v>41</v>
       </c>
       <c r="I245" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="J245" s="3" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="246" spans="1:10">
       <c r="A246" s="4">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>316</v>
+        <v>124</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>109</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>516</v>
+        <v>763</v>
       </c>
       <c r="G246" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H246" s="9">
-        <v>45622</v>
-      </c>
-      <c r="I246" s="9" t="s">
+        <v>45775</v>
+      </c>
+      <c r="I246" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J246" s="3" t="s">
-        <v>517</v>
+        <v>756</v>
       </c>
     </row>
     <row r="247" spans="1:10">
       <c r="A247" s="4">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>43</v>
+        <v>315</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>66</v>
+        <v>515</v>
       </c>
       <c r="G247" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H247" s="9">
-        <v>45652</v>
-      </c>
-      <c r="I247" s="1" t="s">
+        <v>45622</v>
+      </c>
+      <c r="I247" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J247" s="3" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="248" spans="1:10">
       <c r="A248" s="4">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>520</v>
+        <v>43</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="E248" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="G248" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H248" s="9">
-        <v>45632</v>
+        <v>45652</v>
       </c>
       <c r="I248" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J248" s="3" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="249" spans="1:10">
       <c r="A249" s="4">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B249" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D249" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="C249" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D249" s="1" t="s">
-        <v>523</v>
-      </c>
       <c r="E249" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G249" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H249" s="9">
-        <v>45797</v>
-      </c>
-      <c r="I249" s="9" t="s">
-        <v>214</v>
+        <v>45632</v>
+      </c>
+      <c r="I249" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="J249" s="3" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="250" spans="1:10">
       <c r="A250" s="4">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D250" s="28" t="s">
-        <v>525</v>
+      <c r="D250" s="1" t="s">
+        <v>522</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G250" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H250" s="9">
-        <v>45624</v>
+        <v>45797</v>
       </c>
       <c r="I250" s="9" t="s">
         <v>214</v>
       </c>
       <c r="J250" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="251" spans="1:10">
       <c r="A251" s="4">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>39</v>
+        <v>196</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G251" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H251" s="9">
-        <v>43971</v>
-      </c>
-      <c r="I251" s="1" t="s">
-        <v>16</v>
+        <v>45624</v>
+      </c>
+      <c r="I251" s="9" t="s">
+        <v>214</v>
       </c>
       <c r="J251" s="3" t="s">
-        <v>527</v>
+        <v>785</v>
       </c>
     </row>
     <row r="252" spans="1:10">
       <c r="A252" s="4">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D252" s="18" t="s">
-        <v>528</v>
+      <c r="D252" s="1" t="s">
+        <v>525</v>
       </c>
       <c r="E252" s="1" t="s">
         <v>39</v>
@@ -11060,50 +11057,50 @@
         <v>15</v>
       </c>
       <c r="H252" s="9">
-        <v>45797</v>
-      </c>
-      <c r="I252" s="9" t="s">
-        <v>214</v>
+        <v>43971</v>
+      </c>
+      <c r="I252" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="J252" s="3" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="253" spans="1:10">
       <c r="A253" s="4">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>43</v>
+        <v>519</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D253" s="1" t="s">
-        <v>530</v>
+      <c r="D253" s="18" t="s">
+        <v>527</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G253" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H253" s="9">
-        <v>45652</v>
-      </c>
-      <c r="I253" s="1" t="s">
-        <v>16</v>
+        <v>45797</v>
+      </c>
+      <c r="I253" s="9" t="s">
+        <v>214</v>
       </c>
       <c r="J253" s="3" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="254" spans="1:10">
       <c r="A254" s="4">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B254" s="2" t="s">
         <v>43</v>
@@ -11112,394 +11109,394 @@
         <v>11</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>433</v>
+        <v>29</v>
       </c>
       <c r="G254" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H254" s="9">
-        <v>45649</v>
+        <v>45652</v>
       </c>
       <c r="I254" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J254" s="3" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="255" spans="1:10">
       <c r="A255" s="4">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>534</v>
+        <v>43</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>109</v>
+        <v>11</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>32</v>
+        <v>432</v>
       </c>
       <c r="G255" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H255" s="9">
-        <v>45762</v>
+        <v>45649</v>
       </c>
       <c r="I255" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J255" s="3" t="s">
-        <v>773</v>
+        <v>532</v>
       </c>
     </row>
     <row r="256" spans="1:10">
       <c r="A256" s="4">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="E256" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>538</v>
+        <v>32</v>
       </c>
       <c r="G256" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H256" s="9">
-        <v>45653</v>
+        <v>45762</v>
       </c>
       <c r="I256" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J256" s="3" t="s">
-        <v>539</v>
+        <v>769</v>
       </c>
     </row>
     <row r="257" spans="1:10">
       <c r="A257" s="4">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>316</v>
+        <v>535</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>109</v>
+        <v>11</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>69</v>
+        <v>537</v>
       </c>
       <c r="G257" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H257" s="9">
-        <v>45698</v>
+        <v>45653</v>
       </c>
       <c r="I257" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J257" s="3" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="258" spans="1:10">
       <c r="A258" s="4">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>124</v>
+        <v>315</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>109</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>543</v>
+        <v>69</v>
       </c>
       <c r="G258" s="5" t="s">
         <v>15</v>
       </c>
+      <c r="H258" s="9">
+        <v>45698</v>
+      </c>
       <c r="I258" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J258" s="3" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="259" spans="1:10">
       <c r="A259" s="4">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>43</v>
+        <v>124</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="E259" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G259" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H259" s="9">
-        <v>45652</v>
+        <v>542</v>
+      </c>
+      <c r="G259" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="I259" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J259" s="3" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="260" spans="1:10">
       <c r="A260" s="4">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="E260" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F260" s="1" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="G260" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H260" s="9">
-        <v>45653</v>
+        <v>45652</v>
       </c>
       <c r="I260" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J260" s="3" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="261" spans="1:10">
       <c r="A261" s="4">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>549</v>
+        <v>79</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>466</v>
+        <v>28</v>
       </c>
       <c r="F261" s="1" t="s">
-        <v>756</v>
+        <v>29</v>
       </c>
       <c r="G261" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H261" s="9">
-        <v>45763</v>
-      </c>
-      <c r="I261" s="9" t="s">
+        <v>45653</v>
+      </c>
+      <c r="I261" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J261" s="3" t="s">
-        <v>757</v>
+        <v>547</v>
       </c>
     </row>
     <row r="262" spans="1:10">
       <c r="A262" s="4">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B262" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D262" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="C262" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D262" s="1" t="s">
-        <v>552</v>
-      </c>
       <c r="E262" s="1" t="s">
-        <v>89</v>
+        <v>465</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>553</v>
+        <v>752</v>
       </c>
       <c r="G262" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H262" s="9">
-        <v>45590</v>
+        <v>45763</v>
       </c>
       <c r="I262" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J262" s="3" t="s">
-        <v>554</v>
+        <v>753</v>
       </c>
     </row>
     <row r="263" spans="1:10">
       <c r="A263" s="4">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>32</v>
+        <v>552</v>
       </c>
       <c r="G263" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H263" s="9">
-        <v>45744</v>
+        <v>45590</v>
       </c>
       <c r="I263" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J263" s="3" t="s">
-        <v>747</v>
+        <v>553</v>
       </c>
     </row>
     <row r="264" spans="1:10">
       <c r="A264" s="4">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>558</v>
+        <v>32</v>
       </c>
       <c r="G264" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H264" s="9">
-        <v>45590</v>
+        <v>45744</v>
       </c>
       <c r="I264" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J264" s="3" t="s">
-        <v>556</v>
+        <v>743</v>
       </c>
     </row>
     <row r="265" spans="1:10">
       <c r="A265" s="4">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="E265" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F265" s="1" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="G265" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H265" s="9">
-        <v>45588</v>
+        <v>45590</v>
       </c>
       <c r="I265" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J265" s="3" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
     </row>
     <row r="266" spans="1:10">
       <c r="A266" s="4">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="E266" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F266" s="1" t="s">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="G266" s="2" t="s">
         <v>15</v>
@@ -11511,59 +11508,59 @@
         <v>16</v>
       </c>
       <c r="J266" s="3" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="267" spans="1:10">
       <c r="A267" s="4">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E267" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F267" s="1" t="s">
-        <v>565</v>
+        <v>550</v>
       </c>
       <c r="G267" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H267" s="9">
-        <v>45594</v>
+        <v>45588</v>
       </c>
       <c r="I267" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J267" s="3" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
     </row>
     <row r="268" spans="1:10">
       <c r="A268" s="4">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="E268" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="G268" s="2" t="s">
         <v>15</v>
@@ -11575,27 +11572,27 @@
         <v>16</v>
       </c>
       <c r="J268" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="269" spans="1:10">
       <c r="A269" s="4">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="E269" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="G269" s="2" t="s">
         <v>15</v>
@@ -11607,27 +11604,27 @@
         <v>16</v>
       </c>
       <c r="J269" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="270" spans="1:10">
       <c r="A270" s="4">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="E270" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F270" s="1" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="G270" s="2" t="s">
         <v>15</v>
@@ -11639,59 +11636,59 @@
         <v>16</v>
       </c>
       <c r="J270" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="271" spans="1:10">
       <c r="A271" s="4">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="E271" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F271" s="1" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="G271" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H271" s="9">
-        <v>45596</v>
+        <v>45594</v>
       </c>
       <c r="I271" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J271" s="3" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
     </row>
     <row r="272" spans="1:10">
       <c r="A272" s="4">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="E272" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F272" s="1" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="G272" s="2" t="s">
         <v>15</v>
@@ -11703,27 +11700,27 @@
         <v>16</v>
       </c>
       <c r="J272" s="3" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
     </row>
     <row r="273" spans="1:10">
       <c r="A273" s="4">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="E273" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F273" s="1" t="s">
-        <v>580</v>
+        <v>783</v>
       </c>
       <c r="G273" s="2" t="s">
         <v>15</v>
@@ -11735,59 +11732,59 @@
         <v>16</v>
       </c>
       <c r="J273" s="3" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="274" spans="1:10">
       <c r="A274" s="4">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="E274" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="G274" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H274" s="9">
-        <v>45597</v>
+        <v>45596</v>
       </c>
       <c r="I274" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J274" s="3" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
     </row>
     <row r="275" spans="1:10">
       <c r="A275" s="4">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="E275" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F275" s="1" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="G275" s="2" t="s">
         <v>15</v>
@@ -11799,27 +11796,27 @@
         <v>16</v>
       </c>
       <c r="J275" s="3" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="276" spans="1:10">
       <c r="A276" s="4">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="E276" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F276" s="1" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="G276" s="2" t="s">
         <v>15</v>
@@ -11831,27 +11828,27 @@
         <v>16</v>
       </c>
       <c r="J276" s="3" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="277" spans="1:10">
       <c r="A277" s="4">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="E277" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F277" s="1" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="G277" s="2" t="s">
         <v>15</v>
@@ -11863,59 +11860,59 @@
         <v>16</v>
       </c>
       <c r="J277" s="3" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="278" spans="1:10">
       <c r="A278" s="4">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D278" s="21" t="s">
-        <v>590</v>
+      <c r="D278" s="1" t="s">
+        <v>586</v>
       </c>
       <c r="E278" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F278" s="4" t="s">
-        <v>591</v>
+      <c r="F278" s="1" t="s">
+        <v>587</v>
       </c>
       <c r="G278" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H278" s="9">
-        <v>45603</v>
+        <v>45597</v>
       </c>
       <c r="I278" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J278" s="3" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
     </row>
     <row r="279" spans="1:10">
       <c r="A279" s="4">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D279" s="1" t="s">
-        <v>593</v>
+      <c r="D279" s="21" t="s">
+        <v>588</v>
       </c>
       <c r="E279" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F279" s="1" t="s">
-        <v>594</v>
+      <c r="F279" s="4" t="s">
+        <v>589</v>
       </c>
       <c r="G279" s="2" t="s">
         <v>15</v>
@@ -11927,59 +11924,59 @@
         <v>16</v>
       </c>
       <c r="J279" s="3" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="280" spans="1:10">
       <c r="A280" s="4">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="E280" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F280" s="4" t="s">
-        <v>596</v>
+      <c r="F280" s="1" t="s">
+        <v>592</v>
       </c>
       <c r="G280" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H280" s="9">
-        <v>45604</v>
+        <v>45603</v>
       </c>
       <c r="I280" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J280" s="3" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
     </row>
     <row r="281" spans="1:10">
       <c r="A281" s="4">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="E281" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F281" s="1" t="s">
-        <v>599</v>
+      <c r="F281" s="4" t="s">
+        <v>594</v>
       </c>
       <c r="G281" s="2" t="s">
         <v>15</v>
@@ -11991,59 +11988,59 @@
         <v>16</v>
       </c>
       <c r="J281" s="3" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="282" spans="1:10">
       <c r="A282" s="4">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>466</v>
+        <v>89</v>
       </c>
       <c r="F282" s="1" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="G282" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H282" s="9">
-        <v>45607</v>
+        <v>45604</v>
       </c>
       <c r="I282" s="9" t="s">
-        <v>735</v>
+        <v>16</v>
       </c>
       <c r="J282" s="3" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
     </row>
     <row r="283" spans="1:10">
       <c r="A283" s="4">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F283" s="1" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="G283" s="2" t="s">
         <v>15</v>
@@ -12052,30 +12049,30 @@
         <v>45607</v>
       </c>
       <c r="I283" s="9" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="J283" s="3" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="284" spans="1:10">
       <c r="A284" s="4">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F284" s="1" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="G284" s="2" t="s">
         <v>15</v>
@@ -12084,62 +12081,62 @@
         <v>45607</v>
       </c>
       <c r="I284" s="9" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="J284" s="3" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="285" spans="1:10">
       <c r="A285" s="4">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F285" s="1" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="G285" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H285" s="9">
-        <v>45614</v>
+        <v>45607</v>
       </c>
       <c r="I285" s="9" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="J285" s="3" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
     </row>
     <row r="286" spans="1:10">
       <c r="A286" s="4">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F286" s="1" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="G286" s="2" t="s">
         <v>15</v>
@@ -12148,62 +12145,62 @@
         <v>45614</v>
       </c>
       <c r="I286" s="9" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="J286" s="3" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="287" spans="1:10">
       <c r="A287" s="4">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F287" s="1" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="G287" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H287" s="9">
-        <v>45615</v>
+        <v>45614</v>
       </c>
       <c r="I287" s="9" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="J287" s="3" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
     </row>
     <row r="288" spans="1:10">
       <c r="A288" s="4">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F288" s="1" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="G288" s="2" t="s">
         <v>15</v>
@@ -12212,30 +12209,30 @@
         <v>45615</v>
       </c>
       <c r="I288" s="9" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="J288" s="3" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="289" spans="1:10">
       <c r="A289" s="4">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F289" s="1" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="G289" s="2" t="s">
         <v>15</v>
@@ -12244,62 +12241,62 @@
         <v>45615</v>
       </c>
       <c r="I289" s="9" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="J289" s="3" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="290" spans="1:10">
       <c r="A290" s="4">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F290" s="1" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="G290" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H290" s="9">
-        <v>45617</v>
+        <v>45615</v>
       </c>
       <c r="I290" s="9" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="J290" s="3" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
     </row>
     <row r="291" spans="1:10">
       <c r="A291" s="4">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F291" s="1" t="s">
-        <v>770</v>
+        <v>618</v>
       </c>
       <c r="G291" s="2" t="s">
         <v>15</v>
@@ -12308,94 +12305,94 @@
         <v>45617</v>
       </c>
       <c r="I291" s="9" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="J291" s="3" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="292" spans="1:10">
       <c r="A292" s="4">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F292" s="1" t="s">
-        <v>625</v>
+        <v>766</v>
       </c>
       <c r="G292" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H292" s="9">
-        <v>45618</v>
+        <v>45617</v>
       </c>
       <c r="I292" s="9" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="J292" s="3" t="s">
-        <v>626</v>
+        <v>780</v>
       </c>
     </row>
     <row r="293" spans="1:10">
       <c r="A293" s="4">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F293" s="1" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="G293" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H293" s="9">
-        <v>45621</v>
+        <v>45618</v>
       </c>
       <c r="I293" s="9" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="J293" s="3" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
     </row>
     <row r="294" spans="1:10">
       <c r="A294" s="4">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F294" s="1" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="G294" s="2" t="s">
         <v>15</v>
@@ -12404,62 +12401,62 @@
         <v>45621</v>
       </c>
       <c r="I294" s="9" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="J294" s="3" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
     <row r="295" spans="1:10">
       <c r="A295" s="4">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>99</v>
+        <v>465</v>
       </c>
       <c r="F295" s="1" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="G295" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H295" s="9">
-        <v>45618</v>
+        <v>45621</v>
       </c>
       <c r="I295" s="9" t="s">
-        <v>101</v>
+        <v>731</v>
       </c>
       <c r="J295" s="3" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
     </row>
     <row r="296" spans="1:10">
       <c r="A296" s="4">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="F296" s="1" t="s">
-        <v>32</v>
+        <v>630</v>
       </c>
       <c r="G296" s="2" t="s">
         <v>15</v>
@@ -12468,30 +12465,30 @@
         <v>45618</v>
       </c>
       <c r="I296" s="9" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="J296" s="3" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
     </row>
     <row r="297" spans="1:10">
       <c r="A297" s="4">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="F297" s="1" t="s">
-        <v>731</v>
+        <v>32</v>
       </c>
       <c r="G297" s="2" t="s">
         <v>15</v>
@@ -12500,222 +12497,222 @@
         <v>45618</v>
       </c>
       <c r="I297" s="9" t="s">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="J297" s="3" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
     </row>
     <row r="298" spans="1:10">
       <c r="A298" s="4">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="F298" s="1" t="s">
-        <v>32</v>
+        <v>727</v>
       </c>
       <c r="G298" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H298" s="9">
-        <v>45621</v>
+        <v>45618</v>
       </c>
       <c r="I298" s="9" t="s">
         <v>101</v>
       </c>
       <c r="J298" s="3" t="s">
-        <v>733</v>
+        <v>635</v>
       </c>
     </row>
     <row r="299" spans="1:10">
       <c r="A299" s="4">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="F299" s="1" t="s">
-        <v>642</v>
+        <v>32</v>
       </c>
       <c r="G299" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H299" s="9">
-        <v>45622</v>
+        <v>45621</v>
       </c>
       <c r="I299" s="9" t="s">
         <v>101</v>
       </c>
       <c r="J299" s="3" t="s">
-        <v>643</v>
+        <v>729</v>
       </c>
     </row>
     <row r="300" spans="1:10">
       <c r="A300" s="4">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="F300" s="1" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="G300" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H300" s="9">
-        <v>44543</v>
+        <v>45622</v>
       </c>
       <c r="I300" s="9" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="J300" s="3" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
     </row>
     <row r="301" spans="1:10">
       <c r="A301" s="4">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="E301" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F301" s="1" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="G301" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H301" s="9">
-        <v>45635</v>
+        <v>44543</v>
       </c>
       <c r="I301" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J301" s="3" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
     </row>
     <row r="302" spans="1:10">
       <c r="A302" s="4">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="E302" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F302" s="1" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="G302" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H302" s="9">
-        <v>44539</v>
+        <v>45635</v>
       </c>
       <c r="I302" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J302" s="3" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
     </row>
     <row r="303" spans="1:10">
       <c r="A303" s="4">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="E303" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F303" s="1" t="s">
-        <v>558</v>
+        <v>648</v>
       </c>
       <c r="G303" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H303" s="9">
-        <v>45645</v>
+        <v>44539</v>
       </c>
       <c r="I303" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J303" s="3" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
     </row>
     <row r="304" spans="1:10">
       <c r="A304" s="4">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="E304" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F304" s="1" t="s">
-        <v>656</v>
+        <v>557</v>
       </c>
       <c r="G304" s="2" t="s">
         <v>15</v>
@@ -12727,91 +12724,91 @@
         <v>16</v>
       </c>
       <c r="J304" s="3" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="305" spans="1:10">
       <c r="A305" s="4">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="F305" s="1" t="s">
-        <v>474</v>
+        <v>653</v>
       </c>
       <c r="G305" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H305" s="9">
-        <v>45663</v>
+        <v>45645</v>
       </c>
       <c r="I305" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J305" s="3" t="s">
-        <v>738</v>
+        <v>651</v>
       </c>
     </row>
     <row r="306" spans="1:10">
       <c r="A306" s="4">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="E306" s="1" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="F306" s="1" t="s">
-        <v>660</v>
+        <v>473</v>
       </c>
       <c r="G306" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H306" s="9">
-        <v>45664</v>
+        <v>45663</v>
       </c>
       <c r="I306" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J306" s="3" t="s">
-        <v>661</v>
+        <v>734</v>
       </c>
     </row>
     <row r="307" spans="1:10">
       <c r="A307" s="4">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E307" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F307" s="1" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="G307" s="2" t="s">
         <v>15</v>
@@ -12823,27 +12820,27 @@
         <v>16</v>
       </c>
       <c r="J307" s="3" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="308" spans="1:10">
       <c r="A308" s="4">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="E308" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F308" s="1" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="G308" s="2" t="s">
         <v>15</v>
@@ -12855,123 +12852,123 @@
         <v>16</v>
       </c>
       <c r="J308" s="3" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="309" spans="1:10">
       <c r="A309" s="4">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="E309" s="1" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="F309" s="1" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="G309" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H309" s="9">
-        <v>45667</v>
+        <v>45664</v>
       </c>
       <c r="I309" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J309" s="3" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
     </row>
     <row r="310" spans="1:10">
       <c r="A310" s="4">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="E310" s="1" t="s">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="F310" s="1" t="s">
-        <v>32</v>
+        <v>664</v>
       </c>
       <c r="G310" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H310" s="9">
-        <v>45305</v>
+        <v>45667</v>
       </c>
       <c r="I310" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J310" s="3" t="s">
-        <v>726</v>
+        <v>665</v>
       </c>
     </row>
     <row r="311" spans="1:10">
       <c r="A311" s="4">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="E311" s="1" t="s">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="F311" s="1" t="s">
-        <v>671</v>
+        <v>32</v>
       </c>
       <c r="G311" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H311" s="9">
-        <v>45702</v>
+        <v>45305</v>
       </c>
       <c r="I311" s="9" t="s">
-        <v>672</v>
+        <v>16</v>
       </c>
       <c r="J311" s="3" t="s">
-        <v>673</v>
+        <v>722</v>
       </c>
     </row>
     <row r="312" spans="1:10">
       <c r="A312" s="4">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="E312" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F312" s="1" t="s">
-        <v>675</v>
+        <v>782</v>
       </c>
       <c r="G312" s="2" t="s">
         <v>15</v>
@@ -12980,30 +12977,30 @@
         <v>45702</v>
       </c>
       <c r="I312" s="9" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="J312" s="3" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
     </row>
     <row r="313" spans="1:10">
       <c r="A313" s="4">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="E313" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F313" s="1" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="G313" s="2" t="s">
         <v>15</v>
@@ -13012,94 +13009,94 @@
         <v>45702</v>
       </c>
       <c r="I313" s="9" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="J313" s="3" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
     </row>
     <row r="314" spans="1:10">
       <c r="A314" s="4">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="E314" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F314" s="1" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="G314" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H314" s="9">
-        <v>45705</v>
+        <v>45702</v>
       </c>
       <c r="I314" s="9" t="s">
-        <v>16</v>
+        <v>668</v>
       </c>
       <c r="J314" s="3" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
     </row>
     <row r="315" spans="1:10">
       <c r="A315" s="4">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>718</v>
+        <v>675</v>
       </c>
       <c r="E315" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F315" s="1" t="s">
-        <v>719</v>
+        <v>676</v>
       </c>
       <c r="G315" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H315" s="9">
-        <v>45726</v>
+        <v>45705</v>
       </c>
       <c r="I315" s="9" t="s">
-        <v>720</v>
+        <v>16</v>
       </c>
       <c r="J315" s="3" t="s">
-        <v>721</v>
+        <v>677</v>
       </c>
     </row>
     <row r="316" spans="1:10">
       <c r="A316" s="4">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="E316" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F316" s="1" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="G316" s="2" t="s">
         <v>15</v>
@@ -13108,30 +13105,30 @@
         <v>45726</v>
       </c>
       <c r="I316" s="9" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="J316" s="3" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
     </row>
     <row r="317" spans="1:10">
       <c r="A317" s="4">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="E317" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F317" s="1" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="G317" s="2" t="s">
         <v>15</v>
@@ -13140,62 +13137,62 @@
         <v>45726</v>
       </c>
       <c r="I317" s="9" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="J317" s="3" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
     </row>
     <row r="318" spans="1:10">
       <c r="A318" s="4">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
       <c r="E318" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F318" s="1" t="s">
-        <v>320</v>
+        <v>720</v>
       </c>
       <c r="G318" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H318" s="9">
-        <v>45653</v>
+        <v>45726</v>
       </c>
       <c r="I318" s="9" t="s">
-        <v>16</v>
+        <v>716</v>
       </c>
       <c r="J318" s="3" t="s">
-        <v>730</v>
+        <v>717</v>
       </c>
     </row>
     <row r="319" spans="1:10">
       <c r="A319" s="4">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>682</v>
+        <v>725</v>
       </c>
       <c r="E319" s="1" t="s">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="F319" s="1" t="s">
-        <v>683</v>
+        <v>319</v>
       </c>
       <c r="G319" s="2" t="s">
         <v>15</v>
@@ -13207,27 +13204,27 @@
         <v>16</v>
       </c>
       <c r="J319" s="3" t="s">
-        <v>684</v>
+        <v>726</v>
       </c>
     </row>
     <row r="320" spans="1:10">
       <c r="A320" s="4">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="E320" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F320" s="1" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="G320" s="2" t="s">
         <v>15</v>
@@ -13239,27 +13236,27 @@
         <v>16</v>
       </c>
       <c r="J320" s="3" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
     </row>
     <row r="321" spans="1:10">
       <c r="A321" s="4">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="E321" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F321" s="1" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="G321" s="2" t="s">
         <v>15</v>
@@ -13271,27 +13268,27 @@
         <v>16</v>
       </c>
       <c r="J321" s="3" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
     </row>
     <row r="322" spans="1:10">
       <c r="A322" s="4">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="E322" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F322" s="1" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="G322" s="2" t="s">
         <v>15</v>
@@ -13303,27 +13300,27 @@
         <v>16</v>
       </c>
       <c r="J322" s="3" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
     </row>
     <row r="323" spans="1:10">
       <c r="A323" s="4">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="E323" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F323" s="1" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="G323" s="2" t="s">
         <v>15</v>
@@ -13335,27 +13332,27 @@
         <v>16</v>
       </c>
       <c r="J323" s="3" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
     </row>
     <row r="324" spans="1:10">
       <c r="A324" s="4">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="E324" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F324" s="1" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="G324" s="2" t="s">
         <v>15</v>
@@ -13367,27 +13364,27 @@
         <v>16</v>
       </c>
       <c r="J324" s="3" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
     </row>
     <row r="325" spans="1:10">
       <c r="A325" s="4">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="E325" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F325" s="1" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="G325" s="2" t="s">
         <v>15</v>
@@ -13399,27 +13396,27 @@
         <v>16</v>
       </c>
       <c r="J325" s="3" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
     </row>
     <row r="326" spans="1:10">
       <c r="A326" s="4">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="E326" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F326" s="1" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="G326" s="2" t="s">
         <v>15</v>
@@ -13431,27 +13428,27 @@
         <v>16</v>
       </c>
       <c r="J326" s="3" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
     </row>
     <row r="327" spans="1:10">
       <c r="A327" s="4">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="E327" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F327" s="1" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="G327" s="2" t="s">
         <v>15</v>
@@ -13463,27 +13460,27 @@
         <v>16</v>
       </c>
       <c r="J327" s="3" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
     </row>
     <row r="328" spans="1:10">
       <c r="A328" s="4">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="E328" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F328" s="1" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="G328" s="2" t="s">
         <v>15</v>
@@ -13495,27 +13492,27 @@
         <v>16</v>
       </c>
       <c r="J328" s="3" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
     </row>
     <row r="329" spans="1:10">
       <c r="A329" s="4">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="E329" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F329" s="1" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="G329" s="2" t="s">
         <v>15</v>
@@ -13527,27 +13524,27 @@
         <v>16</v>
       </c>
       <c r="J329" s="3" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
     </row>
     <row r="330" spans="1:10">
       <c r="A330" s="4">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="E330" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F330" s="1" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="G330" s="2" t="s">
         <v>15</v>
@@ -13559,27 +13556,27 @@
         <v>16</v>
       </c>
       <c r="J330" s="3" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
     </row>
     <row r="331" spans="1:10">
       <c r="A331" s="4">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="E331" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F331" s="1" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="G331" s="2" t="s">
         <v>15</v>
@@ -13591,27 +13588,27 @@
         <v>16</v>
       </c>
       <c r="J331" s="3" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
     </row>
     <row r="332" spans="1:10">
       <c r="A332" s="4">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="E332" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F332" s="1" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="G332" s="2" t="s">
         <v>15</v>
@@ -13623,27 +13620,27 @@
         <v>16</v>
       </c>
       <c r="J332" s="3" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
     </row>
     <row r="333" spans="1:10">
       <c r="A333" s="4">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="E333" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F333" s="1" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="G333" s="2" t="s">
         <v>15</v>
@@ -13655,27 +13652,27 @@
         <v>16</v>
       </c>
       <c r="J333" s="3" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
     </row>
     <row r="334" spans="1:10">
       <c r="A334" s="4">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="E334" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F334" s="1" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="G334" s="2" t="s">
         <v>15</v>
@@ -13687,27 +13684,27 @@
         <v>16</v>
       </c>
       <c r="J334" s="3" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
     </row>
     <row r="335" spans="1:10">
       <c r="A335" s="4">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="E335" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F335" s="1" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="G335" s="2" t="s">
         <v>15</v>
@@ -13719,27 +13716,27 @@
         <v>16</v>
       </c>
       <c r="J335" s="3" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
     </row>
     <row r="336" spans="1:10">
       <c r="A336" s="4">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="E336" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F336" s="1" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="G336" s="2" t="s">
         <v>15</v>
@@ -13751,27 +13748,27 @@
         <v>16</v>
       </c>
       <c r="J336" s="3" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
     </row>
     <row r="337" spans="1:10">
       <c r="A337" s="4">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="E337" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F337" s="1" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="G337" s="2" t="s">
         <v>15</v>
@@ -13783,126 +13780,158 @@
         <v>16</v>
       </c>
       <c r="J337" s="3" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
     </row>
     <row r="338" spans="1:10">
       <c r="A338" s="4">
-        <v>337</v>
-      </c>
-      <c r="B338" s="15" t="s">
-        <v>549</v>
-      </c>
-      <c r="C338" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D338" s="14" t="s">
-        <v>598</v>
+        <v>336</v>
+      </c>
+      <c r="B338" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="C338" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D338" s="1" t="s">
+        <v>678</v>
       </c>
       <c r="E338" s="1" t="s">
-        <v>466</v>
+        <v>28</v>
       </c>
       <c r="F338" s="1" t="s">
-        <v>751</v>
-      </c>
-      <c r="G338" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H338" s="16">
-        <v>45604</v>
-      </c>
-      <c r="I338" s="16" t="s">
+        <v>679</v>
+      </c>
+      <c r="G338" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H338" s="9">
+        <v>45653</v>
+      </c>
+      <c r="I338" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J338" s="3" t="s">
-        <v>752</v>
+        <v>680</v>
       </c>
     </row>
     <row r="339" spans="1:10">
       <c r="A339" s="4">
+        <v>337</v>
+      </c>
+      <c r="B339" s="15" t="s">
+        <v>548</v>
+      </c>
+      <c r="C339" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D339" s="14" t="s">
+        <v>596</v>
+      </c>
+      <c r="E339" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="F339" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="G339" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H339" s="16">
+        <v>45604</v>
+      </c>
+      <c r="I339" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J339" s="3" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="340" spans="1:10">
+      <c r="A340" s="4">
         <v>338</v>
       </c>
-      <c r="B339" s="15" t="s">
-        <v>549</v>
-      </c>
-      <c r="C339" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D339" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="E339" s="1" t="s">
+      <c r="B340" s="15" t="s">
+        <v>548</v>
+      </c>
+      <c r="C340" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D340" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="E340" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F339" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="G339" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H339" s="16">
+      <c r="F340" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="G340" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H340" s="16">
         <v>45768</v>
       </c>
-      <c r="I339" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J339" s="3" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="340" spans="1:10" s="29" customFormat="1">
-      <c r="A340" s="24"/>
-      <c r="B340" s="25"/>
-      <c r="C340" s="25"/>
-      <c r="D340" s="24"/>
-      <c r="E340" s="24"/>
-      <c r="F340" s="24"/>
-      <c r="G340" s="25"/>
-      <c r="H340" s="24"/>
-      <c r="I340" s="26"/>
-      <c r="J340" s="27"/>
+      <c r="I340" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J340" s="3" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="341" spans="1:10">
+      <c r="A341" s="14"/>
+      <c r="B341" s="15"/>
+      <c r="C341" s="15"/>
+      <c r="D341" s="14"/>
+      <c r="E341" s="14"/>
+      <c r="F341" s="14"/>
+      <c r="G341" s="15"/>
+      <c r="H341" s="14"/>
+      <c r="I341" s="16"/>
+      <c r="J341" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="D240">
-    <cfRule type="duplicateValues" dxfId="11" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="11"/>
+  <conditionalFormatting sqref="D241">
+    <cfRule type="duplicateValues" dxfId="24" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="7" operator="equal">
       <formula>"MANUTENÇÃO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="8" operator="equal">
       <formula>"DEPOSITO SOLAGOS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G189 E1:E1048576">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="6" operator="equal">
       <formula>"SOLAGOS DEPOSITO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F338">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+  <conditionalFormatting sqref="F339">
+    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
       <formula>"MANUTENÇÃO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
       <formula>"DEPOSITO SOLAGOS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E338:E339">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+  <conditionalFormatting sqref="E339:E340">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
       <formula>"SOLAGOS DEPOSITO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D338">
-    <cfRule type="duplicateValues" dxfId="2" priority="5"/>
+  <conditionalFormatting sqref="D339">
+    <cfRule type="duplicateValues" dxfId="15" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D339">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  <conditionalFormatting sqref="D340">
+    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D340">
-    <cfRule type="duplicateValues" dxfId="0" priority="32"/>
+  <conditionalFormatting sqref="D2:D341">
+    <cfRule type="duplicateValues" dxfId="13" priority="32"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13931,33 +13960,33 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="B1" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="E1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="F1" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B2" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="C2" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="D2">
         <v>1885</v>
@@ -13968,13 +13997,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B3" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="C3" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="D3">
         <v>1880</v>
@@ -13985,13 +14014,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B4" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="C4" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="D4">
         <v>1881</v>
@@ -14002,13 +14031,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B5" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="C5" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="D5">
         <v>1890</v>
@@ -14019,13 +14048,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B6" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="C6" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="D6">
         <v>1878</v>
@@ -14036,13 +14065,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B7" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="C7" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="D7">
         <v>1883</v>
@@ -14053,16 +14082,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B8" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="C8" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="F8" s="22">
         <v>1</v>
@@ -14070,13 +14099,13 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B9" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="C9" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="D9">
         <v>1889</v>
@@ -14087,13 +14116,13 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B10" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="C10" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="D10">
         <v>1879</v>
@@ -14104,13 +14133,13 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B11" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="C11" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="D11">
         <v>1891</v>
@@ -14121,13 +14150,13 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B12" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="C12" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="D12">
         <v>1891</v>
@@ -14138,16 +14167,16 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
+        <v>686</v>
+      </c>
+      <c r="B13" t="s">
+        <v>687</v>
+      </c>
+      <c r="C13" t="s">
+        <v>688</v>
+      </c>
+      <c r="D13" s="23" t="s">
         <v>690</v>
-      </c>
-      <c r="B13" t="s">
-        <v>691</v>
-      </c>
-      <c r="C13" t="s">
-        <v>692</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>694</v>
       </c>
       <c r="F13" s="22">
         <v>1</v>
@@ -14155,13 +14184,13 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B14" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="C14" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="D14">
         <v>1894</v>
@@ -14172,19 +14201,19 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
+        <v>691</v>
+      </c>
+      <c r="B15" t="s">
+        <v>692</v>
+      </c>
+      <c r="C15" t="s">
+        <v>693</v>
+      </c>
+      <c r="D15" t="s">
+        <v>694</v>
+      </c>
+      <c r="E15" t="s">
         <v>695</v>
-      </c>
-      <c r="B15" t="s">
-        <v>696</v>
-      </c>
-      <c r="C15" t="s">
-        <v>697</v>
-      </c>
-      <c r="D15" t="s">
-        <v>698</v>
-      </c>
-      <c r="E15" t="s">
-        <v>699</v>
       </c>
       <c r="F15" s="22">
         <v>17</v>
@@ -14192,19 +14221,19 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
+        <v>691</v>
+      </c>
+      <c r="B16" t="s">
+        <v>696</v>
+      </c>
+      <c r="C16" t="s">
+        <v>697</v>
+      </c>
+      <c r="D16" t="s">
+        <v>694</v>
+      </c>
+      <c r="E16" t="s">
         <v>695</v>
-      </c>
-      <c r="B16" t="s">
-        <v>700</v>
-      </c>
-      <c r="C16" t="s">
-        <v>701</v>
-      </c>
-      <c r="D16" t="s">
-        <v>698</v>
-      </c>
-      <c r="E16" t="s">
-        <v>699</v>
       </c>
       <c r="F16" s="22">
         <v>4</v>
@@ -14212,19 +14241,19 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
+        <v>691</v>
+      </c>
+      <c r="B17" t="s">
+        <v>698</v>
+      </c>
+      <c r="C17" t="s">
+        <v>699</v>
+      </c>
+      <c r="D17" t="s">
+        <v>700</v>
+      </c>
+      <c r="E17" t="s">
         <v>695</v>
-      </c>
-      <c r="B17" t="s">
-        <v>702</v>
-      </c>
-      <c r="C17" t="s">
-        <v>703</v>
-      </c>
-      <c r="D17" t="s">
-        <v>704</v>
-      </c>
-      <c r="E17" t="s">
-        <v>699</v>
       </c>
       <c r="F17" s="22">
         <v>45</v>
@@ -14232,19 +14261,19 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="B18" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="C18" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="D18" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="E18" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="F18" s="22">
         <v>12</v>
@@ -14252,19 +14281,19 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="B19" t="s">
+        <v>698</v>
+      </c>
+      <c r="C19" t="s">
+        <v>699</v>
+      </c>
+      <c r="D19" t="s">
+        <v>700</v>
+      </c>
+      <c r="E19" t="s">
         <v>702</v>
-      </c>
-      <c r="C19" t="s">
-        <v>703</v>
-      </c>
-      <c r="D19" t="s">
-        <v>704</v>
-      </c>
-      <c r="E19" t="s">
-        <v>706</v>
       </c>
       <c r="F19" s="22">
         <v>14</v>
@@ -14272,19 +14301,19 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="B20" t="s">
+        <v>698</v>
+      </c>
+      <c r="C20" t="s">
+        <v>699</v>
+      </c>
+      <c r="D20" t="s">
+        <v>703</v>
+      </c>
+      <c r="E20" t="s">
         <v>702</v>
-      </c>
-      <c r="C20" t="s">
-        <v>703</v>
-      </c>
-      <c r="D20" t="s">
-        <v>707</v>
-      </c>
-      <c r="E20" t="s">
-        <v>706</v>
       </c>
       <c r="F20" s="22">
         <v>4</v>
@@ -14292,19 +14321,19 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
+        <v>691</v>
+      </c>
+      <c r="B21" t="s">
+        <v>698</v>
+      </c>
+      <c r="C21" t="s">
+        <v>699</v>
+      </c>
+      <c r="D21" t="s">
+        <v>703</v>
+      </c>
+      <c r="E21" t="s">
         <v>695</v>
-      </c>
-      <c r="B21" t="s">
-        <v>702</v>
-      </c>
-      <c r="C21" t="s">
-        <v>703</v>
-      </c>
-      <c r="D21" t="s">
-        <v>707</v>
-      </c>
-      <c r="E21" t="s">
-        <v>699</v>
       </c>
       <c r="F21" s="22">
         <v>6</v>
@@ -14312,19 +14341,19 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="B22" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="C22" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="D22" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="E22" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="F22" s="22">
         <v>3</v>
@@ -14332,19 +14361,19 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="B23" t="s">
+        <v>705</v>
+      </c>
+      <c r="C23" t="s">
+        <v>706</v>
+      </c>
+      <c r="D23" t="s">
         <v>709</v>
       </c>
-      <c r="C23" t="s">
-        <v>710</v>
-      </c>
-      <c r="D23" t="s">
-        <v>713</v>
-      </c>
       <c r="E23" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="F23" s="22">
         <v>14</v>
@@ -14352,19 +14381,19 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="B24" t="s">
+        <v>705</v>
+      </c>
+      <c r="C24" t="s">
+        <v>706</v>
+      </c>
+      <c r="D24" t="s">
         <v>709</v>
       </c>
-      <c r="C24" t="s">
-        <v>710</v>
-      </c>
-      <c r="D24" t="s">
-        <v>713</v>
-      </c>
       <c r="E24" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="F24" s="22">
         <v>13</v>
@@ -14372,19 +14401,19 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="B25" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="C25" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="D25" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="E25" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="F25" s="22">
         <v>2</v>
@@ -14392,19 +14421,19 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="B26" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="C26" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="D26" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="E26" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="F26" s="22">
         <v>1</v>

--- a/data_printer.xlsx
+++ b/data_printer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GamErick\Desktop\Nova pasta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9230B55E-895D-4B36-B211-7621C2F4FF65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC1B192-4244-4AA7-8022-0C851881EB9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A8AA41B5-7AA1-4FF7-A9B8-54B8A4E1AF28}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="estoque" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="DadosExternos_1" localSheetId="0" hidden="1">PRINTERS_INVENTORY!$A$1:$J$341</definedName>
+    <definedName name="DadosExternos_1" localSheetId="0" hidden="1">PRINTERS_INVENTORY!$A$1:$J$342</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2752" uniqueCount="786">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2758" uniqueCount="787">
   <si>
     <t>INDICE</t>
   </si>
@@ -2395,6 +2395,9 @@
   </si>
   <si>
     <t>INSTALAÇÃO FEITA EM 10/09/2024 - DISTRIVISA;  FOI WP 22/05/2025;</t>
+  </si>
+  <si>
+    <t>C153M961190</t>
   </si>
 </sst>
 </file>
@@ -2478,7 +2481,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2542,6 +2545,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2943,8 +2949,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C244623C-48DE-4D05-852C-6EFDD885ABE2}" name="Controle_Inventario_Impressoras" displayName="Controle_Inventario_Impressoras" ref="A1:J341" tableType="queryTable" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A1:J341" xr:uid="{C244623C-48DE-4D05-852C-6EFDD885ABE2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C244623C-48DE-4D05-852C-6EFDD885ABE2}" name="Controle_Inventario_Impressoras" displayName="Controle_Inventario_Impressoras" ref="A1:J342" tableType="queryTable" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A1:J342" xr:uid="{C244623C-48DE-4D05-852C-6EFDD885ABE2}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J27">
     <sortCondition ref="A13"/>
   </sortState>
@@ -3276,10 +3282,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD39631B-97B8-405A-AA43-14CDFBC77F92}">
-  <dimension ref="A1:J341"/>
+  <dimension ref="A1:J342"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A304" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
+      <selection activeCell="B199" sqref="B199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -10740,7 +10746,7 @@
         <v>738</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>28</v>
+        <v>200</v>
       </c>
       <c r="F242" s="1" t="s">
         <v>506</v>
@@ -10817,162 +10823,156 @@
       </c>
     </row>
     <row r="245" spans="1:10">
-      <c r="A245" s="4">
-        <v>243</v>
-      </c>
+      <c r="A245" s="14"/>
       <c r="B245" s="10" t="s">
         <v>352</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D245" s="20" t="s">
-        <v>512</v>
+      <c r="D245" s="25" t="s">
+        <v>786</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="G245" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I245" s="1" t="s">
-        <v>16</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G245" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H245" s="16">
+        <v>45797</v>
+      </c>
+      <c r="I245" s="16"/>
+      <c r="J245" s="17"/>
     </row>
     <row r="246" spans="1:10">
       <c r="A246" s="4">
-        <v>244</v>
-      </c>
-      <c r="B246" s="2" t="s">
-        <v>124</v>
+        <v>243</v>
+      </c>
+      <c r="B246" s="10" t="s">
+        <v>352</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D246" s="1" t="s">
-        <v>513</v>
+      <c r="D246" s="20" t="s">
+        <v>512</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>21</v>
+        <v>200</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>763</v>
+        <v>496</v>
       </c>
       <c r="G246" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H246" s="9">
-        <v>45775</v>
+        <v>41</v>
       </c>
       <c r="I246" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="J246" s="3" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="247" spans="1:10">
       <c r="A247" s="4">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>315</v>
+        <v>124</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>109</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>515</v>
+        <v>763</v>
       </c>
       <c r="G247" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H247" s="9">
-        <v>45622</v>
-      </c>
-      <c r="I247" s="9" t="s">
+        <v>45775</v>
+      </c>
+      <c r="I247" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J247" s="3" t="s">
-        <v>516</v>
+        <v>756</v>
       </c>
     </row>
     <row r="248" spans="1:10">
       <c r="A248" s="4">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>43</v>
+        <v>315</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>66</v>
+        <v>515</v>
       </c>
       <c r="G248" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H248" s="9">
-        <v>45652</v>
-      </c>
-      <c r="I248" s="1" t="s">
+        <v>45622</v>
+      </c>
+      <c r="I248" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J248" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="249" spans="1:10">
       <c r="A249" s="4">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>519</v>
+        <v>43</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="E249" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="G249" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H249" s="9">
-        <v>45632</v>
+        <v>45652</v>
       </c>
       <c r="I249" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J249" s="3" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="250" spans="1:10">
       <c r="A250" s="4">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B250" s="2" t="s">
         <v>519</v>
@@ -10981,30 +10981,30 @@
         <v>11</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G250" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H250" s="9">
-        <v>45797</v>
-      </c>
-      <c r="I250" s="9" t="s">
-        <v>214</v>
+        <v>45632</v>
+      </c>
+      <c r="I250" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="J250" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="251" spans="1:10">
       <c r="A251" s="4">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>519</v>
@@ -11013,30 +11013,30 @@
         <v>11</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>196</v>
+        <v>39</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G251" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H251" s="9">
-        <v>45624</v>
+        <v>45797</v>
       </c>
       <c r="I251" s="9" t="s">
         <v>214</v>
       </c>
       <c r="J251" s="3" t="s">
-        <v>785</v>
+        <v>523</v>
       </c>
     </row>
     <row r="252" spans="1:10">
       <c r="A252" s="4">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B252" s="2" t="s">
         <v>519</v>
@@ -11045,30 +11045,30 @@
         <v>11</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>39</v>
+        <v>196</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G252" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H252" s="9">
-        <v>43971</v>
-      </c>
-      <c r="I252" s="1" t="s">
-        <v>16</v>
+        <v>45624</v>
+      </c>
+      <c r="I252" s="9" t="s">
+        <v>214</v>
       </c>
       <c r="J252" s="3" t="s">
-        <v>526</v>
+        <v>785</v>
       </c>
     </row>
     <row r="253" spans="1:10">
       <c r="A253" s="4">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B253" s="2" t="s">
         <v>519</v>
@@ -11076,8 +11076,8 @@
       <c r="C253" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D253" s="18" t="s">
-        <v>527</v>
+      <c r="D253" s="1" t="s">
+        <v>525</v>
       </c>
       <c r="E253" s="1" t="s">
         <v>39</v>
@@ -11089,50 +11089,50 @@
         <v>15</v>
       </c>
       <c r="H253" s="9">
-        <v>45797</v>
-      </c>
-      <c r="I253" s="9" t="s">
-        <v>214</v>
+        <v>43971</v>
+      </c>
+      <c r="I253" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="J253" s="3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="254" spans="1:10">
       <c r="A254" s="4">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>43</v>
+        <v>519</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D254" s="1" t="s">
-        <v>529</v>
+      <c r="D254" s="18" t="s">
+        <v>527</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G254" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H254" s="9">
-        <v>45652</v>
-      </c>
-      <c r="I254" s="1" t="s">
-        <v>16</v>
+        <v>45797</v>
+      </c>
+      <c r="I254" s="9" t="s">
+        <v>214</v>
       </c>
       <c r="J254" s="3" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="255" spans="1:10">
       <c r="A255" s="4">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>43</v>
@@ -11141,251 +11141,251 @@
         <v>11</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>432</v>
+        <v>29</v>
       </c>
       <c r="G255" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H255" s="9">
-        <v>45649</v>
+        <v>45652</v>
       </c>
       <c r="I255" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J255" s="3" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="256" spans="1:10">
       <c r="A256" s="4">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>533</v>
+        <v>43</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>109</v>
+        <v>11</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>32</v>
+        <v>432</v>
       </c>
       <c r="G256" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H256" s="9">
-        <v>45762</v>
+        <v>45649</v>
       </c>
       <c r="I256" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J256" s="3" t="s">
-        <v>769</v>
+        <v>532</v>
       </c>
     </row>
     <row r="257" spans="1:10">
       <c r="A257" s="4">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E257" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>537</v>
+        <v>32</v>
       </c>
       <c r="G257" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H257" s="9">
-        <v>45653</v>
+        <v>45762</v>
       </c>
       <c r="I257" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J257" s="3" t="s">
-        <v>538</v>
+        <v>769</v>
       </c>
     </row>
     <row r="258" spans="1:10">
       <c r="A258" s="4">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>315</v>
+        <v>535</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>109</v>
+        <v>11</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>69</v>
+        <v>537</v>
       </c>
       <c r="G258" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H258" s="9">
-        <v>45698</v>
+        <v>45653</v>
       </c>
       <c r="I258" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J258" s="3" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="259" spans="1:10">
       <c r="A259" s="4">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>124</v>
+        <v>315</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>109</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>542</v>
+        <v>69</v>
       </c>
       <c r="G259" s="5" t="s">
         <v>15</v>
       </c>
+      <c r="H259" s="9">
+        <v>45698</v>
+      </c>
       <c r="I259" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J259" s="3" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="260" spans="1:10">
       <c r="A260" s="4">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>43</v>
+        <v>124</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="E260" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F260" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G260" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H260" s="9">
-        <v>45652</v>
+        <v>542</v>
+      </c>
+      <c r="G260" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="I260" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J260" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="261" spans="1:10">
       <c r="A261" s="4">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E261" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F261" s="1" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="G261" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H261" s="9">
-        <v>45653</v>
+        <v>45652</v>
       </c>
       <c r="I261" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J261" s="3" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="262" spans="1:10">
       <c r="A262" s="4">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>548</v>
+        <v>79</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>465</v>
+        <v>28</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>752</v>
+        <v>29</v>
       </c>
       <c r="G262" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H262" s="9">
-        <v>45763</v>
-      </c>
-      <c r="I262" s="9" t="s">
+        <v>45653</v>
+      </c>
+      <c r="I262" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J262" s="3" t="s">
-        <v>753</v>
+        <v>547</v>
       </c>
     </row>
     <row r="263" spans="1:10">
       <c r="A263" s="4">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>548</v>
@@ -11394,30 +11394,30 @@
         <v>11</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>89</v>
+        <v>465</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>552</v>
+        <v>752</v>
       </c>
       <c r="G263" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H263" s="9">
-        <v>45590</v>
+        <v>45763</v>
       </c>
       <c r="I263" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J263" s="3" t="s">
-        <v>553</v>
+        <v>753</v>
       </c>
     </row>
     <row r="264" spans="1:10">
       <c r="A264" s="4">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B264" s="2" t="s">
         <v>548</v>
@@ -11426,30 +11426,30 @@
         <v>11</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>32</v>
+        <v>552</v>
       </c>
       <c r="G264" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H264" s="9">
-        <v>45744</v>
+        <v>45590</v>
       </c>
       <c r="I264" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J264" s="3" t="s">
-        <v>743</v>
+        <v>553</v>
       </c>
     </row>
     <row r="265" spans="1:10">
       <c r="A265" s="4">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B265" s="2" t="s">
         <v>548</v>
@@ -11458,30 +11458,30 @@
         <v>11</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="F265" s="1" t="s">
-        <v>557</v>
+        <v>32</v>
       </c>
       <c r="G265" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H265" s="9">
-        <v>45590</v>
+        <v>45744</v>
       </c>
       <c r="I265" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J265" s="3" t="s">
-        <v>555</v>
+        <v>743</v>
       </c>
     </row>
     <row r="266" spans="1:10">
       <c r="A266" s="4">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B266" s="2" t="s">
         <v>548</v>
@@ -11490,30 +11490,30 @@
         <v>11</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E266" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F266" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="G266" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H266" s="9">
-        <v>45588</v>
+        <v>45590</v>
       </c>
       <c r="I266" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J266" s="3" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
     </row>
     <row r="267" spans="1:10">
       <c r="A267" s="4">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B267" s="2" t="s">
         <v>548</v>
@@ -11522,13 +11522,13 @@
         <v>11</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="E267" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F267" s="1" t="s">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="G267" s="2" t="s">
         <v>15</v>
@@ -11540,12 +11540,12 @@
         <v>16</v>
       </c>
       <c r="J267" s="3" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="268" spans="1:10">
       <c r="A268" s="4">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B268" s="2" t="s">
         <v>548</v>
@@ -11554,30 +11554,30 @@
         <v>11</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E268" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>564</v>
+        <v>550</v>
       </c>
       <c r="G268" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H268" s="9">
-        <v>45594</v>
+        <v>45588</v>
       </c>
       <c r="I268" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J268" s="3" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="269" spans="1:10">
       <c r="A269" s="4">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B269" s="2" t="s">
         <v>548</v>
@@ -11586,13 +11586,13 @@
         <v>11</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E269" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="G269" s="2" t="s">
         <v>15</v>
@@ -11609,7 +11609,7 @@
     </row>
     <row r="270" spans="1:10">
       <c r="A270" s="4">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B270" s="2" t="s">
         <v>548</v>
@@ -11618,13 +11618,13 @@
         <v>11</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="E270" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F270" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="G270" s="2" t="s">
         <v>15</v>
@@ -11641,7 +11641,7 @@
     </row>
     <row r="271" spans="1:10">
       <c r="A271" s="4">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B271" s="2" t="s">
         <v>548</v>
@@ -11650,13 +11650,13 @@
         <v>11</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E271" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F271" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="G271" s="2" t="s">
         <v>15</v>
@@ -11673,7 +11673,7 @@
     </row>
     <row r="272" spans="1:10">
       <c r="A272" s="4">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B272" s="2" t="s">
         <v>548</v>
@@ -11682,30 +11682,30 @@
         <v>11</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="E272" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F272" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="G272" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H272" s="9">
-        <v>45596</v>
+        <v>45594</v>
       </c>
       <c r="I272" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J272" s="3" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
     </row>
     <row r="273" spans="1:10">
       <c r="A273" s="4">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B273" s="2" t="s">
         <v>548</v>
@@ -11714,13 +11714,13 @@
         <v>11</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="E273" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F273" s="1" t="s">
-        <v>783</v>
+        <v>573</v>
       </c>
       <c r="G273" s="2" t="s">
         <v>15</v>
@@ -11732,12 +11732,12 @@
         <v>16</v>
       </c>
       <c r="J273" s="3" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="274" spans="1:10">
       <c r="A274" s="4">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B274" s="2" t="s">
         <v>548</v>
@@ -11746,13 +11746,13 @@
         <v>11</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E274" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>578</v>
+        <v>783</v>
       </c>
       <c r="G274" s="2" t="s">
         <v>15</v>
@@ -11764,12 +11764,12 @@
         <v>16</v>
       </c>
       <c r="J274" s="3" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="275" spans="1:10">
       <c r="A275" s="4">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B275" s="2" t="s">
         <v>548</v>
@@ -11778,30 +11778,30 @@
         <v>11</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E275" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F275" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="G275" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H275" s="9">
-        <v>45597</v>
+        <v>45596</v>
       </c>
       <c r="I275" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J275" s="3" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
     </row>
     <row r="276" spans="1:10">
       <c r="A276" s="4">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B276" s="2" t="s">
         <v>548</v>
@@ -11810,13 +11810,13 @@
         <v>11</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="E276" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F276" s="1" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="G276" s="2" t="s">
         <v>15</v>
@@ -11833,7 +11833,7 @@
     </row>
     <row r="277" spans="1:10">
       <c r="A277" s="4">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B277" s="2" t="s">
         <v>548</v>
@@ -11842,13 +11842,13 @@
         <v>11</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E277" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F277" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="G277" s="2" t="s">
         <v>15</v>
@@ -11865,7 +11865,7 @@
     </row>
     <row r="278" spans="1:10">
       <c r="A278" s="4">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B278" s="2" t="s">
         <v>548</v>
@@ -11874,13 +11874,13 @@
         <v>11</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="E278" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F278" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="G278" s="2" t="s">
         <v>15</v>
@@ -11897,7 +11897,7 @@
     </row>
     <row r="279" spans="1:10">
       <c r="A279" s="4">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B279" s="2" t="s">
         <v>548</v>
@@ -11905,31 +11905,31 @@
       <c r="C279" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D279" s="21" t="s">
-        <v>588</v>
+      <c r="D279" s="1" t="s">
+        <v>586</v>
       </c>
       <c r="E279" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F279" s="4" t="s">
-        <v>589</v>
+      <c r="F279" s="1" t="s">
+        <v>587</v>
       </c>
       <c r="G279" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H279" s="9">
-        <v>45603</v>
+        <v>45597</v>
       </c>
       <c r="I279" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J279" s="3" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
     </row>
     <row r="280" spans="1:10">
       <c r="A280" s="4">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B280" s="2" t="s">
         <v>548</v>
@@ -11937,14 +11937,14 @@
       <c r="C280" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D280" s="1" t="s">
-        <v>591</v>
+      <c r="D280" s="21" t="s">
+        <v>588</v>
       </c>
       <c r="E280" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F280" s="1" t="s">
-        <v>592</v>
+      <c r="F280" s="4" t="s">
+        <v>589</v>
       </c>
       <c r="G280" s="2" t="s">
         <v>15</v>
@@ -11961,7 +11961,7 @@
     </row>
     <row r="281" spans="1:10">
       <c r="A281" s="4">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B281" s="2" t="s">
         <v>548</v>
@@ -11970,30 +11970,30 @@
         <v>11</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E281" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F281" s="4" t="s">
-        <v>594</v>
+      <c r="F281" s="1" t="s">
+        <v>592</v>
       </c>
       <c r="G281" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H281" s="9">
-        <v>45604</v>
+        <v>45603</v>
       </c>
       <c r="I281" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J281" s="3" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
     </row>
     <row r="282" spans="1:10">
       <c r="A282" s="4">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B282" s="2" t="s">
         <v>548</v>
@@ -12002,13 +12002,13 @@
         <v>11</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="E282" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F282" s="1" t="s">
-        <v>597</v>
+      <c r="F282" s="4" t="s">
+        <v>594</v>
       </c>
       <c r="G282" s="2" t="s">
         <v>15</v>
@@ -12025,7 +12025,7 @@
     </row>
     <row r="283" spans="1:10">
       <c r="A283" s="4">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B283" s="2" t="s">
         <v>548</v>
@@ -12034,30 +12034,30 @@
         <v>11</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>465</v>
+        <v>89</v>
       </c>
       <c r="F283" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="G283" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H283" s="9">
-        <v>45607</v>
+        <v>45604</v>
       </c>
       <c r="I283" s="9" t="s">
-        <v>731</v>
+        <v>16</v>
       </c>
       <c r="J283" s="3" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
     </row>
     <row r="284" spans="1:10">
       <c r="A284" s="4">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B284" s="2" t="s">
         <v>548</v>
@@ -12066,13 +12066,13 @@
         <v>11</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E284" s="1" t="s">
         <v>465</v>
       </c>
       <c r="F284" s="1" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="G284" s="2" t="s">
         <v>15</v>
@@ -12089,7 +12089,7 @@
     </row>
     <row r="285" spans="1:10">
       <c r="A285" s="4">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B285" s="2" t="s">
         <v>548</v>
@@ -12098,13 +12098,13 @@
         <v>11</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E285" s="1" t="s">
         <v>465</v>
       </c>
       <c r="F285" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="G285" s="2" t="s">
         <v>15</v>
@@ -12121,7 +12121,7 @@
     </row>
     <row r="286" spans="1:10">
       <c r="A286" s="4">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B286" s="2" t="s">
         <v>548</v>
@@ -12130,30 +12130,30 @@
         <v>11</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E286" s="1" t="s">
         <v>465</v>
       </c>
       <c r="F286" s="1" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="G286" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H286" s="9">
-        <v>45614</v>
+        <v>45607</v>
       </c>
       <c r="I286" s="9" t="s">
         <v>731</v>
       </c>
       <c r="J286" s="3" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
     </row>
     <row r="287" spans="1:10">
       <c r="A287" s="4">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B287" s="2" t="s">
         <v>548</v>
@@ -12162,13 +12162,13 @@
         <v>11</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="E287" s="1" t="s">
         <v>465</v>
       </c>
       <c r="F287" s="1" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="G287" s="2" t="s">
         <v>15</v>
@@ -12185,7 +12185,7 @@
     </row>
     <row r="288" spans="1:10">
       <c r="A288" s="4">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B288" s="2" t="s">
         <v>548</v>
@@ -12194,30 +12194,30 @@
         <v>11</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E288" s="1" t="s">
         <v>465</v>
       </c>
       <c r="F288" s="1" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="G288" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H288" s="9">
-        <v>45615</v>
+        <v>45614</v>
       </c>
       <c r="I288" s="9" t="s">
         <v>731</v>
       </c>
       <c r="J288" s="3" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
     </row>
     <row r="289" spans="1:10">
       <c r="A289" s="4">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B289" s="2" t="s">
         <v>548</v>
@@ -12226,13 +12226,13 @@
         <v>11</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="E289" s="1" t="s">
         <v>465</v>
       </c>
       <c r="F289" s="1" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="G289" s="2" t="s">
         <v>15</v>
@@ -12249,7 +12249,7 @@
     </row>
     <row r="290" spans="1:10">
       <c r="A290" s="4">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B290" s="2" t="s">
         <v>548</v>
@@ -12258,13 +12258,13 @@
         <v>11</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E290" s="1" t="s">
         <v>465</v>
       </c>
       <c r="F290" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="G290" s="2" t="s">
         <v>15</v>
@@ -12281,7 +12281,7 @@
     </row>
     <row r="291" spans="1:10">
       <c r="A291" s="4">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B291" s="2" t="s">
         <v>548</v>
@@ -12290,30 +12290,30 @@
         <v>11</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E291" s="1" t="s">
         <v>465</v>
       </c>
       <c r="F291" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="G291" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H291" s="9">
-        <v>45617</v>
+        <v>45615</v>
       </c>
       <c r="I291" s="9" t="s">
         <v>731</v>
       </c>
       <c r="J291" s="3" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
     </row>
     <row r="292" spans="1:10">
       <c r="A292" s="4">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B292" s="2" t="s">
         <v>548</v>
@@ -12322,13 +12322,13 @@
         <v>11</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="E292" s="1" t="s">
         <v>465</v>
       </c>
       <c r="F292" s="1" t="s">
-        <v>766</v>
+        <v>618</v>
       </c>
       <c r="G292" s="2" t="s">
         <v>15</v>
@@ -12340,12 +12340,12 @@
         <v>731</v>
       </c>
       <c r="J292" s="3" t="s">
-        <v>780</v>
+        <v>619</v>
       </c>
     </row>
     <row r="293" spans="1:10">
       <c r="A293" s="4">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B293" s="2" t="s">
         <v>548</v>
@@ -12354,30 +12354,30 @@
         <v>11</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E293" s="1" t="s">
         <v>465</v>
       </c>
       <c r="F293" s="1" t="s">
-        <v>622</v>
+        <v>766</v>
       </c>
       <c r="G293" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H293" s="9">
-        <v>45618</v>
+        <v>45617</v>
       </c>
       <c r="I293" s="9" t="s">
         <v>731</v>
       </c>
       <c r="J293" s="3" t="s">
-        <v>623</v>
+        <v>780</v>
       </c>
     </row>
     <row r="294" spans="1:10">
       <c r="A294" s="4">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B294" s="2" t="s">
         <v>548</v>
@@ -12386,30 +12386,30 @@
         <v>11</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="E294" s="1" t="s">
         <v>465</v>
       </c>
       <c r="F294" s="1" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="G294" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H294" s="9">
-        <v>45621</v>
+        <v>45618</v>
       </c>
       <c r="I294" s="9" t="s">
         <v>731</v>
       </c>
       <c r="J294" s="3" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="295" spans="1:10">
       <c r="A295" s="4">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B295" s="2" t="s">
         <v>548</v>
@@ -12418,13 +12418,13 @@
         <v>11</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="E295" s="1" t="s">
         <v>465</v>
       </c>
       <c r="F295" s="1" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="G295" s="2" t="s">
         <v>15</v>
@@ -12441,7 +12441,7 @@
     </row>
     <row r="296" spans="1:10">
       <c r="A296" s="4">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B296" s="2" t="s">
         <v>548</v>
@@ -12450,30 +12450,30 @@
         <v>11</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>99</v>
+        <v>465</v>
       </c>
       <c r="F296" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="G296" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H296" s="9">
-        <v>45618</v>
+        <v>45621</v>
       </c>
       <c r="I296" s="9" t="s">
-        <v>101</v>
+        <v>731</v>
       </c>
       <c r="J296" s="3" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
     </row>
     <row r="297" spans="1:10">
       <c r="A297" s="4">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B297" s="2" t="s">
         <v>548</v>
@@ -12482,13 +12482,13 @@
         <v>11</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="F297" s="1" t="s">
-        <v>32</v>
+        <v>630</v>
       </c>
       <c r="G297" s="2" t="s">
         <v>15</v>
@@ -12497,15 +12497,15 @@
         <v>45618</v>
       </c>
       <c r="I297" s="9" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="J297" s="3" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="298" spans="1:10">
       <c r="A298" s="4">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B298" s="2" t="s">
         <v>548</v>
@@ -12514,13 +12514,13 @@
         <v>11</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="F298" s="1" t="s">
-        <v>727</v>
+        <v>32</v>
       </c>
       <c r="G298" s="2" t="s">
         <v>15</v>
@@ -12529,15 +12529,15 @@
         <v>45618</v>
       </c>
       <c r="I298" s="9" t="s">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="J298" s="3" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="299" spans="1:10">
       <c r="A299" s="4">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B299" s="2" t="s">
         <v>548</v>
@@ -12546,30 +12546,30 @@
         <v>11</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="F299" s="1" t="s">
-        <v>32</v>
+        <v>727</v>
       </c>
       <c r="G299" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H299" s="9">
-        <v>45621</v>
+        <v>45618</v>
       </c>
       <c r="I299" s="9" t="s">
         <v>101</v>
       </c>
       <c r="J299" s="3" t="s">
-        <v>729</v>
+        <v>635</v>
       </c>
     </row>
     <row r="300" spans="1:10">
       <c r="A300" s="4">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B300" s="2" t="s">
         <v>548</v>
@@ -12578,30 +12578,30 @@
         <v>11</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="F300" s="1" t="s">
-        <v>639</v>
+        <v>32</v>
       </c>
       <c r="G300" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H300" s="9">
-        <v>45622</v>
+        <v>45621</v>
       </c>
       <c r="I300" s="9" t="s">
         <v>101</v>
       </c>
       <c r="J300" s="3" t="s">
-        <v>640</v>
+        <v>729</v>
       </c>
     </row>
     <row r="301" spans="1:10">
       <c r="A301" s="4">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B301" s="2" t="s">
         <v>548</v>
@@ -12610,30 +12610,30 @@
         <v>11</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="F301" s="1" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="G301" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H301" s="9">
-        <v>44543</v>
+        <v>45622</v>
       </c>
       <c r="I301" s="9" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="J301" s="3" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
     <row r="302" spans="1:10">
       <c r="A302" s="4">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B302" s="2" t="s">
         <v>548</v>
@@ -12642,30 +12642,30 @@
         <v>11</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="E302" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F302" s="1" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="G302" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H302" s="9">
-        <v>45635</v>
+        <v>44543</v>
       </c>
       <c r="I302" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J302" s="3" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="303" spans="1:10">
       <c r="A303" s="4">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B303" s="2" t="s">
         <v>548</v>
@@ -12674,30 +12674,30 @@
         <v>11</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="E303" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F303" s="1" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="G303" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H303" s="9">
-        <v>44539</v>
+        <v>45635</v>
       </c>
       <c r="I303" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J303" s="3" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="304" spans="1:10">
       <c r="A304" s="4">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B304" s="2" t="s">
         <v>548</v>
@@ -12706,30 +12706,30 @@
         <v>11</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="E304" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F304" s="1" t="s">
-        <v>557</v>
+        <v>648</v>
       </c>
       <c r="G304" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H304" s="9">
-        <v>45645</v>
+        <v>44539</v>
       </c>
       <c r="I304" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J304" s="3" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="305" spans="1:10">
       <c r="A305" s="4">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B305" s="2" t="s">
         <v>548</v>
@@ -12738,13 +12738,13 @@
         <v>11</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="E305" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F305" s="1" t="s">
-        <v>653</v>
+        <v>557</v>
       </c>
       <c r="G305" s="2" t="s">
         <v>15</v>
@@ -12761,7 +12761,7 @@
     </row>
     <row r="306" spans="1:10">
       <c r="A306" s="4">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B306" s="2" t="s">
         <v>548</v>
@@ -12770,30 +12770,30 @@
         <v>11</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="E306" s="1" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="F306" s="1" t="s">
-        <v>473</v>
+        <v>653</v>
       </c>
       <c r="G306" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H306" s="9">
-        <v>45663</v>
+        <v>45645</v>
       </c>
       <c r="I306" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J306" s="3" t="s">
-        <v>734</v>
+        <v>651</v>
       </c>
     </row>
     <row r="307" spans="1:10">
       <c r="A307" s="4">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B307" s="2" t="s">
         <v>548</v>
@@ -12802,30 +12802,30 @@
         <v>11</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="E307" s="1" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="F307" s="1" t="s">
-        <v>657</v>
+        <v>473</v>
       </c>
       <c r="G307" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H307" s="9">
-        <v>45664</v>
+        <v>45663</v>
       </c>
       <c r="I307" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J307" s="3" t="s">
-        <v>658</v>
+        <v>734</v>
       </c>
     </row>
     <row r="308" spans="1:10">
       <c r="A308" s="4">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B308" s="2" t="s">
         <v>548</v>
@@ -12834,13 +12834,13 @@
         <v>11</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="E308" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F308" s="1" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="G308" s="2" t="s">
         <v>15</v>
@@ -12857,7 +12857,7 @@
     </row>
     <row r="309" spans="1:10">
       <c r="A309" s="4">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B309" s="2" t="s">
         <v>548</v>
@@ -12866,13 +12866,13 @@
         <v>11</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="E309" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F309" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="G309" s="2" t="s">
         <v>15</v>
@@ -12889,7 +12889,7 @@
     </row>
     <row r="310" spans="1:10">
       <c r="A310" s="4">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B310" s="2" t="s">
         <v>548</v>
@@ -12898,30 +12898,30 @@
         <v>11</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="E310" s="1" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="F310" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="G310" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H310" s="9">
-        <v>45667</v>
+        <v>45664</v>
       </c>
       <c r="I310" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J310" s="3" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
     </row>
     <row r="311" spans="1:10">
       <c r="A311" s="4">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B311" s="2" t="s">
         <v>548</v>
@@ -12930,30 +12930,30 @@
         <v>11</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="E311" s="1" t="s">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="F311" s="1" t="s">
-        <v>32</v>
+        <v>664</v>
       </c>
       <c r="G311" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H311" s="9">
-        <v>45305</v>
+        <v>45667</v>
       </c>
       <c r="I311" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J311" s="3" t="s">
-        <v>722</v>
+        <v>665</v>
       </c>
     </row>
     <row r="312" spans="1:10">
       <c r="A312" s="4">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B312" s="2" t="s">
         <v>548</v>
@@ -12962,30 +12962,30 @@
         <v>11</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E312" s="1" t="s">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="F312" s="1" t="s">
-        <v>782</v>
+        <v>32</v>
       </c>
       <c r="G312" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H312" s="9">
-        <v>45702</v>
+        <v>45305</v>
       </c>
       <c r="I312" s="9" t="s">
-        <v>668</v>
+        <v>16</v>
       </c>
       <c r="J312" s="3" t="s">
-        <v>669</v>
+        <v>722</v>
       </c>
     </row>
     <row r="313" spans="1:10">
       <c r="A313" s="4">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B313" s="2" t="s">
         <v>548</v>
@@ -12994,13 +12994,13 @@
         <v>11</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="E313" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F313" s="1" t="s">
-        <v>671</v>
+        <v>782</v>
       </c>
       <c r="G313" s="2" t="s">
         <v>15</v>
@@ -13017,7 +13017,7 @@
     </row>
     <row r="314" spans="1:10">
       <c r="A314" s="4">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B314" s="2" t="s">
         <v>548</v>
@@ -13026,13 +13026,13 @@
         <v>11</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="E314" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F314" s="1" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="G314" s="2" t="s">
         <v>15</v>
@@ -13044,12 +13044,12 @@
         <v>668</v>
       </c>
       <c r="J314" s="3" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
     </row>
     <row r="315" spans="1:10">
       <c r="A315" s="4">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B315" s="2" t="s">
         <v>548</v>
@@ -13058,30 +13058,30 @@
         <v>11</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="E315" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F315" s="1" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="G315" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H315" s="9">
-        <v>45705</v>
+        <v>45702</v>
       </c>
       <c r="I315" s="9" t="s">
-        <v>16</v>
+        <v>668</v>
       </c>
       <c r="J315" s="3" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
     </row>
     <row r="316" spans="1:10">
       <c r="A316" s="4">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B316" s="2" t="s">
         <v>548</v>
@@ -13090,30 +13090,30 @@
         <v>11</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>714</v>
+        <v>675</v>
       </c>
       <c r="E316" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F316" s="1" t="s">
-        <v>715</v>
+        <v>676</v>
       </c>
       <c r="G316" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H316" s="9">
-        <v>45726</v>
+        <v>45705</v>
       </c>
       <c r="I316" s="9" t="s">
-        <v>716</v>
+        <v>16</v>
       </c>
       <c r="J316" s="3" t="s">
-        <v>717</v>
+        <v>677</v>
       </c>
     </row>
     <row r="317" spans="1:10">
       <c r="A317" s="4">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B317" s="2" t="s">
         <v>548</v>
@@ -13122,13 +13122,13 @@
         <v>11</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="E317" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F317" s="1" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="G317" s="2" t="s">
         <v>15</v>
@@ -13145,7 +13145,7 @@
     </row>
     <row r="318" spans="1:10">
       <c r="A318" s="4">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B318" s="2" t="s">
         <v>548</v>
@@ -13154,13 +13154,13 @@
         <v>11</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="E318" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F318" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="G318" s="2" t="s">
         <v>15</v>
@@ -13177,7 +13177,7 @@
     </row>
     <row r="319" spans="1:10">
       <c r="A319" s="4">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B319" s="2" t="s">
         <v>548</v>
@@ -13186,30 +13186,30 @@
         <v>11</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="E319" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F319" s="1" t="s">
-        <v>319</v>
+        <v>720</v>
       </c>
       <c r="G319" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H319" s="9">
-        <v>45653</v>
+        <v>45726</v>
       </c>
       <c r="I319" s="9" t="s">
-        <v>16</v>
+        <v>716</v>
       </c>
       <c r="J319" s="3" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
     </row>
     <row r="320" spans="1:10">
       <c r="A320" s="4">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B320" s="2" t="s">
         <v>548</v>
@@ -13218,13 +13218,13 @@
         <v>11</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>678</v>
+        <v>725</v>
       </c>
       <c r="E320" s="1" t="s">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="F320" s="1" t="s">
-        <v>679</v>
+        <v>319</v>
       </c>
       <c r="G320" s="2" t="s">
         <v>15</v>
@@ -13236,12 +13236,12 @@
         <v>16</v>
       </c>
       <c r="J320" s="3" t="s">
-        <v>680</v>
+        <v>726</v>
       </c>
     </row>
     <row r="321" spans="1:10">
       <c r="A321" s="4">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B321" s="2" t="s">
         <v>548</v>
@@ -13273,7 +13273,7 @@
     </row>
     <row r="322" spans="1:10">
       <c r="A322" s="4">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B322" s="2" t="s">
         <v>548</v>
@@ -13305,7 +13305,7 @@
     </row>
     <row r="323" spans="1:10">
       <c r="A323" s="4">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B323" s="2" t="s">
         <v>548</v>
@@ -13337,7 +13337,7 @@
     </row>
     <row r="324" spans="1:10">
       <c r="A324" s="4">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B324" s="2" t="s">
         <v>548</v>
@@ -13369,7 +13369,7 @@
     </row>
     <row r="325" spans="1:10">
       <c r="A325" s="4">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B325" s="2" t="s">
         <v>548</v>
@@ -13401,7 +13401,7 @@
     </row>
     <row r="326" spans="1:10">
       <c r="A326" s="4">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B326" s="2" t="s">
         <v>548</v>
@@ -13433,7 +13433,7 @@
     </row>
     <row r="327" spans="1:10">
       <c r="A327" s="4">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B327" s="2" t="s">
         <v>548</v>
@@ -13465,7 +13465,7 @@
     </row>
     <row r="328" spans="1:10">
       <c r="A328" s="4">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B328" s="2" t="s">
         <v>548</v>
@@ -13497,7 +13497,7 @@
     </row>
     <row r="329" spans="1:10">
       <c r="A329" s="4">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B329" s="2" t="s">
         <v>548</v>
@@ -13529,7 +13529,7 @@
     </row>
     <row r="330" spans="1:10">
       <c r="A330" s="4">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B330" s="2" t="s">
         <v>548</v>
@@ -13561,7 +13561,7 @@
     </row>
     <row r="331" spans="1:10">
       <c r="A331" s="4">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B331" s="2" t="s">
         <v>548</v>
@@ -13593,7 +13593,7 @@
     </row>
     <row r="332" spans="1:10">
       <c r="A332" s="4">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B332" s="2" t="s">
         <v>548</v>
@@ -13625,7 +13625,7 @@
     </row>
     <row r="333" spans="1:10">
       <c r="A333" s="4">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B333" s="2" t="s">
         <v>548</v>
@@ -13657,7 +13657,7 @@
     </row>
     <row r="334" spans="1:10">
       <c r="A334" s="4">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B334" s="2" t="s">
         <v>548</v>
@@ -13689,7 +13689,7 @@
     </row>
     <row r="335" spans="1:10">
       <c r="A335" s="4">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B335" s="2" t="s">
         <v>548</v>
@@ -13721,7 +13721,7 @@
     </row>
     <row r="336" spans="1:10">
       <c r="A336" s="4">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B336" s="2" t="s">
         <v>548</v>
@@ -13753,7 +13753,7 @@
     </row>
     <row r="337" spans="1:10">
       <c r="A337" s="4">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B337" s="2" t="s">
         <v>548</v>
@@ -13785,7 +13785,7 @@
     </row>
     <row r="338" spans="1:10">
       <c r="A338" s="4">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B338" s="2" t="s">
         <v>548</v>
@@ -13817,39 +13817,39 @@
     </row>
     <row r="339" spans="1:10">
       <c r="A339" s="4">
-        <v>337</v>
-      </c>
-      <c r="B339" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="B339" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="C339" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D339" s="14" t="s">
-        <v>596</v>
+      <c r="C339" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D339" s="1" t="s">
+        <v>678</v>
       </c>
       <c r="E339" s="1" t="s">
-        <v>465</v>
+        <v>28</v>
       </c>
       <c r="F339" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="G339" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H339" s="16">
-        <v>45604</v>
-      </c>
-      <c r="I339" s="16" t="s">
+        <v>679</v>
+      </c>
+      <c r="G339" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H339" s="9">
+        <v>45653</v>
+      </c>
+      <c r="I339" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J339" s="3" t="s">
-        <v>748</v>
+        <v>680</v>
       </c>
     </row>
     <row r="340" spans="1:10">
       <c r="A340" s="4">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B340" s="15" t="s">
         <v>548</v>
@@ -13857,39 +13857,71 @@
       <c r="C340" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D340" s="1" t="s">
+      <c r="D340" s="14" t="s">
+        <v>596</v>
+      </c>
+      <c r="E340" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="F340" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="G340" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H340" s="16">
+        <v>45604</v>
+      </c>
+      <c r="I340" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J340" s="3" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="341" spans="1:10">
+      <c r="A341" s="4">
+        <v>338</v>
+      </c>
+      <c r="B341" s="15" t="s">
+        <v>548</v>
+      </c>
+      <c r="C341" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D341" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="E340" s="1" t="s">
+      <c r="E341" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F340" s="1" t="s">
+      <c r="F341" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="G340" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H340" s="16">
+      <c r="G341" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H341" s="16">
         <v>45768</v>
       </c>
-      <c r="I340" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J340" s="3" t="s">
+      <c r="I341" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J341" s="3" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="341" spans="1:10">
-      <c r="A341" s="14"/>
-      <c r="B341" s="15"/>
-      <c r="C341" s="15"/>
-      <c r="D341" s="14"/>
-      <c r="E341" s="14"/>
-      <c r="F341" s="14"/>
-      <c r="G341" s="15"/>
-      <c r="H341" s="14"/>
-      <c r="I341" s="16"/>
-      <c r="J341" s="17"/>
+    <row r="342" spans="1:10">
+      <c r="A342" s="14"/>
+      <c r="B342" s="15"/>
+      <c r="C342" s="15"/>
+      <c r="D342" s="14"/>
+      <c r="E342" s="14"/>
+      <c r="F342" s="14"/>
+      <c r="G342" s="15"/>
+      <c r="H342" s="14"/>
+      <c r="I342" s="16"/>
+      <c r="J342" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -13911,7 +13943,7 @@
       <formula>"SOLAGOS DEPOSITO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F339">
+  <conditionalFormatting sqref="F340">
     <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
       <formula>"MANUTENÇÃO"</formula>
     </cfRule>
@@ -13919,18 +13951,18 @@
       <formula>"DEPOSITO SOLAGOS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E339:E340">
+  <conditionalFormatting sqref="E340:E341">
     <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
       <formula>"SOLAGOS DEPOSITO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D339">
+  <conditionalFormatting sqref="D340">
     <cfRule type="duplicateValues" dxfId="15" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D340">
+  <conditionalFormatting sqref="D341">
     <cfRule type="duplicateValues" dxfId="14" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D341">
+  <conditionalFormatting sqref="D2:D342">
     <cfRule type="duplicateValues" dxfId="13" priority="32"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/data_printer.xlsx
+++ b/data_printer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GamErick\Desktop\Nova pasta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A25AB369-6981-4924-8683-7C6F98FC265A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A4C8AF-D15D-4014-A329-4115692507E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A8AA41B5-7AA1-4FF7-A9B8-54B8A4E1AF28}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="estoque" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="DadosExternos_1" localSheetId="0" hidden="1">PRINTERS_INVENTORY!$A$1:$J$342</definedName>
+    <definedName name="DadosExternos_1" localSheetId="0" hidden="1">PRINTERS_INVENTORY!$A$1:$J$341</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2758" uniqueCount="786">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2758" uniqueCount="791">
   <si>
     <t>INDICE</t>
   </si>
@@ -969,9 +969,6 @@
     <t>X4CN007255</t>
   </si>
   <si>
-    <t>ESTAVA PAÇO CADASTRO;</t>
-  </si>
-  <si>
     <t>EPSON ECOTANK L3250</t>
   </si>
   <si>
@@ -1068,9 +1065,6 @@
     <t>BRBSJ37FG4</t>
   </si>
   <si>
-    <t>FERNANDO LEVOU PARA CONSERV;</t>
-  </si>
-  <si>
     <t>HP LASERJET PRO MFP M127fn</t>
   </si>
   <si>
@@ -1674,9 +1668,6 @@
     <t>U67030G3N135407</t>
   </si>
   <si>
-    <t>TRIBUTOS</t>
-  </si>
-  <si>
     <t>U67030G3N135429</t>
   </si>
   <si>
@@ -2395,6 +2386,30 @@
   </si>
   <si>
     <t>ESTAVA NO PAÇO - RECURSOS HUMANOS; PROBLEMA IMPRESSÃO EM BRACO FOI PARA WP;  QUEBROU BARRA DE LEDE RETIRADA DO PAÇO 02/05/2025 PAÇO;</t>
+  </si>
+  <si>
+    <t>MERCADO ANDRADE - DIRETOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESTAVA PAÇO CADASTRO; IMPRESSORA REPARA AUTORIZADA EM IGUABA  05/06/2025; </t>
+  </si>
+  <si>
+    <t>REPARADA A ENTRADA USB 10/03/2025; REPARADA MUITO BARULHO E BANDEJA DE ALIMENTAÇÃO DE FOLHAS 05/06/2025;</t>
+  </si>
+  <si>
+    <t>COMSERV - VDP - OS</t>
+  </si>
+  <si>
+    <t>U67030J3N175302</t>
+  </si>
+  <si>
+    <t>TRIBUTOS - 02</t>
+  </si>
+  <si>
+    <t>IMPRESSORA INTALADA NO DIA 09/06/2025 SUBSTITUI OKI;</t>
+  </si>
+  <si>
+    <t>TRIBUTOS - 01</t>
   </si>
 </sst>
 </file>
@@ -2478,7 +2493,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2543,6 +2558,9 @@
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2946,11 +2964,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C244623C-48DE-4D05-852C-6EFDD885ABE2}" name="Controle_Inventario_Impressoras" displayName="Controle_Inventario_Impressoras" ref="A1:J342" tableType="queryTable" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A1:J342" xr:uid="{C244623C-48DE-4D05-852C-6EFDD885ABE2}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C244623C-48DE-4D05-852C-6EFDD885ABE2}" name="Controle_Inventario_Impressoras" displayName="Controle_Inventario_Impressoras" ref="A1:J341" tableType="queryTable" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A1:J341" xr:uid="{C244623C-48DE-4D05-852C-6EFDD885ABE2}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="OKI MPS 5502MB"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="4">
       <filters>
-        <filter val="PAÇO"/>
+        <filter val="SOLAGOS DEPOSITO"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -3287,8 +3310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD39631B-97B8-405A-AA43-14CDFBC77F92}">
   <dimension ref="A1:J342"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J123" sqref="J123"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E123" sqref="E123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -3483,7 +3506,7 @@
         <v>98</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>15</v>
@@ -3527,10 +3550,10 @@
         <v>16</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" hidden="1">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -3547,7 +3570,7 @@
         <v>88</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>15</v>
@@ -3703,7 +3726,7 @@
         <v>21</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>40</v>
@@ -3735,7 +3758,7 @@
         <v>98</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>15</v>
@@ -3767,7 +3790,7 @@
         <v>21</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>40</v>
@@ -3779,7 +3802,7 @@
         <v>16</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
     </row>
     <row r="16" spans="1:10" hidden="1">
@@ -4189,7 +4212,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" hidden="1">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -4302,7 +4325,7 @@
         <v>13</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>15</v>
@@ -4314,7 +4337,7 @@
         <v>16</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
     </row>
     <row r="33" spans="1:10" hidden="1">
@@ -4346,7 +4369,7 @@
         <v>100</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
     </row>
     <row r="34" spans="1:10" hidden="1">
@@ -4366,7 +4389,7 @@
         <v>13</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>15</v>
@@ -6051,13 +6074,16 @@
         <v>223</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>40</v>
+      </c>
+      <c r="H89" s="9">
+        <v>45817</v>
       </c>
       <c r="I89" s="9" t="s">
         <v>16</v>
@@ -7028,7 +7054,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" spans="1:10" hidden="1">
       <c r="A121" s="4">
         <v>120</v>
       </c>
@@ -7054,7 +7080,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="122" spans="1:10">
+    <row r="122" spans="1:10" hidden="1">
       <c r="A122" s="4">
         <v>121</v>
       </c>
@@ -7094,7 +7120,7 @@
         <v>272</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>28</v>
+        <v>194</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>32</v>
@@ -7109,7 +7135,7 @@
         <v>16</v>
       </c>
       <c r="J123" s="3" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
     </row>
     <row r="124" spans="1:10" hidden="1">
@@ -7141,7 +7167,7 @@
         <v>16</v>
       </c>
       <c r="J124" s="3" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="125" spans="1:10" hidden="1">
@@ -7173,7 +7199,7 @@
         <v>16</v>
       </c>
       <c r="J125" s="3" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
     </row>
     <row r="126" spans="1:10" hidden="1">
@@ -7193,7 +7219,7 @@
         <v>21</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>40</v>
@@ -7205,7 +7231,7 @@
         <v>16</v>
       </c>
       <c r="J126" s="3" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
     </row>
     <row r="127" spans="1:10" hidden="1">
@@ -7385,7 +7411,7 @@
         <v>28</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="G132" s="5" t="s">
         <v>15</v>
@@ -7397,7 +7423,7 @@
         <v>16</v>
       </c>
       <c r="J132" s="3" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
     </row>
     <row r="133" spans="1:10" hidden="1">
@@ -7653,7 +7679,7 @@
         <v>16</v>
       </c>
       <c r="J140" s="13" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
     </row>
     <row r="141" spans="1:10" hidden="1">
@@ -7670,42 +7696,42 @@
         <v>309</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>32</v>
+        <v>783</v>
       </c>
       <c r="G141" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H141" s="9">
-        <v>45701</v>
+        <v>45817</v>
       </c>
       <c r="I141" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J141" s="3" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" hidden="1">
       <c r="A142" s="4">
         <v>141</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>107</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G142" s="5" t="s">
         <v>15</v>
@@ -7717,24 +7743,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="143" spans="1:10">
+    <row r="143" spans="1:10" hidden="1">
       <c r="A143" s="4">
         <v>142</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>107</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G143" s="5" t="s">
         <v>15</v>
@@ -7746,24 +7772,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="144" spans="1:10">
+    <row r="144" spans="1:10" hidden="1">
       <c r="A144" s="4">
         <v>143</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>107</v>
       </c>
       <c r="D144" s="14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G144" s="15" t="s">
         <v>15</v>
@@ -7775,27 +7801,27 @@
         <v>16</v>
       </c>
       <c r="J144" s="17" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" hidden="1">
       <c r="A145" s="4">
         <v>144</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>107</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="G145" s="15" t="s">
         <v>15</v>
@@ -7807,7 +7833,7 @@
         <v>16</v>
       </c>
       <c r="J145" s="3" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
     </row>
     <row r="146" spans="1:10" hidden="1">
@@ -7815,13 +7841,13 @@
         <v>145</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>107</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>194</v>
@@ -7839,7 +7865,7 @@
         <v>16</v>
       </c>
       <c r="J146" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="147" spans="1:10" hidden="1">
@@ -7847,13 +7873,13 @@
         <v>146</v>
       </c>
       <c r="B147" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D147" s="4" t="s">
         <v>322</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D147" s="4" t="s">
-        <v>323</v>
       </c>
       <c r="E147" s="4" t="s">
         <v>28</v>
@@ -7871,7 +7897,7 @@
         <v>16</v>
       </c>
       <c r="J147" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="148" spans="1:10" hidden="1">
@@ -7885,7 +7911,7 @@
         <v>11</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E148" s="4" t="s">
         <v>28</v>
@@ -7903,7 +7929,7 @@
         <v>16</v>
       </c>
       <c r="J148" s="3" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="149" spans="1:10" hidden="1">
@@ -7911,19 +7937,19 @@
         <v>148</v>
       </c>
       <c r="B149" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D149" s="1" t="s">
         <v>327</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>328</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G149" s="5" t="s">
         <v>15</v>
@@ -7946,7 +7972,7 @@
         <v>11</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E150" s="4" t="s">
         <v>28</v>
@@ -7964,7 +7990,7 @@
         <v>16</v>
       </c>
       <c r="J150" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="151" spans="1:10" hidden="1">
@@ -7978,7 +8004,7 @@
         <v>11</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E151" s="4" t="s">
         <v>98</v>
@@ -7996,7 +8022,7 @@
         <v>16</v>
       </c>
       <c r="J151" s="7" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
     </row>
     <row r="152" spans="1:10" hidden="1">
@@ -8010,7 +8036,7 @@
         <v>11</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E152" s="4" t="s">
         <v>28</v>
@@ -8028,7 +8054,7 @@
         <v>16</v>
       </c>
       <c r="J152" s="3" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
     </row>
     <row r="153" spans="1:10" hidden="1">
@@ -8042,22 +8068,25 @@
         <v>11</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F153" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="G153" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H153" s="9">
+        <v>45787</v>
+      </c>
+      <c r="I153" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J153" s="3" t="s">
         <v>335</v>
-      </c>
-      <c r="G153" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I153" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J153" s="3" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="154" spans="1:10" hidden="1">
@@ -8071,13 +8100,13 @@
         <v>11</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E154" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G154" s="5" t="s">
         <v>15</v>
@@ -8100,13 +8129,13 @@
         <v>11</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E155" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G155" s="5" t="s">
         <v>15</v>
@@ -8121,19 +8150,19 @@
         <v>155</v>
       </c>
       <c r="B156" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D156" s="1" t="s">
         <v>341</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>342</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>68</v>
+        <v>786</v>
       </c>
       <c r="G156" s="5" t="s">
         <v>15</v>
@@ -8145,7 +8174,7 @@
         <v>16</v>
       </c>
       <c r="J156" s="3" t="s">
-        <v>343</v>
+        <v>785</v>
       </c>
     </row>
     <row r="157" spans="1:10" hidden="1">
@@ -8153,22 +8182,25 @@
         <v>156</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E157" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G157" s="5" t="s">
         <v>15</v>
+      </c>
+      <c r="H157" s="9">
+        <v>45813</v>
       </c>
       <c r="I157" s="1" t="s">
         <v>16</v>
@@ -8179,19 +8211,19 @@
         <v>157</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>107</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E158" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F158" s="4" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="G158" s="5" t="s">
         <v>40</v>
@@ -8203,7 +8235,7 @@
         <v>16</v>
       </c>
       <c r="J158" s="3" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
     </row>
     <row r="159" spans="1:10" hidden="1">
@@ -8217,7 +8249,7 @@
         <v>11</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>28</v>
@@ -8235,7 +8267,7 @@
         <v>16</v>
       </c>
       <c r="J159" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="160" spans="1:10" hidden="1">
@@ -8249,13 +8281,13 @@
         <v>11</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E160" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G160" s="5" t="s">
         <v>15</v>
@@ -8267,7 +8299,7 @@
         <v>16</v>
       </c>
       <c r="J160" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="161" spans="1:10" hidden="1">
@@ -8275,28 +8307,31 @@
         <v>160</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G161" s="5" t="s">
         <v>15</v>
       </c>
+      <c r="H161" s="9">
+        <v>45813</v>
+      </c>
       <c r="I161" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J161" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="162" spans="1:10" hidden="1">
@@ -8304,13 +8339,13 @@
         <v>161</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>28</v>
@@ -8339,13 +8374,13 @@
         <v>11</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G163" s="5" t="s">
         <v>15</v>
@@ -8368,7 +8403,7 @@
         <v>107</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E164" s="4" t="s">
         <v>28</v>
@@ -8386,7 +8421,7 @@
         <v>16</v>
       </c>
       <c r="J164" s="3" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
     </row>
     <row r="165" spans="1:10" hidden="1">
@@ -8400,13 +8435,13 @@
         <v>107</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>98</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G165" s="5" t="s">
         <v>15</v>
@@ -8418,7 +8453,7 @@
         <v>16</v>
       </c>
       <c r="J165" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="166" spans="1:10" hidden="1">
@@ -8426,19 +8461,19 @@
         <v>165</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>107</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="G166" s="5" t="s">
         <v>15</v>
@@ -8458,13 +8493,13 @@
         <v>11</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E167" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="G167" s="5" t="s">
         <v>15</v>
@@ -8478,19 +8513,19 @@
         <v>167</v>
       </c>
       <c r="B168" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F168" s="1" t="s">
         <v>371</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F168" s="1" t="s">
-        <v>373</v>
       </c>
       <c r="G168" s="5" t="s">
         <v>15</v>
@@ -8507,19 +8542,19 @@
         <v>168</v>
       </c>
       <c r="B169" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F169" s="1" t="s">
         <v>371</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="E169" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F169" s="1" t="s">
-        <v>373</v>
       </c>
       <c r="G169" s="5" t="s">
         <v>15</v>
@@ -8536,19 +8571,19 @@
         <v>169</v>
       </c>
       <c r="B170" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F170" s="1" t="s">
         <v>371</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D170" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F170" s="1" t="s">
-        <v>373</v>
       </c>
       <c r="G170" s="5" t="s">
         <v>15</v>
@@ -8565,19 +8600,19 @@
         <v>170</v>
       </c>
       <c r="B171" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F171" s="1" t="s">
         <v>371</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D171" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F171" s="1" t="s">
-        <v>373</v>
       </c>
       <c r="G171" s="5" t="s">
         <v>15</v>
@@ -8594,19 +8629,19 @@
         <v>171</v>
       </c>
       <c r="B172" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F172" s="1" t="s">
         <v>371</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="E172" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F172" s="1" t="s">
-        <v>373</v>
       </c>
       <c r="G172" s="5" t="s">
         <v>15</v>
@@ -8623,19 +8658,19 @@
         <v>172</v>
       </c>
       <c r="B173" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F173" s="1" t="s">
         <v>371</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F173" s="1" t="s">
-        <v>373</v>
       </c>
       <c r="G173" s="5" t="s">
         <v>15</v>
@@ -8652,19 +8687,19 @@
         <v>173</v>
       </c>
       <c r="B174" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F174" s="1" t="s">
         <v>371</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F174" s="1" t="s">
-        <v>373</v>
       </c>
       <c r="G174" s="5" t="s">
         <v>15</v>
@@ -8681,19 +8716,19 @@
         <v>174</v>
       </c>
       <c r="B175" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F175" s="1" t="s">
         <v>371</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F175" s="1" t="s">
-        <v>373</v>
       </c>
       <c r="G175" s="5" t="s">
         <v>15</v>
@@ -8710,19 +8745,19 @@
         <v>175</v>
       </c>
       <c r="B176" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F176" s="1" t="s">
         <v>371</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="E176" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F176" s="1" t="s">
-        <v>373</v>
       </c>
       <c r="G176" s="5" t="s">
         <v>15</v>
@@ -8739,19 +8774,19 @@
         <v>176</v>
       </c>
       <c r="B177" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F177" s="1" t="s">
         <v>371</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="E177" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F177" s="1" t="s">
-        <v>373</v>
       </c>
       <c r="G177" s="5" t="s">
         <v>15</v>
@@ -8768,19 +8803,19 @@
         <v>177</v>
       </c>
       <c r="B178" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F178" s="1" t="s">
         <v>371</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="E178" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F178" s="1" t="s">
-        <v>373</v>
       </c>
       <c r="G178" s="5" t="s">
         <v>15</v>
@@ -8797,19 +8832,19 @@
         <v>178</v>
       </c>
       <c r="B179" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F179" s="1" t="s">
         <v>371</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D179" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F179" s="1" t="s">
-        <v>373</v>
       </c>
       <c r="G179" s="5" t="s">
         <v>15</v>
@@ -8826,19 +8861,19 @@
         <v>179</v>
       </c>
       <c r="B180" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F180" s="1" t="s">
         <v>371</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D180" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="E180" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F180" s="1" t="s">
-        <v>373</v>
       </c>
       <c r="G180" s="5" t="s">
         <v>15</v>
@@ -8855,19 +8890,19 @@
         <v>180</v>
       </c>
       <c r="B181" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F181" s="1" t="s">
         <v>371</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D181" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="E181" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F181" s="1" t="s">
-        <v>373</v>
       </c>
       <c r="G181" s="5" t="s">
         <v>15</v>
@@ -8884,19 +8919,19 @@
         <v>181</v>
       </c>
       <c r="B182" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F182" s="1" t="s">
         <v>371</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D182" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F182" s="1" t="s">
-        <v>373</v>
       </c>
       <c r="G182" s="5" t="s">
         <v>15</v>
@@ -8913,19 +8948,19 @@
         <v>182</v>
       </c>
       <c r="B183" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F183" s="1" t="s">
         <v>371</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D183" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="E183" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F183" s="1" t="s">
-        <v>373</v>
       </c>
       <c r="G183" s="5" t="s">
         <v>15</v>
@@ -8942,19 +8977,19 @@
         <v>183</v>
       </c>
       <c r="B184" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F184" s="1" t="s">
         <v>371</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D184" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="E184" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F184" s="1" t="s">
-        <v>373</v>
       </c>
       <c r="G184" s="5" t="s">
         <v>15</v>
@@ -8971,19 +9006,19 @@
         <v>184</v>
       </c>
       <c r="B185" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F185" s="1" t="s">
         <v>371</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D185" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="E185" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F185" s="1" t="s">
-        <v>373</v>
       </c>
       <c r="G185" s="5" t="s">
         <v>15</v>
@@ -9000,19 +9035,19 @@
         <v>185</v>
       </c>
       <c r="B186" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F186" s="1" t="s">
         <v>371</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D186" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="E186" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F186" s="1" t="s">
-        <v>373</v>
       </c>
       <c r="G186" s="5" t="s">
         <v>15</v>
@@ -9029,19 +9064,19 @@
         <v>186</v>
       </c>
       <c r="B187" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F187" s="1" t="s">
         <v>371</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D187" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="E187" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F187" s="1" t="s">
-        <v>373</v>
       </c>
       <c r="G187" s="5" t="s">
         <v>15</v>
@@ -9058,19 +9093,19 @@
         <v>187</v>
       </c>
       <c r="B188" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F188" s="1" t="s">
         <v>371</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D188" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="E188" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F188" s="1" t="s">
-        <v>373</v>
       </c>
       <c r="G188" s="5" t="s">
         <v>15</v>
@@ -9087,13 +9122,13 @@
         <v>188</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E189" s="1" t="s">
         <v>28</v>
@@ -9116,13 +9151,13 @@
         <v>189</v>
       </c>
       <c r="B190" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D190" s="1" t="s">
         <v>394</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D190" s="1" t="s">
-        <v>396</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>28</v>
@@ -9140,27 +9175,27 @@
         <v>16</v>
       </c>
       <c r="J190" s="3" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="191" spans="1:10">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" hidden="1">
       <c r="A191" s="4">
         <v>190</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E191" s="4" t="s">
         <v>88</v>
       </c>
       <c r="F191" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G191" s="5" t="s">
         <v>15</v>
@@ -9171,7 +9206,7 @@
       </c>
       <c r="J191" s="7"/>
     </row>
-    <row r="192" spans="1:10">
+    <row r="192" spans="1:10" hidden="1">
       <c r="A192" s="4">
         <v>191</v>
       </c>
@@ -9182,13 +9217,13 @@
         <v>11</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E192" s="4" t="s">
         <v>88</v>
       </c>
       <c r="F192" s="4" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G192" s="5" t="s">
         <v>15</v>
@@ -9198,7 +9233,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="193" spans="1:10">
+    <row r="193" spans="1:10" hidden="1">
       <c r="A193" s="4">
         <v>192</v>
       </c>
@@ -9209,13 +9244,13 @@
         <v>11</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E193" s="4" t="s">
         <v>88</v>
       </c>
       <c r="F193" s="4" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G193" s="5" t="s">
         <v>15</v>
@@ -9225,24 +9260,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="194" spans="1:10">
+    <row r="194" spans="1:10" hidden="1">
       <c r="A194" s="4">
         <v>193</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E194" s="4" t="s">
         <v>88</v>
       </c>
       <c r="F194" s="4" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G194" s="5" t="s">
         <v>15</v>
@@ -9252,7 +9287,7 @@
         <v>16</v>
       </c>
       <c r="J194" s="7" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="195" spans="1:10" hidden="1">
@@ -9266,13 +9301,13 @@
         <v>11</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E195" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="G195" s="5" t="s">
         <v>15</v>
@@ -9284,7 +9319,7 @@
         <v>16</v>
       </c>
       <c r="J195" s="7" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="196" spans="1:10" hidden="1">
@@ -9298,7 +9333,7 @@
         <v>11</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E196" s="1" t="s">
         <v>28</v>
@@ -9316,7 +9351,7 @@
         <v>16</v>
       </c>
       <c r="J196" s="8" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="197" spans="1:10" hidden="1">
@@ -9330,7 +9365,7 @@
         <v>11</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E197" s="1" t="s">
         <v>28</v>
@@ -9348,7 +9383,7 @@
         <v>16</v>
       </c>
       <c r="J197" s="7" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="198" spans="1:10" hidden="1">
@@ -9362,13 +9397,13 @@
         <v>11</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E198" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="G198" s="5" t="s">
         <v>15</v>
@@ -9380,10 +9415,10 @@
         <v>16</v>
       </c>
       <c r="J198" s="3" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="199" spans="1:10" hidden="1">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10">
       <c r="A199" s="4">
         <v>198</v>
       </c>
@@ -9394,12 +9429,12 @@
         <v>11</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="F199" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F199" s="26" t="s">
         <v>32</v>
       </c>
       <c r="G199" s="2" t="s">
@@ -9412,10 +9447,10 @@
         <v>16</v>
       </c>
       <c r="J199" s="3" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="200" spans="1:10">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" hidden="1">
       <c r="A200" s="4">
         <v>199</v>
       </c>
@@ -9426,7 +9461,7 @@
         <v>11</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E200" s="4" t="s">
         <v>88</v>
@@ -9444,7 +9479,7 @@
         <v>16</v>
       </c>
       <c r="J200" s="3" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
     </row>
     <row r="201" spans="1:10" hidden="1">
@@ -9458,7 +9493,7 @@
         <v>11</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E201" s="1" t="s">
         <v>28</v>
@@ -9476,7 +9511,7 @@
         <v>16</v>
       </c>
       <c r="J201" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="202" spans="1:10" hidden="1">
@@ -9490,13 +9525,13 @@
         <v>11</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E202" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G202" s="5" t="s">
         <v>15</v>
@@ -9508,7 +9543,7 @@
         <v>16</v>
       </c>
       <c r="J202" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="203" spans="1:10" hidden="1">
@@ -9522,7 +9557,7 @@
         <v>11</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E203" s="1" t="s">
         <v>28</v>
@@ -9540,7 +9575,7 @@
         <v>16</v>
       </c>
       <c r="J203" s="3" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="204" spans="1:10" hidden="1">
@@ -9554,7 +9589,7 @@
         <v>11</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E204" s="1" t="s">
         <v>28</v>
@@ -9572,7 +9607,7 @@
         <v>16</v>
       </c>
       <c r="J204" s="3" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
     </row>
     <row r="205" spans="1:10" hidden="1">
@@ -9586,7 +9621,7 @@
         <v>11</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E205" s="1" t="s">
         <v>28</v>
@@ -9604,7 +9639,7 @@
         <v>16</v>
       </c>
       <c r="J205" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="206" spans="1:10" hidden="1">
@@ -9618,7 +9653,7 @@
         <v>11</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E206" s="1" t="s">
         <v>28</v>
@@ -9636,7 +9671,7 @@
         <v>16</v>
       </c>
       <c r="J206" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="207" spans="1:10" hidden="1">
@@ -9650,7 +9685,7 @@
         <v>11</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E207" s="1" t="s">
         <v>28</v>
@@ -9668,7 +9703,7 @@
         <v>16</v>
       </c>
       <c r="J207" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="208" spans="1:10" hidden="1">
@@ -9682,13 +9717,13 @@
         <v>11</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E208" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="G208" s="5" t="s">
         <v>15</v>
@@ -9700,7 +9735,7 @@
         <v>16</v>
       </c>
       <c r="J208" s="3" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="209" spans="1:10" hidden="1">
@@ -9714,7 +9749,7 @@
         <v>11</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E209" s="1" t="s">
         <v>28</v>
@@ -9732,7 +9767,7 @@
         <v>16</v>
       </c>
       <c r="J209" s="3" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="210" spans="1:10" hidden="1">
@@ -9746,7 +9781,7 @@
         <v>11</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E210" s="1" t="s">
         <v>28</v>
@@ -9764,7 +9799,7 @@
         <v>16</v>
       </c>
       <c r="J210" s="3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="211" spans="1:10" hidden="1">
@@ -9778,13 +9813,13 @@
         <v>11</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E211" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G211" s="5" t="s">
         <v>15</v>
@@ -9793,10 +9828,10 @@
         <v>45545</v>
       </c>
       <c r="I211" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="J211" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="212" spans="1:10" hidden="1">
@@ -9810,7 +9845,7 @@
         <v>11</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E212" s="1" t="s">
         <v>28</v>
@@ -9828,7 +9863,7 @@
         <v>16</v>
       </c>
       <c r="J212" s="3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="213" spans="1:10" hidden="1">
@@ -9842,7 +9877,7 @@
         <v>11</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E213" s="1" t="s">
         <v>28</v>
@@ -9860,7 +9895,7 @@
         <v>16</v>
       </c>
       <c r="J213" s="3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="214" spans="1:10" hidden="1">
@@ -9874,7 +9909,7 @@
         <v>11</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E214" s="1" t="s">
         <v>28</v>
@@ -9892,7 +9927,7 @@
         <v>16</v>
       </c>
       <c r="J214" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="215" spans="1:10" hidden="1">
@@ -9906,7 +9941,7 @@
         <v>11</v>
       </c>
       <c r="D215" s="18" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E215" s="1" t="s">
         <v>28</v>
@@ -9924,7 +9959,7 @@
         <v>16</v>
       </c>
       <c r="J215" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="216" spans="1:10" hidden="1">
@@ -9938,7 +9973,7 @@
         <v>11</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E216" s="1" t="s">
         <v>28</v>
@@ -9956,7 +9991,7 @@
         <v>16</v>
       </c>
       <c r="J216" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="217" spans="1:10" hidden="1">
@@ -9970,7 +10005,7 @@
         <v>11</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E217" s="1" t="s">
         <v>28</v>
@@ -9988,7 +10023,7 @@
         <v>16</v>
       </c>
       <c r="J217" s="3" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
     </row>
     <row r="218" spans="1:10" hidden="1">
@@ -9996,19 +10031,19 @@
         <v>217</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>107</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E218" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="G218" s="5" t="s">
         <v>15</v>
@@ -10031,7 +10066,7 @@
         <v>11</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E219" s="1" t="s">
         <v>28</v>
@@ -10049,7 +10084,7 @@
         <v>16</v>
       </c>
       <c r="J219" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="220" spans="1:10" hidden="1">
@@ -10063,13 +10098,13 @@
         <v>11</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="G220" s="5" t="s">
         <v>15</v>
@@ -10092,7 +10127,7 @@
         <v>11</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E221" s="1" t="s">
         <v>28</v>
@@ -10110,7 +10145,7 @@
         <v>16</v>
       </c>
       <c r="J221" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="222" spans="1:10" hidden="1">
@@ -10124,7 +10159,7 @@
         <v>11</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E222" s="1" t="s">
         <v>28</v>
@@ -10153,7 +10188,7 @@
         <v>11</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E223" s="1" t="s">
         <v>28</v>
@@ -10171,7 +10206,7 @@
         <v>16</v>
       </c>
       <c r="J223" s="3" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="224" spans="1:10" hidden="1">
@@ -10185,7 +10220,7 @@
         <v>11</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E224" s="1" t="s">
         <v>28</v>
@@ -10215,7 +10250,7 @@
         <v>11</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E225" s="1" t="s">
         <v>21</v>
@@ -10233,7 +10268,7 @@
         <v>16</v>
       </c>
       <c r="J225" s="7" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
     </row>
     <row r="226" spans="1:10" hidden="1">
@@ -10247,7 +10282,7 @@
         <v>11</v>
       </c>
       <c r="D226" s="4" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E226" s="1" t="s">
         <v>28</v>
@@ -10279,7 +10314,7 @@
         <v>11</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E227" s="1" t="s">
         <v>28</v>
@@ -10297,7 +10332,7 @@
         <v>16</v>
       </c>
       <c r="J227" s="3" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="228" spans="1:10" hidden="1">
@@ -10311,7 +10346,7 @@
         <v>11</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E228" s="1" t="s">
         <v>28</v>
@@ -10329,7 +10364,7 @@
         <v>16</v>
       </c>
       <c r="J228" s="3" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="229" spans="1:10" hidden="1">
@@ -10343,7 +10378,7 @@
         <v>11</v>
       </c>
       <c r="D229" s="4" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E229" s="1" t="s">
         <v>28</v>
@@ -10361,7 +10396,7 @@
         <v>16</v>
       </c>
       <c r="J229" s="8" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="230" spans="1:10" hidden="1">
@@ -10369,19 +10404,19 @@
         <v>229</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D230" s="14" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E230" s="14" t="s">
         <v>13</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="G230" s="15" t="s">
         <v>15</v>
@@ -10393,25 +10428,27 @@
         <v>16</v>
       </c>
       <c r="J230" s="8" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="231" spans="1:10" hidden="1">
-      <c r="A231" s="14"/>
+      <c r="A231" s="4">
+        <v>230</v>
+      </c>
       <c r="B231" s="2" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="E231" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="G231" s="2" t="s">
         <v>15</v>
@@ -10420,28 +10457,28 @@
         <v>45797</v>
       </c>
       <c r="I231" s="9" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="J231" s="24"/>
     </row>
     <row r="232" spans="1:10" hidden="1">
       <c r="A232" s="4">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="C232" s="15" t="s">
         <v>11</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="E232" s="14" t="s">
         <v>13</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="G232" s="15" t="s">
         <v>15</v>
@@ -10453,21 +10490,21 @@
         <v>16</v>
       </c>
       <c r="J232" s="8" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="233" spans="1:10" hidden="1">
       <c r="A233" s="4">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E233" s="1" t="s">
         <v>28</v>
@@ -10485,21 +10522,21 @@
         <v>16</v>
       </c>
       <c r="J233" s="3" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="234" spans="1:10" hidden="1">
       <c r="A234" s="4">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E234" s="1" t="s">
         <v>28</v>
@@ -10517,21 +10554,21 @@
         <v>16</v>
       </c>
       <c r="J234" s="3" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="235" spans="1:10" hidden="1">
       <c r="A235" s="4">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E235" s="1" t="s">
         <v>28</v>
@@ -10549,12 +10586,12 @@
         <v>16</v>
       </c>
       <c r="J235" s="3" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="236" spans="1:10" hidden="1">
       <c r="A236" s="4">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B236" s="2" t="s">
         <v>48</v>
@@ -10569,7 +10606,7 @@
         <v>21</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G236" s="2" t="s">
         <v>21</v>
@@ -10581,21 +10618,21 @@
         <v>16</v>
       </c>
       <c r="J236" s="3" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="237" spans="1:10" hidden="1">
       <c r="A237" s="4">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E237" s="1" t="s">
         <v>28</v>
@@ -10615,22 +10652,22 @@
     </row>
     <row r="238" spans="1:10" hidden="1">
       <c r="A238" s="4">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>107</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G238" s="5" t="s">
         <v>15</v>
@@ -10644,16 +10681,16 @@
     </row>
     <row r="239" spans="1:10" hidden="1">
       <c r="A239" s="4">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>107</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E239" s="1" t="s">
         <v>194</v>
@@ -10671,21 +10708,21 @@
         <v>16</v>
       </c>
       <c r="J239" s="3" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="240" spans="1:10" hidden="1">
       <c r="A240" s="4">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E240" s="1" t="s">
         <v>28</v>
@@ -10703,12 +10740,12 @@
         <v>16</v>
       </c>
       <c r="J240" s="3" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="241" spans="1:10" hidden="1">
       <c r="A241" s="4">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>36</v>
@@ -10717,13 +10754,13 @@
         <v>11</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E241" s="1" t="s">
         <v>198</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G241" s="2" t="s">
         <v>40</v>
@@ -10732,12 +10769,12 @@
         <v>16</v>
       </c>
       <c r="J241" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="242" spans="1:10" hidden="1">
       <c r="A242" s="4">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B242" s="10" t="s">
         <v>36</v>
@@ -10746,13 +10783,13 @@
         <v>11</v>
       </c>
       <c r="D242" s="20" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="E242" s="1" t="s">
         <v>198</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G242" s="2" t="s">
         <v>40</v>
@@ -10764,12 +10801,12 @@
         <v>16</v>
       </c>
       <c r="J242" s="3" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
     </row>
     <row r="243" spans="1:10" hidden="1">
       <c r="A243" s="4">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B243" s="10" t="s">
         <v>36</v>
@@ -10778,13 +10815,13 @@
         <v>11</v>
       </c>
       <c r="D243" s="20" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E243" s="1" t="s">
         <v>198</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G243" s="2" t="s">
         <v>40</v>
@@ -10798,7 +10835,7 @@
     </row>
     <row r="244" spans="1:10" hidden="1">
       <c r="A244" s="4">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B244" s="10" t="s">
         <v>36</v>
@@ -10807,13 +10844,13 @@
         <v>11</v>
       </c>
       <c r="D244" s="20" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E244" s="1" t="s">
         <v>198</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="G244" s="2" t="s">
         <v>40</v>
@@ -10822,19 +10859,21 @@
         <v>16</v>
       </c>
       <c r="J244" s="3" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="245" spans="1:10" hidden="1">
-      <c r="A245" s="14"/>
+      <c r="A245" s="4">
+        <v>244</v>
+      </c>
       <c r="B245" s="10" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>107</v>
       </c>
       <c r="D245" s="25" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="E245" s="1" t="s">
         <v>194</v>
@@ -10853,22 +10892,22 @@
     </row>
     <row r="246" spans="1:10" hidden="1">
       <c r="A246" s="4">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B246" s="10" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>107</v>
       </c>
       <c r="D246" s="20" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E246" s="1" t="s">
         <v>198</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G246" s="5" t="s">
         <v>40</v>
@@ -10879,7 +10918,7 @@
     </row>
     <row r="247" spans="1:10" hidden="1">
       <c r="A247" s="4">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B247" s="2" t="s">
         <v>122</v>
@@ -10888,13 +10927,13 @@
         <v>107</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E247" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="G247" s="5" t="s">
         <v>15</v>
@@ -10906,27 +10945,27 @@
         <v>16</v>
       </c>
       <c r="J247" s="3" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="248" spans="1:10">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" hidden="1">
       <c r="A248" s="4">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>107</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E248" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G248" s="5" t="s">
         <v>15</v>
@@ -10938,12 +10977,12 @@
         <v>16</v>
       </c>
       <c r="J248" s="3" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="249" spans="1:10" hidden="1">
       <c r="A249" s="4">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B249" s="2" t="s">
         <v>42</v>
@@ -10952,7 +10991,7 @@
         <v>11</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E249" s="1" t="s">
         <v>28</v>
@@ -10970,24 +11009,24 @@
         <v>16</v>
       </c>
       <c r="J249" s="3" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="250" spans="1:10" hidden="1">
       <c r="A250" s="4">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="E250" s="1" t="s">
-        <v>28</v>
+        <v>513</v>
+      </c>
+      <c r="E250" s="26" t="s">
+        <v>194</v>
       </c>
       <c r="F250" s="1" t="s">
         <v>32</v>
@@ -11002,21 +11041,21 @@
         <v>16</v>
       </c>
       <c r="J250" s="3" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="251" spans="1:10" hidden="1">
       <c r="A251" s="4">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E251" s="1" t="s">
         <v>38</v>
@@ -11034,21 +11073,21 @@
         <v>212</v>
       </c>
       <c r="J251" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="252" spans="1:10" hidden="1">
       <c r="A252" s="4">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E252" s="1" t="s">
         <v>194</v>
@@ -11066,21 +11105,21 @@
         <v>212</v>
       </c>
       <c r="J252" s="3" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
     </row>
     <row r="253" spans="1:10" hidden="1">
       <c r="A253" s="4">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E253" s="1" t="s">
         <v>38</v>
@@ -11098,21 +11137,21 @@
         <v>16</v>
       </c>
       <c r="J253" s="3" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="254" spans="1:10" hidden="1">
       <c r="A254" s="4">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D254" s="18" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E254" s="1" t="s">
         <v>38</v>
@@ -11130,12 +11169,12 @@
         <v>212</v>
       </c>
       <c r="J254" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="255" spans="1:10" hidden="1">
       <c r="A255" s="4">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>42</v>
@@ -11144,7 +11183,7 @@
         <v>11</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E255" s="1" t="s">
         <v>28</v>
@@ -11162,12 +11201,12 @@
         <v>16</v>
       </c>
       <c r="J255" s="3" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="256" spans="1:10" hidden="1">
       <c r="A256" s="4">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B256" s="2" t="s">
         <v>42</v>
@@ -11176,13 +11215,13 @@
         <v>11</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E256" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="G256" s="5" t="s">
         <v>15</v>
@@ -11194,21 +11233,21 @@
         <v>16</v>
       </c>
       <c r="J256" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="257" spans="1:10" hidden="1">
       <c r="A257" s="4">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>107</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E257" s="1" t="s">
         <v>28</v>
@@ -11226,27 +11265,27 @@
         <v>16</v>
       </c>
       <c r="J257" s="3" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
     </row>
     <row r="258" spans="1:10" hidden="1">
       <c r="A258" s="4">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B258" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F258" s="1" t="s">
         <v>530</v>
-      </c>
-      <c r="C258" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D258" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="E258" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F258" s="1" t="s">
-        <v>532</v>
       </c>
       <c r="G258" s="5" t="s">
         <v>15</v>
@@ -11258,21 +11297,21 @@
         <v>16</v>
       </c>
       <c r="J258" s="3" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="259" spans="1:10" hidden="1">
       <c r="A259" s="4">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>107</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E259" s="1" t="s">
         <v>13</v>
@@ -11290,12 +11329,12 @@
         <v>16</v>
       </c>
       <c r="J259" s="3" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="260" spans="1:10" hidden="1">
       <c r="A260" s="4">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B260" s="2" t="s">
         <v>122</v>
@@ -11304,27 +11343,30 @@
         <v>107</v>
       </c>
       <c r="D260" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="E260" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F260" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="G260" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H260" s="9">
+        <v>45813</v>
+      </c>
+      <c r="I260" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J260" s="3" t="s">
         <v>536</v>
-      </c>
-      <c r="E260" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F260" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="G260" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I260" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J260" s="3" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="261" spans="1:10" hidden="1">
       <c r="A261" s="4">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B261" s="2" t="s">
         <v>42</v>
@@ -11333,7 +11375,7 @@
         <v>11</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E261" s="1" t="s">
         <v>28</v>
@@ -11351,12 +11393,12 @@
         <v>16</v>
       </c>
       <c r="J261" s="3" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="262" spans="1:10" hidden="1">
       <c r="A262" s="4">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B262" s="2" t="s">
         <v>78</v>
@@ -11365,7 +11407,7 @@
         <v>11</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E262" s="1" t="s">
         <v>28</v>
@@ -11383,27 +11425,27 @@
         <v>16</v>
       </c>
       <c r="J262" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="263" spans="1:10" hidden="1">
       <c r="A263" s="4">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="G263" s="2" t="s">
         <v>15</v>
@@ -11415,27 +11457,27 @@
         <v>16</v>
       </c>
       <c r="J263" s="3" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="264" spans="1:10">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" hidden="1">
       <c r="A264" s="4">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B264" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D264" s="1" t="s">
         <v>543</v>
-      </c>
-      <c r="C264" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D264" s="1" t="s">
-        <v>546</v>
       </c>
       <c r="E264" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="G264" s="2" t="s">
         <v>15</v>
@@ -11447,21 +11489,21 @@
         <v>16</v>
       </c>
       <c r="J264" s="3" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="265" spans="1:10" hidden="1">
       <c r="A265" s="4">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="E265" s="1" t="s">
         <v>28</v>
@@ -11479,27 +11521,27 @@
         <v>16</v>
       </c>
       <c r="J265" s="3" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="266" spans="1:10">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" hidden="1">
       <c r="A266" s="4">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="E266" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F266" s="1" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="G266" s="2" t="s">
         <v>15</v>
@@ -11511,27 +11553,27 @@
         <v>16</v>
       </c>
       <c r="J266" s="3" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" hidden="1">
+      <c r="A267" s="4">
+        <v>266</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D267" s="1" t="s">
         <v>550</v>
-      </c>
-    </row>
-    <row r="267" spans="1:10">
-      <c r="A267" s="4">
-        <v>264</v>
-      </c>
-      <c r="B267" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="C267" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D267" s="1" t="s">
-        <v>553</v>
       </c>
       <c r="E267" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F267" s="1" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="G267" s="2" t="s">
         <v>15</v>
@@ -11543,27 +11585,27 @@
         <v>16</v>
       </c>
       <c r="J267" s="3" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="268" spans="1:10">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" hidden="1">
       <c r="A268" s="4">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="E268" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>545</v>
+        <v>790</v>
       </c>
       <c r="G268" s="2" t="s">
         <v>15</v>
@@ -11575,27 +11617,27 @@
         <v>16</v>
       </c>
       <c r="J268" s="3" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="269" spans="1:10">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" hidden="1">
       <c r="A269" s="4">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="E269" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="G269" s="2" t="s">
         <v>15</v>
@@ -11607,27 +11649,27 @@
         <v>16</v>
       </c>
       <c r="J269" s="3" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="270" spans="1:10">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" hidden="1">
       <c r="A270" s="4">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="E270" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F270" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="G270" s="2" t="s">
         <v>15</v>
@@ -11639,27 +11681,27 @@
         <v>16</v>
       </c>
       <c r="J270" s="3" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" hidden="1">
+      <c r="A271" s="4">
+        <v>270</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D271" s="1" t="s">
         <v>560</v>
-      </c>
-    </row>
-    <row r="271" spans="1:10">
-      <c r="A271" s="4">
-        <v>268</v>
-      </c>
-      <c r="B271" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="C271" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D271" s="1" t="s">
-        <v>563</v>
       </c>
       <c r="E271" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F271" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="G271" s="2" t="s">
         <v>15</v>
@@ -11671,27 +11713,27 @@
         <v>16</v>
       </c>
       <c r="J271" s="3" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="272" spans="1:10">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" hidden="1">
       <c r="A272" s="4">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="E272" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F272" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="G272" s="2" t="s">
         <v>15</v>
@@ -11703,27 +11745,27 @@
         <v>16</v>
       </c>
       <c r="J272" s="3" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="273" spans="1:10">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" hidden="1">
       <c r="A273" s="4">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="E273" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F273" s="1" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="G273" s="2" t="s">
         <v>15</v>
@@ -11735,27 +11777,27 @@
         <v>16</v>
       </c>
       <c r="J273" s="3" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="274" spans="1:10">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" hidden="1">
       <c r="A274" s="4">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="E274" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="G274" s="2" t="s">
         <v>15</v>
@@ -11767,27 +11809,27 @@
         <v>16</v>
       </c>
       <c r="J274" s="3" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="275" spans="1:10">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" hidden="1">
       <c r="A275" s="4">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="E275" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F275" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G275" s="2" t="s">
         <v>15</v>
@@ -11799,27 +11841,27 @@
         <v>16</v>
       </c>
       <c r="J275" s="3" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="276" spans="1:10">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" hidden="1">
       <c r="A276" s="4">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="E276" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F276" s="1" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="G276" s="2" t="s">
         <v>15</v>
@@ -11831,27 +11873,27 @@
         <v>16</v>
       </c>
       <c r="J276" s="3" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="277" spans="1:10">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" hidden="1">
       <c r="A277" s="4">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="E277" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F277" s="1" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="G277" s="2" t="s">
         <v>15</v>
@@ -11863,27 +11905,27 @@
         <v>16</v>
       </c>
       <c r="J277" s="3" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" hidden="1">
+      <c r="A278" s="4">
+        <v>277</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D278" s="1" t="s">
         <v>576</v>
-      </c>
-    </row>
-    <row r="278" spans="1:10">
-      <c r="A278" s="4">
-        <v>275</v>
-      </c>
-      <c r="B278" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="C278" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D278" s="1" t="s">
-        <v>579</v>
       </c>
       <c r="E278" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F278" s="1" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="G278" s="2" t="s">
         <v>15</v>
@@ -11895,27 +11937,27 @@
         <v>16</v>
       </c>
       <c r="J278" s="3" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="279" spans="1:10">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" hidden="1">
       <c r="A279" s="4">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="E279" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F279" s="1" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="G279" s="2" t="s">
         <v>15</v>
@@ -11927,27 +11969,27 @@
         <v>16</v>
       </c>
       <c r="J279" s="3" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="280" spans="1:10">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" hidden="1">
       <c r="A280" s="4">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D280" s="21" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="E280" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F280" s="4" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="G280" s="2" t="s">
         <v>15</v>
@@ -11959,27 +12001,27 @@
         <v>16</v>
       </c>
       <c r="J280" s="3" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="281" spans="1:10">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" hidden="1">
       <c r="A281" s="4">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="E281" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F281" s="1" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="G281" s="2" t="s">
         <v>15</v>
@@ -11991,27 +12033,27 @@
         <v>16</v>
       </c>
       <c r="J281" s="3" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" hidden="1">
+      <c r="A282" s="4">
+        <v>281</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D282" s="1" t="s">
         <v>585</v>
-      </c>
-    </row>
-    <row r="282" spans="1:10">
-      <c r="A282" s="4">
-        <v>279</v>
-      </c>
-      <c r="B282" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="C282" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D282" s="1" t="s">
-        <v>588</v>
       </c>
       <c r="E282" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F282" s="4" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="G282" s="2" t="s">
         <v>15</v>
@@ -12023,27 +12065,27 @@
         <v>16</v>
       </c>
       <c r="J282" s="3" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="283" spans="1:10">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" hidden="1">
       <c r="A283" s="4">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="E283" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F283" s="1" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="G283" s="2" t="s">
         <v>15</v>
@@ -12055,27 +12097,27 @@
         <v>16</v>
       </c>
       <c r="J283" s="3" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="284" spans="1:10" hidden="1">
       <c r="A284" s="4">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F284" s="1" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="G284" s="2" t="s">
         <v>15</v>
@@ -12084,30 +12126,30 @@
         <v>45607</v>
       </c>
       <c r="I284" s="9" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="J284" s="3" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="285" spans="1:10" hidden="1">
       <c r="A285" s="4">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F285" s="1" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="G285" s="2" t="s">
         <v>15</v>
@@ -12116,30 +12158,30 @@
         <v>45607</v>
       </c>
       <c r="I285" s="9" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="J285" s="3" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="286" spans="1:10" hidden="1">
       <c r="A286" s="4">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F286" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="G286" s="2" t="s">
         <v>15</v>
@@ -12148,30 +12190,30 @@
         <v>45607</v>
       </c>
       <c r="I286" s="9" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="J286" s="3" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="287" spans="1:10" hidden="1">
       <c r="A287" s="4">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F287" s="1" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="G287" s="2" t="s">
         <v>15</v>
@@ -12180,30 +12222,30 @@
         <v>45614</v>
       </c>
       <c r="I287" s="9" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="J287" s="3" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="288" spans="1:10" hidden="1">
       <c r="A288" s="4">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F288" s="1" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="G288" s="2" t="s">
         <v>15</v>
@@ -12212,30 +12254,30 @@
         <v>45614</v>
       </c>
       <c r="I288" s="9" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="J288" s="3" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="289" spans="1:10" hidden="1">
       <c r="A289" s="4">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F289" s="1" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="G289" s="2" t="s">
         <v>15</v>
@@ -12244,30 +12286,30 @@
         <v>45615</v>
       </c>
       <c r="I289" s="9" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="J289" s="3" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="290" spans="1:10" hidden="1">
       <c r="A290" s="4">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F290" s="1" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="G290" s="2" t="s">
         <v>15</v>
@@ -12276,30 +12318,30 @@
         <v>45615</v>
       </c>
       <c r="I290" s="9" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="J290" s="3" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="291" spans="1:10" hidden="1">
       <c r="A291" s="4">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F291" s="1" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="G291" s="2" t="s">
         <v>15</v>
@@ -12308,30 +12350,30 @@
         <v>45615</v>
       </c>
       <c r="I291" s="9" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="J291" s="3" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="292" spans="1:10" hidden="1">
       <c r="A292" s="4">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F292" s="1" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="G292" s="2" t="s">
         <v>15</v>
@@ -12340,30 +12382,30 @@
         <v>45617</v>
       </c>
       <c r="I292" s="9" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="J292" s="3" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="293" spans="1:10" hidden="1">
       <c r="A293" s="4">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F293" s="1" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="G293" s="2" t="s">
         <v>15</v>
@@ -12372,30 +12414,30 @@
         <v>45617</v>
       </c>
       <c r="I293" s="9" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="J293" s="3" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
     </row>
     <row r="294" spans="1:10" hidden="1">
       <c r="A294" s="4">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F294" s="1" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="G294" s="2" t="s">
         <v>15</v>
@@ -12404,30 +12446,30 @@
         <v>45618</v>
       </c>
       <c r="I294" s="9" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="J294" s="3" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="295" spans="1:10" hidden="1">
       <c r="A295" s="4">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F295" s="1" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="G295" s="2" t="s">
         <v>15</v>
@@ -12436,30 +12478,30 @@
         <v>45621</v>
       </c>
       <c r="I295" s="9" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="J295" s="3" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="296" spans="1:10" hidden="1">
       <c r="A296" s="4">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F296" s="1" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="G296" s="2" t="s">
         <v>15</v>
@@ -12468,30 +12510,30 @@
         <v>45621</v>
       </c>
       <c r="I296" s="9" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="J296" s="3" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="297" spans="1:10" hidden="1">
       <c r="A297" s="4">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="E297" s="1" t="s">
         <v>98</v>
       </c>
       <c r="F297" s="1" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="G297" s="2" t="s">
         <v>15</v>
@@ -12503,21 +12545,21 @@
         <v>100</v>
       </c>
       <c r="J297" s="3" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="298" spans="1:10" hidden="1">
       <c r="A298" s="4">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="E298" s="1" t="s">
         <v>28</v>
@@ -12535,27 +12577,27 @@
         <v>16</v>
       </c>
       <c r="J298" s="3" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="299" spans="1:10" hidden="1">
       <c r="A299" s="4">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="E299" s="1" t="s">
         <v>98</v>
       </c>
       <c r="F299" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="G299" s="2" t="s">
         <v>15</v>
@@ -12567,21 +12609,21 @@
         <v>100</v>
       </c>
       <c r="J299" s="3" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="300" spans="1:10" hidden="1">
       <c r="A300" s="4">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="E300" s="1" t="s">
         <v>28</v>
@@ -12599,27 +12641,27 @@
         <v>100</v>
       </c>
       <c r="J300" s="3" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
     </row>
     <row r="301" spans="1:10" hidden="1">
       <c r="A301" s="4">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="E301" s="1" t="s">
         <v>98</v>
       </c>
       <c r="F301" s="1" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G301" s="2" t="s">
         <v>15</v>
@@ -12631,27 +12673,27 @@
         <v>100</v>
       </c>
       <c r="J301" s="3" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="302" spans="1:10" hidden="1">
       <c r="A302" s="4">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="E302" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F302" s="1" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="G302" s="2" t="s">
         <v>15</v>
@@ -12663,27 +12705,27 @@
         <v>16</v>
       </c>
       <c r="J302" s="3" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
     </row>
     <row r="303" spans="1:10" hidden="1">
       <c r="A303" s="4">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="E303" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F303" s="1" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="G303" s="2" t="s">
         <v>15</v>
@@ -12695,27 +12737,27 @@
         <v>16</v>
       </c>
       <c r="J303" s="3" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
     </row>
     <row r="304" spans="1:10" hidden="1">
       <c r="A304" s="4">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="E304" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F304" s="1" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="G304" s="2" t="s">
         <v>15</v>
@@ -12727,27 +12769,27 @@
         <v>16</v>
       </c>
       <c r="J304" s="3" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="305" spans="1:10" hidden="1">
       <c r="A305" s="4">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="E305" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F305" s="1" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="G305" s="2" t="s">
         <v>15</v>
@@ -12759,27 +12801,27 @@
         <v>16</v>
       </c>
       <c r="J305" s="3" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="306" spans="1:10" hidden="1">
       <c r="A306" s="4">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="E306" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F306" s="1" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="G306" s="2" t="s">
         <v>15</v>
@@ -12791,27 +12833,27 @@
         <v>16</v>
       </c>
       <c r="J306" s="3" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="307" spans="1:10" hidden="1">
       <c r="A307" s="4">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="E307" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F307" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G307" s="2" t="s">
         <v>15</v>
@@ -12823,27 +12865,27 @@
         <v>16</v>
       </c>
       <c r="J307" s="3" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
     </row>
     <row r="308" spans="1:10" hidden="1">
       <c r="A308" s="4">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="E308" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F308" s="1" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="G308" s="2" t="s">
         <v>15</v>
@@ -12855,27 +12897,27 @@
         <v>16</v>
       </c>
       <c r="J308" s="3" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
     </row>
     <row r="309" spans="1:10" hidden="1">
       <c r="A309" s="4">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="E309" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F309" s="1" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="G309" s="2" t="s">
         <v>15</v>
@@ -12887,27 +12929,27 @@
         <v>16</v>
       </c>
       <c r="J309" s="3" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
     </row>
     <row r="310" spans="1:10" hidden="1">
       <c r="A310" s="4">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="E310" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F310" s="1" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="G310" s="2" t="s">
         <v>15</v>
@@ -12919,27 +12961,27 @@
         <v>16</v>
       </c>
       <c r="J310" s="3" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="311" spans="1:10">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" hidden="1">
       <c r="A311" s="4">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="E311" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F311" s="1" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="G311" s="2" t="s">
         <v>15</v>
@@ -12951,21 +12993,21 @@
         <v>16</v>
       </c>
       <c r="J311" s="3" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="312" spans="1:10" hidden="1">
       <c r="A312" s="4">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="E312" s="1" t="s">
         <v>28</v>
@@ -12983,27 +13025,27 @@
         <v>16</v>
       </c>
       <c r="J312" s="3" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="313" spans="1:10">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" hidden="1">
       <c r="A313" s="4">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="E313" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F313" s="1" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="G313" s="2" t="s">
         <v>15</v>
@@ -13012,30 +13054,30 @@
         <v>45702</v>
       </c>
       <c r="I313" s="9" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="J313" s="3" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="314" spans="1:10">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" hidden="1">
       <c r="A314" s="4">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="E314" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F314" s="1" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="G314" s="2" t="s">
         <v>15</v>
@@ -13044,30 +13086,30 @@
         <v>45702</v>
       </c>
       <c r="I314" s="9" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="J314" s="3" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="315" spans="1:10" hidden="1">
+      <c r="A315" s="4">
+        <v>314</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="C315" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D315" s="1" t="s">
         <v>664</v>
-      </c>
-    </row>
-    <row r="315" spans="1:10">
-      <c r="A315" s="4">
-        <v>312</v>
-      </c>
-      <c r="B315" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="C315" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D315" s="1" t="s">
-        <v>667</v>
       </c>
       <c r="E315" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F315" s="1" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="G315" s="2" t="s">
         <v>15</v>
@@ -13076,30 +13118,30 @@
         <v>45702</v>
       </c>
       <c r="I315" s="9" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="J315" s="3" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="316" spans="1:10">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" hidden="1">
       <c r="A316" s="4">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="E316" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F316" s="1" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="G316" s="2" t="s">
         <v>15</v>
@@ -13111,27 +13153,27 @@
         <v>16</v>
       </c>
       <c r="J316" s="3" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="317" spans="1:10">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10" hidden="1">
       <c r="A317" s="4">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="E317" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F317" s="1" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="G317" s="2" t="s">
         <v>15</v>
@@ -13140,30 +13182,30 @@
         <v>45726</v>
       </c>
       <c r="I317" s="9" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="J317" s="3" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="318" spans="1:10">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10" hidden="1">
       <c r="A318" s="4">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="E318" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F318" s="1" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="G318" s="2" t="s">
         <v>15</v>
@@ -13172,30 +13214,30 @@
         <v>45726</v>
       </c>
       <c r="I318" s="9" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="J318" s="3" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="319" spans="1:10">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10" hidden="1">
       <c r="A319" s="4">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="E319" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F319" s="1" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="G319" s="2" t="s">
         <v>15</v>
@@ -13204,30 +13246,30 @@
         <v>45726</v>
       </c>
       <c r="I319" s="9" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="J319" s="3" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="320" spans="1:10">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="320" spans="1:10" hidden="1">
       <c r="A320" s="4">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="E320" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F320" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G320" s="2" t="s">
         <v>15</v>
@@ -13239,59 +13281,59 @@
         <v>16</v>
       </c>
       <c r="J320" s="3" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
     </row>
     <row r="321" spans="1:10" hidden="1">
       <c r="A321" s="4">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>673</v>
+        <v>787</v>
       </c>
       <c r="E321" s="1" t="s">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="F321" s="1" t="s">
-        <v>674</v>
+        <v>788</v>
       </c>
       <c r="G321" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H321" s="9">
-        <v>45653</v>
+        <v>45817</v>
       </c>
       <c r="I321" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J321" s="3" t="s">
-        <v>675</v>
+        <v>789</v>
       </c>
     </row>
     <row r="322" spans="1:10" hidden="1">
       <c r="A322" s="4">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="E322" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F322" s="1" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="G322" s="2" t="s">
         <v>15</v>
@@ -13303,27 +13345,27 @@
         <v>16</v>
       </c>
       <c r="J322" s="3" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="323" spans="1:10" hidden="1">
       <c r="A323" s="4">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="E323" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F323" s="1" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="G323" s="2" t="s">
         <v>15</v>
@@ -13335,27 +13377,27 @@
         <v>16</v>
       </c>
       <c r="J323" s="3" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="324" spans="1:10" hidden="1">
       <c r="A324" s="4">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="E324" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F324" s="1" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="G324" s="2" t="s">
         <v>15</v>
@@ -13367,27 +13409,27 @@
         <v>16</v>
       </c>
       <c r="J324" s="3" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="325" spans="1:10" hidden="1">
       <c r="A325" s="4">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="E325" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F325" s="1" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="G325" s="2" t="s">
         <v>15</v>
@@ -13399,27 +13441,27 @@
         <v>16</v>
       </c>
       <c r="J325" s="3" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="326" spans="1:10" hidden="1">
       <c r="A326" s="4">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="E326" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F326" s="1" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="G326" s="2" t="s">
         <v>15</v>
@@ -13431,27 +13473,27 @@
         <v>16</v>
       </c>
       <c r="J326" s="3" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="327" spans="1:10" hidden="1">
       <c r="A327" s="4">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="E327" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F327" s="1" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="G327" s="2" t="s">
         <v>15</v>
@@ -13463,27 +13505,27 @@
         <v>16</v>
       </c>
       <c r="J327" s="3" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="328" spans="1:10" hidden="1">
       <c r="A328" s="4">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="E328" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F328" s="1" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="G328" s="2" t="s">
         <v>15</v>
@@ -13495,27 +13537,27 @@
         <v>16</v>
       </c>
       <c r="J328" s="3" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="329" spans="1:10" hidden="1">
       <c r="A329" s="4">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="E329" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F329" s="1" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="G329" s="2" t="s">
         <v>15</v>
@@ -13527,27 +13569,27 @@
         <v>16</v>
       </c>
       <c r="J329" s="3" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="330" spans="1:10" hidden="1">
       <c r="A330" s="4">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="E330" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F330" s="1" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="G330" s="2" t="s">
         <v>15</v>
@@ -13559,27 +13601,27 @@
         <v>16</v>
       </c>
       <c r="J330" s="3" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="331" spans="1:10" hidden="1">
       <c r="A331" s="4">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="E331" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F331" s="1" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="G331" s="2" t="s">
         <v>15</v>
@@ -13591,27 +13633,27 @@
         <v>16</v>
       </c>
       <c r="J331" s="3" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="332" spans="1:10" hidden="1">
       <c r="A332" s="4">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="E332" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F332" s="1" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="G332" s="2" t="s">
         <v>15</v>
@@ -13623,27 +13665,27 @@
         <v>16</v>
       </c>
       <c r="J332" s="3" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="333" spans="1:10" hidden="1">
       <c r="A333" s="4">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="E333" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F333" s="1" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="G333" s="2" t="s">
         <v>15</v>
@@ -13655,27 +13697,27 @@
         <v>16</v>
       </c>
       <c r="J333" s="3" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="334" spans="1:10" hidden="1">
       <c r="A334" s="4">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="E334" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F334" s="1" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="G334" s="2" t="s">
         <v>15</v>
@@ -13687,27 +13729,27 @@
         <v>16</v>
       </c>
       <c r="J334" s="3" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="335" spans="1:10" hidden="1">
       <c r="A335" s="4">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="E335" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F335" s="1" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="G335" s="2" t="s">
         <v>15</v>
@@ -13719,27 +13761,27 @@
         <v>16</v>
       </c>
       <c r="J335" s="3" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="336" spans="1:10" hidden="1">
       <c r="A336" s="4">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="E336" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F336" s="1" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="G336" s="2" t="s">
         <v>15</v>
@@ -13751,27 +13793,27 @@
         <v>16</v>
       </c>
       <c r="J336" s="3" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="337" spans="1:10" hidden="1">
       <c r="A337" s="4">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="E337" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F337" s="1" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="G337" s="2" t="s">
         <v>15</v>
@@ -13783,27 +13825,27 @@
         <v>16</v>
       </c>
       <c r="J337" s="3" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="338" spans="1:10" hidden="1">
       <c r="A338" s="4">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="E338" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F338" s="1" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="G338" s="2" t="s">
         <v>15</v>
@@ -13815,27 +13857,27 @@
         <v>16</v>
       </c>
       <c r="J338" s="3" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="339" spans="1:10" hidden="1">
       <c r="A339" s="4">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C339" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="E339" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F339" s="1" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="G339" s="2" t="s">
         <v>15</v>
@@ -13847,27 +13889,27 @@
         <v>16</v>
       </c>
       <c r="J339" s="3" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="340" spans="1:10" hidden="1">
       <c r="A340" s="4">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B340" s="15" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C340" s="15" t="s">
         <v>11</v>
       </c>
       <c r="D340" s="14" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="E340" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F340" s="1" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="G340" s="15" t="s">
         <v>15</v>
@@ -13879,27 +13921,27 @@
         <v>16</v>
       </c>
       <c r="J340" s="3" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="341" spans="1:10">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="341" spans="1:10" hidden="1">
       <c r="A341" s="4">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B341" s="15" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C341" s="15" t="s">
         <v>11</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="E341" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F341" s="1" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="G341" s="15" t="s">
         <v>15</v>
@@ -13911,20 +13953,11 @@
         <v>16</v>
       </c>
       <c r="J341" s="3" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="342" spans="1:10" hidden="1">
-      <c r="A342" s="14"/>
-      <c r="B342" s="15"/>
-      <c r="C342" s="15"/>
-      <c r="D342" s="14"/>
-      <c r="E342" s="14"/>
-      <c r="F342" s="14"/>
-      <c r="G342" s="15"/>
-      <c r="H342" s="14"/>
-      <c r="I342" s="16"/>
-      <c r="J342" s="17"/>
+        <v>743</v>
+      </c>
+    </row>
+    <row r="342" spans="1:10">
+      <c r="E342" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -13965,8 +13998,8 @@
   <conditionalFormatting sqref="D341">
     <cfRule type="duplicateValues" dxfId="14" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D342">
-    <cfRule type="duplicateValues" dxfId="13" priority="32"/>
+  <conditionalFormatting sqref="D2:D341">
+    <cfRule type="duplicateValues" dxfId="13" priority="42"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13995,33 +14028,33 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="B1" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="E1" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="F1" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="B2" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="C2" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D2">
         <v>1885</v>
@@ -14032,13 +14065,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="B3" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="C3" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D3">
         <v>1880</v>
@@ -14049,13 +14082,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="B4" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="C4" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D4">
         <v>1881</v>
@@ -14066,13 +14099,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="B5" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="C5" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D5">
         <v>1890</v>
@@ -14083,13 +14116,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="B6" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="C6" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D6">
         <v>1878</v>
@@ -14100,13 +14133,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="B7" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="C7" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D7">
         <v>1883</v>
@@ -14117,16 +14150,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
+        <v>678</v>
+      </c>
+      <c r="B8" t="s">
+        <v>679</v>
+      </c>
+      <c r="C8" t="s">
+        <v>680</v>
+      </c>
+      <c r="D8" s="23" t="s">
         <v>681</v>
-      </c>
-      <c r="B8" t="s">
-        <v>682</v>
-      </c>
-      <c r="C8" t="s">
-        <v>683</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>684</v>
       </c>
       <c r="F8" s="22">
         <v>1</v>
@@ -14134,13 +14167,13 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="B9" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="C9" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D9">
         <v>1889</v>
@@ -14151,13 +14184,13 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="B10" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="C10" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D10">
         <v>1879</v>
@@ -14168,13 +14201,13 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="B11" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="C11" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D11">
         <v>1891</v>
@@ -14185,13 +14218,13 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="B12" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="C12" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D12">
         <v>1891</v>
@@ -14202,16 +14235,16 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="B13" t="s">
+        <v>679</v>
+      </c>
+      <c r="C13" t="s">
+        <v>680</v>
+      </c>
+      <c r="D13" s="23" t="s">
         <v>682</v>
-      </c>
-      <c r="C13" t="s">
-        <v>683</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>685</v>
       </c>
       <c r="F13" s="22">
         <v>1</v>
@@ -14219,13 +14252,13 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="B14" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="C14" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D14">
         <v>1894</v>
@@ -14236,19 +14269,19 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
+        <v>683</v>
+      </c>
+      <c r="B15" t="s">
+        <v>684</v>
+      </c>
+      <c r="C15" t="s">
+        <v>685</v>
+      </c>
+      <c r="D15" t="s">
         <v>686</v>
       </c>
-      <c r="B15" t="s">
+      <c r="E15" t="s">
         <v>687</v>
-      </c>
-      <c r="C15" t="s">
-        <v>688</v>
-      </c>
-      <c r="D15" t="s">
-        <v>689</v>
-      </c>
-      <c r="E15" t="s">
-        <v>690</v>
       </c>
       <c r="F15" s="22">
         <v>17</v>
@@ -14256,19 +14289,19 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
+        <v>683</v>
+      </c>
+      <c r="B16" t="s">
+        <v>688</v>
+      </c>
+      <c r="C16" t="s">
+        <v>689</v>
+      </c>
+      <c r="D16" t="s">
         <v>686</v>
       </c>
-      <c r="B16" t="s">
-        <v>691</v>
-      </c>
-      <c r="C16" t="s">
-        <v>692</v>
-      </c>
-      <c r="D16" t="s">
-        <v>689</v>
-      </c>
       <c r="E16" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="F16" s="22">
         <v>4</v>
@@ -14276,19 +14309,19 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="B17" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="C17" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="D17" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="E17" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="F17" s="22">
         <v>45</v>
@@ -14296,19 +14329,19 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="B18" t="s">
+        <v>690</v>
+      </c>
+      <c r="C18" t="s">
+        <v>691</v>
+      </c>
+      <c r="D18" t="s">
+        <v>692</v>
+      </c>
+      <c r="E18" t="s">
         <v>693</v>
-      </c>
-      <c r="C18" t="s">
-        <v>694</v>
-      </c>
-      <c r="D18" t="s">
-        <v>695</v>
-      </c>
-      <c r="E18" t="s">
-        <v>696</v>
       </c>
       <c r="F18" s="22">
         <v>12</v>
@@ -14316,19 +14349,19 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="B19" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="C19" t="s">
+        <v>691</v>
+      </c>
+      <c r="D19" t="s">
+        <v>692</v>
+      </c>
+      <c r="E19" t="s">
         <v>694</v>
-      </c>
-      <c r="D19" t="s">
-        <v>695</v>
-      </c>
-      <c r="E19" t="s">
-        <v>697</v>
       </c>
       <c r="F19" s="22">
         <v>14</v>
@@ -14336,19 +14369,19 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="B20" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="C20" t="s">
+        <v>691</v>
+      </c>
+      <c r="D20" t="s">
+        <v>695</v>
+      </c>
+      <c r="E20" t="s">
         <v>694</v>
-      </c>
-      <c r="D20" t="s">
-        <v>698</v>
-      </c>
-      <c r="E20" t="s">
-        <v>697</v>
       </c>
       <c r="F20" s="22">
         <v>4</v>
@@ -14356,19 +14389,19 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="B21" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="C21" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="D21" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="E21" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="F21" s="22">
         <v>6</v>
@@ -14376,19 +14409,19 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
+        <v>696</v>
+      </c>
+      <c r="B22" t="s">
+        <v>697</v>
+      </c>
+      <c r="C22" t="s">
+        <v>698</v>
+      </c>
+      <c r="D22" t="s">
         <v>699</v>
       </c>
-      <c r="B22" t="s">
-        <v>700</v>
-      </c>
-      <c r="C22" t="s">
-        <v>701</v>
-      </c>
-      <c r="D22" t="s">
-        <v>702</v>
-      </c>
       <c r="E22" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="F22" s="22">
         <v>3</v>
@@ -14396,19 +14429,19 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B23" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="C23" t="s">
+        <v>698</v>
+      </c>
+      <c r="D23" t="s">
         <v>701</v>
       </c>
-      <c r="D23" t="s">
-        <v>704</v>
-      </c>
       <c r="E23" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="F23" s="22">
         <v>14</v>
@@ -14416,19 +14449,19 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="B24" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="C24" t="s">
+        <v>698</v>
+      </c>
+      <c r="D24" t="s">
         <v>701</v>
       </c>
-      <c r="D24" t="s">
-        <v>704</v>
-      </c>
       <c r="E24" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="F24" s="22">
         <v>13</v>
@@ -14436,19 +14469,19 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="B25" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="C25" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="D25" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="E25" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="F25" s="22">
         <v>2</v>
@@ -14456,19 +14489,19 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="B26" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="C26" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="D26" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="E26" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="F26" s="22">
         <v>1</v>

--- a/data_printer.xlsx
+++ b/data_printer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GamErick\Desktop\Nova pasta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB2866E-05A8-4CBC-A454-76B8C287D148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F417EDD-13FF-45A0-ABA7-1CD5E5B74DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A8AA41B5-7AA1-4FF7-A9B8-54B8A4E1AF28}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2750" uniqueCount="788">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2750" uniqueCount="790">
   <si>
     <t>INDICE</t>
   </si>
@@ -1230,15 +1230,9 @@
     <t>BRCSG7007X</t>
   </si>
   <si>
-    <t>F_ CULTURA / TEATRO</t>
-  </si>
-  <si>
     <t>BRJSFCC6LT</t>
   </si>
   <si>
-    <t>F_ TRANSPORTE</t>
-  </si>
-  <si>
     <t>HP LASERJET M1130</t>
   </si>
   <si>
@@ -2373,12 +2367,6 @@
     <t>ESTAVA NO PAÇO - RECURSOS HUMANOS; PROBLEMA IMPRESSÃO EM BRACO FOI PARA WP;  QUEBROU BARRA DE LEDE RETIRADA DO PAÇO 02/05/2025 PAÇO;</t>
   </si>
   <si>
-    <t>MERCADO ANDRADE - DIRETOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESTAVA PAÇO CADASTRO; IMPRESSORA REPARA AUTORIZADA EM IGUABA  05/06/2025; </t>
-  </si>
-  <si>
     <t>REPARADA A ENTRADA USB 10/03/2025; REPARADA MUITO BARULHO E BANDEJA DE ALIMENTAÇÃO DE FOLHAS 05/06/2025;</t>
   </si>
   <si>
@@ -2401,6 +2389,24 @@
   </si>
   <si>
     <t>ESTAVA NA PRAÇA ESCOLA SERGIO RIBEIRO (Praia Seca) RETIRADA DA ESCOLA NO DIA 05/08/24 E SUBSTITUIDA POR UMA IMPRESSORA PRÓPRIA BROTHER MODELO: MFC-L5912DW Nº.SÉRIE: U66799M3N201610 - PROBLEMA NA PLACA DE REDE; RETIRADA ESCOLA PEDRO PAULO 11/06/2025;</t>
+  </si>
+  <si>
+    <t>U67030J3N175300</t>
+  </si>
+  <si>
+    <t>INSTALAÇÃO 13/06/2025 IMPRESSORA ZERA;</t>
+  </si>
+  <si>
+    <t>F_SEC. TRANSPORTE</t>
+  </si>
+  <si>
+    <t>F_TEATRO</t>
+  </si>
+  <si>
+    <t>ESTAVA PAÇO CADASTRO; IMPRESSORA REPARA AUTORIZADA EM IGUABA  05/06/2025; INSTALACÇÃO CASA DE CULTURA 13/06/2025;</t>
+  </si>
+  <si>
+    <t>F_CASA DE CULTURA</t>
   </si>
 </sst>
 </file>
@@ -2559,126 +2565,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="25">
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2915,6 +2801,126 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2955,22 +2961,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C244623C-48DE-4D05-852C-6EFDD885ABE2}" name="Controle_Inventario_Impressoras" displayName="Controle_Inventario_Impressoras" ref="A1:J340" tableType="queryTable" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
-  <autoFilter ref="A1:J340" xr:uid="{C244623C-48DE-4D05-852C-6EFDD885ABE2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C244623C-48DE-4D05-852C-6EFDD885ABE2}" name="Controle_Inventario_Impressoras" displayName="Controle_Inventario_Impressoras" ref="A1:J340" tableType="queryTable" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A1:J340" xr:uid="{C244623C-48DE-4D05-852C-6EFDD885ABE2}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="PAÇO"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J27">
     <sortCondition ref="A13"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{F8E3D681-C494-47F2-8429-052381C12AF1}" uniqueName="1" name="INDICE" queryTableFieldId="1" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{EE2E8FA5-A99D-4573-9868-408DB8FD4417}" uniqueName="2" name="MODELO" queryTableFieldId="2" dataDxfId="21"/>
-    <tableColumn id="11" xr3:uid="{CB5196C0-CCA1-4329-825F-D71E0948A542}" uniqueName="11" name="TIPO" queryTableFieldId="16390" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{27BC8F35-CC2C-44A1-BAF7-B0390B09477F}" uniqueName="3" name="NUMERO DE SERIE" queryTableFieldId="3" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{552F7A6E-6277-4DC1-9CDA-EA7FDCCE8E36}" uniqueName="4" name="LOCALIZAÇÃO" queryTableFieldId="4" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{4C8345F1-6E01-4566-9030-039665486C03}" uniqueName="5" name="SETOR" queryTableFieldId="5" dataDxfId="17"/>
-    <tableColumn id="9" xr3:uid="{10436F87-F6F1-46C4-A81A-8D144AC72FDF}" uniqueName="9" name="EMPRESA" queryTableFieldId="16389" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{B7941BA2-3E1C-476B-A3C7-BA155A35A2D0}" uniqueName="6" name="ATUALIZADO" queryTableFieldId="6" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{4338F703-CE4B-4443-8A10-74F64ED8CD42}" uniqueName="7" name="PRINTWAY" queryTableFieldId="16391" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{02B7C1FB-8EA9-4F22-BCCF-3D1809FFEDCC}" uniqueName="8" name="OBSERVAÇÃO" queryTableFieldId="8" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{F8E3D681-C494-47F2-8429-052381C12AF1}" uniqueName="1" name="INDICE" queryTableFieldId="1" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{EE2E8FA5-A99D-4573-9868-408DB8FD4417}" uniqueName="2" name="MODELO" queryTableFieldId="2" dataDxfId="9"/>
+    <tableColumn id="11" xr3:uid="{CB5196C0-CCA1-4329-825F-D71E0948A542}" uniqueName="11" name="TIPO" queryTableFieldId="16390" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{27BC8F35-CC2C-44A1-BAF7-B0390B09477F}" uniqueName="3" name="NUMERO DE SERIE" queryTableFieldId="3" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{552F7A6E-6277-4DC1-9CDA-EA7FDCCE8E36}" uniqueName="4" name="LOCALIZAÇÃO" queryTableFieldId="4" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{4C8345F1-6E01-4566-9030-039665486C03}" uniqueName="5" name="SETOR" queryTableFieldId="5" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{10436F87-F6F1-46C4-A81A-8D144AC72FDF}" uniqueName="9" name="EMPRESA" queryTableFieldId="16389" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{B7941BA2-3E1C-476B-A3C7-BA155A35A2D0}" uniqueName="6" name="ATUALIZADO" queryTableFieldId="6" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{4338F703-CE4B-4443-8A10-74F64ED8CD42}" uniqueName="7" name="PRINTWAY" queryTableFieldId="16391" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{02B7C1FB-8EA9-4F22-BCCF-3D1809FFEDCC}" uniqueName="8" name="OBSERVAÇÃO" queryTableFieldId="8" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2985,7 +2997,7 @@
     <tableColumn id="3" xr3:uid="{95A3DCD3-FE19-4A74-9940-661D6BB94B25}" name="MODELO"/>
     <tableColumn id="4" xr3:uid="{521C03E5-7FA9-4789-8198-9E0781F3ABC7}" name="DESCRIÇÃO"/>
     <tableColumn id="5" xr3:uid="{579D81F0-AA4C-4609-BF35-AF838B2B149B}" name="COR"/>
-    <tableColumn id="6" xr3:uid="{19487D13-EF31-43DA-89CA-4AA1E1029C34}" name="QUANTIDADE" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{19487D13-EF31-43DA-89CA-4AA1E1029C34}" name="QUANTIDADE" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3290,8 +3302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD39631B-97B8-405A-AA43-14CDFBC77F92}">
   <dimension ref="A1:J341"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="B344" sqref="B344"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F341" sqref="F341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -3341,7 +3353,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" hidden="1">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -3373,7 +3385,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" hidden="1">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -3405,7 +3417,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" hidden="1">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -3437,7 +3449,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" hidden="1">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -3469,7 +3481,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" hidden="1">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -3486,7 +3498,7 @@
         <v>98</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>15</v>
@@ -3501,7 +3513,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" hidden="1">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -3530,7 +3542,7 @@
         <v>16</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -3550,7 +3562,7 @@
         <v>88</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>15</v>
@@ -3565,7 +3577,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" hidden="1">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -3597,7 +3609,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" hidden="1">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -3627,7 +3639,7 @@
       </c>
       <c r="J10" s="7"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" hidden="1">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -3657,7 +3669,7 @@
       </c>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" hidden="1">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -3689,7 +3701,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" hidden="1">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -3706,7 +3718,7 @@
         <v>21</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>40</v>
@@ -3721,7 +3733,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" hidden="1">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -3738,7 +3750,7 @@
         <v>98</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>15</v>
@@ -3753,7 +3765,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" hidden="1">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -3770,7 +3782,7 @@
         <v>21</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>40</v>
@@ -3782,10 +3794,10 @@
         <v>16</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" hidden="1">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -3814,7 +3826,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" hidden="1">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -3846,7 +3858,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" hidden="1">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -3878,7 +3890,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" hidden="1">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -3910,7 +3922,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" hidden="1">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -3942,7 +3954,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" hidden="1">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -3974,7 +3986,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1">
+    <row r="22" spans="1:10" ht="15.75" hidden="1" customHeight="1">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -4006,7 +4018,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" hidden="1">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -4038,7 +4050,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" hidden="1">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -4070,7 +4082,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" hidden="1">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -4102,7 +4114,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" hidden="1">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -4131,7 +4143,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" hidden="1">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -4160,7 +4172,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" hidden="1">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -4224,7 +4236,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" hidden="1">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -4256,7 +4268,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" hidden="1">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -4288,7 +4300,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" hidden="1">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -4317,10 +4329,10 @@
         <v>16</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" hidden="1">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -4349,10 +4361,10 @@
         <v>100</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" hidden="1">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -4384,7 +4396,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" hidden="1">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -4416,7 +4428,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" hidden="1">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -4448,7 +4460,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" hidden="1">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -4477,7 +4489,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" hidden="1">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -4509,7 +4521,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" hidden="1">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -4541,7 +4553,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" hidden="1">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -4573,7 +4585,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" hidden="1">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -4605,7 +4617,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" hidden="1">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -4637,7 +4649,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" hidden="1">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -4669,7 +4681,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" hidden="1">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -4701,7 +4713,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" hidden="1">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -4730,7 +4742,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" hidden="1">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -4762,7 +4774,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" hidden="1">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -4794,7 +4806,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" hidden="1">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -4826,7 +4838,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" hidden="1">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -4855,7 +4867,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" hidden="1">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -4884,7 +4896,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" hidden="1">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -4916,7 +4928,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" hidden="1">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -4945,7 +4957,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" hidden="1">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -4974,7 +4986,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" hidden="1">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -5003,7 +5015,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" hidden="1">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -5032,7 +5044,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" hidden="1">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -5061,7 +5073,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" hidden="1">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -5090,7 +5102,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" hidden="1">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -5122,7 +5134,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" hidden="1">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -5154,7 +5166,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" hidden="1">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -5183,7 +5195,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" hidden="1">
       <c r="A61" s="4">
         <v>60</v>
       </c>
@@ -5215,7 +5227,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" hidden="1">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -5244,7 +5256,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" hidden="1">
       <c r="A63" s="4">
         <v>62</v>
       </c>
@@ -5273,7 +5285,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" hidden="1">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -5302,7 +5314,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" hidden="1">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -5331,7 +5343,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" hidden="1">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -5363,7 +5375,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" hidden="1">
       <c r="A67" s="4">
         <v>66</v>
       </c>
@@ -5395,7 +5407,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" hidden="1">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -5424,7 +5436,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" hidden="1">
       <c r="A69" s="4">
         <v>68</v>
       </c>
@@ -5456,7 +5468,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" hidden="1">
       <c r="A70" s="4">
         <v>69</v>
       </c>
@@ -5488,7 +5500,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" hidden="1">
       <c r="A71" s="4">
         <v>70</v>
       </c>
@@ -5520,7 +5532,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" hidden="1">
       <c r="A72" s="4">
         <v>71</v>
       </c>
@@ -5552,7 +5564,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" hidden="1">
       <c r="A73" s="4">
         <v>72</v>
       </c>
@@ -5581,7 +5593,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" hidden="1">
       <c r="A74" s="4">
         <v>73</v>
       </c>
@@ -5613,7 +5625,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" hidden="1">
       <c r="A75" s="4">
         <v>74</v>
       </c>
@@ -5645,7 +5657,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" hidden="1">
       <c r="A76" s="4">
         <v>75</v>
       </c>
@@ -5677,7 +5689,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" hidden="1">
       <c r="A77" s="4">
         <v>76</v>
       </c>
@@ -5709,7 +5721,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" hidden="1">
       <c r="A78" s="4">
         <v>77</v>
       </c>
@@ -5741,7 +5753,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" hidden="1">
       <c r="A79" s="4">
         <v>78</v>
       </c>
@@ -5773,7 +5785,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" hidden="1">
       <c r="A80" s="4">
         <v>79</v>
       </c>
@@ -5799,7 +5811,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" hidden="1">
       <c r="A81" s="4">
         <v>80</v>
       </c>
@@ -5825,7 +5837,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" hidden="1">
       <c r="A82" s="4">
         <v>81</v>
       </c>
@@ -5851,7 +5863,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" hidden="1">
       <c r="A83" s="4">
         <v>82</v>
       </c>
@@ -5883,7 +5895,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" hidden="1">
       <c r="A84" s="4">
         <v>83</v>
       </c>
@@ -5915,7 +5927,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" hidden="1">
       <c r="A85" s="4">
         <v>84</v>
       </c>
@@ -5947,7 +5959,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" hidden="1">
       <c r="A86" s="4">
         <v>85</v>
       </c>
@@ -5979,7 +5991,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:10" hidden="1">
       <c r="A87" s="4">
         <v>86</v>
       </c>
@@ -6008,7 +6020,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:10" hidden="1">
       <c r="A88" s="4">
         <v>87</v>
       </c>
@@ -6025,7 +6037,7 @@
         <v>28</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>40</v>
@@ -6040,7 +6052,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:10" hidden="1">
       <c r="A89" s="4">
         <v>88</v>
       </c>
@@ -6072,7 +6084,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:10" hidden="1">
       <c r="A90" s="4">
         <v>89</v>
       </c>
@@ -6098,7 +6110,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:10" hidden="1">
       <c r="A91" s="4">
         <v>90</v>
       </c>
@@ -6124,7 +6136,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:10" hidden="1">
       <c r="A92" s="4">
         <v>91</v>
       </c>
@@ -6156,7 +6168,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:10" hidden="1">
       <c r="A93" s="4">
         <v>92</v>
       </c>
@@ -6182,7 +6194,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:10" hidden="1">
       <c r="A94" s="4">
         <v>93</v>
       </c>
@@ -6211,7 +6223,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:10" hidden="1">
       <c r="A95" s="4">
         <v>94</v>
       </c>
@@ -6240,7 +6252,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" spans="1:10" hidden="1">
       <c r="A96" s="4">
         <v>95</v>
       </c>
@@ -6269,7 +6281,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" hidden="1">
       <c r="A97" s="4">
         <v>96</v>
       </c>
@@ -6298,7 +6310,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" hidden="1">
       <c r="A98" s="4">
         <v>97</v>
       </c>
@@ -6330,7 +6342,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" hidden="1">
       <c r="A99" s="4">
         <v>98</v>
       </c>
@@ -6362,7 +6374,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" hidden="1">
       <c r="A100" s="4">
         <v>99</v>
       </c>
@@ -6394,7 +6406,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" hidden="1">
       <c r="A101" s="4">
         <v>100</v>
       </c>
@@ -6426,7 +6438,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" hidden="1">
       <c r="A102" s="4">
         <v>101</v>
       </c>
@@ -6458,7 +6470,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:10" hidden="1">
       <c r="A103" s="4">
         <v>102</v>
       </c>
@@ -6490,7 +6502,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:10" hidden="1">
       <c r="A104" s="4">
         <v>103</v>
       </c>
@@ -6522,7 +6534,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:10" hidden="1">
       <c r="A105" s="4">
         <v>104</v>
       </c>
@@ -6554,7 +6566,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:10" hidden="1">
       <c r="A106" s="4">
         <v>105</v>
       </c>
@@ -6586,7 +6598,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:10" hidden="1">
       <c r="A107" s="4">
         <v>106</v>
       </c>
@@ -6618,7 +6630,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:10" hidden="1">
       <c r="A108" s="4">
         <v>107</v>
       </c>
@@ -6650,7 +6662,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:10" hidden="1">
       <c r="A109" s="4">
         <v>108</v>
       </c>
@@ -6682,7 +6694,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:10" hidden="1">
       <c r="A110" s="4">
         <v>109</v>
       </c>
@@ -6714,7 +6726,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:10" hidden="1">
       <c r="A111" s="4">
         <v>110</v>
       </c>
@@ -6746,7 +6758,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:10" hidden="1">
       <c r="A112" s="4">
         <v>111</v>
       </c>
@@ -6778,7 +6790,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="113" spans="1:10">
+    <row r="113" spans="1:10" hidden="1">
       <c r="A113" s="4">
         <v>112</v>
       </c>
@@ -6810,7 +6822,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="114" spans="1:10">
+    <row r="114" spans="1:10" hidden="1">
       <c r="A114" s="4">
         <v>113</v>
       </c>
@@ -6842,7 +6854,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="115" spans="1:10">
+    <row r="115" spans="1:10" hidden="1">
       <c r="A115" s="4">
         <v>114</v>
       </c>
@@ -6874,7 +6886,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="116" spans="1:10">
+    <row r="116" spans="1:10" hidden="1">
       <c r="A116" s="4">
         <v>115</v>
       </c>
@@ -6906,7 +6918,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="117" spans="1:10">
+    <row r="117" spans="1:10" hidden="1">
       <c r="A117" s="4">
         <v>116</v>
       </c>
@@ -6938,7 +6950,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="118" spans="1:10">
+    <row r="118" spans="1:10" hidden="1">
       <c r="A118" s="4">
         <v>117</v>
       </c>
@@ -6970,7 +6982,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="119" spans="1:10">
+    <row r="119" spans="1:10" hidden="1">
       <c r="A119" s="4">
         <v>118</v>
       </c>
@@ -7054,7 +7066,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="122" spans="1:10">
+    <row r="122" spans="1:10" hidden="1">
       <c r="A122" s="4">
         <v>121</v>
       </c>
@@ -7083,10 +7095,10 @@
         <v>16</v>
       </c>
       <c r="J122" s="3" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" hidden="1">
       <c r="A123" s="4">
         <v>122</v>
       </c>
@@ -7115,10 +7127,10 @@
         <v>16</v>
       </c>
       <c r="J123" s="3" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" hidden="1">
       <c r="A124" s="4">
         <v>123</v>
       </c>
@@ -7147,10 +7159,10 @@
         <v>16</v>
       </c>
       <c r="J124" s="3" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" hidden="1">
       <c r="A125" s="4">
         <v>124</v>
       </c>
@@ -7167,7 +7179,7 @@
         <v>21</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>40</v>
@@ -7179,10 +7191,10 @@
         <v>16</v>
       </c>
       <c r="J125" s="3" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" hidden="1">
       <c r="A126" s="4">
         <v>125</v>
       </c>
@@ -7214,7 +7226,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="127" spans="1:10">
+    <row r="127" spans="1:10" hidden="1">
       <c r="A127" s="4">
         <v>126</v>
       </c>
@@ -7246,7 +7258,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="128" spans="1:10">
+    <row r="128" spans="1:10" hidden="1">
       <c r="A128" s="4">
         <v>127</v>
       </c>
@@ -7278,7 +7290,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="129" spans="1:10">
+    <row r="129" spans="1:10" hidden="1">
       <c r="A129" s="4">
         <v>128</v>
       </c>
@@ -7310,7 +7322,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="130" spans="1:10">
+    <row r="130" spans="1:10" hidden="1">
       <c r="A130" s="4">
         <v>129</v>
       </c>
@@ -7342,7 +7354,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="131" spans="1:10">
+    <row r="131" spans="1:10" hidden="1">
       <c r="A131" s="4">
         <v>130</v>
       </c>
@@ -7359,7 +7371,7 @@
         <v>28</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="G131" s="5" t="s">
         <v>15</v>
@@ -7371,10 +7383,10 @@
         <v>16</v>
       </c>
       <c r="J131" s="3" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" hidden="1">
       <c r="A132" s="4">
         <v>131</v>
       </c>
@@ -7406,7 +7418,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="133" spans="1:10">
+    <row r="133" spans="1:10" hidden="1">
       <c r="A133" s="4">
         <v>132</v>
       </c>
@@ -7438,7 +7450,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="134" spans="1:10">
+    <row r="134" spans="1:10" hidden="1">
       <c r="A134" s="4">
         <v>133</v>
       </c>
@@ -7470,7 +7482,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="135" spans="1:10">
+    <row r="135" spans="1:10" hidden="1">
       <c r="A135" s="4">
         <v>134</v>
       </c>
@@ -7502,7 +7514,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="136" spans="1:10">
+    <row r="136" spans="1:10" hidden="1">
       <c r="A136" s="4">
         <v>135</v>
       </c>
@@ -7534,7 +7546,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="137" spans="1:10">
+    <row r="137" spans="1:10" hidden="1">
       <c r="A137" s="4">
         <v>136</v>
       </c>
@@ -7566,7 +7578,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="138" spans="1:10">
+    <row r="138" spans="1:10" hidden="1">
       <c r="A138" s="4">
         <v>137</v>
       </c>
@@ -7598,7 +7610,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="139" spans="1:10">
+    <row r="139" spans="1:10" hidden="1">
       <c r="A139" s="4">
         <v>138</v>
       </c>
@@ -7627,7 +7639,7 @@
         <v>16</v>
       </c>
       <c r="J139" s="13" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="140" spans="1:10">
@@ -7644,10 +7656,10 @@
         <v>306</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>778</v>
+        <v>789</v>
       </c>
       <c r="G140" s="5" t="s">
         <v>15</v>
@@ -7659,7 +7671,7 @@
         <v>16</v>
       </c>
       <c r="J140" s="3" t="s">
-        <v>779</v>
+        <v>788</v>
       </c>
     </row>
     <row r="141" spans="1:10">
@@ -7763,13 +7775,13 @@
         <v>107</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="G144" s="15" t="s">
         <v>15</v>
@@ -7781,10 +7793,10 @@
         <v>16</v>
       </c>
       <c r="J144" s="3" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" hidden="1">
       <c r="A145" s="4">
         <v>144</v>
       </c>
@@ -7816,7 +7828,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="146" spans="1:10">
+    <row r="146" spans="1:10" hidden="1">
       <c r="A146" s="4">
         <v>145</v>
       </c>
@@ -7848,7 +7860,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="147" spans="1:10">
+    <row r="147" spans="1:10" hidden="1">
       <c r="A147" s="4">
         <v>146</v>
       </c>
@@ -7877,10 +7889,10 @@
         <v>16</v>
       </c>
       <c r="J147" s="3" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" hidden="1">
       <c r="A148" s="4">
         <v>147</v>
       </c>
@@ -7909,7 +7921,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="149" spans="1:10">
+    <row r="149" spans="1:10" hidden="1">
       <c r="A149" s="4">
         <v>148</v>
       </c>
@@ -7941,7 +7953,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="150" spans="1:10">
+    <row r="150" spans="1:10" hidden="1">
       <c r="A150" s="4">
         <v>149</v>
       </c>
@@ -7970,10 +7982,10 @@
         <v>16</v>
       </c>
       <c r="J150" s="7" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" hidden="1">
       <c r="A151" s="4">
         <v>150</v>
       </c>
@@ -8002,10 +8014,10 @@
         <v>16</v>
       </c>
       <c r="J151" s="3" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" hidden="1">
       <c r="A152" s="4">
         <v>151</v>
       </c>
@@ -8037,7 +8049,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="153" spans="1:10">
+    <row r="153" spans="1:10" hidden="1">
       <c r="A153" s="4">
         <v>152</v>
       </c>
@@ -8066,7 +8078,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="154" spans="1:10">
+    <row r="154" spans="1:10" hidden="1">
       <c r="A154" s="4">
         <v>153</v>
       </c>
@@ -8093,7 +8105,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="155" spans="1:10">
+    <row r="155" spans="1:10" hidden="1">
       <c r="A155" s="4">
         <v>154</v>
       </c>
@@ -8110,7 +8122,7 @@
         <v>13</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="G155" s="5" t="s">
         <v>15</v>
@@ -8122,10 +8134,10 @@
         <v>16</v>
       </c>
       <c r="J155" s="3" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" hidden="1">
       <c r="A156" s="4">
         <v>155</v>
       </c>
@@ -8154,7 +8166,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="157" spans="1:10">
+    <row r="157" spans="1:10" hidden="1">
       <c r="A157" s="4">
         <v>156</v>
       </c>
@@ -8171,7 +8183,7 @@
         <v>13</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="G157" s="5" t="s">
         <v>40</v>
@@ -8183,10 +8195,10 @@
         <v>16</v>
       </c>
       <c r="J157" s="3" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" hidden="1">
       <c r="A158" s="4">
         <v>157</v>
       </c>
@@ -8218,7 +8230,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="159" spans="1:10">
+    <row r="159" spans="1:10" hidden="1">
       <c r="A159" s="4">
         <v>158</v>
       </c>
@@ -8250,7 +8262,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="160" spans="1:10">
+    <row r="160" spans="1:10" hidden="1">
       <c r="A160" s="4">
         <v>159</v>
       </c>
@@ -8282,7 +8294,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="161" spans="1:10">
+    <row r="161" spans="1:10" hidden="1">
       <c r="A161" s="4">
         <v>160</v>
       </c>
@@ -8311,7 +8323,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="162" spans="1:10">
+    <row r="162" spans="1:10" hidden="1">
       <c r="A162" s="4">
         <v>161</v>
       </c>
@@ -8340,7 +8352,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="163" spans="1:10">
+    <row r="163" spans="1:10" hidden="1">
       <c r="A163" s="4">
         <v>162</v>
       </c>
@@ -8369,10 +8381,10 @@
         <v>16</v>
       </c>
       <c r="J163" s="3" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" hidden="1">
       <c r="A164" s="4">
         <v>163</v>
       </c>
@@ -8404,7 +8416,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="165" spans="1:10">
+    <row r="165" spans="1:10" hidden="1">
       <c r="A165" s="4">
         <v>164</v>
       </c>
@@ -8430,7 +8442,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="166" spans="1:10">
+    <row r="166" spans="1:10" hidden="1">
       <c r="A166" s="4">
         <v>165</v>
       </c>
@@ -8456,7 +8468,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="167" spans="1:10">
+    <row r="167" spans="1:10" hidden="1">
       <c r="A167" s="4">
         <v>166</v>
       </c>
@@ -8485,7 +8497,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="168" spans="1:10">
+    <row r="168" spans="1:10" hidden="1">
       <c r="A168" s="4">
         <v>167</v>
       </c>
@@ -8514,7 +8526,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="169" spans="1:10">
+    <row r="169" spans="1:10" hidden="1">
       <c r="A169" s="4">
         <v>168</v>
       </c>
@@ -8543,7 +8555,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="170" spans="1:10">
+    <row r="170" spans="1:10" hidden="1">
       <c r="A170" s="4">
         <v>169</v>
       </c>
@@ -8572,7 +8584,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="171" spans="1:10">
+    <row r="171" spans="1:10" hidden="1">
       <c r="A171" s="4">
         <v>170</v>
       </c>
@@ -8601,7 +8613,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="172" spans="1:10">
+    <row r="172" spans="1:10" hidden="1">
       <c r="A172" s="4">
         <v>171</v>
       </c>
@@ -8630,7 +8642,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="173" spans="1:10">
+    <row r="173" spans="1:10" hidden="1">
       <c r="A173" s="4">
         <v>172</v>
       </c>
@@ -8659,7 +8671,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="174" spans="1:10">
+    <row r="174" spans="1:10" hidden="1">
       <c r="A174" s="4">
         <v>173</v>
       </c>
@@ -8688,7 +8700,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="175" spans="1:10">
+    <row r="175" spans="1:10" hidden="1">
       <c r="A175" s="4">
         <v>174</v>
       </c>
@@ -8717,7 +8729,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="176" spans="1:10">
+    <row r="176" spans="1:10" hidden="1">
       <c r="A176" s="4">
         <v>175</v>
       </c>
@@ -8746,7 +8758,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="177" spans="1:10">
+    <row r="177" spans="1:10" hidden="1">
       <c r="A177" s="4">
         <v>176</v>
       </c>
@@ -8775,7 +8787,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="178" spans="1:10">
+    <row r="178" spans="1:10" hidden="1">
       <c r="A178" s="4">
         <v>177</v>
       </c>
@@ -8804,7 +8816,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="179" spans="1:10">
+    <row r="179" spans="1:10" hidden="1">
       <c r="A179" s="4">
         <v>178</v>
       </c>
@@ -8833,7 +8845,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="180" spans="1:10">
+    <row r="180" spans="1:10" hidden="1">
       <c r="A180" s="4">
         <v>179</v>
       </c>
@@ -8862,7 +8874,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="181" spans="1:10">
+    <row r="181" spans="1:10" hidden="1">
       <c r="A181" s="4">
         <v>180</v>
       </c>
@@ -8891,7 +8903,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="182" spans="1:10">
+    <row r="182" spans="1:10" hidden="1">
       <c r="A182" s="4">
         <v>181</v>
       </c>
@@ -8920,7 +8932,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="183" spans="1:10">
+    <row r="183" spans="1:10" hidden="1">
       <c r="A183" s="4">
         <v>182</v>
       </c>
@@ -8949,7 +8961,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="184" spans="1:10">
+    <row r="184" spans="1:10" hidden="1">
       <c r="A184" s="4">
         <v>183</v>
       </c>
@@ -8978,7 +8990,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="185" spans="1:10">
+    <row r="185" spans="1:10" hidden="1">
       <c r="A185" s="4">
         <v>184</v>
       </c>
@@ -9007,7 +9019,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="186" spans="1:10">
+    <row r="186" spans="1:10" hidden="1">
       <c r="A186" s="4">
         <v>185</v>
       </c>
@@ -9036,7 +9048,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="187" spans="1:10">
+    <row r="187" spans="1:10" hidden="1">
       <c r="A187" s="4">
         <v>186</v>
       </c>
@@ -9065,7 +9077,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="188" spans="1:10">
+    <row r="188" spans="1:10" hidden="1">
       <c r="A188" s="4">
         <v>187</v>
       </c>
@@ -9094,7 +9106,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="189" spans="1:10">
+    <row r="189" spans="1:10" hidden="1">
       <c r="A189" s="4">
         <v>188</v>
       </c>
@@ -9171,12 +9183,14 @@
         <v>88</v>
       </c>
       <c r="F191" s="4" t="s">
-        <v>397</v>
+        <v>787</v>
       </c>
       <c r="G191" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H191" s="4"/>
+      <c r="H191" s="6">
+        <v>45795</v>
+      </c>
       <c r="I191" s="9" t="s">
         <v>16</v>
       </c>
@@ -9192,13 +9206,13 @@
         <v>11</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E192" s="4" t="s">
         <v>88</v>
       </c>
       <c r="F192" s="4" t="s">
-        <v>399</v>
+        <v>786</v>
       </c>
       <c r="G192" s="5" t="s">
         <v>15</v>
@@ -9213,19 +9227,19 @@
         <v>192</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E193" s="4" t="s">
         <v>88</v>
       </c>
       <c r="F193" s="4" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G193" s="5" t="s">
         <v>15</v>
@@ -9235,10 +9249,10 @@
         <v>16</v>
       </c>
       <c r="J193" s="7" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="194" spans="1:10">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" hidden="1">
       <c r="A194" s="4">
         <v>193</v>
       </c>
@@ -9249,13 +9263,13 @@
         <v>11</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E194" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="G194" s="5" t="s">
         <v>15</v>
@@ -9267,10 +9281,10 @@
         <v>16</v>
       </c>
       <c r="J194" s="7" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="195" spans="1:10">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" hidden="1">
       <c r="A195" s="4">
         <v>194</v>
       </c>
@@ -9281,7 +9295,7 @@
         <v>11</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E195" s="1" t="s">
         <v>28</v>
@@ -9299,10 +9313,10 @@
         <v>16</v>
       </c>
       <c r="J195" s="8" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="196" spans="1:10">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" hidden="1">
       <c r="A196" s="4">
         <v>195</v>
       </c>
@@ -9313,7 +9327,7 @@
         <v>11</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E196" s="1" t="s">
         <v>28</v>
@@ -9331,10 +9345,10 @@
         <v>16</v>
       </c>
       <c r="J196" s="7" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="197" spans="1:10">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" hidden="1">
       <c r="A197" s="4">
         <v>196</v>
       </c>
@@ -9345,13 +9359,13 @@
         <v>11</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E197" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="G197" s="5" t="s">
         <v>15</v>
@@ -9363,10 +9377,10 @@
         <v>16</v>
       </c>
       <c r="J197" s="3" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="198" spans="1:10">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" hidden="1">
       <c r="A198" s="4">
         <v>197</v>
       </c>
@@ -9377,7 +9391,7 @@
         <v>11</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E198" s="1" t="s">
         <v>28</v>
@@ -9395,7 +9409,7 @@
         <v>16</v>
       </c>
       <c r="J198" s="3" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="199" spans="1:10">
@@ -9409,7 +9423,7 @@
         <v>11</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E199" s="4" t="s">
         <v>88</v>
@@ -9427,10 +9441,10 @@
         <v>16</v>
       </c>
       <c r="J199" s="3" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="200" spans="1:10">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" hidden="1">
       <c r="A200" s="4">
         <v>199</v>
       </c>
@@ -9441,7 +9455,7 @@
         <v>11</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E200" s="1" t="s">
         <v>28</v>
@@ -9459,10 +9473,10 @@
         <v>16</v>
       </c>
       <c r="J200" s="3" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="201" spans="1:10">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" hidden="1">
       <c r="A201" s="4">
         <v>200</v>
       </c>
@@ -9473,13 +9487,13 @@
         <v>11</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E201" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G201" s="5" t="s">
         <v>15</v>
@@ -9491,10 +9505,10 @@
         <v>16</v>
       </c>
       <c r="J201" s="3" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="202" spans="1:10">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" hidden="1">
       <c r="A202" s="4">
         <v>201</v>
       </c>
@@ -9505,7 +9519,7 @@
         <v>11</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E202" s="1" t="s">
         <v>28</v>
@@ -9523,10 +9537,10 @@
         <v>16</v>
       </c>
       <c r="J202" s="3" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="203" spans="1:10">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" hidden="1">
       <c r="A203" s="4">
         <v>202</v>
       </c>
@@ -9537,7 +9551,7 @@
         <v>11</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E203" s="1" t="s">
         <v>28</v>
@@ -9555,10 +9569,10 @@
         <v>16</v>
       </c>
       <c r="J203" s="3" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="204" spans="1:10">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" hidden="1">
       <c r="A204" s="4">
         <v>203</v>
       </c>
@@ -9569,7 +9583,7 @@
         <v>11</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E204" s="1" t="s">
         <v>28</v>
@@ -9587,10 +9601,10 @@
         <v>16</v>
       </c>
       <c r="J204" s="3" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="205" spans="1:10">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" hidden="1">
       <c r="A205" s="4">
         <v>204</v>
       </c>
@@ -9601,7 +9615,7 @@
         <v>11</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E205" s="1" t="s">
         <v>28</v>
@@ -9619,10 +9633,10 @@
         <v>16</v>
       </c>
       <c r="J205" s="3" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="206" spans="1:10">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" hidden="1">
       <c r="A206" s="4">
         <v>205</v>
       </c>
@@ -9633,7 +9647,7 @@
         <v>11</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E206" s="1" t="s">
         <v>28</v>
@@ -9651,10 +9665,10 @@
         <v>16</v>
       </c>
       <c r="J206" s="3" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="207" spans="1:10">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" hidden="1">
       <c r="A207" s="4">
         <v>206</v>
       </c>
@@ -9665,7 +9679,7 @@
         <v>11</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E207" s="1" t="s">
         <v>28</v>
@@ -9683,10 +9697,10 @@
         <v>16</v>
       </c>
       <c r="J207" s="3" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="208" spans="1:10">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" hidden="1">
       <c r="A208" s="4">
         <v>207</v>
       </c>
@@ -9697,7 +9711,7 @@
         <v>11</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E208" s="1" t="s">
         <v>28</v>
@@ -9715,10 +9729,10 @@
         <v>16</v>
       </c>
       <c r="J208" s="3" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="209" spans="1:10">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" hidden="1">
       <c r="A209" s="4">
         <v>208</v>
       </c>
@@ -9729,7 +9743,7 @@
         <v>11</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E209" s="1" t="s">
         <v>28</v>
@@ -9747,10 +9761,10 @@
         <v>16</v>
       </c>
       <c r="J209" s="3" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="210" spans="1:10">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" hidden="1">
       <c r="A210" s="4">
         <v>209</v>
       </c>
@@ -9761,13 +9775,13 @@
         <v>11</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E210" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G210" s="5" t="s">
         <v>15</v>
@@ -9776,13 +9790,13 @@
         <v>45545</v>
       </c>
       <c r="I210" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="J210" s="3" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="211" spans="1:10">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" hidden="1">
       <c r="A211" s="4">
         <v>210</v>
       </c>
@@ -9793,7 +9807,7 @@
         <v>11</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E211" s="1" t="s">
         <v>28</v>
@@ -9811,10 +9825,10 @@
         <v>16</v>
       </c>
       <c r="J211" s="3" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="212" spans="1:10">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" hidden="1">
       <c r="A212" s="4">
         <v>211</v>
       </c>
@@ -9825,7 +9839,7 @@
         <v>11</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E212" s="1" t="s">
         <v>28</v>
@@ -9843,10 +9857,10 @@
         <v>16</v>
       </c>
       <c r="J212" s="3" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="213" spans="1:10">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" hidden="1">
       <c r="A213" s="4">
         <v>212</v>
       </c>
@@ -9857,7 +9871,7 @@
         <v>11</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E213" s="1" t="s">
         <v>28</v>
@@ -9875,10 +9889,10 @@
         <v>16</v>
       </c>
       <c r="J213" s="3" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="214" spans="1:10">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" hidden="1">
       <c r="A214" s="4">
         <v>213</v>
       </c>
@@ -9889,7 +9903,7 @@
         <v>11</v>
       </c>
       <c r="D214" s="18" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E214" s="1" t="s">
         <v>28</v>
@@ -9907,10 +9921,10 @@
         <v>16</v>
       </c>
       <c r="J214" s="3" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="215" spans="1:10">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" hidden="1">
       <c r="A215" s="4">
         <v>214</v>
       </c>
@@ -9921,7 +9935,7 @@
         <v>11</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E215" s="1" t="s">
         <v>28</v>
@@ -9939,10 +9953,10 @@
         <v>16</v>
       </c>
       <c r="J215" s="3" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="216" spans="1:10">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" hidden="1">
       <c r="A216" s="4">
         <v>215</v>
       </c>
@@ -9953,7 +9967,7 @@
         <v>11</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E216" s="1" t="s">
         <v>28</v>
@@ -9971,10 +9985,10 @@
         <v>16</v>
       </c>
       <c r="J216" s="3" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="217" spans="1:10">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" hidden="1">
       <c r="A217" s="4">
         <v>216</v>
       </c>
@@ -9985,13 +9999,13 @@
         <v>107</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E217" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="G217" s="5" t="s">
         <v>15</v>
@@ -10003,7 +10017,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="218" spans="1:10">
+    <row r="218" spans="1:10" hidden="1">
       <c r="A218" s="4">
         <v>217</v>
       </c>
@@ -10014,7 +10028,7 @@
         <v>11</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E218" s="1" t="s">
         <v>28</v>
@@ -10032,10 +10046,10 @@
         <v>16</v>
       </c>
       <c r="J218" s="3" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="219" spans="1:10">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" hidden="1">
       <c r="A219" s="4">
         <v>218</v>
       </c>
@@ -10046,13 +10060,13 @@
         <v>11</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="G219" s="5" t="s">
         <v>15</v>
@@ -10064,7 +10078,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="220" spans="1:10">
+    <row r="220" spans="1:10" hidden="1">
       <c r="A220" s="4">
         <v>219</v>
       </c>
@@ -10075,13 +10089,13 @@
         <v>11</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E220" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G220" s="5" t="s">
         <v>15</v>
@@ -10093,10 +10107,10 @@
         <v>16</v>
       </c>
       <c r="J220" s="3" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="221" spans="1:10">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" hidden="1">
       <c r="A221" s="4">
         <v>220</v>
       </c>
@@ -10107,7 +10121,7 @@
         <v>11</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E221" s="1" t="s">
         <v>28</v>
@@ -10125,7 +10139,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="222" spans="1:10">
+    <row r="222" spans="1:10" hidden="1">
       <c r="A222" s="4">
         <v>221</v>
       </c>
@@ -10136,7 +10150,7 @@
         <v>11</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E222" s="1" t="s">
         <v>28</v>
@@ -10154,10 +10168,10 @@
         <v>16</v>
       </c>
       <c r="J222" s="3" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="223" spans="1:10">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" hidden="1">
       <c r="A223" s="4">
         <v>222</v>
       </c>
@@ -10168,7 +10182,7 @@
         <v>11</v>
       </c>
       <c r="D223" s="4" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E223" s="1" t="s">
         <v>28</v>
@@ -10187,7 +10201,7 @@
       </c>
       <c r="J223" s="7"/>
     </row>
-    <row r="224" spans="1:10">
+    <row r="224" spans="1:10" hidden="1">
       <c r="A224" s="4">
         <v>223</v>
       </c>
@@ -10198,7 +10212,7 @@
         <v>11</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E224" s="1" t="s">
         <v>21</v>
@@ -10216,10 +10230,10 @@
         <v>16</v>
       </c>
       <c r="J224" s="7" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="225" spans="1:10">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" hidden="1">
       <c r="A225" s="4">
         <v>224</v>
       </c>
@@ -10230,7 +10244,7 @@
         <v>11</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E225" s="1" t="s">
         <v>28</v>
@@ -10251,7 +10265,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="226" spans="1:10">
+    <row r="226" spans="1:10" hidden="1">
       <c r="A226" s="4">
         <v>225</v>
       </c>
@@ -10262,7 +10276,7 @@
         <v>11</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E226" s="1" t="s">
         <v>28</v>
@@ -10280,10 +10294,10 @@
         <v>16</v>
       </c>
       <c r="J226" s="3" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="227" spans="1:10">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" hidden="1">
       <c r="A227" s="4">
         <v>226</v>
       </c>
@@ -10294,7 +10308,7 @@
         <v>11</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E227" s="1" t="s">
         <v>28</v>
@@ -10312,10 +10326,10 @@
         <v>16</v>
       </c>
       <c r="J227" s="3" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="228" spans="1:10">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" hidden="1">
       <c r="A228" s="4">
         <v>227</v>
       </c>
@@ -10326,7 +10340,7 @@
         <v>11</v>
       </c>
       <c r="D228" s="4" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E228" s="1" t="s">
         <v>28</v>
@@ -10344,27 +10358,27 @@
         <v>16</v>
       </c>
       <c r="J228" s="8" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="229" spans="1:10">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" hidden="1">
       <c r="A229" s="4">
         <v>228</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D229" s="14" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E229" s="14" t="s">
         <v>13</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="G229" s="15" t="s">
         <v>15</v>
@@ -10376,27 +10390,27 @@
         <v>16</v>
       </c>
       <c r="J229" s="8" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="230" spans="1:10">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" hidden="1">
       <c r="A230" s="4">
         <v>229</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="E230" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="G230" s="2" t="s">
         <v>15</v>
@@ -10405,28 +10419,28 @@
         <v>45797</v>
       </c>
       <c r="I230" s="9" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="J230" s="24"/>
     </row>
-    <row r="231" spans="1:10">
+    <row r="231" spans="1:10" hidden="1">
       <c r="A231" s="4">
         <v>230</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C231" s="15" t="s">
         <v>11</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="E231" s="14" t="s">
         <v>13</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="G231" s="15" t="s">
         <v>15</v>
@@ -10438,21 +10452,21 @@
         <v>16</v>
       </c>
       <c r="J231" s="8" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="232" spans="1:10">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" hidden="1">
       <c r="A232" s="4">
         <v>231</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E232" s="1" t="s">
         <v>28</v>
@@ -10470,21 +10484,21 @@
         <v>16</v>
       </c>
       <c r="J232" s="3" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="233" spans="1:10">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" hidden="1">
       <c r="A233" s="4">
         <v>232</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E233" s="1" t="s">
         <v>28</v>
@@ -10502,21 +10516,21 @@
         <v>16</v>
       </c>
       <c r="J233" s="3" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="234" spans="1:10">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" hidden="1">
       <c r="A234" s="4">
         <v>233</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E234" s="1" t="s">
         <v>28</v>
@@ -10534,10 +10548,10 @@
         <v>16</v>
       </c>
       <c r="J234" s="3" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="235" spans="1:10">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" hidden="1">
       <c r="A235" s="4">
         <v>234</v>
       </c>
@@ -10554,7 +10568,7 @@
         <v>21</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G235" s="2" t="s">
         <v>21</v>
@@ -10566,21 +10580,21 @@
         <v>16</v>
       </c>
       <c r="J235" s="3" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="236" spans="1:10">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" hidden="1">
       <c r="A236" s="4">
         <v>235</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E236" s="1" t="s">
         <v>28</v>
@@ -10598,24 +10612,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="237" spans="1:10">
+    <row r="237" spans="1:10" hidden="1">
       <c r="A237" s="4">
         <v>236</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>107</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G237" s="5" t="s">
         <v>15</v>
@@ -10627,18 +10641,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="238" spans="1:10">
+    <row r="238" spans="1:10" hidden="1">
       <c r="A238" s="4">
         <v>237</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>107</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E238" s="1" t="s">
         <v>191</v>
@@ -10656,21 +10670,21 @@
         <v>16</v>
       </c>
       <c r="J238" s="3" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="239" spans="1:10">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" hidden="1">
       <c r="A239" s="4">
         <v>238</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E239" s="1" t="s">
         <v>28</v>
@@ -10688,10 +10702,10 @@
         <v>16</v>
       </c>
       <c r="J239" s="3" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="240" spans="1:10">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" hidden="1">
       <c r="A240" s="4">
         <v>239</v>
       </c>
@@ -10702,13 +10716,13 @@
         <v>11</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E240" s="1" t="s">
         <v>195</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G240" s="2" t="s">
         <v>40</v>
@@ -10717,10 +10731,10 @@
         <v>16</v>
       </c>
       <c r="J240" s="3" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="241" spans="1:10">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" hidden="1">
       <c r="A241" s="4">
         <v>240</v>
       </c>
@@ -10731,13 +10745,13 @@
         <v>11</v>
       </c>
       <c r="D241" s="20" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="E241" s="1" t="s">
         <v>195</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G241" s="2" t="s">
         <v>40</v>
@@ -10749,10 +10763,10 @@
         <v>16</v>
       </c>
       <c r="J241" s="3" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="242" spans="1:10">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" hidden="1">
       <c r="A242" s="4">
         <v>241</v>
       </c>
@@ -10763,13 +10777,13 @@
         <v>11</v>
       </c>
       <c r="D242" s="20" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E242" s="1" t="s">
         <v>195</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G242" s="2" t="s">
         <v>40</v>
@@ -10781,7 +10795,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="243" spans="1:10">
+    <row r="243" spans="1:10" hidden="1">
       <c r="A243" s="4">
         <v>242</v>
       </c>
@@ -10792,13 +10806,13 @@
         <v>11</v>
       </c>
       <c r="D243" s="20" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E243" s="1" t="s">
         <v>195</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G243" s="2" t="s">
         <v>40</v>
@@ -10807,10 +10821,10 @@
         <v>16</v>
       </c>
       <c r="J243" s="3" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="244" spans="1:10">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" hidden="1">
       <c r="A244" s="4">
         <v>243</v>
       </c>
@@ -10821,7 +10835,7 @@
         <v>107</v>
       </c>
       <c r="D244" s="25" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E244" s="1" t="s">
         <v>191</v>
@@ -10838,7 +10852,7 @@
       <c r="I244" s="16"/>
       <c r="J244" s="17"/>
     </row>
-    <row r="245" spans="1:10">
+    <row r="245" spans="1:10" hidden="1">
       <c r="A245" s="4">
         <v>244</v>
       </c>
@@ -10849,13 +10863,13 @@
         <v>107</v>
       </c>
       <c r="D245" s="20" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E245" s="1" t="s">
         <v>195</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G245" s="5" t="s">
         <v>40</v>
@@ -10864,7 +10878,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="246" spans="1:10">
+    <row r="246" spans="1:10" hidden="1">
       <c r="A246" s="4">
         <v>245</v>
       </c>
@@ -10875,13 +10889,13 @@
         <v>107</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E246" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="G246" s="5" t="s">
         <v>15</v>
@@ -10893,7 +10907,7 @@
         <v>16</v>
       </c>
       <c r="J246" s="3" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="247" spans="1:10">
@@ -10907,13 +10921,13 @@
         <v>107</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E247" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G247" s="5" t="s">
         <v>15</v>
@@ -10925,10 +10939,10 @@
         <v>16</v>
       </c>
       <c r="J247" s="3" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="248" spans="1:10">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" hidden="1">
       <c r="A248" s="4">
         <v>247</v>
       </c>
@@ -10939,7 +10953,7 @@
         <v>11</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E248" s="1" t="s">
         <v>28</v>
@@ -10957,21 +10971,21 @@
         <v>16</v>
       </c>
       <c r="J248" s="3" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="249" spans="1:10">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" hidden="1">
       <c r="A249" s="4">
         <v>248</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E249" s="26" t="s">
         <v>191</v>
@@ -10989,21 +11003,21 @@
         <v>16</v>
       </c>
       <c r="J249" s="3" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="250" spans="1:10">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" hidden="1">
       <c r="A250" s="4">
         <v>249</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E250" s="1" t="s">
         <v>38</v>
@@ -11021,21 +11035,21 @@
         <v>209</v>
       </c>
       <c r="J250" s="3" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="251" spans="1:10">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" hidden="1">
       <c r="A251" s="4">
         <v>250</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E251" s="1" t="s">
         <v>191</v>
@@ -11053,21 +11067,21 @@
         <v>209</v>
       </c>
       <c r="J251" s="3" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="252" spans="1:10">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" hidden="1">
       <c r="A252" s="4">
         <v>251</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E252" s="1" t="s">
         <v>38</v>
@@ -11085,21 +11099,21 @@
         <v>16</v>
       </c>
       <c r="J252" s="3" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="253" spans="1:10">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" hidden="1">
       <c r="A253" s="4">
         <v>252</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D253" s="18" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E253" s="1" t="s">
         <v>38</v>
@@ -11117,10 +11131,10 @@
         <v>209</v>
       </c>
       <c r="J253" s="3" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="254" spans="1:10">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" hidden="1">
       <c r="A254" s="4">
         <v>253</v>
       </c>
@@ -11131,7 +11145,7 @@
         <v>11</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E254" s="1" t="s">
         <v>28</v>
@@ -11149,10 +11163,10 @@
         <v>16</v>
       </c>
       <c r="J254" s="3" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="255" spans="1:10">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" hidden="1">
       <c r="A255" s="4">
         <v>254</v>
       </c>
@@ -11163,13 +11177,13 @@
         <v>11</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E255" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G255" s="5" t="s">
         <v>15</v>
@@ -11181,21 +11195,21 @@
         <v>16</v>
       </c>
       <c r="J255" s="3" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="256" spans="1:10">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" hidden="1">
       <c r="A256" s="4">
         <v>255</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>107</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E256" s="1" t="s">
         <v>28</v>
@@ -11213,27 +11227,27 @@
         <v>16</v>
       </c>
       <c r="J256" s="3" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="257" spans="1:10">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" hidden="1">
       <c r="A257" s="4">
         <v>256</v>
       </c>
       <c r="B257" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="E257" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F257" s="1" t="s">
         <v>523</v>
-      </c>
-      <c r="C257" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D257" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="E257" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F257" s="1" t="s">
-        <v>525</v>
       </c>
       <c r="G257" s="5" t="s">
         <v>15</v>
@@ -11245,10 +11259,10 @@
         <v>16</v>
       </c>
       <c r="J257" s="3" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="258" spans="1:10">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" hidden="1">
       <c r="A258" s="4">
         <v>257</v>
       </c>
@@ -11259,7 +11273,7 @@
         <v>107</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E258" s="1" t="s">
         <v>13</v>
@@ -11277,10 +11291,10 @@
         <v>16</v>
       </c>
       <c r="J258" s="3" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="259" spans="1:10">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" hidden="1">
       <c r="A259" s="4">
         <v>258</v>
       </c>
@@ -11291,13 +11305,13 @@
         <v>107</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E259" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="G259" s="5" t="s">
         <v>15</v>
@@ -11309,10 +11323,10 @@
         <v>16</v>
       </c>
       <c r="J259" s="3" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="260" spans="1:10">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" hidden="1">
       <c r="A260" s="4">
         <v>259</v>
       </c>
@@ -11323,7 +11337,7 @@
         <v>11</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E260" s="1" t="s">
         <v>28</v>
@@ -11341,10 +11355,10 @@
         <v>16</v>
       </c>
       <c r="J260" s="3" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="261" spans="1:10">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" hidden="1">
       <c r="A261" s="4">
         <v>260</v>
       </c>
@@ -11355,7 +11369,7 @@
         <v>11</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E261" s="1" t="s">
         <v>28</v>
@@ -11373,27 +11387,27 @@
         <v>16</v>
       </c>
       <c r="J261" s="3" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="262" spans="1:10">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" hidden="1">
       <c r="A262" s="4">
         <v>261</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="G262" s="2" t="s">
         <v>15</v>
@@ -11405,7 +11419,7 @@
         <v>16</v>
       </c>
       <c r="J262" s="3" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="263" spans="1:10">
@@ -11413,19 +11427,19 @@
         <v>262</v>
       </c>
       <c r="B263" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D263" s="1" t="s">
         <v>536</v>
-      </c>
-      <c r="C263" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D263" s="1" t="s">
-        <v>538</v>
       </c>
       <c r="E263" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="G263" s="2" t="s">
         <v>15</v>
@@ -11437,21 +11451,21 @@
         <v>16</v>
       </c>
       <c r="J263" s="3" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="264" spans="1:10">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" hidden="1">
       <c r="A264" s="4">
         <v>263</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E264" s="1" t="s">
         <v>28</v>
@@ -11469,7 +11483,7 @@
         <v>16</v>
       </c>
       <c r="J264" s="3" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="265" spans="1:10">
@@ -11477,19 +11491,19 @@
         <v>264</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E265" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F265" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="G265" s="2" t="s">
         <v>15</v>
@@ -11501,7 +11515,7 @@
         <v>16</v>
       </c>
       <c r="J265" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="266" spans="1:10">
@@ -11509,19 +11523,19 @@
         <v>265</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E266" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F266" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G266" s="2" t="s">
         <v>15</v>
@@ -11533,7 +11547,7 @@
         <v>16</v>
       </c>
       <c r="J266" s="3" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="267" spans="1:10">
@@ -11541,19 +11555,19 @@
         <v>266</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E267" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F267" s="1" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="G267" s="2" t="s">
         <v>15</v>
@@ -11565,7 +11579,7 @@
         <v>16</v>
       </c>
       <c r="J267" s="3" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="268" spans="1:10">
@@ -11573,19 +11587,19 @@
         <v>267</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E268" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="G268" s="2" t="s">
         <v>15</v>
@@ -11597,7 +11611,7 @@
         <v>16</v>
       </c>
       <c r="J268" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="269" spans="1:10">
@@ -11605,19 +11619,19 @@
         <v>268</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="E269" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="G269" s="2" t="s">
         <v>15</v>
@@ -11629,7 +11643,7 @@
         <v>16</v>
       </c>
       <c r="J269" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="270" spans="1:10">
@@ -11637,19 +11651,19 @@
         <v>269</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E270" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F270" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G270" s="2" t="s">
         <v>15</v>
@@ -11661,7 +11675,7 @@
         <v>16</v>
       </c>
       <c r="J270" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="271" spans="1:10">
@@ -11669,19 +11683,19 @@
         <v>270</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E271" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F271" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G271" s="2" t="s">
         <v>15</v>
@@ -11693,7 +11707,7 @@
         <v>16</v>
       </c>
       <c r="J271" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="272" spans="1:10">
@@ -11701,19 +11715,19 @@
         <v>271</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E272" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F272" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="G272" s="2" t="s">
         <v>15</v>
@@ -11725,7 +11739,7 @@
         <v>16</v>
       </c>
       <c r="J272" s="3" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="273" spans="1:10">
@@ -11733,19 +11747,19 @@
         <v>272</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E273" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F273" s="1" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="G273" s="2" t="s">
         <v>15</v>
@@ -11757,7 +11771,7 @@
         <v>16</v>
       </c>
       <c r="J273" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="274" spans="1:10">
@@ -11765,19 +11779,19 @@
         <v>273</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E274" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="G274" s="2" t="s">
         <v>15</v>
@@ -11789,7 +11803,7 @@
         <v>16</v>
       </c>
       <c r="J274" s="3" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="275" spans="1:10">
@@ -11797,19 +11811,19 @@
         <v>274</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E275" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F275" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="G275" s="2" t="s">
         <v>15</v>
@@ -11821,7 +11835,7 @@
         <v>16</v>
       </c>
       <c r="J275" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="276" spans="1:10">
@@ -11829,19 +11843,19 @@
         <v>275</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E276" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F276" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G276" s="2" t="s">
         <v>15</v>
@@ -11853,7 +11867,7 @@
         <v>16</v>
       </c>
       <c r="J276" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="277" spans="1:10">
@@ -11861,19 +11875,19 @@
         <v>276</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E277" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F277" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G277" s="2" t="s">
         <v>15</v>
@@ -11885,7 +11899,7 @@
         <v>16</v>
       </c>
       <c r="J277" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="278" spans="1:10">
@@ -11893,19 +11907,19 @@
         <v>277</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E278" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F278" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="G278" s="2" t="s">
         <v>15</v>
@@ -11917,7 +11931,7 @@
         <v>16</v>
       </c>
       <c r="J278" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="279" spans="1:10">
@@ -11925,19 +11939,19 @@
         <v>278</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D279" s="21" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E279" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F279" s="4" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G279" s="2" t="s">
         <v>15</v>
@@ -11949,7 +11963,7 @@
         <v>16</v>
       </c>
       <c r="J279" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="280" spans="1:10">
@@ -11957,19 +11971,19 @@
         <v>279</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E280" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F280" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G280" s="2" t="s">
         <v>15</v>
@@ -11981,7 +11995,7 @@
         <v>16</v>
       </c>
       <c r="J280" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="281" spans="1:10">
@@ -11989,19 +12003,19 @@
         <v>280</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E281" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F281" s="4" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="G281" s="2" t="s">
         <v>15</v>
@@ -12013,7 +12027,7 @@
         <v>16</v>
       </c>
       <c r="J281" s="3" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="282" spans="1:10">
@@ -12021,19 +12035,19 @@
         <v>281</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="E282" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F282" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="G282" s="2" t="s">
         <v>15</v>
@@ -12045,27 +12059,27 @@
         <v>16</v>
       </c>
       <c r="J282" s="3" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="283" spans="1:10">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" hidden="1">
       <c r="A283" s="4">
         <v>282</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F283" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="G283" s="2" t="s">
         <v>15</v>
@@ -12074,30 +12088,30 @@
         <v>45607</v>
       </c>
       <c r="I283" s="9" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="J283" s="3" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="284" spans="1:10">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" hidden="1">
       <c r="A284" s="4">
         <v>283</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F284" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="G284" s="2" t="s">
         <v>15</v>
@@ -12106,30 +12120,30 @@
         <v>45607</v>
       </c>
       <c r="I284" s="9" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="J284" s="3" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="285" spans="1:10">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" hidden="1">
       <c r="A285" s="4">
         <v>284</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F285" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="G285" s="2" t="s">
         <v>15</v>
@@ -12138,30 +12152,30 @@
         <v>45607</v>
       </c>
       <c r="I285" s="9" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="J285" s="3" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="286" spans="1:10">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" hidden="1">
       <c r="A286" s="4">
         <v>285</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F286" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="G286" s="2" t="s">
         <v>15</v>
@@ -12170,30 +12184,30 @@
         <v>45614</v>
       </c>
       <c r="I286" s="9" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="J286" s="3" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="287" spans="1:10">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" hidden="1">
       <c r="A287" s="4">
         <v>286</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F287" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="G287" s="2" t="s">
         <v>15</v>
@@ -12202,30 +12216,30 @@
         <v>45614</v>
       </c>
       <c r="I287" s="9" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="J287" s="3" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="288" spans="1:10">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" hidden="1">
       <c r="A288" s="4">
         <v>287</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F288" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G288" s="2" t="s">
         <v>15</v>
@@ -12234,30 +12248,30 @@
         <v>45615</v>
       </c>
       <c r="I288" s="9" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="J288" s="3" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="289" spans="1:10">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" hidden="1">
       <c r="A289" s="4">
         <v>288</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F289" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="G289" s="2" t="s">
         <v>15</v>
@@ -12266,30 +12280,30 @@
         <v>45615</v>
       </c>
       <c r="I289" s="9" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="J289" s="3" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="290" spans="1:10">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" hidden="1">
       <c r="A290" s="4">
         <v>289</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F290" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="G290" s="2" t="s">
         <v>15</v>
@@ -12298,30 +12312,30 @@
         <v>45615</v>
       </c>
       <c r="I290" s="9" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="J290" s="3" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="291" spans="1:10">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" hidden="1">
       <c r="A291" s="4">
         <v>290</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F291" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="G291" s="2" t="s">
         <v>15</v>
@@ -12330,30 +12344,30 @@
         <v>45617</v>
       </c>
       <c r="I291" s="9" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="J291" s="3" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="292" spans="1:10">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" hidden="1">
       <c r="A292" s="4">
         <v>291</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F292" s="1" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="G292" s="2" t="s">
         <v>15</v>
@@ -12362,30 +12376,30 @@
         <v>45617</v>
       </c>
       <c r="I292" s="9" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="J292" s="3" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="293" spans="1:10">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" hidden="1">
       <c r="A293" s="4">
         <v>292</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F293" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="G293" s="2" t="s">
         <v>15</v>
@@ -12394,30 +12408,30 @@
         <v>45618</v>
       </c>
       <c r="I293" s="9" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="J293" s="3" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="294" spans="1:10">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" hidden="1">
       <c r="A294" s="4">
         <v>293</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F294" s="1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="G294" s="2" t="s">
         <v>15</v>
@@ -12426,30 +12440,30 @@
         <v>45621</v>
       </c>
       <c r="I294" s="9" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="J294" s="3" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="295" spans="1:10">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" hidden="1">
       <c r="A295" s="4">
         <v>294</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F295" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="G295" s="2" t="s">
         <v>15</v>
@@ -12458,30 +12472,30 @@
         <v>45621</v>
       </c>
       <c r="I295" s="9" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="J295" s="3" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="296" spans="1:10">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" hidden="1">
       <c r="A296" s="4">
         <v>295</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E296" s="1" t="s">
         <v>98</v>
       </c>
       <c r="F296" s="1" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="G296" s="2" t="s">
         <v>15</v>
@@ -12493,21 +12507,21 @@
         <v>100</v>
       </c>
       <c r="J296" s="3" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="297" spans="1:10">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" hidden="1">
       <c r="A297" s="4">
         <v>296</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E297" s="1" t="s">
         <v>28</v>
@@ -12525,27 +12539,27 @@
         <v>16</v>
       </c>
       <c r="J297" s="3" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="298" spans="1:10">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" hidden="1">
       <c r="A298" s="4">
         <v>297</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E298" s="1" t="s">
         <v>98</v>
       </c>
       <c r="F298" s="1" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="G298" s="2" t="s">
         <v>15</v>
@@ -12557,21 +12571,21 @@
         <v>100</v>
       </c>
       <c r="J298" s="3" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="299" spans="1:10">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10" hidden="1">
       <c r="A299" s="4">
         <v>298</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="E299" s="1" t="s">
         <v>28</v>
@@ -12589,27 +12603,27 @@
         <v>100</v>
       </c>
       <c r="J299" s="3" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="300" spans="1:10">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" hidden="1">
       <c r="A300" s="4">
         <v>299</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="E300" s="1" t="s">
         <v>98</v>
       </c>
       <c r="F300" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G300" s="2" t="s">
         <v>15</v>
@@ -12621,27 +12635,27 @@
         <v>100</v>
       </c>
       <c r="J300" s="3" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="301" spans="1:10">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" hidden="1">
       <c r="A301" s="4">
         <v>300</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E301" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F301" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="G301" s="2" t="s">
         <v>15</v>
@@ -12653,27 +12667,27 @@
         <v>16</v>
       </c>
       <c r="J301" s="3" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="302" spans="1:10">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" hidden="1">
       <c r="A302" s="4">
         <v>301</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="E302" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F302" s="1" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="G302" s="2" t="s">
         <v>15</v>
@@ -12685,27 +12699,27 @@
         <v>16</v>
       </c>
       <c r="J302" s="3" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="303" spans="1:10">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10" hidden="1">
       <c r="A303" s="4">
         <v>302</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="E303" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F303" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="G303" s="2" t="s">
         <v>15</v>
@@ -12717,27 +12731,27 @@
         <v>16</v>
       </c>
       <c r="J303" s="3" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="304" spans="1:10">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10" hidden="1">
       <c r="A304" s="4">
         <v>303</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="E304" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F304" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="G304" s="2" t="s">
         <v>15</v>
@@ -12749,27 +12763,27 @@
         <v>16</v>
       </c>
       <c r="J304" s="3" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="305" spans="1:10">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" hidden="1">
       <c r="A305" s="4">
         <v>304</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E305" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F305" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="G305" s="2" t="s">
         <v>15</v>
@@ -12781,27 +12795,27 @@
         <v>16</v>
       </c>
       <c r="J305" s="3" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="306" spans="1:10">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" hidden="1">
       <c r="A306" s="4">
         <v>305</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="E306" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F306" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G306" s="2" t="s">
         <v>15</v>
@@ -12813,27 +12827,27 @@
         <v>16</v>
       </c>
       <c r="J306" s="3" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="307" spans="1:10">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10" hidden="1">
       <c r="A307" s="4">
         <v>306</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E307" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F307" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="G307" s="2" t="s">
         <v>15</v>
@@ -12845,27 +12859,27 @@
         <v>16</v>
       </c>
       <c r="J307" s="3" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="308" spans="1:10">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10" hidden="1">
       <c r="A308" s="4">
         <v>307</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E308" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F308" s="1" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="G308" s="2" t="s">
         <v>15</v>
@@ -12877,27 +12891,27 @@
         <v>16</v>
       </c>
       <c r="J308" s="3" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="309" spans="1:10">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" hidden="1">
       <c r="A309" s="4">
         <v>308</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="E309" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F309" s="1" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="G309" s="2" t="s">
         <v>15</v>
@@ -12909,7 +12923,7 @@
         <v>16</v>
       </c>
       <c r="J309" s="3" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="310" spans="1:10">
@@ -12917,19 +12931,19 @@
         <v>309</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="E310" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F310" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="G310" s="2" t="s">
         <v>15</v>
@@ -12941,21 +12955,21 @@
         <v>16</v>
       </c>
       <c r="J310" s="3" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="311" spans="1:10">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" hidden="1">
       <c r="A311" s="4">
         <v>310</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="E311" s="1" t="s">
         <v>28</v>
@@ -12973,7 +12987,7 @@
         <v>16</v>
       </c>
       <c r="J311" s="3" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="312" spans="1:10">
@@ -12981,19 +12995,19 @@
         <v>311</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="E312" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F312" s="1" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="G312" s="2" t="s">
         <v>15</v>
@@ -13002,10 +13016,10 @@
         <v>45702</v>
       </c>
       <c r="I312" s="9" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="J312" s="3" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="313" spans="1:10">
@@ -13013,19 +13027,19 @@
         <v>312</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="E313" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F313" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G313" s="2" t="s">
         <v>15</v>
@@ -13034,10 +13048,10 @@
         <v>45702</v>
       </c>
       <c r="I313" s="9" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="J313" s="3" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="314" spans="1:10">
@@ -13045,19 +13059,19 @@
         <v>313</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="E314" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F314" s="1" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G314" s="2" t="s">
         <v>15</v>
@@ -13066,10 +13080,10 @@
         <v>45702</v>
       </c>
       <c r="I314" s="9" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="J314" s="3" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="315" spans="1:10">
@@ -13077,19 +13091,19 @@
         <v>314</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="E315" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F315" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="G315" s="2" t="s">
         <v>15</v>
@@ -13101,7 +13115,7 @@
         <v>16</v>
       </c>
       <c r="J315" s="3" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="316" spans="1:10">
@@ -13109,19 +13123,19 @@
         <v>315</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E316" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F316" s="1" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="G316" s="2" t="s">
         <v>15</v>
@@ -13130,10 +13144,10 @@
         <v>45726</v>
       </c>
       <c r="I316" s="9" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="J316" s="3" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="317" spans="1:10">
@@ -13141,19 +13155,19 @@
         <v>316</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E317" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F317" s="1" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="G317" s="2" t="s">
         <v>15</v>
@@ -13162,10 +13176,10 @@
         <v>45726</v>
       </c>
       <c r="I317" s="9" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="J317" s="3" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="318" spans="1:10">
@@ -13173,19 +13187,19 @@
         <v>317</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E318" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F318" s="1" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="G318" s="2" t="s">
         <v>15</v>
@@ -13194,10 +13208,10 @@
         <v>45726</v>
       </c>
       <c r="I318" s="9" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="J318" s="3" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="319" spans="1:10">
@@ -13205,13 +13219,13 @@
         <v>318</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="E319" s="1" t="s">
         <v>88</v>
@@ -13229,7 +13243,7 @@
         <v>16</v>
       </c>
       <c r="J319" s="3" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="320" spans="1:10">
@@ -13237,19 +13251,19 @@
         <v>319</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="E320" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F320" s="1" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="G320" s="2" t="s">
         <v>15</v>
@@ -13261,7 +13275,7 @@
         <v>16</v>
       </c>
       <c r="J320" s="3" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
     </row>
     <row r="321" spans="1:10">
@@ -13269,19 +13283,19 @@
         <v>320</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>665</v>
+        <v>784</v>
       </c>
       <c r="E321" s="1" t="s">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="F321" s="1" t="s">
-        <v>666</v>
+        <v>786</v>
       </c>
       <c r="G321" s="2" t="s">
         <v>15</v>
@@ -13293,27 +13307,27 @@
         <v>16</v>
       </c>
       <c r="J321" s="3" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="322" spans="1:10">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="322" spans="1:10" hidden="1">
       <c r="A322" s="4">
         <v>321</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="E322" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F322" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G322" s="2" t="s">
         <v>15</v>
@@ -13325,27 +13339,27 @@
         <v>16</v>
       </c>
       <c r="J322" s="3" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="323" spans="1:10">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="323" spans="1:10" hidden="1">
       <c r="A323" s="4">
         <v>322</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="E323" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F323" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G323" s="2" t="s">
         <v>15</v>
@@ -13357,27 +13371,27 @@
         <v>16</v>
       </c>
       <c r="J323" s="3" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="324" spans="1:10">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10" hidden="1">
       <c r="A324" s="4">
         <v>323</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="E324" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F324" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G324" s="2" t="s">
         <v>15</v>
@@ -13389,27 +13403,27 @@
         <v>16</v>
       </c>
       <c r="J324" s="3" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="325" spans="1:10">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="325" spans="1:10" hidden="1">
       <c r="A325" s="4">
         <v>324</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="E325" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F325" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G325" s="2" t="s">
         <v>15</v>
@@ -13421,27 +13435,27 @@
         <v>16</v>
       </c>
       <c r="J325" s="3" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="326" spans="1:10">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="326" spans="1:10" hidden="1">
       <c r="A326" s="4">
         <v>325</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="E326" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F326" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G326" s="2" t="s">
         <v>15</v>
@@ -13453,27 +13467,27 @@
         <v>16</v>
       </c>
       <c r="J326" s="3" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="327" spans="1:10">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="327" spans="1:10" hidden="1">
       <c r="A327" s="4">
         <v>326</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="E327" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F327" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G327" s="2" t="s">
         <v>15</v>
@@ -13485,27 +13499,27 @@
         <v>16</v>
       </c>
       <c r="J327" s="3" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="328" spans="1:10">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="328" spans="1:10" hidden="1">
       <c r="A328" s="4">
         <v>327</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="E328" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F328" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G328" s="2" t="s">
         <v>15</v>
@@ -13517,27 +13531,27 @@
         <v>16</v>
       </c>
       <c r="J328" s="3" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="329" spans="1:10">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="329" spans="1:10" hidden="1">
       <c r="A329" s="4">
         <v>328</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="E329" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F329" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G329" s="2" t="s">
         <v>15</v>
@@ -13549,27 +13563,27 @@
         <v>16</v>
       </c>
       <c r="J329" s="3" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="330" spans="1:10">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10" hidden="1">
       <c r="A330" s="4">
         <v>329</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="E330" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F330" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G330" s="2" t="s">
         <v>15</v>
@@ -13581,27 +13595,27 @@
         <v>16</v>
       </c>
       <c r="J330" s="3" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="331" spans="1:10">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="331" spans="1:10" hidden="1">
       <c r="A331" s="4">
         <v>330</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="E331" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F331" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G331" s="2" t="s">
         <v>15</v>
@@ -13613,27 +13627,27 @@
         <v>16</v>
       </c>
       <c r="J331" s="3" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="332" spans="1:10">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="332" spans="1:10" hidden="1">
       <c r="A332" s="4">
         <v>331</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="E332" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F332" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G332" s="2" t="s">
         <v>15</v>
@@ -13645,27 +13659,27 @@
         <v>16</v>
       </c>
       <c r="J332" s="3" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="333" spans="1:10">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="333" spans="1:10" hidden="1">
       <c r="A333" s="4">
         <v>332</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="E333" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F333" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G333" s="2" t="s">
         <v>15</v>
@@ -13677,27 +13691,27 @@
         <v>16</v>
       </c>
       <c r="J333" s="3" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="334" spans="1:10">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="334" spans="1:10" hidden="1">
       <c r="A334" s="4">
         <v>333</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="E334" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F334" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G334" s="2" t="s">
         <v>15</v>
@@ -13709,27 +13723,27 @@
         <v>16</v>
       </c>
       <c r="J334" s="3" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="335" spans="1:10">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="335" spans="1:10" hidden="1">
       <c r="A335" s="4">
         <v>334</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="E335" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F335" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G335" s="2" t="s">
         <v>15</v>
@@ -13741,27 +13755,27 @@
         <v>16</v>
       </c>
       <c r="J335" s="3" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="336" spans="1:10">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="336" spans="1:10" hidden="1">
       <c r="A336" s="4">
         <v>335</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="E336" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F336" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G336" s="2" t="s">
         <v>15</v>
@@ -13773,27 +13787,27 @@
         <v>16</v>
       </c>
       <c r="J336" s="3" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="337" spans="1:10">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="337" spans="1:10" hidden="1">
       <c r="A337" s="4">
         <v>336</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="E337" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F337" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G337" s="2" t="s">
         <v>15</v>
@@ -13805,27 +13819,27 @@
         <v>16</v>
       </c>
       <c r="J337" s="3" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="338" spans="1:10">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="338" spans="1:10" hidden="1">
       <c r="A338" s="4">
         <v>337</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="E338" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F338" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G338" s="2" t="s">
         <v>15</v>
@@ -13837,27 +13851,27 @@
         <v>16</v>
       </c>
       <c r="J338" s="3" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="339" spans="1:10">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="339" spans="1:10" hidden="1">
       <c r="A339" s="4">
         <v>338</v>
       </c>
       <c r="B339" s="15" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C339" s="15" t="s">
         <v>11</v>
       </c>
       <c r="D339" s="14" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="E339" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F339" s="1" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="G339" s="15" t="s">
         <v>15</v>
@@ -13869,7 +13883,7 @@
         <v>16</v>
       </c>
       <c r="J339" s="3" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="340" spans="1:10">
@@ -13877,19 +13891,19 @@
         <v>339</v>
       </c>
       <c r="B340" s="15" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C340" s="15" t="s">
         <v>11</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="E340" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F340" s="1" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="G340" s="15" t="s">
         <v>15</v>
@@ -13901,7 +13915,7 @@
         <v>16</v>
       </c>
       <c r="J340" s="3" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="341" spans="1:10">
@@ -13910,44 +13924,44 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="D240">
-    <cfRule type="duplicateValues" dxfId="11" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="7" operator="equal">
       <formula>"MANUTENÇÃO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="8" operator="equal">
       <formula>"DEPOSITO SOLAGOS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G188 E1:E1048576">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="6" operator="equal">
       <formula>"SOLAGOS DEPOSITO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F339">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
       <formula>"MANUTENÇÃO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
       <formula>"DEPOSITO SOLAGOS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E339:E340">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
       <formula>"SOLAGOS DEPOSITO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D339">
-    <cfRule type="duplicateValues" dxfId="2" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D340">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D340">
-    <cfRule type="duplicateValues" dxfId="0" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="52"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13976,33 +13990,33 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B1" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>668</v>
+      </c>
+      <c r="E1" t="s">
+        <v>669</v>
+      </c>
+      <c r="F1" t="s">
         <v>670</v>
-      </c>
-      <c r="E1" t="s">
-        <v>671</v>
-      </c>
-      <c r="F1" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B2" t="s">
+        <v>672</v>
+      </c>
+      <c r="C2" t="s">
         <v>673</v>
-      </c>
-      <c r="B2" t="s">
-        <v>674</v>
-      </c>
-      <c r="C2" t="s">
-        <v>675</v>
       </c>
       <c r="D2">
         <v>1885</v>
@@ -14013,13 +14027,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>671</v>
+      </c>
+      <c r="B3" t="s">
+        <v>672</v>
+      </c>
+      <c r="C3" t="s">
         <v>673</v>
-      </c>
-      <c r="B3" t="s">
-        <v>674</v>
-      </c>
-      <c r="C3" t="s">
-        <v>675</v>
       </c>
       <c r="D3">
         <v>1880</v>
@@ -14030,13 +14044,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>671</v>
+      </c>
+      <c r="B4" t="s">
+        <v>672</v>
+      </c>
+      <c r="C4" t="s">
         <v>673</v>
-      </c>
-      <c r="B4" t="s">
-        <v>674</v>
-      </c>
-      <c r="C4" t="s">
-        <v>675</v>
       </c>
       <c r="D4">
         <v>1881</v>
@@ -14047,13 +14061,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
+        <v>671</v>
+      </c>
+      <c r="B5" t="s">
+        <v>672</v>
+      </c>
+      <c r="C5" t="s">
         <v>673</v>
-      </c>
-      <c r="B5" t="s">
-        <v>674</v>
-      </c>
-      <c r="C5" t="s">
-        <v>675</v>
       </c>
       <c r="D5">
         <v>1890</v>
@@ -14064,13 +14078,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
+        <v>671</v>
+      </c>
+      <c r="B6" t="s">
+        <v>672</v>
+      </c>
+      <c r="C6" t="s">
         <v>673</v>
-      </c>
-      <c r="B6" t="s">
-        <v>674</v>
-      </c>
-      <c r="C6" t="s">
-        <v>675</v>
       </c>
       <c r="D6">
         <v>1878</v>
@@ -14081,13 +14095,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
+        <v>671</v>
+      </c>
+      <c r="B7" t="s">
+        <v>672</v>
+      </c>
+      <c r="C7" t="s">
         <v>673</v>
-      </c>
-      <c r="B7" t="s">
-        <v>674</v>
-      </c>
-      <c r="C7" t="s">
-        <v>675</v>
       </c>
       <c r="D7">
         <v>1883</v>
@@ -14098,16 +14112,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
+        <v>671</v>
+      </c>
+      <c r="B8" t="s">
+        <v>672</v>
+      </c>
+      <c r="C8" t="s">
         <v>673</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" s="23" t="s">
         <v>674</v>
-      </c>
-      <c r="C8" t="s">
-        <v>675</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>676</v>
       </c>
       <c r="F8" s="22">
         <v>1</v>
@@ -14115,13 +14129,13 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
+        <v>671</v>
+      </c>
+      <c r="B9" t="s">
+        <v>672</v>
+      </c>
+      <c r="C9" t="s">
         <v>673</v>
-      </c>
-      <c r="B9" t="s">
-        <v>674</v>
-      </c>
-      <c r="C9" t="s">
-        <v>675</v>
       </c>
       <c r="D9">
         <v>1889</v>
@@ -14132,13 +14146,13 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
+        <v>671</v>
+      </c>
+      <c r="B10" t="s">
+        <v>672</v>
+      </c>
+      <c r="C10" t="s">
         <v>673</v>
-      </c>
-      <c r="B10" t="s">
-        <v>674</v>
-      </c>
-      <c r="C10" t="s">
-        <v>675</v>
       </c>
       <c r="D10">
         <v>1879</v>
@@ -14149,13 +14163,13 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
+        <v>671</v>
+      </c>
+      <c r="B11" t="s">
+        <v>672</v>
+      </c>
+      <c r="C11" t="s">
         <v>673</v>
-      </c>
-      <c r="B11" t="s">
-        <v>674</v>
-      </c>
-      <c r="C11" t="s">
-        <v>675</v>
       </c>
       <c r="D11">
         <v>1891</v>
@@ -14166,13 +14180,13 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
+        <v>671</v>
+      </c>
+      <c r="B12" t="s">
+        <v>672</v>
+      </c>
+      <c r="C12" t="s">
         <v>673</v>
-      </c>
-      <c r="B12" t="s">
-        <v>674</v>
-      </c>
-      <c r="C12" t="s">
-        <v>675</v>
       </c>
       <c r="D12">
         <v>1891</v>
@@ -14183,16 +14197,16 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
+        <v>671</v>
+      </c>
+      <c r="B13" t="s">
+        <v>672</v>
+      </c>
+      <c r="C13" t="s">
         <v>673</v>
       </c>
-      <c r="B13" t="s">
-        <v>674</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="D13" s="23" t="s">
         <v>675</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>677</v>
       </c>
       <c r="F13" s="22">
         <v>1</v>
@@ -14200,13 +14214,13 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
+        <v>671</v>
+      </c>
+      <c r="B14" t="s">
+        <v>672</v>
+      </c>
+      <c r="C14" t="s">
         <v>673</v>
-      </c>
-      <c r="B14" t="s">
-        <v>674</v>
-      </c>
-      <c r="C14" t="s">
-        <v>675</v>
       </c>
       <c r="D14">
         <v>1894</v>
@@ -14217,19 +14231,19 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
+        <v>676</v>
+      </c>
+      <c r="B15" t="s">
+        <v>677</v>
+      </c>
+      <c r="C15" t="s">
         <v>678</v>
       </c>
-      <c r="B15" t="s">
+      <c r="D15" t="s">
         <v>679</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E15" t="s">
         <v>680</v>
-      </c>
-      <c r="D15" t="s">
-        <v>681</v>
-      </c>
-      <c r="E15" t="s">
-        <v>682</v>
       </c>
       <c r="F15" s="22">
         <v>17</v>
@@ -14237,19 +14251,19 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B16" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C16" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D16" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="E16" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="F16" s="22">
         <v>4</v>
@@ -14257,19 +14271,19 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B17" t="s">
+        <v>683</v>
+      </c>
+      <c r="C17" t="s">
+        <v>684</v>
+      </c>
+      <c r="D17" t="s">
         <v>685</v>
       </c>
-      <c r="C17" t="s">
-        <v>686</v>
-      </c>
-      <c r="D17" t="s">
-        <v>687</v>
-      </c>
       <c r="E17" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="F17" s="22">
         <v>45</v>
@@ -14277,19 +14291,19 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B18" t="s">
+        <v>683</v>
+      </c>
+      <c r="C18" t="s">
+        <v>684</v>
+      </c>
+      <c r="D18" t="s">
         <v>685</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E18" t="s">
         <v>686</v>
-      </c>
-      <c r="D18" t="s">
-        <v>687</v>
-      </c>
-      <c r="E18" t="s">
-        <v>688</v>
       </c>
       <c r="F18" s="22">
         <v>12</v>
@@ -14297,19 +14311,19 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B19" t="s">
+        <v>683</v>
+      </c>
+      <c r="C19" t="s">
+        <v>684</v>
+      </c>
+      <c r="D19" t="s">
         <v>685</v>
       </c>
-      <c r="C19" t="s">
-        <v>686</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>687</v>
-      </c>
-      <c r="E19" t="s">
-        <v>689</v>
       </c>
       <c r="F19" s="22">
         <v>14</v>
@@ -14317,19 +14331,19 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B20" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C20" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D20" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E20" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="F20" s="22">
         <v>4</v>
@@ -14337,19 +14351,19 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B21" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C21" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D21" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E21" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="F21" s="22">
         <v>6</v>
@@ -14357,19 +14371,19 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
+        <v>689</v>
+      </c>
+      <c r="B22" t="s">
+        <v>690</v>
+      </c>
+      <c r="C22" t="s">
         <v>691</v>
       </c>
-      <c r="B22" t="s">
+      <c r="D22" t="s">
         <v>692</v>
       </c>
-      <c r="C22" t="s">
-        <v>693</v>
-      </c>
-      <c r="D22" t="s">
-        <v>694</v>
-      </c>
       <c r="E22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="F22" s="22">
         <v>3</v>
@@ -14377,19 +14391,19 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B23" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C23" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="D23" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E23" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="F23" s="22">
         <v>14</v>
@@ -14397,19 +14411,19 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B24" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C24" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="D24" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E24" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="F24" s="22">
         <v>13</v>
@@ -14417,19 +14431,19 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
+        <v>695</v>
+      </c>
+      <c r="B25" t="s">
+        <v>690</v>
+      </c>
+      <c r="C25" t="s">
+        <v>691</v>
+      </c>
+      <c r="D25" t="s">
+        <v>696</v>
+      </c>
+      <c r="E25" t="s">
         <v>697</v>
-      </c>
-      <c r="B25" t="s">
-        <v>692</v>
-      </c>
-      <c r="C25" t="s">
-        <v>693</v>
-      </c>
-      <c r="D25" t="s">
-        <v>698</v>
-      </c>
-      <c r="E25" t="s">
-        <v>699</v>
       </c>
       <c r="F25" s="22">
         <v>2</v>
@@ -14437,19 +14451,19 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
+        <v>689</v>
+      </c>
+      <c r="B26" t="s">
+        <v>690</v>
+      </c>
+      <c r="C26" t="s">
         <v>691</v>
       </c>
-      <c r="B26" t="s">
-        <v>692</v>
-      </c>
-      <c r="C26" t="s">
-        <v>693</v>
-      </c>
       <c r="D26" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E26" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="F26" s="22">
         <v>1</v>

--- a/data_printer.xlsx
+++ b/data_printer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GamErick\Desktop\Nova pasta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F417EDD-13FF-45A0-ABA7-1CD5E5B74DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A87E5AD-61E3-46D4-A01A-5B57CE2B6DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A8AA41B5-7AA1-4FF7-A9B8-54B8A4E1AF28}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2750" uniqueCount="790">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2750" uniqueCount="791">
   <si>
     <t>INDICE</t>
   </si>
@@ -1254,9 +1254,6 @@
     <t>G988X472605</t>
   </si>
   <si>
-    <t>TROCA EM 08/11/2023 / ESTAVA NA GUARDA CIVIL</t>
-  </si>
-  <si>
     <t>S9058600117</t>
   </si>
   <si>
@@ -1893,9 +1890,6 @@
     <t>U67030G3N135492</t>
   </si>
   <si>
-    <t>IMPRESSORA INSTALADA EM 22/11/2024 - SUBSTITUIU RICOH 501; BROTHER 5512 QUEIMOU A PLACA FONTE COM PICO LUZ QUE TEVE NO HOSPITAL 04/01/2025;</t>
-  </si>
-  <si>
     <t>U67030G3N135493</t>
   </si>
   <si>
@@ -2407,6 +2401,15 @@
   </si>
   <si>
     <t>F_CASA DE CULTURA</t>
+  </si>
+  <si>
+    <t>IMPRESSORA INSTALADA EM 22/11/2024 - SUBSTITUIU RICOH 501; BROTHER 5512 QUEIMOU A PLACA FONTE COM PICO LUZ QUE TEVE NO HOSPITAL 04/01/2025; Reparada e colocada Pam 16/06/2025;</t>
+  </si>
+  <si>
+    <t>SEC. MEIO AMBIENTE</t>
+  </si>
+  <si>
+    <t>TROCA EM 08/11/2023 / ESTAVA NA GUARDA CIVIL, EMPRESTADA SEC. MEIO AMBIENTE;</t>
   </si>
 </sst>
 </file>
@@ -2962,13 +2965,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C244623C-48DE-4D05-852C-6EFDD885ABE2}" name="Controle_Inventario_Impressoras" displayName="Controle_Inventario_Impressoras" ref="A1:J340" tableType="queryTable" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A1:J340" xr:uid="{C244623C-48DE-4D05-852C-6EFDD885ABE2}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="PAÇO"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:J340" xr:uid="{C244623C-48DE-4D05-852C-6EFDD885ABE2}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J27">
     <sortCondition ref="A13"/>
   </sortState>
@@ -3303,7 +3300,7 @@
   <dimension ref="A1:J341"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F341" sqref="F341"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -3353,7 +3350,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" hidden="1">
+    <row r="2" spans="1:10">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -3385,7 +3382,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:10" hidden="1">
+    <row r="3" spans="1:10">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -3417,7 +3414,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:10" hidden="1">
+    <row r="4" spans="1:10">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -3449,7 +3446,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:10" hidden="1">
+    <row r="5" spans="1:10">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -3481,7 +3478,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:10" hidden="1">
+    <row r="6" spans="1:10">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -3498,7 +3495,7 @@
         <v>98</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>15</v>
@@ -3513,7 +3510,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:10" hidden="1">
+    <row r="7" spans="1:10">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -3542,7 +3539,7 @@
         <v>16</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -3562,7 +3559,7 @@
         <v>88</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>15</v>
@@ -3577,7 +3574,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:10" hidden="1">
+    <row r="9" spans="1:10">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -3609,7 +3606,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:10" hidden="1">
+    <row r="10" spans="1:10">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -3639,7 +3636,7 @@
       </c>
       <c r="J10" s="7"/>
     </row>
-    <row r="11" spans="1:10" hidden="1">
+    <row r="11" spans="1:10">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -3669,7 +3666,7 @@
       </c>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="1:10" hidden="1">
+    <row r="12" spans="1:10">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -3701,7 +3698,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:10" hidden="1">
+    <row r="13" spans="1:10">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -3718,7 +3715,7 @@
         <v>21</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>40</v>
@@ -3733,7 +3730,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:10" hidden="1">
+    <row r="14" spans="1:10">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -3750,7 +3747,7 @@
         <v>98</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>15</v>
@@ -3765,7 +3762,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:10" hidden="1">
+    <row r="15" spans="1:10">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -3782,7 +3779,7 @@
         <v>21</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>40</v>
@@ -3794,10 +3791,10 @@
         <v>16</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" hidden="1">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -3826,7 +3823,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:10" hidden="1">
+    <row r="17" spans="1:10">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -3858,7 +3855,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:10" hidden="1">
+    <row r="18" spans="1:10">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -3890,7 +3887,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:10" hidden="1">
+    <row r="19" spans="1:10">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -3922,7 +3919,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:10" hidden="1">
+    <row r="20" spans="1:10">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -3954,7 +3951,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:10" hidden="1">
+    <row r="21" spans="1:10">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -3986,7 +3983,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75" hidden="1" customHeight="1">
+    <row r="22" spans="1:10" ht="15.75" customHeight="1">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -4018,7 +4015,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:10" hidden="1">
+    <row r="23" spans="1:10">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -4050,7 +4047,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:10" hidden="1">
+    <row r="24" spans="1:10">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -4082,7 +4079,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:10" hidden="1">
+    <row r="25" spans="1:10">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -4114,7 +4111,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:10" hidden="1">
+    <row r="26" spans="1:10">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -4143,7 +4140,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:10" hidden="1">
+    <row r="27" spans="1:10">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -4172,7 +4169,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:10" hidden="1">
+    <row r="28" spans="1:10">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -4236,7 +4233,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:10" hidden="1">
+    <row r="30" spans="1:10">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -4268,7 +4265,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="31" spans="1:10" hidden="1">
+    <row r="31" spans="1:10">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -4300,7 +4297,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="32" spans="1:10" hidden="1">
+    <row r="32" spans="1:10">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -4329,10 +4326,10 @@
         <v>16</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" hidden="1">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -4361,10 +4358,10 @@
         <v>100</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" hidden="1">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -4396,7 +4393,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:10" hidden="1">
+    <row r="35" spans="1:10">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -4428,7 +4425,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="36" spans="1:10" hidden="1">
+    <row r="36" spans="1:10">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -4460,7 +4457,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:10" hidden="1">
+    <row r="37" spans="1:10">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -4489,7 +4486,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="38" spans="1:10" hidden="1">
+    <row r="38" spans="1:10">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -4521,7 +4518,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="39" spans="1:10" hidden="1">
+    <row r="39" spans="1:10">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -4553,7 +4550,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="40" spans="1:10" hidden="1">
+    <row r="40" spans="1:10">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -4585,7 +4582,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="41" spans="1:10" hidden="1">
+    <row r="41" spans="1:10">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -4617,7 +4614,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="42" spans="1:10" hidden="1">
+    <row r="42" spans="1:10">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -4649,7 +4646,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="43" spans="1:10" hidden="1">
+    <row r="43" spans="1:10">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -4681,7 +4678,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="44" spans="1:10" hidden="1">
+    <row r="44" spans="1:10">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -4713,7 +4710,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="45" spans="1:10" hidden="1">
+    <row r="45" spans="1:10">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -4742,7 +4739,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:10" hidden="1">
+    <row r="46" spans="1:10">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -4774,7 +4771,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="47" spans="1:10" hidden="1">
+    <row r="47" spans="1:10">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -4806,7 +4803,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="48" spans="1:10" hidden="1">
+    <row r="48" spans="1:10">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -4838,7 +4835,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="49" spans="1:10" hidden="1">
+    <row r="49" spans="1:10">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -4867,7 +4864,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:10" hidden="1">
+    <row r="50" spans="1:10">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -4896,7 +4893,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:10" hidden="1">
+    <row r="51" spans="1:10">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -4928,7 +4925,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="52" spans="1:10" hidden="1">
+    <row r="52" spans="1:10">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -4957,7 +4954,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:10" hidden="1">
+    <row r="53" spans="1:10">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -4986,7 +4983,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:10" hidden="1">
+    <row r="54" spans="1:10">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -5015,7 +5012,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:10" hidden="1">
+    <row r="55" spans="1:10">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -5044,7 +5041,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:10" hidden="1">
+    <row r="56" spans="1:10">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -5073,7 +5070,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="1:10" hidden="1">
+    <row r="57" spans="1:10">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -5102,7 +5099,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:10" hidden="1">
+    <row r="58" spans="1:10">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -5134,7 +5131,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="59" spans="1:10" hidden="1">
+    <row r="59" spans="1:10">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -5166,7 +5163,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="60" spans="1:10" hidden="1">
+    <row r="60" spans="1:10">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -5195,7 +5192,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="1:10" hidden="1">
+    <row r="61" spans="1:10">
       <c r="A61" s="4">
         <v>60</v>
       </c>
@@ -5227,7 +5224,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="62" spans="1:10" hidden="1">
+    <row r="62" spans="1:10">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -5256,7 +5253,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:10" hidden="1">
+    <row r="63" spans="1:10">
       <c r="A63" s="4">
         <v>62</v>
       </c>
@@ -5285,7 +5282,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:10" hidden="1">
+    <row r="64" spans="1:10">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -5314,7 +5311,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:10" hidden="1">
+    <row r="65" spans="1:10">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -5343,7 +5340,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="1:10" hidden="1">
+    <row r="66" spans="1:10">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -5375,7 +5372,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="67" spans="1:10" hidden="1">
+    <row r="67" spans="1:10">
       <c r="A67" s="4">
         <v>66</v>
       </c>
@@ -5407,7 +5404,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="68" spans="1:10" hidden="1">
+    <row r="68" spans="1:10">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -5436,7 +5433,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="69" spans="1:10" hidden="1">
+    <row r="69" spans="1:10">
       <c r="A69" s="4">
         <v>68</v>
       </c>
@@ -5468,7 +5465,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="70" spans="1:10" hidden="1">
+    <row r="70" spans="1:10">
       <c r="A70" s="4">
         <v>69</v>
       </c>
@@ -5500,7 +5497,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="71" spans="1:10" hidden="1">
+    <row r="71" spans="1:10">
       <c r="A71" s="4">
         <v>70</v>
       </c>
@@ -5532,7 +5529,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="72" spans="1:10" hidden="1">
+    <row r="72" spans="1:10">
       <c r="A72" s="4">
         <v>71</v>
       </c>
@@ -5564,7 +5561,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="73" spans="1:10" hidden="1">
+    <row r="73" spans="1:10">
       <c r="A73" s="4">
         <v>72</v>
       </c>
@@ -5593,7 +5590,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="74" spans="1:10" hidden="1">
+    <row r="74" spans="1:10">
       <c r="A74" s="4">
         <v>73</v>
       </c>
@@ -5625,7 +5622,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="75" spans="1:10" hidden="1">
+    <row r="75" spans="1:10">
       <c r="A75" s="4">
         <v>74</v>
       </c>
@@ -5657,7 +5654,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="76" spans="1:10" hidden="1">
+    <row r="76" spans="1:10">
       <c r="A76" s="4">
         <v>75</v>
       </c>
@@ -5689,7 +5686,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="77" spans="1:10" hidden="1">
+    <row r="77" spans="1:10">
       <c r="A77" s="4">
         <v>76</v>
       </c>
@@ -5721,7 +5718,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="78" spans="1:10" hidden="1">
+    <row r="78" spans="1:10">
       <c r="A78" s="4">
         <v>77</v>
       </c>
@@ -5753,7 +5750,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="79" spans="1:10" hidden="1">
+    <row r="79" spans="1:10">
       <c r="A79" s="4">
         <v>78</v>
       </c>
@@ -5785,7 +5782,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="80" spans="1:10" hidden="1">
+    <row r="80" spans="1:10">
       <c r="A80" s="4">
         <v>79</v>
       </c>
@@ -5811,7 +5808,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="81" spans="1:10" hidden="1">
+    <row r="81" spans="1:10">
       <c r="A81" s="4">
         <v>80</v>
       </c>
@@ -5837,7 +5834,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="82" spans="1:10" hidden="1">
+    <row r="82" spans="1:10">
       <c r="A82" s="4">
         <v>81</v>
       </c>
@@ -5863,7 +5860,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="83" spans="1:10" hidden="1">
+    <row r="83" spans="1:10">
       <c r="A83" s="4">
         <v>82</v>
       </c>
@@ -5895,7 +5892,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="84" spans="1:10" hidden="1">
+    <row r="84" spans="1:10">
       <c r="A84" s="4">
         <v>83</v>
       </c>
@@ -5927,7 +5924,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="85" spans="1:10" hidden="1">
+    <row r="85" spans="1:10">
       <c r="A85" s="4">
         <v>84</v>
       </c>
@@ -5959,7 +5956,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="86" spans="1:10" hidden="1">
+    <row r="86" spans="1:10">
       <c r="A86" s="4">
         <v>85</v>
       </c>
@@ -5991,7 +5988,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="87" spans="1:10" hidden="1">
+    <row r="87" spans="1:10">
       <c r="A87" s="4">
         <v>86</v>
       </c>
@@ -6020,7 +6017,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="88" spans="1:10" hidden="1">
+    <row r="88" spans="1:10">
       <c r="A88" s="4">
         <v>87</v>
       </c>
@@ -6037,7 +6034,7 @@
         <v>28</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>40</v>
@@ -6052,7 +6049,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="89" spans="1:10" hidden="1">
+    <row r="89" spans="1:10">
       <c r="A89" s="4">
         <v>88</v>
       </c>
@@ -6084,7 +6081,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="90" spans="1:10" hidden="1">
+    <row r="90" spans="1:10">
       <c r="A90" s="4">
         <v>89</v>
       </c>
@@ -6110,7 +6107,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="91" spans="1:10" hidden="1">
+    <row r="91" spans="1:10">
       <c r="A91" s="4">
         <v>90</v>
       </c>
@@ -6136,7 +6133,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="92" spans="1:10" hidden="1">
+    <row r="92" spans="1:10">
       <c r="A92" s="4">
         <v>91</v>
       </c>
@@ -6168,7 +6165,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="93" spans="1:10" hidden="1">
+    <row r="93" spans="1:10">
       <c r="A93" s="4">
         <v>92</v>
       </c>
@@ -6194,7 +6191,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="94" spans="1:10" hidden="1">
+    <row r="94" spans="1:10">
       <c r="A94" s="4">
         <v>93</v>
       </c>
@@ -6223,7 +6220,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="95" spans="1:10" hidden="1">
+    <row r="95" spans="1:10">
       <c r="A95" s="4">
         <v>94</v>
       </c>
@@ -6252,7 +6249,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="96" spans="1:10" hidden="1">
+    <row r="96" spans="1:10">
       <c r="A96" s="4">
         <v>95</v>
       </c>
@@ -6281,7 +6278,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="97" spans="1:10" hidden="1">
+    <row r="97" spans="1:10">
       <c r="A97" s="4">
         <v>96</v>
       </c>
@@ -6310,7 +6307,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="98" spans="1:10" hidden="1">
+    <row r="98" spans="1:10">
       <c r="A98" s="4">
         <v>97</v>
       </c>
@@ -6342,7 +6339,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="99" spans="1:10" hidden="1">
+    <row r="99" spans="1:10">
       <c r="A99" s="4">
         <v>98</v>
       </c>
@@ -6374,7 +6371,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="100" spans="1:10" hidden="1">
+    <row r="100" spans="1:10">
       <c r="A100" s="4">
         <v>99</v>
       </c>
@@ -6406,7 +6403,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="101" spans="1:10" hidden="1">
+    <row r="101" spans="1:10">
       <c r="A101" s="4">
         <v>100</v>
       </c>
@@ -6438,7 +6435,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="102" spans="1:10" hidden="1">
+    <row r="102" spans="1:10">
       <c r="A102" s="4">
         <v>101</v>
       </c>
@@ -6470,7 +6467,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="103" spans="1:10" hidden="1">
+    <row r="103" spans="1:10">
       <c r="A103" s="4">
         <v>102</v>
       </c>
@@ -6502,7 +6499,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="104" spans="1:10" hidden="1">
+    <row r="104" spans="1:10">
       <c r="A104" s="4">
         <v>103</v>
       </c>
@@ -6534,7 +6531,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="105" spans="1:10" hidden="1">
+    <row r="105" spans="1:10">
       <c r="A105" s="4">
         <v>104</v>
       </c>
@@ -6566,7 +6563,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="106" spans="1:10" hidden="1">
+    <row r="106" spans="1:10">
       <c r="A106" s="4">
         <v>105</v>
       </c>
@@ -6598,7 +6595,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="107" spans="1:10" hidden="1">
+    <row r="107" spans="1:10">
       <c r="A107" s="4">
         <v>106</v>
       </c>
@@ -6630,7 +6627,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="108" spans="1:10" hidden="1">
+    <row r="108" spans="1:10">
       <c r="A108" s="4">
         <v>107</v>
       </c>
@@ -6662,7 +6659,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="109" spans="1:10" hidden="1">
+    <row r="109" spans="1:10">
       <c r="A109" s="4">
         <v>108</v>
       </c>
@@ -6694,7 +6691,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="110" spans="1:10" hidden="1">
+    <row r="110" spans="1:10">
       <c r="A110" s="4">
         <v>109</v>
       </c>
@@ -6726,7 +6723,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="111" spans="1:10" hidden="1">
+    <row r="111" spans="1:10">
       <c r="A111" s="4">
         <v>110</v>
       </c>
@@ -6758,7 +6755,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="112" spans="1:10" hidden="1">
+    <row r="112" spans="1:10">
       <c r="A112" s="4">
         <v>111</v>
       </c>
@@ -6790,7 +6787,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="113" spans="1:10" hidden="1">
+    <row r="113" spans="1:10">
       <c r="A113" s="4">
         <v>112</v>
       </c>
@@ -6822,7 +6819,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="114" spans="1:10" hidden="1">
+    <row r="114" spans="1:10">
       <c r="A114" s="4">
         <v>113</v>
       </c>
@@ -6854,7 +6851,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="115" spans="1:10" hidden="1">
+    <row r="115" spans="1:10">
       <c r="A115" s="4">
         <v>114</v>
       </c>
@@ -6886,7 +6883,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="116" spans="1:10" hidden="1">
+    <row r="116" spans="1:10">
       <c r="A116" s="4">
         <v>115</v>
       </c>
@@ -6918,7 +6915,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="117" spans="1:10" hidden="1">
+    <row r="117" spans="1:10">
       <c r="A117" s="4">
         <v>116</v>
       </c>
@@ -6950,7 +6947,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="118" spans="1:10" hidden="1">
+    <row r="118" spans="1:10">
       <c r="A118" s="4">
         <v>117</v>
       </c>
@@ -6982,7 +6979,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="119" spans="1:10" hidden="1">
+    <row r="119" spans="1:10">
       <c r="A119" s="4">
         <v>118</v>
       </c>
@@ -7066,7 +7063,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="122" spans="1:10" hidden="1">
+    <row r="122" spans="1:10">
       <c r="A122" s="4">
         <v>121</v>
       </c>
@@ -7095,10 +7092,10 @@
         <v>16</v>
       </c>
       <c r="J122" s="3" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" hidden="1">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="4">
         <v>122</v>
       </c>
@@ -7127,10 +7124,10 @@
         <v>16</v>
       </c>
       <c r="J123" s="3" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" hidden="1">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="4">
         <v>123</v>
       </c>
@@ -7159,10 +7156,10 @@
         <v>16</v>
       </c>
       <c r="J124" s="3" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" hidden="1">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="4">
         <v>124</v>
       </c>
@@ -7179,7 +7176,7 @@
         <v>21</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>40</v>
@@ -7191,10 +7188,10 @@
         <v>16</v>
       </c>
       <c r="J125" s="3" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" hidden="1">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="4">
         <v>125</v>
       </c>
@@ -7226,7 +7223,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="127" spans="1:10" hidden="1">
+    <row r="127" spans="1:10">
       <c r="A127" s="4">
         <v>126</v>
       </c>
@@ -7258,7 +7255,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="128" spans="1:10" hidden="1">
+    <row r="128" spans="1:10">
       <c r="A128" s="4">
         <v>127</v>
       </c>
@@ -7290,7 +7287,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="129" spans="1:10" hidden="1">
+    <row r="129" spans="1:10">
       <c r="A129" s="4">
         <v>128</v>
       </c>
@@ -7322,7 +7319,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="130" spans="1:10" hidden="1">
+    <row r="130" spans="1:10">
       <c r="A130" s="4">
         <v>129</v>
       </c>
@@ -7354,7 +7351,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="131" spans="1:10" hidden="1">
+    <row r="131" spans="1:10">
       <c r="A131" s="4">
         <v>130</v>
       </c>
@@ -7371,7 +7368,7 @@
         <v>28</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="G131" s="5" t="s">
         <v>15</v>
@@ -7383,10 +7380,10 @@
         <v>16</v>
       </c>
       <c r="J131" s="3" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" hidden="1">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="4">
         <v>131</v>
       </c>
@@ -7418,7 +7415,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="133" spans="1:10" hidden="1">
+    <row r="133" spans="1:10">
       <c r="A133" s="4">
         <v>132</v>
       </c>
@@ -7450,7 +7447,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="134" spans="1:10" hidden="1">
+    <row r="134" spans="1:10">
       <c r="A134" s="4">
         <v>133</v>
       </c>
@@ -7482,7 +7479,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="135" spans="1:10" hidden="1">
+    <row r="135" spans="1:10">
       <c r="A135" s="4">
         <v>134</v>
       </c>
@@ -7514,7 +7511,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="136" spans="1:10" hidden="1">
+    <row r="136" spans="1:10">
       <c r="A136" s="4">
         <v>135</v>
       </c>
@@ -7546,7 +7543,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="137" spans="1:10" hidden="1">
+    <row r="137" spans="1:10">
       <c r="A137" s="4">
         <v>136</v>
       </c>
@@ -7578,7 +7575,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="138" spans="1:10" hidden="1">
+    <row r="138" spans="1:10">
       <c r="A138" s="4">
         <v>137</v>
       </c>
@@ -7610,7 +7607,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="139" spans="1:10" hidden="1">
+    <row r="139" spans="1:10">
       <c r="A139" s="4">
         <v>138</v>
       </c>
@@ -7639,7 +7636,7 @@
         <v>16</v>
       </c>
       <c r="J139" s="13" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="140" spans="1:10">
@@ -7659,7 +7656,7 @@
         <v>88</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="G140" s="5" t="s">
         <v>15</v>
@@ -7671,7 +7668,7 @@
         <v>16</v>
       </c>
       <c r="J140" s="3" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="141" spans="1:10">
@@ -7775,13 +7772,13 @@
         <v>107</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="G144" s="15" t="s">
         <v>15</v>
@@ -7793,10 +7790,10 @@
         <v>16</v>
       </c>
       <c r="J144" s="3" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" hidden="1">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="4">
         <v>144</v>
       </c>
@@ -7828,7 +7825,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="146" spans="1:10" hidden="1">
+    <row r="146" spans="1:10">
       <c r="A146" s="4">
         <v>145</v>
       </c>
@@ -7860,7 +7857,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="147" spans="1:10" hidden="1">
+    <row r="147" spans="1:10">
       <c r="A147" s="4">
         <v>146</v>
       </c>
@@ -7889,10 +7886,10 @@
         <v>16</v>
       </c>
       <c r="J147" s="3" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" hidden="1">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="4">
         <v>147</v>
       </c>
@@ -7921,7 +7918,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="149" spans="1:10" hidden="1">
+    <row r="149" spans="1:10">
       <c r="A149" s="4">
         <v>148</v>
       </c>
@@ -7953,7 +7950,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="150" spans="1:10" hidden="1">
+    <row r="150" spans="1:10">
       <c r="A150" s="4">
         <v>149</v>
       </c>
@@ -7982,10 +7979,10 @@
         <v>16</v>
       </c>
       <c r="J150" s="7" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" hidden="1">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="4">
         <v>150</v>
       </c>
@@ -8014,10 +8011,10 @@
         <v>16</v>
       </c>
       <c r="J151" s="3" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" hidden="1">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="4">
         <v>151</v>
       </c>
@@ -8049,7 +8046,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="153" spans="1:10" hidden="1">
+    <row r="153" spans="1:10">
       <c r="A153" s="4">
         <v>152</v>
       </c>
@@ -8078,7 +8075,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="154" spans="1:10" hidden="1">
+    <row r="154" spans="1:10">
       <c r="A154" s="4">
         <v>153</v>
       </c>
@@ -8105,7 +8102,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="155" spans="1:10" hidden="1">
+    <row r="155" spans="1:10">
       <c r="A155" s="4">
         <v>154</v>
       </c>
@@ -8122,7 +8119,7 @@
         <v>13</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="G155" s="5" t="s">
         <v>15</v>
@@ -8134,10 +8131,10 @@
         <v>16</v>
       </c>
       <c r="J155" s="3" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" hidden="1">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="4">
         <v>155</v>
       </c>
@@ -8166,7 +8163,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="157" spans="1:10" hidden="1">
+    <row r="157" spans="1:10">
       <c r="A157" s="4">
         <v>156</v>
       </c>
@@ -8183,7 +8180,7 @@
         <v>13</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="G157" s="5" t="s">
         <v>40</v>
@@ -8195,10 +8192,10 @@
         <v>16</v>
       </c>
       <c r="J157" s="3" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10" hidden="1">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="4">
         <v>157</v>
       </c>
@@ -8230,7 +8227,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="159" spans="1:10" hidden="1">
+    <row r="159" spans="1:10">
       <c r="A159" s="4">
         <v>158</v>
       </c>
@@ -8262,7 +8259,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="160" spans="1:10" hidden="1">
+    <row r="160" spans="1:10">
       <c r="A160" s="4">
         <v>159</v>
       </c>
@@ -8294,7 +8291,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="161" spans="1:10" hidden="1">
+    <row r="161" spans="1:10">
       <c r="A161" s="4">
         <v>160</v>
       </c>
@@ -8323,7 +8320,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="162" spans="1:10" hidden="1">
+    <row r="162" spans="1:10">
       <c r="A162" s="4">
         <v>161</v>
       </c>
@@ -8352,7 +8349,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="163" spans="1:10" hidden="1">
+    <row r="163" spans="1:10">
       <c r="A163" s="4">
         <v>162</v>
       </c>
@@ -8381,10 +8378,10 @@
         <v>16</v>
       </c>
       <c r="J163" s="3" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10" hidden="1">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" s="4">
         <v>163</v>
       </c>
@@ -8416,7 +8413,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="165" spans="1:10" hidden="1">
+    <row r="165" spans="1:10">
       <c r="A165" s="4">
         <v>164</v>
       </c>
@@ -8442,7 +8439,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="166" spans="1:10" hidden="1">
+    <row r="166" spans="1:10">
       <c r="A166" s="4">
         <v>165</v>
       </c>
@@ -8468,7 +8465,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="167" spans="1:10" hidden="1">
+    <row r="167" spans="1:10">
       <c r="A167" s="4">
         <v>166</v>
       </c>
@@ -8497,7 +8494,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="168" spans="1:10" hidden="1">
+    <row r="168" spans="1:10">
       <c r="A168" s="4">
         <v>167</v>
       </c>
@@ -8526,7 +8523,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="169" spans="1:10" hidden="1">
+    <row r="169" spans="1:10">
       <c r="A169" s="4">
         <v>168</v>
       </c>
@@ -8555,7 +8552,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="170" spans="1:10" hidden="1">
+    <row r="170" spans="1:10">
       <c r="A170" s="4">
         <v>169</v>
       </c>
@@ -8584,7 +8581,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="171" spans="1:10" hidden="1">
+    <row r="171" spans="1:10">
       <c r="A171" s="4">
         <v>170</v>
       </c>
@@ -8613,7 +8610,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="172" spans="1:10" hidden="1">
+    <row r="172" spans="1:10">
       <c r="A172" s="4">
         <v>171</v>
       </c>
@@ -8642,7 +8639,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="173" spans="1:10" hidden="1">
+    <row r="173" spans="1:10">
       <c r="A173" s="4">
         <v>172</v>
       </c>
@@ -8671,7 +8668,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="174" spans="1:10" hidden="1">
+    <row r="174" spans="1:10">
       <c r="A174" s="4">
         <v>173</v>
       </c>
@@ -8700,7 +8697,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="175" spans="1:10" hidden="1">
+    <row r="175" spans="1:10">
       <c r="A175" s="4">
         <v>174</v>
       </c>
@@ -8729,7 +8726,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="176" spans="1:10" hidden="1">
+    <row r="176" spans="1:10">
       <c r="A176" s="4">
         <v>175</v>
       </c>
@@ -8758,7 +8755,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="177" spans="1:10" hidden="1">
+    <row r="177" spans="1:10">
       <c r="A177" s="4">
         <v>176</v>
       </c>
@@ -8787,7 +8784,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="178" spans="1:10" hidden="1">
+    <row r="178" spans="1:10">
       <c r="A178" s="4">
         <v>177</v>
       </c>
@@ -8816,7 +8813,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="179" spans="1:10" hidden="1">
+    <row r="179" spans="1:10">
       <c r="A179" s="4">
         <v>178</v>
       </c>
@@ -8845,7 +8842,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="180" spans="1:10" hidden="1">
+    <row r="180" spans="1:10">
       <c r="A180" s="4">
         <v>179</v>
       </c>
@@ -8874,7 +8871,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="181" spans="1:10" hidden="1">
+    <row r="181" spans="1:10">
       <c r="A181" s="4">
         <v>180</v>
       </c>
@@ -8903,7 +8900,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="182" spans="1:10" hidden="1">
+    <row r="182" spans="1:10">
       <c r="A182" s="4">
         <v>181</v>
       </c>
@@ -8932,7 +8929,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="183" spans="1:10" hidden="1">
+    <row r="183" spans="1:10">
       <c r="A183" s="4">
         <v>182</v>
       </c>
@@ -8961,7 +8958,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="184" spans="1:10" hidden="1">
+    <row r="184" spans="1:10">
       <c r="A184" s="4">
         <v>183</v>
       </c>
@@ -8990,7 +8987,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="185" spans="1:10" hidden="1">
+    <row r="185" spans="1:10">
       <c r="A185" s="4">
         <v>184</v>
       </c>
@@ -9019,7 +9016,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="186" spans="1:10" hidden="1">
+    <row r="186" spans="1:10">
       <c r="A186" s="4">
         <v>185</v>
       </c>
@@ -9048,7 +9045,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="187" spans="1:10" hidden="1">
+    <row r="187" spans="1:10">
       <c r="A187" s="4">
         <v>186</v>
       </c>
@@ -9077,7 +9074,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="188" spans="1:10" hidden="1">
+    <row r="188" spans="1:10">
       <c r="A188" s="4">
         <v>187</v>
       </c>
@@ -9106,7 +9103,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="189" spans="1:10" hidden="1">
+    <row r="189" spans="1:10">
       <c r="A189" s="4">
         <v>188</v>
       </c>
@@ -9183,7 +9180,7 @@
         <v>88</v>
       </c>
       <c r="F191" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="G191" s="5" t="s">
         <v>15</v>
@@ -9212,7 +9209,7 @@
         <v>88</v>
       </c>
       <c r="F192" s="4" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="G192" s="5" t="s">
         <v>15</v>
@@ -9252,7 +9249,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="194" spans="1:10" hidden="1">
+    <row r="194" spans="1:10">
       <c r="A194" s="4">
         <v>193</v>
       </c>
@@ -9269,7 +9266,7 @@
         <v>21</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="G194" s="5" t="s">
         <v>15</v>
@@ -9284,7 +9281,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="195" spans="1:10" hidden="1">
+    <row r="195" spans="1:10">
       <c r="A195" s="4">
         <v>194</v>
       </c>
@@ -9298,10 +9295,10 @@
         <v>404</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>29</v>
+        <v>789</v>
       </c>
       <c r="G195" s="5" t="s">
         <v>15</v>
@@ -9313,10 +9310,10 @@
         <v>16</v>
       </c>
       <c r="J195" s="8" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="196" spans="1:10" hidden="1">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10">
       <c r="A196" s="4">
         <v>195</v>
       </c>
@@ -9327,7 +9324,7 @@
         <v>11</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E196" s="1" t="s">
         <v>28</v>
@@ -9345,10 +9342,10 @@
         <v>16</v>
       </c>
       <c r="J196" s="7" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="197" spans="1:10" hidden="1">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10">
       <c r="A197" s="4">
         <v>196</v>
       </c>
@@ -9359,13 +9356,13 @@
         <v>11</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E197" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="G197" s="5" t="s">
         <v>15</v>
@@ -9377,10 +9374,10 @@
         <v>16</v>
       </c>
       <c r="J197" s="3" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="198" spans="1:10" hidden="1">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10">
       <c r="A198" s="4">
         <v>197</v>
       </c>
@@ -9391,7 +9388,7 @@
         <v>11</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E198" s="1" t="s">
         <v>28</v>
@@ -9409,7 +9406,7 @@
         <v>16</v>
       </c>
       <c r="J198" s="3" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="199" spans="1:10">
@@ -9423,7 +9420,7 @@
         <v>11</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E199" s="4" t="s">
         <v>88</v>
@@ -9441,10 +9438,10 @@
         <v>16</v>
       </c>
       <c r="J199" s="3" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="200" spans="1:10" hidden="1">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10">
       <c r="A200" s="4">
         <v>199</v>
       </c>
@@ -9455,7 +9452,7 @@
         <v>11</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E200" s="1" t="s">
         <v>28</v>
@@ -9473,10 +9470,10 @@
         <v>16</v>
       </c>
       <c r="J200" s="3" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="201" spans="1:10" hidden="1">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10">
       <c r="A201" s="4">
         <v>200</v>
       </c>
@@ -9487,13 +9484,13 @@
         <v>11</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E201" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G201" s="5" t="s">
         <v>15</v>
@@ -9505,10 +9502,10 @@
         <v>16</v>
       </c>
       <c r="J201" s="3" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="202" spans="1:10" hidden="1">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10">
       <c r="A202" s="4">
         <v>201</v>
       </c>
@@ -9519,7 +9516,7 @@
         <v>11</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E202" s="1" t="s">
         <v>28</v>
@@ -9537,10 +9534,10 @@
         <v>16</v>
       </c>
       <c r="J202" s="3" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="203" spans="1:10" hidden="1">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10">
       <c r="A203" s="4">
         <v>202</v>
       </c>
@@ -9551,7 +9548,7 @@
         <v>11</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E203" s="1" t="s">
         <v>28</v>
@@ -9569,10 +9566,10 @@
         <v>16</v>
       </c>
       <c r="J203" s="3" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="204" spans="1:10" hidden="1">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10">
       <c r="A204" s="4">
         <v>203</v>
       </c>
@@ -9583,7 +9580,7 @@
         <v>11</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E204" s="1" t="s">
         <v>28</v>
@@ -9601,10 +9598,10 @@
         <v>16</v>
       </c>
       <c r="J204" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="205" spans="1:10" hidden="1">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10">
       <c r="A205" s="4">
         <v>204</v>
       </c>
@@ -9615,7 +9612,7 @@
         <v>11</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E205" s="1" t="s">
         <v>28</v>
@@ -9633,10 +9630,10 @@
         <v>16</v>
       </c>
       <c r="J205" s="3" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="206" spans="1:10" hidden="1">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10">
       <c r="A206" s="4">
         <v>205</v>
       </c>
@@ -9647,7 +9644,7 @@
         <v>11</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E206" s="1" t="s">
         <v>28</v>
@@ -9665,10 +9662,10 @@
         <v>16</v>
       </c>
       <c r="J206" s="3" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="207" spans="1:10" hidden="1">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10">
       <c r="A207" s="4">
         <v>206</v>
       </c>
@@ -9679,7 +9676,7 @@
         <v>11</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E207" s="1" t="s">
         <v>28</v>
@@ -9697,10 +9694,10 @@
         <v>16</v>
       </c>
       <c r="J207" s="3" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="208" spans="1:10" hidden="1">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10">
       <c r="A208" s="4">
         <v>207</v>
       </c>
@@ -9711,7 +9708,7 @@
         <v>11</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E208" s="1" t="s">
         <v>28</v>
@@ -9729,10 +9726,10 @@
         <v>16</v>
       </c>
       <c r="J208" s="3" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="209" spans="1:10" hidden="1">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10">
       <c r="A209" s="4">
         <v>208</v>
       </c>
@@ -9743,7 +9740,7 @@
         <v>11</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E209" s="1" t="s">
         <v>28</v>
@@ -9761,10 +9758,10 @@
         <v>16</v>
       </c>
       <c r="J209" s="3" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="210" spans="1:10" hidden="1">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10">
       <c r="A210" s="4">
         <v>209</v>
       </c>
@@ -9775,13 +9772,13 @@
         <v>11</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E210" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G210" s="5" t="s">
         <v>15</v>
@@ -9790,13 +9787,13 @@
         <v>45545</v>
       </c>
       <c r="I210" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="J210" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="J210" s="3" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="211" spans="1:10" hidden="1">
+    </row>
+    <row r="211" spans="1:10">
       <c r="A211" s="4">
         <v>210</v>
       </c>
@@ -9807,7 +9804,7 @@
         <v>11</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E211" s="1" t="s">
         <v>28</v>
@@ -9825,10 +9822,10 @@
         <v>16</v>
       </c>
       <c r="J211" s="3" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="212" spans="1:10" hidden="1">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10">
       <c r="A212" s="4">
         <v>211</v>
       </c>
@@ -9839,7 +9836,7 @@
         <v>11</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E212" s="1" t="s">
         <v>28</v>
@@ -9857,10 +9854,10 @@
         <v>16</v>
       </c>
       <c r="J212" s="3" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="213" spans="1:10" hidden="1">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10">
       <c r="A213" s="4">
         <v>212</v>
       </c>
@@ -9871,7 +9868,7 @@
         <v>11</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E213" s="1" t="s">
         <v>28</v>
@@ -9889,10 +9886,10 @@
         <v>16</v>
       </c>
       <c r="J213" s="3" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="214" spans="1:10" hidden="1">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10">
       <c r="A214" s="4">
         <v>213</v>
       </c>
@@ -9903,7 +9900,7 @@
         <v>11</v>
       </c>
       <c r="D214" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E214" s="1" t="s">
         <v>28</v>
@@ -9921,10 +9918,10 @@
         <v>16</v>
       </c>
       <c r="J214" s="3" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="215" spans="1:10" hidden="1">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10">
       <c r="A215" s="4">
         <v>214</v>
       </c>
@@ -9935,7 +9932,7 @@
         <v>11</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E215" s="1" t="s">
         <v>28</v>
@@ -9953,10 +9950,10 @@
         <v>16</v>
       </c>
       <c r="J215" s="3" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="216" spans="1:10" hidden="1">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10">
       <c r="A216" s="4">
         <v>215</v>
       </c>
@@ -9967,7 +9964,7 @@
         <v>11</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E216" s="1" t="s">
         <v>28</v>
@@ -9985,10 +9982,10 @@
         <v>16</v>
       </c>
       <c r="J216" s="3" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="217" spans="1:10" hidden="1">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10">
       <c r="A217" s="4">
         <v>216</v>
       </c>
@@ -9999,13 +9996,13 @@
         <v>107</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E217" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="G217" s="5" t="s">
         <v>15</v>
@@ -10017,7 +10014,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="218" spans="1:10" hidden="1">
+    <row r="218" spans="1:10">
       <c r="A218" s="4">
         <v>217</v>
       </c>
@@ -10028,7 +10025,7 @@
         <v>11</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E218" s="1" t="s">
         <v>28</v>
@@ -10046,10 +10043,10 @@
         <v>16</v>
       </c>
       <c r="J218" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="219" spans="1:10" hidden="1">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10">
       <c r="A219" s="4">
         <v>218</v>
       </c>
@@ -10060,13 +10057,13 @@
         <v>11</v>
       </c>
       <c r="D219" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="E219" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="E219" s="1" t="s">
-        <v>452</v>
-      </c>
       <c r="F219" s="1" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="G219" s="5" t="s">
         <v>15</v>
@@ -10078,7 +10075,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="220" spans="1:10" hidden="1">
+    <row r="220" spans="1:10">
       <c r="A220" s="4">
         <v>219</v>
       </c>
@@ -10089,13 +10086,13 @@
         <v>11</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E220" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G220" s="5" t="s">
         <v>15</v>
@@ -10107,10 +10104,10 @@
         <v>16</v>
       </c>
       <c r="J220" s="3" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="221" spans="1:10" hidden="1">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10">
       <c r="A221" s="4">
         <v>220</v>
       </c>
@@ -10121,7 +10118,7 @@
         <v>11</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E221" s="1" t="s">
         <v>28</v>
@@ -10139,7 +10136,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="222" spans="1:10" hidden="1">
+    <row r="222" spans="1:10">
       <c r="A222" s="4">
         <v>221</v>
       </c>
@@ -10150,7 +10147,7 @@
         <v>11</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E222" s="1" t="s">
         <v>28</v>
@@ -10168,10 +10165,10 @@
         <v>16</v>
       </c>
       <c r="J222" s="3" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="223" spans="1:10" hidden="1">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10">
       <c r="A223" s="4">
         <v>222</v>
       </c>
@@ -10182,7 +10179,7 @@
         <v>11</v>
       </c>
       <c r="D223" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E223" s="1" t="s">
         <v>28</v>
@@ -10201,7 +10198,7 @@
       </c>
       <c r="J223" s="7"/>
     </row>
-    <row r="224" spans="1:10" hidden="1">
+    <row r="224" spans="1:10">
       <c r="A224" s="4">
         <v>223</v>
       </c>
@@ -10212,7 +10209,7 @@
         <v>11</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E224" s="1" t="s">
         <v>21</v>
@@ -10230,10 +10227,10 @@
         <v>16</v>
       </c>
       <c r="J224" s="7" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="225" spans="1:10" hidden="1">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10">
       <c r="A225" s="4">
         <v>224</v>
       </c>
@@ -10244,7 +10241,7 @@
         <v>11</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E225" s="1" t="s">
         <v>28</v>
@@ -10265,7 +10262,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="226" spans="1:10" hidden="1">
+    <row r="226" spans="1:10">
       <c r="A226" s="4">
         <v>225</v>
       </c>
@@ -10276,7 +10273,7 @@
         <v>11</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E226" s="1" t="s">
         <v>28</v>
@@ -10294,10 +10291,10 @@
         <v>16</v>
       </c>
       <c r="J226" s="3" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="227" spans="1:10" hidden="1">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10">
       <c r="A227" s="4">
         <v>226</v>
       </c>
@@ -10308,7 +10305,7 @@
         <v>11</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E227" s="1" t="s">
         <v>28</v>
@@ -10326,10 +10323,10 @@
         <v>16</v>
       </c>
       <c r="J227" s="3" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="228" spans="1:10" hidden="1">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10">
       <c r="A228" s="4">
         <v>227</v>
       </c>
@@ -10340,7 +10337,7 @@
         <v>11</v>
       </c>
       <c r="D228" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E228" s="1" t="s">
         <v>28</v>
@@ -10358,27 +10355,27 @@
         <v>16</v>
       </c>
       <c r="J228" s="8" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="229" spans="1:10" hidden="1">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10">
       <c r="A229" s="4">
         <v>228</v>
       </c>
       <c r="B229" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D229" s="14" t="s">
         <v>467</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D229" s="14" t="s">
-        <v>468</v>
       </c>
       <c r="E229" s="14" t="s">
         <v>13</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="G229" s="15" t="s">
         <v>15</v>
@@ -10390,27 +10387,27 @@
         <v>16</v>
       </c>
       <c r="J229" s="8" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="230" spans="1:10" hidden="1">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10">
       <c r="A230" s="4">
         <v>229</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="E230" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="G230" s="2" t="s">
         <v>15</v>
@@ -10419,28 +10416,28 @@
         <v>45797</v>
       </c>
       <c r="I230" s="9" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="J230" s="24"/>
     </row>
-    <row r="231" spans="1:10" hidden="1">
+    <row r="231" spans="1:10">
       <c r="A231" s="4">
         <v>230</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C231" s="15" t="s">
         <v>11</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="E231" s="14" t="s">
         <v>13</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="G231" s="15" t="s">
         <v>15</v>
@@ -10452,21 +10449,21 @@
         <v>16</v>
       </c>
       <c r="J231" s="8" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="232" spans="1:10" hidden="1">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10">
       <c r="A232" s="4">
         <v>231</v>
       </c>
       <c r="B232" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D232" s="1" t="s">
         <v>469</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D232" s="1" t="s">
-        <v>470</v>
       </c>
       <c r="E232" s="1" t="s">
         <v>28</v>
@@ -10484,21 +10481,21 @@
         <v>16</v>
       </c>
       <c r="J232" s="3" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="233" spans="1:10" hidden="1">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10">
       <c r="A233" s="4">
         <v>232</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E233" s="1" t="s">
         <v>28</v>
@@ -10516,21 +10513,21 @@
         <v>16</v>
       </c>
       <c r="J233" s="3" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="234" spans="1:10" hidden="1">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10">
       <c r="A234" s="4">
         <v>233</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E234" s="1" t="s">
         <v>28</v>
@@ -10548,10 +10545,10 @@
         <v>16</v>
       </c>
       <c r="J234" s="3" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="235" spans="1:10" hidden="1">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10">
       <c r="A235" s="4">
         <v>234</v>
       </c>
@@ -10568,7 +10565,7 @@
         <v>21</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G235" s="2" t="s">
         <v>21</v>
@@ -10580,21 +10577,21 @@
         <v>16</v>
       </c>
       <c r="J235" s="3" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="236" spans="1:10" hidden="1">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10">
       <c r="A236" s="4">
         <v>235</v>
       </c>
       <c r="B236" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D236" s="1" t="s">
         <v>478</v>
-      </c>
-      <c r="C236" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D236" s="1" t="s">
-        <v>479</v>
       </c>
       <c r="E236" s="1" t="s">
         <v>28</v>
@@ -10612,24 +10609,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="237" spans="1:10" hidden="1">
+    <row r="237" spans="1:10">
       <c r="A237" s="4">
         <v>236</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>107</v>
       </c>
       <c r="D237" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="F237" s="1" t="s">
         <v>481</v>
-      </c>
-      <c r="E237" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="F237" s="1" t="s">
-        <v>482</v>
       </c>
       <c r="G237" s="5" t="s">
         <v>15</v>
@@ -10641,18 +10638,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="238" spans="1:10" hidden="1">
+    <row r="238" spans="1:10">
       <c r="A238" s="4">
         <v>237</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>107</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E238" s="1" t="s">
         <v>191</v>
@@ -10670,21 +10667,21 @@
         <v>16</v>
       </c>
       <c r="J238" s="3" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="239" spans="1:10" hidden="1">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10">
       <c r="A239" s="4">
         <v>238</v>
       </c>
       <c r="B239" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D239" s="1" t="s">
         <v>486</v>
-      </c>
-      <c r="C239" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D239" s="1" t="s">
-        <v>487</v>
       </c>
       <c r="E239" s="1" t="s">
         <v>28</v>
@@ -10702,10 +10699,10 @@
         <v>16</v>
       </c>
       <c r="J239" s="3" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="240" spans="1:10" hidden="1">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10">
       <c r="A240" s="4">
         <v>239</v>
       </c>
@@ -10716,13 +10713,13 @@
         <v>11</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E240" s="1" t="s">
         <v>195</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G240" s="2" t="s">
         <v>40</v>
@@ -10731,10 +10728,10 @@
         <v>16</v>
       </c>
       <c r="J240" s="3" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="241" spans="1:10" hidden="1">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10">
       <c r="A241" s="4">
         <v>240</v>
       </c>
@@ -10745,13 +10742,13 @@
         <v>11</v>
       </c>
       <c r="D241" s="20" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="E241" s="1" t="s">
         <v>195</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G241" s="2" t="s">
         <v>40</v>
@@ -10763,10 +10760,10 @@
         <v>16</v>
       </c>
       <c r="J241" s="3" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="242" spans="1:10" hidden="1">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10">
       <c r="A242" s="4">
         <v>241</v>
       </c>
@@ -10777,13 +10774,13 @@
         <v>11</v>
       </c>
       <c r="D242" s="20" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E242" s="1" t="s">
         <v>195</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G242" s="2" t="s">
         <v>40</v>
@@ -10795,7 +10792,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="243" spans="1:10" hidden="1">
+    <row r="243" spans="1:10">
       <c r="A243" s="4">
         <v>242</v>
       </c>
@@ -10806,13 +10803,13 @@
         <v>11</v>
       </c>
       <c r="D243" s="20" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E243" s="1" t="s">
         <v>195</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G243" s="2" t="s">
         <v>40</v>
@@ -10821,10 +10818,10 @@
         <v>16</v>
       </c>
       <c r="J243" s="3" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="244" spans="1:10" hidden="1">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10">
       <c r="A244" s="4">
         <v>243</v>
       </c>
@@ -10835,7 +10832,7 @@
         <v>107</v>
       </c>
       <c r="D244" s="25" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="E244" s="1" t="s">
         <v>191</v>
@@ -10852,7 +10849,7 @@
       <c r="I244" s="16"/>
       <c r="J244" s="17"/>
     </row>
-    <row r="245" spans="1:10" hidden="1">
+    <row r="245" spans="1:10">
       <c r="A245" s="4">
         <v>244</v>
       </c>
@@ -10863,13 +10860,13 @@
         <v>107</v>
       </c>
       <c r="D245" s="20" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E245" s="1" t="s">
         <v>195</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G245" s="5" t="s">
         <v>40</v>
@@ -10878,7 +10875,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="246" spans="1:10" hidden="1">
+    <row r="246" spans="1:10">
       <c r="A246" s="4">
         <v>245</v>
       </c>
@@ -10889,13 +10886,13 @@
         <v>107</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E246" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G246" s="5" t="s">
         <v>15</v>
@@ -10907,7 +10904,7 @@
         <v>16</v>
       </c>
       <c r="J246" s="3" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="247" spans="1:10">
@@ -10921,13 +10918,13 @@
         <v>107</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E247" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G247" s="5" t="s">
         <v>15</v>
@@ -10939,10 +10936,10 @@
         <v>16</v>
       </c>
       <c r="J247" s="3" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="248" spans="1:10" hidden="1">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10">
       <c r="A248" s="4">
         <v>247</v>
       </c>
@@ -10953,7 +10950,7 @@
         <v>11</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E248" s="1" t="s">
         <v>28</v>
@@ -10971,21 +10968,21 @@
         <v>16</v>
       </c>
       <c r="J248" s="3" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="249" spans="1:10" hidden="1">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10">
       <c r="A249" s="4">
         <v>248</v>
       </c>
       <c r="B249" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D249" s="1" t="s">
         <v>505</v>
-      </c>
-      <c r="C249" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D249" s="1" t="s">
-        <v>506</v>
       </c>
       <c r="E249" s="26" t="s">
         <v>191</v>
@@ -11003,21 +11000,21 @@
         <v>16</v>
       </c>
       <c r="J249" s="3" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="250" spans="1:10" hidden="1">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10">
       <c r="A250" s="4">
         <v>249</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E250" s="1" t="s">
         <v>38</v>
@@ -11035,21 +11032,21 @@
         <v>209</v>
       </c>
       <c r="J250" s="3" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="251" spans="1:10" hidden="1">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10">
       <c r="A251" s="4">
         <v>250</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E251" s="1" t="s">
         <v>191</v>
@@ -11067,21 +11064,21 @@
         <v>209</v>
       </c>
       <c r="J251" s="3" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="252" spans="1:10" hidden="1">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10">
       <c r="A252" s="4">
         <v>251</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E252" s="1" t="s">
         <v>38</v>
@@ -11099,21 +11096,21 @@
         <v>16</v>
       </c>
       <c r="J252" s="3" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="253" spans="1:10" hidden="1">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10">
       <c r="A253" s="4">
         <v>252</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D253" s="18" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E253" s="1" t="s">
         <v>38</v>
@@ -11131,10 +11128,10 @@
         <v>209</v>
       </c>
       <c r="J253" s="3" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="254" spans="1:10" hidden="1">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10">
       <c r="A254" s="4">
         <v>253</v>
       </c>
@@ -11145,7 +11142,7 @@
         <v>11</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E254" s="1" t="s">
         <v>28</v>
@@ -11163,10 +11160,10 @@
         <v>16</v>
       </c>
       <c r="J254" s="3" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="255" spans="1:10" hidden="1">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10">
       <c r="A255" s="4">
         <v>254</v>
       </c>
@@ -11177,13 +11174,13 @@
         <v>11</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E255" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G255" s="5" t="s">
         <v>15</v>
@@ -11195,21 +11192,21 @@
         <v>16</v>
       </c>
       <c r="J255" s="3" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="256" spans="1:10" hidden="1">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10">
       <c r="A256" s="4">
         <v>255</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>107</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E256" s="1" t="s">
         <v>28</v>
@@ -11227,27 +11224,27 @@
         <v>16</v>
       </c>
       <c r="J256" s="3" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="257" spans="1:10" hidden="1">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10">
       <c r="A257" s="4">
         <v>256</v>
       </c>
       <c r="B257" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D257" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="C257" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D257" s="1" t="s">
+      <c r="E257" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F257" s="1" t="s">
         <v>522</v>
-      </c>
-      <c r="E257" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F257" s="1" t="s">
-        <v>523</v>
       </c>
       <c r="G257" s="5" t="s">
         <v>15</v>
@@ -11259,10 +11256,10 @@
         <v>16</v>
       </c>
       <c r="J257" s="3" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="258" spans="1:10" hidden="1">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10">
       <c r="A258" s="4">
         <v>257</v>
       </c>
@@ -11273,7 +11270,7 @@
         <v>107</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E258" s="1" t="s">
         <v>13</v>
@@ -11291,10 +11288,10 @@
         <v>16</v>
       </c>
       <c r="J258" s="3" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="259" spans="1:10" hidden="1">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10">
       <c r="A259" s="4">
         <v>258</v>
       </c>
@@ -11305,13 +11302,13 @@
         <v>107</v>
       </c>
       <c r="D259" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="E259" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F259" s="1" t="s">
         <v>527</v>
-      </c>
-      <c r="E259" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F259" s="1" t="s">
-        <v>528</v>
       </c>
       <c r="G259" s="5" t="s">
         <v>15</v>
@@ -11323,10 +11320,10 @@
         <v>16</v>
       </c>
       <c r="J259" s="3" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="260" spans="1:10" hidden="1">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10">
       <c r="A260" s="4">
         <v>259</v>
       </c>
@@ -11337,7 +11334,7 @@
         <v>11</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E260" s="1" t="s">
         <v>28</v>
@@ -11355,10 +11352,10 @@
         <v>16</v>
       </c>
       <c r="J260" s="3" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="261" spans="1:10" hidden="1">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10">
       <c r="A261" s="4">
         <v>260</v>
       </c>
@@ -11369,7 +11366,7 @@
         <v>11</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E261" s="1" t="s">
         <v>28</v>
@@ -11387,27 +11384,27 @@
         <v>16</v>
       </c>
       <c r="J261" s="3" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="262" spans="1:10" hidden="1">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10">
       <c r="A262" s="4">
         <v>261</v>
       </c>
       <c r="B262" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D262" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="C262" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D262" s="1" t="s">
-        <v>535</v>
-      </c>
       <c r="E262" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="G262" s="2" t="s">
         <v>15</v>
@@ -11419,7 +11416,7 @@
         <v>16</v>
       </c>
       <c r="J262" s="3" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="263" spans="1:10">
@@ -11427,19 +11424,19 @@
         <v>262</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E263" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G263" s="2" t="s">
         <v>15</v>
@@ -11451,21 +11448,21 @@
         <v>16</v>
       </c>
       <c r="J263" s="3" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="264" spans="1:10" hidden="1">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10">
       <c r="A264" s="4">
         <v>263</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E264" s="1" t="s">
         <v>28</v>
@@ -11483,7 +11480,7 @@
         <v>16</v>
       </c>
       <c r="J264" s="3" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="265" spans="1:10">
@@ -11491,19 +11488,19 @@
         <v>264</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E265" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F265" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G265" s="2" t="s">
         <v>15</v>
@@ -11515,7 +11512,7 @@
         <v>16</v>
       </c>
       <c r="J265" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="266" spans="1:10">
@@ -11523,19 +11520,19 @@
         <v>265</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E266" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F266" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G266" s="2" t="s">
         <v>15</v>
@@ -11547,7 +11544,7 @@
         <v>16</v>
       </c>
       <c r="J266" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="267" spans="1:10">
@@ -11555,19 +11552,19 @@
         <v>266</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E267" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F267" s="1" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="G267" s="2" t="s">
         <v>15</v>
@@ -11579,7 +11576,7 @@
         <v>16</v>
       </c>
       <c r="J267" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="268" spans="1:10">
@@ -11587,19 +11584,19 @@
         <v>267</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E268" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G268" s="2" t="s">
         <v>15</v>
@@ -11611,7 +11608,7 @@
         <v>16</v>
       </c>
       <c r="J268" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="269" spans="1:10">
@@ -11619,19 +11616,19 @@
         <v>268</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E269" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G269" s="2" t="s">
         <v>15</v>
@@ -11643,7 +11640,7 @@
         <v>16</v>
       </c>
       <c r="J269" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="270" spans="1:10">
@@ -11651,19 +11648,19 @@
         <v>269</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E270" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F270" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G270" s="2" t="s">
         <v>15</v>
@@ -11675,7 +11672,7 @@
         <v>16</v>
       </c>
       <c r="J270" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="271" spans="1:10">
@@ -11683,19 +11680,19 @@
         <v>270</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E271" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F271" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G271" s="2" t="s">
         <v>15</v>
@@ -11707,7 +11704,7 @@
         <v>16</v>
       </c>
       <c r="J271" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="272" spans="1:10">
@@ -11715,19 +11712,19 @@
         <v>271</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E272" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F272" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G272" s="2" t="s">
         <v>15</v>
@@ -11739,7 +11736,7 @@
         <v>16</v>
       </c>
       <c r="J272" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="273" spans="1:10">
@@ -11747,19 +11744,19 @@
         <v>272</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E273" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F273" s="1" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="G273" s="2" t="s">
         <v>15</v>
@@ -11771,7 +11768,7 @@
         <v>16</v>
       </c>
       <c r="J273" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="274" spans="1:10">
@@ -11779,19 +11776,19 @@
         <v>273</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E274" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G274" s="2" t="s">
         <v>15</v>
@@ -11803,7 +11800,7 @@
         <v>16</v>
       </c>
       <c r="J274" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="275" spans="1:10">
@@ -11811,19 +11808,19 @@
         <v>274</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E275" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F275" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="G275" s="2" t="s">
         <v>15</v>
@@ -11835,7 +11832,7 @@
         <v>16</v>
       </c>
       <c r="J275" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="276" spans="1:10">
@@ -11843,19 +11840,19 @@
         <v>275</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E276" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F276" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G276" s="2" t="s">
         <v>15</v>
@@ -11867,7 +11864,7 @@
         <v>16</v>
       </c>
       <c r="J276" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="277" spans="1:10">
@@ -11875,19 +11872,19 @@
         <v>276</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E277" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F277" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="G277" s="2" t="s">
         <v>15</v>
@@ -11899,7 +11896,7 @@
         <v>16</v>
       </c>
       <c r="J277" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="278" spans="1:10">
@@ -11907,19 +11904,19 @@
         <v>277</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E278" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F278" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G278" s="2" t="s">
         <v>15</v>
@@ -11931,7 +11928,7 @@
         <v>16</v>
       </c>
       <c r="J278" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="279" spans="1:10">
@@ -11939,19 +11936,19 @@
         <v>278</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D279" s="21" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E279" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F279" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G279" s="2" t="s">
         <v>15</v>
@@ -11963,7 +11960,7 @@
         <v>16</v>
       </c>
       <c r="J279" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="280" spans="1:10">
@@ -11971,19 +11968,19 @@
         <v>279</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E280" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F280" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G280" s="2" t="s">
         <v>15</v>
@@ -11995,7 +11992,7 @@
         <v>16</v>
       </c>
       <c r="J280" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="281" spans="1:10">
@@ -12003,19 +12000,19 @@
         <v>280</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E281" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F281" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G281" s="2" t="s">
         <v>15</v>
@@ -12027,7 +12024,7 @@
         <v>16</v>
       </c>
       <c r="J281" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="282" spans="1:10">
@@ -12035,19 +12032,19 @@
         <v>281</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E282" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F282" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G282" s="2" t="s">
         <v>15</v>
@@ -12059,27 +12056,27 @@
         <v>16</v>
       </c>
       <c r="J282" s="3" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="283" spans="1:10" hidden="1">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10">
       <c r="A283" s="4">
         <v>282</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D283" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="E283" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="F283" s="1" t="s">
         <v>583</v>
-      </c>
-      <c r="E283" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="F283" s="1" t="s">
-        <v>584</v>
       </c>
       <c r="G283" s="2" t="s">
         <v>15</v>
@@ -12088,30 +12085,30 @@
         <v>45607</v>
       </c>
       <c r="I283" s="9" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="J283" s="3" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="284" spans="1:10" hidden="1">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10">
       <c r="A284" s="4">
         <v>283</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D284" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="E284" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="F284" s="1" t="s">
         <v>586</v>
-      </c>
-      <c r="E284" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="F284" s="1" t="s">
-        <v>587</v>
       </c>
       <c r="G284" s="2" t="s">
         <v>15</v>
@@ -12120,30 +12117,30 @@
         <v>45607</v>
       </c>
       <c r="I284" s="9" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="J284" s="3" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="285" spans="1:10" hidden="1">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10">
       <c r="A285" s="4">
         <v>284</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D285" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="E285" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="F285" s="1" t="s">
         <v>588</v>
-      </c>
-      <c r="E285" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="F285" s="1" t="s">
-        <v>589</v>
       </c>
       <c r="G285" s="2" t="s">
         <v>15</v>
@@ -12152,30 +12149,30 @@
         <v>45607</v>
       </c>
       <c r="I285" s="9" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="J285" s="3" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="286" spans="1:10" hidden="1">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10">
       <c r="A286" s="4">
         <v>285</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D286" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="E286" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="F286" s="1" t="s">
         <v>590</v>
-      </c>
-      <c r="E286" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="F286" s="1" t="s">
-        <v>591</v>
       </c>
       <c r="G286" s="2" t="s">
         <v>15</v>
@@ -12184,30 +12181,30 @@
         <v>45614</v>
       </c>
       <c r="I286" s="9" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="J286" s="3" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="287" spans="1:10" hidden="1">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10">
       <c r="A287" s="4">
         <v>286</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D287" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="E287" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="F287" s="1" t="s">
         <v>593</v>
-      </c>
-      <c r="E287" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="F287" s="1" t="s">
-        <v>594</v>
       </c>
       <c r="G287" s="2" t="s">
         <v>15</v>
@@ -12216,30 +12213,30 @@
         <v>45614</v>
       </c>
       <c r="I287" s="9" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="J287" s="3" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="288" spans="1:10" hidden="1">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10">
       <c r="A288" s="4">
         <v>287</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D288" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="E288" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="F288" s="1" t="s">
         <v>595</v>
-      </c>
-      <c r="E288" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="F288" s="1" t="s">
-        <v>596</v>
       </c>
       <c r="G288" s="2" t="s">
         <v>15</v>
@@ -12248,30 +12245,30 @@
         <v>45615</v>
       </c>
       <c r="I288" s="9" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="J288" s="3" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="289" spans="1:10" hidden="1">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10">
       <c r="A289" s="4">
         <v>288</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D289" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="E289" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="F289" s="1" t="s">
         <v>598</v>
-      </c>
-      <c r="E289" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="F289" s="1" t="s">
-        <v>599</v>
       </c>
       <c r="G289" s="2" t="s">
         <v>15</v>
@@ -12280,30 +12277,30 @@
         <v>45615</v>
       </c>
       <c r="I289" s="9" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="J289" s="3" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="290" spans="1:10" hidden="1">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10">
       <c r="A290" s="4">
         <v>289</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D290" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="E290" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="F290" s="1" t="s">
         <v>600</v>
-      </c>
-      <c r="E290" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="F290" s="1" t="s">
-        <v>601</v>
       </c>
       <c r="G290" s="2" t="s">
         <v>15</v>
@@ -12312,30 +12309,30 @@
         <v>45615</v>
       </c>
       <c r="I290" s="9" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="J290" s="3" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="291" spans="1:10" hidden="1">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10">
       <c r="A291" s="4">
         <v>290</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D291" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="E291" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="F291" s="1" t="s">
         <v>602</v>
-      </c>
-      <c r="E291" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="F291" s="1" t="s">
-        <v>603</v>
       </c>
       <c r="G291" s="2" t="s">
         <v>15</v>
@@ -12344,30 +12341,30 @@
         <v>45617</v>
       </c>
       <c r="I291" s="9" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="J291" s="3" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="292" spans="1:10" hidden="1">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10">
       <c r="A292" s="4">
         <v>291</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F292" s="1" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="G292" s="2" t="s">
         <v>15</v>
@@ -12376,30 +12373,30 @@
         <v>45617</v>
       </c>
       <c r="I292" s="9" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="J292" s="3" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="293" spans="1:10" hidden="1">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10">
       <c r="A293" s="4">
         <v>292</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D293" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="E293" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="F293" s="1" t="s">
         <v>606</v>
-      </c>
-      <c r="E293" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="F293" s="1" t="s">
-        <v>607</v>
       </c>
       <c r="G293" s="2" t="s">
         <v>15</v>
@@ -12408,30 +12405,30 @@
         <v>45618</v>
       </c>
       <c r="I293" s="9" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="J293" s="3" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="294" spans="1:10" hidden="1">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10">
       <c r="A294" s="4">
         <v>293</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D294" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="E294" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="F294" s="1" t="s">
         <v>609</v>
-      </c>
-      <c r="E294" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="F294" s="1" t="s">
-        <v>610</v>
       </c>
       <c r="G294" s="2" t="s">
         <v>15</v>
@@ -12440,30 +12437,30 @@
         <v>45621</v>
       </c>
       <c r="I294" s="9" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="J294" s="3" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="295" spans="1:10" hidden="1">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10">
       <c r="A295" s="4">
         <v>294</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D295" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="E295" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="F295" s="1" t="s">
         <v>612</v>
-      </c>
-      <c r="E295" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="F295" s="1" t="s">
-        <v>613</v>
       </c>
       <c r="G295" s="2" t="s">
         <v>15</v>
@@ -12472,30 +12469,30 @@
         <v>45621</v>
       </c>
       <c r="I295" s="9" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="J295" s="3" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="296" spans="1:10" hidden="1">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10">
       <c r="A296" s="4">
         <v>295</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E296" s="1" t="s">
         <v>98</v>
       </c>
       <c r="F296" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G296" s="2" t="s">
         <v>15</v>
@@ -12507,27 +12504,27 @@
         <v>100</v>
       </c>
       <c r="J296" s="3" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="297" spans="1:10" hidden="1">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10">
       <c r="A297" s="4">
         <v>296</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="F297" s="1" t="s">
-        <v>32</v>
+        <v>622</v>
       </c>
       <c r="G297" s="2" t="s">
         <v>15</v>
@@ -12539,27 +12536,27 @@
         <v>16</v>
       </c>
       <c r="J297" s="3" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="298" spans="1:10" hidden="1">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10">
       <c r="A298" s="4">
         <v>297</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E298" s="1" t="s">
         <v>98</v>
       </c>
       <c r="F298" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="G298" s="2" t="s">
         <v>15</v>
@@ -12571,21 +12568,21 @@
         <v>100</v>
       </c>
       <c r="J298" s="3" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="299" spans="1:10" hidden="1">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10">
       <c r="A299" s="4">
         <v>298</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E299" s="1" t="s">
         <v>28</v>
@@ -12603,27 +12600,27 @@
         <v>100</v>
       </c>
       <c r="J299" s="3" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="300" spans="1:10" hidden="1">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10">
       <c r="A300" s="4">
         <v>299</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="E300" s="1" t="s">
         <v>98</v>
       </c>
       <c r="F300" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="G300" s="2" t="s">
         <v>15</v>
@@ -12635,27 +12632,27 @@
         <v>100</v>
       </c>
       <c r="J300" s="3" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="301" spans="1:10" hidden="1">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10">
       <c r="A301" s="4">
         <v>300</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E301" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F301" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G301" s="2" t="s">
         <v>15</v>
@@ -12667,27 +12664,27 @@
         <v>16</v>
       </c>
       <c r="J301" s="3" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="302" spans="1:10" hidden="1">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10">
       <c r="A302" s="4">
         <v>301</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E302" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F302" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="G302" s="2" t="s">
         <v>15</v>
@@ -12699,27 +12696,27 @@
         <v>16</v>
       </c>
       <c r="J302" s="3" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="303" spans="1:10" hidden="1">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10">
       <c r="A303" s="4">
         <v>302</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E303" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F303" s="1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="G303" s="2" t="s">
         <v>15</v>
@@ -12731,27 +12728,27 @@
         <v>16</v>
       </c>
       <c r="J303" s="3" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="304" spans="1:10" hidden="1">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10">
       <c r="A304" s="4">
         <v>303</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E304" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F304" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G304" s="2" t="s">
         <v>15</v>
@@ -12763,27 +12760,27 @@
         <v>16</v>
       </c>
       <c r="J304" s="3" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="305" spans="1:10" hidden="1">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10">
       <c r="A305" s="4">
         <v>304</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="E305" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F305" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G305" s="2" t="s">
         <v>15</v>
@@ -12795,27 +12792,27 @@
         <v>16</v>
       </c>
       <c r="J305" s="3" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="306" spans="1:10" hidden="1">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10">
       <c r="A306" s="4">
         <v>305</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E306" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F306" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G306" s="2" t="s">
         <v>15</v>
@@ -12827,27 +12824,27 @@
         <v>16</v>
       </c>
       <c r="J306" s="3" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="307" spans="1:10" hidden="1">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10">
       <c r="A307" s="4">
         <v>306</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="E307" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F307" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="G307" s="2" t="s">
         <v>15</v>
@@ -12859,27 +12856,27 @@
         <v>16</v>
       </c>
       <c r="J307" s="3" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="308" spans="1:10" hidden="1">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10">
       <c r="A308" s="4">
         <v>307</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="E308" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F308" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="G308" s="2" t="s">
         <v>15</v>
@@ -12891,27 +12888,27 @@
         <v>16</v>
       </c>
       <c r="J308" s="3" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="309" spans="1:10" hidden="1">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10">
       <c r="A309" s="4">
         <v>308</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E309" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F309" s="1" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="G309" s="2" t="s">
         <v>15</v>
@@ -12923,7 +12920,7 @@
         <v>16</v>
       </c>
       <c r="J309" s="3" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="310" spans="1:10">
@@ -12931,19 +12928,19 @@
         <v>309</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="E310" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F310" s="1" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="G310" s="2" t="s">
         <v>15</v>
@@ -12955,21 +12952,21 @@
         <v>16</v>
       </c>
       <c r="J310" s="3" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="311" spans="1:10" hidden="1">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10">
       <c r="A311" s="4">
         <v>310</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E311" s="1" t="s">
         <v>28</v>
@@ -12987,7 +12984,7 @@
         <v>16</v>
       </c>
       <c r="J311" s="3" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="312" spans="1:10">
@@ -12995,19 +12992,19 @@
         <v>311</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="E312" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F312" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="G312" s="2" t="s">
         <v>15</v>
@@ -13016,10 +13013,10 @@
         <v>45702</v>
       </c>
       <c r="I312" s="9" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="J312" s="3" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="313" spans="1:10">
@@ -13027,19 +13024,19 @@
         <v>312</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="E313" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F313" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="G313" s="2" t="s">
         <v>15</v>
@@ -13048,10 +13045,10 @@
         <v>45702</v>
       </c>
       <c r="I313" s="9" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="J313" s="3" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="314" spans="1:10">
@@ -13059,19 +13056,19 @@
         <v>313</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="E314" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F314" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G314" s="2" t="s">
         <v>15</v>
@@ -13080,10 +13077,10 @@
         <v>45702</v>
       </c>
       <c r="I314" s="9" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="J314" s="3" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="315" spans="1:10">
@@ -13091,19 +13088,19 @@
         <v>314</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="E315" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F315" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="G315" s="2" t="s">
         <v>15</v>
@@ -13115,7 +13112,7 @@
         <v>16</v>
       </c>
       <c r="J315" s="3" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="316" spans="1:10">
@@ -13123,19 +13120,19 @@
         <v>315</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E316" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F316" s="1" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G316" s="2" t="s">
         <v>15</v>
@@ -13144,10 +13141,10 @@
         <v>45726</v>
       </c>
       <c r="I316" s="9" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="J316" s="3" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="317" spans="1:10">
@@ -13155,19 +13152,19 @@
         <v>316</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E317" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F317" s="1" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="G317" s="2" t="s">
         <v>15</v>
@@ -13176,10 +13173,10 @@
         <v>45726</v>
       </c>
       <c r="I317" s="9" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="J317" s="3" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="318" spans="1:10">
@@ -13187,19 +13184,19 @@
         <v>317</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E318" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F318" s="1" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="G318" s="2" t="s">
         <v>15</v>
@@ -13208,10 +13205,10 @@
         <v>45726</v>
       </c>
       <c r="I318" s="9" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="J318" s="3" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="319" spans="1:10">
@@ -13219,13 +13216,13 @@
         <v>318</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E319" s="1" t="s">
         <v>88</v>
@@ -13243,7 +13240,7 @@
         <v>16</v>
       </c>
       <c r="J319" s="3" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="320" spans="1:10">
@@ -13251,19 +13248,19 @@
         <v>319</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="E320" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F320" s="1" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="G320" s="2" t="s">
         <v>15</v>
@@ -13275,7 +13272,7 @@
         <v>16</v>
       </c>
       <c r="J320" s="3" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="321" spans="1:10">
@@ -13283,19 +13280,19 @@
         <v>320</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="E321" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F321" s="1" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="G321" s="2" t="s">
         <v>15</v>
@@ -13307,27 +13304,27 @@
         <v>16</v>
       </c>
       <c r="J321" s="3" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="322" spans="1:10" hidden="1">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="322" spans="1:10">
       <c r="A322" s="4">
         <v>321</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="E322" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F322" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="G322" s="2" t="s">
         <v>15</v>
@@ -13339,27 +13336,27 @@
         <v>16</v>
       </c>
       <c r="J322" s="3" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="323" spans="1:10" hidden="1">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="323" spans="1:10">
       <c r="A323" s="4">
         <v>322</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="E323" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F323" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="G323" s="2" t="s">
         <v>15</v>
@@ -13371,27 +13368,27 @@
         <v>16</v>
       </c>
       <c r="J323" s="3" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="324" spans="1:10" hidden="1">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10">
       <c r="A324" s="4">
         <v>323</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="E324" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F324" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="G324" s="2" t="s">
         <v>15</v>
@@ -13403,27 +13400,27 @@
         <v>16</v>
       </c>
       <c r="J324" s="3" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="325" spans="1:10" hidden="1">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="325" spans="1:10">
       <c r="A325" s="4">
         <v>324</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="E325" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F325" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="G325" s="2" t="s">
         <v>15</v>
@@ -13435,27 +13432,27 @@
         <v>16</v>
       </c>
       <c r="J325" s="3" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="326" spans="1:10" hidden="1">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="326" spans="1:10">
       <c r="A326" s="4">
         <v>325</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="E326" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F326" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="G326" s="2" t="s">
         <v>15</v>
@@ -13467,27 +13464,27 @@
         <v>16</v>
       </c>
       <c r="J326" s="3" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="327" spans="1:10" hidden="1">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="327" spans="1:10">
       <c r="A327" s="4">
         <v>326</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="E327" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F327" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="G327" s="2" t="s">
         <v>15</v>
@@ -13499,27 +13496,27 @@
         <v>16</v>
       </c>
       <c r="J327" s="3" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="328" spans="1:10" hidden="1">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="328" spans="1:10">
       <c r="A328" s="4">
         <v>327</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="E328" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F328" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="G328" s="2" t="s">
         <v>15</v>
@@ -13531,27 +13528,27 @@
         <v>16</v>
       </c>
       <c r="J328" s="3" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="329" spans="1:10" hidden="1">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="329" spans="1:10">
       <c r="A329" s="4">
         <v>328</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="E329" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F329" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="G329" s="2" t="s">
         <v>15</v>
@@ -13563,27 +13560,27 @@
         <v>16</v>
       </c>
       <c r="J329" s="3" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="330" spans="1:10" hidden="1">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10">
       <c r="A330" s="4">
         <v>329</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="E330" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F330" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="G330" s="2" t="s">
         <v>15</v>
@@ -13595,27 +13592,27 @@
         <v>16</v>
       </c>
       <c r="J330" s="3" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="331" spans="1:10" hidden="1">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="331" spans="1:10">
       <c r="A331" s="4">
         <v>330</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="E331" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F331" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="G331" s="2" t="s">
         <v>15</v>
@@ -13627,27 +13624,27 @@
         <v>16</v>
       </c>
       <c r="J331" s="3" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="332" spans="1:10" hidden="1">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="332" spans="1:10">
       <c r="A332" s="4">
         <v>331</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="E332" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F332" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="G332" s="2" t="s">
         <v>15</v>
@@ -13659,27 +13656,27 @@
         <v>16</v>
       </c>
       <c r="J332" s="3" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="333" spans="1:10" hidden="1">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="333" spans="1:10">
       <c r="A333" s="4">
         <v>332</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="E333" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F333" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="G333" s="2" t="s">
         <v>15</v>
@@ -13691,27 +13688,27 @@
         <v>16</v>
       </c>
       <c r="J333" s="3" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="334" spans="1:10" hidden="1">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="334" spans="1:10">
       <c r="A334" s="4">
         <v>333</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="E334" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F334" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="G334" s="2" t="s">
         <v>15</v>
@@ -13723,27 +13720,27 @@
         <v>16</v>
       </c>
       <c r="J334" s="3" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="335" spans="1:10" hidden="1">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="335" spans="1:10">
       <c r="A335" s="4">
         <v>334</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="E335" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F335" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="G335" s="2" t="s">
         <v>15</v>
@@ -13755,27 +13752,27 @@
         <v>16</v>
       </c>
       <c r="J335" s="3" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="336" spans="1:10" hidden="1">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="336" spans="1:10">
       <c r="A336" s="4">
         <v>335</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="E336" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F336" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="G336" s="2" t="s">
         <v>15</v>
@@ -13787,27 +13784,27 @@
         <v>16</v>
       </c>
       <c r="J336" s="3" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="337" spans="1:10" hidden="1">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="337" spans="1:10">
       <c r="A337" s="4">
         <v>336</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="E337" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F337" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="G337" s="2" t="s">
         <v>15</v>
@@ -13819,27 +13816,27 @@
         <v>16</v>
       </c>
       <c r="J337" s="3" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="338" spans="1:10" hidden="1">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="338" spans="1:10">
       <c r="A338" s="4">
         <v>337</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="E338" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F338" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="G338" s="2" t="s">
         <v>15</v>
@@ -13851,27 +13848,27 @@
         <v>16</v>
       </c>
       <c r="J338" s="3" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="339" spans="1:10" hidden="1">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="339" spans="1:10">
       <c r="A339" s="4">
         <v>338</v>
       </c>
       <c r="B339" s="15" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C339" s="15" t="s">
         <v>11</v>
       </c>
       <c r="D339" s="14" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E339" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F339" s="1" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="G339" s="15" t="s">
         <v>15</v>
@@ -13883,7 +13880,7 @@
         <v>16</v>
       </c>
       <c r="J339" s="3" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="340" spans="1:10">
@@ -13891,19 +13888,19 @@
         <v>339</v>
       </c>
       <c r="B340" s="15" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C340" s="15" t="s">
         <v>11</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="E340" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F340" s="1" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="G340" s="15" t="s">
         <v>15</v>
@@ -13915,7 +13912,7 @@
         <v>16</v>
       </c>
       <c r="J340" s="3" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="341" spans="1:10">
@@ -13990,33 +13987,33 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B1" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>666</v>
+      </c>
+      <c r="E1" t="s">
+        <v>667</v>
+      </c>
+      <c r="F1" t="s">
         <v>668</v>
-      </c>
-      <c r="E1" t="s">
-        <v>669</v>
-      </c>
-      <c r="F1" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
+        <v>669</v>
+      </c>
+      <c r="B2" t="s">
+        <v>670</v>
+      </c>
+      <c r="C2" t="s">
         <v>671</v>
-      </c>
-      <c r="B2" t="s">
-        <v>672</v>
-      </c>
-      <c r="C2" t="s">
-        <v>673</v>
       </c>
       <c r="D2">
         <v>1885</v>
@@ -14027,13 +14024,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>669</v>
+      </c>
+      <c r="B3" t="s">
+        <v>670</v>
+      </c>
+      <c r="C3" t="s">
         <v>671</v>
-      </c>
-      <c r="B3" t="s">
-        <v>672</v>
-      </c>
-      <c r="C3" t="s">
-        <v>673</v>
       </c>
       <c r="D3">
         <v>1880</v>
@@ -14044,13 +14041,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>669</v>
+      </c>
+      <c r="B4" t="s">
+        <v>670</v>
+      </c>
+      <c r="C4" t="s">
         <v>671</v>
-      </c>
-      <c r="B4" t="s">
-        <v>672</v>
-      </c>
-      <c r="C4" t="s">
-        <v>673</v>
       </c>
       <c r="D4">
         <v>1881</v>
@@ -14061,13 +14058,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
+        <v>669</v>
+      </c>
+      <c r="B5" t="s">
+        <v>670</v>
+      </c>
+      <c r="C5" t="s">
         <v>671</v>
-      </c>
-      <c r="B5" t="s">
-        <v>672</v>
-      </c>
-      <c r="C5" t="s">
-        <v>673</v>
       </c>
       <c r="D5">
         <v>1890</v>
@@ -14078,13 +14075,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
+        <v>669</v>
+      </c>
+      <c r="B6" t="s">
+        <v>670</v>
+      </c>
+      <c r="C6" t="s">
         <v>671</v>
-      </c>
-      <c r="B6" t="s">
-        <v>672</v>
-      </c>
-      <c r="C6" t="s">
-        <v>673</v>
       </c>
       <c r="D6">
         <v>1878</v>
@@ -14095,13 +14092,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
+        <v>669</v>
+      </c>
+      <c r="B7" t="s">
+        <v>670</v>
+      </c>
+      <c r="C7" t="s">
         <v>671</v>
-      </c>
-      <c r="B7" t="s">
-        <v>672</v>
-      </c>
-      <c r="C7" t="s">
-        <v>673</v>
       </c>
       <c r="D7">
         <v>1883</v>
@@ -14112,16 +14109,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
+        <v>669</v>
+      </c>
+      <c r="B8" t="s">
+        <v>670</v>
+      </c>
+      <c r="C8" t="s">
         <v>671</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" s="23" t="s">
         <v>672</v>
-      </c>
-      <c r="C8" t="s">
-        <v>673</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>674</v>
       </c>
       <c r="F8" s="22">
         <v>1</v>
@@ -14129,13 +14126,13 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
+        <v>669</v>
+      </c>
+      <c r="B9" t="s">
+        <v>670</v>
+      </c>
+      <c r="C9" t="s">
         <v>671</v>
-      </c>
-      <c r="B9" t="s">
-        <v>672</v>
-      </c>
-      <c r="C9" t="s">
-        <v>673</v>
       </c>
       <c r="D9">
         <v>1889</v>
@@ -14146,13 +14143,13 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
+        <v>669</v>
+      </c>
+      <c r="B10" t="s">
+        <v>670</v>
+      </c>
+      <c r="C10" t="s">
         <v>671</v>
-      </c>
-      <c r="B10" t="s">
-        <v>672</v>
-      </c>
-      <c r="C10" t="s">
-        <v>673</v>
       </c>
       <c r="D10">
         <v>1879</v>
@@ -14163,13 +14160,13 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
+        <v>669</v>
+      </c>
+      <c r="B11" t="s">
+        <v>670</v>
+      </c>
+      <c r="C11" t="s">
         <v>671</v>
-      </c>
-      <c r="B11" t="s">
-        <v>672</v>
-      </c>
-      <c r="C11" t="s">
-        <v>673</v>
       </c>
       <c r="D11">
         <v>1891</v>
@@ -14180,13 +14177,13 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
+        <v>669</v>
+      </c>
+      <c r="B12" t="s">
+        <v>670</v>
+      </c>
+      <c r="C12" t="s">
         <v>671</v>
-      </c>
-      <c r="B12" t="s">
-        <v>672</v>
-      </c>
-      <c r="C12" t="s">
-        <v>673</v>
       </c>
       <c r="D12">
         <v>1891</v>
@@ -14197,16 +14194,16 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
+        <v>669</v>
+      </c>
+      <c r="B13" t="s">
+        <v>670</v>
+      </c>
+      <c r="C13" t="s">
         <v>671</v>
       </c>
-      <c r="B13" t="s">
-        <v>672</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="D13" s="23" t="s">
         <v>673</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>675</v>
       </c>
       <c r="F13" s="22">
         <v>1</v>
@@ -14214,13 +14211,13 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
+        <v>669</v>
+      </c>
+      <c r="B14" t="s">
+        <v>670</v>
+      </c>
+      <c r="C14" t="s">
         <v>671</v>
-      </c>
-      <c r="B14" t="s">
-        <v>672</v>
-      </c>
-      <c r="C14" t="s">
-        <v>673</v>
       </c>
       <c r="D14">
         <v>1894</v>
@@ -14231,19 +14228,19 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
+        <v>674</v>
+      </c>
+      <c r="B15" t="s">
+        <v>675</v>
+      </c>
+      <c r="C15" t="s">
         <v>676</v>
       </c>
-      <c r="B15" t="s">
+      <c r="D15" t="s">
         <v>677</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E15" t="s">
         <v>678</v>
-      </c>
-      <c r="D15" t="s">
-        <v>679</v>
-      </c>
-      <c r="E15" t="s">
-        <v>680</v>
       </c>
       <c r="F15" s="22">
         <v>17</v>
@@ -14251,19 +14248,19 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B16" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C16" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="D16" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="E16" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="F16" s="22">
         <v>4</v>
@@ -14271,19 +14268,19 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B17" t="s">
+        <v>681</v>
+      </c>
+      <c r="C17" t="s">
+        <v>682</v>
+      </c>
+      <c r="D17" t="s">
         <v>683</v>
       </c>
-      <c r="C17" t="s">
-        <v>684</v>
-      </c>
-      <c r="D17" t="s">
-        <v>685</v>
-      </c>
       <c r="E17" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="F17" s="22">
         <v>45</v>
@@ -14291,19 +14288,19 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B18" t="s">
+        <v>681</v>
+      </c>
+      <c r="C18" t="s">
+        <v>682</v>
+      </c>
+      <c r="D18" t="s">
         <v>683</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E18" t="s">
         <v>684</v>
-      </c>
-      <c r="D18" t="s">
-        <v>685</v>
-      </c>
-      <c r="E18" t="s">
-        <v>686</v>
       </c>
       <c r="F18" s="22">
         <v>12</v>
@@ -14311,19 +14308,19 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B19" t="s">
+        <v>681</v>
+      </c>
+      <c r="C19" t="s">
+        <v>682</v>
+      </c>
+      <c r="D19" t="s">
         <v>683</v>
       </c>
-      <c r="C19" t="s">
-        <v>684</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>685</v>
-      </c>
-      <c r="E19" t="s">
-        <v>687</v>
       </c>
       <c r="F19" s="22">
         <v>14</v>
@@ -14331,19 +14328,19 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B20" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C20" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D20" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E20" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F20" s="22">
         <v>4</v>
@@ -14351,19 +14348,19 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B21" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C21" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D21" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E21" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="F21" s="22">
         <v>6</v>
@@ -14371,19 +14368,19 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
+        <v>687</v>
+      </c>
+      <c r="B22" t="s">
+        <v>688</v>
+      </c>
+      <c r="C22" t="s">
         <v>689</v>
       </c>
-      <c r="B22" t="s">
+      <c r="D22" t="s">
         <v>690</v>
       </c>
-      <c r="C22" t="s">
-        <v>691</v>
-      </c>
-      <c r="D22" t="s">
-        <v>692</v>
-      </c>
       <c r="E22" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F22" s="22">
         <v>3</v>
@@ -14391,19 +14388,19 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B23" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C23" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="D23" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="E23" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F23" s="22">
         <v>14</v>
@@ -14411,19 +14408,19 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B24" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C24" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="D24" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="E24" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F24" s="22">
         <v>13</v>
@@ -14431,19 +14428,19 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
+        <v>693</v>
+      </c>
+      <c r="B25" t="s">
+        <v>688</v>
+      </c>
+      <c r="C25" t="s">
+        <v>689</v>
+      </c>
+      <c r="D25" t="s">
+        <v>694</v>
+      </c>
+      <c r="E25" t="s">
         <v>695</v>
-      </c>
-      <c r="B25" t="s">
-        <v>690</v>
-      </c>
-      <c r="C25" t="s">
-        <v>691</v>
-      </c>
-      <c r="D25" t="s">
-        <v>696</v>
-      </c>
-      <c r="E25" t="s">
-        <v>697</v>
       </c>
       <c r="F25" s="22">
         <v>2</v>
@@ -14451,19 +14448,19 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
+        <v>687</v>
+      </c>
+      <c r="B26" t="s">
+        <v>688</v>
+      </c>
+      <c r="C26" t="s">
         <v>689</v>
       </c>
-      <c r="B26" t="s">
-        <v>690</v>
-      </c>
-      <c r="C26" t="s">
-        <v>691</v>
-      </c>
       <c r="D26" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E26" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="F26" s="22">
         <v>1</v>

--- a/data_printer.xlsx
+++ b/data_printer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GamErick\Desktop\Nova pasta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A87E5AD-61E3-46D4-A01A-5B57CE2B6DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1F9118-4F5E-4DC7-B1E4-44BABDBF8F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A8AA41B5-7AA1-4FF7-A9B8-54B8A4E1AF28}"/>
   </bookViews>
@@ -1242,9 +1242,6 @@
     <t xml:space="preserve">F_ SUPERINTENDENCIA DA MULHER </t>
   </si>
   <si>
-    <t>INSTALADA DIA 18/03/2024;</t>
-  </si>
-  <si>
     <t>G986XB21673</t>
   </si>
   <si>
@@ -2410,6 +2407,9 @@
   </si>
   <si>
     <t>TROCA EM 08/11/2023 / ESTAVA NA GUARDA CIVIL, EMPRESTADA SEC. MEIO AMBIENTE;</t>
+  </si>
+  <si>
+    <t>INSTALADA DIA 18/03/2024; Retirada da superitendencia da mulher 24/06/2025 para deposito;</t>
   </si>
 </sst>
 </file>
@@ -3299,8 +3299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD39631B-97B8-405A-AA43-14CDFBC77F92}">
   <dimension ref="A1:J341"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A250" workbookViewId="0">
+      <selection activeCell="F264" sqref="F264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -3495,7 +3495,7 @@
         <v>98</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>15</v>
@@ -3539,7 +3539,7 @@
         <v>16</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -3559,7 +3559,7 @@
         <v>88</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>15</v>
@@ -3715,7 +3715,7 @@
         <v>21</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>40</v>
@@ -3747,7 +3747,7 @@
         <v>98</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>15</v>
@@ -3779,7 +3779,7 @@
         <v>21</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>40</v>
@@ -3791,7 +3791,7 @@
         <v>16</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -4326,7 +4326,7 @@
         <v>16</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -4358,7 +4358,7 @@
         <v>100</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -6034,7 +6034,7 @@
         <v>28</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>40</v>
@@ -7092,7 +7092,7 @@
         <v>16</v>
       </c>
       <c r="J122" s="3" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="123" spans="1:10">
@@ -7124,7 +7124,7 @@
         <v>16</v>
       </c>
       <c r="J123" s="3" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="124" spans="1:10">
@@ -7156,7 +7156,7 @@
         <v>16</v>
       </c>
       <c r="J124" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="125" spans="1:10">
@@ -7176,7 +7176,7 @@
         <v>21</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>40</v>
@@ -7188,7 +7188,7 @@
         <v>16</v>
       </c>
       <c r="J125" s="3" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="126" spans="1:10">
@@ -7368,7 +7368,7 @@
         <v>28</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="G131" s="5" t="s">
         <v>15</v>
@@ -7380,7 +7380,7 @@
         <v>16</v>
       </c>
       <c r="J131" s="3" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="132" spans="1:10">
@@ -7636,7 +7636,7 @@
         <v>16</v>
       </c>
       <c r="J139" s="13" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="140" spans="1:10">
@@ -7656,7 +7656,7 @@
         <v>88</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="G140" s="5" t="s">
         <v>15</v>
@@ -7668,7 +7668,7 @@
         <v>16</v>
       </c>
       <c r="J140" s="3" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="141" spans="1:10">
@@ -7772,13 +7772,13 @@
         <v>107</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="G144" s="15" t="s">
         <v>15</v>
@@ -7790,7 +7790,7 @@
         <v>16</v>
       </c>
       <c r="J144" s="3" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="145" spans="1:10">
@@ -7886,7 +7886,7 @@
         <v>16</v>
       </c>
       <c r="J147" s="3" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="148" spans="1:10">
@@ -7979,7 +7979,7 @@
         <v>16</v>
       </c>
       <c r="J150" s="7" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="151" spans="1:10">
@@ -8011,7 +8011,7 @@
         <v>16</v>
       </c>
       <c r="J151" s="3" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="152" spans="1:10">
@@ -8119,7 +8119,7 @@
         <v>13</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G155" s="5" t="s">
         <v>15</v>
@@ -8131,7 +8131,7 @@
         <v>16</v>
       </c>
       <c r="J155" s="3" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="156" spans="1:10">
@@ -8180,7 +8180,7 @@
         <v>13</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="G157" s="5" t="s">
         <v>40</v>
@@ -8192,7 +8192,7 @@
         <v>16</v>
       </c>
       <c r="J157" s="3" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="158" spans="1:10">
@@ -8378,7 +8378,7 @@
         <v>16</v>
       </c>
       <c r="J163" s="3" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="164" spans="1:10">
@@ -9157,7 +9157,9 @@
       <c r="G190" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H190" s="4"/>
+      <c r="H190" s="6">
+        <v>45826</v>
+      </c>
       <c r="I190" s="9" t="s">
         <v>16</v>
       </c>
@@ -9180,7 +9182,7 @@
         <v>88</v>
       </c>
       <c r="F191" s="4" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G191" s="5" t="s">
         <v>15</v>
@@ -9209,12 +9211,14 @@
         <v>88</v>
       </c>
       <c r="F192" s="4" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="G192" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H192" s="4"/>
+      <c r="H192" s="6">
+        <v>45823</v>
+      </c>
       <c r="I192" s="9" t="s">
         <v>16</v>
       </c>
@@ -9233,20 +9237,22 @@
         <v>399</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="F193" s="4" t="s">
-        <v>400</v>
+        <v>32</v>
       </c>
       <c r="G193" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H193" s="4"/>
+      <c r="H193" s="6">
+        <v>45832</v>
+      </c>
       <c r="I193" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J193" s="7" t="s">
-        <v>401</v>
+        <v>790</v>
       </c>
     </row>
     <row r="194" spans="1:10">
@@ -9260,13 +9266,13 @@
         <v>11</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E194" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="G194" s="5" t="s">
         <v>15</v>
@@ -9278,7 +9284,7 @@
         <v>16</v>
       </c>
       <c r="J194" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="195" spans="1:10">
@@ -9292,13 +9298,13 @@
         <v>11</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E195" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G195" s="5" t="s">
         <v>15</v>
@@ -9310,7 +9316,7 @@
         <v>16</v>
       </c>
       <c r="J195" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="196" spans="1:10">
@@ -9324,7 +9330,7 @@
         <v>11</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E196" s="1" t="s">
         <v>28</v>
@@ -9342,7 +9348,7 @@
         <v>16</v>
       </c>
       <c r="J196" s="7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="197" spans="1:10">
@@ -9356,13 +9362,13 @@
         <v>11</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E197" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="G197" s="5" t="s">
         <v>15</v>
@@ -9374,7 +9380,7 @@
         <v>16</v>
       </c>
       <c r="J197" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="198" spans="1:10">
@@ -9388,7 +9394,7 @@
         <v>11</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E198" s="1" t="s">
         <v>28</v>
@@ -9406,7 +9412,7 @@
         <v>16</v>
       </c>
       <c r="J198" s="3" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="199" spans="1:10">
@@ -9420,7 +9426,7 @@
         <v>11</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E199" s="4" t="s">
         <v>88</v>
@@ -9438,7 +9444,7 @@
         <v>16</v>
       </c>
       <c r="J199" s="3" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="200" spans="1:10">
@@ -9452,7 +9458,7 @@
         <v>11</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E200" s="1" t="s">
         <v>28</v>
@@ -9470,7 +9476,7 @@
         <v>16</v>
       </c>
       <c r="J200" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="201" spans="1:10">
@@ -9484,13 +9490,13 @@
         <v>11</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E201" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G201" s="5" t="s">
         <v>15</v>
@@ -9502,7 +9508,7 @@
         <v>16</v>
       </c>
       <c r="J201" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="202" spans="1:10">
@@ -9516,7 +9522,7 @@
         <v>11</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E202" s="1" t="s">
         <v>28</v>
@@ -9534,7 +9540,7 @@
         <v>16</v>
       </c>
       <c r="J202" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="203" spans="1:10">
@@ -9548,7 +9554,7 @@
         <v>11</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E203" s="1" t="s">
         <v>28</v>
@@ -9566,7 +9572,7 @@
         <v>16</v>
       </c>
       <c r="J203" s="3" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="204" spans="1:10">
@@ -9580,7 +9586,7 @@
         <v>11</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E204" s="1" t="s">
         <v>28</v>
@@ -9598,7 +9604,7 @@
         <v>16</v>
       </c>
       <c r="J204" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="205" spans="1:10">
@@ -9612,7 +9618,7 @@
         <v>11</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E205" s="1" t="s">
         <v>28</v>
@@ -9630,7 +9636,7 @@
         <v>16</v>
       </c>
       <c r="J205" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="206" spans="1:10">
@@ -9644,7 +9650,7 @@
         <v>11</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E206" s="1" t="s">
         <v>28</v>
@@ -9662,7 +9668,7 @@
         <v>16</v>
       </c>
       <c r="J206" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="207" spans="1:10">
@@ -9676,7 +9682,7 @@
         <v>11</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E207" s="1" t="s">
         <v>28</v>
@@ -9694,7 +9700,7 @@
         <v>16</v>
       </c>
       <c r="J207" s="3" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="208" spans="1:10">
@@ -9708,7 +9714,7 @@
         <v>11</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E208" s="1" t="s">
         <v>28</v>
@@ -9726,7 +9732,7 @@
         <v>16</v>
       </c>
       <c r="J208" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="209" spans="1:10">
@@ -9740,7 +9746,7 @@
         <v>11</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E209" s="1" t="s">
         <v>28</v>
@@ -9758,7 +9764,7 @@
         <v>16</v>
       </c>
       <c r="J209" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="210" spans="1:10">
@@ -9772,13 +9778,13 @@
         <v>11</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E210" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G210" s="5" t="s">
         <v>15</v>
@@ -9787,10 +9793,10 @@
         <v>45545</v>
       </c>
       <c r="I210" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="J210" s="3" t="s">
         <v>434</v>
-      </c>
-      <c r="J210" s="3" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="211" spans="1:10">
@@ -9804,7 +9810,7 @@
         <v>11</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E211" s="1" t="s">
         <v>28</v>
@@ -9822,7 +9828,7 @@
         <v>16</v>
       </c>
       <c r="J211" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="212" spans="1:10">
@@ -9836,7 +9842,7 @@
         <v>11</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E212" s="1" t="s">
         <v>28</v>
@@ -9854,7 +9860,7 @@
         <v>16</v>
       </c>
       <c r="J212" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="213" spans="1:10">
@@ -9868,7 +9874,7 @@
         <v>11</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E213" s="1" t="s">
         <v>28</v>
@@ -9886,7 +9892,7 @@
         <v>16</v>
       </c>
       <c r="J213" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="214" spans="1:10">
@@ -9900,7 +9906,7 @@
         <v>11</v>
       </c>
       <c r="D214" s="18" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E214" s="1" t="s">
         <v>28</v>
@@ -9918,7 +9924,7 @@
         <v>16</v>
       </c>
       <c r="J214" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="215" spans="1:10">
@@ -9932,7 +9938,7 @@
         <v>11</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E215" s="1" t="s">
         <v>28</v>
@@ -9950,7 +9956,7 @@
         <v>16</v>
       </c>
       <c r="J215" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="216" spans="1:10">
@@ -9964,7 +9970,7 @@
         <v>11</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E216" s="1" t="s">
         <v>28</v>
@@ -9982,7 +9988,7 @@
         <v>16</v>
       </c>
       <c r="J216" s="3" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="217" spans="1:10">
@@ -9996,13 +10002,13 @@
         <v>107</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E217" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="G217" s="5" t="s">
         <v>15</v>
@@ -10025,7 +10031,7 @@
         <v>11</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E218" s="1" t="s">
         <v>28</v>
@@ -10043,7 +10049,7 @@
         <v>16</v>
       </c>
       <c r="J218" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="219" spans="1:10">
@@ -10057,13 +10063,13 @@
         <v>11</v>
       </c>
       <c r="D219" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="E219" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="E219" s="1" t="s">
-        <v>451</v>
-      </c>
       <c r="F219" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="G219" s="5" t="s">
         <v>15</v>
@@ -10086,13 +10092,13 @@
         <v>11</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E220" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G220" s="5" t="s">
         <v>15</v>
@@ -10104,7 +10110,7 @@
         <v>16</v>
       </c>
       <c r="J220" s="3" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="221" spans="1:10">
@@ -10118,7 +10124,7 @@
         <v>11</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E221" s="1" t="s">
         <v>28</v>
@@ -10147,7 +10153,7 @@
         <v>11</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E222" s="1" t="s">
         <v>28</v>
@@ -10165,7 +10171,7 @@
         <v>16</v>
       </c>
       <c r="J222" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="223" spans="1:10">
@@ -10179,7 +10185,7 @@
         <v>11</v>
       </c>
       <c r="D223" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E223" s="1" t="s">
         <v>28</v>
@@ -10209,7 +10215,7 @@
         <v>11</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E224" s="1" t="s">
         <v>21</v>
@@ -10227,7 +10233,7 @@
         <v>16</v>
       </c>
       <c r="J224" s="7" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="225" spans="1:10">
@@ -10241,7 +10247,7 @@
         <v>11</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E225" s="1" t="s">
         <v>28</v>
@@ -10273,7 +10279,7 @@
         <v>11</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E226" s="1" t="s">
         <v>28</v>
@@ -10291,7 +10297,7 @@
         <v>16</v>
       </c>
       <c r="J226" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="227" spans="1:10">
@@ -10305,7 +10311,7 @@
         <v>11</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E227" s="1" t="s">
         <v>28</v>
@@ -10323,7 +10329,7 @@
         <v>16</v>
       </c>
       <c r="J227" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="228" spans="1:10">
@@ -10337,7 +10343,7 @@
         <v>11</v>
       </c>
       <c r="D228" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E228" s="1" t="s">
         <v>28</v>
@@ -10355,7 +10361,7 @@
         <v>16</v>
       </c>
       <c r="J228" s="8" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="229" spans="1:10">
@@ -10363,19 +10369,19 @@
         <v>228</v>
       </c>
       <c r="B229" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D229" s="14" t="s">
         <v>466</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D229" s="14" t="s">
-        <v>467</v>
       </c>
       <c r="E229" s="14" t="s">
         <v>13</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="G229" s="15" t="s">
         <v>15</v>
@@ -10387,7 +10393,7 @@
         <v>16</v>
       </c>
       <c r="J229" s="8" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="230" spans="1:10">
@@ -10395,19 +10401,19 @@
         <v>229</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E230" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G230" s="2" t="s">
         <v>15</v>
@@ -10416,7 +10422,7 @@
         <v>45797</v>
       </c>
       <c r="I230" s="9" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="J230" s="24"/>
     </row>
@@ -10425,19 +10431,19 @@
         <v>230</v>
       </c>
       <c r="B231" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="C231" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D231" s="1" t="s">
         <v>723</v>
-      </c>
-      <c r="C231" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D231" s="1" t="s">
-        <v>724</v>
       </c>
       <c r="E231" s="14" t="s">
         <v>13</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G231" s="15" t="s">
         <v>15</v>
@@ -10449,7 +10455,7 @@
         <v>16</v>
       </c>
       <c r="J231" s="8" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="232" spans="1:10">
@@ -10457,13 +10463,13 @@
         <v>231</v>
       </c>
       <c r="B232" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D232" s="1" t="s">
         <v>468</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D232" s="1" t="s">
-        <v>469</v>
       </c>
       <c r="E232" s="1" t="s">
         <v>28</v>
@@ -10481,7 +10487,7 @@
         <v>16</v>
       </c>
       <c r="J232" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="233" spans="1:10">
@@ -10489,13 +10495,13 @@
         <v>232</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E233" s="1" t="s">
         <v>28</v>
@@ -10513,7 +10519,7 @@
         <v>16</v>
       </c>
       <c r="J233" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="234" spans="1:10">
@@ -10521,13 +10527,13 @@
         <v>233</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E234" s="1" t="s">
         <v>28</v>
@@ -10545,7 +10551,7 @@
         <v>16</v>
       </c>
       <c r="J234" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="235" spans="1:10">
@@ -10565,7 +10571,7 @@
         <v>21</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G235" s="2" t="s">
         <v>21</v>
@@ -10577,7 +10583,7 @@
         <v>16</v>
       </c>
       <c r="J235" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="236" spans="1:10">
@@ -10585,13 +10591,13 @@
         <v>235</v>
       </c>
       <c r="B236" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D236" s="1" t="s">
         <v>477</v>
-      </c>
-      <c r="C236" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D236" s="1" t="s">
-        <v>478</v>
       </c>
       <c r="E236" s="1" t="s">
         <v>28</v>
@@ -10614,19 +10620,19 @@
         <v>236</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>107</v>
       </c>
       <c r="D237" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="F237" s="1" t="s">
         <v>480</v>
-      </c>
-      <c r="E237" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="F237" s="1" t="s">
-        <v>481</v>
       </c>
       <c r="G237" s="5" t="s">
         <v>15</v>
@@ -10643,13 +10649,13 @@
         <v>237</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>107</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E238" s="1" t="s">
         <v>191</v>
@@ -10667,7 +10673,7 @@
         <v>16</v>
       </c>
       <c r="J238" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="239" spans="1:10">
@@ -10675,13 +10681,13 @@
         <v>238</v>
       </c>
       <c r="B239" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D239" s="1" t="s">
         <v>485</v>
-      </c>
-      <c r="C239" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D239" s="1" t="s">
-        <v>486</v>
       </c>
       <c r="E239" s="1" t="s">
         <v>28</v>
@@ -10699,7 +10705,7 @@
         <v>16</v>
       </c>
       <c r="J239" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="240" spans="1:10">
@@ -10713,13 +10719,13 @@
         <v>11</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E240" s="1" t="s">
         <v>195</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G240" s="2" t="s">
         <v>40</v>
@@ -10728,7 +10734,7 @@
         <v>16</v>
       </c>
       <c r="J240" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="241" spans="1:10">
@@ -10742,13 +10748,13 @@
         <v>11</v>
       </c>
       <c r="D241" s="20" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E241" s="1" t="s">
         <v>195</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G241" s="2" t="s">
         <v>40</v>
@@ -10760,7 +10766,7 @@
         <v>16</v>
       </c>
       <c r="J241" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="242" spans="1:10">
@@ -10774,13 +10780,13 @@
         <v>11</v>
       </c>
       <c r="D242" s="20" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E242" s="1" t="s">
         <v>195</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G242" s="2" t="s">
         <v>40</v>
@@ -10803,13 +10809,13 @@
         <v>11</v>
       </c>
       <c r="D243" s="20" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E243" s="1" t="s">
         <v>195</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G243" s="2" t="s">
         <v>40</v>
@@ -10818,7 +10824,7 @@
         <v>16</v>
       </c>
       <c r="J243" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="244" spans="1:10">
@@ -10832,7 +10838,7 @@
         <v>107</v>
       </c>
       <c r="D244" s="25" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E244" s="1" t="s">
         <v>191</v>
@@ -10860,13 +10866,13 @@
         <v>107</v>
       </c>
       <c r="D245" s="20" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E245" s="1" t="s">
         <v>195</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G245" s="5" t="s">
         <v>40</v>
@@ -10886,13 +10892,13 @@
         <v>107</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E246" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="G246" s="5" t="s">
         <v>15</v>
@@ -10904,7 +10910,7 @@
         <v>16</v>
       </c>
       <c r="J246" s="3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="247" spans="1:10">
@@ -10918,13 +10924,13 @@
         <v>107</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E247" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G247" s="5" t="s">
         <v>15</v>
@@ -10936,7 +10942,7 @@
         <v>16</v>
       </c>
       <c r="J247" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="248" spans="1:10">
@@ -10950,7 +10956,7 @@
         <v>11</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E248" s="1" t="s">
         <v>28</v>
@@ -10968,7 +10974,7 @@
         <v>16</v>
       </c>
       <c r="J248" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="249" spans="1:10">
@@ -10976,13 +10982,13 @@
         <v>248</v>
       </c>
       <c r="B249" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D249" s="1" t="s">
         <v>504</v>
-      </c>
-      <c r="C249" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D249" s="1" t="s">
-        <v>505</v>
       </c>
       <c r="E249" s="26" t="s">
         <v>191</v>
@@ -11000,7 +11006,7 @@
         <v>16</v>
       </c>
       <c r="J249" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="250" spans="1:10">
@@ -11008,13 +11014,13 @@
         <v>249</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E250" s="1" t="s">
         <v>38</v>
@@ -11032,7 +11038,7 @@
         <v>209</v>
       </c>
       <c r="J250" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="251" spans="1:10">
@@ -11040,13 +11046,13 @@
         <v>250</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E251" s="1" t="s">
         <v>191</v>
@@ -11064,7 +11070,7 @@
         <v>209</v>
       </c>
       <c r="J251" s="3" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="252" spans="1:10">
@@ -11072,13 +11078,13 @@
         <v>251</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E252" s="1" t="s">
         <v>38</v>
@@ -11096,7 +11102,7 @@
         <v>16</v>
       </c>
       <c r="J252" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="253" spans="1:10">
@@ -11104,13 +11110,13 @@
         <v>252</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D253" s="18" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E253" s="1" t="s">
         <v>38</v>
@@ -11128,7 +11134,7 @@
         <v>209</v>
       </c>
       <c r="J253" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="254" spans="1:10">
@@ -11142,7 +11148,7 @@
         <v>11</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E254" s="1" t="s">
         <v>28</v>
@@ -11160,7 +11166,7 @@
         <v>16</v>
       </c>
       <c r="J254" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="255" spans="1:10">
@@ -11174,13 +11180,13 @@
         <v>11</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E255" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G255" s="5" t="s">
         <v>15</v>
@@ -11192,7 +11198,7 @@
         <v>16</v>
       </c>
       <c r="J255" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="256" spans="1:10">
@@ -11200,13 +11206,13 @@
         <v>255</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>107</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E256" s="1" t="s">
         <v>28</v>
@@ -11224,7 +11230,7 @@
         <v>16</v>
       </c>
       <c r="J256" s="3" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="257" spans="1:10">
@@ -11232,19 +11238,19 @@
         <v>256</v>
       </c>
       <c r="B257" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D257" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="C257" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D257" s="1" t="s">
+      <c r="E257" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F257" s="1" t="s">
         <v>521</v>
-      </c>
-      <c r="E257" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F257" s="1" t="s">
-        <v>522</v>
       </c>
       <c r="G257" s="5" t="s">
         <v>15</v>
@@ -11256,7 +11262,7 @@
         <v>16</v>
       </c>
       <c r="J257" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="258" spans="1:10">
@@ -11270,7 +11276,7 @@
         <v>107</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E258" s="1" t="s">
         <v>13</v>
@@ -11288,7 +11294,7 @@
         <v>16</v>
       </c>
       <c r="J258" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="259" spans="1:10">
@@ -11302,13 +11308,13 @@
         <v>107</v>
       </c>
       <c r="D259" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="E259" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F259" s="1" t="s">
         <v>526</v>
-      </c>
-      <c r="E259" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F259" s="1" t="s">
-        <v>527</v>
       </c>
       <c r="G259" s="5" t="s">
         <v>15</v>
@@ -11320,7 +11326,7 @@
         <v>16</v>
       </c>
       <c r="J259" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="260" spans="1:10">
@@ -11334,7 +11340,7 @@
         <v>11</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E260" s="1" t="s">
         <v>28</v>
@@ -11352,7 +11358,7 @@
         <v>16</v>
       </c>
       <c r="J260" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="261" spans="1:10">
@@ -11366,7 +11372,7 @@
         <v>11</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E261" s="1" t="s">
         <v>28</v>
@@ -11384,7 +11390,7 @@
         <v>16</v>
       </c>
       <c r="J261" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="262" spans="1:10">
@@ -11392,19 +11398,19 @@
         <v>261</v>
       </c>
       <c r="B262" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D262" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="C262" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D262" s="1" t="s">
-        <v>534</v>
-      </c>
       <c r="E262" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="G262" s="2" t="s">
         <v>15</v>
@@ -11416,7 +11422,7 @@
         <v>16</v>
       </c>
       <c r="J262" s="3" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="263" spans="1:10">
@@ -11424,19 +11430,19 @@
         <v>262</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E263" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G263" s="2" t="s">
         <v>15</v>
@@ -11448,7 +11454,7 @@
         <v>16</v>
       </c>
       <c r="J263" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="264" spans="1:10">
@@ -11456,31 +11462,31 @@
         <v>263</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>32</v>
+        <v>400</v>
       </c>
       <c r="G264" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H264" s="9">
-        <v>45744</v>
+        <v>45832</v>
       </c>
       <c r="I264" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J264" s="3" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="265" spans="1:10">
@@ -11488,19 +11494,19 @@
         <v>264</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E265" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F265" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G265" s="2" t="s">
         <v>15</v>
@@ -11512,7 +11518,7 @@
         <v>16</v>
       </c>
       <c r="J265" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="266" spans="1:10">
@@ -11520,19 +11526,19 @@
         <v>265</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E266" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F266" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G266" s="2" t="s">
         <v>15</v>
@@ -11544,7 +11550,7 @@
         <v>16</v>
       </c>
       <c r="J266" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="267" spans="1:10">
@@ -11552,19 +11558,19 @@
         <v>266</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E267" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F267" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="G267" s="2" t="s">
         <v>15</v>
@@ -11576,7 +11582,7 @@
         <v>16</v>
       </c>
       <c r="J267" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="268" spans="1:10">
@@ -11584,19 +11590,19 @@
         <v>267</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E268" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G268" s="2" t="s">
         <v>15</v>
@@ -11608,7 +11614,7 @@
         <v>16</v>
       </c>
       <c r="J268" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="269" spans="1:10">
@@ -11616,19 +11622,19 @@
         <v>268</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E269" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G269" s="2" t="s">
         <v>15</v>
@@ -11640,7 +11646,7 @@
         <v>16</v>
       </c>
       <c r="J269" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="270" spans="1:10">
@@ -11648,19 +11654,19 @@
         <v>269</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E270" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F270" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G270" s="2" t="s">
         <v>15</v>
@@ -11672,7 +11678,7 @@
         <v>16</v>
       </c>
       <c r="J270" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="271" spans="1:10">
@@ -11680,19 +11686,19 @@
         <v>270</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E271" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F271" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G271" s="2" t="s">
         <v>15</v>
@@ -11704,7 +11710,7 @@
         <v>16</v>
       </c>
       <c r="J271" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="272" spans="1:10">
@@ -11712,19 +11718,19 @@
         <v>271</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E272" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F272" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G272" s="2" t="s">
         <v>15</v>
@@ -11736,7 +11742,7 @@
         <v>16</v>
       </c>
       <c r="J272" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="273" spans="1:10">
@@ -11744,19 +11750,19 @@
         <v>272</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E273" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F273" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="G273" s="2" t="s">
         <v>15</v>
@@ -11768,7 +11774,7 @@
         <v>16</v>
       </c>
       <c r="J273" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="274" spans="1:10">
@@ -11776,19 +11782,19 @@
         <v>273</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E274" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G274" s="2" t="s">
         <v>15</v>
@@ -11800,7 +11806,7 @@
         <v>16</v>
       </c>
       <c r="J274" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="275" spans="1:10">
@@ -11808,19 +11814,19 @@
         <v>274</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E275" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F275" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G275" s="2" t="s">
         <v>15</v>
@@ -11832,7 +11838,7 @@
         <v>16</v>
       </c>
       <c r="J275" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="276" spans="1:10">
@@ -11840,19 +11846,19 @@
         <v>275</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E276" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F276" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G276" s="2" t="s">
         <v>15</v>
@@ -11864,7 +11870,7 @@
         <v>16</v>
       </c>
       <c r="J276" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="277" spans="1:10">
@@ -11872,19 +11878,19 @@
         <v>276</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E277" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F277" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G277" s="2" t="s">
         <v>15</v>
@@ -11896,7 +11902,7 @@
         <v>16</v>
       </c>
       <c r="J277" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="278" spans="1:10">
@@ -11904,19 +11910,19 @@
         <v>277</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E278" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F278" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G278" s="2" t="s">
         <v>15</v>
@@ -11928,7 +11934,7 @@
         <v>16</v>
       </c>
       <c r="J278" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="279" spans="1:10">
@@ -11936,19 +11942,19 @@
         <v>278</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D279" s="21" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E279" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F279" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G279" s="2" t="s">
         <v>15</v>
@@ -11960,7 +11966,7 @@
         <v>16</v>
       </c>
       <c r="J279" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="280" spans="1:10">
@@ -11968,19 +11974,19 @@
         <v>279</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E280" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F280" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G280" s="2" t="s">
         <v>15</v>
@@ -11992,7 +11998,7 @@
         <v>16</v>
       </c>
       <c r="J280" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="281" spans="1:10">
@@ -12000,19 +12006,19 @@
         <v>280</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E281" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F281" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G281" s="2" t="s">
         <v>15</v>
@@ -12024,7 +12030,7 @@
         <v>16</v>
       </c>
       <c r="J281" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="282" spans="1:10">
@@ -12032,19 +12038,19 @@
         <v>281</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E282" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F282" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G282" s="2" t="s">
         <v>15</v>
@@ -12056,7 +12062,7 @@
         <v>16</v>
       </c>
       <c r="J282" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="283" spans="1:10">
@@ -12064,19 +12070,19 @@
         <v>282</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D283" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="E283" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="F283" s="1" t="s">
         <v>582</v>
-      </c>
-      <c r="E283" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="F283" s="1" t="s">
-        <v>583</v>
       </c>
       <c r="G283" s="2" t="s">
         <v>15</v>
@@ -12085,10 +12091,10 @@
         <v>45607</v>
       </c>
       <c r="I283